--- a/process/configuration/templates/_report_configuration.xlsx
+++ b/process/configuration/templates/_report_configuration.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rmiteduau-my.sharepoint.com/personal/carl_higgs_rmit_edu_au/Documents/projects/global-indicators/process/configuration/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rmiteduau-my.sharepoint.com/personal/carl_higgs_rmit_edu_au/Documents/projects/global-indicators/process/configuration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3610" documentId="13_ncr:1_{359C2F2A-CF47-4184-8CC1-6CC8B0EC5B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD840469-153D-49A2-B6B9-7801044D6AC2}"/>
+  <xr:revisionPtr revIDLastSave="3619" documentId="13_ncr:1_{359C2F2A-CF47-4184-8CC1-6CC8B0EC5B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE17609A-7BB1-4731-A18B-E7B11C5B24C5}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="template_web" sheetId="1" r:id="rId1"/>
@@ -5586,9 +5586,6 @@
     <t>The availability and quality of urban and transport policies supporting health and sustainability in Belfast is well above average compared with other cities studied. Yet despite Belfast having many standards for built environment features to create walkable cities, with the exception of public open space policies, their appears to be a lack of measureable policy targets. Nonetheless, relative to the 25 cities in this international study, the majority of neighbourhoods in Belfast are walkable, although less so in the south and on the urban fringe. In terms of thresholds to achieve WHO targets to increase physical activity, 40% of Belfast residents live in neighbourhoods meeting population density thresholds and three quarters in neighbourhoods meeting street connectivity thresholds. Almost three quarters of residents also have access to public transport stops with regular services. However, compared with other cities, fewer residents have some public open space within 500m, and only 47% who have access to larger public open space. Moreover, access to larger public open space is spatially patterned with some areas poorly served. Compared with other cities studied, the proportion of the population in Belfast with access within 500m to a food market and any public open space is below average.</t>
   </si>
   <si>
-    <t>The availability of urban and transport policies supporting health and sustainability in Ghent is just below average compared with other cities. However, the quality of available policies in terms of their specificity, measurability and consistency with health evidence is slightly above average. Ghent does not appear to require health impact assessments of urban and transport interventions. It also appears to lack specific standards or measurable targets for public transport policies. Nonetheless, relative to the 25 cities in this international study, many neighbourhoods in Ghent are highly walkable, with lower walkability on the urban fringe. In terms of thresholds to achieve WHO targets to increase physical activity, no residents of Ghent live neighbourhoods meeting density thresholds, although only 55% live in neighbourhoods meeting street connectivity thresholds. The majority of residents (87%) have access to public transport stops within 500m, although frequency of service data were not available. While the vast majority of residents have access to some public open space within 500m, only 63% live within 500m of a larger public open space. The latter appears to be spatially patterned. Compared with other cities studied, the proportion of the population in Ghent with access to food markets and large public open space within 500m is above average.</t>
-  </si>
-  <si>
     <t xml:space="preserve">The availability and quality of urban and transport policies supporting health and sustainability in Graz is well above average compared with other cities studied. However, Graz does not appear to have policies requiring health impact assessments of urban and transport interventions, and information on expenditure on transport infrastructure by mode was not identified. It also appears to lack measurable targets for some walkability-related and public transport standards. Nonetheless, most neighbourhoods in Graz are highly walkable relative to the 25 cities in this international study. In terms of thresholds to achieve WHO targets to increase physical activity, 44% of residents in Graz live in neighbourhoods meeting density thresholds, and 81.3% live in neighbourhoods meeting street connectivity thresholds. The vast majority of residents (92%) have access to public transport stops within 500m, although frequency of service data were not available. While the vast majority of residents also have access to some public open space within 500m, only 39% live within 500m of a larger public open space, and this access appears to be markedly spatially patterned, with access high in the city's north and along the Mur river, but lower in the south, particularly west of the Mur. Compared with other cities studied, the proportion of the population in Graz with access to large public open space is below average. </t>
   </si>
   <si>
@@ -6168,9 +6165,6 @@
     <t>barcelona</t>
   </si>
   <si>
-    <t>valencia</t>
-  </si>
-  <si>
     <t>vic</t>
   </si>
   <si>
@@ -6192,9 +6186,6 @@
     <t>auckland</t>
   </si>
   <si>
-    <t>ghent_v2</t>
-  </si>
-  <si>
     <t>maiduguri - Country</t>
   </si>
   <si>
@@ -6228,9 +6219,6 @@
     <t>graz - Country</t>
   </si>
   <si>
-    <t>ghent_v2 - Country</t>
-  </si>
-  <si>
     <t>bern - Country</t>
   </si>
   <si>
@@ -6246,9 +6234,6 @@
     <t>barcelona - Country</t>
   </si>
   <si>
-    <t>valencia - Country</t>
-  </si>
-  <si>
     <t>vic - Country</t>
   </si>
   <si>
@@ -6322,13 +6307,28 @@
   </si>
   <si>
     <t>{"study_citations":"||The Lancet Global Health Series on urban design, transport, and health. 2022. https://www.thelancet.com/series/urban-design-2022 ||Global Observatory of Healthy &amp; Sustainable Cities. 2022. https://www.healthysustainablecities.org","citation_doi":"Global Healthy &amp; Sustainable City-Indicators Collaboration. 2022. {title_city}, {country}—Healthy and Sustainable City Indicators Report: Comparisons with 25 cities internationally ({vernacular}). {city_doi}","citations":"{citation_series}: {study_citations}||{citation_population}: Schiavina, M. et al. (2019): GHS population grid multitemporal (1975, 1990, 2000, 2015) R2019A. European Commission, Joint Research Centre (JRC). https://doi.org/10.2905/42E8BE89-54FF-464E-BE7B-BF9E64DA5218 |{citation_boundaries}: Florczyk, A. et al. (2019): GHS Urban Centre Database 2015, multitemporal and multidimensional attributes, R2019A. European Commission, Joint Research Centre (JRC). https://data.jrc.ec.europa.eu/dataset/53473144-b88c-44bc-b4a3-4583ed1f547e |{citation_features}: OpenStreetMap contributors. Openstreetmap (2020). https://planet.osm.org/pbf/planet-200803.osm.pbf.torrent |{citation_colour}: Crameri, F. (2018). Scientific colour-maps (3.0.4). Zenodo. https://doi.org/10.5281/zenodo.1287763"}</t>
+  </si>
+  <si>
+    <t>valencia_2022</t>
+  </si>
+  <si>
+    <t>valencia_2022 - Country</t>
+  </si>
+  <si>
+    <t>ghent_2022</t>
+  </si>
+  <si>
+    <t>ghent_2022 - Country</t>
+  </si>
+  <si>
+    <t>The availability of urban and transport policies supporting health and sustainability in Ghent is just below average compared with other cities. However, the quality of available policies in terms of their specificity, measurability and consistency with health evidence is slightly above average. Ghent does not appear to require health impact assessments of urban and transport interventions. It also appears to lack specific standards or measurable targets for public transport policies. Nonetheless, relative to the 25 cities in this international study, many neighbourhoods in Ghent are highly walkable, with lower walkability on the urban fringe. In terms of thresholds to achieve WHO targets to increase physical activity, only 2% residents of Ghent live neighbourhoods meeting density thresholds, although 81% live in neighbourhoods meeting street connectivity thresholds. The majority of residents (87%) have access to public transport stops within 500m, although frequency of service data were not available. While the vast majority of residents have access to some public open space within 500m, only 62% live within 500m of a larger public open space. The latter appears to be spatially patterned. Compared with other cities studied, the proportion of the population in Ghent with access to food markets and large public open space within 500m is above average.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7883,19 +7883,19 @@
   <dimension ref="A1:V194"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B176" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P16" sqref="P16"/>
+      <selection pane="bottomRight" activeCell="A191" sqref="A191"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="48.140625" customWidth="1"/>
     <col min="16" max="16" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="4" customFormat="1">
+    <row r="1" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -7957,7 +7957,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -8013,7 +8013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -8073,7 +8073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -8133,7 +8133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -8193,7 +8193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>336</v>
       </c>
@@ -8251,7 +8251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>337</v>
       </c>
@@ -8308,7 +8308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -8366,7 +8366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -8419,7 +8419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>67</v>
       </c>
@@ -8476,7 +8476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1468</v>
       </c>
@@ -8534,7 +8534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -8575,7 +8575,7 @@
         <v>26</v>
       </c>
       <c r="P12" t="s">
-        <v>2049</v>
+        <v>2044</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -8590,7 +8590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>169</v>
       </c>
@@ -8633,7 +8633,7 @@
         <v>28</v>
       </c>
       <c r="P13" t="s">
-        <v>2050</v>
+        <v>2045</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -8648,7 +8648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -8705,7 +8705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>802</v>
       </c>
@@ -8761,7 +8761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>804</v>
       </c>
@@ -8818,7 +8818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1471</v>
       </c>
@@ -8875,7 +8875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1472</v>
       </c>
@@ -8934,7 +8934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>803</v>
       </c>
@@ -8991,7 +8991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>805</v>
       </c>
@@ -9048,7 +9048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>858</v>
       </c>
@@ -9105,7 +9105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>815</v>
       </c>
@@ -9162,7 +9162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:22">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>1495</v>
       </c>
@@ -9219,7 +9219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:22">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>817</v>
       </c>
@@ -9272,7 +9272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:22">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -9328,9 +9328,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:22">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="B26">
         <v>3</v>
@@ -9391,7 +9391,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:22">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>247</v>
       </c>
@@ -9451,7 +9451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:22">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -9511,7 +9511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:22">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -9568,7 +9568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:22">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -9624,7 +9624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:22">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>207</v>
       </c>
@@ -9683,7 +9683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:22">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>65</v>
       </c>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -9800,7 +9800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>208</v>
       </c>
@@ -9859,7 +9859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>66</v>
       </c>
@@ -9916,7 +9916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>837</v>
       </c>
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>838</v>
       </c>
@@ -10033,7 +10033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>179</v>
       </c>
@@ -10093,7 +10093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>53</v>
       </c>
@@ -10150,7 +10150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:20">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -10210,7 +10210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>210</v>
       </c>
@@ -10272,7 +10272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>209</v>
       </c>
@@ -10334,7 +10334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -10391,7 +10391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>64</v>
       </c>
@@ -10447,7 +10447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:20">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>819</v>
       </c>
@@ -10510,7 +10510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:20">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>821</v>
       </c>
@@ -10570,7 +10570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:20">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>820</v>
       </c>
@@ -10633,7 +10633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:20">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <f>_xlfn.CONCAT("policy_urban_text",MID(A47,LEN("policy_urban_text")+1,1),"_middle")</f>
         <v>policy_urban_text1_middle</v>
@@ -10695,7 +10695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:20">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <f>_xlfn.CONCAT("policy_urban_text",MID(A48,LEN("policy_urban_text")+1,1),"_upper")</f>
         <v>policy_urban_text1_upper</v>
@@ -10757,7 +10757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:20">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>822</v>
       </c>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:20">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>824</v>
       </c>
@@ -10880,7 +10880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:20">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>823</v>
       </c>
@@ -10943,7 +10943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:20">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
         <f>_xlfn.CONCAT("policy_urban_text",MID(A52,LEN("policy_urban_text")+1,1),"_middle")</f>
         <v>policy_urban_text2_middle</v>
@@ -11005,7 +11005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:20">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
         <f>_xlfn.CONCAT("policy_urban_text",MID(A53,LEN("policy_urban_text")+1,1),"_upper")</f>
         <v>policy_urban_text2_upper</v>
@@ -11067,7 +11067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:20">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>825</v>
       </c>
@@ -11130,7 +11130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:20">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>827</v>
       </c>
@@ -11190,7 +11190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:20">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>826</v>
       </c>
@@ -11253,7 +11253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:20">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
         <f>_xlfn.CONCAT("policy_urban_text",MID(A57,LEN("policy_urban_text")+1,1),"_middle")</f>
         <v>policy_urban_text3_middle</v>
@@ -11315,7 +11315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:20">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
         <f>_xlfn.CONCAT("policy_urban_text",MID(A58,LEN("policy_urban_text")+1,1),"_upper")</f>
         <v>policy_urban_text3_upper</v>
@@ -11377,7 +11377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:20">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>828</v>
       </c>
@@ -11440,7 +11440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:20">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>830</v>
       </c>
@@ -11500,7 +11500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:20">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>829</v>
       </c>
@@ -11563,7 +11563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:20">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" t="str">
         <f>_xlfn.CONCAT("policy_urban_text",MID(A62,LEN("policy_urban_text")+1,1),"_middle")</f>
         <v>policy_urban_text4_middle</v>
@@ -11625,7 +11625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:20">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" t="str">
         <f>_xlfn.CONCAT("policy_urban_text",MID(A63,LEN("policy_urban_text")+1,1),"_upper")</f>
         <v>policy_urban_text4_upper</v>
@@ -11687,7 +11687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:20">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>831</v>
       </c>
@@ -11750,7 +11750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:20">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>833</v>
       </c>
@@ -11810,7 +11810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:20">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>832</v>
       </c>
@@ -11873,7 +11873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:20">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
         <f>_xlfn.CONCAT("policy_urban_text",MID(A67,LEN("policy_urban_text")+1,1),"_middle")</f>
         <v>policy_urban_text5_middle</v>
@@ -11935,7 +11935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:20">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" t="str">
         <f>_xlfn.CONCAT("policy_urban_text",MID(A68,LEN("policy_urban_text")+1,1),"_upper")</f>
         <v>policy_urban_text5_upper</v>
@@ -11997,7 +11997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:20">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>834</v>
       </c>
@@ -12060,7 +12060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:20">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>836</v>
       </c>
@@ -12120,7 +12120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:20">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>835</v>
       </c>
@@ -12183,7 +12183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:20">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" t="str">
         <f>_xlfn.CONCAT("policy_urban_text",MID(A72,LEN("policy_urban_text")+1,1),"_middle")</f>
         <v>policy_urban_text6_middle</v>
@@ -12245,7 +12245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:20">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" t="str">
         <f>_xlfn.CONCAT("policy_urban_text",MID(A73,LEN("policy_urban_text")+1,1),"_upper")</f>
         <v>policy_urban_text6_upper</v>
@@ -12307,7 +12307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:20">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>34</v>
       </c>
@@ -12364,7 +12364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:20">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>51</v>
       </c>
@@ -12424,7 +12424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:20">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>35</v>
       </c>
@@ -12480,7 +12480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:20">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>546</v>
       </c>
@@ -12540,7 +12540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:20">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>839</v>
       </c>
@@ -12597,7 +12597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:20">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>840</v>
       </c>
@@ -12657,7 +12657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:20">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>841</v>
       </c>
@@ -12717,7 +12717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:20">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>842</v>
       </c>
@@ -12777,7 +12777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:20">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>843</v>
       </c>
@@ -12837,7 +12837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:20">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>844</v>
       </c>
@@ -12897,7 +12897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:20">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>53</v>
       </c>
@@ -12954,7 +12954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:20">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>54</v>
       </c>
@@ -13011,7 +13011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:20">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>55</v>
       </c>
@@ -13068,7 +13068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:20">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>64</v>
       </c>
@@ -13125,7 +13125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:20">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>68</v>
       </c>
@@ -13185,7 +13185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:20">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>69</v>
       </c>
@@ -13245,7 +13245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:20">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>70</v>
       </c>
@@ -13305,7 +13305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:20">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>71</v>
       </c>
@@ -13365,7 +13365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:20">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>72</v>
       </c>
@@ -13425,7 +13425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:20">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>73</v>
       </c>
@@ -13485,7 +13485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:20">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>74</v>
       </c>
@@ -13545,7 +13545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:20">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>75</v>
       </c>
@@ -13605,7 +13605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:20">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>76</v>
       </c>
@@ -13665,7 +13665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:20">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>77</v>
       </c>
@@ -13725,7 +13725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:20">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>78</v>
       </c>
@@ -13785,7 +13785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:20">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>79</v>
       </c>
@@ -13845,7 +13845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:20">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>80</v>
       </c>
@@ -13905,7 +13905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:20">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>81</v>
       </c>
@@ -13965,7 +13965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:20">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>82</v>
       </c>
@@ -14025,7 +14025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:20">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>83</v>
       </c>
@@ -14085,7 +14085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:20">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>84</v>
       </c>
@@ -14145,7 +14145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:20">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>85</v>
       </c>
@@ -14205,7 +14205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:20">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>86</v>
       </c>
@@ -14265,7 +14265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:20">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>87</v>
       </c>
@@ -14325,7 +14325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:20">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>88</v>
       </c>
@@ -14385,7 +14385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:20">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>89</v>
       </c>
@@ -14445,7 +14445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:20">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>90</v>
       </c>
@@ -14505,7 +14505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:20">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>91</v>
       </c>
@@ -14565,7 +14565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:20">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>92</v>
       </c>
@@ -14625,7 +14625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:20">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>93</v>
       </c>
@@ -14685,7 +14685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:20">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>94</v>
       </c>
@@ -14745,7 +14745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:20">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>95</v>
       </c>
@@ -14805,7 +14805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:20">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>96</v>
       </c>
@@ -14865,7 +14865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:20">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>97</v>
       </c>
@@ -14925,7 +14925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:20">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>98</v>
       </c>
@@ -14985,7 +14985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:20">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>99</v>
       </c>
@@ -15045,7 +15045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:20">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>100</v>
       </c>
@@ -15105,7 +15105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:20">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>101</v>
       </c>
@@ -15165,7 +15165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:20">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>102</v>
       </c>
@@ -15225,7 +15225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:20">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>36</v>
       </c>
@@ -15282,7 +15282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:20">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>37</v>
       </c>
@@ -15337,7 +15337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:20">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>543</v>
       </c>
@@ -15397,7 +15397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:20">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>45</v>
       </c>
@@ -15454,7 +15454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:20">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>46</v>
       </c>
@@ -15510,7 +15510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:20">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>544</v>
       </c>
@@ -15570,7 +15570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:20">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>228</v>
       </c>
@@ -15630,7 +15630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:20">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>545</v>
       </c>
@@ -15687,7 +15687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:20">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>180</v>
       </c>
@@ -15741,7 +15741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:20">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>181</v>
       </c>
@@ -15798,7 +15798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:20">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>1469</v>
       </c>
@@ -15855,7 +15855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:20">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>47</v>
       </c>
@@ -15911,7 +15911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:20">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>123</v>
       </c>
@@ -15970,7 +15970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:20">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>134</v>
       </c>
@@ -16026,7 +16026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:20">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>852</v>
       </c>
@@ -16085,7 +16085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:20">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>845</v>
       </c>
@@ -16145,7 +16145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:20">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>841</v>
       </c>
@@ -16205,7 +16205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:20">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>842</v>
       </c>
@@ -16265,7 +16265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:20">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>843</v>
       </c>
@@ -16325,7 +16325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:20">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>844</v>
       </c>
@@ -16385,7 +16385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:20">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>53</v>
       </c>
@@ -16442,7 +16442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:20">
+    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>54</v>
       </c>
@@ -16499,7 +16499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:20">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>55</v>
       </c>
@@ -16556,7 +16556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:20">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>64</v>
       </c>
@@ -16613,7 +16613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:20">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>103</v>
       </c>
@@ -16673,7 +16673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:20">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>104</v>
       </c>
@@ -16733,7 +16733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:20">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>105</v>
       </c>
@@ -16793,7 +16793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:20">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>106</v>
       </c>
@@ -16853,7 +16853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:20">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>107</v>
       </c>
@@ -16913,7 +16913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:20">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>108</v>
       </c>
@@ -16973,7 +16973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:20">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>109</v>
       </c>
@@ -17033,7 +17033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:20">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>110</v>
       </c>
@@ -17093,7 +17093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:20">
+    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>111</v>
       </c>
@@ -17153,7 +17153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:20">
+    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>112</v>
       </c>
@@ -17213,7 +17213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:20">
+    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>113</v>
       </c>
@@ -17273,7 +17273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:20">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>114</v>
       </c>
@@ -17333,7 +17333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:20">
+    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>115</v>
       </c>
@@ -17393,7 +17393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:20">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>116</v>
       </c>
@@ -17453,7 +17453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:20">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>117</v>
       </c>
@@ -17513,7 +17513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:20">
+    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>118</v>
       </c>
@@ -17573,7 +17573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:20">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>119</v>
       </c>
@@ -17633,7 +17633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:20">
+    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>120</v>
       </c>
@@ -17693,7 +17693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:20">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>121</v>
       </c>
@@ -17753,7 +17753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:20">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>122</v>
       </c>
@@ -17813,7 +17813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:20">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>48</v>
       </c>
@@ -17871,7 +17871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:20">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>132</v>
       </c>
@@ -17930,7 +17930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:20">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>49</v>
       </c>
@@ -17986,7 +17986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:20">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>851</v>
       </c>
@@ -18044,7 +18044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:20">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>846</v>
       </c>
@@ -18104,7 +18104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:20">
+    <row r="173" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>841</v>
       </c>
@@ -18164,7 +18164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:20">
+    <row r="174" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>842</v>
       </c>
@@ -18224,7 +18224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:20">
+    <row r="175" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>843</v>
       </c>
@@ -18284,7 +18284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:20">
+    <row r="176" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>844</v>
       </c>
@@ -18344,7 +18344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:20">
+    <row r="177" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>53</v>
       </c>
@@ -18401,7 +18401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:20">
+    <row r="178" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>54</v>
       </c>
@@ -18458,7 +18458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:20">
+    <row r="179" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>55</v>
       </c>
@@ -18515,7 +18515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:20">
+    <row r="180" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>64</v>
       </c>
@@ -18572,7 +18572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:20">
+    <row r="181" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>126</v>
       </c>
@@ -18632,7 +18632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:20">
+    <row r="182" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>127</v>
       </c>
@@ -18692,7 +18692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:20">
+    <row r="183" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>128</v>
       </c>
@@ -18752,7 +18752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:20">
+    <row r="184" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>129</v>
       </c>
@@ -18812,7 +18812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:20">
+    <row r="185" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>130</v>
       </c>
@@ -18872,7 +18872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:20">
+    <row r="186" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>248</v>
       </c>
@@ -18929,7 +18929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:20">
+    <row r="187" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>249</v>
       </c>
@@ -18987,7 +18987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:20">
+    <row r="188" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>175</v>
       </c>
@@ -19047,7 +19047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:20">
+    <row r="189" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>30</v>
       </c>
@@ -19101,7 +19101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:20">
+    <row r="190" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>650</v>
       </c>
@@ -19161,7 +19161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:20">
+    <row r="191" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>1677</v>
       </c>
@@ -19221,7 +19221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:20">
+    <row r="192" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>235</v>
       </c>
@@ -19264,7 +19264,7 @@
         <v>26</v>
       </c>
       <c r="P192" s="6" t="s">
-        <v>2051</v>
+        <v>2046</v>
       </c>
       <c r="Q192">
         <v>2</v>
@@ -19279,7 +19279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:20" ht="18" customHeight="1">
+    <row r="193" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>229</v>
       </c>
@@ -19340,7 +19340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:20">
+    <row r="194" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>817</v>
       </c>
@@ -19417,13 +19417,13 @@
       <selection pane="bottomRight" activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="48.140625" customWidth="1"/>
     <col min="16" max="16" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="4" customFormat="1">
+    <row r="1" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -19485,7 +19485,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -19541,7 +19541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -19601,7 +19601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -19661,7 +19661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -19721,7 +19721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>336</v>
       </c>
@@ -19779,7 +19779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>337</v>
       </c>
@@ -19836,7 +19836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -19894,7 +19894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -19947,7 +19947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>67</v>
       </c>
@@ -20004,7 +20004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1468</v>
       </c>
@@ -20062,7 +20062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -20103,7 +20103,7 @@
         <v>26</v>
       </c>
       <c r="P12" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -20118,7 +20118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>169</v>
       </c>
@@ -20161,7 +20161,7 @@
         <v>28</v>
       </c>
       <c r="P13" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -20176,7 +20176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -20233,7 +20233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>802</v>
       </c>
@@ -20289,7 +20289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>804</v>
       </c>
@@ -20346,7 +20346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1471</v>
       </c>
@@ -20403,7 +20403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1472</v>
       </c>
@@ -20462,7 +20462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>803</v>
       </c>
@@ -20519,7 +20519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>805</v>
       </c>
@@ -20576,7 +20576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>858</v>
       </c>
@@ -20633,7 +20633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>815</v>
       </c>
@@ -20690,7 +20690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:22">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>1495</v>
       </c>
@@ -20747,7 +20747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:22">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>817</v>
       </c>
@@ -20800,7 +20800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:22">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -20857,9 +20857,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:22">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="B26">
         <v>3</v>
@@ -20916,7 +20916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:22">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>247</v>
       </c>
@@ -20974,7 +20974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:22">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -21035,7 +21035,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:22">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -21092,7 +21092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:22">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -21149,7 +21149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:22">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>207</v>
       </c>
@@ -21207,7 +21207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:22">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>65</v>
       </c>
@@ -21263,7 +21263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -21323,7 +21323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>208</v>
       </c>
@@ -21382,7 +21382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>66</v>
       </c>
@@ -21439,7 +21439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>837</v>
       </c>
@@ -21497,7 +21497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>838</v>
       </c>
@@ -21557,7 +21557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>179</v>
       </c>
@@ -21617,7 +21617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>53</v>
       </c>
@@ -21674,7 +21674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:20">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -21734,7 +21734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>210</v>
       </c>
@@ -21796,7 +21796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>209</v>
       </c>
@@ -21858,7 +21858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -21915,7 +21915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>64</v>
       </c>
@@ -21971,7 +21971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:20">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>819</v>
       </c>
@@ -22034,7 +22034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:20">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>821</v>
       </c>
@@ -22094,7 +22094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:20">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>820</v>
       </c>
@@ -22157,7 +22157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:20">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <f>_xlfn.CONCAT("policy_urban_text",MID(A47,LEN("policy_urban_text")+1,1),"_middle")</f>
         <v>policy_urban_text1_middle</v>
@@ -22219,7 +22219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:20">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <f>_xlfn.CONCAT("policy_urban_text",MID(A48,LEN("policy_urban_text")+1,1),"_upper")</f>
         <v>policy_urban_text1_upper</v>
@@ -22281,7 +22281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:20">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>822</v>
       </c>
@@ -22344,7 +22344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:20">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>824</v>
       </c>
@@ -22404,7 +22404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:20">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>823</v>
       </c>
@@ -22467,7 +22467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:20">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
         <f>_xlfn.CONCAT("policy_urban_text",MID(A52,LEN("policy_urban_text")+1,1),"_middle")</f>
         <v>policy_urban_text2_middle</v>
@@ -22529,7 +22529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:20">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
         <f>_xlfn.CONCAT("policy_urban_text",MID(A53,LEN("policy_urban_text")+1,1),"_upper")</f>
         <v>policy_urban_text2_upper</v>
@@ -22591,7 +22591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:20">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>825</v>
       </c>
@@ -22654,7 +22654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:20">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>827</v>
       </c>
@@ -22714,7 +22714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:20">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>826</v>
       </c>
@@ -22777,7 +22777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:20">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
         <f>_xlfn.CONCAT("policy_urban_text",MID(A57,LEN("policy_urban_text")+1,1),"_middle")</f>
         <v>policy_urban_text3_middle</v>
@@ -22839,7 +22839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:20">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
         <f>_xlfn.CONCAT("policy_urban_text",MID(A58,LEN("policy_urban_text")+1,1),"_upper")</f>
         <v>policy_urban_text3_upper</v>
@@ -22901,7 +22901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:20">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>828</v>
       </c>
@@ -22964,7 +22964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:20">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>830</v>
       </c>
@@ -23024,7 +23024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:20">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>829</v>
       </c>
@@ -23087,7 +23087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:20">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" t="str">
         <f>_xlfn.CONCAT("policy_urban_text",MID(A62,LEN("policy_urban_text")+1,1),"_middle")</f>
         <v>policy_urban_text4_middle</v>
@@ -23149,7 +23149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:20">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" t="str">
         <f>_xlfn.CONCAT("policy_urban_text",MID(A63,LEN("policy_urban_text")+1,1),"_upper")</f>
         <v>policy_urban_text4_upper</v>
@@ -23211,7 +23211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:20">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>831</v>
       </c>
@@ -23274,7 +23274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:20">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>833</v>
       </c>
@@ -23334,7 +23334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:20">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>832</v>
       </c>
@@ -23397,7 +23397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:20">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
         <f>_xlfn.CONCAT("policy_urban_text",MID(A67,LEN("policy_urban_text")+1,1),"_middle")</f>
         <v>policy_urban_text5_middle</v>
@@ -23459,7 +23459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:20">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" t="str">
         <f>_xlfn.CONCAT("policy_urban_text",MID(A68,LEN("policy_urban_text")+1,1),"_upper")</f>
         <v>policy_urban_text5_upper</v>
@@ -23521,7 +23521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:20">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>834</v>
       </c>
@@ -23584,7 +23584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:20">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>836</v>
       </c>
@@ -23644,7 +23644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:20">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>835</v>
       </c>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:20">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" t="str">
         <f>_xlfn.CONCAT("policy_urban_text",MID(A72,LEN("policy_urban_text")+1,1),"_middle")</f>
         <v>policy_urban_text6_middle</v>
@@ -23769,7 +23769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:20">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" t="str">
         <f>_xlfn.CONCAT("policy_urban_text",MID(A73,LEN("policy_urban_text")+1,1),"_upper")</f>
         <v>policy_urban_text6_upper</v>
@@ -23831,7 +23831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:20">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>34</v>
       </c>
@@ -23888,7 +23888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:20">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>51</v>
       </c>
@@ -23948,7 +23948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:20">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>35</v>
       </c>
@@ -24003,7 +24003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:20">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>546</v>
       </c>
@@ -24063,7 +24063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:20">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>839</v>
       </c>
@@ -24121,7 +24121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:20">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>840</v>
       </c>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:20">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>841</v>
       </c>
@@ -24241,7 +24241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:20">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>842</v>
       </c>
@@ -24301,7 +24301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:20">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>843</v>
       </c>
@@ -24361,7 +24361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:20">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>844</v>
       </c>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:20">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>53</v>
       </c>
@@ -24478,7 +24478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:20">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>54</v>
       </c>
@@ -24535,7 +24535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:20">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>55</v>
       </c>
@@ -24592,7 +24592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:20">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>64</v>
       </c>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:20">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>68</v>
       </c>
@@ -24709,7 +24709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:20">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>69</v>
       </c>
@@ -24769,7 +24769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:20">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>70</v>
       </c>
@@ -24829,7 +24829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:20">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>71</v>
       </c>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:20">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>72</v>
       </c>
@@ -24949,7 +24949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:20">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>73</v>
       </c>
@@ -25009,7 +25009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:20">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>74</v>
       </c>
@@ -25069,7 +25069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:20">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>75</v>
       </c>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:20">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>76</v>
       </c>
@@ -25189,7 +25189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:20">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>77</v>
       </c>
@@ -25249,7 +25249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:20">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>78</v>
       </c>
@@ -25309,7 +25309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:20">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>79</v>
       </c>
@@ -25369,7 +25369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:20">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>80</v>
       </c>
@@ -25429,7 +25429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:20">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>81</v>
       </c>
@@ -25489,7 +25489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:20">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>82</v>
       </c>
@@ -25549,7 +25549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:20">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>83</v>
       </c>
@@ -25609,7 +25609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:20">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>84</v>
       </c>
@@ -25669,7 +25669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:20">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>85</v>
       </c>
@@ -25729,7 +25729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:20">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>86</v>
       </c>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:20">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>87</v>
       </c>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:20">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>88</v>
       </c>
@@ -25909,7 +25909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:20">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>89</v>
       </c>
@@ -25969,7 +25969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:20">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>90</v>
       </c>
@@ -26029,7 +26029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:20">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>91</v>
       </c>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:20">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>92</v>
       </c>
@@ -26149,7 +26149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:20">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>93</v>
       </c>
@@ -26209,7 +26209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:20">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>94</v>
       </c>
@@ -26269,7 +26269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:20">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>95</v>
       </c>
@@ -26329,7 +26329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:20">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>96</v>
       </c>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:20">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>97</v>
       </c>
@@ -26449,7 +26449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:20">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>98</v>
       </c>
@@ -26509,7 +26509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:20">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>99</v>
       </c>
@@ -26569,7 +26569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:20">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>100</v>
       </c>
@@ -26629,7 +26629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:20">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>101</v>
       </c>
@@ -26689,7 +26689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:20">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>102</v>
       </c>
@@ -26749,7 +26749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:20">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>36</v>
       </c>
@@ -26806,7 +26806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:20">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>37</v>
       </c>
@@ -26861,7 +26861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:20">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>543</v>
       </c>
@@ -26921,7 +26921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:20">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>45</v>
       </c>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:20">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>46</v>
       </c>
@@ -27034,7 +27034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:20">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>544</v>
       </c>
@@ -27094,7 +27094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:20">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>228</v>
       </c>
@@ -27154,7 +27154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:20">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>545</v>
       </c>
@@ -27211,7 +27211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:20">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>180</v>
       </c>
@@ -27265,7 +27265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:20">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>181</v>
       </c>
@@ -27322,7 +27322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:20">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>1469</v>
       </c>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:20">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>47</v>
       </c>
@@ -27435,7 +27435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:20">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>123</v>
       </c>
@@ -27494,7 +27494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:20">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>134</v>
       </c>
@@ -27550,7 +27550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:20">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>852</v>
       </c>
@@ -27609,7 +27609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:20">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>845</v>
       </c>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:20">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>841</v>
       </c>
@@ -27729,7 +27729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:20">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>842</v>
       </c>
@@ -27789,7 +27789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:20">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>843</v>
       </c>
@@ -27849,7 +27849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:20">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>844</v>
       </c>
@@ -27909,7 +27909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:20">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>53</v>
       </c>
@@ -27966,7 +27966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:20">
+    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>54</v>
       </c>
@@ -28023,7 +28023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:20">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>55</v>
       </c>
@@ -28080,7 +28080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:20">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>64</v>
       </c>
@@ -28137,7 +28137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:20">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>103</v>
       </c>
@@ -28197,7 +28197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:20">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>104</v>
       </c>
@@ -28257,7 +28257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:20">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>105</v>
       </c>
@@ -28317,7 +28317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:20">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>106</v>
       </c>
@@ -28377,7 +28377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:20">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>107</v>
       </c>
@@ -28437,7 +28437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:20">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>108</v>
       </c>
@@ -28497,7 +28497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:20">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>109</v>
       </c>
@@ -28557,7 +28557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:20">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>110</v>
       </c>
@@ -28617,7 +28617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:20">
+    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>111</v>
       </c>
@@ -28677,7 +28677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:20">
+    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>112</v>
       </c>
@@ -28737,7 +28737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:20">
+    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>113</v>
       </c>
@@ -28797,7 +28797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:20">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>114</v>
       </c>
@@ -28857,7 +28857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:20">
+    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>115</v>
       </c>
@@ -28917,7 +28917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:20">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>116</v>
       </c>
@@ -28977,7 +28977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:20">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>117</v>
       </c>
@@ -29037,7 +29037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:20">
+    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>118</v>
       </c>
@@ -29097,7 +29097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:20">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>119</v>
       </c>
@@ -29157,7 +29157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:20">
+    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>120</v>
       </c>
@@ -29217,7 +29217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:20">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>121</v>
       </c>
@@ -29277,7 +29277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:20">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>122</v>
       </c>
@@ -29337,7 +29337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:20">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>48</v>
       </c>
@@ -29395,7 +29395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:20">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>132</v>
       </c>
@@ -29454,7 +29454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:20">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>49</v>
       </c>
@@ -29510,7 +29510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:20">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>851</v>
       </c>
@@ -29568,7 +29568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:20">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>846</v>
       </c>
@@ -29628,7 +29628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:20">
+    <row r="173" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>841</v>
       </c>
@@ -29688,7 +29688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:20">
+    <row r="174" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>842</v>
       </c>
@@ -29748,7 +29748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:20">
+    <row r="175" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>843</v>
       </c>
@@ -29808,7 +29808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:20">
+    <row r="176" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>844</v>
       </c>
@@ -29868,7 +29868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:20">
+    <row r="177" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>53</v>
       </c>
@@ -29925,7 +29925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:20">
+    <row r="178" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>54</v>
       </c>
@@ -29982,7 +29982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:20">
+    <row r="179" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>55</v>
       </c>
@@ -30039,7 +30039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:20">
+    <row r="180" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>64</v>
       </c>
@@ -30096,7 +30096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:20">
+    <row r="181" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>126</v>
       </c>
@@ -30156,7 +30156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:20">
+    <row r="182" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>127</v>
       </c>
@@ -30216,7 +30216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:20">
+    <row r="183" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>128</v>
       </c>
@@ -30276,7 +30276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:20">
+    <row r="184" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>129</v>
       </c>
@@ -30336,7 +30336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:20">
+    <row r="185" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>130</v>
       </c>
@@ -30396,7 +30396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:20">
+    <row r="186" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>248</v>
       </c>
@@ -30453,7 +30453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:20">
+    <row r="187" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>249</v>
       </c>
@@ -30511,7 +30511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:20">
+    <row r="188" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>175</v>
       </c>
@@ -30571,7 +30571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:20">
+    <row r="189" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>30</v>
       </c>
@@ -30625,7 +30625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:20">
+    <row r="190" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>650</v>
       </c>
@@ -30685,7 +30685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:20">
+    <row r="191" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>1677</v>
       </c>
@@ -30745,7 +30745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:20">
+    <row r="192" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>235</v>
       </c>
@@ -30788,7 +30788,7 @@
         <v>26</v>
       </c>
       <c r="P192" s="6" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="Q192">
         <v>2</v>
@@ -30803,7 +30803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:20" ht="60">
+    <row r="193" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>229</v>
       </c>
@@ -30864,7 +30864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:20">
+    <row r="194" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>817</v>
       </c>
@@ -30934,14 +30934,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U172"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D167" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D148" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C174" sqref="C174"/>
+      <selection pane="bottomRight" activeCell="B154" sqref="B154"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" style="17" customWidth="1"/>
     <col min="2" max="2" width="38" style="17" customWidth="1"/>
@@ -30958,7 +30958,7 @@
     <col min="22" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="16" customFormat="1">
+    <row r="1" spans="1:21" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>142</v>
       </c>
@@ -31019,7 +31019,7 @@
       <c r="T1" s="8"/>
       <c r="U1" s="8"/>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>143</v>
       </c>
@@ -31080,12 +31080,12 @@
       <c r="T2" s="9"/>
       <c r="U2" s="9"/>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="C3" s="49">
         <v>1</v>
@@ -31141,7 +31141,7 @@
       <c r="T3" s="9"/>
       <c r="U3" s="9"/>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>143</v>
       </c>
@@ -31202,7 +31202,7 @@
       <c r="T4" s="9"/>
       <c r="U4" s="9"/>
     </row>
-    <row r="5" spans="1:21" ht="15" customHeight="1">
+    <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>143</v>
       </c>
@@ -31219,16 +31219,16 @@
         <v>860</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>1186</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="J5" s="9" t="s">
         <v>436</v>
@@ -31237,7 +31237,7 @@
         <v>1255</v>
       </c>
       <c r="L5" s="19" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="M5" s="9" t="s">
         <v>458</v>
@@ -31246,7 +31246,7 @@
         <v>686</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="P5" s="9" t="s">
         <v>461</v>
@@ -31255,7 +31255,7 @@
         <v>1529</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="S5" s="9" t="s">
         <v>1170</v>
@@ -31263,7 +31263,7 @@
       <c r="T5" s="9"/>
       <c r="U5" s="9"/>
     </row>
-    <row r="6" spans="1:21" ht="15" customHeight="1">
+    <row r="6" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>143</v>
       </c>
@@ -31286,7 +31286,7 @@
         <v>1187</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="I6" s="19" t="s">
         <v>1072</v>
@@ -31298,7 +31298,7 @@
         <v>1256</v>
       </c>
       <c r="L6" s="19" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="M6" s="9" t="s">
         <v>459</v>
@@ -31324,7 +31324,7 @@
       <c r="T6" s="9"/>
       <c r="U6" s="9"/>
     </row>
-    <row r="7" spans="1:21" ht="30" customHeight="1">
+    <row r="7" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>143</v>
       </c>
@@ -31359,7 +31359,7 @@
         <v>1257</v>
       </c>
       <c r="L7" s="19" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="M7" s="9" t="s">
         <v>403</v>
@@ -31385,12 +31385,12 @@
       <c r="T7" s="9"/>
       <c r="U7" s="9"/>
     </row>
-    <row r="8" spans="1:21" ht="15" customHeight="1">
+    <row r="8" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>182</v>
@@ -31418,12 +31418,12 @@
       <c r="T8" s="9"/>
       <c r="U8" s="9"/>
     </row>
-    <row r="9" spans="1:21" ht="15" customHeight="1">
+    <row r="9" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>177</v>
@@ -31451,12 +31451,12 @@
       <c r="T9" s="9"/>
       <c r="U9" s="9"/>
     </row>
-    <row r="10" spans="1:21" ht="15" customHeight="1">
+    <row r="10" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>183</v>
@@ -31482,12 +31482,12 @@
       <c r="T10" s="9"/>
       <c r="U10" s="9"/>
     </row>
-    <row r="11" spans="1:21" ht="15" customHeight="1">
+    <row r="11" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>184</v>
@@ -31513,12 +31513,12 @@
       <c r="T11" s="9"/>
       <c r="U11" s="9"/>
     </row>
-    <row r="12" spans="1:21" ht="15" customHeight="1">
+    <row r="12" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>185</v>
@@ -31544,12 +31544,12 @@
       <c r="T12" s="9"/>
       <c r="U12" s="9"/>
     </row>
-    <row r="13" spans="1:21" ht="15" customHeight="1">
+    <row r="13" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>343</v>
@@ -31577,12 +31577,12 @@
       <c r="T13" s="9"/>
       <c r="U13" s="9"/>
     </row>
-    <row r="14" spans="1:21" ht="15" customHeight="1">
+    <row r="14" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>187</v>
@@ -31612,12 +31612,12 @@
       <c r="T14" s="9"/>
       <c r="U14" s="9"/>
     </row>
-    <row r="15" spans="1:21" ht="15" customHeight="1">
+    <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>188</v>
@@ -31645,12 +31645,12 @@
       <c r="T15" s="9"/>
       <c r="U15" s="9"/>
     </row>
-    <row r="16" spans="1:21" ht="15" customHeight="1">
+    <row r="16" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>176</v>
@@ -31678,12 +31678,12 @@
       <c r="T16" s="9"/>
       <c r="U16" s="9"/>
     </row>
-    <row r="17" spans="1:21" ht="15" customHeight="1">
+    <row r="17" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>189</v>
@@ -31711,12 +31711,12 @@
       <c r="T17" s="9"/>
       <c r="U17" s="9"/>
     </row>
-    <row r="18" spans="1:21" ht="15" customHeight="1">
+    <row r="18" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>190</v>
@@ -31744,12 +31744,12 @@
       <c r="T18" s="9"/>
       <c r="U18" s="9"/>
     </row>
-    <row r="19" spans="1:21" ht="15" customHeight="1">
+    <row r="19" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>2009</v>
+        <v>2050</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>191</v>
@@ -31777,12 +31777,12 @@
       <c r="T19" s="9"/>
       <c r="U19" s="9"/>
     </row>
-    <row r="20" spans="1:21" ht="15" customHeight="1">
+    <row r="20" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>192</v>
@@ -31810,12 +31810,12 @@
       <c r="T20" s="9"/>
       <c r="U20" s="9"/>
     </row>
-    <row r="21" spans="1:21" ht="15" customHeight="1">
+    <row r="21" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>193</v>
@@ -31843,12 +31843,12 @@
       <c r="T21" s="9"/>
       <c r="U21" s="9"/>
     </row>
-    <row r="22" spans="1:21" ht="15" customHeight="1">
+    <row r="22" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>194</v>
@@ -31876,12 +31876,12 @@
       <c r="T22" s="9"/>
       <c r="U22" s="9"/>
     </row>
-    <row r="23" spans="1:21" ht="15" customHeight="1">
+    <row r="23" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>195</v>
@@ -31909,12 +31909,12 @@
       <c r="T23" s="9"/>
       <c r="U23" s="9"/>
     </row>
-    <row r="24" spans="1:21" ht="15" customHeight="1">
+    <row r="24" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>196</v>
@@ -31944,12 +31944,12 @@
       <c r="T24" s="9"/>
       <c r="U24" s="9"/>
     </row>
-    <row r="25" spans="1:21" ht="15" customHeight="1">
+    <row r="25" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>2001</v>
+        <v>2048</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>197</v>
@@ -31979,12 +31979,12 @@
       <c r="T25" s="9"/>
       <c r="U25" s="9"/>
     </row>
-    <row r="26" spans="1:21" ht="15" customHeight="1">
+    <row r="26" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>198</v>
@@ -32014,12 +32014,12 @@
       <c r="T26" s="9"/>
       <c r="U26" s="9"/>
     </row>
-    <row r="27" spans="1:21" ht="15" customHeight="1">
+    <row r="27" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>199</v>
@@ -32045,12 +32045,12 @@
       <c r="T27" s="9"/>
       <c r="U27" s="9"/>
     </row>
-    <row r="28" spans="1:21" ht="15" customHeight="1">
+    <row r="28" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>200</v>
@@ -32076,12 +32076,12 @@
       <c r="T28" s="9"/>
       <c r="U28" s="9"/>
     </row>
-    <row r="29" spans="1:21" ht="15" customHeight="1">
+    <row r="29" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>201</v>
@@ -32107,12 +32107,12 @@
       <c r="T29" s="9"/>
       <c r="U29" s="9"/>
     </row>
-    <row r="30" spans="1:21" ht="15" customHeight="1">
+    <row r="30" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>174</v>
@@ -32138,12 +32138,12 @@
       <c r="T30" s="9"/>
       <c r="U30" s="9"/>
     </row>
-    <row r="31" spans="1:21" ht="15" customHeight="1">
+    <row r="31" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>202</v>
@@ -32169,12 +32169,12 @@
       <c r="T31" s="9"/>
       <c r="U31" s="9"/>
     </row>
-    <row r="32" spans="1:21" ht="15" customHeight="1">
+    <row r="32" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="C32" s="13" t="s">
         <v>203</v>
@@ -32188,7 +32188,7 @@
       <c r="J32" s="9"/>
       <c r="K32" s="19"/>
       <c r="L32" s="19" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="M32" s="9"/>
       <c r="N32" s="9"/>
@@ -32202,12 +32202,12 @@
       <c r="T32" s="9"/>
       <c r="U32" s="9"/>
     </row>
-    <row r="33" spans="1:21" ht="15" customHeight="1">
+    <row r="33" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>506</v>
@@ -32235,12 +32235,12 @@
       <c r="T33" s="9"/>
       <c r="U33" s="9"/>
     </row>
-    <row r="34" spans="1:21" ht="15" customHeight="1">
+    <row r="34" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>507</v>
@@ -32268,12 +32268,12 @@
       <c r="T34" s="9"/>
       <c r="U34" s="9"/>
     </row>
-    <row r="35" spans="1:21" ht="15" customHeight="1">
+    <row r="35" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>508</v>
@@ -32299,12 +32299,12 @@
       <c r="T35" s="9"/>
       <c r="U35" s="9"/>
     </row>
-    <row r="36" spans="1:21" ht="15" customHeight="1">
+    <row r="36" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="C36" s="10" t="s">
         <v>508</v>
@@ -32330,12 +32330,12 @@
       <c r="T36" s="9"/>
       <c r="U36" s="9"/>
     </row>
-    <row r="37" spans="1:21" ht="15" customHeight="1">
+    <row r="37" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="C37" s="10" t="s">
         <v>508</v>
@@ -32361,12 +32361,12 @@
       <c r="T37" s="9"/>
       <c r="U37" s="9"/>
     </row>
-    <row r="38" spans="1:21" ht="15" customHeight="1">
+    <row r="38" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>509</v>
@@ -32394,12 +32394,12 @@
       <c r="T38" s="9"/>
       <c r="U38" s="9"/>
     </row>
-    <row r="39" spans="1:21" ht="15" customHeight="1">
+    <row r="39" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="C39" s="10" t="s">
         <v>540</v>
@@ -32429,12 +32429,12 @@
       <c r="T39" s="9"/>
       <c r="U39" s="9"/>
     </row>
-    <row r="40" spans="1:21" ht="15" customHeight="1">
+    <row r="40" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="C40" s="10" t="s">
         <v>510</v>
@@ -32462,12 +32462,12 @@
       <c r="T40" s="9"/>
       <c r="U40" s="9"/>
     </row>
-    <row r="41" spans="1:21" ht="15" customHeight="1">
+    <row r="41" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="C41" s="10" t="s">
         <v>511</v>
@@ -32495,12 +32495,12 @@
       <c r="T41" s="9"/>
       <c r="U41" s="9"/>
     </row>
-    <row r="42" spans="1:21" ht="15" customHeight="1">
+    <row r="42" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="C42" s="10" t="s">
         <v>512</v>
@@ -32528,12 +32528,12 @@
       <c r="T42" s="9"/>
       <c r="U42" s="9"/>
     </row>
-    <row r="43" spans="1:21" ht="15" customHeight="1">
+    <row r="43" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="C43" s="10" t="s">
         <v>513</v>
@@ -32561,12 +32561,12 @@
       <c r="T43" s="9"/>
       <c r="U43" s="9"/>
     </row>
-    <row r="44" spans="1:21" ht="15" customHeight="1">
+    <row r="44" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>2021</v>
+        <v>2051</v>
       </c>
       <c r="C44" s="10" t="s">
         <v>514</v>
@@ -32594,12 +32594,12 @@
       <c r="T44" s="9"/>
       <c r="U44" s="9"/>
     </row>
-    <row r="45" spans="1:21" ht="15" customHeight="1">
+    <row r="45" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="C45" s="10" t="s">
         <v>515</v>
@@ -32627,12 +32627,12 @@
       <c r="T45" s="9"/>
       <c r="U45" s="9"/>
     </row>
-    <row r="46" spans="1:21" ht="15" customHeight="1">
+    <row r="46" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>2023</v>
+        <v>2019</v>
       </c>
       <c r="C46" s="10" t="s">
         <v>516</v>
@@ -32660,12 +32660,12 @@
       <c r="T46" s="9"/>
       <c r="U46" s="9"/>
     </row>
-    <row r="47" spans="1:21" ht="15" customHeight="1">
+    <row r="47" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>2024</v>
+        <v>2020</v>
       </c>
       <c r="C47" s="10" t="s">
         <v>517</v>
@@ -32693,12 +32693,12 @@
       <c r="T47" s="9"/>
       <c r="U47" s="9"/>
     </row>
-    <row r="48" spans="1:21" ht="15" customHeight="1">
+    <row r="48" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>2025</v>
+        <v>2021</v>
       </c>
       <c r="C48" s="10" t="s">
         <v>518</v>
@@ -32726,12 +32726,12 @@
       <c r="T48" s="9"/>
       <c r="U48" s="9"/>
     </row>
-    <row r="49" spans="1:21" ht="15" customHeight="1">
+    <row r="49" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>2026</v>
+        <v>2022</v>
       </c>
       <c r="C49" s="10" t="s">
         <v>519</v>
@@ -32761,12 +32761,12 @@
       <c r="T49" s="9"/>
       <c r="U49" s="9"/>
     </row>
-    <row r="50" spans="1:21" ht="15" customHeight="1">
+    <row r="50" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>2027</v>
+        <v>2049</v>
       </c>
       <c r="C50" s="10" t="s">
         <v>519</v>
@@ -32796,12 +32796,12 @@
       <c r="T50" s="9"/>
       <c r="U50" s="9"/>
     </row>
-    <row r="51" spans="1:21" ht="15" customHeight="1">
+    <row r="51" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>2028</v>
+        <v>2023</v>
       </c>
       <c r="C51" s="10" t="s">
         <v>519</v>
@@ -32831,12 +32831,12 @@
       <c r="T51" s="9"/>
       <c r="U51" s="9"/>
     </row>
-    <row r="52" spans="1:21" ht="15" customHeight="1">
+    <row r="52" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>2029</v>
+        <v>2024</v>
       </c>
       <c r="C52" s="10" t="s">
         <v>520</v>
@@ -32862,12 +32862,12 @@
       <c r="T52" s="9"/>
       <c r="U52" s="9"/>
     </row>
-    <row r="53" spans="1:21" ht="15" customHeight="1">
+    <row r="53" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>2030</v>
+        <v>2025</v>
       </c>
       <c r="C53" s="10" t="s">
         <v>521</v>
@@ -32893,12 +32893,12 @@
       <c r="T53" s="9"/>
       <c r="U53" s="9"/>
     </row>
-    <row r="54" spans="1:21" ht="15" customHeight="1">
+    <row r="54" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>2031</v>
+        <v>2026</v>
       </c>
       <c r="C54" s="10" t="s">
         <v>522</v>
@@ -32924,12 +32924,12 @@
       <c r="T54" s="9"/>
       <c r="U54" s="9"/>
     </row>
-    <row r="55" spans="1:21" ht="15" customHeight="1">
+    <row r="55" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>2032</v>
+        <v>2027</v>
       </c>
       <c r="C55" s="10" t="s">
         <v>522</v>
@@ -32955,12 +32955,12 @@
       <c r="T55" s="9"/>
       <c r="U55" s="9"/>
     </row>
-    <row r="56" spans="1:21" ht="15" customHeight="1">
+    <row r="56" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>2033</v>
+        <v>2028</v>
       </c>
       <c r="C56" s="10" t="s">
         <v>522</v>
@@ -32986,12 +32986,12 @@
       <c r="T56" s="9"/>
       <c r="U56" s="9"/>
     </row>
-    <row r="57" spans="1:21" ht="15" customHeight="1">
+    <row r="57" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>2034</v>
+        <v>2029</v>
       </c>
       <c r="C57" s="10" t="s">
         <v>523</v>
@@ -33019,7 +33019,7 @@
       <c r="T57" s="9"/>
       <c r="U57" s="9"/>
     </row>
-    <row r="58" spans="1:21" ht="15" customHeight="1">
+    <row r="58" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="17" t="s">
         <v>143</v>
       </c>
@@ -33080,7 +33080,7 @@
       <c r="T58" s="9"/>
       <c r="U58" s="9"/>
     </row>
-    <row r="59" spans="1:21" ht="15" customHeight="1">
+    <row r="59" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="17" t="s">
         <v>144</v>
       </c>
@@ -33141,7 +33141,7 @@
       <c r="T59" s="9"/>
       <c r="U59" s="9"/>
     </row>
-    <row r="60" spans="1:21" ht="15" customHeight="1">
+    <row r="60" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="17" t="s">
         <v>144</v>
       </c>
@@ -33202,7 +33202,7 @@
       <c r="T60" s="9"/>
       <c r="U60" s="9"/>
     </row>
-    <row r="61" spans="1:21" ht="15" customHeight="1">
+    <row r="61" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="17" t="s">
         <v>144</v>
       </c>
@@ -33263,7 +33263,7 @@
       <c r="T61" s="9"/>
       <c r="U61" s="9"/>
     </row>
-    <row r="62" spans="1:21">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62" s="17" t="s">
         <v>144</v>
       </c>
@@ -33324,7 +33324,7 @@
       <c r="T62" s="9"/>
       <c r="U62" s="9"/>
     </row>
-    <row r="63" spans="1:21">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" s="17" t="s">
         <v>144</v>
       </c>
@@ -33359,7 +33359,7 @@
         <v>1259</v>
       </c>
       <c r="L63" s="19" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="M63" s="9" t="s">
         <v>404</v>
@@ -33385,7 +33385,7 @@
       <c r="T63" s="9"/>
       <c r="U63" s="9"/>
     </row>
-    <row r="64" spans="1:21">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64" s="17" t="s">
         <v>144</v>
       </c>
@@ -33420,7 +33420,7 @@
         <v>1260</v>
       </c>
       <c r="L64" s="19" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="M64" s="9" t="s">
         <v>405</v>
@@ -33446,7 +33446,7 @@
       <c r="T64" s="9"/>
       <c r="U64" s="9"/>
     </row>
-    <row r="65" spans="1:21">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65" s="17" t="s">
         <v>144</v>
       </c>
@@ -33472,7 +33472,7 @@
         <v>1332</v>
       </c>
       <c r="I65" s="19" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="J65" s="9" t="s">
         <v>1783</v>
@@ -33481,7 +33481,7 @@
         <v>1261</v>
       </c>
       <c r="L65" s="19" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="M65" s="9" t="s">
         <v>250</v>
@@ -33507,7 +33507,7 @@
       <c r="T65" s="9"/>
       <c r="U65" s="9"/>
     </row>
-    <row r="66" spans="1:21">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66" s="17" t="s">
         <v>144</v>
       </c>
@@ -33533,7 +33533,7 @@
         <v>241</v>
       </c>
       <c r="I66" s="19" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="J66" s="9" t="s">
         <v>438</v>
@@ -33542,7 +33542,7 @@
         <v>1262</v>
       </c>
       <c r="L66" s="19" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="M66" s="9" t="s">
         <v>406</v>
@@ -33568,7 +33568,7 @@
       <c r="T66" s="9"/>
       <c r="U66" s="9"/>
     </row>
-    <row r="67" spans="1:21" ht="45">
+    <row r="67" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="17" t="s">
         <v>144</v>
       </c>
@@ -33603,7 +33603,7 @@
         <v>1263</v>
       </c>
       <c r="L67" s="19" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="M67" s="9" t="s">
         <v>251</v>
@@ -33629,7 +33629,7 @@
       <c r="T67" s="9"/>
       <c r="U67" s="9"/>
     </row>
-    <row r="68" spans="1:21">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68" s="17" t="s">
         <v>144</v>
       </c>
@@ -33664,7 +33664,7 @@
         <v>1264</v>
       </c>
       <c r="L68" s="19" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="M68" s="9" t="s">
         <v>252</v>
@@ -33690,7 +33690,7 @@
       <c r="T68" s="9"/>
       <c r="U68" s="9"/>
     </row>
-    <row r="69" spans="1:21" ht="30">
+    <row r="69" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="17" t="s">
         <v>144</v>
       </c>
@@ -33725,7 +33725,7 @@
         <v>1265</v>
       </c>
       <c r="L69" s="19" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="M69" s="9" t="s">
         <v>253</v>
@@ -33751,7 +33751,7 @@
       <c r="T69" s="9"/>
       <c r="U69" s="9"/>
     </row>
-    <row r="70" spans="1:21" ht="45">
+    <row r="70" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" s="17" t="s">
         <v>144</v>
       </c>
@@ -33786,7 +33786,7 @@
         <v>1266</v>
       </c>
       <c r="L70" s="19" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="M70" s="9" t="s">
         <v>719</v>
@@ -33812,7 +33812,7 @@
       <c r="T70" s="9"/>
       <c r="U70" s="9"/>
     </row>
-    <row r="71" spans="1:21">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A71" s="17" t="s">
         <v>144</v>
       </c>
@@ -33873,7 +33873,7 @@
       <c r="T71" s="9"/>
       <c r="U71" s="9"/>
     </row>
-    <row r="72" spans="1:21">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A72" s="17" t="s">
         <v>144</v>
       </c>
@@ -33908,7 +33908,7 @@
         <v>1268</v>
       </c>
       <c r="L72" s="19" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="M72" s="9" t="s">
         <v>255</v>
@@ -33934,7 +33934,7 @@
       <c r="T72" s="9"/>
       <c r="U72" s="9"/>
     </row>
-    <row r="73" spans="1:21">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A73" s="17" t="s">
         <v>144</v>
       </c>
@@ -33995,7 +33995,7 @@
       <c r="T73" s="9"/>
       <c r="U73" s="9"/>
     </row>
-    <row r="74" spans="1:21" ht="30">
+    <row r="74" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="17" t="s">
         <v>144</v>
       </c>
@@ -34030,7 +34030,7 @@
         <v>1270</v>
       </c>
       <c r="L74" s="19" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="M74" s="9" t="s">
         <v>420</v>
@@ -34056,7 +34056,7 @@
       <c r="T74" s="9"/>
       <c r="U74" s="9"/>
     </row>
-    <row r="75" spans="1:21" ht="43.5" customHeight="1">
+    <row r="75" spans="1:21" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="17" t="s">
         <v>144</v>
       </c>
@@ -34091,7 +34091,7 @@
         <v>1271</v>
       </c>
       <c r="L75" s="19" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="M75" s="9" t="s">
         <v>421</v>
@@ -34117,7 +34117,7 @@
       <c r="T75" s="9"/>
       <c r="U75" s="9"/>
     </row>
-    <row r="76" spans="1:21" ht="43.5" customHeight="1">
+    <row r="76" spans="1:21" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="17" t="s">
         <v>144</v>
       </c>
@@ -34143,7 +34143,7 @@
         <v>1339</v>
       </c>
       <c r="I76" s="19" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="J76" s="9" t="s">
         <v>1437</v>
@@ -34152,7 +34152,7 @@
         <v>1673</v>
       </c>
       <c r="L76" s="19" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="M76" s="9" t="s">
         <v>572</v>
@@ -34178,7 +34178,7 @@
       <c r="T76" s="9"/>
       <c r="U76" s="9"/>
     </row>
-    <row r="77" spans="1:21" ht="45">
+    <row r="77" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A77" s="17" t="s">
         <v>144</v>
       </c>
@@ -34201,7 +34201,7 @@
         <v>1683</v>
       </c>
       <c r="H77" s="9" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="I77" s="19" t="s">
         <v>1684</v>
@@ -34213,7 +34213,7 @@
         <v>1686</v>
       </c>
       <c r="L77" s="19" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="M77" s="9" t="s">
         <v>1687</v>
@@ -34239,7 +34239,7 @@
       <c r="T77" s="9"/>
       <c r="U77" s="9"/>
     </row>
-    <row r="78" spans="1:21" ht="45">
+    <row r="78" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A78" s="17" t="s">
         <v>144</v>
       </c>
@@ -34274,7 +34274,7 @@
         <v>1701</v>
       </c>
       <c r="L78" s="19" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="M78" s="9" t="s">
         <v>1702</v>
@@ -34300,7 +34300,7 @@
       <c r="T78" s="9"/>
       <c r="U78" s="9"/>
     </row>
-    <row r="79" spans="1:21" ht="45">
+    <row r="79" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A79" s="17" t="s">
         <v>144</v>
       </c>
@@ -34335,7 +34335,7 @@
         <v>1716</v>
       </c>
       <c r="L79" s="19" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="M79" s="9" t="s">
         <v>1717</v>
@@ -34361,7 +34361,7 @@
       <c r="T79" s="9"/>
       <c r="U79" s="9"/>
     </row>
-    <row r="80" spans="1:21">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A80" s="17" t="s">
         <v>144</v>
       </c>
@@ -34396,7 +34396,7 @@
         <v>1272</v>
       </c>
       <c r="L80" s="19" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="M80" s="9" t="s">
         <v>257</v>
@@ -34422,7 +34422,7 @@
       <c r="T80" s="9"/>
       <c r="U80" s="9"/>
     </row>
-    <row r="81" spans="1:21" ht="60">
+    <row r="81" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A81" s="17" t="s">
         <v>144</v>
       </c>
@@ -34457,7 +34457,7 @@
         <v>1524</v>
       </c>
       <c r="L81" s="19" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="M81" s="9" t="s">
         <v>1517</v>
@@ -34483,7 +34483,7 @@
       <c r="T81" s="9"/>
       <c r="U81" s="9"/>
     </row>
-    <row r="82" spans="1:21" ht="30">
+    <row r="82" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="17" t="s">
         <v>144</v>
       </c>
@@ -34518,7 +34518,7 @@
         <v>1274</v>
       </c>
       <c r="L82" s="19" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="M82" s="9" t="s">
         <v>720</v>
@@ -34544,7 +34544,7 @@
       <c r="T82" s="9"/>
       <c r="U82" s="9"/>
     </row>
-    <row r="83" spans="1:21" ht="30">
+    <row r="83" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="17" t="s">
         <v>144</v>
       </c>
@@ -34579,7 +34579,7 @@
         <v>1275</v>
       </c>
       <c r="L83" s="19" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="M83" s="9" t="s">
         <v>721</v>
@@ -34605,7 +34605,7 @@
       <c r="T83" s="9"/>
       <c r="U83" s="9"/>
     </row>
-    <row r="84" spans="1:21">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A84" s="17" t="s">
         <v>144</v>
       </c>
@@ -34640,7 +34640,7 @@
         <v>1276</v>
       </c>
       <c r="L84" s="19" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="M84" s="9" t="s">
         <v>556</v>
@@ -34666,7 +34666,7 @@
       <c r="T84" s="9"/>
       <c r="U84" s="9"/>
     </row>
-    <row r="85" spans="1:21" ht="80.25" customHeight="1">
+    <row r="85" spans="1:21" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="17" t="s">
         <v>143</v>
       </c>
@@ -34692,7 +34692,7 @@
         <v>970</v>
       </c>
       <c r="I85" s="19" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="J85" s="9" t="s">
         <v>1439</v>
@@ -34725,7 +34725,7 @@
       <c r="T85" s="9"/>
       <c r="U85" s="9"/>
     </row>
-    <row r="86" spans="1:21" ht="67.5" customHeight="1">
+    <row r="86" spans="1:21" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="17" t="s">
         <v>143</v>
       </c>
@@ -34751,7 +34751,7 @@
         <v>972</v>
       </c>
       <c r="I86" s="19" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="J86" s="9" t="s">
         <v>1440</v>
@@ -34784,7 +34784,7 @@
       <c r="T86" s="9"/>
       <c r="U86" s="9"/>
     </row>
-    <row r="87" spans="1:21" ht="30">
+    <row r="87" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="17" t="s">
         <v>143</v>
       </c>
@@ -34807,7 +34807,7 @@
         <v>1209</v>
       </c>
       <c r="H87" s="9" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="I87" s="19" t="s">
         <v>1071</v>
@@ -34819,7 +34819,7 @@
         <v>1279</v>
       </c>
       <c r="L87" s="19" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="M87" s="9" t="s">
         <v>581</v>
@@ -34845,7 +34845,7 @@
       <c r="T87" s="9"/>
       <c r="U87" s="9"/>
     </row>
-    <row r="88" spans="1:21" ht="238.5" customHeight="1">
+    <row r="88" spans="1:21" ht="238.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="17" t="s">
         <v>143</v>
       </c>
@@ -34853,10 +34853,10 @@
         <v>1803</v>
       </c>
       <c r="C88" s="10" t="s">
+        <v>1855</v>
+      </c>
+      <c r="D88" s="9" t="s">
         <v>1856</v>
-      </c>
-      <c r="D88" s="9" t="s">
-        <v>1857</v>
       </c>
       <c r="E88" s="9" t="s">
         <v>1587</v>
@@ -34865,37 +34865,37 @@
         <v>1478</v>
       </c>
       <c r="G88" s="10" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="H88" s="9" t="s">
         <v>1463</v>
       </c>
       <c r="I88" s="19" t="s">
+        <v>1858</v>
+      </c>
+      <c r="J88" s="9" t="s">
         <v>1859</v>
       </c>
-      <c r="J88" s="9" t="s">
+      <c r="K88" s="19" t="s">
         <v>1860</v>
       </c>
-      <c r="K88" s="19" t="s">
+      <c r="L88" s="19" t="s">
+        <v>1921</v>
+      </c>
+      <c r="M88" s="9" t="s">
         <v>1861</v>
       </c>
-      <c r="L88" s="19" t="s">
-        <v>1922</v>
-      </c>
-      <c r="M88" s="9" t="s">
+      <c r="N88" s="9" t="s">
         <v>1862</v>
-      </c>
-      <c r="N88" s="9" t="s">
-        <v>1863</v>
       </c>
       <c r="O88" s="9" t="s">
         <v>1588</v>
       </c>
       <c r="P88" s="9" t="s">
+        <v>1863</v>
+      </c>
+      <c r="Q88" s="9" t="s">
         <v>1864</v>
-      </c>
-      <c r="Q88" s="9" t="s">
-        <v>1865</v>
       </c>
       <c r="R88" s="9" t="s">
         <v>1658</v>
@@ -34906,7 +34906,7 @@
       <c r="T88" s="9"/>
       <c r="U88" s="9"/>
     </row>
-    <row r="89" spans="1:21" ht="238.5" customHeight="1">
+    <row r="89" spans="1:21" ht="238.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="17" t="s">
         <v>143</v>
       </c>
@@ -34914,10 +34914,10 @@
         <v>178</v>
       </c>
       <c r="C89" s="10" t="s">
+        <v>1865</v>
+      </c>
+      <c r="D89" s="9" t="s">
         <v>1866</v>
-      </c>
-      <c r="D89" s="9" t="s">
-        <v>1867</v>
       </c>
       <c r="E89" s="9" t="s">
         <v>1800</v>
@@ -34926,37 +34926,37 @@
         <v>1801</v>
       </c>
       <c r="G89" s="10" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="H89" s="9" t="s">
         <v>1802</v>
       </c>
       <c r="I89" s="19" t="s">
+        <v>1868</v>
+      </c>
+      <c r="J89" s="9" t="s">
         <v>1869</v>
       </c>
-      <c r="J89" s="9" t="s">
+      <c r="K89" s="19" t="s">
         <v>1870</v>
       </c>
-      <c r="K89" s="19" t="s">
+      <c r="L89" s="19" t="s">
+        <v>1922</v>
+      </c>
+      <c r="M89" s="9" t="s">
         <v>1871</v>
       </c>
-      <c r="L89" s="19" t="s">
-        <v>1923</v>
-      </c>
-      <c r="M89" s="9" t="s">
+      <c r="N89" s="9" t="s">
         <v>1872</v>
-      </c>
-      <c r="N89" s="9" t="s">
-        <v>1873</v>
       </c>
       <c r="O89" s="9" t="s">
         <v>1804</v>
       </c>
       <c r="P89" s="9" t="s">
+        <v>1873</v>
+      </c>
+      <c r="Q89" s="9" t="s">
         <v>1874</v>
-      </c>
-      <c r="Q89" s="9" t="s">
-        <v>1875</v>
       </c>
       <c r="R89" s="9" t="s">
         <v>1806</v>
@@ -34967,7 +34967,7 @@
       <c r="T89" s="9"/>
       <c r="U89" s="9"/>
     </row>
-    <row r="90" spans="1:21" ht="238.5" customHeight="1">
+    <row r="90" spans="1:21" ht="238.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="17" t="s">
         <v>143</v>
       </c>
@@ -34975,10 +34975,10 @@
         <v>247</v>
       </c>
       <c r="C90" s="10" t="s">
+        <v>1875</v>
+      </c>
+      <c r="D90" s="9" t="s">
         <v>1876</v>
-      </c>
-      <c r="D90" s="9" t="s">
-        <v>1877</v>
       </c>
       <c r="E90" s="9" t="s">
         <v>1479</v>
@@ -34993,31 +34993,31 @@
         <v>1344</v>
       </c>
       <c r="I90" s="19" t="s">
+        <v>1877</v>
+      </c>
+      <c r="J90" s="9" t="s">
         <v>1878</v>
       </c>
-      <c r="J90" s="9" t="s">
+      <c r="K90" s="19" t="s">
         <v>1879</v>
       </c>
-      <c r="K90" s="19" t="s">
+      <c r="L90" s="50" t="s">
+        <v>1923</v>
+      </c>
+      <c r="M90" s="9" t="s">
         <v>1880</v>
       </c>
-      <c r="L90" s="50" t="s">
-        <v>1924</v>
-      </c>
-      <c r="M90" s="9" t="s">
+      <c r="N90" s="9" t="s">
         <v>1881</v>
-      </c>
-      <c r="N90" s="9" t="s">
-        <v>1882</v>
       </c>
       <c r="O90" s="9" t="s">
         <v>1011</v>
       </c>
       <c r="P90" s="9" t="s">
+        <v>1882</v>
+      </c>
+      <c r="Q90" s="9" t="s">
         <v>1883</v>
-      </c>
-      <c r="Q90" s="9" t="s">
-        <v>1884</v>
       </c>
       <c r="R90" s="9" t="s">
         <v>1659</v>
@@ -35028,7 +35028,7 @@
       <c r="T90" s="9"/>
       <c r="U90" s="9"/>
     </row>
-    <row r="91" spans="1:21" ht="45">
+    <row r="91" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" s="17" t="s">
         <v>143</v>
       </c>
@@ -35063,7 +35063,7 @@
         <v>1330</v>
       </c>
       <c r="L91" s="19" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="M91" s="9" t="s">
         <v>1589</v>
@@ -35089,7 +35089,7 @@
       <c r="T91" s="9"/>
       <c r="U91" s="9"/>
     </row>
-    <row r="92" spans="1:21">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A92" s="17" t="s">
         <v>143</v>
       </c>
@@ -35124,7 +35124,7 @@
         <v>1323</v>
       </c>
       <c r="L92" s="19" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="M92" s="9" t="s">
         <v>557</v>
@@ -35150,7 +35150,7 @@
       <c r="T92" s="9"/>
       <c r="U92" s="9"/>
     </row>
-    <row r="93" spans="1:21">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A93" s="17" t="s">
         <v>143</v>
       </c>
@@ -35185,7 +35185,7 @@
         <v>1324</v>
       </c>
       <c r="L93" s="19" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="M93" s="9" t="s">
         <v>501</v>
@@ -35211,7 +35211,7 @@
       <c r="T93" s="9"/>
       <c r="U93" s="9"/>
     </row>
-    <row r="94" spans="1:21" ht="30">
+    <row r="94" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="17" t="s">
         <v>143</v>
       </c>
@@ -35246,7 +35246,7 @@
         <v>1282</v>
       </c>
       <c r="L94" s="19" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="M94" s="9" t="s">
         <v>408</v>
@@ -35272,7 +35272,7 @@
       <c r="T94" s="9"/>
       <c r="U94" s="9"/>
     </row>
-    <row r="95" spans="1:21">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A95" s="17" t="s">
         <v>143</v>
       </c>
@@ -35307,7 +35307,7 @@
         <v>1325</v>
       </c>
       <c r="L95" s="19" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="M95" s="9" t="s">
         <v>502</v>
@@ -35333,7 +35333,7 @@
       <c r="T95" s="9"/>
       <c r="U95" s="9"/>
     </row>
-    <row r="96" spans="1:21" ht="45">
+    <row r="96" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A96" s="17" t="s">
         <v>143</v>
       </c>
@@ -35368,7 +35368,7 @@
         <v>1283</v>
       </c>
       <c r="L96" s="19" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="M96" s="9" t="s">
         <v>409</v>
@@ -35394,7 +35394,7 @@
       <c r="T96" s="9"/>
       <c r="U96" s="9"/>
     </row>
-    <row r="97" spans="1:21">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A97" s="17" t="s">
         <v>143</v>
       </c>
@@ -35429,7 +35429,7 @@
         <v>1284</v>
       </c>
       <c r="L97" s="19" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="M97" s="9" t="s">
         <v>410</v>
@@ -35455,7 +35455,7 @@
       <c r="T97" s="9"/>
       <c r="U97" s="9"/>
     </row>
-    <row r="98" spans="1:21" ht="45">
+    <row r="98" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A98" s="17" t="s">
         <v>143</v>
       </c>
@@ -35490,7 +35490,7 @@
         <v>1763</v>
       </c>
       <c r="L98" s="19" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="M98" s="9" t="s">
         <v>1757</v>
@@ -35516,7 +35516,7 @@
       <c r="T98" s="9"/>
       <c r="U98" s="9"/>
     </row>
-    <row r="99" spans="1:21" ht="30">
+    <row r="99" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="17" t="s">
         <v>143</v>
       </c>
@@ -35539,7 +35539,7 @@
         <v>1214</v>
       </c>
       <c r="H99" s="9" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="I99" s="19" t="s">
         <v>1112</v>
@@ -35548,10 +35548,10 @@
         <v>1621</v>
       </c>
       <c r="K99" s="19" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="L99" s="19" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="M99" s="9" t="s">
         <v>411</v>
@@ -35577,7 +35577,7 @@
       <c r="T99" s="9"/>
       <c r="U99" s="9"/>
     </row>
-    <row r="100" spans="1:21" ht="30">
+    <row r="100" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="17" t="s">
         <v>143</v>
       </c>
@@ -35600,7 +35600,7 @@
         <v>1215</v>
       </c>
       <c r="H100" s="9" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="I100" s="19" t="s">
         <v>1113</v>
@@ -35609,7 +35609,7 @@
         <v>1513</v>
       </c>
       <c r="K100" s="19" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="L100" s="19" t="s">
         <v>1060</v>
@@ -35638,7 +35638,7 @@
       <c r="T100" s="9"/>
       <c r="U100" s="9"/>
     </row>
-    <row r="101" spans="1:21" ht="30">
+    <row r="101" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="17" t="s">
         <v>143</v>
       </c>
@@ -35673,7 +35673,7 @@
         <v>1285</v>
       </c>
       <c r="L101" s="19" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="M101" s="9" t="s">
         <v>413</v>
@@ -35699,7 +35699,7 @@
       <c r="T101" s="9"/>
       <c r="U101" s="9"/>
     </row>
-    <row r="102" spans="1:21" ht="30">
+    <row r="102" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="17" t="s">
         <v>143</v>
       </c>
@@ -35734,7 +35734,7 @@
         <v>1286</v>
       </c>
       <c r="L102" s="19" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="M102" s="9" t="s">
         <v>414</v>
@@ -35760,7 +35760,7 @@
       <c r="T102" s="9"/>
       <c r="U102" s="9"/>
     </row>
-    <row r="103" spans="1:21" ht="45">
+    <row r="103" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A103" s="17" t="s">
         <v>143</v>
       </c>
@@ -35795,7 +35795,7 @@
         <v>1287</v>
       </c>
       <c r="L103" s="19" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="M103" s="9" t="s">
         <v>1723</v>
@@ -35821,7 +35821,7 @@
       <c r="T103" s="9"/>
       <c r="U103" s="9"/>
     </row>
-    <row r="104" spans="1:21" ht="30">
+    <row r="104" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="17" t="s">
         <v>143</v>
       </c>
@@ -35856,7 +35856,7 @@
         <v>1288</v>
       </c>
       <c r="L104" s="19" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="M104" s="9" t="s">
         <v>258</v>
@@ -35882,7 +35882,7 @@
       <c r="T104" s="9"/>
       <c r="U104" s="9"/>
     </row>
-    <row r="105" spans="1:21" ht="30">
+    <row r="105" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="17" t="s">
         <v>143</v>
       </c>
@@ -35917,7 +35917,7 @@
         <v>1289</v>
       </c>
       <c r="L105" s="19" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="M105" s="9" t="s">
         <v>259</v>
@@ -35943,7 +35943,7 @@
       <c r="T105" s="9"/>
       <c r="U105" s="9"/>
     </row>
-    <row r="106" spans="1:21" ht="30">
+    <row r="106" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="17" t="s">
         <v>143</v>
       </c>
@@ -35978,7 +35978,7 @@
         <v>1290</v>
       </c>
       <c r="L106" s="19" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="M106" s="9" t="s">
         <v>260</v>
@@ -36004,7 +36004,7 @@
       <c r="T106" s="9"/>
       <c r="U106" s="9"/>
     </row>
-    <row r="107" spans="1:21" ht="210">
+    <row r="107" spans="1:21" ht="210" x14ac:dyDescent="0.25">
       <c r="A107" s="17" t="s">
         <v>143</v>
       </c>
@@ -36039,7 +36039,7 @@
         <v>1291</v>
       </c>
       <c r="L107" s="19" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="M107" s="9" t="s">
         <v>1724</v>
@@ -36065,7 +36065,7 @@
       <c r="T107" s="9"/>
       <c r="U107" s="9"/>
     </row>
-    <row r="108" spans="1:21" ht="30">
+    <row r="108" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="17" t="s">
         <v>143</v>
       </c>
@@ -36100,7 +36100,7 @@
         <v>1326</v>
       </c>
       <c r="L108" s="19" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="M108" s="9" t="s">
         <v>498</v>
@@ -36126,7 +36126,7 @@
       <c r="T108" s="9"/>
       <c r="U108" s="9"/>
     </row>
-    <row r="109" spans="1:21" ht="30">
+    <row r="109" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="17" t="s">
         <v>143</v>
       </c>
@@ -36161,7 +36161,7 @@
         <v>1327</v>
       </c>
       <c r="L109" s="19" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="M109" s="9" t="s">
         <v>499</v>
@@ -36187,7 +36187,7 @@
       <c r="T109" s="9"/>
       <c r="U109" s="9"/>
     </row>
-    <row r="110" spans="1:21" ht="30">
+    <row r="110" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="17" t="s">
         <v>143</v>
       </c>
@@ -36213,7 +36213,7 @@
         <v>1361</v>
       </c>
       <c r="I110" s="19" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="J110" s="9" t="s">
         <v>1448</v>
@@ -36222,7 +36222,7 @@
         <v>1328</v>
       </c>
       <c r="L110" s="19" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="M110" s="9" t="s">
         <v>500</v>
@@ -36248,7 +36248,7 @@
       <c r="T110" s="9"/>
       <c r="U110" s="9"/>
     </row>
-    <row r="111" spans="1:21">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A111" s="17" t="s">
         <v>143</v>
       </c>
@@ -36283,7 +36283,7 @@
         <v>1292</v>
       </c>
       <c r="L111" s="19" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="M111" s="9" t="s">
         <v>261</v>
@@ -36309,7 +36309,7 @@
       <c r="T111" s="9"/>
       <c r="U111" s="9"/>
     </row>
-    <row r="112" spans="1:21" ht="45">
+    <row r="112" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A112" s="17" t="s">
         <v>143</v>
       </c>
@@ -36370,7 +36370,7 @@
       <c r="T112" s="9"/>
       <c r="U112" s="9"/>
     </row>
-    <row r="113" spans="1:21">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A113" s="17" t="s">
         <v>143</v>
       </c>
@@ -36405,7 +36405,7 @@
         <v>1294</v>
       </c>
       <c r="L113" s="19" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="M113" s="9" t="s">
         <v>262</v>
@@ -36431,7 +36431,7 @@
       <c r="T113" s="9"/>
       <c r="U113" s="9"/>
     </row>
-    <row r="114" spans="1:21" ht="45">
+    <row r="114" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A114" s="17" t="s">
         <v>143</v>
       </c>
@@ -36466,7 +36466,7 @@
         <v>1295</v>
       </c>
       <c r="L114" s="19" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="M114" s="9" t="s">
         <v>263</v>
@@ -36492,7 +36492,7 @@
       <c r="T114" s="9"/>
       <c r="U114" s="9"/>
     </row>
-    <row r="115" spans="1:21">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A115" s="17" t="s">
         <v>143</v>
       </c>
@@ -36527,7 +36527,7 @@
         <v>1296</v>
       </c>
       <c r="L115" s="19" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="M115" s="9" t="s">
         <v>416</v>
@@ -36553,7 +36553,7 @@
       <c r="T115" s="9"/>
       <c r="U115" s="9"/>
     </row>
-    <row r="116" spans="1:21">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A116" s="17" t="s">
         <v>143</v>
       </c>
@@ -36588,7 +36588,7 @@
         <v>1297</v>
       </c>
       <c r="L116" s="19" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="M116" s="9" t="s">
         <v>264</v>
@@ -36614,7 +36614,7 @@
       <c r="T116" s="9"/>
       <c r="U116" s="9"/>
     </row>
-    <row r="117" spans="1:21" ht="30">
+    <row r="117" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="17" t="s">
         <v>143</v>
       </c>
@@ -36649,7 +36649,7 @@
         <v>1298</v>
       </c>
       <c r="L117" s="19" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="M117" s="9" t="s">
         <v>265</v>
@@ -36675,7 +36675,7 @@
       <c r="T117" s="9"/>
       <c r="U117" s="9"/>
     </row>
-    <row r="118" spans="1:21">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A118" s="17" t="s">
         <v>143</v>
       </c>
@@ -36710,7 +36710,7 @@
         <v>1299</v>
       </c>
       <c r="L118" s="19" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="M118" s="9" t="s">
         <v>266</v>
@@ -36736,7 +36736,7 @@
       <c r="T118" s="9"/>
       <c r="U118" s="9"/>
     </row>
-    <row r="119" spans="1:21">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A119" s="17" t="s">
         <v>143</v>
       </c>
@@ -36771,7 +36771,7 @@
         <v>1300</v>
       </c>
       <c r="L119" s="19" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="M119" s="9" t="s">
         <v>267</v>
@@ -36797,7 +36797,7 @@
       <c r="T119" s="9"/>
       <c r="U119" s="9"/>
     </row>
-    <row r="120" spans="1:21">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A120" s="17" t="s">
         <v>143</v>
       </c>
@@ -36832,7 +36832,7 @@
         <v>1301</v>
       </c>
       <c r="L120" s="19" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="M120" s="9" t="s">
         <v>268</v>
@@ -36858,7 +36858,7 @@
       <c r="T120" s="9"/>
       <c r="U120" s="9"/>
     </row>
-    <row r="121" spans="1:21" ht="30">
+    <row r="121" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="17" t="s">
         <v>143</v>
       </c>
@@ -36893,7 +36893,7 @@
         <v>1302</v>
       </c>
       <c r="L121" s="19" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="M121" s="9" t="s">
         <v>269</v>
@@ -36919,7 +36919,7 @@
       <c r="T121" s="9"/>
       <c r="U121" s="9"/>
     </row>
-    <row r="122" spans="1:21">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A122" s="17" t="s">
         <v>143</v>
       </c>
@@ -36954,7 +36954,7 @@
         <v>1280</v>
       </c>
       <c r="L122" s="19" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="M122" s="9" t="s">
         <v>592</v>
@@ -36980,7 +36980,7 @@
       <c r="T122" s="9"/>
       <c r="U122" s="9"/>
     </row>
-    <row r="123" spans="1:21">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A123" s="17" t="s">
         <v>143</v>
       </c>
@@ -37015,7 +37015,7 @@
         <v>1303</v>
       </c>
       <c r="L123" s="19" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="M123" s="9" t="s">
         <v>601</v>
@@ -37041,7 +37041,7 @@
       <c r="T123" s="9"/>
       <c r="U123" s="9"/>
     </row>
-    <row r="124" spans="1:21" ht="241.5" customHeight="1">
+    <row r="124" spans="1:21" ht="241.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="17" t="s">
         <v>143</v>
       </c>
@@ -37076,7 +37076,7 @@
         <v>1281</v>
       </c>
       <c r="L124" s="19" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="M124" s="9" t="s">
         <v>1593</v>
@@ -37102,7 +37102,7 @@
       <c r="T124" s="9"/>
       <c r="U124" s="9"/>
     </row>
-    <row r="125" spans="1:21">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A125" s="17" t="s">
         <v>143</v>
       </c>
@@ -37137,7 +37137,7 @@
         <v>1304</v>
       </c>
       <c r="L125" s="19" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="M125" s="9" t="s">
         <v>602</v>
@@ -37163,7 +37163,7 @@
       <c r="T125" s="9"/>
       <c r="U125" s="9"/>
     </row>
-    <row r="126" spans="1:21">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A126" s="17" t="s">
         <v>143</v>
       </c>
@@ -37189,7 +37189,7 @@
         <v>1372</v>
       </c>
       <c r="I126" s="19" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="J126" s="9" t="s">
         <v>1452</v>
@@ -37198,7 +37198,7 @@
         <v>1305</v>
       </c>
       <c r="L126" s="19" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="M126" s="9" t="s">
         <v>796</v>
@@ -37224,7 +37224,7 @@
       <c r="T126" s="9"/>
       <c r="U126" s="9"/>
     </row>
-    <row r="127" spans="1:21" ht="210">
+    <row r="127" spans="1:21" ht="210" x14ac:dyDescent="0.25">
       <c r="A127" s="17" t="s">
         <v>143</v>
       </c>
@@ -37259,7 +37259,7 @@
         <v>1306</v>
       </c>
       <c r="L127" s="19" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="M127" s="9" t="s">
         <v>1725</v>
@@ -37285,7 +37285,7 @@
       <c r="T127" s="9"/>
       <c r="U127" s="9"/>
     </row>
-    <row r="128" spans="1:21" ht="30">
+    <row r="128" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="17" t="s">
         <v>143</v>
       </c>
@@ -37320,7 +37320,7 @@
         <v>1307</v>
       </c>
       <c r="L128" s="19" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="M128" s="9" t="s">
         <v>555</v>
@@ -37346,7 +37346,7 @@
       <c r="T128" s="9"/>
       <c r="U128" s="9"/>
     </row>
-    <row r="129" spans="1:21">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A129" s="17" t="s">
         <v>143</v>
       </c>
@@ -37381,7 +37381,7 @@
         <v>1308</v>
       </c>
       <c r="L129" s="19" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="M129" s="9" t="s">
         <v>270</v>
@@ -37407,7 +37407,7 @@
       <c r="T129" s="9"/>
       <c r="U129" s="9"/>
     </row>
-    <row r="130" spans="1:21" ht="30">
+    <row r="130" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="17" t="s">
         <v>143</v>
       </c>
@@ -37442,7 +37442,7 @@
         <v>1309</v>
       </c>
       <c r="L130" s="19" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="M130" s="9" t="s">
         <v>271</v>
@@ -37468,7 +37468,7 @@
       <c r="T130" s="9"/>
       <c r="U130" s="9"/>
     </row>
-    <row r="131" spans="1:21">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A131" s="17" t="s">
         <v>143</v>
       </c>
@@ -37503,7 +37503,7 @@
         <v>1310</v>
       </c>
       <c r="L131" s="19" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="M131" s="9" t="s">
         <v>272</v>
@@ -37529,7 +37529,7 @@
       <c r="T131" s="9"/>
       <c r="U131" s="9"/>
     </row>
-    <row r="132" spans="1:21" ht="210">
+    <row r="132" spans="1:21" ht="210" x14ac:dyDescent="0.25">
       <c r="A132" s="17" t="s">
         <v>143</v>
       </c>
@@ -37555,7 +37555,7 @@
         <v>1378</v>
       </c>
       <c r="I132" s="19" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="J132" s="12" t="s">
         <v>455</v>
@@ -37564,7 +37564,7 @@
         <v>1311</v>
       </c>
       <c r="L132" s="19" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="M132" s="9" t="s">
         <v>1726</v>
@@ -37590,7 +37590,7 @@
       <c r="T132" s="9"/>
       <c r="U132" s="9"/>
     </row>
-    <row r="133" spans="1:21" ht="30">
+    <row r="133" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="17" t="s">
         <v>143</v>
       </c>
@@ -37616,7 +37616,7 @@
         <v>1379</v>
       </c>
       <c r="I133" s="19" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="J133" s="9" t="s">
         <v>456</v>
@@ -37625,7 +37625,7 @@
         <v>1312</v>
       </c>
       <c r="L133" s="19" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="M133" s="9" t="s">
         <v>417</v>
@@ -37651,7 +37651,7 @@
       <c r="T133" s="9"/>
       <c r="U133" s="9"/>
     </row>
-    <row r="134" spans="1:21" ht="30">
+    <row r="134" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" s="17" t="s">
         <v>143</v>
       </c>
@@ -37686,7 +37686,7 @@
         <v>1313</v>
       </c>
       <c r="L134" s="19" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="M134" s="9" t="s">
         <v>630</v>
@@ -37712,7 +37712,7 @@
       <c r="T134" s="9"/>
       <c r="U134" s="9"/>
     </row>
-    <row r="135" spans="1:21">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A135" s="17" t="s">
         <v>143</v>
       </c>
@@ -37747,7 +37747,7 @@
         <v>1314</v>
       </c>
       <c r="L135" s="19" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="M135" s="9" t="s">
         <v>704</v>
@@ -37773,7 +37773,7 @@
       <c r="T135" s="9"/>
       <c r="U135" s="9"/>
     </row>
-    <row r="136" spans="1:21">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A136" s="17" t="s">
         <v>143</v>
       </c>
@@ -37834,7 +37834,7 @@
       <c r="T136" s="9"/>
       <c r="U136" s="9"/>
     </row>
-    <row r="137" spans="1:21">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A137" s="17" t="s">
         <v>143</v>
       </c>
@@ -37869,7 +37869,7 @@
         <v>1316</v>
       </c>
       <c r="L137" s="19" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="M137" s="9" t="s">
         <v>632</v>
@@ -37895,7 +37895,7 @@
       <c r="T137" s="9"/>
       <c r="U137" s="9"/>
     </row>
-    <row r="138" spans="1:21">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A138" s="17" t="s">
         <v>143</v>
       </c>
@@ -37930,7 +37930,7 @@
         <v>1317</v>
       </c>
       <c r="L138" s="19" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="M138" s="9" t="s">
         <v>633</v>
@@ -37956,7 +37956,7 @@
       <c r="T138" s="9"/>
       <c r="U138" s="9"/>
     </row>
-    <row r="139" spans="1:21">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A139" s="17" t="s">
         <v>143</v>
       </c>
@@ -37991,7 +37991,7 @@
         <v>1318</v>
       </c>
       <c r="L139" s="10" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="M139" s="10" t="s">
         <v>855</v>
@@ -38017,7 +38017,7 @@
       <c r="T139" s="9"/>
       <c r="U139" s="9"/>
     </row>
-    <row r="140" spans="1:21">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A140" s="17" t="s">
         <v>143</v>
       </c>
@@ -38052,7 +38052,7 @@
         <v>1319</v>
       </c>
       <c r="L140" s="10" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="M140" s="10" t="s">
         <v>656</v>
@@ -38078,7 +38078,7 @@
       <c r="T140" s="9"/>
       <c r="U140" s="9"/>
     </row>
-    <row r="141" spans="1:21">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A141" s="17" t="s">
         <v>143</v>
       </c>
@@ -38139,7 +38139,7 @@
       <c r="T141" s="9"/>
       <c r="U141" s="9"/>
     </row>
-    <row r="142" spans="1:21" ht="45">
+    <row r="142" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A142" s="17" t="s">
         <v>143</v>
       </c>
@@ -38174,7 +38174,7 @@
         <v>1674</v>
       </c>
       <c r="L142" s="19" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="M142" s="9" t="s">
         <v>331</v>
@@ -38200,7 +38200,7 @@
       <c r="T142" s="9"/>
       <c r="U142" s="9"/>
     </row>
-    <row r="143" spans="1:21" ht="409.5">
+    <row r="143" spans="1:21" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A143" s="17" t="s">
         <v>143</v>
       </c>
@@ -38234,7 +38234,7 @@
       <c r="T143" s="9"/>
       <c r="U143" s="9"/>
     </row>
-    <row r="144" spans="1:21" ht="409.5" customHeight="1">
+    <row r="144" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="17" t="s">
         <v>143</v>
       </c>
@@ -38243,7 +38243,7 @@
         <v>mexico_city - Summary</v>
       </c>
       <c r="C144" s="10" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="D144" s="9"/>
       <c r="E144" s="9"/>
@@ -38255,7 +38255,7 @@
       <c r="K144" s="19"/>
       <c r="L144" s="19"/>
       <c r="M144" s="9" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="N144" s="9"/>
       <c r="O144" s="9"/>
@@ -38268,7 +38268,7 @@
       <c r="T144" s="9"/>
       <c r="U144" s="9"/>
     </row>
-    <row r="145" spans="1:21" ht="409.5" customHeight="1">
+    <row r="145" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="17" t="s">
         <v>143</v>
       </c>
@@ -38300,7 +38300,7 @@
       <c r="T145" s="9"/>
       <c r="U145" s="9"/>
     </row>
-    <row r="146" spans="1:21" ht="409.5" customHeight="1">
+    <row r="146" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="17" t="s">
         <v>143</v>
       </c>
@@ -38309,7 +38309,7 @@
         <v>phoenix - Summary</v>
       </c>
       <c r="C146" s="10" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="D146" s="9"/>
       <c r="E146" s="9"/>
@@ -38332,7 +38332,7 @@
       <c r="T146" s="9"/>
       <c r="U146" s="9"/>
     </row>
-    <row r="147" spans="1:21" ht="409.5" customHeight="1">
+    <row r="147" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="17" t="s">
         <v>143</v>
       </c>
@@ -38341,7 +38341,7 @@
         <v>seattle - Summary</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="D147" s="9"/>
       <c r="E147" s="9"/>
@@ -38364,7 +38364,7 @@
       <c r="T147" s="9"/>
       <c r="U147" s="9"/>
     </row>
-    <row r="148" spans="1:21" ht="409.5" customHeight="1">
+    <row r="148" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="17" t="s">
         <v>143</v>
       </c>
@@ -38373,7 +38373,7 @@
         <v>sao_paulo - Summary</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="D148" s="9"/>
       <c r="E148" s="9"/>
@@ -38398,7 +38398,7 @@
       <c r="T148" s="9"/>
       <c r="U148" s="9"/>
     </row>
-    <row r="149" spans="1:21" ht="409.5" customHeight="1">
+    <row r="149" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="17" t="s">
         <v>143</v>
       </c>
@@ -38407,7 +38407,7 @@
         <v>hong_kong - Summary</v>
       </c>
       <c r="C149" s="10" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="D149" s="9"/>
       <c r="E149" s="9" t="s">
@@ -38434,7 +38434,7 @@
       <c r="T149" s="9"/>
       <c r="U149" s="9"/>
     </row>
-    <row r="150" spans="1:21" ht="409.5" customHeight="1">
+    <row r="150" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="17" t="s">
         <v>143</v>
       </c>
@@ -38468,7 +38468,7 @@
       <c r="T150" s="9"/>
       <c r="U150" s="9"/>
     </row>
-    <row r="151" spans="1:21" ht="409.5" customHeight="1">
+    <row r="151" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="17" t="s">
         <v>143</v>
       </c>
@@ -38502,7 +38502,7 @@
       <c r="T151" s="9"/>
       <c r="U151" s="9"/>
     </row>
-    <row r="152" spans="1:21" ht="409.5" customHeight="1">
+    <row r="152" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="17" t="s">
         <v>143</v>
       </c>
@@ -38536,7 +38536,7 @@
       <c r="T152" s="9"/>
       <c r="U152" s="9"/>
     </row>
-    <row r="153" spans="1:21" ht="409.5" customHeight="1">
+    <row r="153" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="17" t="s">
         <v>143</v>
       </c>
@@ -38545,7 +38545,7 @@
         <v>graz - Summary</v>
       </c>
       <c r="C153" s="10" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="D153" s="9"/>
       <c r="E153" s="9"/>
@@ -38570,16 +38570,16 @@
       <c r="T153" s="9"/>
       <c r="U153" s="9"/>
     </row>
-    <row r="154" spans="1:21" ht="409.5" customHeight="1">
+    <row r="154" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B154" s="18" t="str">
         <f t="shared" ref="B154:B167" si="1">B19&amp;" - "&amp;"Summary"</f>
-        <v>ghent_v2 - Summary</v>
+        <v>ghent_2022 - Summary</v>
       </c>
       <c r="C154" s="10" t="s">
-        <v>1810</v>
+        <v>2052</v>
       </c>
       <c r="D154" s="9"/>
       <c r="E154" s="9"/>
@@ -38587,7 +38587,7 @@
       <c r="G154" s="10"/>
       <c r="H154" s="9"/>
       <c r="I154" s="19" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="J154" s="9"/>
       <c r="K154" s="19"/>
@@ -38604,7 +38604,7 @@
       <c r="T154" s="9"/>
       <c r="U154" s="9"/>
     </row>
-    <row r="155" spans="1:21" ht="409.5" customHeight="1">
+    <row r="155" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="17" t="s">
         <v>143</v>
       </c>
@@ -38638,7 +38638,7 @@
       <c r="T155" s="9"/>
       <c r="U155" s="9"/>
     </row>
-    <row r="156" spans="1:21" ht="409.5" customHeight="1">
+    <row r="156" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="17" t="s">
         <v>143</v>
       </c>
@@ -38672,7 +38672,7 @@
       <c r="T156" s="9"/>
       <c r="U156" s="9"/>
     </row>
-    <row r="157" spans="1:21" ht="409.5" customHeight="1">
+    <row r="157" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="17" t="s">
         <v>143</v>
       </c>
@@ -38706,7 +38706,7 @@
       <c r="T157" s="9"/>
       <c r="U157" s="9"/>
     </row>
-    <row r="158" spans="1:21" ht="409.5" customHeight="1">
+    <row r="158" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="17" t="s">
         <v>143</v>
       </c>
@@ -38715,7 +38715,7 @@
         <v>odense - Summary</v>
       </c>
       <c r="C158" s="10" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="D158" s="9"/>
       <c r="E158" s="9"/>
@@ -38740,7 +38740,7 @@
       <c r="T158" s="9"/>
       <c r="U158" s="9"/>
     </row>
-    <row r="159" spans="1:21" ht="409.5" customHeight="1">
+    <row r="159" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="17" t="s">
         <v>143</v>
       </c>
@@ -38776,16 +38776,16 @@
       <c r="T159" s="9"/>
       <c r="U159" s="9"/>
     </row>
-    <row r="160" spans="1:21" ht="409.5" customHeight="1">
+    <row r="160" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B160" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>valencia - Summary</v>
+        <v>valencia_2022 - Summary</v>
       </c>
       <c r="C160" s="10" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="D160" s="9" t="s">
         <v>1613</v>
@@ -38812,7 +38812,7 @@
       <c r="T160" s="9"/>
       <c r="U160" s="9"/>
     </row>
-    <row r="161" spans="1:21" ht="409.5" customHeight="1">
+    <row r="161" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="17" t="s">
         <v>143</v>
       </c>
@@ -38821,7 +38821,7 @@
         <v>vic - Summary</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="D161" s="9" t="s">
         <v>1614</v>
@@ -38848,7 +38848,7 @@
       <c r="T161" s="9"/>
       <c r="U161" s="9"/>
     </row>
-    <row r="162" spans="1:21" ht="409.5" customHeight="1">
+    <row r="162" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="17" t="s">
         <v>143</v>
       </c>
@@ -38880,7 +38880,7 @@
       <c r="T162" s="9"/>
       <c r="U162" s="9"/>
     </row>
-    <row r="163" spans="1:21" ht="409.5" customHeight="1">
+    <row r="163" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="17" t="s">
         <v>143</v>
       </c>
@@ -38912,7 +38912,7 @@
       <c r="T163" s="9"/>
       <c r="U163" s="9"/>
     </row>
-    <row r="164" spans="1:21" ht="409.5" customHeight="1">
+    <row r="164" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="17" t="s">
         <v>143</v>
       </c>
@@ -38944,7 +38944,7 @@
       <c r="T164" s="9"/>
       <c r="U164" s="9"/>
     </row>
-    <row r="165" spans="1:21" ht="409.5" customHeight="1">
+    <row r="165" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="17" t="s">
         <v>143</v>
       </c>
@@ -38953,7 +38953,7 @@
         <v>melbourne - Summary</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="D165" s="9"/>
       <c r="E165" s="9"/>
@@ -38976,7 +38976,7 @@
       <c r="T165" s="9"/>
       <c r="U165" s="9"/>
     </row>
-    <row r="166" spans="1:21" ht="409.5" customHeight="1">
+    <row r="166" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="17" t="s">
         <v>143</v>
       </c>
@@ -38985,7 +38985,7 @@
         <v>sydney - Summary</v>
       </c>
       <c r="C166" s="10" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="D166" s="9"/>
       <c r="E166" s="9"/>
@@ -39008,7 +39008,7 @@
       <c r="T166" s="9"/>
       <c r="U166" s="9"/>
     </row>
-    <row r="167" spans="1:21" ht="405">
+    <row r="167" spans="1:21" ht="405" x14ac:dyDescent="0.25">
       <c r="A167" s="17" t="s">
         <v>143</v>
       </c>
@@ -39027,7 +39027,7 @@
       <c r="J167" s="9"/>
       <c r="K167" s="19"/>
       <c r="L167" s="19" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="M167" s="9"/>
       <c r="N167" s="9"/>
@@ -39041,7 +39041,7 @@
       <c r="T167" s="9"/>
       <c r="U167" s="9"/>
     </row>
-    <row r="168" spans="1:21" s="2" customFormat="1">
+    <row r="168" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="25" t="s">
         <v>143</v>
       </c>
@@ -39049,7 +39049,7 @@
         <v>815</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>1498</v>
@@ -39073,16 +39073,16 @@
         <v>1672</v>
       </c>
       <c r="L168" s="51" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="M168" s="2" t="s">
         <v>763</v>
       </c>
       <c r="N168" s="2" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="O168" s="2" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="P168" s="2" t="s">
         <v>1401</v>
@@ -39097,7 +39097,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="169" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="169" spans="1:21" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A169" s="25" t="s">
         <v>143</v>
       </c>
@@ -39112,7 +39112,7 @@
       </c>
       <c r="H169" s="3"/>
     </row>
-    <row r="170" spans="1:21">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A170" s="17" t="s">
         <v>143</v>
       </c>
@@ -39147,7 +39147,7 @@
         <v>1322</v>
       </c>
       <c r="L170" s="3" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="M170" s="3" t="s">
         <v>995</v>
@@ -39171,7 +39171,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="171" spans="1:21">
+    <row r="171" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A171" s="17" t="s">
         <v>143</v>
       </c>
@@ -39230,7 +39230,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="172" spans="1:21">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A172" s="17" t="s">
         <v>143</v>
       </c>
@@ -39265,7 +39265,7 @@
         <v>1329</v>
       </c>
       <c r="L172" s="3" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="M172" s="3" t="s">
         <v>991</v>
@@ -39403,14 +39403,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67CAA5C4-0A70-4221-8832-C196189F112B}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" style="2" customWidth="1"/>
     <col min="2" max="2" width="47.7109375" style="3" customWidth="1"/>
@@ -39421,7 +39421,7 @@
     <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>707</v>
       </c>
@@ -39447,12 +39447,12 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="409.5" customHeight="1">
+    <row r="2" spans="1:8" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>1465</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>974</v>
@@ -39470,12 +39470,12 @@
         <v>1727</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>2052</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="75">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>1458</v>
@@ -39496,12 +39496,12 @@
         <v>1740</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>1894</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="75">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>762</v>
@@ -39522,12 +39522,12 @@
         <v>1728</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>1890</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="30">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>984</v>
@@ -39551,9 +39551,9 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="45">
+    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>1651</v>
@@ -39577,9 +39577,9 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="90.75" customHeight="1">
+    <row r="7" spans="1:8" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>1650</v>
@@ -39603,12 +39603,12 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="75">
+    <row r="8" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>1043</v>
@@ -39626,12 +39626,12 @@
         <v>1736</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>1892</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="180">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>1423</v>
@@ -39652,12 +39652,12 @@
         <v>1742</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>1827</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="75">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>761</v>
@@ -39678,12 +39678,12 @@
         <v>1747</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>1898</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="75">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>757</v>
@@ -39704,12 +39704,12 @@
         <v>1751</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>1895</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="75">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>1180</v>
@@ -39730,12 +39730,12 @@
         <v>1743</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>1896</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="90">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>1793</v>
@@ -39756,12 +39756,12 @@
         <v>1744</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>1897</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="75">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>2009</v>
+        <v>2050</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>759</v>
@@ -39782,12 +39782,12 @@
         <v>1745</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>1828</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="150">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>1782</v>
@@ -39808,12 +39808,12 @@
         <v>1748</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>1897</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="75">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>1516</v>
@@ -39834,12 +39834,12 @@
         <v>1738</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>1843</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="105">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>1798</v>
@@ -39860,15 +39860,15 @@
         <v>1746</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>1897</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="75">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="C18" s="28" t="s">
         <v>1387</v>
@@ -39886,15 +39886,15 @@
         <v>1729</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>1899</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="135">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>1046</v>
@@ -39912,12 +39912,12 @@
         <v>1750</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>1891</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="135">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>2001</v>
+        <v>2048</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>985</v>
@@ -39926,27 +39926,27 @@
         <v>1656</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>1656</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>1733</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>1891</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="135">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>1408</v>
@@ -39964,12 +39964,12 @@
         <v>1732</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>1891</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="45">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>760</v>
@@ -39993,12 +39993,12 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="75">
+    <row r="23" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="C23" s="28" t="s">
         <v>1402</v>
@@ -40016,27 +40016,27 @@
         <v>1741</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>1893</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="45">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="D24" s="3" t="s">
+        <v>1843</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>1844</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>1845</v>
-      </c>
       <c r="F24" s="3" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>1730</v>
@@ -40045,9 +40045,9 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="30">
+    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>1755</v>
@@ -40071,9 +40071,9 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="45">
+    <row r="26" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>1754</v>
@@ -40097,21 +40097,21 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="75">
+    <row r="27" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>758</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>1424</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>1424</v>
@@ -40120,7 +40120,7 @@
         <v>1731</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
     </row>
   </sheetData>
@@ -40137,7 +40137,7 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.28515625" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" customWidth="1"/>
@@ -40146,7 +40146,7 @@
     <col min="6" max="6" width="78.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>136</v>
       </c>
@@ -40167,7 +40167,7 @@
       </c>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>334</v>
       </c>
@@ -40178,13 +40178,13 @@
         <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>2035</v>
+        <v>2030</v>
       </c>
       <c r="F2" s="45" t="s">
         <v>1558</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>334</v>
       </c>
@@ -40198,13 +40198,13 @@
         <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>2036</v>
+        <v>2031</v>
       </c>
       <c r="F3" s="45" t="s">
         <v>1558</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>334</v>
       </c>
@@ -40218,13 +40218,13 @@
         <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>2037</v>
+        <v>2032</v>
       </c>
       <c r="F4" s="45" t="s">
         <v>1558</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>334</v>
       </c>
@@ -40238,13 +40238,13 @@
         <v>140</v>
       </c>
       <c r="E5" t="s">
-        <v>2038</v>
+        <v>2033</v>
       </c>
       <c r="F5" s="45" t="s">
         <v>1558</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>321</v>
       </c>
@@ -40255,13 +40255,13 @@
         <v>401</v>
       </c>
       <c r="E6" t="s">
-        <v>2039</v>
+        <v>2034</v>
       </c>
       <c r="F6" s="45" t="s">
         <v>1557</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>321</v>
       </c>
@@ -40275,13 +40275,13 @@
         <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>2039</v>
+        <v>2034</v>
       </c>
       <c r="F7" s="45" t="s">
         <v>1557</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>321</v>
       </c>
@@ -40295,13 +40295,13 @@
         <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>2039</v>
+        <v>2034</v>
       </c>
       <c r="F8" s="45" t="s">
         <v>1557</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>321</v>
       </c>
@@ -40315,13 +40315,13 @@
         <v>140</v>
       </c>
       <c r="E9" t="s">
-        <v>2039</v>
+        <v>2034</v>
       </c>
       <c r="F9" s="45" t="s">
         <v>1557</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>813</v>
       </c>
@@ -40332,13 +40332,13 @@
         <v>964</v>
       </c>
       <c r="E10" t="s">
-        <v>2040</v>
+        <v>2035</v>
       </c>
       <c r="F10" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>813</v>
       </c>
@@ -40352,13 +40352,13 @@
         <v>27</v>
       </c>
       <c r="E11" t="s">
-        <v>2040</v>
+        <v>2035</v>
       </c>
       <c r="F11" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>813</v>
       </c>
@@ -40372,13 +40372,13 @@
         <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>2040</v>
+        <v>2035</v>
       </c>
       <c r="F12" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>813</v>
       </c>
@@ -40392,13 +40392,13 @@
         <v>140</v>
       </c>
       <c r="E13" t="s">
-        <v>2040</v>
+        <v>2035</v>
       </c>
       <c r="F13" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>164</v>
       </c>
@@ -40409,13 +40409,13 @@
         <v>1561</v>
       </c>
       <c r="E14" t="s">
-        <v>2041</v>
+        <v>2036</v>
       </c>
       <c r="F14" t="s">
         <v>1562</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>164</v>
       </c>
@@ -40429,13 +40429,13 @@
         <v>27</v>
       </c>
       <c r="E15" t="s">
-        <v>2042</v>
+        <v>2037</v>
       </c>
       <c r="F15" t="s">
         <v>1562</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>164</v>
       </c>
@@ -40449,13 +40449,13 @@
         <v>25</v>
       </c>
       <c r="E16" t="s">
-        <v>2043</v>
+        <v>2038</v>
       </c>
       <c r="F16" t="s">
         <v>1562</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>164</v>
       </c>
@@ -40469,13 +40469,13 @@
         <v>140</v>
       </c>
       <c r="E17" t="s">
-        <v>2044</v>
+        <v>2039</v>
       </c>
       <c r="F17" t="s">
         <v>1562</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>215</v>
       </c>
@@ -40486,13 +40486,13 @@
         <v>1581</v>
       </c>
       <c r="E18" t="s">
-        <v>2045</v>
+        <v>2040</v>
       </c>
       <c r="F18" t="s">
         <v>1582</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>215</v>
       </c>
@@ -40506,13 +40506,13 @@
         <v>27</v>
       </c>
       <c r="E19" t="s">
-        <v>2046</v>
+        <v>2041</v>
       </c>
       <c r="F19" t="s">
         <v>1582</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>215</v>
       </c>
@@ -40526,13 +40526,13 @@
         <v>25</v>
       </c>
       <c r="E20" t="s">
-        <v>2047</v>
+        <v>2042</v>
       </c>
       <c r="F20" t="s">
         <v>1582</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>215</v>
       </c>
@@ -40546,13 +40546,13 @@
         <v>140</v>
       </c>
       <c r="E21" t="s">
-        <v>2048</v>
+        <v>2043</v>
       </c>
       <c r="F21" t="s">
         <v>1582</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F22" s="45"/>
     </row>
   </sheetData>
@@ -40572,7 +40572,7 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" style="2" customWidth="1"/>
     <col min="2" max="3" width="39" style="3" hidden="1" customWidth="1"/>
@@ -40582,7 +40582,7 @@
     <col min="22" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>707</v>
       </c>
@@ -40617,7 +40617,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="78" customHeight="1">
+    <row r="3" spans="1:21" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="22"/>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
@@ -40672,7 +40672,7 @@
       </c>
       <c r="U3" s="24"/>
     </row>
-    <row r="4" spans="1:21" ht="15" customHeight="1">
+    <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>182</v>
       </c>
@@ -40737,7 +40737,7 @@
       </c>
       <c r="U4" s="36"/>
     </row>
-    <row r="5" spans="1:21" ht="15" customHeight="1">
+    <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="37" t="s">
         <v>177</v>
       </c>
@@ -40802,7 +40802,7 @@
       </c>
       <c r="U5" s="39"/>
     </row>
-    <row r="6" spans="1:21" ht="15" customHeight="1">
+    <row r="6" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="37" t="s">
         <v>183</v>
       </c>
@@ -40867,7 +40867,7 @@
       </c>
       <c r="U6" s="39"/>
     </row>
-    <row r="7" spans="1:21" ht="15" customHeight="1">
+    <row r="7" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
         <v>184</v>
       </c>
@@ -40932,7 +40932,7 @@
       </c>
       <c r="U7" s="39"/>
     </row>
-    <row r="8" spans="1:21" ht="15" customHeight="1">
+    <row r="8" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="37" t="s">
         <v>185</v>
       </c>
@@ -40997,7 +40997,7 @@
       </c>
       <c r="U8" s="39"/>
     </row>
-    <row r="9" spans="1:21" ht="15" customHeight="1">
+    <row r="9" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="37" t="s">
         <v>186</v>
       </c>
@@ -41062,7 +41062,7 @@
       </c>
       <c r="U9" s="39"/>
     </row>
-    <row r="10" spans="1:21" ht="15" customHeight="1">
+    <row r="10" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="37" t="s">
         <v>187</v>
       </c>
@@ -41127,7 +41127,7 @@
       </c>
       <c r="U10" s="39"/>
     </row>
-    <row r="11" spans="1:21" ht="15" customHeight="1">
+    <row r="11" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="37" t="s">
         <v>188</v>
       </c>
@@ -41192,7 +41192,7 @@
       </c>
       <c r="U11" s="39"/>
     </row>
-    <row r="12" spans="1:21" ht="15" customHeight="1">
+    <row r="12" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="37" t="s">
         <v>176</v>
       </c>
@@ -41257,7 +41257,7 @@
       </c>
       <c r="U12" s="39"/>
     </row>
-    <row r="13" spans="1:21" ht="15" customHeight="1">
+    <row r="13" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="37" t="s">
         <v>189</v>
       </c>
@@ -41322,7 +41322,7 @@
       </c>
       <c r="U13" s="39"/>
     </row>
-    <row r="14" spans="1:21" ht="15" customHeight="1">
+    <row r="14" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="37" t="s">
         <v>190</v>
       </c>
@@ -41385,7 +41385,7 @@
       </c>
       <c r="U14" s="39"/>
     </row>
-    <row r="15" spans="1:21" ht="15" customHeight="1">
+    <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="37" t="s">
         <v>191</v>
       </c>
@@ -41450,7 +41450,7 @@
       </c>
       <c r="U15" s="39"/>
     </row>
-    <row r="16" spans="1:21" ht="15" customHeight="1">
+    <row r="16" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
         <v>192</v>
       </c>
@@ -41517,7 +41517,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="15" customHeight="1">
+    <row r="17" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="37" t="s">
         <v>193</v>
       </c>
@@ -41582,7 +41582,7 @@
       </c>
       <c r="U17" s="39"/>
     </row>
-    <row r="18" spans="1:21" ht="15" customHeight="1">
+    <row r="18" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="37" t="s">
         <v>194</v>
       </c>
@@ -41647,7 +41647,7 @@
       </c>
       <c r="U18" s="39"/>
     </row>
-    <row r="19" spans="1:21" ht="15" customHeight="1">
+    <row r="19" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="37" t="s">
         <v>195</v>
       </c>
@@ -41712,7 +41712,7 @@
       </c>
       <c r="U19" s="39"/>
     </row>
-    <row r="20" spans="1:21" ht="15" customHeight="1">
+    <row r="20" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="37" t="s">
         <v>196</v>
       </c>
@@ -41777,17 +41777,17 @@
       </c>
       <c r="U20" s="39"/>
     </row>
-    <row r="21" spans="1:21" ht="15" customHeight="1">
+    <row r="21" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="37" t="s">
         <v>197</v>
       </c>
-      <c r="B21" s="48" t="str">
+      <c r="B21" s="48" t="e">
         <f>INDEX(city_details!C:C,MATCH('City tasks for scorecards'!A21,city_details!A:A,0))</f>
-        <v>To be updated on sunny day</v>
-      </c>
-      <c r="C21" s="48" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C21" s="48" t="e">
         <f>INDEX(city_details!E:E,MATCH('City tasks for scorecards'!A21,city_details!A:A,0))</f>
-        <v>To be updated on sunny day</v>
+        <v>#N/A</v>
       </c>
       <c r="D21" s="38" t="s">
         <v>715</v>
@@ -41842,7 +41842,7 @@
       </c>
       <c r="U21" s="39"/>
     </row>
-    <row r="22" spans="1:21" ht="15" customHeight="1">
+    <row r="22" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="37" t="s">
         <v>198</v>
       </c>
@@ -41907,7 +41907,7 @@
       </c>
       <c r="U22" s="39"/>
     </row>
-    <row r="23" spans="1:21" ht="15" customHeight="1">
+    <row r="23" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="37" t="s">
         <v>199</v>
       </c>
@@ -41972,7 +41972,7 @@
       </c>
       <c r="U23" s="39"/>
     </row>
-    <row r="24" spans="1:21" ht="15" customHeight="1">
+    <row r="24" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="37" t="s">
         <v>200</v>
       </c>
@@ -42037,7 +42037,7 @@
       </c>
       <c r="U24" s="39"/>
     </row>
-    <row r="25" spans="1:21" ht="15" customHeight="1">
+    <row r="25" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="37" t="s">
         <v>201</v>
       </c>
@@ -42102,7 +42102,7 @@
       </c>
       <c r="U25" s="39"/>
     </row>
-    <row r="26" spans="1:21" ht="15" customHeight="1">
+    <row r="26" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="37" t="s">
         <v>174</v>
       </c>
@@ -42167,7 +42167,7 @@
       </c>
       <c r="U26" s="39"/>
     </row>
-    <row r="27" spans="1:21" ht="15" customHeight="1">
+    <row r="27" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="37" t="s">
         <v>202</v>
       </c>
@@ -42232,7 +42232,7 @@
       </c>
       <c r="U27" s="39"/>
     </row>
-    <row r="28" spans="1:21" ht="15" customHeight="1">
+    <row r="28" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="40" t="s">
         <v>203</v>
       </c>
@@ -42297,7 +42297,7 @@
       </c>
       <c r="U28" s="43"/>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E29" s="44">
         <f>COUNTIF(E4:E28,"Yes")</f>
         <v>25</v>

--- a/process/configuration/templates/_report_configuration.xlsx
+++ b/process/configuration/templates/_report_configuration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rmiteduau-my.sharepoint.com/personal/carl_higgs_rmit_edu_au/Documents/projects/global-indicators/process/configuration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3619" documentId="13_ncr:1_{359C2F2A-CF47-4184-8CC1-6CC8B0EC5B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE17609A-7BB1-4731-A18B-E7B11C5B24C5}"/>
+  <xr:revisionPtr revIDLastSave="3695" documentId="13_ncr:1_{359C2F2A-CF47-4184-8CC1-6CC8B0EC5B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74B32D0B-7740-4051-ADAB-AAE400D2B207}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5247" uniqueCount="2053">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5300" uniqueCount="2107">
   <si>
     <t>name</t>
   </si>
@@ -4482,12 +4482,6 @@
   </si>
   <si>
     <t>exceptions_json</t>
-  </si>
-  <si>
-    <t>credit_image1</t>
-  </si>
-  <si>
-    <t>credit_image2</t>
   </si>
   <si>
     <t>{"English":"{'series_intro':'This brief report outlines how the Seattle metropolitan area performs on a selection of spatial and policy indicators of healthy and sustainable cities. Our collaborative study examined the spatial distribution of urban design and transport features and the presence and quality of city planning policies that promote health and sustainability for 25 cities across 19 countries. Further details of the study are available at {study_doi}'}"}</t>
@@ -5330,9 +5324,6 @@
     <t>El acceso a espacios públicos abiertos de calidad promueve la actividad física y la salud mental. La cercanía a estos espacios crea entornos atractivos para la convivencia, coadyuva a enfriar las ciudades y a proteger la biodiversidad. Conforme las ciudades se densifican y el número de espacios abiertos privados disminuye, proveer de espacios públicos es crucial para la salud poblacional. Tener un espacio público a menos de 400m alienta a la caminata, mientras que el acceso a parques grandes puede también ser importante.</t>
   </si>
   <si>
-    <t>STUDY-DOI-TBA</t>
-  </si>
-  <si>
     <t>10.25439/rmt.19586770</t>
   </si>
   <si>
@@ -5814,9 +5805,6 @@
     <t>இந்த சர்வதேச ஆய்வில் சேர்க்கப்பட்டுள்ள அனைத்து நகரங்களுக்கான சராசரி மதிப்புகளுடன் ஒப்பீடுகள் உள்ளூர் நகர கொள்கைகளுக்கு தேவையான மாற்றங்களை தெரிவிக்கமுடியும். {city_name} இந்த வரைபடம், நகர்ப்புற வடிவமைப்பு மற்றும் போக்குவரத்து அம்சங்களின் விநியோகத்தைக் காட்டுகிறது {city_name}மேலும், ஆரோக்கியமான மற்றும் நிலையான சூழலை உருவாக்குவதற்கான தலையீடுகளில் இருந்து அதிகம் பயனடையக்கூடிய பகுதிகளை அடையாளம் காணவும்.</t>
   </si>
   <si>
-    <t xml:space="preserve">Het rapport toont aan dat de beschikbaarheid van het stedelijk en vervoersbeleid ter ondersteuning van gezondheid en duurzaamheid in Gent net onder het gemiddelde ligt in vergelijking met de andere steden. De kwaliteit van de beschikbare beleidslijnen in termen van specificiteit, meetbaarheid en consistentie met beschikbare (gezondheids)evidentie ligt echter iets boven het gemiddelde. Gent lijkt geen beoordelingen van de gezondheidsimpact van vervoers- en stedelijke interventies te vereisen. Ook lijken specifieke standaarden / normen of meetbare doelstellingen voor het openbaar vervoersbeleid te ontbreken. Toch zijn vele Gentse buurten zeer bewegingsvriendelijk in vergelijking met de 25 steden in deze internationale studie; de bewegingsvriendelijkheid van de buurten is wel lager in buurten aan de rand van de stad. Wat betreft de drempels om de WHO doelstellingen te bereiken in het kader van het wereldwijde actieplan voor fysieke activiteit van de Wereldgezondheidsorganisatie, zijn er momenteel geen buurten in Gent die voldoen aan de drempelwaarden voor residentiële dichtheid, en 55% van de inwoners woont in een buurt die voldoet aan de drempelwaarde voor stratenconnectiviteit. De meerderheid van de inwoners (87%) heeft toegang tot een halte van het openbaar vervoer binnen 500 meter, maar er waren geen gegevens beschikbaar over de frequentie van de dienstverlening van het openbaar vervoer. Terwijl de overgrote meerderheid van de inwoners toegang heeft tot een publieke open ruimte binnen 500 meter, woont slechts 63% binnen een afstand van 500 meter van een grote publieke open ruimte. Dit laatste verband is afhankelijk van de locatie, er is een ruimtelijk patroon in het verband te zien. In vergelijking met de andere steden die opgenomen waren in deze studie, heeft in Gent een grotere proportie inwoners toegang tot supermarkten en grote publieke open ruimtes binnen een straal van 500 meter. </t>
-  </si>
-  <si>
     <t>© 2022 Ana Queralt</t>
   </si>
   <si>
@@ -6306,22 +6294,196 @@
     <t>configuration/assets/by-nc.jpg</t>
   </si>
   <si>
-    <t>{"study_citations":"||The Lancet Global Health Series on urban design, transport, and health. 2022. https://www.thelancet.com/series/urban-design-2022 ||Global Observatory of Healthy &amp; Sustainable Cities. 2022. https://www.healthysustainablecities.org","citation_doi":"Global Healthy &amp; Sustainable City-Indicators Collaboration. 2022. {title_city}, {country}—Healthy and Sustainable City Indicators Report: Comparisons with 25 cities internationally ({vernacular}). {city_doi}","citations":"{citation_series}: {study_citations}||{citation_population}: Schiavina, M. et al. (2019): GHS population grid multitemporal (1975, 1990, 2000, 2015) R2019A. European Commission, Joint Research Centre (JRC). https://doi.org/10.2905/42E8BE89-54FF-464E-BE7B-BF9E64DA5218 |{citation_boundaries}: Florczyk, A. et al. (2019): GHS Urban Centre Database 2015, multitemporal and multidimensional attributes, R2019A. European Commission, Joint Research Centre (JRC). https://data.jrc.ec.europa.eu/dataset/53473144-b88c-44bc-b4a3-4583ed1f547e |{citation_features}: OpenStreetMap contributors. Openstreetmap (2020). https://planet.osm.org/pbf/planet-200803.osm.pbf.torrent |{citation_colour}: Crameri, F. (2018). Scientific colour-maps (3.0.4). Zenodo. https://doi.org/10.5281/zenodo.1287763"}</t>
-  </si>
-  <si>
     <t>valencia_2022</t>
   </si>
   <si>
     <t>valencia_2022 - Country</t>
   </si>
   <si>
-    <t>ghent_2022</t>
-  </si>
-  <si>
-    <t>ghent_2022 - Country</t>
-  </si>
-  <si>
-    <t>The availability of urban and transport policies supporting health and sustainability in Ghent is just below average compared with other cities. However, the quality of available policies in terms of their specificity, measurability and consistency with health evidence is slightly above average. Ghent does not appear to require health impact assessments of urban and transport interventions. It also appears to lack specific standards or measurable targets for public transport policies. Nonetheless, relative to the 25 cities in this international study, many neighbourhoods in Ghent are highly walkable, with lower walkability on the urban fringe. In terms of thresholds to achieve WHO targets to increase physical activity, only 2% residents of Ghent live neighbourhoods meeting density thresholds, although 81% live in neighbourhoods meeting street connectivity thresholds. The majority of residents (87%) have access to public transport stops within 500m, although frequency of service data were not available. While the vast majority of residents have access to some public open space within 500m, only 62% live within 500m of a larger public open space. The latter appears to be spatially patterned. Compared with other cities studied, the proportion of the population in Ghent with access to food markets and large public open space within 500m is above average.</t>
+    <t>Image 1 credit</t>
+  </si>
+  <si>
+    <t>Image 2 credit</t>
+  </si>
+  <si>
+    <t>10.25439/rmt.c.6012649.v1</t>
+  </si>
+  <si>
+    <t>Image 1 file</t>
+  </si>
+  <si>
+    <t>Image 2 file</t>
+  </si>
+  <si>
+    <t>maiduguri - Market - © 2022 Adewale L Oyeyemi.jpg</t>
+  </si>
+  <si>
+    <t>mexico_city - Bus Rapid Transit Metrobus Mexico City Mexico - © 2022 Ivan Israel Cruz Flores ivan cf.jpg</t>
+  </si>
+  <si>
+    <t>baltimore - Safe Signage Bike Lane Roland - © 2022 Eric A Stone.jpg</t>
+  </si>
+  <si>
+    <t>phoenix - Pedestrians and cycleway in downtown Phoenix Arizona - © 2022 Marc Adams.jpg</t>
+  </si>
+  <si>
+    <t>seattle - Leafy Pioneer Sq area - © 2022 Jim Sallis.jpg</t>
+  </si>
+  <si>
+    <t>sao_paulo - São Paulo cycling - Ciclovia próxima da estação de metrô Marechal Deodoro © 2022 Alex Antonio Florindo.jpg</t>
+  </si>
+  <si>
+    <t>hong_kong - Avenue of Stars with the Hong Kong skyline in the background - © Shutterstock Standard Image License.jpg</t>
+  </si>
+  <si>
+    <t>chennai - Chennai pedestrian street scene 2 - © 2022 Felix John.jpg</t>
+  </si>
+  <si>
+    <t>bangkok - Lumphini Park Bangkok - © 2019 Carl Higgs.jpg</t>
+  </si>
+  <si>
+    <t>hanoi - Pedestrians gather to watch a street performance on Trang Tien St Hanoi Vietnam - © 2022 Tuan Quoc Nguyen.jpg</t>
+  </si>
+  <si>
+    <t>graz - Graz Austria June 16 2020 cyclists and pedestrians - © Shutterstock Standard Image License.jpg</t>
+  </si>
+  <si>
+    <t>bern - Bern Switzerland 27 June 2020 Pedestrian street with cafe terrace - © Shutterstock Standard Image License.jpg</t>
+  </si>
+  <si>
+    <t>olomouc - Tabulovy vrch Olomouc Czechia - © 2014 Josef Mitáš.jpg</t>
+  </si>
+  <si>
+    <t>cologne - Cologne Germany 15 June 2019 The Great Saint Martin Church and Colorful buildings nearby riverside of Hohenzollern Bridge in Cologne - © Shutterstock Standard Image License.jpg</t>
+  </si>
+  <si>
+    <t>odense - Summer in the city - © Johan Tobias Joensen VisitOdense.jpg</t>
+  </si>
+  <si>
+    <t>barcelona - Pedestrians and bikes on Carrer Astúries Barcelona - © 2022 Xavier Delclòs Alió.jpg</t>
+  </si>
+  <si>
+    <t>valencia_2022 - To be updated on sunny day - © 2022 Ana Queralt.jpg</t>
+  </si>
+  <si>
+    <t>vic - Vic market - © 2020 University of Vic UCC.jpg</t>
+  </si>
+  <si>
+    <t>belfast - Family cycle ride along the Connswater Community Greenway - © 2018 Connswater Community Greenway.jpg</t>
+  </si>
+  <si>
+    <t>lisbon - Av Duque de Ávila Lisboa Portugal - © 2022 Carolina Ramos.jpg</t>
+  </si>
+  <si>
+    <t>adelaide - Vic Square pedestrians trees and public transport - Image used with permission © Wellbeing SA 2018.jpg</t>
+  </si>
+  <si>
+    <t>melbourne - Brunswick neighbourhood - © 2022 Carl Higgs.jpg</t>
+  </si>
+  <si>
+    <t>sydney - Sydney harbourside - © 2022 Melanie Lowe.jpg</t>
+  </si>
+  <si>
+    <t>auckland - Cityscape image of Auckland skyline New Zealand taken from Mt Eden at sunset - © Shutterstock Standard Image License.jpg</t>
+  </si>
+  <si>
+    <t>maiduguri - Tricycle taxis Cyclists and Pedestrians Maiduguri Nigeria - © 2022 Adewale L Oyeyemi.jpg</t>
+  </si>
+  <si>
+    <t>mexico_city - Pedestrian street - © 2020 Jim Sallis.jpg</t>
+  </si>
+  <si>
+    <t>baltimore - Fed Hill Park - © 2022 Eric A Stone.jpg</t>
+  </si>
+  <si>
+    <t>phoenix - Cyclist Near Hance Park in Downtown Phoenix Arizona - © 2022 Marc Adams.jpg</t>
+  </si>
+  <si>
+    <t>seattle - Sunset pedestrians - © 2022 Anne Vernez Moudon.jpg</t>
+  </si>
+  <si>
+    <t>sao_paulo - MASP Museum Paulista Avenue Sunday - Museu do MASP Avenida Paulista Domingo © 2022 Alex Antonio Florindo.jpg</t>
+  </si>
+  <si>
+    <t>hong_kong - Hong Kong skyline as seen from the West Kowloon Cultural District - © Shutterstock Standard Image License.jpg</t>
+  </si>
+  <si>
+    <t>chennai - Chennai pedestrian street scene 1 - © 2022 Felix John.jpg</t>
+  </si>
+  <si>
+    <t>bangkok - Chao Phraya and Bangkok skyline - © 2019 Carl Higgs.jpg</t>
+  </si>
+  <si>
+    <t>hanoi - Hoan Kiem Lake Hanoi Viet Nam - © 2022 Tuan Quoc Nguyen.jpg</t>
+  </si>
+  <si>
+    <t>graz - Graz Austria 14 09 2020 people relaxing outdoor in a park - © Shutterstock Standard Image License.jpg</t>
+  </si>
+  <si>
+    <t>bern - BERN SWITZERLAND APRIL 15 2018 Street view on Kramgasse with fountain and clock tower - © Shutterstock Standard Image License.jpg</t>
+  </si>
+  <si>
+    <t>olomouc - Namesti Hrdinu Olomouc Czechia - © 2022 Jan Dygrýn.jpg</t>
+  </si>
+  <si>
+    <t>cologne - COLOGNE NORTH RHINE WESTPHALIA GERMANY FEBRUARY 14 2021 People ice skating in German park at winter - © Shutterstock Standard Image License.jpg</t>
+  </si>
+  <si>
+    <t>odense - Odense Lightrail - © Jonas Legarth VisitOdense.jpg</t>
+  </si>
+  <si>
+    <t>barcelona - Bike scooter and pedestrians on Carrer de la Diputació at the intersection of Carrer d Enric Granados Barcelona - © 2022 Xavier Delclòs Alió.jpg</t>
+  </si>
+  <si>
+    <t>vic - Cycle way road Vic - © 2020 University of Vic UCC.jpg</t>
+  </si>
+  <si>
+    <t>belfast - Dixon Hollow Connswater Community Greenway Belfast - © 2018 Connswater Community Greenway.jpg</t>
+  </si>
+  <si>
+    <t>lisbon - Pedestrians in Rua Garrett Lisboa Portugal - © 2022 Carolina Ramos.jpg</t>
+  </si>
+  <si>
+    <t>adelaide - Whitmore Square bike rider and green - Image used with permission © Wellbeing SA 2018.jpg</t>
+  </si>
+  <si>
+    <t>melbourne - Pedestrians on Swanston St - © 2019 Carl Higgs.jpg</t>
+  </si>
+  <si>
+    <t>sydney - Sydney Harbour - © 2018 David Baron under CC BY SA 2 0 licence.jpg</t>
+  </si>
+  <si>
+    <t>auckland - People s motion on subway platform in Auckland Britomart Transport Center New Zealand - © Shutterstock Standard Image License.jpg</t>
+  </si>
+  <si>
+    <t>Save images for each city in the configuration/assets folder with a descriptive name to help you keep track of them</t>
+  </si>
+  <si>
+    <t>{"study_citations":"||The Lancet Global Health Series on urban design, transport, and health. 2022. https://www.thelancet.com/series/urban-design-2022 ||Global Observatory of Healthy &amp; Sustainable Cities. 2022. https://www.healthysustainablecities.org","citation_doi":"Global Healthy &amp; Sustainable City-Indicators Collaboration. 2022. {title_city}, {country}—Healthy and Sustainable City Indicators Report: Comparisons with 25 cities internationally ({vernacular}). {city_doi}","citations":"{citation_series}: {study_citations}||{citation_population}: {region_population_citation} |{citation_boundaries}: {region_urban_region_citation} |{citation_features}: {region_OpenStreetMap_citation} |{citation_colour}: Crameri, F. (2018). Scientific colour-maps (3.0.4). Zenodo. https://doi.org/10.5281/zenodo.1287763"}</t>
+  </si>
+  <si>
+    <t>valencia_2022 - Cycling in the rain - © 2022 Ana Queralt.jpg</t>
+  </si>
+  <si>
+    <t>valencia_2022 - Jogging along the Turia -© 2022 Ana Queralt.jpg</t>
+  </si>
+  <si>
+    <t>The availability of urban and transport policies supporting health and sustainability in Ghent is just below average compared with other cities. However, the quality of available policies in terms of their specificity, measurability and consistency with health evidence is slightly above average. Ghent does not appear to require health impact assessments of urban and transport interventions. It also appears to lack specific standards or measurable targets for public transport policies. Nonetheless, relative to the 25 cities in this international study, many neighbourhoods in Ghent are highly walkable, with lower walkability on the urban fringe. In terms of thresholds to achieve WHO targets to increase physical activity, only 4.5% residents of Ghent live neighbourhoods meeting density thresholds, although 79% live in neighbourhoods meeting street connectivity thresholds. The majority of residents (85%) have access to public transport stops within 500m, although frequency of service data were not available. While the vast majority of residents have access to some public open space within 500m, only 62% live within 500m of a larger public open space. The latter appears to be spatially patterned. Compared with other cities studied, the proportion of the population in Ghent with access to food markets and large public open space within 500m is above average.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Het rapport toont aan dat de beschikbaarheid van het stedelijk en vervoersbeleid ter ondersteuning van gezondheid en duurzaamheid in Gent net onder het gemiddelde ligt in vergelijking met de andere steden. De kwaliteit van de beschikbare beleidslijnen in termen van specificiteit, meetbaarheid en consistentie met beschikbare (gezondheids)evidentie ligt echter iets boven het gemiddelde. Gent lijkt geen beoordelingen van de gezondheidsimpact van vervoers- en stedelijke interventies te vereisen. Ook lijken specifieke standaarden / normen of meetbare doelstellingen voor het openbaar vervoersbeleid te ontbreken. Toch zijn vele Gentse buurten zeer bewegingsvriendelijk in vergelijking met de 25 steden in deze internationale studie; de bewegingsvriendelijkheid van de buurten is wel lager in buurten aan de rand van de stad. Wat betreft de drempels om de WHO doelstellingen te bereiken in het kader van het wereldwijde actieplan voor fysieke activiteit van de Wereldgezondheidsorganisatie, slechts 4,5% van de Gentenaars woont in buurten die aan dichtheidsdrempels voldoen, en 79% van de inwoners woont in een buurt die voldoet aan de drempelwaarde voor stratenconnectiviteit. De meerderheid van de inwoners (85%) heeft toegang tot een halte van het openbaar vervoer binnen 500 meter, maar er waren geen gegevens beschikbaar over de frequentie van de dienstverlening van het openbaar vervoer. Terwijl de overgrote meerderheid van de inwoners toegang heeft tot een publieke open ruimte binnen 500 meter, woont slechts 62% binnen een afstand van 500 meter van een grote publieke open ruimte. Dit laatste verband is afhankelijk van de locatie, er is een ruimtelijk patroon in het verband te zien. In vergelijking met de andere steden die opgenomen waren in deze studie, heeft in Gent een grotere proportie inwoners toegang tot supermarkten en grote publieke open ruimtes binnen een straal van 500 meter. </t>
+  </si>
+  <si>
+    <t>example_ghent_2022</t>
+  </si>
+  <si>
+    <t>example_ghent_2022 - Country</t>
+  </si>
+  <si>
+    <t>example_ghent_2022 - VisitReeks01 - © Bas Bogaerts Stad Gent.jpg</t>
+  </si>
+  <si>
+    <t>example_ghent_2022 - Groenevalleipark - © Stad Gent.jpg</t>
   </si>
 </sst>
 </file>
@@ -7068,7 +7230,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -7215,6 +7377,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -8478,7 +8643,7 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1468</v>
+        <v>2045</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -8575,7 +8740,7 @@
         <v>26</v>
       </c>
       <c r="P12" t="s">
-        <v>2044</v>
+        <v>2040</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -8633,7 +8798,7 @@
         <v>28</v>
       </c>
       <c r="P13" t="s">
-        <v>2045</v>
+        <v>2041</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -8820,7 +8985,7 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -8877,7 +9042,7 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -8922,7 +9087,7 @@
         <v>26</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="Q18">
         <v>2</v>
@@ -9164,7 +9329,7 @@
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -9330,7 +9495,7 @@
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1832</v>
+        <v>1829</v>
       </c>
       <c r="B26">
         <v>3</v>
@@ -9953,10 +10118,10 @@
         <v>0</v>
       </c>
       <c r="M36" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="N36" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="O36" t="s">
         <v>26</v>
@@ -10015,7 +10180,7 @@
         <v>0</v>
       </c>
       <c r="N37" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="O37" t="s">
         <v>26</v>
@@ -10075,7 +10240,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="O38" t="s">
         <v>22</v>
@@ -10132,7 +10297,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="O39" t="s">
         <v>26</v>
@@ -10192,7 +10357,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="O40" t="s">
         <v>28</v>
@@ -10253,7 +10418,7 @@
       </c>
       <c r="M41" s="2"/>
       <c r="N41" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="O41" s="2" t="s">
         <v>28</v>
@@ -10315,7 +10480,7 @@
       </c>
       <c r="M42" s="2"/>
       <c r="N42" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="O42" s="2" t="s">
         <v>28</v>
@@ -10373,7 +10538,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="O43" t="s">
         <v>26</v>
@@ -10429,7 +10594,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="O44" t="s">
         <v>26</v>
@@ -10489,7 +10654,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="O45" t="s">
         <v>26</v>
@@ -10552,7 +10717,7 @@
         <v>0</v>
       </c>
       <c r="N46" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="O46" t="s">
         <v>28</v>
@@ -10612,7 +10777,7 @@
         <v>0</v>
       </c>
       <c r="N47" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="O47" t="s">
         <v>28</v>
@@ -10676,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="N48" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="O48" t="s">
         <v>28</v>
@@ -10738,7 +10903,7 @@
         <v>0</v>
       </c>
       <c r="N49" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="O49" t="s">
         <v>28</v>
@@ -10799,7 +10964,7 @@
         <v>0</v>
       </c>
       <c r="N50" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="O50" t="s">
         <v>26</v>
@@ -10862,7 +11027,7 @@
         <v>0</v>
       </c>
       <c r="N51" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="O51" t="s">
         <v>28</v>
@@ -10922,7 +11087,7 @@
         <v>0</v>
       </c>
       <c r="N52" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="O52" t="s">
         <v>28</v>
@@ -10986,7 +11151,7 @@
         <v>0</v>
       </c>
       <c r="N53" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="O53" t="s">
         <v>28</v>
@@ -11048,7 +11213,7 @@
         <v>0</v>
       </c>
       <c r="N54" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="O54" t="s">
         <v>28</v>
@@ -11109,7 +11274,7 @@
         <v>0</v>
       </c>
       <c r="N55" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="O55" t="s">
         <v>26</v>
@@ -11172,7 +11337,7 @@
         <v>0</v>
       </c>
       <c r="N56" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="O56" t="s">
         <v>28</v>
@@ -11232,7 +11397,7 @@
         <v>0</v>
       </c>
       <c r="N57" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="O57" t="s">
         <v>28</v>
@@ -11296,7 +11461,7 @@
         <v>0</v>
       </c>
       <c r="N58" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="O58" t="s">
         <v>28</v>
@@ -11358,7 +11523,7 @@
         <v>0</v>
       </c>
       <c r="N59" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="O59" t="s">
         <v>28</v>
@@ -11419,7 +11584,7 @@
         <v>0</v>
       </c>
       <c r="N60" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="O60" t="s">
         <v>26</v>
@@ -11482,7 +11647,7 @@
         <v>0</v>
       </c>
       <c r="N61" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="O61" t="s">
         <v>28</v>
@@ -11542,7 +11707,7 @@
         <v>0</v>
       </c>
       <c r="N62" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="O62" t="s">
         <v>28</v>
@@ -11606,7 +11771,7 @@
         <v>0</v>
       </c>
       <c r="N63" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="O63" t="s">
         <v>28</v>
@@ -11668,7 +11833,7 @@
         <v>0</v>
       </c>
       <c r="N64" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="O64" t="s">
         <v>28</v>
@@ -11729,7 +11894,7 @@
         <v>0</v>
       </c>
       <c r="N65" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="O65" t="s">
         <v>26</v>
@@ -11792,7 +11957,7 @@
         <v>0</v>
       </c>
       <c r="N66" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="O66" t="s">
         <v>28</v>
@@ -11852,7 +12017,7 @@
         <v>0</v>
       </c>
       <c r="N67" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="O67" t="s">
         <v>28</v>
@@ -11916,7 +12081,7 @@
         <v>0</v>
       </c>
       <c r="N68" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="O68" t="s">
         <v>28</v>
@@ -11978,7 +12143,7 @@
         <v>0</v>
       </c>
       <c r="N69" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="O69" t="s">
         <v>28</v>
@@ -12039,7 +12204,7 @@
         <v>0</v>
       </c>
       <c r="N70" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="O70" t="s">
         <v>26</v>
@@ -12102,7 +12267,7 @@
         <v>0</v>
       </c>
       <c r="N71" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="O71" t="s">
         <v>28</v>
@@ -12162,7 +12327,7 @@
         <v>0</v>
       </c>
       <c r="N72" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="O72" t="s">
         <v>28</v>
@@ -12226,7 +12391,7 @@
         <v>0</v>
       </c>
       <c r="N73" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="O73" t="s">
         <v>28</v>
@@ -12288,7 +12453,7 @@
         <v>0</v>
       </c>
       <c r="N74" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="O74" t="s">
         <v>28</v>
@@ -12576,10 +12741,10 @@
         <v>0</v>
       </c>
       <c r="M79" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="N79" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O79" t="s">
         <v>26</v>
@@ -12639,7 +12804,7 @@
         <v>0</v>
       </c>
       <c r="N80" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O80" t="s">
         <v>26</v>
@@ -12699,7 +12864,7 @@
         <v>0</v>
       </c>
       <c r="N81" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O81" t="s">
         <v>28</v>
@@ -12759,7 +12924,7 @@
         <v>0</v>
       </c>
       <c r="N82" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O82" t="s">
         <v>28</v>
@@ -12819,7 +12984,7 @@
         <v>0</v>
       </c>
       <c r="N83" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O83" t="s">
         <v>28</v>
@@ -12879,7 +13044,7 @@
         <v>0</v>
       </c>
       <c r="N84" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O84" t="s">
         <v>28</v>
@@ -12936,7 +13101,7 @@
         <v>0</v>
       </c>
       <c r="N85" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O85" t="s">
         <v>26</v>
@@ -12993,7 +13158,7 @@
         <v>0</v>
       </c>
       <c r="N86" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O86" t="s">
         <v>26</v>
@@ -13050,7 +13215,7 @@
         <v>0</v>
       </c>
       <c r="N87" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O87" t="s">
         <v>26</v>
@@ -13107,7 +13272,7 @@
         <v>0</v>
       </c>
       <c r="N88" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O88" t="s">
         <v>26</v>
@@ -13167,7 +13332,7 @@
         <v>0</v>
       </c>
       <c r="N89" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O89" t="s">
         <v>26</v>
@@ -13227,7 +13392,7 @@
         <v>0</v>
       </c>
       <c r="N90" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O90" t="s">
         <v>28</v>
@@ -13287,7 +13452,7 @@
         <v>0</v>
       </c>
       <c r="N91" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O91" t="s">
         <v>28</v>
@@ -13347,7 +13512,7 @@
         <v>0</v>
       </c>
       <c r="N92" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O92" t="s">
         <v>28</v>
@@ -13407,7 +13572,7 @@
         <v>0</v>
       </c>
       <c r="N93" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O93" t="s">
         <v>28</v>
@@ -13467,7 +13632,7 @@
         <v>0</v>
       </c>
       <c r="N94" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O94" t="s">
         <v>26</v>
@@ -13527,7 +13692,7 @@
         <v>0</v>
       </c>
       <c r="N95" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O95" t="s">
         <v>28</v>
@@ -13587,7 +13752,7 @@
         <v>0</v>
       </c>
       <c r="N96" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O96" t="s">
         <v>28</v>
@@ -13647,7 +13812,7 @@
         <v>0</v>
       </c>
       <c r="N97" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O97" t="s">
         <v>28</v>
@@ -13707,7 +13872,7 @@
         <v>0</v>
       </c>
       <c r="N98" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O98" t="s">
         <v>28</v>
@@ -13767,7 +13932,7 @@
         <v>0</v>
       </c>
       <c r="N99" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O99" t="s">
         <v>26</v>
@@ -13827,7 +13992,7 @@
         <v>0</v>
       </c>
       <c r="N100" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O100" t="s">
         <v>28</v>
@@ -13887,7 +14052,7 @@
         <v>0</v>
       </c>
       <c r="N101" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O101" t="s">
         <v>28</v>
@@ -13947,7 +14112,7 @@
         <v>0</v>
       </c>
       <c r="N102" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O102" t="s">
         <v>28</v>
@@ -14007,7 +14172,7 @@
         <v>0</v>
       </c>
       <c r="N103" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O103" t="s">
         <v>28</v>
@@ -14067,7 +14232,7 @@
         <v>0</v>
       </c>
       <c r="N104" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O104" t="s">
         <v>26</v>
@@ -14127,7 +14292,7 @@
         <v>0</v>
       </c>
       <c r="N105" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O105" t="s">
         <v>28</v>
@@ -14187,7 +14352,7 @@
         <v>0</v>
       </c>
       <c r="N106" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O106" t="s">
         <v>28</v>
@@ -14247,7 +14412,7 @@
         <v>0</v>
       </c>
       <c r="N107" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O107" t="s">
         <v>28</v>
@@ -14307,7 +14472,7 @@
         <v>0</v>
       </c>
       <c r="N108" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O108" t="s">
         <v>28</v>
@@ -14367,7 +14532,7 @@
         <v>0</v>
       </c>
       <c r="N109" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O109" t="s">
         <v>26</v>
@@ -14427,7 +14592,7 @@
         <v>0</v>
       </c>
       <c r="N110" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O110" t="s">
         <v>28</v>
@@ -14487,7 +14652,7 @@
         <v>0</v>
       </c>
       <c r="N111" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O111" t="s">
         <v>28</v>
@@ -14547,7 +14712,7 @@
         <v>0</v>
       </c>
       <c r="N112" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O112" t="s">
         <v>28</v>
@@ -14607,7 +14772,7 @@
         <v>0</v>
       </c>
       <c r="N113" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O113" t="s">
         <v>28</v>
@@ -14667,7 +14832,7 @@
         <v>0</v>
       </c>
       <c r="N114" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O114" t="s">
         <v>26</v>
@@ -14727,7 +14892,7 @@
         <v>0</v>
       </c>
       <c r="N115" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O115" t="s">
         <v>28</v>
@@ -14787,7 +14952,7 @@
         <v>0</v>
       </c>
       <c r="N116" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O116" t="s">
         <v>28</v>
@@ -14847,7 +15012,7 @@
         <v>0</v>
       </c>
       <c r="N117" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O117" t="s">
         <v>28</v>
@@ -14907,7 +15072,7 @@
         <v>0</v>
       </c>
       <c r="N118" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O118" t="s">
         <v>28</v>
@@ -14967,7 +15132,7 @@
         <v>0</v>
       </c>
       <c r="N119" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O119" t="s">
         <v>26</v>
@@ -15027,7 +15192,7 @@
         <v>0</v>
       </c>
       <c r="N120" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O120" t="s">
         <v>28</v>
@@ -15087,7 +15252,7 @@
         <v>0</v>
       </c>
       <c r="N121" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O121" t="s">
         <v>28</v>
@@ -15147,7 +15312,7 @@
         <v>0</v>
       </c>
       <c r="N122" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O122" t="s">
         <v>28</v>
@@ -15207,7 +15372,7 @@
         <v>0</v>
       </c>
       <c r="N123" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O123" t="s">
         <v>28</v>
@@ -15800,7 +15965,7 @@
     </row>
     <row r="134" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>1469</v>
+        <v>2046</v>
       </c>
       <c r="B134">
         <v>4</v>
@@ -16064,10 +16229,10 @@
         <v>0</v>
       </c>
       <c r="M138" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="N138" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O138" t="s">
         <v>26</v>
@@ -16127,7 +16292,7 @@
         <v>0</v>
       </c>
       <c r="N139" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O139" t="s">
         <v>26</v>
@@ -16187,7 +16352,7 @@
         <v>0</v>
       </c>
       <c r="N140" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O140" t="s">
         <v>28</v>
@@ -16247,7 +16412,7 @@
         <v>0</v>
       </c>
       <c r="N141" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O141" t="s">
         <v>28</v>
@@ -16307,7 +16472,7 @@
         <v>0</v>
       </c>
       <c r="N142" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O142" t="s">
         <v>28</v>
@@ -16367,7 +16532,7 @@
         <v>0</v>
       </c>
       <c r="N143" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O143" t="s">
         <v>28</v>
@@ -16424,7 +16589,7 @@
         <v>0</v>
       </c>
       <c r="N144" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O144" t="s">
         <v>26</v>
@@ -16481,7 +16646,7 @@
         <v>0</v>
       </c>
       <c r="N145" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O145" t="s">
         <v>26</v>
@@ -16538,7 +16703,7 @@
         <v>0</v>
       </c>
       <c r="N146" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O146" t="s">
         <v>26</v>
@@ -16595,7 +16760,7 @@
         <v>0</v>
       </c>
       <c r="N147" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O147" t="s">
         <v>26</v>
@@ -16655,7 +16820,7 @@
         <v>0</v>
       </c>
       <c r="N148" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O148" t="s">
         <v>26</v>
@@ -16715,7 +16880,7 @@
         <v>0</v>
       </c>
       <c r="N149" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O149" t="s">
         <v>28</v>
@@ -16775,7 +16940,7 @@
         <v>0</v>
       </c>
       <c r="N150" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O150" t="s">
         <v>28</v>
@@ -16835,7 +17000,7 @@
         <v>0</v>
       </c>
       <c r="N151" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O151" t="s">
         <v>28</v>
@@ -16895,7 +17060,7 @@
         <v>0</v>
       </c>
       <c r="N152" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O152" t="s">
         <v>28</v>
@@ -16955,7 +17120,7 @@
         <v>0</v>
       </c>
       <c r="N153" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O153" t="s">
         <v>26</v>
@@ -17015,7 +17180,7 @@
         <v>0</v>
       </c>
       <c r="N154" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O154" t="s">
         <v>28</v>
@@ -17075,7 +17240,7 @@
         <v>0</v>
       </c>
       <c r="N155" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O155" t="s">
         <v>28</v>
@@ -17135,7 +17300,7 @@
         <v>0</v>
       </c>
       <c r="N156" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O156" t="s">
         <v>28</v>
@@ -17195,7 +17360,7 @@
         <v>0</v>
       </c>
       <c r="N157" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O157" t="s">
         <v>28</v>
@@ -17255,7 +17420,7 @@
         <v>0</v>
       </c>
       <c r="N158" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O158" t="s">
         <v>26</v>
@@ -17315,7 +17480,7 @@
         <v>0</v>
       </c>
       <c r="N159" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O159" t="s">
         <v>28</v>
@@ -17375,7 +17540,7 @@
         <v>0</v>
       </c>
       <c r="N160" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O160" t="s">
         <v>28</v>
@@ -17435,7 +17600,7 @@
         <v>0</v>
       </c>
       <c r="N161" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O161" t="s">
         <v>28</v>
@@ -17495,7 +17660,7 @@
         <v>0</v>
       </c>
       <c r="N162" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O162" t="s">
         <v>28</v>
@@ -17555,7 +17720,7 @@
         <v>0</v>
       </c>
       <c r="N163" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O163" t="s">
         <v>26</v>
@@ -17615,7 +17780,7 @@
         <v>0</v>
       </c>
       <c r="N164" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O164" t="s">
         <v>28</v>
@@ -17675,7 +17840,7 @@
         <v>0</v>
       </c>
       <c r="N165" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O165" t="s">
         <v>28</v>
@@ -17735,7 +17900,7 @@
         <v>0</v>
       </c>
       <c r="N166" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O166" t="s">
         <v>28</v>
@@ -17795,7 +17960,7 @@
         <v>0</v>
       </c>
       <c r="N167" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O167" t="s">
         <v>28</v>
@@ -18023,10 +18188,10 @@
         <v>0</v>
       </c>
       <c r="M171" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="N171" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O171" t="s">
         <v>26</v>
@@ -18086,7 +18251,7 @@
         <v>0</v>
       </c>
       <c r="N172" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O172" t="s">
         <v>26</v>
@@ -18146,7 +18311,7 @@
         <v>0</v>
       </c>
       <c r="N173" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O173" t="s">
         <v>28</v>
@@ -18206,7 +18371,7 @@
         <v>0</v>
       </c>
       <c r="N174" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O174" t="s">
         <v>28</v>
@@ -18266,7 +18431,7 @@
         <v>0</v>
       </c>
       <c r="N175" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O175" t="s">
         <v>28</v>
@@ -18326,7 +18491,7 @@
         <v>0</v>
       </c>
       <c r="N176" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O176" t="s">
         <v>28</v>
@@ -18383,7 +18548,7 @@
         <v>0</v>
       </c>
       <c r="N177" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O177" t="s">
         <v>26</v>
@@ -18440,7 +18605,7 @@
         <v>0</v>
       </c>
       <c r="N178" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O178" t="s">
         <v>26</v>
@@ -18497,7 +18662,7 @@
         <v>0</v>
       </c>
       <c r="N179" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O179" t="s">
         <v>26</v>
@@ -18554,7 +18719,7 @@
         <v>0</v>
       </c>
       <c r="N180" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O180" t="s">
         <v>26</v>
@@ -18614,7 +18779,7 @@
         <v>0</v>
       </c>
       <c r="N181" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O181" t="s">
         <v>26</v>
@@ -18674,7 +18839,7 @@
         <v>0</v>
       </c>
       <c r="N182" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O182" t="s">
         <v>28</v>
@@ -18734,7 +18899,7 @@
         <v>0</v>
       </c>
       <c r="N183" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O183" t="s">
         <v>28</v>
@@ -18794,7 +18959,7 @@
         <v>0</v>
       </c>
       <c r="N184" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O184" t="s">
         <v>28</v>
@@ -18854,7 +19019,7 @@
         <v>0</v>
       </c>
       <c r="N185" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O185" t="s">
         <v>28</v>
@@ -18908,10 +19073,10 @@
         <v>0</v>
       </c>
       <c r="M186" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="N186" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="O186" t="s">
         <v>26</v>
@@ -18969,7 +19134,7 @@
         <v>0</v>
       </c>
       <c r="N187" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="O187" t="s">
         <v>204</v>
@@ -19029,7 +19194,7 @@
         <v>0</v>
       </c>
       <c r="N188" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="O188" t="s">
         <v>204</v>
@@ -19163,7 +19328,7 @@
     </row>
     <row r="191" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>1677</v>
+        <v>1675</v>
       </c>
       <c r="B191">
         <v>6</v>
@@ -19264,7 +19429,7 @@
         <v>26</v>
       </c>
       <c r="P192" s="6" t="s">
-        <v>2046</v>
+        <v>2042</v>
       </c>
       <c r="Q192">
         <v>2</v>
@@ -20006,7 +20171,7 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1468</v>
+        <v>2045</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -20103,7 +20268,7 @@
         <v>26</v>
       </c>
       <c r="P12" t="s">
-        <v>1829</v>
+        <v>1826</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -20161,7 +20326,7 @@
         <v>28</v>
       </c>
       <c r="P13" t="s">
-        <v>1828</v>
+        <v>1825</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -20348,7 +20513,7 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -20405,7 +20570,7 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -20450,7 +20615,7 @@
         <v>26</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="Q18">
         <v>2</v>
@@ -20692,7 +20857,7 @@
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -20859,7 +21024,7 @@
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1832</v>
+        <v>1829</v>
       </c>
       <c r="B26">
         <v>3</v>
@@ -21476,10 +21641,10 @@
         <v>0</v>
       </c>
       <c r="M36" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="N36" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="O36" t="s">
         <v>26</v>
@@ -21539,7 +21704,7 @@
         <v>0</v>
       </c>
       <c r="N37" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="O37" t="s">
         <v>26</v>
@@ -21599,7 +21764,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="O38" t="s">
         <v>22</v>
@@ -21656,7 +21821,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="O39" t="s">
         <v>26</v>
@@ -21716,7 +21881,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="O40" t="s">
         <v>28</v>
@@ -21777,7 +21942,7 @@
       </c>
       <c r="M41" s="2"/>
       <c r="N41" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="O41" s="2" t="s">
         <v>28</v>
@@ -21839,7 +22004,7 @@
       </c>
       <c r="M42" s="2"/>
       <c r="N42" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="O42" s="2" t="s">
         <v>28</v>
@@ -21897,7 +22062,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="O43" t="s">
         <v>26</v>
@@ -21953,7 +22118,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="O44" t="s">
         <v>26</v>
@@ -22013,7 +22178,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="O45" t="s">
         <v>26</v>
@@ -22076,7 +22241,7 @@
         <v>0</v>
       </c>
       <c r="N46" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="O46" t="s">
         <v>26</v>
@@ -22136,7 +22301,7 @@
         <v>0</v>
       </c>
       <c r="N47" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="O47" t="s">
         <v>28</v>
@@ -22200,7 +22365,7 @@
         <v>0</v>
       </c>
       <c r="N48" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="O48" t="s">
         <v>28</v>
@@ -22262,7 +22427,7 @@
         <v>0</v>
       </c>
       <c r="N49" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="O49" t="s">
         <v>28</v>
@@ -22323,7 +22488,7 @@
         <v>0</v>
       </c>
       <c r="N50" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="O50" t="s">
         <v>26</v>
@@ -22386,7 +22551,7 @@
         <v>0</v>
       </c>
       <c r="N51" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="O51" t="s">
         <v>26</v>
@@ -22446,7 +22611,7 @@
         <v>0</v>
       </c>
       <c r="N52" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="O52" t="s">
         <v>28</v>
@@ -22510,7 +22675,7 @@
         <v>0</v>
       </c>
       <c r="N53" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="O53" t="s">
         <v>28</v>
@@ -22572,7 +22737,7 @@
         <v>0</v>
       </c>
       <c r="N54" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="O54" t="s">
         <v>28</v>
@@ -22633,7 +22798,7 @@
         <v>0</v>
       </c>
       <c r="N55" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="O55" t="s">
         <v>26</v>
@@ -22696,7 +22861,7 @@
         <v>0</v>
       </c>
       <c r="N56" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="O56" t="s">
         <v>26</v>
@@ -22756,7 +22921,7 @@
         <v>0</v>
       </c>
       <c r="N57" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="O57" t="s">
         <v>28</v>
@@ -22820,7 +22985,7 @@
         <v>0</v>
       </c>
       <c r="N58" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="O58" t="s">
         <v>28</v>
@@ -22882,7 +23047,7 @@
         <v>0</v>
       </c>
       <c r="N59" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="O59" t="s">
         <v>28</v>
@@ -22943,7 +23108,7 @@
         <v>0</v>
       </c>
       <c r="N60" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="O60" t="s">
         <v>26</v>
@@ -23006,7 +23171,7 @@
         <v>0</v>
       </c>
       <c r="N61" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="O61" t="s">
         <v>26</v>
@@ -23066,7 +23231,7 @@
         <v>0</v>
       </c>
       <c r="N62" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="O62" t="s">
         <v>28</v>
@@ -23130,7 +23295,7 @@
         <v>0</v>
       </c>
       <c r="N63" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="O63" t="s">
         <v>28</v>
@@ -23192,7 +23357,7 @@
         <v>0</v>
       </c>
       <c r="N64" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="O64" t="s">
         <v>28</v>
@@ -23253,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="N65" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="O65" t="s">
         <v>26</v>
@@ -23316,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="N66" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="O66" t="s">
         <v>26</v>
@@ -23376,7 +23541,7 @@
         <v>0</v>
       </c>
       <c r="N67" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="O67" t="s">
         <v>28</v>
@@ -23440,7 +23605,7 @@
         <v>0</v>
       </c>
       <c r="N68" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="O68" t="s">
         <v>28</v>
@@ -23502,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="N69" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="O69" t="s">
         <v>28</v>
@@ -23563,7 +23728,7 @@
         <v>0</v>
       </c>
       <c r="N70" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="O70" t="s">
         <v>26</v>
@@ -23626,7 +23791,7 @@
         <v>0</v>
       </c>
       <c r="N71" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="O71" t="s">
         <v>26</v>
@@ -23686,7 +23851,7 @@
         <v>0</v>
       </c>
       <c r="N72" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="O72" t="s">
         <v>28</v>
@@ -23750,7 +23915,7 @@
         <v>0</v>
       </c>
       <c r="N73" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="O73" t="s">
         <v>28</v>
@@ -23812,7 +23977,7 @@
         <v>0</v>
       </c>
       <c r="N74" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="O74" t="s">
         <v>28</v>
@@ -24100,10 +24265,10 @@
         <v>0</v>
       </c>
       <c r="M79" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="N79" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O79" t="s">
         <v>26</v>
@@ -24163,7 +24328,7 @@
         <v>0</v>
       </c>
       <c r="N80" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O80" t="s">
         <v>26</v>
@@ -24223,7 +24388,7 @@
         <v>0</v>
       </c>
       <c r="N81" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O81" t="s">
         <v>28</v>
@@ -24283,7 +24448,7 @@
         <v>0</v>
       </c>
       <c r="N82" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O82" t="s">
         <v>28</v>
@@ -24343,7 +24508,7 @@
         <v>0</v>
       </c>
       <c r="N83" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O83" t="s">
         <v>28</v>
@@ -24403,7 +24568,7 @@
         <v>0</v>
       </c>
       <c r="N84" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O84" t="s">
         <v>28</v>
@@ -24460,7 +24625,7 @@
         <v>0</v>
       </c>
       <c r="N85" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O85" t="s">
         <v>26</v>
@@ -24517,7 +24682,7 @@
         <v>0</v>
       </c>
       <c r="N86" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O86" t="s">
         <v>26</v>
@@ -24574,7 +24739,7 @@
         <v>0</v>
       </c>
       <c r="N87" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O87" t="s">
         <v>26</v>
@@ -24631,7 +24796,7 @@
         <v>0</v>
       </c>
       <c r="N88" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O88" t="s">
         <v>26</v>
@@ -24691,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="N89" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O89" t="s">
         <v>26</v>
@@ -24751,7 +24916,7 @@
         <v>0</v>
       </c>
       <c r="N90" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O90" t="s">
         <v>26</v>
@@ -24811,7 +24976,7 @@
         <v>0</v>
       </c>
       <c r="N91" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O91" t="s">
         <v>26</v>
@@ -24871,7 +25036,7 @@
         <v>0</v>
       </c>
       <c r="N92" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O92" t="s">
         <v>26</v>
@@ -24931,7 +25096,7 @@
         <v>0</v>
       </c>
       <c r="N93" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O93" t="s">
         <v>26</v>
@@ -24991,7 +25156,7 @@
         <v>0</v>
       </c>
       <c r="N94" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O94" t="s">
         <v>26</v>
@@ -25051,7 +25216,7 @@
         <v>0</v>
       </c>
       <c r="N95" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O95" t="s">
         <v>26</v>
@@ -25111,7 +25276,7 @@
         <v>0</v>
       </c>
       <c r="N96" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O96" t="s">
         <v>26</v>
@@ -25171,7 +25336,7 @@
         <v>0</v>
       </c>
       <c r="N97" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O97" t="s">
         <v>26</v>
@@ -25231,7 +25396,7 @@
         <v>0</v>
       </c>
       <c r="N98" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O98" t="s">
         <v>26</v>
@@ -25291,7 +25456,7 @@
         <v>0</v>
       </c>
       <c r="N99" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O99" t="s">
         <v>26</v>
@@ -25351,7 +25516,7 @@
         <v>0</v>
       </c>
       <c r="N100" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O100" t="s">
         <v>26</v>
@@ -25411,7 +25576,7 @@
         <v>0</v>
       </c>
       <c r="N101" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O101" t="s">
         <v>26</v>
@@ -25471,7 +25636,7 @@
         <v>0</v>
       </c>
       <c r="N102" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O102" t="s">
         <v>26</v>
@@ -25531,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="N103" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O103" t="s">
         <v>26</v>
@@ -25591,7 +25756,7 @@
         <v>0</v>
       </c>
       <c r="N104" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O104" t="s">
         <v>26</v>
@@ -25651,7 +25816,7 @@
         <v>0</v>
       </c>
       <c r="N105" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O105" t="s">
         <v>26</v>
@@ -25711,7 +25876,7 @@
         <v>0</v>
       </c>
       <c r="N106" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O106" t="s">
         <v>26</v>
@@ -25771,7 +25936,7 @@
         <v>0</v>
       </c>
       <c r="N107" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O107" t="s">
         <v>26</v>
@@ -25831,7 +25996,7 @@
         <v>0</v>
       </c>
       <c r="N108" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O108" t="s">
         <v>26</v>
@@ -25891,7 +26056,7 @@
         <v>0</v>
       </c>
       <c r="N109" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O109" t="s">
         <v>26</v>
@@ -25951,7 +26116,7 @@
         <v>0</v>
       </c>
       <c r="N110" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O110" t="s">
         <v>26</v>
@@ -26011,7 +26176,7 @@
         <v>0</v>
       </c>
       <c r="N111" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O111" t="s">
         <v>26</v>
@@ -26071,7 +26236,7 @@
         <v>0</v>
       </c>
       <c r="N112" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O112" t="s">
         <v>26</v>
@@ -26131,7 +26296,7 @@
         <v>0</v>
       </c>
       <c r="N113" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O113" t="s">
         <v>26</v>
@@ -26191,7 +26356,7 @@
         <v>0</v>
       </c>
       <c r="N114" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O114" t="s">
         <v>26</v>
@@ -26251,7 +26416,7 @@
         <v>0</v>
       </c>
       <c r="N115" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O115" t="s">
         <v>26</v>
@@ -26311,7 +26476,7 @@
         <v>0</v>
       </c>
       <c r="N116" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O116" t="s">
         <v>26</v>
@@ -26371,7 +26536,7 @@
         <v>0</v>
       </c>
       <c r="N117" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O117" t="s">
         <v>26</v>
@@ -26431,7 +26596,7 @@
         <v>0</v>
       </c>
       <c r="N118" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O118" t="s">
         <v>26</v>
@@ -26491,7 +26656,7 @@
         <v>0</v>
       </c>
       <c r="N119" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O119" t="s">
         <v>26</v>
@@ -26551,7 +26716,7 @@
         <v>0</v>
       </c>
       <c r="N120" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O120" t="s">
         <v>26</v>
@@ -26611,7 +26776,7 @@
         <v>0</v>
       </c>
       <c r="N121" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O121" t="s">
         <v>26</v>
@@ -26671,7 +26836,7 @@
         <v>0</v>
       </c>
       <c r="N122" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O122" t="s">
         <v>26</v>
@@ -26731,7 +26896,7 @@
         <v>0</v>
       </c>
       <c r="N123" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O123" t="s">
         <v>26</v>
@@ -27324,7 +27489,7 @@
     </row>
     <row r="134" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>1469</v>
+        <v>2046</v>
       </c>
       <c r="B134">
         <v>6</v>
@@ -27588,10 +27753,10 @@
         <v>0</v>
       </c>
       <c r="M138" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="N138" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O138" t="s">
         <v>26</v>
@@ -27651,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="N139" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O139" t="s">
         <v>26</v>
@@ -27711,7 +27876,7 @@
         <v>0</v>
       </c>
       <c r="N140" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O140" t="s">
         <v>28</v>
@@ -27771,7 +27936,7 @@
         <v>0</v>
       </c>
       <c r="N141" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O141" t="s">
         <v>28</v>
@@ -27831,7 +27996,7 @@
         <v>0</v>
       </c>
       <c r="N142" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O142" t="s">
         <v>28</v>
@@ -27891,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="N143" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O143" t="s">
         <v>28</v>
@@ -27948,7 +28113,7 @@
         <v>0</v>
       </c>
       <c r="N144" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O144" t="s">
         <v>26</v>
@@ -28005,7 +28170,7 @@
         <v>0</v>
       </c>
       <c r="N145" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O145" t="s">
         <v>26</v>
@@ -28062,7 +28227,7 @@
         <v>0</v>
       </c>
       <c r="N146" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O146" t="s">
         <v>26</v>
@@ -28119,7 +28284,7 @@
         <v>0</v>
       </c>
       <c r="N147" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O147" t="s">
         <v>26</v>
@@ -28179,7 +28344,7 @@
         <v>0</v>
       </c>
       <c r="N148" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O148" t="s">
         <v>26</v>
@@ -28239,7 +28404,7 @@
         <v>0</v>
       </c>
       <c r="N149" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O149" t="s">
         <v>26</v>
@@ -28299,7 +28464,7 @@
         <v>0</v>
       </c>
       <c r="N150" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O150" t="s">
         <v>26</v>
@@ -28359,7 +28524,7 @@
         <v>0</v>
       </c>
       <c r="N151" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O151" t="s">
         <v>26</v>
@@ -28419,7 +28584,7 @@
         <v>0</v>
       </c>
       <c r="N152" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O152" t="s">
         <v>26</v>
@@ -28479,7 +28644,7 @@
         <v>0</v>
       </c>
       <c r="N153" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O153" t="s">
         <v>26</v>
@@ -28539,7 +28704,7 @@
         <v>0</v>
       </c>
       <c r="N154" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O154" t="s">
         <v>26</v>
@@ -28599,7 +28764,7 @@
         <v>0</v>
       </c>
       <c r="N155" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O155" t="s">
         <v>26</v>
@@ -28659,7 +28824,7 @@
         <v>0</v>
       </c>
       <c r="N156" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O156" t="s">
         <v>26</v>
@@ -28719,7 +28884,7 @@
         <v>0</v>
       </c>
       <c r="N157" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O157" t="s">
         <v>26</v>
@@ -28779,7 +28944,7 @@
         <v>0</v>
       </c>
       <c r="N158" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O158" t="s">
         <v>26</v>
@@ -28839,7 +29004,7 @@
         <v>0</v>
       </c>
       <c r="N159" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O159" t="s">
         <v>26</v>
@@ -28899,7 +29064,7 @@
         <v>0</v>
       </c>
       <c r="N160" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O160" t="s">
         <v>26</v>
@@ -28959,7 +29124,7 @@
         <v>0</v>
       </c>
       <c r="N161" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O161" t="s">
         <v>26</v>
@@ -29019,7 +29184,7 @@
         <v>0</v>
       </c>
       <c r="N162" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O162" t="s">
         <v>26</v>
@@ -29079,7 +29244,7 @@
         <v>0</v>
       </c>
       <c r="N163" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O163" t="s">
         <v>26</v>
@@ -29139,7 +29304,7 @@
         <v>0</v>
       </c>
       <c r="N164" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O164" t="s">
         <v>26</v>
@@ -29199,7 +29364,7 @@
         <v>0</v>
       </c>
       <c r="N165" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O165" t="s">
         <v>26</v>
@@ -29259,7 +29424,7 @@
         <v>0</v>
       </c>
       <c r="N166" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O166" t="s">
         <v>26</v>
@@ -29319,7 +29484,7 @@
         <v>0</v>
       </c>
       <c r="N167" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O167" t="s">
         <v>26</v>
@@ -29547,10 +29712,10 @@
         <v>0</v>
       </c>
       <c r="M171" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="N171" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O171" t="s">
         <v>26</v>
@@ -29610,7 +29775,7 @@
         <v>0</v>
       </c>
       <c r="N172" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O172" t="s">
         <v>26</v>
@@ -29670,7 +29835,7 @@
         <v>0</v>
       </c>
       <c r="N173" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O173" t="s">
         <v>28</v>
@@ -29730,7 +29895,7 @@
         <v>0</v>
       </c>
       <c r="N174" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O174" t="s">
         <v>28</v>
@@ -29790,7 +29955,7 @@
         <v>0</v>
       </c>
       <c r="N175" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O175" t="s">
         <v>28</v>
@@ -29850,7 +30015,7 @@
         <v>0</v>
       </c>
       <c r="N176" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O176" t="s">
         <v>28</v>
@@ -29907,7 +30072,7 @@
         <v>0</v>
       </c>
       <c r="N177" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O177" t="s">
         <v>26</v>
@@ -29964,7 +30129,7 @@
         <v>0</v>
       </c>
       <c r="N178" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O178" t="s">
         <v>26</v>
@@ -30021,7 +30186,7 @@
         <v>0</v>
       </c>
       <c r="N179" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O179" t="s">
         <v>26</v>
@@ -30078,7 +30243,7 @@
         <v>0</v>
       </c>
       <c r="N180" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O180" t="s">
         <v>26</v>
@@ -30138,7 +30303,7 @@
         <v>0</v>
       </c>
       <c r="N181" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O181" t="s">
         <v>26</v>
@@ -30198,7 +30363,7 @@
         <v>0</v>
       </c>
       <c r="N182" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O182" t="s">
         <v>26</v>
@@ -30258,7 +30423,7 @@
         <v>0</v>
       </c>
       <c r="N183" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O183" t="s">
         <v>26</v>
@@ -30318,7 +30483,7 @@
         <v>0</v>
       </c>
       <c r="N184" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O184" t="s">
         <v>26</v>
@@ -30378,7 +30543,7 @@
         <v>0</v>
       </c>
       <c r="N185" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O185" t="s">
         <v>26</v>
@@ -30432,10 +30597,10 @@
         <v>0</v>
       </c>
       <c r="M186" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="N186" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="O186" t="s">
         <v>26</v>
@@ -30493,7 +30658,7 @@
         <v>0</v>
       </c>
       <c r="N187" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="O187" t="s">
         <v>204</v>
@@ -30553,7 +30718,7 @@
         <v>0</v>
       </c>
       <c r="N188" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="O188" t="s">
         <v>204</v>
@@ -30687,7 +30852,7 @@
     </row>
     <row r="191" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>1677</v>
+        <v>1675</v>
       </c>
       <c r="B191">
         <v>8</v>
@@ -30788,7 +30953,7 @@
         <v>26</v>
       </c>
       <c r="P192" s="6" t="s">
-        <v>1830</v>
+        <v>1827</v>
       </c>
       <c r="Q192">
         <v>2</v>
@@ -30935,10 +31100,10 @@
   <dimension ref="A1:U172"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D148" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B154" sqref="B154"/>
+      <selection pane="bottomRight" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31033,10 +31198,10 @@
         <v>724</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>479</v>
@@ -31069,7 +31234,7 @@
         <v>341</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
       <c r="R2" s="9" t="s">
         <v>342</v>
@@ -31085,7 +31250,7 @@
         <v>143</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>1831</v>
+        <v>1828</v>
       </c>
       <c r="C3" s="49">
         <v>1</v>
@@ -31146,58 +31311,58 @@
         <v>143</v>
       </c>
       <c r="B4" s="17" t="s">
+        <v>1625</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>1621</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>1622</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>1622</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>1623</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>1624</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>1626</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>1620</v>
+      </c>
+      <c r="K4" s="9" t="s">
         <v>1627</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>1583</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>1623</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>1624</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>1624</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>1625</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>1626</v>
-      </c>
-      <c r="I4" s="9" t="s">
+      <c r="L4" s="9" t="s">
         <v>1628</v>
       </c>
-      <c r="J4" s="9" t="s">
-        <v>1622</v>
-      </c>
-      <c r="K4" s="9" t="s">
+      <c r="M4" s="9" t="s">
         <v>1629</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="N4" s="9" t="s">
+        <v>1629</v>
+      </c>
+      <c r="O4" s="9" t="s">
         <v>1630</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="P4" s="9" t="s">
+        <v>1630</v>
+      </c>
+      <c r="Q4" s="9" t="s">
         <v>1631</v>
       </c>
-      <c r="N4" s="9" t="s">
-        <v>1631</v>
-      </c>
-      <c r="O4" s="9" t="s">
+      <c r="R4" s="9" t="s">
         <v>1632</v>
       </c>
-      <c r="P4" s="9" t="s">
-        <v>1632</v>
-      </c>
-      <c r="Q4" s="9" t="s">
+      <c r="S4" s="9" t="s">
         <v>1633</v>
-      </c>
-      <c r="R4" s="9" t="s">
-        <v>1634</v>
-      </c>
-      <c r="S4" s="9" t="s">
-        <v>1635</v>
       </c>
       <c r="T4" s="9"/>
       <c r="U4" s="9"/>
@@ -31219,16 +31384,16 @@
         <v>860</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>1822</v>
+        <v>1819</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>1186</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>1976</v>
+        <v>1972</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>1823</v>
+        <v>1820</v>
       </c>
       <c r="J5" s="9" t="s">
         <v>436</v>
@@ -31237,7 +31402,7 @@
         <v>1255</v>
       </c>
       <c r="L5" s="19" t="s">
-        <v>1899</v>
+        <v>1895</v>
       </c>
       <c r="M5" s="9" t="s">
         <v>458</v>
@@ -31246,16 +31411,16 @@
         <v>686</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>1824</v>
+        <v>1821</v>
       </c>
       <c r="P5" s="9" t="s">
         <v>461</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>1529</v>
+        <v>1527</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>1825</v>
+        <v>1822</v>
       </c>
       <c r="S5" s="9" t="s">
         <v>1170</v>
@@ -31286,7 +31451,7 @@
         <v>1187</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>1977</v>
+        <v>1973</v>
       </c>
       <c r="I6" s="19" t="s">
         <v>1072</v>
@@ -31298,7 +31463,7 @@
         <v>1256</v>
       </c>
       <c r="L6" s="19" t="s">
-        <v>1900</v>
+        <v>1896</v>
       </c>
       <c r="M6" s="9" t="s">
         <v>459</v>
@@ -31313,7 +31478,7 @@
         <v>463</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
       <c r="R6" s="9" t="s">
         <v>725</v>
@@ -31359,7 +31524,7 @@
         <v>1257</v>
       </c>
       <c r="L7" s="19" t="s">
-        <v>1901</v>
+        <v>1897</v>
       </c>
       <c r="M7" s="9" t="s">
         <v>403</v>
@@ -31390,7 +31555,7 @@
         <v>143</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>1984</v>
+        <v>1980</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>182</v>
@@ -31423,7 +31588,7 @@
         <v>143</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>1985</v>
+        <v>1981</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>177</v>
@@ -31456,7 +31621,7 @@
         <v>143</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>1986</v>
+        <v>1982</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>183</v>
@@ -31487,7 +31652,7 @@
         <v>143</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>1987</v>
+        <v>1983</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>184</v>
@@ -31518,7 +31683,7 @@
         <v>143</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>1988</v>
+        <v>1984</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>185</v>
@@ -31549,7 +31714,7 @@
         <v>143</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>1989</v>
+        <v>1985</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>343</v>
@@ -31582,7 +31747,7 @@
         <v>143</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>1990</v>
+        <v>1986</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>187</v>
@@ -31617,7 +31782,7 @@
         <v>143</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>1991</v>
+        <v>1987</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>188</v>
@@ -31650,7 +31815,7 @@
         <v>143</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>1992</v>
+        <v>1988</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>176</v>
@@ -31683,7 +31848,7 @@
         <v>143</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>1993</v>
+        <v>1989</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>189</v>
@@ -31716,7 +31881,7 @@
         <v>143</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>1994</v>
+        <v>1990</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>190</v>
@@ -31749,7 +31914,7 @@
         <v>143</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>2050</v>
+        <v>2103</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>191</v>
@@ -31782,7 +31947,7 @@
         <v>143</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>1995</v>
+        <v>1991</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>192</v>
@@ -31815,7 +31980,7 @@
         <v>143</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>1996</v>
+        <v>1992</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>193</v>
@@ -31848,7 +32013,7 @@
         <v>143</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>1997</v>
+        <v>1993</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>194</v>
@@ -31881,7 +32046,7 @@
         <v>143</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>1998</v>
+        <v>1994</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>195</v>
@@ -31914,7 +32079,7 @@
         <v>143</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>1999</v>
+        <v>1995</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>196</v>
@@ -31949,7 +32114,7 @@
         <v>143</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>2048</v>
+        <v>2043</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>197</v>
@@ -31984,7 +32149,7 @@
         <v>143</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>2000</v>
+        <v>1996</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>198</v>
@@ -32019,7 +32184,7 @@
         <v>143</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>2001</v>
+        <v>1997</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>199</v>
@@ -32050,7 +32215,7 @@
         <v>143</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>2002</v>
+        <v>1998</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>200</v>
@@ -32081,7 +32246,7 @@
         <v>143</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>2003</v>
+        <v>1999</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>201</v>
@@ -32112,7 +32277,7 @@
         <v>143</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>174</v>
@@ -32143,7 +32308,7 @@
         <v>143</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>2005</v>
+        <v>2001</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>202</v>
@@ -32174,7 +32339,7 @@
         <v>143</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="C32" s="13" t="s">
         <v>203</v>
@@ -32188,7 +32353,7 @@
       <c r="J32" s="9"/>
       <c r="K32" s="19"/>
       <c r="L32" s="19" t="s">
-        <v>1902</v>
+        <v>1898</v>
       </c>
       <c r="M32" s="9"/>
       <c r="N32" s="9"/>
@@ -32207,7 +32372,7 @@
         <v>143</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>2007</v>
+        <v>2003</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>506</v>
@@ -32240,7 +32405,7 @@
         <v>143</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>507</v>
@@ -32273,7 +32438,7 @@
         <v>143</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>508</v>
@@ -32304,7 +32469,7 @@
         <v>143</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="C36" s="10" t="s">
         <v>508</v>
@@ -32335,7 +32500,7 @@
         <v>143</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="C37" s="10" t="s">
         <v>508</v>
@@ -32366,7 +32531,7 @@
         <v>143</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>509</v>
@@ -32399,7 +32564,7 @@
         <v>143</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="C39" s="10" t="s">
         <v>540</v>
@@ -32434,7 +32599,7 @@
         <v>143</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="C40" s="10" t="s">
         <v>510</v>
@@ -32467,7 +32632,7 @@
         <v>143</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="C41" s="10" t="s">
         <v>511</v>
@@ -32500,7 +32665,7 @@
         <v>143</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="C42" s="10" t="s">
         <v>512</v>
@@ -32533,7 +32698,7 @@
         <v>143</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="C43" s="10" t="s">
         <v>513</v>
@@ -32566,7 +32731,7 @@
         <v>143</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>2051</v>
+        <v>2104</v>
       </c>
       <c r="C44" s="10" t="s">
         <v>514</v>
@@ -32599,7 +32764,7 @@
         <v>143</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="C45" s="10" t="s">
         <v>515</v>
@@ -32632,7 +32797,7 @@
         <v>143</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="C46" s="10" t="s">
         <v>516</v>
@@ -32665,7 +32830,7 @@
         <v>143</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="C47" s="10" t="s">
         <v>517</v>
@@ -32698,7 +32863,7 @@
         <v>143</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="C48" s="10" t="s">
         <v>518</v>
@@ -32731,7 +32896,7 @@
         <v>143</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="C49" s="10" t="s">
         <v>519</v>
@@ -32766,7 +32931,7 @@
         <v>143</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>2049</v>
+        <v>2044</v>
       </c>
       <c r="C50" s="10" t="s">
         <v>519</v>
@@ -32801,7 +32966,7 @@
         <v>143</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>2023</v>
+        <v>2019</v>
       </c>
       <c r="C51" s="10" t="s">
         <v>519</v>
@@ -32836,7 +33001,7 @@
         <v>143</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>2024</v>
+        <v>2020</v>
       </c>
       <c r="C52" s="10" t="s">
         <v>520</v>
@@ -32867,7 +33032,7 @@
         <v>143</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>2025</v>
+        <v>2021</v>
       </c>
       <c r="C53" s="10" t="s">
         <v>521</v>
@@ -32898,7 +33063,7 @@
         <v>143</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>2026</v>
+        <v>2022</v>
       </c>
       <c r="C54" s="10" t="s">
         <v>522</v>
@@ -32929,7 +33094,7 @@
         <v>143</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>2027</v>
+        <v>2023</v>
       </c>
       <c r="C55" s="10" t="s">
         <v>522</v>
@@ -32960,7 +33125,7 @@
         <v>143</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>2028</v>
+        <v>2024</v>
       </c>
       <c r="C56" s="10" t="s">
         <v>522</v>
@@ -32991,7 +33156,7 @@
         <v>143</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>2029</v>
+        <v>2025</v>
       </c>
       <c r="C57" s="10" t="s">
         <v>523</v>
@@ -33072,7 +33237,7 @@
         <v>1411</v>
       </c>
       <c r="R58" s="10" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
       <c r="S58" s="9" t="s">
         <v>1413</v>
@@ -33100,7 +33265,7 @@
         <v>1416</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>1645</v>
+        <v>1643</v>
       </c>
       <c r="H59" s="10" t="s">
         <v>1415</v>
@@ -33341,7 +33506,7 @@
         <v>866</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="G63" s="10" t="s">
         <v>1189</v>
@@ -33359,7 +33524,7 @@
         <v>1259</v>
       </c>
       <c r="L63" s="19" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="M63" s="9" t="s">
         <v>404</v>
@@ -33414,13 +33579,13 @@
         <v>483</v>
       </c>
       <c r="J64" s="9" t="s">
-        <v>1788</v>
+        <v>1785</v>
       </c>
       <c r="K64" s="19" t="s">
         <v>1260</v>
       </c>
       <c r="L64" s="19" t="s">
-        <v>1904</v>
+        <v>1900</v>
       </c>
       <c r="M64" s="9" t="s">
         <v>405</v>
@@ -33435,7 +33600,7 @@
         <v>274</v>
       </c>
       <c r="Q64" s="9" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="R64" s="9" t="s">
         <v>313</v>
@@ -33472,16 +33637,16 @@
         <v>1332</v>
       </c>
       <c r="I65" s="19" t="s">
-        <v>1846</v>
+        <v>1843</v>
       </c>
       <c r="J65" s="9" t="s">
-        <v>1783</v>
+        <v>1780</v>
       </c>
       <c r="K65" s="19" t="s">
         <v>1261</v>
       </c>
       <c r="L65" s="19" t="s">
-        <v>1905</v>
+        <v>1901</v>
       </c>
       <c r="M65" s="9" t="s">
         <v>250</v>
@@ -33496,7 +33661,7 @@
         <v>275</v>
       </c>
       <c r="Q65" s="9" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
       <c r="R65" s="9" t="s">
         <v>728</v>
@@ -33533,7 +33698,7 @@
         <v>241</v>
       </c>
       <c r="I66" s="19" t="s">
-        <v>1847</v>
+        <v>1844</v>
       </c>
       <c r="J66" s="9" t="s">
         <v>438</v>
@@ -33542,7 +33707,7 @@
         <v>1262</v>
       </c>
       <c r="L66" s="19" t="s">
-        <v>1906</v>
+        <v>1902</v>
       </c>
       <c r="M66" s="9" t="s">
         <v>406</v>
@@ -33597,13 +33762,13 @@
         <v>1075</v>
       </c>
       <c r="J67" s="9" t="s">
-        <v>1784</v>
+        <v>1781</v>
       </c>
       <c r="K67" s="19" t="s">
         <v>1263</v>
       </c>
       <c r="L67" s="19" t="s">
-        <v>1970</v>
+        <v>1966</v>
       </c>
       <c r="M67" s="9" t="s">
         <v>251</v>
@@ -33664,7 +33829,7 @@
         <v>1264</v>
       </c>
       <c r="L68" s="19" t="s">
-        <v>1907</v>
+        <v>1903</v>
       </c>
       <c r="M68" s="9" t="s">
         <v>252</v>
@@ -33725,7 +33890,7 @@
         <v>1265</v>
       </c>
       <c r="L69" s="19" t="s">
-        <v>1908</v>
+        <v>1904</v>
       </c>
       <c r="M69" s="9" t="s">
         <v>253</v>
@@ -33740,7 +33905,7 @@
         <v>297</v>
       </c>
       <c r="Q69" s="9" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
       <c r="R69" s="9" t="s">
         <v>731</v>
@@ -33771,7 +33936,7 @@
         <v>874</v>
       </c>
       <c r="G70" s="10" t="s">
-        <v>1644</v>
+        <v>1642</v>
       </c>
       <c r="H70" s="9" t="s">
         <v>1335</v>
@@ -33780,13 +33945,13 @@
         <v>1076</v>
       </c>
       <c r="J70" s="9" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
       <c r="K70" s="19" t="s">
         <v>1266</v>
       </c>
       <c r="L70" s="19" t="s">
-        <v>1909</v>
+        <v>1905</v>
       </c>
       <c r="M70" s="9" t="s">
         <v>719</v>
@@ -33801,7 +33966,7 @@
         <v>975</v>
       </c>
       <c r="Q70" s="9" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="R70" s="9" t="s">
         <v>732</v>
@@ -33908,7 +34073,7 @@
         <v>1268</v>
       </c>
       <c r="L72" s="19" t="s">
-        <v>1910</v>
+        <v>1906</v>
       </c>
       <c r="M72" s="9" t="s">
         <v>255</v>
@@ -34030,7 +34195,7 @@
         <v>1270</v>
       </c>
       <c r="L74" s="19" t="s">
-        <v>1911</v>
+        <v>1907</v>
       </c>
       <c r="M74" s="9" t="s">
         <v>420</v>
@@ -34045,7 +34210,7 @@
         <v>464</v>
       </c>
       <c r="Q74" s="9" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="R74" s="9" t="s">
         <v>734</v>
@@ -34091,7 +34256,7 @@
         <v>1271</v>
       </c>
       <c r="L75" s="19" t="s">
-        <v>1979</v>
+        <v>1975</v>
       </c>
       <c r="M75" s="9" t="s">
         <v>421</v>
@@ -34106,7 +34271,7 @@
         <v>1393</v>
       </c>
       <c r="Q75" s="9" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
       <c r="R75" s="9" t="s">
         <v>735</v>
@@ -34143,16 +34308,16 @@
         <v>1339</v>
       </c>
       <c r="I76" s="19" t="s">
-        <v>1848</v>
+        <v>1845</v>
       </c>
       <c r="J76" s="9" t="s">
         <v>1437</v>
       </c>
       <c r="K76" s="19" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
       <c r="L76" s="19" t="s">
-        <v>1912</v>
+        <v>1908</v>
       </c>
       <c r="M76" s="9" t="s">
         <v>572</v>
@@ -34167,7 +34332,7 @@
         <v>1394</v>
       </c>
       <c r="Q76" s="9" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
       <c r="R76" s="9" t="s">
         <v>736</v>
@@ -34186,55 +34351,55 @@
         <v>547</v>
       </c>
       <c r="C77" s="10" t="s">
+        <v>1677</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>1678</v>
+      </c>
+      <c r="E77" s="9" t="s">
         <v>1679</v>
       </c>
-      <c r="D77" s="9" t="s">
+      <c r="F77" s="9" t="s">
         <v>1680</v>
       </c>
-      <c r="E77" s="9" t="s">
+      <c r="G77" s="10" t="s">
         <v>1681</v>
       </c>
-      <c r="F77" s="9" t="s">
+      <c r="H77" s="9" t="s">
+        <v>1836</v>
+      </c>
+      <c r="I77" s="19" t="s">
         <v>1682</v>
       </c>
-      <c r="G77" s="10" t="s">
+      <c r="J77" s="9" t="s">
         <v>1683</v>
       </c>
-      <c r="H77" s="9" t="s">
-        <v>1839</v>
-      </c>
-      <c r="I77" s="19" t="s">
+      <c r="K77" s="19" t="s">
         <v>1684</v>
       </c>
-      <c r="J77" s="9" t="s">
+      <c r="L77" s="19" t="s">
+        <v>1909</v>
+      </c>
+      <c r="M77" s="9" t="s">
         <v>1685</v>
       </c>
-      <c r="K77" s="19" t="s">
+      <c r="N77" s="9" t="s">
         <v>1686</v>
       </c>
-      <c r="L77" s="19" t="s">
-        <v>1913</v>
-      </c>
-      <c r="M77" s="9" t="s">
+      <c r="O77" s="9" t="s">
         <v>1687</v>
       </c>
-      <c r="N77" s="9" t="s">
+      <c r="P77" s="9" t="s">
         <v>1688</v>
       </c>
-      <c r="O77" s="9" t="s">
+      <c r="Q77" s="9" t="s">
         <v>1689</v>
       </c>
-      <c r="P77" s="9" t="s">
+      <c r="R77" s="9" t="s">
+        <v>1583</v>
+      </c>
+      <c r="S77" s="9" t="s">
         <v>1690</v>
-      </c>
-      <c r="Q77" s="9" t="s">
-        <v>1691</v>
-      </c>
-      <c r="R77" s="9" t="s">
-        <v>1585</v>
-      </c>
-      <c r="S77" s="9" t="s">
-        <v>1692</v>
       </c>
       <c r="T77" s="9"/>
       <c r="U77" s="9"/>
@@ -34247,55 +34412,55 @@
         <v>548</v>
       </c>
       <c r="C78" s="10" t="s">
+        <v>1691</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>1692</v>
+      </c>
+      <c r="E78" s="9" t="s">
         <v>1693</v>
       </c>
-      <c r="D78" s="9" t="s">
+      <c r="F78" s="9" t="s">
         <v>1694</v>
       </c>
-      <c r="E78" s="9" t="s">
+      <c r="G78" s="10" t="s">
         <v>1695</v>
       </c>
-      <c r="F78" s="9" t="s">
+      <c r="H78" s="9" t="s">
         <v>1696</v>
       </c>
-      <c r="G78" s="10" t="s">
+      <c r="I78" s="19" t="s">
         <v>1697</v>
       </c>
-      <c r="H78" s="9" t="s">
+      <c r="J78" s="9" t="s">
         <v>1698</v>
       </c>
-      <c r="I78" s="19" t="s">
+      <c r="K78" s="19" t="s">
         <v>1699</v>
       </c>
-      <c r="J78" s="9" t="s">
+      <c r="L78" s="19" t="s">
+        <v>1910</v>
+      </c>
+      <c r="M78" s="9" t="s">
         <v>1700</v>
       </c>
-      <c r="K78" s="19" t="s">
+      <c r="N78" s="9" t="s">
         <v>1701</v>
       </c>
-      <c r="L78" s="19" t="s">
-        <v>1914</v>
-      </c>
-      <c r="M78" s="9" t="s">
+      <c r="O78" s="9" t="s">
         <v>1702</v>
       </c>
-      <c r="N78" s="9" t="s">
+      <c r="P78" s="9" t="s">
         <v>1703</v>
       </c>
-      <c r="O78" s="9" t="s">
+      <c r="Q78" s="9" t="s">
         <v>1704</v>
       </c>
-      <c r="P78" s="9" t="s">
+      <c r="R78" s="9" t="s">
+        <v>1584</v>
+      </c>
+      <c r="S78" s="9" t="s">
         <v>1705</v>
-      </c>
-      <c r="Q78" s="9" t="s">
-        <v>1706</v>
-      </c>
-      <c r="R78" s="9" t="s">
-        <v>1586</v>
-      </c>
-      <c r="S78" s="9" t="s">
-        <v>1707</v>
       </c>
       <c r="T78" s="9"/>
       <c r="U78" s="9"/>
@@ -34308,55 +34473,55 @@
         <v>546</v>
       </c>
       <c r="C79" s="10" t="s">
+        <v>1706</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>1707</v>
+      </c>
+      <c r="E79" s="9" t="s">
         <v>1708</v>
       </c>
-      <c r="D79" s="9" t="s">
+      <c r="F79" s="9" t="s">
         <v>1709</v>
       </c>
-      <c r="E79" s="9" t="s">
+      <c r="G79" s="10" t="s">
         <v>1710</v>
       </c>
-      <c r="F79" s="9" t="s">
+      <c r="H79" s="9" t="s">
         <v>1711</v>
       </c>
-      <c r="G79" s="10" t="s">
+      <c r="I79" s="19" t="s">
         <v>1712</v>
       </c>
-      <c r="H79" s="9" t="s">
+      <c r="J79" s="9" t="s">
         <v>1713</v>
       </c>
-      <c r="I79" s="19" t="s">
+      <c r="K79" s="19" t="s">
         <v>1714</v>
       </c>
-      <c r="J79" s="9" t="s">
+      <c r="L79" s="19" t="s">
+        <v>1911</v>
+      </c>
+      <c r="M79" s="9" t="s">
         <v>1715</v>
       </c>
-      <c r="K79" s="19" t="s">
+      <c r="N79" s="9" t="s">
         <v>1716</v>
       </c>
-      <c r="L79" s="19" t="s">
-        <v>1915</v>
-      </c>
-      <c r="M79" s="9" t="s">
+      <c r="O79" s="9" t="s">
         <v>1717</v>
       </c>
-      <c r="N79" s="9" t="s">
+      <c r="P79" s="9" t="s">
         <v>1718</v>
       </c>
-      <c r="O79" s="9" t="s">
+      <c r="Q79" s="9" t="s">
         <v>1719</v>
       </c>
-      <c r="P79" s="9" t="s">
+      <c r="R79" s="9" t="s">
+        <v>1582</v>
+      </c>
+      <c r="S79" s="9" t="s">
         <v>1720</v>
-      </c>
-      <c r="Q79" s="9" t="s">
-        <v>1721</v>
-      </c>
-      <c r="R79" s="9" t="s">
-        <v>1584</v>
-      </c>
-      <c r="S79" s="9" t="s">
-        <v>1722</v>
       </c>
       <c r="T79" s="9"/>
       <c r="U79" s="9"/>
@@ -34396,7 +34561,7 @@
         <v>1272</v>
       </c>
       <c r="L80" s="19" t="s">
-        <v>1916</v>
+        <v>1912</v>
       </c>
       <c r="M80" s="9" t="s">
         <v>257</v>
@@ -34411,7 +34576,7 @@
         <v>257</v>
       </c>
       <c r="Q80" s="9" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="R80" s="9" t="s">
         <v>317</v>
@@ -34430,10 +34595,10 @@
         <v>163</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="E81" s="9" t="s">
         <v>881</v>
@@ -34442,43 +34607,43 @@
         <v>882</v>
       </c>
       <c r="G81" s="10" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
       <c r="H81" s="9" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="I81" s="19" t="s">
         <v>1080</v>
       </c>
       <c r="J81" s="9" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
       <c r="K81" s="19" t="s">
+        <v>1522</v>
+      </c>
+      <c r="L81" s="19" t="s">
+        <v>1913</v>
+      </c>
+      <c r="M81" s="9" t="s">
+        <v>1515</v>
+      </c>
+      <c r="N81" s="9" t="s">
+        <v>1516</v>
+      </c>
+      <c r="O81" s="9" t="s">
+        <v>1517</v>
+      </c>
+      <c r="P81" s="9" t="s">
+        <v>1523</v>
+      </c>
+      <c r="Q81" s="9" t="s">
+        <v>1537</v>
+      </c>
+      <c r="R81" s="9" t="s">
+        <v>1578</v>
+      </c>
+      <c r="S81" s="9" t="s">
         <v>1524</v>
-      </c>
-      <c r="L81" s="19" t="s">
-        <v>1917</v>
-      </c>
-      <c r="M81" s="9" t="s">
-        <v>1517</v>
-      </c>
-      <c r="N81" s="9" t="s">
-        <v>1518</v>
-      </c>
-      <c r="O81" s="9" t="s">
-        <v>1519</v>
-      </c>
-      <c r="P81" s="9" t="s">
-        <v>1525</v>
-      </c>
-      <c r="Q81" s="9" t="s">
-        <v>1539</v>
-      </c>
-      <c r="R81" s="9" t="s">
-        <v>1580</v>
-      </c>
-      <c r="S81" s="9" t="s">
-        <v>1526</v>
       </c>
       <c r="T81" s="9"/>
       <c r="U81" s="9"/>
@@ -34518,7 +34683,7 @@
         <v>1274</v>
       </c>
       <c r="L82" s="19" t="s">
-        <v>1918</v>
+        <v>1914</v>
       </c>
       <c r="M82" s="9" t="s">
         <v>720</v>
@@ -34573,13 +34738,13 @@
         <v>1081</v>
       </c>
       <c r="J83" s="9" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="K83" s="19" t="s">
         <v>1275</v>
       </c>
       <c r="L83" s="19" t="s">
-        <v>1919</v>
+        <v>1915</v>
       </c>
       <c r="M83" s="9" t="s">
         <v>721</v>
@@ -34594,7 +34759,7 @@
         <v>1395</v>
       </c>
       <c r="Q83" s="9" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
       <c r="R83" s="9" t="s">
         <v>739</v>
@@ -34640,7 +34805,7 @@
         <v>1276</v>
       </c>
       <c r="L84" s="19" t="s">
-        <v>1920</v>
+        <v>1916</v>
       </c>
       <c r="M84" s="9" t="s">
         <v>556</v>
@@ -34692,7 +34857,7 @@
         <v>970</v>
       </c>
       <c r="I85" s="19" t="s">
-        <v>1849</v>
+        <v>1846</v>
       </c>
       <c r="J85" s="9" t="s">
         <v>1439</v>
@@ -34751,7 +34916,7 @@
         <v>972</v>
       </c>
       <c r="I86" s="19" t="s">
-        <v>1850</v>
+        <v>1847</v>
       </c>
       <c r="J86" s="9" t="s">
         <v>1440</v>
@@ -34807,7 +34972,7 @@
         <v>1209</v>
       </c>
       <c r="H87" s="9" t="s">
-        <v>1978</v>
+        <v>1974</v>
       </c>
       <c r="I87" s="19" t="s">
         <v>1071</v>
@@ -34819,7 +34984,7 @@
         <v>1279</v>
       </c>
       <c r="L87" s="19" t="s">
-        <v>1899</v>
+        <v>1895</v>
       </c>
       <c r="M87" s="9" t="s">
         <v>581</v>
@@ -34850,55 +35015,55 @@
         <v>143</v>
       </c>
       <c r="B88" s="17" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>1855</v>
+        <v>1852</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>1856</v>
+        <v>1853</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="G88" s="10" t="s">
-        <v>1857</v>
+        <v>1854</v>
       </c>
       <c r="H88" s="9" t="s">
         <v>1463</v>
       </c>
       <c r="I88" s="19" t="s">
+        <v>1855</v>
+      </c>
+      <c r="J88" s="9" t="s">
+        <v>1856</v>
+      </c>
+      <c r="K88" s="19" t="s">
+        <v>1857</v>
+      </c>
+      <c r="L88" s="19" t="s">
+        <v>1917</v>
+      </c>
+      <c r="M88" s="9" t="s">
         <v>1858</v>
       </c>
-      <c r="J88" s="9" t="s">
+      <c r="N88" s="9" t="s">
         <v>1859</v>
       </c>
-      <c r="K88" s="19" t="s">
+      <c r="O88" s="9" t="s">
+        <v>1586</v>
+      </c>
+      <c r="P88" s="9" t="s">
         <v>1860</v>
       </c>
-      <c r="L88" s="19" t="s">
-        <v>1921</v>
-      </c>
-      <c r="M88" s="9" t="s">
+      <c r="Q88" s="9" t="s">
         <v>1861</v>
       </c>
-      <c r="N88" s="9" t="s">
-        <v>1862</v>
-      </c>
-      <c r="O88" s="9" t="s">
-        <v>1588</v>
-      </c>
-      <c r="P88" s="9" t="s">
-        <v>1863</v>
-      </c>
-      <c r="Q88" s="9" t="s">
-        <v>1864</v>
-      </c>
       <c r="R88" s="9" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
       <c r="S88" s="9" t="s">
         <v>1464</v>
@@ -34914,55 +35079,55 @@
         <v>178</v>
       </c>
       <c r="C89" s="10" t="s">
+        <v>1862</v>
+      </c>
+      <c r="D89" s="9" t="s">
+        <v>1863</v>
+      </c>
+      <c r="E89" s="9" t="s">
+        <v>1797</v>
+      </c>
+      <c r="F89" s="9" t="s">
+        <v>1798</v>
+      </c>
+      <c r="G89" s="10" t="s">
+        <v>1864</v>
+      </c>
+      <c r="H89" s="9" t="s">
+        <v>1799</v>
+      </c>
+      <c r="I89" s="19" t="s">
         <v>1865</v>
       </c>
-      <c r="D89" s="9" t="s">
+      <c r="J89" s="9" t="s">
         <v>1866</v>
       </c>
-      <c r="E89" s="9" t="s">
-        <v>1800</v>
-      </c>
-      <c r="F89" s="9" t="s">
+      <c r="K89" s="19" t="s">
+        <v>1867</v>
+      </c>
+      <c r="L89" s="19" t="s">
+        <v>1918</v>
+      </c>
+      <c r="M89" s="9" t="s">
+        <v>1868</v>
+      </c>
+      <c r="N89" s="9" t="s">
+        <v>1869</v>
+      </c>
+      <c r="O89" s="9" t="s">
         <v>1801</v>
       </c>
-      <c r="G89" s="10" t="s">
-        <v>1867</v>
-      </c>
-      <c r="H89" s="9" t="s">
+      <c r="P89" s="9" t="s">
+        <v>1870</v>
+      </c>
+      <c r="Q89" s="9" t="s">
+        <v>1871</v>
+      </c>
+      <c r="R89" s="9" t="s">
+        <v>1803</v>
+      </c>
+      <c r="S89" s="9" t="s">
         <v>1802</v>
-      </c>
-      <c r="I89" s="19" t="s">
-        <v>1868</v>
-      </c>
-      <c r="J89" s="9" t="s">
-        <v>1869</v>
-      </c>
-      <c r="K89" s="19" t="s">
-        <v>1870</v>
-      </c>
-      <c r="L89" s="19" t="s">
-        <v>1922</v>
-      </c>
-      <c r="M89" s="9" t="s">
-        <v>1871</v>
-      </c>
-      <c r="N89" s="9" t="s">
-        <v>1872</v>
-      </c>
-      <c r="O89" s="9" t="s">
-        <v>1804</v>
-      </c>
-      <c r="P89" s="9" t="s">
-        <v>1873</v>
-      </c>
-      <c r="Q89" s="9" t="s">
-        <v>1874</v>
-      </c>
-      <c r="R89" s="9" t="s">
-        <v>1806</v>
-      </c>
-      <c r="S89" s="9" t="s">
-        <v>1805</v>
       </c>
       <c r="T89" s="9"/>
       <c r="U89" s="9"/>
@@ -34975,13 +35140,13 @@
         <v>247</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>1875</v>
+        <v>1872</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>1876</v>
+        <v>1873</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="F90" s="9" t="s">
         <v>890</v>
@@ -34993,34 +35158,34 @@
         <v>1344</v>
       </c>
       <c r="I90" s="19" t="s">
+        <v>1874</v>
+      </c>
+      <c r="J90" s="9" t="s">
+        <v>1875</v>
+      </c>
+      <c r="K90" s="19" t="s">
+        <v>1876</v>
+      </c>
+      <c r="L90" s="50" t="s">
+        <v>1919</v>
+      </c>
+      <c r="M90" s="9" t="s">
         <v>1877</v>
       </c>
-      <c r="J90" s="9" t="s">
+      <c r="N90" s="9" t="s">
         <v>1878</v>
-      </c>
-      <c r="K90" s="19" t="s">
-        <v>1879</v>
-      </c>
-      <c r="L90" s="50" t="s">
-        <v>1923</v>
-      </c>
-      <c r="M90" s="9" t="s">
-        <v>1880</v>
-      </c>
-      <c r="N90" s="9" t="s">
-        <v>1881</v>
       </c>
       <c r="O90" s="9" t="s">
         <v>1011</v>
       </c>
       <c r="P90" s="9" t="s">
-        <v>1882</v>
+        <v>1879</v>
       </c>
       <c r="Q90" s="9" t="s">
-        <v>1883</v>
+        <v>1880</v>
       </c>
       <c r="R90" s="9" t="s">
-        <v>1659</v>
+        <v>1657</v>
       </c>
       <c r="S90" s="9" t="s">
         <v>1171</v>
@@ -35063,10 +35228,10 @@
         <v>1330</v>
       </c>
       <c r="L91" s="19" t="s">
-        <v>1981</v>
+        <v>1977</v>
       </c>
       <c r="M91" s="9" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="N91" s="9" t="s">
         <v>695</v>
@@ -35078,10 +35243,10 @@
         <v>1396</v>
       </c>
       <c r="Q91" s="9" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="R91" s="9" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="S91" s="9" t="s">
         <v>1134</v>
@@ -35124,7 +35289,7 @@
         <v>1323</v>
       </c>
       <c r="L92" s="19" t="s">
-        <v>1973</v>
+        <v>1969</v>
       </c>
       <c r="M92" s="9" t="s">
         <v>557</v>
@@ -35139,10 +35304,10 @@
         <v>978</v>
       </c>
       <c r="Q92" s="9" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="R92" s="9" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="S92" s="9" t="s">
         <v>1135</v>
@@ -35179,13 +35344,13 @@
         <v>495</v>
       </c>
       <c r="J93" s="9" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
       <c r="K93" s="19" t="s">
         <v>1324</v>
       </c>
       <c r="L93" s="19" t="s">
-        <v>1925</v>
+        <v>1921</v>
       </c>
       <c r="M93" s="9" t="s">
         <v>501</v>
@@ -35203,7 +35368,7 @@
         <v>503</v>
       </c>
       <c r="R93" s="9" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="S93" s="9" t="s">
         <v>1137</v>
@@ -35246,7 +35411,7 @@
         <v>1282</v>
       </c>
       <c r="L94" s="19" t="s">
-        <v>1926</v>
+        <v>1922</v>
       </c>
       <c r="M94" s="9" t="s">
         <v>408</v>
@@ -35261,10 +35426,10 @@
         <v>1397</v>
       </c>
       <c r="Q94" s="9" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
       <c r="R94" s="9" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
       <c r="S94" s="9" t="s">
         <v>1181</v>
@@ -35301,13 +35466,13 @@
         <v>496</v>
       </c>
       <c r="J95" s="9" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="K95" s="19" t="s">
         <v>1325</v>
       </c>
       <c r="L95" s="19" t="s">
-        <v>1927</v>
+        <v>1923</v>
       </c>
       <c r="M95" s="9" t="s">
         <v>502</v>
@@ -35325,7 +35490,7 @@
         <v>504</v>
       </c>
       <c r="R95" s="9" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
       <c r="S95" s="9" t="s">
         <v>568</v>
@@ -35350,7 +35515,7 @@
         <v>894</v>
       </c>
       <c r="F96" s="9" t="s">
-        <v>1637</v>
+        <v>1635</v>
       </c>
       <c r="G96" s="10" t="s">
         <v>1212</v>
@@ -35362,13 +35527,13 @@
         <v>1086</v>
       </c>
       <c r="J96" s="9" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
       <c r="K96" s="19" t="s">
         <v>1283</v>
       </c>
       <c r="L96" s="19" t="s">
-        <v>1928</v>
+        <v>1924</v>
       </c>
       <c r="M96" s="9" t="s">
         <v>409</v>
@@ -35383,7 +35548,7 @@
         <v>979</v>
       </c>
       <c r="Q96" s="9" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="R96" s="9" t="s">
         <v>745</v>
@@ -35429,7 +35594,7 @@
         <v>1284</v>
       </c>
       <c r="L97" s="19" t="s">
-        <v>1929</v>
+        <v>1925</v>
       </c>
       <c r="M97" s="9" t="s">
         <v>410</v>
@@ -35463,55 +35628,55 @@
         <v>40</v>
       </c>
       <c r="C98" s="10" t="s">
+        <v>1753</v>
+      </c>
+      <c r="D98" s="9" t="s">
+        <v>1766</v>
+      </c>
+      <c r="E98" s="9" t="s">
+        <v>1765</v>
+      </c>
+      <c r="F98" s="9" t="s">
+        <v>1764</v>
+      </c>
+      <c r="G98" s="10" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H98" s="9" t="s">
+        <v>1762</v>
+      </c>
+      <c r="I98" s="19" t="s">
+        <v>1761</v>
+      </c>
+      <c r="J98" s="9" t="s">
+        <v>1782</v>
+      </c>
+      <c r="K98" s="19" t="s">
+        <v>1760</v>
+      </c>
+      <c r="L98" s="19" t="s">
+        <v>1967</v>
+      </c>
+      <c r="M98" s="9" t="s">
+        <v>1754</v>
+      </c>
+      <c r="N98" s="9" t="s">
+        <v>1755</v>
+      </c>
+      <c r="O98" s="9" t="s">
         <v>1756</v>
       </c>
-      <c r="D98" s="9" t="s">
-        <v>1769</v>
-      </c>
-      <c r="E98" s="9" t="s">
-        <v>1768</v>
-      </c>
-      <c r="F98" s="9" t="s">
-        <v>1767</v>
-      </c>
-      <c r="G98" s="10" t="s">
-        <v>1766</v>
-      </c>
-      <c r="H98" s="9" t="s">
-        <v>1765</v>
-      </c>
-      <c r="I98" s="19" t="s">
-        <v>1764</v>
-      </c>
-      <c r="J98" s="9" t="s">
-        <v>1785</v>
-      </c>
-      <c r="K98" s="19" t="s">
-        <v>1763</v>
-      </c>
-      <c r="L98" s="19" t="s">
-        <v>1971</v>
-      </c>
-      <c r="M98" s="9" t="s">
+      <c r="P98" s="9" t="s">
         <v>1757</v>
       </c>
-      <c r="N98" s="9" t="s">
+      <c r="Q98" s="9" t="s">
+        <v>1543</v>
+      </c>
+      <c r="R98" s="9" t="s">
         <v>1758</v>
       </c>
-      <c r="O98" s="9" t="s">
+      <c r="S98" s="9" t="s">
         <v>1759</v>
-      </c>
-      <c r="P98" s="9" t="s">
-        <v>1760</v>
-      </c>
-      <c r="Q98" s="9" t="s">
-        <v>1545</v>
-      </c>
-      <c r="R98" s="9" t="s">
-        <v>1761</v>
-      </c>
-      <c r="S98" s="9" t="s">
-        <v>1762</v>
       </c>
       <c r="T98" s="9"/>
       <c r="U98" s="9"/>
@@ -35539,19 +35704,19 @@
         <v>1214</v>
       </c>
       <c r="H99" s="9" t="s">
-        <v>1835</v>
+        <v>1832</v>
       </c>
       <c r="I99" s="19" t="s">
         <v>1112</v>
       </c>
       <c r="J99" s="9" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
       <c r="K99" s="19" t="s">
-        <v>1837</v>
+        <v>1834</v>
       </c>
       <c r="L99" s="19" t="s">
-        <v>1930</v>
+        <v>1926</v>
       </c>
       <c r="M99" s="9" t="s">
         <v>411</v>
@@ -35600,16 +35765,16 @@
         <v>1215</v>
       </c>
       <c r="H100" s="9" t="s">
-        <v>1836</v>
+        <v>1833</v>
       </c>
       <c r="I100" s="19" t="s">
         <v>1113</v>
       </c>
       <c r="J100" s="9" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="K100" s="19" t="s">
-        <v>1838</v>
+        <v>1835</v>
       </c>
       <c r="L100" s="19" t="s">
         <v>1060</v>
@@ -35667,13 +35832,13 @@
         <v>1087</v>
       </c>
       <c r="J101" s="9" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
       <c r="K101" s="19" t="s">
         <v>1285</v>
       </c>
       <c r="L101" s="19" t="s">
-        <v>1931</v>
+        <v>1927</v>
       </c>
       <c r="M101" s="9" t="s">
         <v>413</v>
@@ -35691,7 +35856,7 @@
         <v>368</v>
       </c>
       <c r="R101" s="9" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
       <c r="S101" s="9" t="s">
         <v>1140</v>
@@ -35716,7 +35881,7 @@
         <v>899</v>
       </c>
       <c r="F102" s="9" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="G102" s="10" t="s">
         <v>1217</v>
@@ -35734,7 +35899,7 @@
         <v>1286</v>
       </c>
       <c r="L102" s="19" t="s">
-        <v>1932</v>
+        <v>1928</v>
       </c>
       <c r="M102" s="9" t="s">
         <v>414</v>
@@ -35752,7 +35917,7 @@
         <v>369</v>
       </c>
       <c r="R102" s="9" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="S102" s="9" t="s">
         <v>1141</v>
@@ -35789,16 +35954,16 @@
         <v>1089</v>
       </c>
       <c r="J103" s="9" t="s">
-        <v>1787</v>
+        <v>1784</v>
       </c>
       <c r="K103" s="19" t="s">
         <v>1287</v>
       </c>
       <c r="L103" s="19" t="s">
-        <v>1933</v>
+        <v>1929</v>
       </c>
       <c r="M103" s="9" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="N103" s="9" t="s">
         <v>697</v>
@@ -35813,7 +35978,7 @@
         <v>370</v>
       </c>
       <c r="R103" s="9" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
       <c r="S103" s="9" t="s">
         <v>1142</v>
@@ -35850,13 +36015,13 @@
         <v>1090</v>
       </c>
       <c r="J104" s="9" t="s">
-        <v>1786</v>
+        <v>1783</v>
       </c>
       <c r="K104" s="19" t="s">
         <v>1288</v>
       </c>
       <c r="L104" s="19" t="s">
-        <v>1934</v>
+        <v>1930</v>
       </c>
       <c r="M104" s="9" t="s">
         <v>258</v>
@@ -35874,7 +36039,7 @@
         <v>371</v>
       </c>
       <c r="R104" s="9" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
       <c r="S104" s="9" t="s">
         <v>1172</v>
@@ -35917,7 +36082,7 @@
         <v>1289</v>
       </c>
       <c r="L105" s="19" t="s">
-        <v>1935</v>
+        <v>1931</v>
       </c>
       <c r="M105" s="9" t="s">
         <v>259</v>
@@ -35935,7 +36100,7 @@
         <v>372</v>
       </c>
       <c r="R105" s="9" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="S105" s="9" t="s">
         <v>1143</v>
@@ -35978,7 +36143,7 @@
         <v>1290</v>
       </c>
       <c r="L106" s="19" t="s">
-        <v>1936</v>
+        <v>1932</v>
       </c>
       <c r="M106" s="9" t="s">
         <v>260</v>
@@ -35993,10 +36158,10 @@
         <v>305</v>
       </c>
       <c r="Q106" s="9" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="R106" s="9" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="S106" s="9" t="s">
         <v>1144</v>
@@ -36012,7 +36177,7 @@
         <v>51</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="D107" s="9" t="s">
         <v>770</v>
@@ -36033,16 +36198,16 @@
         <v>1093</v>
       </c>
       <c r="J107" s="12" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
       <c r="K107" s="19" t="s">
         <v>1291</v>
       </c>
       <c r="L107" s="19" t="s">
-        <v>1937</v>
+        <v>1933</v>
       </c>
       <c r="M107" s="9" t="s">
-        <v>1724</v>
+        <v>1722</v>
       </c>
       <c r="N107" s="12" t="s">
         <v>788</v>
@@ -36054,10 +36219,10 @@
         <v>1398</v>
       </c>
       <c r="Q107" s="9" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
       <c r="R107" s="9" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
       <c r="S107" s="9" t="s">
         <v>1145</v>
@@ -36073,7 +36238,7 @@
         <v>840</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>1770</v>
+        <v>1767</v>
       </c>
       <c r="D108" s="9" t="s">
         <v>771</v>
@@ -36085,7 +36250,7 @@
         <v>911</v>
       </c>
       <c r="G108" s="10" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="H108" s="9" t="s">
         <v>1359</v>
@@ -36100,7 +36265,7 @@
         <v>1326</v>
       </c>
       <c r="L108" s="19" t="s">
-        <v>1938</v>
+        <v>1934</v>
       </c>
       <c r="M108" s="9" t="s">
         <v>498</v>
@@ -36134,7 +36299,7 @@
         <v>845</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>1772</v>
+        <v>1769</v>
       </c>
       <c r="D109" s="9" t="s">
         <v>772</v>
@@ -36161,7 +36326,7 @@
         <v>1327</v>
       </c>
       <c r="L109" s="19" t="s">
-        <v>1939</v>
+        <v>1935</v>
       </c>
       <c r="M109" s="9" t="s">
         <v>499</v>
@@ -36195,7 +36360,7 @@
         <v>846</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>1773</v>
+        <v>1770</v>
       </c>
       <c r="D110" s="9" t="s">
         <v>773</v>
@@ -36213,7 +36378,7 @@
         <v>1361</v>
       </c>
       <c r="I110" s="19" t="s">
-        <v>1851</v>
+        <v>1848</v>
       </c>
       <c r="J110" s="9" t="s">
         <v>1448</v>
@@ -36222,7 +36387,7 @@
         <v>1328</v>
       </c>
       <c r="L110" s="19" t="s">
-        <v>1940</v>
+        <v>1936</v>
       </c>
       <c r="M110" s="9" t="s">
         <v>500</v>
@@ -36234,7 +36399,7 @@
         <v>1026</v>
       </c>
       <c r="P110" s="9" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="Q110" s="9" t="s">
         <v>424</v>
@@ -36283,7 +36448,7 @@
         <v>1292</v>
       </c>
       <c r="L111" s="19" t="s">
-        <v>1941</v>
+        <v>1937</v>
       </c>
       <c r="M111" s="9" t="s">
         <v>261</v>
@@ -36298,10 +36463,10 @@
         <v>261</v>
       </c>
       <c r="Q111" s="9" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="R111" s="9" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="S111" s="9" t="s">
         <v>1147</v>
@@ -36362,7 +36527,7 @@
         <v>373</v>
       </c>
       <c r="R112" s="9" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
       <c r="S112" s="9" t="s">
         <v>355</v>
@@ -36405,7 +36570,7 @@
         <v>1294</v>
       </c>
       <c r="L113" s="19" t="s">
-        <v>1942</v>
+        <v>1938</v>
       </c>
       <c r="M113" s="9" t="s">
         <v>262</v>
@@ -36454,19 +36619,19 @@
         <v>1224</v>
       </c>
       <c r="H114" s="9" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="I114" s="19" t="s">
         <v>1095</v>
       </c>
       <c r="J114" s="9" t="s">
-        <v>1792</v>
+        <v>1789</v>
       </c>
       <c r="K114" s="19" t="s">
         <v>1295</v>
       </c>
       <c r="L114" s="19" t="s">
-        <v>1943</v>
+        <v>1939</v>
       </c>
       <c r="M114" s="9" t="s">
         <v>263</v>
@@ -36481,10 +36646,10 @@
         <v>981</v>
       </c>
       <c r="Q114" s="9" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="R114" s="9" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
       <c r="S114" s="9" t="s">
         <v>1148</v>
@@ -36527,7 +36692,7 @@
         <v>1296</v>
       </c>
       <c r="L115" s="19" t="s">
-        <v>1944</v>
+        <v>1940</v>
       </c>
       <c r="M115" s="9" t="s">
         <v>416</v>
@@ -36542,10 +36707,10 @@
         <v>286</v>
       </c>
       <c r="Q115" s="9" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="R115" s="9" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
       <c r="S115" s="9" t="s">
         <v>1149</v>
@@ -36582,13 +36747,13 @@
         <v>1097</v>
       </c>
       <c r="J116" s="9" t="s">
-        <v>1794</v>
+        <v>1791</v>
       </c>
       <c r="K116" s="19" t="s">
         <v>1297</v>
       </c>
       <c r="L116" s="19" t="s">
-        <v>1945</v>
+        <v>1941</v>
       </c>
       <c r="M116" s="9" t="s">
         <v>264</v>
@@ -36643,13 +36808,13 @@
         <v>494</v>
       </c>
       <c r="J117" s="9" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="K117" s="19" t="s">
         <v>1298</v>
       </c>
       <c r="L117" s="19" t="s">
-        <v>1946</v>
+        <v>1942</v>
       </c>
       <c r="M117" s="9" t="s">
         <v>265</v>
@@ -36664,10 +36829,10 @@
         <v>288</v>
       </c>
       <c r="Q117" s="9" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="R117" s="9" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
       <c r="S117" s="9" t="s">
         <v>1173</v>
@@ -36704,13 +36869,13 @@
         <v>1098</v>
       </c>
       <c r="J118" s="9" t="s">
-        <v>1795</v>
+        <v>1792</v>
       </c>
       <c r="K118" s="19" t="s">
         <v>1299</v>
       </c>
       <c r="L118" s="19" t="s">
-        <v>1947</v>
+        <v>1943</v>
       </c>
       <c r="M118" s="9" t="s">
         <v>266</v>
@@ -36725,10 +36890,10 @@
         <v>307</v>
       </c>
       <c r="Q118" s="9" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="R118" s="9" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
       <c r="S118" s="9" t="s">
         <v>357</v>
@@ -36765,13 +36930,13 @@
         <v>1099</v>
       </c>
       <c r="J119" s="9" t="s">
-        <v>1796</v>
+        <v>1793</v>
       </c>
       <c r="K119" s="19" t="s">
         <v>1300</v>
       </c>
       <c r="L119" s="19" t="s">
-        <v>1948</v>
+        <v>1944</v>
       </c>
       <c r="M119" s="9" t="s">
         <v>267</v>
@@ -36789,7 +36954,7 @@
         <v>376</v>
       </c>
       <c r="R119" s="9" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
       <c r="S119" s="9" t="s">
         <v>1151</v>
@@ -36832,7 +36997,7 @@
         <v>1301</v>
       </c>
       <c r="L120" s="19" t="s">
-        <v>1949</v>
+        <v>1945</v>
       </c>
       <c r="M120" s="9" t="s">
         <v>268</v>
@@ -36887,13 +37052,13 @@
         <v>1101</v>
       </c>
       <c r="J121" s="9" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="K121" s="19" t="s">
         <v>1302</v>
       </c>
       <c r="L121" s="19" t="s">
-        <v>1950</v>
+        <v>1946</v>
       </c>
       <c r="M121" s="9" t="s">
         <v>269</v>
@@ -36911,7 +37076,7 @@
         <v>378</v>
       </c>
       <c r="R121" s="9" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="S121" s="9" t="s">
         <v>1153</v>
@@ -36954,7 +37119,7 @@
         <v>1280</v>
       </c>
       <c r="L122" s="19" t="s">
-        <v>1924</v>
+        <v>1920</v>
       </c>
       <c r="M122" s="9" t="s">
         <v>592</v>
@@ -37015,7 +37180,7 @@
         <v>1303</v>
       </c>
       <c r="L123" s="19" t="s">
-        <v>1951</v>
+        <v>1947</v>
       </c>
       <c r="M123" s="9" t="s">
         <v>601</v>
@@ -37030,7 +37195,7 @@
         <v>603</v>
       </c>
       <c r="Q123" s="9" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="R123" s="9" t="s">
         <v>748</v>
@@ -37049,55 +37214,55 @@
         <v>228</v>
       </c>
       <c r="C124" s="10" t="s">
-        <v>1771</v>
+        <v>1768</v>
       </c>
       <c r="D124" s="9" t="s">
         <v>1185</v>
       </c>
       <c r="E124" s="9" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="F124" s="9" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="G124" s="10" t="s">
         <v>1210</v>
       </c>
       <c r="H124" s="9" t="s">
+        <v>1588</v>
+      </c>
+      <c r="I124" s="19" t="s">
+        <v>1589</v>
+      </c>
+      <c r="J124" s="9" t="s">
         <v>1590</v>
-      </c>
-      <c r="I124" s="19" t="s">
-        <v>1591</v>
-      </c>
-      <c r="J124" s="9" t="s">
-        <v>1592</v>
       </c>
       <c r="K124" s="19" t="s">
         <v>1281</v>
       </c>
       <c r="L124" s="19" t="s">
-        <v>1968</v>
+        <v>1964</v>
       </c>
       <c r="M124" s="9" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="N124" s="9" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="O124" s="9" t="s">
         <v>1015</v>
       </c>
       <c r="P124" s="9" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
       <c r="Q124" s="9" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="R124" s="9" t="s">
         <v>744</v>
       </c>
       <c r="S124" s="9" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="T124" s="9"/>
       <c r="U124" s="9"/>
@@ -37137,7 +37302,7 @@
         <v>1304</v>
       </c>
       <c r="L125" s="19" t="s">
-        <v>1952</v>
+        <v>1948</v>
       </c>
       <c r="M125" s="9" t="s">
         <v>602</v>
@@ -37189,7 +37354,7 @@
         <v>1372</v>
       </c>
       <c r="I126" s="19" t="s">
-        <v>1852</v>
+        <v>1849</v>
       </c>
       <c r="J126" s="9" t="s">
         <v>1452</v>
@@ -37198,7 +37363,7 @@
         <v>1305</v>
       </c>
       <c r="L126" s="19" t="s">
-        <v>1953</v>
+        <v>1949</v>
       </c>
       <c r="M126" s="9" t="s">
         <v>796</v>
@@ -37210,10 +37375,10 @@
         <v>1033</v>
       </c>
       <c r="P126" s="9" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="Q126" s="9" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="R126" s="9" t="s">
         <v>750</v>
@@ -37250,19 +37415,19 @@
         <v>1373</v>
       </c>
       <c r="I127" s="19" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="J127" s="12" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
       <c r="K127" s="19" t="s">
         <v>1306</v>
       </c>
       <c r="L127" s="19" t="s">
-        <v>1954</v>
+        <v>1950</v>
       </c>
       <c r="M127" s="9" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="N127" s="12" t="s">
         <v>797</v>
@@ -37274,13 +37439,13 @@
         <v>1400</v>
       </c>
       <c r="Q127" s="9" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
       <c r="R127" s="9" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
       <c r="S127" s="9" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="T127" s="9"/>
       <c r="U127" s="9"/>
@@ -37314,13 +37479,13 @@
         <v>1104</v>
       </c>
       <c r="J128" s="9" t="s">
-        <v>1797</v>
+        <v>1794</v>
       </c>
       <c r="K128" s="19" t="s">
         <v>1307</v>
       </c>
       <c r="L128" s="19" t="s">
-        <v>1955</v>
+        <v>1951</v>
       </c>
       <c r="M128" s="9" t="s">
         <v>555</v>
@@ -37335,10 +37500,10 @@
         <v>561</v>
       </c>
       <c r="Q128" s="9" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="R128" s="9" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="S128" s="9" t="s">
         <v>1156</v>
@@ -37381,7 +37546,7 @@
         <v>1308</v>
       </c>
       <c r="L129" s="19" t="s">
-        <v>1956</v>
+        <v>1952</v>
       </c>
       <c r="M129" s="9" t="s">
         <v>270</v>
@@ -37399,7 +37564,7 @@
         <v>379</v>
       </c>
       <c r="R129" s="9" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="S129" s="9" t="s">
         <v>1157</v>
@@ -37442,7 +37607,7 @@
         <v>1309</v>
       </c>
       <c r="L130" s="19" t="s">
-        <v>1957</v>
+        <v>1953</v>
       </c>
       <c r="M130" s="9" t="s">
         <v>271</v>
@@ -37460,7 +37625,7 @@
         <v>380</v>
       </c>
       <c r="R130" s="9" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="S130" s="9" t="s">
         <v>1158</v>
@@ -37503,7 +37668,7 @@
         <v>1310</v>
       </c>
       <c r="L131" s="19" t="s">
-        <v>1958</v>
+        <v>1954</v>
       </c>
       <c r="M131" s="9" t="s">
         <v>272</v>
@@ -37521,7 +37686,7 @@
         <v>381</v>
       </c>
       <c r="R131" s="9" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="S131" s="9" t="s">
         <v>1159</v>
@@ -37555,7 +37720,7 @@
         <v>1378</v>
       </c>
       <c r="I132" s="19" t="s">
-        <v>1853</v>
+        <v>1850</v>
       </c>
       <c r="J132" s="12" t="s">
         <v>455</v>
@@ -37564,10 +37729,10 @@
         <v>1311</v>
       </c>
       <c r="L132" s="19" t="s">
-        <v>1980</v>
+        <v>1976</v>
       </c>
       <c r="M132" s="9" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="N132" s="12" t="s">
         <v>799</v>
@@ -37576,13 +37741,13 @@
         <v>1035</v>
       </c>
       <c r="P132" s="9" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="Q132" s="9" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
       <c r="R132" s="9" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
       <c r="S132" s="9" t="s">
         <v>1175</v>
@@ -37616,7 +37781,7 @@
         <v>1379</v>
       </c>
       <c r="I133" s="19" t="s">
-        <v>1854</v>
+        <v>1851</v>
       </c>
       <c r="J133" s="9" t="s">
         <v>456</v>
@@ -37625,7 +37790,7 @@
         <v>1312</v>
       </c>
       <c r="L133" s="19" t="s">
-        <v>1959</v>
+        <v>1955</v>
       </c>
       <c r="M133" s="9" t="s">
         <v>417</v>
@@ -37643,7 +37808,7 @@
         <v>382</v>
       </c>
       <c r="R133" s="9" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="S133" s="9" t="s">
         <v>1160</v>
@@ -37659,7 +37824,7 @@
         <v>606</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="D134" s="9" t="s">
         <v>780</v>
@@ -37680,13 +37845,13 @@
         <v>1108</v>
       </c>
       <c r="J134" s="9" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
       <c r="K134" s="19" t="s">
         <v>1313</v>
       </c>
       <c r="L134" s="19" t="s">
-        <v>1972</v>
+        <v>1968</v>
       </c>
       <c r="M134" s="9" t="s">
         <v>630</v>
@@ -37726,7 +37891,7 @@
         <v>615</v>
       </c>
       <c r="E135" s="9" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="F135" s="9" t="s">
         <v>952</v>
@@ -37747,7 +37912,7 @@
         <v>1314</v>
       </c>
       <c r="L135" s="19" t="s">
-        <v>1960</v>
+        <v>1956</v>
       </c>
       <c r="M135" s="9" t="s">
         <v>704</v>
@@ -37869,7 +38034,7 @@
         <v>1316</v>
       </c>
       <c r="L137" s="19" t="s">
-        <v>1961</v>
+        <v>1957</v>
       </c>
       <c r="M137" s="9" t="s">
         <v>632</v>
@@ -37930,7 +38095,7 @@
         <v>1317</v>
       </c>
       <c r="L138" s="19" t="s">
-        <v>1962</v>
+        <v>1958</v>
       </c>
       <c r="M138" s="9" t="s">
         <v>633</v>
@@ -37945,7 +38110,7 @@
         <v>638</v>
       </c>
       <c r="Q138" s="9" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="R138" s="9" t="s">
         <v>643</v>
@@ -37991,7 +38156,7 @@
         <v>1318</v>
       </c>
       <c r="L139" s="10" t="s">
-        <v>1969</v>
+        <v>1965</v>
       </c>
       <c r="M139" s="10" t="s">
         <v>855</v>
@@ -38052,7 +38217,7 @@
         <v>1319</v>
       </c>
       <c r="L140" s="10" t="s">
-        <v>1963</v>
+        <v>1959</v>
       </c>
       <c r="M140" s="10" t="s">
         <v>656</v>
@@ -38171,10 +38336,10 @@
         <v>457</v>
       </c>
       <c r="K142" s="19" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
       <c r="L142" s="19" t="s">
-        <v>1964</v>
+        <v>1960</v>
       </c>
       <c r="M142" s="9" t="s">
         <v>331</v>
@@ -38195,7 +38360,7 @@
         <v>756</v>
       </c>
       <c r="S142" s="9" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="T142" s="9"/>
       <c r="U142" s="9"/>
@@ -38209,7 +38374,7 @@
         <v>maiduguri - Summary</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="D143" s="9"/>
       <c r="E143" s="9"/>
@@ -38243,7 +38408,7 @@
         <v>mexico_city - Summary</v>
       </c>
       <c r="C144" s="10" t="s">
-        <v>1813</v>
+        <v>1810</v>
       </c>
       <c r="D144" s="9"/>
       <c r="E144" s="9"/>
@@ -38255,7 +38420,7 @@
       <c r="K144" s="19"/>
       <c r="L144" s="19"/>
       <c r="M144" s="9" t="s">
-        <v>1814</v>
+        <v>1811</v>
       </c>
       <c r="N144" s="9"/>
       <c r="O144" s="9"/>
@@ -38277,7 +38442,7 @@
         <v>baltimore - Summary</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="D145" s="9"/>
       <c r="E145" s="9"/>
@@ -38309,7 +38474,7 @@
         <v>phoenix - Summary</v>
       </c>
       <c r="C146" s="10" t="s">
-        <v>1816</v>
+        <v>1813</v>
       </c>
       <c r="D146" s="9"/>
       <c r="E146" s="9"/>
@@ -38341,7 +38506,7 @@
         <v>seattle - Summary</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>1818</v>
+        <v>1815</v>
       </c>
       <c r="D147" s="9"/>
       <c r="E147" s="9"/>
@@ -38373,7 +38538,7 @@
         <v>sao_paulo - Summary</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>1817</v>
+        <v>1814</v>
       </c>
       <c r="D148" s="9"/>
       <c r="E148" s="9"/>
@@ -38407,14 +38572,14 @@
         <v>hong_kong - Summary</v>
       </c>
       <c r="C149" s="10" t="s">
-        <v>1811</v>
+        <v>1808</v>
       </c>
       <c r="D149" s="9"/>
       <c r="E149" s="9" t="s">
+        <v>1634</v>
+      </c>
+      <c r="F149" s="9" t="s">
         <v>1636</v>
-      </c>
-      <c r="F149" s="9" t="s">
-        <v>1638</v>
       </c>
       <c r="G149" s="10"/>
       <c r="H149" s="9"/>
@@ -38443,7 +38608,7 @@
         <v>chennai - Summary</v>
       </c>
       <c r="C150" s="10" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="D150" s="9"/>
       <c r="E150" s="9"/>
@@ -38461,7 +38626,7 @@
         <v>974</v>
       </c>
       <c r="Q150" s="9" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="R150" s="9"/>
       <c r="S150" s="9"/>
@@ -38477,7 +38642,7 @@
         <v>bangkok - Summary</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="D151" s="9"/>
       <c r="E151" s="9"/>
@@ -38496,7 +38661,7 @@
       </c>
       <c r="Q151" s="9"/>
       <c r="R151" s="9" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="S151" s="9"/>
       <c r="T151" s="9"/>
@@ -38511,7 +38676,7 @@
         <v>hanoi - Summary</v>
       </c>
       <c r="C152" s="10" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="D152" s="9"/>
       <c r="E152" s="9"/>
@@ -38531,7 +38696,7 @@
       <c r="Q152" s="9"/>
       <c r="R152" s="9"/>
       <c r="S152" s="9" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="T152" s="9"/>
       <c r="U152" s="9"/>
@@ -38545,7 +38710,7 @@
         <v>graz - Summary</v>
       </c>
       <c r="C153" s="10" t="s">
-        <v>1810</v>
+        <v>1807</v>
       </c>
       <c r="D153" s="9"/>
       <c r="E153" s="9"/>
@@ -38554,7 +38719,7 @@
       <c r="H153" s="9"/>
       <c r="I153" s="19"/>
       <c r="J153" s="9" t="s">
-        <v>1789</v>
+        <v>1786</v>
       </c>
       <c r="K153" s="19"/>
       <c r="L153" s="19"/>
@@ -38576,10 +38741,10 @@
       </c>
       <c r="B154" s="18" t="str">
         <f t="shared" ref="B154:B167" si="1">B19&amp;" - "&amp;"Summary"</f>
-        <v>ghent_2022 - Summary</v>
+        <v>example_ghent_2022 - Summary</v>
       </c>
       <c r="C154" s="10" t="s">
-        <v>2052</v>
+        <v>2101</v>
       </c>
       <c r="D154" s="9"/>
       <c r="E154" s="9"/>
@@ -38587,7 +38752,7 @@
       <c r="G154" s="10"/>
       <c r="H154" s="9"/>
       <c r="I154" s="19" t="s">
-        <v>1884</v>
+        <v>2102</v>
       </c>
       <c r="J154" s="9"/>
       <c r="K154" s="19"/>
@@ -38613,7 +38778,7 @@
         <v>bern - Summary</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="D155" s="9"/>
       <c r="E155" s="9"/>
@@ -38622,7 +38787,7 @@
       <c r="H155" s="9"/>
       <c r="I155" s="19"/>
       <c r="J155" s="9" t="s">
-        <v>1791</v>
+        <v>1788</v>
       </c>
       <c r="K155" s="19"/>
       <c r="L155" s="19"/>
@@ -38647,7 +38812,7 @@
         <v>olomouc - Summary</v>
       </c>
       <c r="C156" s="10" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="D156" s="9"/>
       <c r="E156" s="9"/>
@@ -38681,7 +38846,7 @@
         <v>cologne - Summary</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="D157" s="9"/>
       <c r="E157" s="9"/>
@@ -38690,7 +38855,7 @@
       <c r="H157" s="9"/>
       <c r="I157" s="19"/>
       <c r="J157" s="9" t="s">
-        <v>1790</v>
+        <v>1787</v>
       </c>
       <c r="K157" s="19"/>
       <c r="L157" s="19"/>
@@ -38715,7 +38880,7 @@
         <v>odense - Summary</v>
       </c>
       <c r="C158" s="10" t="s">
-        <v>1815</v>
+        <v>1812</v>
       </c>
       <c r="D158" s="9"/>
       <c r="E158" s="9"/>
@@ -38749,10 +38914,10 @@
         <v>barcelona - Summary</v>
       </c>
       <c r="C159" s="10" t="s">
-        <v>1808</v>
+        <v>1805</v>
       </c>
       <c r="D159" s="9" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="E159" s="9"/>
       <c r="F159" s="9"/>
@@ -38785,10 +38950,10 @@
         <v>valencia_2022 - Summary</v>
       </c>
       <c r="C160" s="10" t="s">
-        <v>1820</v>
+        <v>1817</v>
       </c>
       <c r="D160" s="9" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="E160" s="9"/>
       <c r="F160" s="9"/>
@@ -38821,10 +38986,10 @@
         <v>vic - Summary</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>1821</v>
+        <v>1818</v>
       </c>
       <c r="D161" s="9" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="E161" s="9"/>
       <c r="F161" s="9"/>
@@ -38857,7 +39022,7 @@
         <v>belfast - Summary</v>
       </c>
       <c r="C162" s="10" t="s">
-        <v>1809</v>
+        <v>1806</v>
       </c>
       <c r="D162" s="9"/>
       <c r="E162" s="9"/>
@@ -38889,7 +39054,7 @@
         <v>lisbon - Summary</v>
       </c>
       <c r="C163" s="10" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="D163" s="9"/>
       <c r="E163" s="9"/>
@@ -38904,7 +39069,7 @@
       <c r="N163" s="9"/>
       <c r="O163" s="9"/>
       <c r="P163" s="9" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="Q163" s="9"/>
       <c r="R163" s="9"/>
@@ -38921,7 +39086,7 @@
         <v>adelaide - Summary</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>1807</v>
+        <v>1804</v>
       </c>
       <c r="D164" s="9"/>
       <c r="E164" s="9"/>
@@ -38953,7 +39118,7 @@
         <v>melbourne - Summary</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>1812</v>
+        <v>1809</v>
       </c>
       <c r="D165" s="9"/>
       <c r="E165" s="9"/>
@@ -38985,7 +39150,7 @@
         <v>sydney - Summary</v>
       </c>
       <c r="C166" s="10" t="s">
-        <v>1819</v>
+        <v>1816</v>
       </c>
       <c r="D166" s="9"/>
       <c r="E166" s="9"/>
@@ -39017,7 +39182,7 @@
         <v>auckland - Summary</v>
       </c>
       <c r="C167" s="13" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="E167" s="9"/>
       <c r="F167" s="9"/>
@@ -39027,7 +39192,7 @@
       <c r="J167" s="9"/>
       <c r="K167" s="19"/>
       <c r="L167" s="19" t="s">
-        <v>1965</v>
+        <v>1961</v>
       </c>
       <c r="M167" s="9"/>
       <c r="N167" s="9"/>
@@ -39049,13 +39214,13 @@
         <v>815</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>1841</v>
+        <v>1838</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="G168" s="2" t="s">
         <v>1253</v>
@@ -39067,22 +39232,22 @@
         <v>1114</v>
       </c>
       <c r="J168" s="2" t="s">
-        <v>1799</v>
+        <v>1796</v>
       </c>
       <c r="K168" s="2" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
       <c r="L168" s="51" t="s">
-        <v>1967</v>
+        <v>1963</v>
       </c>
       <c r="M168" s="2" t="s">
         <v>763</v>
       </c>
       <c r="N168" s="2" t="s">
-        <v>1841</v>
+        <v>1838</v>
       </c>
       <c r="O168" s="2" t="s">
-        <v>1833</v>
+        <v>1830</v>
       </c>
       <c r="P168" s="2" t="s">
         <v>1401</v>
@@ -39091,7 +39256,7 @@
         <v>764</v>
       </c>
       <c r="R168" s="2" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="S168" s="2" t="s">
         <v>1162</v>
@@ -39102,13 +39267,13 @@
         <v>143</v>
       </c>
       <c r="B169" s="17" t="s">
+        <v>1493</v>
+      </c>
+      <c r="E169" s="3" t="s">
+        <v>1494</v>
+      </c>
+      <c r="F169" s="3" t="s">
         <v>1495</v>
-      </c>
-      <c r="E169" s="3" t="s">
-        <v>1496</v>
-      </c>
-      <c r="F169" s="3" t="s">
-        <v>1497</v>
       </c>
       <c r="H169" s="3"/>
     </row>
@@ -39135,7 +39300,7 @@
         <v>812</v>
       </c>
       <c r="H170" s="3" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="I170" s="3" t="s">
         <v>811</v>
@@ -39147,7 +39312,7 @@
         <v>1322</v>
       </c>
       <c r="L170" s="3" t="s">
-        <v>1966</v>
+        <v>1962</v>
       </c>
       <c r="M170" s="3" t="s">
         <v>995</v>
@@ -39176,58 +39341,58 @@
         <v>143</v>
       </c>
       <c r="B171" s="17" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C171" s="3" t="s">
         <v>1471</v>
       </c>
-      <c r="C171" s="3" t="s">
-        <v>1473</v>
-      </c>
       <c r="D171" s="3" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="E171" s="3" t="s">
+        <v>1483</v>
+      </c>
+      <c r="F171" s="3" t="s">
+        <v>1484</v>
+      </c>
+      <c r="G171" s="3" t="s">
+        <v>1644</v>
+      </c>
+      <c r="H171" s="3" t="s">
         <v>1485</v>
       </c>
-      <c r="F171" s="3" t="s">
+      <c r="I171" s="3" t="s">
+        <v>1471</v>
+      </c>
+      <c r="J171" s="3" t="s">
+        <v>1488</v>
+      </c>
+      <c r="K171" s="3" t="s">
         <v>1486</v>
       </c>
-      <c r="G171" s="3" t="s">
-        <v>1646</v>
-      </c>
-      <c r="H171" s="3" t="s">
+      <c r="L171" s="3" t="s">
         <v>1487</v>
       </c>
-      <c r="I171" s="3" t="s">
-        <v>1473</v>
-      </c>
-      <c r="J171" s="3" t="s">
+      <c r="M171" s="3" t="s">
+        <v>1489</v>
+      </c>
+      <c r="N171" s="3" t="s">
+        <v>1489</v>
+      </c>
+      <c r="O171" s="3" t="s">
+        <v>1489</v>
+      </c>
+      <c r="P171" s="3" t="s">
+        <v>1489</v>
+      </c>
+      <c r="Q171" s="3" t="s">
         <v>1490</v>
       </c>
-      <c r="K171" s="3" t="s">
-        <v>1488</v>
-      </c>
-      <c r="L171" s="3" t="s">
-        <v>1489</v>
-      </c>
-      <c r="M171" s="3" t="s">
+      <c r="R171" s="3" t="s">
         <v>1491</v>
       </c>
-      <c r="N171" s="3" t="s">
-        <v>1491</v>
-      </c>
-      <c r="O171" s="3" t="s">
-        <v>1491</v>
-      </c>
-      <c r="P171" s="3" t="s">
-        <v>1491</v>
-      </c>
-      <c r="Q171" s="3" t="s">
+      <c r="S171" s="3" t="s">
         <v>1492</v>
-      </c>
-      <c r="R171" s="3" t="s">
-        <v>1493</v>
-      </c>
-      <c r="S171" s="3" t="s">
-        <v>1494</v>
       </c>
     </row>
     <row r="172" spans="1:21" x14ac:dyDescent="0.25">
@@ -39244,10 +39409,10 @@
         <v>987</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="G172" s="3" t="s">
         <v>988</v>
@@ -39265,7 +39430,7 @@
         <v>1329</v>
       </c>
       <c r="L172" s="3" t="s">
-        <v>1975</v>
+        <v>1971</v>
       </c>
       <c r="M172" s="3" t="s">
         <v>991</v>
@@ -39401,27 +39566,28 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67CAA5C4-0A70-4221-8832-C196189F112B}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" style="2" customWidth="1"/>
     <col min="2" max="2" width="47.7109375" style="3" customWidth="1"/>
-    <col min="3" max="5" width="23.140625" style="16" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" style="27" customWidth="1"/>
-    <col min="7" max="7" width="25.42578125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="73.5703125" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="2"/>
+    <col min="3" max="3" width="21.42578125" style="3" customWidth="1"/>
+    <col min="4" max="7" width="21.42578125" style="16" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" style="27" customWidth="1"/>
+    <col min="9" max="9" width="25.42578125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="73.5703125" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>707</v>
       </c>
@@ -39429,33 +39595,39 @@
         <v>1039</v>
       </c>
       <c r="C1" s="16" t="s">
+        <v>2048</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>1041</v>
       </c>
-      <c r="D1" s="16" t="s">
-        <v>1468</v>
-      </c>
       <c r="E1" s="16" t="s">
+        <v>2045</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>2049</v>
+      </c>
+      <c r="G1" s="16" t="s">
         <v>1042</v>
       </c>
-      <c r="F1" s="16" t="s">
-        <v>1469</v>
-      </c>
-      <c r="G1" s="16" t="s">
+      <c r="H1" s="16" t="s">
+        <v>2046</v>
+      </c>
+      <c r="I1" s="16" t="s">
         <v>1466</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="J1" s="27" t="s">
         <v>1467</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>1465</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>1888</v>
+        <v>1884</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>974</v>
+        <v>2097</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>974</v>
@@ -39463,664 +39635,817 @@
       <c r="E2" s="16" t="s">
         <v>974</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="G2" s="16" t="s">
         <v>974</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>1727</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="16" t="s">
+        <v>974</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>2047</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="J2" s="3" t="s">
+        <v>2098</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>1984</v>
+        <v>1980</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>1458</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>1678</v>
+        <v>2074</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>1504</v>
+        <v>1676</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>1502</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>2050</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>1459</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>1504</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>1740</v>
-      </c>
       <c r="H3" s="3" t="s">
-        <v>1893</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>1502</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>1737</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>1985</v>
+        <v>1981</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>762</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>2075</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>1184</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>1165</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="F4" s="3" t="s">
+        <v>2051</v>
+      </c>
+      <c r="G4" s="28" t="s">
         <v>1054</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>1055</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>1728</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>1889</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="I4" s="2" t="s">
+        <v>1725</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>1986</v>
+        <v>1982</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>984</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>2076</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>1167</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>1056</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
+        <v>2052</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>1168</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>1056</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>1752</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>1484</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="I5" s="2" t="s">
+        <v>1749</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>1987</v>
+        <v>1983</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>2077</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>1646</v>
+      </c>
+      <c r="E6" s="47" t="s">
+        <v>1645</v>
+      </c>
+      <c r="F6" s="47" t="s">
+        <v>2053</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>1647</v>
+      </c>
+      <c r="H6" s="47" t="s">
+        <v>1645</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>1734</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>1984</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>1648</v>
       </c>
-      <c r="D6" s="47" t="s">
-        <v>1647</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>1649</v>
-      </c>
-      <c r="F6" s="47" t="s">
-        <v>1647</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>1737</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>1484</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>1988</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>1650</v>
-      </c>
       <c r="C7" s="3" t="s">
+        <v>2078</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>1460</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>1433</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="3" t="s">
+        <v>2054</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>1410</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="H7" s="3" t="s">
         <v>1455</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>1735</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>1470</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="I7" s="2" t="s">
+        <v>1732</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>1989</v>
+        <v>1985</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1833</v>
+        <v>1830</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>2079</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>1043</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>1461</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
+        <v>2055</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>1405</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="H8" s="3" t="s">
         <v>1462</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>1736</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>1891</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+      <c r="I8" s="2" t="s">
+        <v>1733</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="180" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>1990</v>
+        <v>1986</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>1423</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>2080</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>1044</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>1424</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="3" t="s">
+        <v>2056</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>1045</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>1424</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>1742</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>1826</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="I9" s="2" t="s">
+        <v>1739</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>1991</v>
+        <v>1987</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>761</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>1655</v>
+        <v>2081</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>1655</v>
+        <v>1652</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>1654</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>1747</v>
+        <v>2057</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>1653</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>1897</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>1652</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>1744</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>1992</v>
+        <v>1988</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>757</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>2082</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>1182</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>1057</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="3" t="s">
+        <v>2058</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>1183</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>1057</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>1751</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>1894</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="I11" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>1993</v>
+        <v>1989</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>1180</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="3" t="s">
+        <v>2083</v>
+      </c>
+      <c r="D12" s="52" t="s">
         <v>1058</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>1169</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="F12" s="3" t="s">
+        <v>2059</v>
+      </c>
+      <c r="G12" s="28" t="s">
         <v>1059</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="H12" s="3" t="s">
         <v>1169</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>1743</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>1895</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="I12" s="2" t="s">
+        <v>1740</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>1994</v>
+        <v>1990</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>1793</v>
+        <v>1790</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>1780</v>
+        <v>2084</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>1777</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>1424</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>1781</v>
-      </c>
       <c r="F13" s="3" t="s">
+        <v>2060</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>1778</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>1424</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>1744</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>1896</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="I13" s="2" t="s">
+        <v>1741</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>2050</v>
+        <v>2103</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>759</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>2105</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>1164</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>1502</v>
-      </c>
       <c r="E14" s="3" t="s">
+        <v>1500</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>2106</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>1163</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>1503</v>
-      </c>
-      <c r="G14" s="2" t="s">
+      <c r="H14" s="3" t="s">
+        <v>1501</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>1742</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>1991</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>1779</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>2085</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>1774</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>1424</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>2061</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>1773</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>1424</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>1745</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>1827</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="150" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="J15" s="3" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>1992</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>2086</v>
+      </c>
+      <c r="D16" s="52" t="s">
+        <v>1390</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>1389</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>2062</v>
+      </c>
+      <c r="G16" s="28" t="s">
+        <v>1391</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>1735</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>1993</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>1795</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>2087</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>1775</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>1424</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>2063</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>1776</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>1424</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>1743</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>1994</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>1831</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>2088</v>
+      </c>
+      <c r="D18" s="52" t="s">
+        <v>1387</v>
+      </c>
+      <c r="E18" s="52" t="s">
+        <v>1499</v>
+      </c>
+      <c r="F18" s="52" t="s">
+        <v>2064</v>
+      </c>
+      <c r="G18" s="28" t="s">
+        <v>1386</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>1498</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>1726</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>1995</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>1782</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>1777</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>1424</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>1776</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>1424</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>1748</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>1896</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>1996</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>1516</v>
-      </c>
-      <c r="C16" s="28" t="s">
-        <v>1390</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>1389</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>1391</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>1388</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>1738</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>1842</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>1997</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>1798</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>1778</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>1424</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>1779</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>1424</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>1746</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>1896</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>1998</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>1834</v>
-      </c>
-      <c r="C18" s="28" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>1501</v>
-      </c>
-      <c r="E18" s="28" t="s">
-        <v>1386</v>
-      </c>
-      <c r="F18" s="28" t="s">
-        <v>1500</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>1729</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>1898</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="135" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>1999</v>
-      </c>
       <c r="B19" s="3" t="s">
-        <v>1840</v>
+        <v>1837</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>2089</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>1046</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="E19" s="3" t="s">
         <v>1047</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="F19" s="3" t="s">
+        <v>2065</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>1048</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="H19" s="3" t="s">
         <v>1047</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>1750</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>1890</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="I19" s="2" t="s">
+        <v>1747</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>2048</v>
+        <v>2043</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>985</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>1656</v>
+        <v>2099</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>1885</v>
+        <v>1654</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>1656</v>
+        <v>1881</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>1885</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>1733</v>
+        <v>2066</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>2100</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>1890</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+        <v>1881</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>1730</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>2000</v>
+        <v>1996</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>1840</v>
+        <v>1837</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>2090</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>1408</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="E21" s="3" t="s">
         <v>1407</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="F21" s="3" t="s">
+        <v>2067</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>1409</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="H21" s="3" t="s">
         <v>1407</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>1732</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>1890</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="I21" s="2" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>2001</v>
+        <v>1997</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>760</v>
       </c>
       <c r="C22" s="3" t="s">
+        <v>2091</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>1049</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="E22" s="3" t="s">
         <v>1050</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="F22" s="3" t="s">
+        <v>2068</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>1051</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="H22" s="3" t="s">
         <v>1050</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>1749</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>1657</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="I22" s="2" t="s">
+        <v>1746</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
+        <v>1998</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>1882</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>2092</v>
+      </c>
+      <c r="D23" s="52" t="s">
+        <v>1402</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>1403</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>2069</v>
+      </c>
+      <c r="G23" s="28" t="s">
+        <v>1404</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>1403</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>1738</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>1999</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>1883</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>2093</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>1842</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>1840</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>2070</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>1841</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>1840</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>1727</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>2000</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>1752</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>2094</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>2071</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>1053</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>1166</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>1736</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>2001</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>1751</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>2095</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>1771</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>1772</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>2072</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>1406</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>1392</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>1731</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>2002</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>1886</v>
-      </c>
-      <c r="C23" s="28" t="s">
-        <v>1402</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>1403</v>
-      </c>
-      <c r="E23" s="28" t="s">
-        <v>1404</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>1403</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>1741</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>1892</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>2003</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>1887</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>1845</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>1843</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>1844</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>1843</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>1730</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>1484</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>2004</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>1755</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>1052</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>1057</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>1053</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>1166</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>1739</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>1484</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>2005</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>1754</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>1774</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>1775</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>1406</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>1392</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>1734</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>1484</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>2006</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>758</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>1983</v>
+        <v>2096</v>
       </c>
       <c r="D27" s="3" t="s">
+        <v>1979</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>1424</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>1982</v>
-      </c>
       <c r="F27" s="3" t="s">
+        <v>2073</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>1978</v>
+      </c>
+      <c r="H27" s="3" t="s">
         <v>1424</v>
       </c>
-      <c r="G27" s="2" t="s">
-        <v>1731</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>1974</v>
+      <c r="I27" s="2" t="s">
+        <v>1728</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>1970</v>
       </c>
     </row>
   </sheetData>
@@ -40178,10 +40503,10 @@
         <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>2030</v>
+        <v>2026</v>
       </c>
       <c r="F2" s="45" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -40198,10 +40523,10 @@
         <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>2031</v>
+        <v>2027</v>
       </c>
       <c r="F3" s="45" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -40218,10 +40543,10 @@
         <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>2032</v>
+        <v>2028</v>
       </c>
       <c r="F4" s="45" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -40238,10 +40563,10 @@
         <v>140</v>
       </c>
       <c r="E5" t="s">
-        <v>2033</v>
+        <v>2029</v>
       </c>
       <c r="F5" s="45" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -40255,10 +40580,10 @@
         <v>401</v>
       </c>
       <c r="E6" t="s">
-        <v>2034</v>
+        <v>2030</v>
       </c>
       <c r="F6" s="45" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -40275,10 +40600,10 @@
         <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>2034</v>
+        <v>2030</v>
       </c>
       <c r="F7" s="45" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -40295,10 +40620,10 @@
         <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>2034</v>
+        <v>2030</v>
       </c>
       <c r="F8" s="45" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -40315,10 +40640,10 @@
         <v>140</v>
       </c>
       <c r="E9" t="s">
-        <v>2034</v>
+        <v>2030</v>
       </c>
       <c r="F9" s="45" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -40332,7 +40657,7 @@
         <v>964</v>
       </c>
       <c r="E10" t="s">
-        <v>2035</v>
+        <v>2031</v>
       </c>
       <c r="F10" t="s">
         <v>965</v>
@@ -40352,7 +40677,7 @@
         <v>27</v>
       </c>
       <c r="E11" t="s">
-        <v>2035</v>
+        <v>2031</v>
       </c>
       <c r="F11" t="s">
         <v>965</v>
@@ -40372,7 +40697,7 @@
         <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>2035</v>
+        <v>2031</v>
       </c>
       <c r="F12" t="s">
         <v>965</v>
@@ -40392,7 +40717,7 @@
         <v>140</v>
       </c>
       <c r="E13" t="s">
-        <v>2035</v>
+        <v>2031</v>
       </c>
       <c r="F13" t="s">
         <v>965</v>
@@ -40406,13 +40731,13 @@
         <v>167</v>
       </c>
       <c r="C14" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="E14" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="F14" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -40423,16 +40748,16 @@
         <v>167</v>
       </c>
       <c r="C15" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="D15" t="s">
         <v>27</v>
       </c>
       <c r="E15" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="F15" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -40443,16 +40768,16 @@
         <v>167</v>
       </c>
       <c r="C16" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="D16" t="s">
         <v>25</v>
       </c>
       <c r="E16" t="s">
-        <v>2038</v>
+        <v>2034</v>
       </c>
       <c r="F16" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -40463,16 +40788,16 @@
         <v>167</v>
       </c>
       <c r="C17" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="D17" t="s">
         <v>140</v>
       </c>
       <c r="E17" t="s">
-        <v>2039</v>
+        <v>2035</v>
       </c>
       <c r="F17" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -40483,13 +40808,13 @@
         <v>167</v>
       </c>
       <c r="C18" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="E18" t="s">
-        <v>2040</v>
+        <v>2036</v>
       </c>
       <c r="F18" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -40500,16 +40825,16 @@
         <v>167</v>
       </c>
       <c r="C19" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="D19" t="s">
         <v>27</v>
       </c>
       <c r="E19" t="s">
-        <v>2041</v>
+        <v>2037</v>
       </c>
       <c r="F19" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -40520,16 +40845,16 @@
         <v>167</v>
       </c>
       <c r="C20" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="D20" t="s">
         <v>25</v>
       </c>
       <c r="E20" t="s">
-        <v>2042</v>
+        <v>2038</v>
       </c>
       <c r="F20" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -40540,16 +40865,16 @@
         <v>167</v>
       </c>
       <c r="C21" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="D21" t="s">
         <v>140</v>
       </c>
       <c r="E21" t="s">
-        <v>2043</v>
+        <v>2039</v>
       </c>
       <c r="F21" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -40592,27 +40917,27 @@
       <c r="C2" s="29" t="s">
         <v>709</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="53" t="s">
         <v>710</v>
       </c>
-      <c r="E2" s="54" t="s">
+      <c r="E2" s="55" t="s">
         <v>711</v>
       </c>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="54"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="55"/>
       <c r="U2" s="21" t="s">
         <v>712</v>
       </c>
@@ -40621,7 +40946,7 @@
       <c r="A3" s="22"/>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
-      <c r="D3" s="53"/>
+      <c r="D3" s="54"/>
       <c r="E3" s="23" t="s">
         <v>713</v>
       </c>
@@ -40677,11 +41002,11 @@
         <v>182</v>
       </c>
       <c r="B4" s="32" t="str">
-        <f>INDEX(city_details!C:C,MATCH('City tasks for scorecards'!A4,city_details!A:A,0))</f>
+        <f>INDEX(city_details!D:D,MATCH('City tasks for scorecards'!A4,city_details!A:A,0))</f>
         <v>Tricycle taxis, Cyclists and Pedestrians, Maiduguri, Nigeria</v>
       </c>
       <c r="C4" s="32" t="str">
-        <f>INDEX(city_details!E:E,MATCH('City tasks for scorecards'!A4,city_details!A:A,0))</f>
+        <f>INDEX(city_details!G:G,MATCH('City tasks for scorecards'!A4,city_details!A:A,0))</f>
         <v>Market</v>
       </c>
       <c r="D4" s="33" t="s">
@@ -40742,11 +41067,11 @@
         <v>177</v>
       </c>
       <c r="B5" s="32" t="e">
-        <f>INDEX(city_details!C:C,MATCH('City tasks for scorecards'!A5,city_details!A:A,0))</f>
+        <f>INDEX(city_details!D:D,MATCH('City tasks for scorecards'!A5,city_details!A:A,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C5" s="32" t="e">
-        <f>INDEX(city_details!E:E,MATCH('City tasks for scorecards'!A5,city_details!A:A,0))</f>
+        <f>INDEX(city_details!G:G,MATCH('City tasks for scorecards'!A5,city_details!A:A,0))</f>
         <v>#N/A</v>
       </c>
       <c r="D5" s="38" t="s">
@@ -40807,11 +41132,11 @@
         <v>183</v>
       </c>
       <c r="B6" s="32" t="str">
-        <f>INDEX(city_details!C:C,MATCH('City tasks for scorecards'!A6,city_details!A:A,0))</f>
+        <f>INDEX(city_details!D:D,MATCH('City tasks for scorecards'!A6,city_details!A:A,0))</f>
         <v>Fed Hill Park</v>
       </c>
       <c r="C6" s="32" t="str">
-        <f>INDEX(city_details!E:E,MATCH('City tasks for scorecards'!A6,city_details!A:A,0))</f>
+        <f>INDEX(city_details!G:G,MATCH('City tasks for scorecards'!A6,city_details!A:A,0))</f>
         <v>Safe Signage Bike Lane Roland</v>
       </c>
       <c r="D6" s="38" t="s">
@@ -40872,11 +41197,11 @@
         <v>184</v>
       </c>
       <c r="B7" s="32" t="str">
-        <f>INDEX(city_details!C:C,MATCH('City tasks for scorecards'!A7,city_details!A:A,0))</f>
+        <f>INDEX(city_details!D:D,MATCH('City tasks for scorecards'!A7,city_details!A:A,0))</f>
         <v xml:space="preserve">Cyclist Near Hance Park in Downtown Phoenix, Arizona </v>
       </c>
       <c r="C7" s="32" t="str">
-        <f>INDEX(city_details!E:E,MATCH('City tasks for scorecards'!A7,city_details!A:A,0))</f>
+        <f>INDEX(city_details!G:G,MATCH('City tasks for scorecards'!A7,city_details!A:A,0))</f>
         <v>Pedestrians and cycleway in downtown Phoenix, Arizona</v>
       </c>
       <c r="D7" s="38" t="s">
@@ -40937,11 +41262,11 @@
         <v>185</v>
       </c>
       <c r="B8" s="32" t="str">
-        <f>INDEX(city_details!C:C,MATCH('City tasks for scorecards'!A8,city_details!A:A,0))</f>
+        <f>INDEX(city_details!D:D,MATCH('City tasks for scorecards'!A8,city_details!A:A,0))</f>
         <v>Sunset pedestrians</v>
       </c>
       <c r="C8" s="32" t="str">
-        <f>INDEX(city_details!E:E,MATCH('City tasks for scorecards'!A8,city_details!A:A,0))</f>
+        <f>INDEX(city_details!G:G,MATCH('City tasks for scorecards'!A8,city_details!A:A,0))</f>
         <v>Leafy Pioneer Sq area</v>
       </c>
       <c r="D8" s="38" t="s">
@@ -41002,11 +41327,11 @@
         <v>186</v>
       </c>
       <c r="B9" s="32" t="e">
-        <f>INDEX(city_details!C:C,MATCH('City tasks for scorecards'!A9,city_details!A:A,0))</f>
+        <f>INDEX(city_details!D:D,MATCH('City tasks for scorecards'!A9,city_details!A:A,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C9" s="32" t="e">
-        <f>INDEX(city_details!E:E,MATCH('City tasks for scorecards'!A9,city_details!A:A,0))</f>
+        <f>INDEX(city_details!G:G,MATCH('City tasks for scorecards'!A9,city_details!A:A,0))</f>
         <v>#N/A</v>
       </c>
       <c r="D9" s="38" t="s">
@@ -41067,11 +41392,11 @@
         <v>187</v>
       </c>
       <c r="B10" s="32" t="e">
-        <f>INDEX(city_details!C:C,MATCH('City tasks for scorecards'!A10,city_details!A:A,0))</f>
+        <f>INDEX(city_details!D:D,MATCH('City tasks for scorecards'!A10,city_details!A:A,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C10" s="32" t="e">
-        <f>INDEX(city_details!E:E,MATCH('City tasks for scorecards'!A10,city_details!A:A,0))</f>
+        <f>INDEX(city_details!G:G,MATCH('City tasks for scorecards'!A10,city_details!A:A,0))</f>
         <v>#N/A</v>
       </c>
       <c r="D10" s="38" t="s">
@@ -41132,11 +41457,11 @@
         <v>188</v>
       </c>
       <c r="B11" s="32" t="str">
-        <f>INDEX(city_details!C:C,MATCH('City tasks for scorecards'!A11,city_details!A:A,0))</f>
+        <f>INDEX(city_details!D:D,MATCH('City tasks for scorecards'!A11,city_details!A:A,0))</f>
         <v>Chennai pedestrian street scene</v>
       </c>
       <c r="C11" s="32" t="str">
-        <f>INDEX(city_details!E:E,MATCH('City tasks for scorecards'!A11,city_details!A:A,0))</f>
+        <f>INDEX(city_details!G:G,MATCH('City tasks for scorecards'!A11,city_details!A:A,0))</f>
         <v>Chennai pedestrian street scene</v>
       </c>
       <c r="D11" s="38" t="s">
@@ -41197,11 +41522,11 @@
         <v>176</v>
       </c>
       <c r="B12" s="32" t="str">
-        <f>INDEX(city_details!C:C,MATCH('City tasks for scorecards'!A12,city_details!A:A,0))</f>
+        <f>INDEX(city_details!D:D,MATCH('City tasks for scorecards'!A12,city_details!A:A,0))</f>
         <v>Chao Phraya and Bangkok skyline</v>
       </c>
       <c r="C12" s="32" t="str">
-        <f>INDEX(city_details!E:E,MATCH('City tasks for scorecards'!A12,city_details!A:A,0))</f>
+        <f>INDEX(city_details!G:G,MATCH('City tasks for scorecards'!A12,city_details!A:A,0))</f>
         <v>Lumphini Park, Bangkok</v>
       </c>
       <c r="D12" s="38" t="s">
@@ -41262,11 +41587,11 @@
         <v>189</v>
       </c>
       <c r="B13" s="32" t="str">
-        <f>INDEX(city_details!C:C,MATCH('City tasks for scorecards'!A13,city_details!A:A,0))</f>
+        <f>INDEX(city_details!D:D,MATCH('City tasks for scorecards'!A13,city_details!A:A,0))</f>
         <v>Hoan Kiem Lake, Hanoi, Viet Nam</v>
       </c>
       <c r="C13" s="32" t="str">
-        <f>INDEX(city_details!E:E,MATCH('City tasks for scorecards'!A13,city_details!A:A,0))</f>
+        <f>INDEX(city_details!G:G,MATCH('City tasks for scorecards'!A13,city_details!A:A,0))</f>
         <v>Pedestrians gather to watch a street performance on Trang Tien St, Hanoi Vietnam</v>
       </c>
       <c r="D13" s="38" t="s">
@@ -41327,11 +41652,11 @@
         <v>190</v>
       </c>
       <c r="B14" s="32" t="str">
-        <f>INDEX(city_details!C:C,MATCH('City tasks for scorecards'!A14,city_details!A:A,0))</f>
+        <f>INDEX(city_details!D:D,MATCH('City tasks for scorecards'!A14,city_details!A:A,0))</f>
         <v>Graz, Austria-14.09.2020: people relaxing outdoor in a park near Mur river, in summer, Styria region, Austria. Selective focus.</v>
       </c>
       <c r="C14" s="32" t="str">
-        <f>INDEX(city_details!E:E,MATCH('City tasks for scorecards'!A14,city_details!A:A,0))</f>
+        <f>INDEX(city_details!G:G,MATCH('City tasks for scorecards'!A14,city_details!A:A,0))</f>
         <v>Graz, Austria - June 16, 2020 - cyclists and pedestrians in front of modern tram street car next to traditional Austrian houses</v>
       </c>
       <c r="D14" s="38" t="s">
@@ -41390,11 +41715,11 @@
         <v>191</v>
       </c>
       <c r="B15" s="32" t="e">
-        <f>INDEX(city_details!C:C,MATCH('City tasks for scorecards'!A15,city_details!A:A,0))</f>
+        <f>INDEX(city_details!D:D,MATCH('City tasks for scorecards'!A15,city_details!A:A,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C15" s="32" t="e">
-        <f>INDEX(city_details!E:E,MATCH('City tasks for scorecards'!A15,city_details!A:A,0))</f>
+        <f>INDEX(city_details!G:G,MATCH('City tasks for scorecards'!A15,city_details!A:A,0))</f>
         <v>#N/A</v>
       </c>
       <c r="D15" s="38" t="s">
@@ -41455,11 +41780,11 @@
         <v>192</v>
       </c>
       <c r="B16" s="32" t="str">
-        <f>INDEX(city_details!C:C,MATCH('City tasks for scorecards'!A16,city_details!A:A,0))</f>
+        <f>INDEX(city_details!D:D,MATCH('City tasks for scorecards'!A16,city_details!A:A,0))</f>
         <v>BERN, SWITZERLAND - APRIL 15, 2018: Street view on Kramgasse with fountain and clock tower in the old town of Bern city.It is a popular shopping street and medieval city centre of Bern, Switzerland</v>
       </c>
       <c r="C16" s="32" t="str">
-        <f>INDEX(city_details!E:E,MATCH('City tasks for scorecards'!A16,city_details!A:A,0))</f>
+        <f>INDEX(city_details!G:G,MATCH('City tasks for scorecards'!A16,city_details!A:A,0))</f>
         <v>Bern Switzerland , 27 June 2020 : Pedestrian street with cafe terrace full of people during summer 2020 in Bern old town Switzerland</v>
       </c>
       <c r="D16" s="38" t="s">
@@ -41522,11 +41847,11 @@
         <v>193</v>
       </c>
       <c r="B17" s="32" t="str">
-        <f>INDEX(city_details!C:C,MATCH('City tasks for scorecards'!A17,city_details!A:A,0))</f>
+        <f>INDEX(city_details!D:D,MATCH('City tasks for scorecards'!A17,city_details!A:A,0))</f>
         <v>Namesti Hrdinu, Olomouc, Czechia</v>
       </c>
       <c r="C17" s="32" t="str">
-        <f>INDEX(city_details!E:E,MATCH('City tasks for scorecards'!A17,city_details!A:A,0))</f>
+        <f>INDEX(city_details!G:G,MATCH('City tasks for scorecards'!A17,city_details!A:A,0))</f>
         <v>Tabulovy vrch, Olomouc, Czechia</v>
       </c>
       <c r="D17" s="38" t="s">
@@ -41587,11 +41912,11 @@
         <v>194</v>
       </c>
       <c r="B18" s="32" t="str">
-        <f>INDEX(city_details!C:C,MATCH('City tasks for scorecards'!A18,city_details!A:A,0))</f>
+        <f>INDEX(city_details!D:D,MATCH('City tasks for scorecards'!A18,city_details!A:A,0))</f>
         <v>COLOGNE,NORTH RHINE WESTPHALIA,GERMANY - FEBRUARY 14 2021: People ice skating in German park at winter</v>
       </c>
       <c r="C18" s="32" t="str">
-        <f>INDEX(city_details!E:E,MATCH('City tasks for scorecards'!A18,city_details!A:A,0))</f>
+        <f>INDEX(city_details!G:G,MATCH('City tasks for scorecards'!A18,city_details!A:A,0))</f>
         <v>Cologne, Germany - 15 June 2019: The Great Saint Martin Church and Colorful buildings nearby riverside of Hohenzollern Bridge in Cologne.</v>
       </c>
       <c r="D18" s="38" t="s">
@@ -41652,11 +41977,11 @@
         <v>195</v>
       </c>
       <c r="B19" s="32" t="str">
-        <f>INDEX(city_details!C:C,MATCH('City tasks for scorecards'!A19,city_details!A:A,0))</f>
+        <f>INDEX(city_details!D:D,MATCH('City tasks for scorecards'!A19,city_details!A:A,0))</f>
         <v>Odense Lightrail</v>
       </c>
       <c r="C19" s="32" t="str">
-        <f>INDEX(city_details!E:E,MATCH('City tasks for scorecards'!A19,city_details!A:A,0))</f>
+        <f>INDEX(city_details!G:G,MATCH('City tasks for scorecards'!A19,city_details!A:A,0))</f>
         <v>Summer in the city</v>
       </c>
       <c r="D19" s="38" t="s">
@@ -41717,11 +42042,11 @@
         <v>196</v>
       </c>
       <c r="B20" s="32" t="str">
-        <f>INDEX(city_details!C:C,MATCH('City tasks for scorecards'!A20,city_details!A:A,0))</f>
+        <f>INDEX(city_details!D:D,MATCH('City tasks for scorecards'!A20,city_details!A:A,0))</f>
         <v>Bike, scooter and pedestrians on Carrer de la Diputació at the intersection of Carrer d'Enric Granados, Barcelona</v>
       </c>
       <c r="C20" s="32" t="str">
-        <f>INDEX(city_details!E:E,MATCH('City tasks for scorecards'!A20,city_details!A:A,0))</f>
+        <f>INDEX(city_details!G:G,MATCH('City tasks for scorecards'!A20,city_details!A:A,0))</f>
         <v>Pedestrians and bikes on Carrer Astúries, Barcelona</v>
       </c>
       <c r="D20" s="38" t="s">
@@ -41782,11 +42107,11 @@
         <v>197</v>
       </c>
       <c r="B21" s="48" t="e">
-        <f>INDEX(city_details!C:C,MATCH('City tasks for scorecards'!A21,city_details!A:A,0))</f>
+        <f>INDEX(city_details!D:D,MATCH('City tasks for scorecards'!A21,city_details!A:A,0))</f>
         <v>#N/A</v>
       </c>
       <c r="C21" s="48" t="e">
-        <f>INDEX(city_details!E:E,MATCH('City tasks for scorecards'!A21,city_details!A:A,0))</f>
+        <f>INDEX(city_details!G:G,MATCH('City tasks for scorecards'!A21,city_details!A:A,0))</f>
         <v>#N/A</v>
       </c>
       <c r="D21" s="38" t="s">
@@ -41847,11 +42172,11 @@
         <v>198</v>
       </c>
       <c r="B22" s="32" t="str">
-        <f>INDEX(city_details!C:C,MATCH('City tasks for scorecards'!A22,city_details!A:A,0))</f>
+        <f>INDEX(city_details!D:D,MATCH('City tasks for scorecards'!A22,city_details!A:A,0))</f>
         <v>Cycle way road, Vic</v>
       </c>
       <c r="C22" s="32" t="str">
-        <f>INDEX(city_details!E:E,MATCH('City tasks for scorecards'!A22,city_details!A:A,0))</f>
+        <f>INDEX(city_details!G:G,MATCH('City tasks for scorecards'!A22,city_details!A:A,0))</f>
         <v>Vic market</v>
       </c>
       <c r="D22" s="38" t="s">
@@ -41912,11 +42237,11 @@
         <v>199</v>
       </c>
       <c r="B23" s="32" t="str">
-        <f>INDEX(city_details!C:C,MATCH('City tasks for scorecards'!A23,city_details!A:A,0))</f>
+        <f>INDEX(city_details!D:D,MATCH('City tasks for scorecards'!A23,city_details!A:A,0))</f>
         <v>Dixon Hollow, Connswater Community Greenway, Belfast</v>
       </c>
       <c r="C23" s="32" t="str">
-        <f>INDEX(city_details!E:E,MATCH('City tasks for scorecards'!A23,city_details!A:A,0))</f>
+        <f>INDEX(city_details!G:G,MATCH('City tasks for scorecards'!A23,city_details!A:A,0))</f>
         <v>Family cycle ride along the Connswater Community Greenway</v>
       </c>
       <c r="D23" s="38" t="s">
@@ -41977,11 +42302,11 @@
         <v>200</v>
       </c>
       <c r="B24" s="32" t="str">
-        <f>INDEX(city_details!C:C,MATCH('City tasks for scorecards'!A24,city_details!A:A,0))</f>
+        <f>INDEX(city_details!D:D,MATCH('City tasks for scorecards'!A24,city_details!A:A,0))</f>
         <v>Pedestrians in Rua Garrett, Lisboa, Portugal</v>
       </c>
       <c r="C24" s="32" t="str">
-        <f>INDEX(city_details!E:E,MATCH('City tasks for scorecards'!A24,city_details!A:A,0))</f>
+        <f>INDEX(city_details!G:G,MATCH('City tasks for scorecards'!A24,city_details!A:A,0))</f>
         <v>Av. Duque de Ávila, Lisboa, Portugal</v>
       </c>
       <c r="D24" s="38" t="s">
@@ -42042,11 +42367,11 @@
         <v>201</v>
       </c>
       <c r="B25" s="32" t="str">
-        <f>INDEX(city_details!C:C,MATCH('City tasks for scorecards'!A25,city_details!A:A,0))</f>
+        <f>INDEX(city_details!D:D,MATCH('City tasks for scorecards'!A25,city_details!A:A,0))</f>
         <v>Whitmore Square - bike rider and green</v>
       </c>
       <c r="C25" s="32" t="str">
-        <f>INDEX(city_details!E:E,MATCH('City tasks for scorecards'!A25,city_details!A:A,0))</f>
+        <f>INDEX(city_details!G:G,MATCH('City tasks for scorecards'!A25,city_details!A:A,0))</f>
         <v>Vic Square - pedestrians, trees and public transport</v>
       </c>
       <c r="D25" s="38" t="s">
@@ -42107,11 +42432,11 @@
         <v>174</v>
       </c>
       <c r="B26" s="32" t="str">
-        <f>INDEX(city_details!C:C,MATCH('City tasks for scorecards'!A26,city_details!A:A,0))</f>
+        <f>INDEX(city_details!D:D,MATCH('City tasks for scorecards'!A26,city_details!A:A,0))</f>
         <v>Pedestrians on Swanston St</v>
       </c>
       <c r="C26" s="32" t="str">
-        <f>INDEX(city_details!E:E,MATCH('City tasks for scorecards'!A26,city_details!A:A,0))</f>
+        <f>INDEX(city_details!G:G,MATCH('City tasks for scorecards'!A26,city_details!A:A,0))</f>
         <v>Brunswick neighbourhood</v>
       </c>
       <c r="D26" s="38" t="s">
@@ -42172,11 +42497,11 @@
         <v>202</v>
       </c>
       <c r="B27" s="32" t="str">
-        <f>INDEX(city_details!C:C,MATCH('City tasks for scorecards'!A27,city_details!A:A,0))</f>
+        <f>INDEX(city_details!D:D,MATCH('City tasks for scorecards'!A27,city_details!A:A,0))</f>
         <v>Sydney Harbour</v>
       </c>
       <c r="C27" s="32" t="str">
-        <f>INDEX(city_details!E:E,MATCH('City tasks for scorecards'!A27,city_details!A:A,0))</f>
+        <f>INDEX(city_details!G:G,MATCH('City tasks for scorecards'!A27,city_details!A:A,0))</f>
         <v>Sydney harbourside</v>
       </c>
       <c r="D27" s="38" t="s">
@@ -42237,11 +42562,11 @@
         <v>203</v>
       </c>
       <c r="B28" s="32" t="str">
-        <f>INDEX(city_details!C:C,MATCH('City tasks for scorecards'!A28,city_details!A:A,0))</f>
+        <f>INDEX(city_details!D:D,MATCH('City tasks for scorecards'!A28,city_details!A:A,0))</f>
         <v>People's motion on subway platform in Auckland Britomart Transport Center, New Zealand</v>
       </c>
       <c r="C28" s="32" t="str">
-        <f>INDEX(city_details!E:E,MATCH('City tasks for scorecards'!A28,city_details!A:A,0))</f>
+        <f>INDEX(city_details!G:G,MATCH('City tasks for scorecards'!A28,city_details!A:A,0))</f>
         <v>Cityscape image of Auckland skyline, New Zealand taken from Mt. Eden at sunset.</v>
       </c>
       <c r="D28" s="41" t="s">

--- a/process/configuration/templates/_report_configuration.xlsx
+++ b/process/configuration/templates/_report_configuration.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rmiteduau-my.sharepoint.com/personal/carl_higgs_rmit_edu_au/Documents/projects/global-indicators/process/configuration/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rmiteduau-my.sharepoint.com/personal/carl_higgs_rmit_edu_au/Documents/projects/global-indicators/process/configuration/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3736" documentId="13_ncr:1_{359C2F2A-CF47-4184-8CC1-6CC8B0EC5B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB03D569-466F-4B3B-AAE8-66C1A8712714}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CED04CE-3476-4A81-BA3D-7F271E4F6C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="690" yWindow="3720" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="template_web" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5319" uniqueCount="2117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5320" uniqueCount="2119">
   <si>
     <t>name</t>
   </si>
@@ -6492,12 +6492,6 @@
     <t>example_las_palmas_2023</t>
   </si>
   <si>
-    <t>Las Palmas</t>
-  </si>
-  <si>
-    <t>…</t>
-  </si>
-  <si>
     <t>example_las_palmas_2023 - Summary</t>
   </si>
   <si>
@@ -6514,13 +6508,27 @@
   </si>
   <si>
     <t>It is recommended to register a DOI for your report, e.g. through figshare, zenodo or other repository</t>
+  </si>
+  <si>
+    <t>Las Palmas (Example only)</t>
+  </si>
+  <si>
+    <t>…Example only.  Policy review has not been conducted for this city and the example policy review template data is purely fictitious and provided for demonstration purposes only…       
+This summary text can be customised iteratively after initial report generation to contextualise findings and relate to external text and URLs.</t>
+  </si>
+  <si>
+    <t>Las Palmas de Gran Canaria (Solo ejemplo)</t>
+  </si>
+  <si>
+    <t>..Solo ejemplo. No se ha realizado ninguna revisión de políticas para esta ciudad y los datos en la plantilla de revisión de políticas de ejemplo son puramente ficticios y se proporcionan solo con fines de demostración...
+Este texto de resumen se puede personalizar iterativamente después de la generación del informe inicial para contextualizar los hallazgos y relacionarlos con el texto externo y las URL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8075,13 +8083,13 @@
       <selection pane="bottomRight" activeCell="A191" sqref="A191"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="48.140625" customWidth="1"/>
     <col min="16" max="16" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -8143,7 +8151,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -8199,7 +8207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -8259,7 +8267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -8319,7 +8327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -8379,7 +8387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20">
       <c r="A6" t="s">
         <v>336</v>
       </c>
@@ -8437,7 +8445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20">
       <c r="A7" t="s">
         <v>337</v>
       </c>
@@ -8494,7 +8502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -8552,7 +8560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -8605,7 +8613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20">
       <c r="A10" t="s">
         <v>67</v>
       </c>
@@ -8662,7 +8670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20">
       <c r="A11" t="s">
         <v>2045</v>
       </c>
@@ -8720,7 +8728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -8776,7 +8784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20">
       <c r="A13" t="s">
         <v>169</v>
       </c>
@@ -8834,7 +8842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -8891,7 +8899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20">
       <c r="A15" t="s">
         <v>802</v>
       </c>
@@ -8947,7 +8955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20">
       <c r="A16" t="s">
         <v>804</v>
       </c>
@@ -9004,7 +9012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22">
       <c r="A17" t="s">
         <v>1469</v>
       </c>
@@ -9061,7 +9069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22">
       <c r="A18" t="s">
         <v>1470</v>
       </c>
@@ -9120,7 +9128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22">
       <c r="A19" t="s">
         <v>803</v>
       </c>
@@ -9177,7 +9185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22">
       <c r="A20" t="s">
         <v>805</v>
       </c>
@@ -9234,7 +9242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22">
       <c r="A21" t="s">
         <v>858</v>
       </c>
@@ -9291,7 +9299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22">
       <c r="A22" t="s">
         <v>815</v>
       </c>
@@ -9348,7 +9356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22">
       <c r="A23" t="s">
         <v>1493</v>
       </c>
@@ -9405,7 +9413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22">
       <c r="A24" t="s">
         <v>817</v>
       </c>
@@ -9458,7 +9466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -9514,7 +9522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22">
       <c r="A26" t="s">
         <v>1829</v>
       </c>
@@ -9577,7 +9585,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22">
       <c r="A27" t="s">
         <v>247</v>
       </c>
@@ -9637,7 +9645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -9697,7 +9705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -9754,7 +9762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -9810,7 +9818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22">
       <c r="A31" t="s">
         <v>207</v>
       </c>
@@ -9869,7 +9877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22">
       <c r="A32" t="s">
         <v>65</v>
       </c>
@@ -9926,7 +9934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -9986,7 +9994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20">
       <c r="A34" t="s">
         <v>208</v>
       </c>
@@ -10045,7 +10053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20">
       <c r="A35" t="s">
         <v>66</v>
       </c>
@@ -10102,7 +10110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20">
       <c r="A36" t="s">
         <v>837</v>
       </c>
@@ -10160,7 +10168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20">
       <c r="A37" t="s">
         <v>838</v>
       </c>
@@ -10219,7 +10227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20">
       <c r="A38" t="s">
         <v>179</v>
       </c>
@@ -10279,7 +10287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20">
       <c r="A39" t="s">
         <v>53</v>
       </c>
@@ -10336,7 +10344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -10396,7 +10404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20">
       <c r="A41" s="2" t="s">
         <v>210</v>
       </c>
@@ -10458,7 +10466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20">
       <c r="A42" s="2" t="s">
         <v>209</v>
       </c>
@@ -10520,7 +10528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -10577,7 +10585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20">
       <c r="A44" t="s">
         <v>64</v>
       </c>
@@ -10633,7 +10641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20">
       <c r="A45" t="s">
         <v>819</v>
       </c>
@@ -10696,7 +10704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20">
       <c r="A46" t="s">
         <v>821</v>
       </c>
@@ -10756,7 +10764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20">
       <c r="A47" t="s">
         <v>820</v>
       </c>
@@ -10819,7 +10827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20">
       <c r="A48" t="str">
         <f>_xlfn.CONCAT("policy_urban_text",MID(A47,LEN("policy_urban_text")+1,1),"_middle")</f>
         <v>policy_urban_text1_middle</v>
@@ -10881,7 +10889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20">
       <c r="A49" t="str">
         <f>_xlfn.CONCAT("policy_urban_text",MID(A48,LEN("policy_urban_text")+1,1),"_upper")</f>
         <v>policy_urban_text1_upper</v>
@@ -10943,7 +10951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20">
       <c r="A50" t="s">
         <v>822</v>
       </c>
@@ -11006,7 +11014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20">
       <c r="A51" t="s">
         <v>824</v>
       </c>
@@ -11066,7 +11074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20">
       <c r="A52" t="s">
         <v>823</v>
       </c>
@@ -11129,7 +11137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20">
       <c r="A53" t="str">
         <f>_xlfn.CONCAT("policy_urban_text",MID(A52,LEN("policy_urban_text")+1,1),"_middle")</f>
         <v>policy_urban_text2_middle</v>
@@ -11191,7 +11199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20">
       <c r="A54" t="str">
         <f>_xlfn.CONCAT("policy_urban_text",MID(A53,LEN("policy_urban_text")+1,1),"_upper")</f>
         <v>policy_urban_text2_upper</v>
@@ -11253,7 +11261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20">
       <c r="A55" t="s">
         <v>825</v>
       </c>
@@ -11316,7 +11324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20">
       <c r="A56" t="s">
         <v>827</v>
       </c>
@@ -11376,7 +11384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20">
       <c r="A57" t="s">
         <v>826</v>
       </c>
@@ -11439,7 +11447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20">
       <c r="A58" t="str">
         <f>_xlfn.CONCAT("policy_urban_text",MID(A57,LEN("policy_urban_text")+1,1),"_middle")</f>
         <v>policy_urban_text3_middle</v>
@@ -11501,7 +11509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20">
       <c r="A59" t="str">
         <f>_xlfn.CONCAT("policy_urban_text",MID(A58,LEN("policy_urban_text")+1,1),"_upper")</f>
         <v>policy_urban_text3_upper</v>
@@ -11563,7 +11571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20">
       <c r="A60" t="s">
         <v>828</v>
       </c>
@@ -11626,7 +11634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20">
       <c r="A61" t="s">
         <v>830</v>
       </c>
@@ -11686,7 +11694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20">
       <c r="A62" t="s">
         <v>829</v>
       </c>
@@ -11749,7 +11757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20">
       <c r="A63" t="str">
         <f>_xlfn.CONCAT("policy_urban_text",MID(A62,LEN("policy_urban_text")+1,1),"_middle")</f>
         <v>policy_urban_text4_middle</v>
@@ -11811,7 +11819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20">
       <c r="A64" t="str">
         <f>_xlfn.CONCAT("policy_urban_text",MID(A63,LEN("policy_urban_text")+1,1),"_upper")</f>
         <v>policy_urban_text4_upper</v>
@@ -11873,7 +11881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20">
       <c r="A65" t="s">
         <v>831</v>
       </c>
@@ -11936,7 +11944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20">
       <c r="A66" t="s">
         <v>833</v>
       </c>
@@ -11996,7 +12004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20">
       <c r="A67" t="s">
         <v>832</v>
       </c>
@@ -12059,7 +12067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20">
       <c r="A68" t="str">
         <f>_xlfn.CONCAT("policy_urban_text",MID(A67,LEN("policy_urban_text")+1,1),"_middle")</f>
         <v>policy_urban_text5_middle</v>
@@ -12121,7 +12129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20">
       <c r="A69" t="str">
         <f>_xlfn.CONCAT("policy_urban_text",MID(A68,LEN("policy_urban_text")+1,1),"_upper")</f>
         <v>policy_urban_text5_upper</v>
@@ -12183,7 +12191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20">
       <c r="A70" t="s">
         <v>834</v>
       </c>
@@ -12246,7 +12254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20">
       <c r="A71" t="s">
         <v>836</v>
       </c>
@@ -12306,7 +12314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20">
       <c r="A72" t="s">
         <v>835</v>
       </c>
@@ -12369,7 +12377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20">
       <c r="A73" t="str">
         <f>_xlfn.CONCAT("policy_urban_text",MID(A72,LEN("policy_urban_text")+1,1),"_middle")</f>
         <v>policy_urban_text6_middle</v>
@@ -12431,7 +12439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20">
       <c r="A74" t="str">
         <f>_xlfn.CONCAT("policy_urban_text",MID(A73,LEN("policy_urban_text")+1,1),"_upper")</f>
         <v>policy_urban_text6_upper</v>
@@ -12493,7 +12501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20">
       <c r="A75" t="s">
         <v>34</v>
       </c>
@@ -12550,7 +12558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20">
       <c r="A76" t="s">
         <v>51</v>
       </c>
@@ -12610,7 +12618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20">
       <c r="A77" t="s">
         <v>35</v>
       </c>
@@ -12666,7 +12674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20">
       <c r="A78" t="s">
         <v>546</v>
       </c>
@@ -12726,7 +12734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20">
       <c r="A79" t="s">
         <v>839</v>
       </c>
@@ -12783,7 +12791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20">
       <c r="A80" t="s">
         <v>840</v>
       </c>
@@ -12843,7 +12851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20">
       <c r="A81" t="s">
         <v>841</v>
       </c>
@@ -12903,7 +12911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20">
       <c r="A82" t="s">
         <v>842</v>
       </c>
@@ -12963,7 +12971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:20">
       <c r="A83" t="s">
         <v>843</v>
       </c>
@@ -13023,7 +13031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:20">
       <c r="A84" t="s">
         <v>844</v>
       </c>
@@ -13083,7 +13091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:20">
       <c r="A85" t="s">
         <v>53</v>
       </c>
@@ -13140,7 +13148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:20">
       <c r="A86" t="s">
         <v>54</v>
       </c>
@@ -13197,7 +13205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:20">
       <c r="A87" t="s">
         <v>55</v>
       </c>
@@ -13254,7 +13262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:20">
       <c r="A88" t="s">
         <v>64</v>
       </c>
@@ -13311,7 +13319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:20">
       <c r="A89" t="s">
         <v>68</v>
       </c>
@@ -13371,7 +13379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:20">
       <c r="A90" t="s">
         <v>69</v>
       </c>
@@ -13431,7 +13439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:20">
       <c r="A91" t="s">
         <v>70</v>
       </c>
@@ -13491,7 +13499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:20">
       <c r="A92" t="s">
         <v>71</v>
       </c>
@@ -13551,7 +13559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:20">
       <c r="A93" t="s">
         <v>72</v>
       </c>
@@ -13611,7 +13619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:20">
       <c r="A94" t="s">
         <v>73</v>
       </c>
@@ -13671,7 +13679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:20">
       <c r="A95" t="s">
         <v>74</v>
       </c>
@@ -13731,7 +13739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:20">
       <c r="A96" t="s">
         <v>75</v>
       </c>
@@ -13791,7 +13799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:20">
       <c r="A97" t="s">
         <v>76</v>
       </c>
@@ -13851,7 +13859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:20">
       <c r="A98" t="s">
         <v>77</v>
       </c>
@@ -13911,7 +13919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:20">
       <c r="A99" t="s">
         <v>78</v>
       </c>
@@ -13971,7 +13979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:20">
       <c r="A100" t="s">
         <v>79</v>
       </c>
@@ -14031,7 +14039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:20">
       <c r="A101" t="s">
         <v>80</v>
       </c>
@@ -14091,7 +14099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:20">
       <c r="A102" t="s">
         <v>81</v>
       </c>
@@ -14151,7 +14159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:20">
       <c r="A103" t="s">
         <v>82</v>
       </c>
@@ -14211,7 +14219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:20">
       <c r="A104" t="s">
         <v>83</v>
       </c>
@@ -14271,7 +14279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:20">
       <c r="A105" t="s">
         <v>84</v>
       </c>
@@ -14331,7 +14339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:20">
       <c r="A106" t="s">
         <v>85</v>
       </c>
@@ -14391,7 +14399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:20">
       <c r="A107" t="s">
         <v>86</v>
       </c>
@@ -14451,7 +14459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:20">
       <c r="A108" t="s">
         <v>87</v>
       </c>
@@ -14511,7 +14519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:20">
       <c r="A109" t="s">
         <v>88</v>
       </c>
@@ -14571,7 +14579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:20">
       <c r="A110" t="s">
         <v>89</v>
       </c>
@@ -14631,7 +14639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:20">
       <c r="A111" t="s">
         <v>90</v>
       </c>
@@ -14691,7 +14699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:20">
       <c r="A112" t="s">
         <v>91</v>
       </c>
@@ -14751,7 +14759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:20">
       <c r="A113" t="s">
         <v>92</v>
       </c>
@@ -14811,7 +14819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:20">
       <c r="A114" t="s">
         <v>93</v>
       </c>
@@ -14871,7 +14879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:20">
       <c r="A115" t="s">
         <v>94</v>
       </c>
@@ -14931,7 +14939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:20">
       <c r="A116" t="s">
         <v>95</v>
       </c>
@@ -14991,7 +14999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:20">
       <c r="A117" t="s">
         <v>96</v>
       </c>
@@ -15051,7 +15059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:20">
       <c r="A118" t="s">
         <v>97</v>
       </c>
@@ -15111,7 +15119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:20">
       <c r="A119" t="s">
         <v>98</v>
       </c>
@@ -15171,7 +15179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:20">
       <c r="A120" t="s">
         <v>99</v>
       </c>
@@ -15231,7 +15239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:20">
       <c r="A121" t="s">
         <v>100</v>
       </c>
@@ -15291,7 +15299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:20">
       <c r="A122" t="s">
         <v>101</v>
       </c>
@@ -15351,7 +15359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:20">
       <c r="A123" t="s">
         <v>102</v>
       </c>
@@ -15411,7 +15419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:20">
       <c r="A124" t="s">
         <v>36</v>
       </c>
@@ -15468,7 +15476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:20">
       <c r="A125" t="s">
         <v>37</v>
       </c>
@@ -15523,7 +15531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:20">
       <c r="A126" t="s">
         <v>543</v>
       </c>
@@ -15583,7 +15591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:20">
       <c r="A127" t="s">
         <v>45</v>
       </c>
@@ -15640,7 +15648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:20">
       <c r="A128" t="s">
         <v>46</v>
       </c>
@@ -15696,7 +15704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:20">
       <c r="A129" t="s">
         <v>544</v>
       </c>
@@ -15756,7 +15764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:20">
       <c r="A130" s="2" t="s">
         <v>228</v>
       </c>
@@ -15816,7 +15824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:20">
       <c r="A131" s="2" t="s">
         <v>545</v>
       </c>
@@ -15873,7 +15881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:20">
       <c r="A132" t="s">
         <v>180</v>
       </c>
@@ -15927,7 +15935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:20">
       <c r="A133" t="s">
         <v>181</v>
       </c>
@@ -15984,7 +15992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:20">
       <c r="A134" t="s">
         <v>2046</v>
       </c>
@@ -16041,7 +16049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:20">
       <c r="A135" t="s">
         <v>47</v>
       </c>
@@ -16097,7 +16105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:20">
       <c r="A136" t="s">
         <v>123</v>
       </c>
@@ -16156,7 +16164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:20">
       <c r="A137" t="s">
         <v>134</v>
       </c>
@@ -16212,7 +16220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:20">
       <c r="A138" t="s">
         <v>852</v>
       </c>
@@ -16271,7 +16279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:20">
       <c r="A139" t="s">
         <v>845</v>
       </c>
@@ -16331,7 +16339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:20">
       <c r="A140" t="s">
         <v>841</v>
       </c>
@@ -16391,7 +16399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:20">
       <c r="A141" t="s">
         <v>842</v>
       </c>
@@ -16451,7 +16459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:20">
       <c r="A142" t="s">
         <v>843</v>
       </c>
@@ -16511,7 +16519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:20">
       <c r="A143" t="s">
         <v>844</v>
       </c>
@@ -16571,7 +16579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:20">
       <c r="A144" t="s">
         <v>53</v>
       </c>
@@ -16628,7 +16636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:20">
       <c r="A145" t="s">
         <v>54</v>
       </c>
@@ -16685,7 +16693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:20">
       <c r="A146" t="s">
         <v>55</v>
       </c>
@@ -16742,7 +16750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:20">
       <c r="A147" t="s">
         <v>64</v>
       </c>
@@ -16799,7 +16807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:20">
       <c r="A148" t="s">
         <v>103</v>
       </c>
@@ -16859,7 +16867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:20">
       <c r="A149" t="s">
         <v>104</v>
       </c>
@@ -16919,7 +16927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:20">
       <c r="A150" t="s">
         <v>105</v>
       </c>
@@ -16979,7 +16987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:20">
       <c r="A151" t="s">
         <v>106</v>
       </c>
@@ -17039,7 +17047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:20">
       <c r="A152" t="s">
         <v>107</v>
       </c>
@@ -17099,7 +17107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:20">
       <c r="A153" t="s">
         <v>108</v>
       </c>
@@ -17159,7 +17167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:20">
       <c r="A154" t="s">
         <v>109</v>
       </c>
@@ -17219,7 +17227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:20">
       <c r="A155" t="s">
         <v>110</v>
       </c>
@@ -17279,7 +17287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:20">
       <c r="A156" t="s">
         <v>111</v>
       </c>
@@ -17339,7 +17347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:20">
       <c r="A157" t="s">
         <v>112</v>
       </c>
@@ -17399,7 +17407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:20">
       <c r="A158" t="s">
         <v>113</v>
       </c>
@@ -17459,7 +17467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:20">
       <c r="A159" t="s">
         <v>114</v>
       </c>
@@ -17519,7 +17527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:20">
       <c r="A160" t="s">
         <v>115</v>
       </c>
@@ -17579,7 +17587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:20">
       <c r="A161" t="s">
         <v>116</v>
       </c>
@@ -17639,7 +17647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:20">
       <c r="A162" t="s">
         <v>117</v>
       </c>
@@ -17699,7 +17707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:20">
       <c r="A163" t="s">
         <v>118</v>
       </c>
@@ -17759,7 +17767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:20">
       <c r="A164" t="s">
         <v>119</v>
       </c>
@@ -17819,7 +17827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:20">
       <c r="A165" t="s">
         <v>120</v>
       </c>
@@ -17879,7 +17887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:20">
       <c r="A166" t="s">
         <v>121</v>
       </c>
@@ -17939,7 +17947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:20">
       <c r="A167" t="s">
         <v>122</v>
       </c>
@@ -17999,7 +18007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:20">
       <c r="A168" t="s">
         <v>48</v>
       </c>
@@ -18057,7 +18065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:20">
       <c r="A169" t="s">
         <v>132</v>
       </c>
@@ -18116,7 +18124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:20">
       <c r="A170" t="s">
         <v>49</v>
       </c>
@@ -18172,7 +18180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:20">
       <c r="A171" t="s">
         <v>851</v>
       </c>
@@ -18230,7 +18238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:20">
       <c r="A172" t="s">
         <v>846</v>
       </c>
@@ -18290,7 +18298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:20">
       <c r="A173" t="s">
         <v>841</v>
       </c>
@@ -18350,7 +18358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:20">
       <c r="A174" t="s">
         <v>842</v>
       </c>
@@ -18410,7 +18418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:20">
       <c r="A175" t="s">
         <v>843</v>
       </c>
@@ -18470,7 +18478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:20">
       <c r="A176" t="s">
         <v>844</v>
       </c>
@@ -18530,7 +18538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:20">
       <c r="A177" t="s">
         <v>53</v>
       </c>
@@ -18587,7 +18595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:20">
       <c r="A178" t="s">
         <v>54</v>
       </c>
@@ -18644,7 +18652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:20">
       <c r="A179" t="s">
         <v>55</v>
       </c>
@@ -18701,7 +18709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:20">
       <c r="A180" t="s">
         <v>64</v>
       </c>
@@ -18758,7 +18766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:20">
       <c r="A181" t="s">
         <v>126</v>
       </c>
@@ -18818,7 +18826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:20">
       <c r="A182" t="s">
         <v>127</v>
       </c>
@@ -18878,7 +18886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:20">
       <c r="A183" t="s">
         <v>128</v>
       </c>
@@ -18938,7 +18946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:20">
       <c r="A184" t="s">
         <v>129</v>
       </c>
@@ -18998,7 +19006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:20">
       <c r="A185" t="s">
         <v>130</v>
       </c>
@@ -19058,7 +19066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:20">
       <c r="A186" t="s">
         <v>248</v>
       </c>
@@ -19115,7 +19123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:20">
       <c r="A187" t="s">
         <v>249</v>
       </c>
@@ -19173,7 +19181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:20">
       <c r="A188" t="s">
         <v>175</v>
       </c>
@@ -19233,7 +19241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:20">
       <c r="A189" t="s">
         <v>30</v>
       </c>
@@ -19287,7 +19295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:20">
       <c r="A190" t="s">
         <v>650</v>
       </c>
@@ -19347,7 +19355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:20">
       <c r="A191" t="s">
         <v>1675</v>
       </c>
@@ -19407,7 +19415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:20">
       <c r="A192" t="s">
         <v>235</v>
       </c>
@@ -19465,7 +19473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:20" ht="18" customHeight="1">
       <c r="A193" t="s">
         <v>229</v>
       </c>
@@ -19526,7 +19534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:20">
       <c r="A194" t="s">
         <v>817</v>
       </c>
@@ -19603,13 +19611,13 @@
       <selection pane="bottomRight" activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="48.140625" customWidth="1"/>
     <col min="16" max="16" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -19671,7 +19679,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -19727,7 +19735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -19787,7 +19795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -19847,7 +19855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -19907,7 +19915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20">
       <c r="A6" t="s">
         <v>336</v>
       </c>
@@ -19965,7 +19973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20">
       <c r="A7" t="s">
         <v>337</v>
       </c>
@@ -20022,7 +20030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -20080,7 +20088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -20133,7 +20141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20">
       <c r="A10" t="s">
         <v>67</v>
       </c>
@@ -20190,7 +20198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20">
       <c r="A11" t="s">
         <v>2045</v>
       </c>
@@ -20248,7 +20256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -20304,7 +20312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20">
       <c r="A13" t="s">
         <v>169</v>
       </c>
@@ -20362,7 +20370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -20419,7 +20427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20">
       <c r="A15" t="s">
         <v>802</v>
       </c>
@@ -20475,7 +20483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20">
       <c r="A16" t="s">
         <v>804</v>
       </c>
@@ -20532,7 +20540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22">
       <c r="A17" t="s">
         <v>1469</v>
       </c>
@@ -20589,7 +20597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22">
       <c r="A18" t="s">
         <v>1470</v>
       </c>
@@ -20648,7 +20656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22">
       <c r="A19" t="s">
         <v>803</v>
       </c>
@@ -20705,7 +20713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22">
       <c r="A20" t="s">
         <v>805</v>
       </c>
@@ -20762,7 +20770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22">
       <c r="A21" t="s">
         <v>858</v>
       </c>
@@ -20819,7 +20827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22">
       <c r="A22" t="s">
         <v>815</v>
       </c>
@@ -20876,7 +20884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22">
       <c r="A23" t="s">
         <v>1493</v>
       </c>
@@ -20933,7 +20941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22">
       <c r="A24" t="s">
         <v>817</v>
       </c>
@@ -20986,7 +20994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -21043,7 +21051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22">
       <c r="A26" t="s">
         <v>1829</v>
       </c>
@@ -21102,7 +21110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22">
       <c r="A27" t="s">
         <v>247</v>
       </c>
@@ -21160,7 +21168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -21221,7 +21229,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -21278,7 +21286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -21335,7 +21343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22">
       <c r="A31" t="s">
         <v>207</v>
       </c>
@@ -21393,7 +21401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22">
       <c r="A32" t="s">
         <v>65</v>
       </c>
@@ -21449,7 +21457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -21509,7 +21517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20">
       <c r="A34" t="s">
         <v>208</v>
       </c>
@@ -21568,7 +21576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20">
       <c r="A35" t="s">
         <v>66</v>
       </c>
@@ -21625,7 +21633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20">
       <c r="A36" t="s">
         <v>837</v>
       </c>
@@ -21683,7 +21691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20">
       <c r="A37" t="s">
         <v>838</v>
       </c>
@@ -21743,7 +21751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20">
       <c r="A38" t="s">
         <v>179</v>
       </c>
@@ -21803,7 +21811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20">
       <c r="A39" t="s">
         <v>53</v>
       </c>
@@ -21860,7 +21868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -21920,7 +21928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20">
       <c r="A41" s="2" t="s">
         <v>210</v>
       </c>
@@ -21982,7 +21990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20">
       <c r="A42" s="2" t="s">
         <v>209</v>
       </c>
@@ -22044,7 +22052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -22101,7 +22109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20">
       <c r="A44" t="s">
         <v>64</v>
       </c>
@@ -22157,7 +22165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20">
       <c r="A45" t="s">
         <v>819</v>
       </c>
@@ -22220,7 +22228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20">
       <c r="A46" t="s">
         <v>821</v>
       </c>
@@ -22280,7 +22288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20">
       <c r="A47" t="s">
         <v>820</v>
       </c>
@@ -22343,7 +22351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20">
       <c r="A48" t="str">
         <f>_xlfn.CONCAT("policy_urban_text",MID(A47,LEN("policy_urban_text")+1,1),"_middle")</f>
         <v>policy_urban_text1_middle</v>
@@ -22405,7 +22413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20">
       <c r="A49" t="str">
         <f>_xlfn.CONCAT("policy_urban_text",MID(A48,LEN("policy_urban_text")+1,1),"_upper")</f>
         <v>policy_urban_text1_upper</v>
@@ -22467,7 +22475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20">
       <c r="A50" t="s">
         <v>822</v>
       </c>
@@ -22530,7 +22538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20">
       <c r="A51" t="s">
         <v>824</v>
       </c>
@@ -22590,7 +22598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20">
       <c r="A52" t="s">
         <v>823</v>
       </c>
@@ -22653,7 +22661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20">
       <c r="A53" t="str">
         <f>_xlfn.CONCAT("policy_urban_text",MID(A52,LEN("policy_urban_text")+1,1),"_middle")</f>
         <v>policy_urban_text2_middle</v>
@@ -22715,7 +22723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20">
       <c r="A54" t="str">
         <f>_xlfn.CONCAT("policy_urban_text",MID(A53,LEN("policy_urban_text")+1,1),"_upper")</f>
         <v>policy_urban_text2_upper</v>
@@ -22777,7 +22785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20">
       <c r="A55" t="s">
         <v>825</v>
       </c>
@@ -22840,7 +22848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20">
       <c r="A56" t="s">
         <v>827</v>
       </c>
@@ -22900,7 +22908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20">
       <c r="A57" t="s">
         <v>826</v>
       </c>
@@ -22963,7 +22971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20">
       <c r="A58" t="str">
         <f>_xlfn.CONCAT("policy_urban_text",MID(A57,LEN("policy_urban_text")+1,1),"_middle")</f>
         <v>policy_urban_text3_middle</v>
@@ -23025,7 +23033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20">
       <c r="A59" t="str">
         <f>_xlfn.CONCAT("policy_urban_text",MID(A58,LEN("policy_urban_text")+1,1),"_upper")</f>
         <v>policy_urban_text3_upper</v>
@@ -23087,7 +23095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20">
       <c r="A60" t="s">
         <v>828</v>
       </c>
@@ -23150,7 +23158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20">
       <c r="A61" t="s">
         <v>830</v>
       </c>
@@ -23210,7 +23218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20">
       <c r="A62" t="s">
         <v>829</v>
       </c>
@@ -23273,7 +23281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20">
       <c r="A63" t="str">
         <f>_xlfn.CONCAT("policy_urban_text",MID(A62,LEN("policy_urban_text")+1,1),"_middle")</f>
         <v>policy_urban_text4_middle</v>
@@ -23335,7 +23343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20">
       <c r="A64" t="str">
         <f>_xlfn.CONCAT("policy_urban_text",MID(A63,LEN("policy_urban_text")+1,1),"_upper")</f>
         <v>policy_urban_text4_upper</v>
@@ -23397,7 +23405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20">
       <c r="A65" t="s">
         <v>831</v>
       </c>
@@ -23460,7 +23468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20">
       <c r="A66" t="s">
         <v>833</v>
       </c>
@@ -23520,7 +23528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20">
       <c r="A67" t="s">
         <v>832</v>
       </c>
@@ -23583,7 +23591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20">
       <c r="A68" t="str">
         <f>_xlfn.CONCAT("policy_urban_text",MID(A67,LEN("policy_urban_text")+1,1),"_middle")</f>
         <v>policy_urban_text5_middle</v>
@@ -23645,7 +23653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20">
       <c r="A69" t="str">
         <f>_xlfn.CONCAT("policy_urban_text",MID(A68,LEN("policy_urban_text")+1,1),"_upper")</f>
         <v>policy_urban_text5_upper</v>
@@ -23707,7 +23715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20">
       <c r="A70" t="s">
         <v>834</v>
       </c>
@@ -23770,7 +23778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20">
       <c r="A71" t="s">
         <v>836</v>
       </c>
@@ -23830,7 +23838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20">
       <c r="A72" t="s">
         <v>835</v>
       </c>
@@ -23893,7 +23901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20">
       <c r="A73" t="str">
         <f>_xlfn.CONCAT("policy_urban_text",MID(A72,LEN("policy_urban_text")+1,1),"_middle")</f>
         <v>policy_urban_text6_middle</v>
@@ -23955,7 +23963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20">
       <c r="A74" t="str">
         <f>_xlfn.CONCAT("policy_urban_text",MID(A73,LEN("policy_urban_text")+1,1),"_upper")</f>
         <v>policy_urban_text6_upper</v>
@@ -24017,7 +24025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20">
       <c r="A75" t="s">
         <v>34</v>
       </c>
@@ -24074,7 +24082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20">
       <c r="A76" t="s">
         <v>51</v>
       </c>
@@ -24134,7 +24142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20">
       <c r="A77" t="s">
         <v>35</v>
       </c>
@@ -24189,7 +24197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20">
       <c r="A78" t="s">
         <v>546</v>
       </c>
@@ -24249,7 +24257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20">
       <c r="A79" t="s">
         <v>839</v>
       </c>
@@ -24307,7 +24315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20">
       <c r="A80" t="s">
         <v>840</v>
       </c>
@@ -24367,7 +24375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20">
       <c r="A81" t="s">
         <v>841</v>
       </c>
@@ -24427,7 +24435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20">
       <c r="A82" t="s">
         <v>842</v>
       </c>
@@ -24487,7 +24495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:20">
       <c r="A83" t="s">
         <v>843</v>
       </c>
@@ -24547,7 +24555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:20">
       <c r="A84" t="s">
         <v>844</v>
       </c>
@@ -24607,7 +24615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:20">
       <c r="A85" t="s">
         <v>53</v>
       </c>
@@ -24664,7 +24672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:20">
       <c r="A86" t="s">
         <v>54</v>
       </c>
@@ -24721,7 +24729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:20">
       <c r="A87" t="s">
         <v>55</v>
       </c>
@@ -24778,7 +24786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:20">
       <c r="A88" t="s">
         <v>64</v>
       </c>
@@ -24835,7 +24843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:20">
       <c r="A89" t="s">
         <v>68</v>
       </c>
@@ -24895,7 +24903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:20">
       <c r="A90" t="s">
         <v>69</v>
       </c>
@@ -24955,7 +24963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:20">
       <c r="A91" t="s">
         <v>70</v>
       </c>
@@ -25015,7 +25023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:20">
       <c r="A92" t="s">
         <v>71</v>
       </c>
@@ -25075,7 +25083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:20">
       <c r="A93" t="s">
         <v>72</v>
       </c>
@@ -25135,7 +25143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:20">
       <c r="A94" t="s">
         <v>73</v>
       </c>
@@ -25195,7 +25203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:20">
       <c r="A95" t="s">
         <v>74</v>
       </c>
@@ -25255,7 +25263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:20">
       <c r="A96" t="s">
         <v>75</v>
       </c>
@@ -25315,7 +25323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:20">
       <c r="A97" t="s">
         <v>76</v>
       </c>
@@ -25375,7 +25383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:20">
       <c r="A98" t="s">
         <v>77</v>
       </c>
@@ -25435,7 +25443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:20">
       <c r="A99" t="s">
         <v>78</v>
       </c>
@@ -25495,7 +25503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:20">
       <c r="A100" t="s">
         <v>79</v>
       </c>
@@ -25555,7 +25563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:20">
       <c r="A101" t="s">
         <v>80</v>
       </c>
@@ -25615,7 +25623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:20">
       <c r="A102" t="s">
         <v>81</v>
       </c>
@@ -25675,7 +25683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:20">
       <c r="A103" t="s">
         <v>82</v>
       </c>
@@ -25735,7 +25743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:20">
       <c r="A104" t="s">
         <v>83</v>
       </c>
@@ -25795,7 +25803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:20">
       <c r="A105" t="s">
         <v>84</v>
       </c>
@@ -25855,7 +25863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:20">
       <c r="A106" t="s">
         <v>85</v>
       </c>
@@ -25915,7 +25923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:20">
       <c r="A107" t="s">
         <v>86</v>
       </c>
@@ -25975,7 +25983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:20">
       <c r="A108" t="s">
         <v>87</v>
       </c>
@@ -26035,7 +26043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:20">
       <c r="A109" t="s">
         <v>88</v>
       </c>
@@ -26095,7 +26103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:20">
       <c r="A110" t="s">
         <v>89</v>
       </c>
@@ -26155,7 +26163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:20">
       <c r="A111" t="s">
         <v>90</v>
       </c>
@@ -26215,7 +26223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:20">
       <c r="A112" t="s">
         <v>91</v>
       </c>
@@ -26275,7 +26283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:20">
       <c r="A113" t="s">
         <v>92</v>
       </c>
@@ -26335,7 +26343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:20">
       <c r="A114" t="s">
         <v>93</v>
       </c>
@@ -26395,7 +26403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:20">
       <c r="A115" t="s">
         <v>94</v>
       </c>
@@ -26455,7 +26463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:20">
       <c r="A116" t="s">
         <v>95</v>
       </c>
@@ -26515,7 +26523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:20">
       <c r="A117" t="s">
         <v>96</v>
       </c>
@@ -26575,7 +26583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:20">
       <c r="A118" t="s">
         <v>97</v>
       </c>
@@ -26635,7 +26643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:20">
       <c r="A119" t="s">
         <v>98</v>
       </c>
@@ -26695,7 +26703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:20">
       <c r="A120" t="s">
         <v>99</v>
       </c>
@@ -26755,7 +26763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:20">
       <c r="A121" t="s">
         <v>100</v>
       </c>
@@ -26815,7 +26823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:20">
       <c r="A122" t="s">
         <v>101</v>
       </c>
@@ -26875,7 +26883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:20">
       <c r="A123" t="s">
         <v>102</v>
       </c>
@@ -26935,7 +26943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:20">
       <c r="A124" t="s">
         <v>36</v>
       </c>
@@ -26992,7 +27000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:20">
       <c r="A125" t="s">
         <v>37</v>
       </c>
@@ -27047,7 +27055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:20">
       <c r="A126" t="s">
         <v>543</v>
       </c>
@@ -27107,7 +27115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:20">
       <c r="A127" t="s">
         <v>45</v>
       </c>
@@ -27164,7 +27172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:20">
       <c r="A128" t="s">
         <v>46</v>
       </c>
@@ -27220,7 +27228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:20">
       <c r="A129" t="s">
         <v>544</v>
       </c>
@@ -27280,7 +27288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:20">
       <c r="A130" s="2" t="s">
         <v>228</v>
       </c>
@@ -27340,7 +27348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:20">
       <c r="A131" s="2" t="s">
         <v>545</v>
       </c>
@@ -27397,7 +27405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:20">
       <c r="A132" t="s">
         <v>180</v>
       </c>
@@ -27451,7 +27459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:20">
       <c r="A133" t="s">
         <v>181</v>
       </c>
@@ -27508,7 +27516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:20">
       <c r="A134" t="s">
         <v>2046</v>
       </c>
@@ -27565,7 +27573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:20">
       <c r="A135" t="s">
         <v>47</v>
       </c>
@@ -27621,7 +27629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:20">
       <c r="A136" t="s">
         <v>123</v>
       </c>
@@ -27680,7 +27688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:20">
       <c r="A137" t="s">
         <v>134</v>
       </c>
@@ -27736,7 +27744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:20">
       <c r="A138" t="s">
         <v>852</v>
       </c>
@@ -27795,7 +27803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:20">
       <c r="A139" t="s">
         <v>845</v>
       </c>
@@ -27855,7 +27863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:20">
       <c r="A140" t="s">
         <v>841</v>
       </c>
@@ -27915,7 +27923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:20">
       <c r="A141" t="s">
         <v>842</v>
       </c>
@@ -27975,7 +27983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:20">
       <c r="A142" t="s">
         <v>843</v>
       </c>
@@ -28035,7 +28043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:20">
       <c r="A143" t="s">
         <v>844</v>
       </c>
@@ -28095,7 +28103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:20">
       <c r="A144" t="s">
         <v>53</v>
       </c>
@@ -28152,7 +28160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:20">
       <c r="A145" t="s">
         <v>54</v>
       </c>
@@ -28209,7 +28217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:20">
       <c r="A146" t="s">
         <v>55</v>
       </c>
@@ -28266,7 +28274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:20">
       <c r="A147" t="s">
         <v>64</v>
       </c>
@@ -28323,7 +28331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:20">
       <c r="A148" t="s">
         <v>103</v>
       </c>
@@ -28383,7 +28391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:20">
       <c r="A149" t="s">
         <v>104</v>
       </c>
@@ -28443,7 +28451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:20">
       <c r="A150" t="s">
         <v>105</v>
       </c>
@@ -28503,7 +28511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:20">
       <c r="A151" t="s">
         <v>106</v>
       </c>
@@ -28563,7 +28571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:20">
       <c r="A152" t="s">
         <v>107</v>
       </c>
@@ -28623,7 +28631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:20">
       <c r="A153" t="s">
         <v>108</v>
       </c>
@@ -28683,7 +28691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:20">
       <c r="A154" t="s">
         <v>109</v>
       </c>
@@ -28743,7 +28751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:20">
       <c r="A155" t="s">
         <v>110</v>
       </c>
@@ -28803,7 +28811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:20">
       <c r="A156" t="s">
         <v>111</v>
       </c>
@@ -28863,7 +28871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:20">
       <c r="A157" t="s">
         <v>112</v>
       </c>
@@ -28923,7 +28931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:20">
       <c r="A158" t="s">
         <v>113</v>
       </c>
@@ -28983,7 +28991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:20">
       <c r="A159" t="s">
         <v>114</v>
       </c>
@@ -29043,7 +29051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:20">
       <c r="A160" t="s">
         <v>115</v>
       </c>
@@ -29103,7 +29111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:20">
       <c r="A161" t="s">
         <v>116</v>
       </c>
@@ -29163,7 +29171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:20">
       <c r="A162" t="s">
         <v>117</v>
       </c>
@@ -29223,7 +29231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:20">
       <c r="A163" t="s">
         <v>118</v>
       </c>
@@ -29283,7 +29291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:20">
       <c r="A164" t="s">
         <v>119</v>
       </c>
@@ -29343,7 +29351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:20">
       <c r="A165" t="s">
         <v>120</v>
       </c>
@@ -29403,7 +29411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:20">
       <c r="A166" t="s">
         <v>121</v>
       </c>
@@ -29463,7 +29471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:20">
       <c r="A167" t="s">
         <v>122</v>
       </c>
@@ -29523,7 +29531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:20">
       <c r="A168" t="s">
         <v>48</v>
       </c>
@@ -29581,7 +29589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:20">
       <c r="A169" t="s">
         <v>132</v>
       </c>
@@ -29640,7 +29648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:20">
       <c r="A170" t="s">
         <v>49</v>
       </c>
@@ -29696,7 +29704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:20">
       <c r="A171" t="s">
         <v>851</v>
       </c>
@@ -29754,7 +29762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:20">
       <c r="A172" t="s">
         <v>846</v>
       </c>
@@ -29814,7 +29822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:20">
       <c r="A173" t="s">
         <v>841</v>
       </c>
@@ -29874,7 +29882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:20">
       <c r="A174" t="s">
         <v>842</v>
       </c>
@@ -29934,7 +29942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:20">
       <c r="A175" t="s">
         <v>843</v>
       </c>
@@ -29994,7 +30002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:20">
       <c r="A176" t="s">
         <v>844</v>
       </c>
@@ -30054,7 +30062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:20">
       <c r="A177" t="s">
         <v>53</v>
       </c>
@@ -30111,7 +30119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:20">
       <c r="A178" t="s">
         <v>54</v>
       </c>
@@ -30168,7 +30176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:20">
       <c r="A179" t="s">
         <v>55</v>
       </c>
@@ -30225,7 +30233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:20">
       <c r="A180" t="s">
         <v>64</v>
       </c>
@@ -30282,7 +30290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:20">
       <c r="A181" t="s">
         <v>126</v>
       </c>
@@ -30342,7 +30350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:20">
       <c r="A182" t="s">
         <v>127</v>
       </c>
@@ -30402,7 +30410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:20">
       <c r="A183" t="s">
         <v>128</v>
       </c>
@@ -30462,7 +30470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:20">
       <c r="A184" t="s">
         <v>129</v>
       </c>
@@ -30522,7 +30530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:20">
       <c r="A185" t="s">
         <v>130</v>
       </c>
@@ -30582,7 +30590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:20">
       <c r="A186" t="s">
         <v>248</v>
       </c>
@@ -30639,7 +30647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:20">
       <c r="A187" t="s">
         <v>249</v>
       </c>
@@ -30697,7 +30705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:20">
       <c r="A188" t="s">
         <v>175</v>
       </c>
@@ -30757,7 +30765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:20">
       <c r="A189" t="s">
         <v>30</v>
       </c>
@@ -30811,7 +30819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:20">
       <c r="A190" t="s">
         <v>650</v>
       </c>
@@ -30871,7 +30879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:20">
       <c r="A191" t="s">
         <v>1675</v>
       </c>
@@ -30931,7 +30939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:20">
       <c r="A192" t="s">
         <v>235</v>
       </c>
@@ -30989,7 +30997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:20" ht="60">
       <c r="A193" t="s">
         <v>229</v>
       </c>
@@ -31050,7 +31058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:20">
       <c r="A194" t="s">
         <v>817</v>
       </c>
@@ -31120,14 +31128,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U175"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D134" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B145" sqref="B145"/>
+      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.7109375" style="17" customWidth="1"/>
     <col min="2" max="2" width="38" style="17" customWidth="1"/>
@@ -31144,7 +31152,7 @@
     <col min="22" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" s="16" customFormat="1">
       <c r="A1" s="15" t="s">
         <v>142</v>
       </c>
@@ -31205,7 +31213,7 @@
       <c r="T1" s="8"/>
       <c r="U1" s="8"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21">
       <c r="A2" s="17" t="s">
         <v>143</v>
       </c>
@@ -31266,7 +31274,7 @@
       <c r="T2" s="9"/>
       <c r="U2" s="9"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21">
       <c r="A3" s="17" t="s">
         <v>143</v>
       </c>
@@ -31327,7 +31335,7 @@
       <c r="T3" s="9"/>
       <c r="U3" s="9"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21">
       <c r="A4" s="17" t="s">
         <v>143</v>
       </c>
@@ -31388,7 +31396,7 @@
       <c r="T4" s="9"/>
       <c r="U4" s="9"/>
     </row>
-    <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="15" customHeight="1">
       <c r="A5" s="17" t="s">
         <v>143</v>
       </c>
@@ -31449,7 +31457,7 @@
       <c r="T5" s="9"/>
       <c r="U5" s="9"/>
     </row>
-    <row r="6" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="15" customHeight="1">
       <c r="A6" s="17" t="s">
         <v>143</v>
       </c>
@@ -31510,7 +31518,7 @@
       <c r="T6" s="9"/>
       <c r="U6" s="9"/>
     </row>
-    <row r="7" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="30" customHeight="1">
       <c r="A7" s="17" t="s">
         <v>143</v>
       </c>
@@ -31571,7 +31579,7 @@
       <c r="T7" s="9"/>
       <c r="U7" s="9"/>
     </row>
-    <row r="8" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="15" customHeight="1">
       <c r="A8" s="17" t="s">
         <v>143</v>
       </c>
@@ -31579,7 +31587,7 @@
         <v>2108</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>2109</v>
+        <v>2115</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
@@ -31591,7 +31599,9 @@
       <c r="K8" s="19"/>
       <c r="L8" s="19"/>
       <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
+      <c r="N8" s="10" t="s">
+        <v>2117</v>
+      </c>
       <c r="O8" s="9"/>
       <c r="P8" s="9"/>
       <c r="Q8" s="9"/>
@@ -31600,7 +31610,7 @@
       <c r="T8" s="9"/>
       <c r="U8" s="9"/>
     </row>
-    <row r="9" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="15" customHeight="1">
       <c r="A9" s="17" t="s">
         <v>143</v>
       </c>
@@ -31633,7 +31643,7 @@
       <c r="T9" s="9"/>
       <c r="U9" s="9"/>
     </row>
-    <row r="10" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="15" customHeight="1">
       <c r="A10" s="17" t="s">
         <v>143</v>
       </c>
@@ -31666,7 +31676,7 @@
       <c r="T10" s="9"/>
       <c r="U10" s="9"/>
     </row>
-    <row r="11" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="15" customHeight="1">
       <c r="A11" s="17" t="s">
         <v>143</v>
       </c>
@@ -31697,7 +31707,7 @@
       <c r="T11" s="9"/>
       <c r="U11" s="9"/>
     </row>
-    <row r="12" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="15" customHeight="1">
       <c r="A12" s="17" t="s">
         <v>143</v>
       </c>
@@ -31728,7 +31738,7 @@
       <c r="T12" s="9"/>
       <c r="U12" s="9"/>
     </row>
-    <row r="13" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="15" customHeight="1">
       <c r="A13" s="17" t="s">
         <v>143</v>
       </c>
@@ -31759,7 +31769,7 @@
       <c r="T13" s="9"/>
       <c r="U13" s="9"/>
     </row>
-    <row r="14" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="15" customHeight="1">
       <c r="A14" s="17" t="s">
         <v>143</v>
       </c>
@@ -31792,7 +31802,7 @@
       <c r="T14" s="9"/>
       <c r="U14" s="9"/>
     </row>
-    <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" ht="15" customHeight="1">
       <c r="A15" s="17" t="s">
         <v>143</v>
       </c>
@@ -31827,7 +31837,7 @@
       <c r="T15" s="9"/>
       <c r="U15" s="9"/>
     </row>
-    <row r="16" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" ht="15" customHeight="1">
       <c r="A16" s="17" t="s">
         <v>143</v>
       </c>
@@ -31860,7 +31870,7 @@
       <c r="T16" s="9"/>
       <c r="U16" s="9"/>
     </row>
-    <row r="17" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" ht="15" customHeight="1">
       <c r="A17" s="17" t="s">
         <v>143</v>
       </c>
@@ -31893,7 +31903,7 @@
       <c r="T17" s="9"/>
       <c r="U17" s="9"/>
     </row>
-    <row r="18" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" ht="15" customHeight="1">
       <c r="A18" s="17" t="s">
         <v>143</v>
       </c>
@@ -31926,7 +31936,7 @@
       <c r="T18" s="9"/>
       <c r="U18" s="9"/>
     </row>
-    <row r="19" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" ht="15" customHeight="1">
       <c r="A19" s="17" t="s">
         <v>143</v>
       </c>
@@ -31959,7 +31969,7 @@
       <c r="T19" s="9"/>
       <c r="U19" s="9"/>
     </row>
-    <row r="20" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" ht="15" customHeight="1">
       <c r="A20" s="17" t="s">
         <v>143</v>
       </c>
@@ -31992,7 +32002,7 @@
       <c r="T20" s="9"/>
       <c r="U20" s="9"/>
     </row>
-    <row r="21" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" ht="15" customHeight="1">
       <c r="A21" s="17" t="s">
         <v>143</v>
       </c>
@@ -32025,7 +32035,7 @@
       <c r="T21" s="9"/>
       <c r="U21" s="9"/>
     </row>
-    <row r="22" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" ht="15" customHeight="1">
       <c r="A22" s="17" t="s">
         <v>143</v>
       </c>
@@ -32058,7 +32068,7 @@
       <c r="T22" s="9"/>
       <c r="U22" s="9"/>
     </row>
-    <row r="23" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" ht="15" customHeight="1">
       <c r="A23" s="17" t="s">
         <v>143</v>
       </c>
@@ -32091,7 +32101,7 @@
       <c r="T23" s="9"/>
       <c r="U23" s="9"/>
     </row>
-    <row r="24" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" ht="15" customHeight="1">
       <c r="A24" s="17" t="s">
         <v>143</v>
       </c>
@@ -32124,7 +32134,7 @@
       <c r="T24" s="9"/>
       <c r="U24" s="9"/>
     </row>
-    <row r="25" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" ht="15" customHeight="1">
       <c r="A25" s="17" t="s">
         <v>143</v>
       </c>
@@ -32159,7 +32169,7 @@
       <c r="T25" s="9"/>
       <c r="U25" s="9"/>
     </row>
-    <row r="26" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" ht="15" customHeight="1">
       <c r="A26" s="17" t="s">
         <v>143</v>
       </c>
@@ -32194,7 +32204,7 @@
       <c r="T26" s="9"/>
       <c r="U26" s="9"/>
     </row>
-    <row r="27" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" ht="15" customHeight="1">
       <c r="A27" s="17" t="s">
         <v>143</v>
       </c>
@@ -32229,7 +32239,7 @@
       <c r="T27" s="9"/>
       <c r="U27" s="9"/>
     </row>
-    <row r="28" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" ht="15" customHeight="1">
       <c r="A28" s="17" t="s">
         <v>143</v>
       </c>
@@ -32260,7 +32270,7 @@
       <c r="T28" s="9"/>
       <c r="U28" s="9"/>
     </row>
-    <row r="29" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" ht="15" customHeight="1">
       <c r="A29" s="17" t="s">
         <v>143</v>
       </c>
@@ -32291,7 +32301,7 @@
       <c r="T29" s="9"/>
       <c r="U29" s="9"/>
     </row>
-    <row r="30" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" ht="15" customHeight="1">
       <c r="A30" s="17" t="s">
         <v>143</v>
       </c>
@@ -32322,7 +32332,7 @@
       <c r="T30" s="9"/>
       <c r="U30" s="9"/>
     </row>
-    <row r="31" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" ht="15" customHeight="1">
       <c r="A31" s="17" t="s">
         <v>143</v>
       </c>
@@ -32353,7 +32363,7 @@
       <c r="T31" s="9"/>
       <c r="U31" s="9"/>
     </row>
-    <row r="32" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" ht="15" customHeight="1">
       <c r="A32" s="17" t="s">
         <v>143</v>
       </c>
@@ -32384,7 +32394,7 @@
       <c r="T32" s="9"/>
       <c r="U32" s="9"/>
     </row>
-    <row r="33" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" ht="15" customHeight="1">
       <c r="A33" s="17" t="s">
         <v>143</v>
       </c>
@@ -32417,7 +32427,7 @@
       <c r="T33" s="9"/>
       <c r="U33" s="9"/>
     </row>
-    <row r="34" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" ht="15" customHeight="1">
       <c r="A34" s="17" t="s">
         <v>143</v>
       </c>
@@ -32448,7 +32458,7 @@
       <c r="T34" s="9"/>
       <c r="U34" s="9"/>
     </row>
-    <row r="35" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" ht="15" customHeight="1">
       <c r="A35" s="17" t="s">
         <v>143</v>
       </c>
@@ -32481,7 +32491,7 @@
       <c r="T35" s="9"/>
       <c r="U35" s="9"/>
     </row>
-    <row r="36" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" ht="15" customHeight="1">
       <c r="A36" s="17" t="s">
         <v>143</v>
       </c>
@@ -32514,7 +32524,7 @@
       <c r="T36" s="9"/>
       <c r="U36" s="9"/>
     </row>
-    <row r="37" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" ht="15" customHeight="1">
       <c r="A37" s="17" t="s">
         <v>143</v>
       </c>
@@ -32545,7 +32555,7 @@
       <c r="T37" s="9"/>
       <c r="U37" s="9"/>
     </row>
-    <row r="38" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" ht="15" customHeight="1">
       <c r="A38" s="17" t="s">
         <v>143</v>
       </c>
@@ -32576,7 +32586,7 @@
       <c r="T38" s="9"/>
       <c r="U38" s="9"/>
     </row>
-    <row r="39" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" ht="15" customHeight="1">
       <c r="A39" s="17" t="s">
         <v>143</v>
       </c>
@@ -32607,7 +32617,7 @@
       <c r="T39" s="9"/>
       <c r="U39" s="9"/>
     </row>
-    <row r="40" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" ht="15" customHeight="1">
       <c r="A40" s="17" t="s">
         <v>143</v>
       </c>
@@ -32640,7 +32650,7 @@
       <c r="T40" s="9"/>
       <c r="U40" s="9"/>
     </row>
-    <row r="41" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" ht="15" customHeight="1">
       <c r="A41" s="17" t="s">
         <v>143</v>
       </c>
@@ -32675,7 +32685,7 @@
       <c r="T41" s="9"/>
       <c r="U41" s="9"/>
     </row>
-    <row r="42" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" ht="15" customHeight="1">
       <c r="A42" s="17" t="s">
         <v>143</v>
       </c>
@@ -32708,7 +32718,7 @@
       <c r="T42" s="9"/>
       <c r="U42" s="9"/>
     </row>
-    <row r="43" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" ht="15" customHeight="1">
       <c r="A43" s="17" t="s">
         <v>143</v>
       </c>
@@ -32741,7 +32751,7 @@
       <c r="T43" s="9"/>
       <c r="U43" s="9"/>
     </row>
-    <row r="44" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" ht="15" customHeight="1">
       <c r="A44" s="17" t="s">
         <v>143</v>
       </c>
@@ -32774,7 +32784,7 @@
       <c r="T44" s="9"/>
       <c r="U44" s="9"/>
     </row>
-    <row r="45" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" ht="15" customHeight="1">
       <c r="A45" s="17" t="s">
         <v>143</v>
       </c>
@@ -32807,7 +32817,7 @@
       <c r="T45" s="9"/>
       <c r="U45" s="9"/>
     </row>
-    <row r="46" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" ht="15" customHeight="1">
       <c r="A46" s="17" t="s">
         <v>143</v>
       </c>
@@ -32840,7 +32850,7 @@
       <c r="T46" s="9"/>
       <c r="U46" s="9"/>
     </row>
-    <row r="47" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" ht="15" customHeight="1">
       <c r="A47" s="17" t="s">
         <v>143</v>
       </c>
@@ -32873,7 +32883,7 @@
       <c r="T47" s="9"/>
       <c r="U47" s="9"/>
     </row>
-    <row r="48" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" ht="15" customHeight="1">
       <c r="A48" s="17" t="s">
         <v>143</v>
       </c>
@@ -32906,7 +32916,7 @@
       <c r="T48" s="9"/>
       <c r="U48" s="9"/>
     </row>
-    <row r="49" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" ht="15" customHeight="1">
       <c r="A49" s="17" t="s">
         <v>143</v>
       </c>
@@ -32939,7 +32949,7 @@
       <c r="T49" s="9"/>
       <c r="U49" s="9"/>
     </row>
-    <row r="50" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" ht="15" customHeight="1">
       <c r="A50" s="17" t="s">
         <v>143</v>
       </c>
@@ -32972,7 +32982,7 @@
       <c r="T50" s="9"/>
       <c r="U50" s="9"/>
     </row>
-    <row r="51" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" ht="15" customHeight="1">
       <c r="A51" s="17" t="s">
         <v>143</v>
       </c>
@@ -33007,7 +33017,7 @@
       <c r="T51" s="9"/>
       <c r="U51" s="9"/>
     </row>
-    <row r="52" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" ht="15" customHeight="1">
       <c r="A52" s="17" t="s">
         <v>143</v>
       </c>
@@ -33042,7 +33052,7 @@
       <c r="T52" s="9"/>
       <c r="U52" s="9"/>
     </row>
-    <row r="53" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" ht="15" customHeight="1">
       <c r="A53" s="17" t="s">
         <v>143</v>
       </c>
@@ -33077,7 +33087,7 @@
       <c r="T53" s="9"/>
       <c r="U53" s="9"/>
     </row>
-    <row r="54" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" ht="15" customHeight="1">
       <c r="A54" s="17" t="s">
         <v>143</v>
       </c>
@@ -33108,7 +33118,7 @@
       <c r="T54" s="9"/>
       <c r="U54" s="9"/>
     </row>
-    <row r="55" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" ht="15" customHeight="1">
       <c r="A55" s="17" t="s">
         <v>143</v>
       </c>
@@ -33139,7 +33149,7 @@
       <c r="T55" s="9"/>
       <c r="U55" s="9"/>
     </row>
-    <row r="56" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" ht="15" customHeight="1">
       <c r="A56" s="17" t="s">
         <v>143</v>
       </c>
@@ -33170,7 +33180,7 @@
       <c r="T56" s="9"/>
       <c r="U56" s="9"/>
     </row>
-    <row r="57" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" ht="15" customHeight="1">
       <c r="A57" s="17" t="s">
         <v>143</v>
       </c>
@@ -33201,7 +33211,7 @@
       <c r="T57" s="9"/>
       <c r="U57" s="9"/>
     </row>
-    <row r="58" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" ht="15" customHeight="1">
       <c r="A58" s="17" t="s">
         <v>143</v>
       </c>
@@ -33232,7 +33242,7 @@
       <c r="T58" s="9"/>
       <c r="U58" s="9"/>
     </row>
-    <row r="59" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" ht="15" customHeight="1">
       <c r="A59" s="17" t="s">
         <v>143</v>
       </c>
@@ -33265,7 +33275,7 @@
       <c r="T59" s="9"/>
       <c r="U59" s="9"/>
     </row>
-    <row r="60" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" ht="15" customHeight="1">
       <c r="A60" s="17" t="s">
         <v>143</v>
       </c>
@@ -33326,7 +33336,7 @@
       <c r="T60" s="9"/>
       <c r="U60" s="9"/>
     </row>
-    <row r="61" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" ht="15" customHeight="1">
       <c r="A61" s="17" t="s">
         <v>144</v>
       </c>
@@ -33387,7 +33397,7 @@
       <c r="T61" s="9"/>
       <c r="U61" s="9"/>
     </row>
-    <row r="62" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" ht="15" customHeight="1">
       <c r="A62" s="17" t="s">
         <v>144</v>
       </c>
@@ -33448,7 +33458,7 @@
       <c r="T62" s="9"/>
       <c r="U62" s="9"/>
     </row>
-    <row r="63" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" ht="15" customHeight="1">
       <c r="A63" s="17" t="s">
         <v>144</v>
       </c>
@@ -33509,7 +33519,7 @@
       <c r="T63" s="9"/>
       <c r="U63" s="9"/>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21">
       <c r="A64" s="17" t="s">
         <v>144</v>
       </c>
@@ -33570,7 +33580,7 @@
       <c r="T64" s="9"/>
       <c r="U64" s="9"/>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21">
       <c r="A65" s="17" t="s">
         <v>144</v>
       </c>
@@ -33631,7 +33641,7 @@
       <c r="T65" s="9"/>
       <c r="U65" s="9"/>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21">
       <c r="A66" s="17" t="s">
         <v>144</v>
       </c>
@@ -33692,7 +33702,7 @@
       <c r="T66" s="9"/>
       <c r="U66" s="9"/>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21">
       <c r="A67" s="17" t="s">
         <v>144</v>
       </c>
@@ -33753,7 +33763,7 @@
       <c r="T67" s="9"/>
       <c r="U67" s="9"/>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21">
       <c r="A68" s="17" t="s">
         <v>144</v>
       </c>
@@ -33814,7 +33824,7 @@
       <c r="T68" s="9"/>
       <c r="U68" s="9"/>
     </row>
-    <row r="69" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" ht="45">
       <c r="A69" s="17" t="s">
         <v>144</v>
       </c>
@@ -33875,7 +33885,7 @@
       <c r="T69" s="9"/>
       <c r="U69" s="9"/>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21">
       <c r="A70" s="17" t="s">
         <v>144</v>
       </c>
@@ -33936,7 +33946,7 @@
       <c r="T70" s="9"/>
       <c r="U70" s="9"/>
     </row>
-    <row r="71" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21" ht="30">
       <c r="A71" s="17" t="s">
         <v>144</v>
       </c>
@@ -33997,7 +34007,7 @@
       <c r="T71" s="9"/>
       <c r="U71" s="9"/>
     </row>
-    <row r="72" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21" ht="45">
       <c r="A72" s="17" t="s">
         <v>144</v>
       </c>
@@ -34058,7 +34068,7 @@
       <c r="T72" s="9"/>
       <c r="U72" s="9"/>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:21">
       <c r="A73" s="17" t="s">
         <v>144</v>
       </c>
@@ -34119,7 +34129,7 @@
       <c r="T73" s="9"/>
       <c r="U73" s="9"/>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:21">
       <c r="A74" s="17" t="s">
         <v>144</v>
       </c>
@@ -34180,7 +34190,7 @@
       <c r="T74" s="9"/>
       <c r="U74" s="9"/>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:21">
       <c r="A75" s="17" t="s">
         <v>144</v>
       </c>
@@ -34241,7 +34251,7 @@
       <c r="T75" s="9"/>
       <c r="U75" s="9"/>
     </row>
-    <row r="76" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:21" ht="30">
       <c r="A76" s="17" t="s">
         <v>144</v>
       </c>
@@ -34302,7 +34312,7 @@
       <c r="T76" s="9"/>
       <c r="U76" s="9"/>
     </row>
-    <row r="77" spans="1:21" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:21" ht="43.5" customHeight="1">
       <c r="A77" s="17" t="s">
         <v>144</v>
       </c>
@@ -34363,7 +34373,7 @@
       <c r="T77" s="9"/>
       <c r="U77" s="9"/>
     </row>
-    <row r="78" spans="1:21" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:21" ht="43.5" customHeight="1">
       <c r="A78" s="17" t="s">
         <v>144</v>
       </c>
@@ -34424,7 +34434,7 @@
       <c r="T78" s="9"/>
       <c r="U78" s="9"/>
     </row>
-    <row r="79" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:21" ht="45">
       <c r="A79" s="17" t="s">
         <v>144</v>
       </c>
@@ -34485,7 +34495,7 @@
       <c r="T79" s="9"/>
       <c r="U79" s="9"/>
     </row>
-    <row r="80" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:21" ht="45">
       <c r="A80" s="17" t="s">
         <v>144</v>
       </c>
@@ -34546,7 +34556,7 @@
       <c r="T80" s="9"/>
       <c r="U80" s="9"/>
     </row>
-    <row r="81" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:21" ht="45">
       <c r="A81" s="17" t="s">
         <v>144</v>
       </c>
@@ -34607,7 +34617,7 @@
       <c r="T81" s="9"/>
       <c r="U81" s="9"/>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:21">
       <c r="A82" s="17" t="s">
         <v>144</v>
       </c>
@@ -34668,7 +34678,7 @@
       <c r="T82" s="9"/>
       <c r="U82" s="9"/>
     </row>
-    <row r="83" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:21" ht="60">
       <c r="A83" s="17" t="s">
         <v>144</v>
       </c>
@@ -34729,7 +34739,7 @@
       <c r="T83" s="9"/>
       <c r="U83" s="9"/>
     </row>
-    <row r="84" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:21" ht="30">
       <c r="A84" s="17" t="s">
         <v>144</v>
       </c>
@@ -34790,7 +34800,7 @@
       <c r="T84" s="9"/>
       <c r="U84" s="9"/>
     </row>
-    <row r="85" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:21" ht="30">
       <c r="A85" s="17" t="s">
         <v>144</v>
       </c>
@@ -34851,7 +34861,7 @@
       <c r="T85" s="9"/>
       <c r="U85" s="9"/>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:21">
       <c r="A86" s="17" t="s">
         <v>144</v>
       </c>
@@ -34912,7 +34922,7 @@
       <c r="T86" s="9"/>
       <c r="U86" s="9"/>
     </row>
-    <row r="87" spans="1:21" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:21" ht="80.25" customHeight="1">
       <c r="A87" s="17" t="s">
         <v>143</v>
       </c>
@@ -34971,7 +34981,7 @@
       <c r="T87" s="9"/>
       <c r="U87" s="9"/>
     </row>
-    <row r="88" spans="1:21" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:21" ht="67.5" customHeight="1">
       <c r="A88" s="17" t="s">
         <v>143</v>
       </c>
@@ -35030,7 +35040,7 @@
       <c r="T88" s="9"/>
       <c r="U88" s="9"/>
     </row>
-    <row r="89" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:21" ht="30">
       <c r="A89" s="17" t="s">
         <v>143</v>
       </c>
@@ -35091,7 +35101,7 @@
       <c r="T89" s="9"/>
       <c r="U89" s="9"/>
     </row>
-    <row r="90" spans="1:21" ht="238.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:21" ht="238.5" customHeight="1">
       <c r="A90" s="17" t="s">
         <v>143</v>
       </c>
@@ -35152,7 +35162,7 @@
       <c r="T90" s="9"/>
       <c r="U90" s="9"/>
     </row>
-    <row r="91" spans="1:21" ht="238.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:21" ht="238.5" customHeight="1">
       <c r="A91" s="17" t="s">
         <v>143</v>
       </c>
@@ -35213,7 +35223,7 @@
       <c r="T91" s="9"/>
       <c r="U91" s="9"/>
     </row>
-    <row r="92" spans="1:21" ht="238.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:21" ht="238.5" customHeight="1">
       <c r="A92" s="17" t="s">
         <v>143</v>
       </c>
@@ -35274,7 +35284,7 @@
       <c r="T92" s="9"/>
       <c r="U92" s="9"/>
     </row>
-    <row r="93" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:21" ht="45">
       <c r="A93" s="17" t="s">
         <v>143</v>
       </c>
@@ -35335,7 +35345,7 @@
       <c r="T93" s="9"/>
       <c r="U93" s="9"/>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:21">
       <c r="A94" s="17" t="s">
         <v>143</v>
       </c>
@@ -35396,7 +35406,7 @@
       <c r="T94" s="9"/>
       <c r="U94" s="9"/>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:21">
       <c r="A95" s="17" t="s">
         <v>143</v>
       </c>
@@ -35457,7 +35467,7 @@
       <c r="T95" s="9"/>
       <c r="U95" s="9"/>
     </row>
-    <row r="96" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:21" ht="30">
       <c r="A96" s="17" t="s">
         <v>143</v>
       </c>
@@ -35518,7 +35528,7 @@
       <c r="T96" s="9"/>
       <c r="U96" s="9"/>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:21">
       <c r="A97" s="17" t="s">
         <v>143</v>
       </c>
@@ -35579,7 +35589,7 @@
       <c r="T97" s="9"/>
       <c r="U97" s="9"/>
     </row>
-    <row r="98" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:21" ht="45">
       <c r="A98" s="17" t="s">
         <v>143</v>
       </c>
@@ -35640,7 +35650,7 @@
       <c r="T98" s="9"/>
       <c r="U98" s="9"/>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:21">
       <c r="A99" s="17" t="s">
         <v>143</v>
       </c>
@@ -35701,7 +35711,7 @@
       <c r="T99" s="9"/>
       <c r="U99" s="9"/>
     </row>
-    <row r="100" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:21" ht="45">
       <c r="A100" s="17" t="s">
         <v>143</v>
       </c>
@@ -35762,7 +35772,7 @@
       <c r="T100" s="9"/>
       <c r="U100" s="9"/>
     </row>
-    <row r="101" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:21" ht="30">
       <c r="A101" s="17" t="s">
         <v>143</v>
       </c>
@@ -35823,7 +35833,7 @@
       <c r="T101" s="9"/>
       <c r="U101" s="9"/>
     </row>
-    <row r="102" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:21" ht="30">
       <c r="A102" s="17" t="s">
         <v>143</v>
       </c>
@@ -35884,7 +35894,7 @@
       <c r="T102" s="9"/>
       <c r="U102" s="9"/>
     </row>
-    <row r="103" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:21" ht="30">
       <c r="A103" s="17" t="s">
         <v>143</v>
       </c>
@@ -35945,7 +35955,7 @@
       <c r="T103" s="9"/>
       <c r="U103" s="9"/>
     </row>
-    <row r="104" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:21" ht="30">
       <c r="A104" s="17" t="s">
         <v>143</v>
       </c>
@@ -36006,7 +36016,7 @@
       <c r="T104" s="9"/>
       <c r="U104" s="9"/>
     </row>
-    <row r="105" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:21" ht="45">
       <c r="A105" s="17" t="s">
         <v>143</v>
       </c>
@@ -36067,7 +36077,7 @@
       <c r="T105" s="9"/>
       <c r="U105" s="9"/>
     </row>
-    <row r="106" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:21" ht="30">
       <c r="A106" s="17" t="s">
         <v>143</v>
       </c>
@@ -36128,7 +36138,7 @@
       <c r="T106" s="9"/>
       <c r="U106" s="9"/>
     </row>
-    <row r="107" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:21" ht="30">
       <c r="A107" s="17" t="s">
         <v>143</v>
       </c>
@@ -36189,7 +36199,7 @@
       <c r="T107" s="9"/>
       <c r="U107" s="9"/>
     </row>
-    <row r="108" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:21" ht="30">
       <c r="A108" s="17" t="s">
         <v>143</v>
       </c>
@@ -36250,7 +36260,7 @@
       <c r="T108" s="9"/>
       <c r="U108" s="9"/>
     </row>
-    <row r="109" spans="1:21" ht="210" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:21" ht="210">
       <c r="A109" s="17" t="s">
         <v>143</v>
       </c>
@@ -36311,7 +36321,7 @@
       <c r="T109" s="9"/>
       <c r="U109" s="9"/>
     </row>
-    <row r="110" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:21" ht="30">
       <c r="A110" s="17" t="s">
         <v>143</v>
       </c>
@@ -36372,7 +36382,7 @@
       <c r="T110" s="9"/>
       <c r="U110" s="9"/>
     </row>
-    <row r="111" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:21" ht="30">
       <c r="A111" s="17" t="s">
         <v>143</v>
       </c>
@@ -36433,7 +36443,7 @@
       <c r="T111" s="9"/>
       <c r="U111" s="9"/>
     </row>
-    <row r="112" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:21" ht="30">
       <c r="A112" s="17" t="s">
         <v>143</v>
       </c>
@@ -36494,7 +36504,7 @@
       <c r="T112" s="9"/>
       <c r="U112" s="9"/>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:21">
       <c r="A113" s="17" t="s">
         <v>143</v>
       </c>
@@ -36555,7 +36565,7 @@
       <c r="T113" s="9"/>
       <c r="U113" s="9"/>
     </row>
-    <row r="114" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:21" ht="45">
       <c r="A114" s="17" t="s">
         <v>143</v>
       </c>
@@ -36616,7 +36626,7 @@
       <c r="T114" s="9"/>
       <c r="U114" s="9"/>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:21">
       <c r="A115" s="17" t="s">
         <v>143</v>
       </c>
@@ -36677,7 +36687,7 @@
       <c r="T115" s="9"/>
       <c r="U115" s="9"/>
     </row>
-    <row r="116" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:21" ht="45">
       <c r="A116" s="17" t="s">
         <v>143</v>
       </c>
@@ -36738,7 +36748,7 @@
       <c r="T116" s="9"/>
       <c r="U116" s="9"/>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:21">
       <c r="A117" s="17" t="s">
         <v>143</v>
       </c>
@@ -36799,7 +36809,7 @@
       <c r="T117" s="9"/>
       <c r="U117" s="9"/>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:21">
       <c r="A118" s="17" t="s">
         <v>143</v>
       </c>
@@ -36860,7 +36870,7 @@
       <c r="T118" s="9"/>
       <c r="U118" s="9"/>
     </row>
-    <row r="119" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:21" ht="30">
       <c r="A119" s="17" t="s">
         <v>143</v>
       </c>
@@ -36921,7 +36931,7 @@
       <c r="T119" s="9"/>
       <c r="U119" s="9"/>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:21">
       <c r="A120" s="17" t="s">
         <v>143</v>
       </c>
@@ -36982,7 +36992,7 @@
       <c r="T120" s="9"/>
       <c r="U120" s="9"/>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:21">
       <c r="A121" s="17" t="s">
         <v>143</v>
       </c>
@@ -37043,7 +37053,7 @@
       <c r="T121" s="9"/>
       <c r="U121" s="9"/>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:21">
       <c r="A122" s="17" t="s">
         <v>143</v>
       </c>
@@ -37104,7 +37114,7 @@
       <c r="T122" s="9"/>
       <c r="U122" s="9"/>
     </row>
-    <row r="123" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:21" ht="30">
       <c r="A123" s="17" t="s">
         <v>143</v>
       </c>
@@ -37165,7 +37175,7 @@
       <c r="T123" s="9"/>
       <c r="U123" s="9"/>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:21">
       <c r="A124" s="17" t="s">
         <v>143</v>
       </c>
@@ -37226,7 +37236,7 @@
       <c r="T124" s="9"/>
       <c r="U124" s="9"/>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:21">
       <c r="A125" s="17" t="s">
         <v>143</v>
       </c>
@@ -37287,7 +37297,7 @@
       <c r="T125" s="9"/>
       <c r="U125" s="9"/>
     </row>
-    <row r="126" spans="1:21" ht="241.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:21" ht="241.5" customHeight="1">
       <c r="A126" s="17" t="s">
         <v>143</v>
       </c>
@@ -37348,7 +37358,7 @@
       <c r="T126" s="9"/>
       <c r="U126" s="9"/>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:21">
       <c r="A127" s="17" t="s">
         <v>143</v>
       </c>
@@ -37409,7 +37419,7 @@
       <c r="T127" s="9"/>
       <c r="U127" s="9"/>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:21">
       <c r="A128" s="17" t="s">
         <v>143</v>
       </c>
@@ -37470,7 +37480,7 @@
       <c r="T128" s="9"/>
       <c r="U128" s="9"/>
     </row>
-    <row r="129" spans="1:21" ht="210" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:21" ht="210">
       <c r="A129" s="17" t="s">
         <v>143</v>
       </c>
@@ -37531,7 +37541,7 @@
       <c r="T129" s="9"/>
       <c r="U129" s="9"/>
     </row>
-    <row r="130" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:21" ht="30">
       <c r="A130" s="17" t="s">
         <v>143</v>
       </c>
@@ -37592,7 +37602,7 @@
       <c r="T130" s="9"/>
       <c r="U130" s="9"/>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:21">
       <c r="A131" s="17" t="s">
         <v>143</v>
       </c>
@@ -37653,7 +37663,7 @@
       <c r="T131" s="9"/>
       <c r="U131" s="9"/>
     </row>
-    <row r="132" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:21" ht="30">
       <c r="A132" s="17" t="s">
         <v>143</v>
       </c>
@@ -37714,7 +37724,7 @@
       <c r="T132" s="9"/>
       <c r="U132" s="9"/>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:21">
       <c r="A133" s="17" t="s">
         <v>143</v>
       </c>
@@ -37775,7 +37785,7 @@
       <c r="T133" s="9"/>
       <c r="U133" s="9"/>
     </row>
-    <row r="134" spans="1:21" ht="210" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:21" ht="210">
       <c r="A134" s="17" t="s">
         <v>143</v>
       </c>
@@ -37836,7 +37846,7 @@
       <c r="T134" s="9"/>
       <c r="U134" s="9"/>
     </row>
-    <row r="135" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:21" ht="30">
       <c r="A135" s="17" t="s">
         <v>143</v>
       </c>
@@ -37897,7 +37907,7 @@
       <c r="T135" s="9"/>
       <c r="U135" s="9"/>
     </row>
-    <row r="136" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:21" ht="30">
       <c r="A136" s="17" t="s">
         <v>143</v>
       </c>
@@ -37958,7 +37968,7 @@
       <c r="T136" s="9"/>
       <c r="U136" s="9"/>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:21">
       <c r="A137" s="17" t="s">
         <v>143</v>
       </c>
@@ -38019,7 +38029,7 @@
       <c r="T137" s="9"/>
       <c r="U137" s="9"/>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:21">
       <c r="A138" s="17" t="s">
         <v>143</v>
       </c>
@@ -38080,7 +38090,7 @@
       <c r="T138" s="9"/>
       <c r="U138" s="9"/>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:21">
       <c r="A139" s="17" t="s">
         <v>143</v>
       </c>
@@ -38141,7 +38151,7 @@
       <c r="T139" s="9"/>
       <c r="U139" s="9"/>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:21">
       <c r="A140" s="17" t="s">
         <v>143</v>
       </c>
@@ -38202,7 +38212,7 @@
       <c r="T140" s="9"/>
       <c r="U140" s="9"/>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:21">
       <c r="A141" s="17" t="s">
         <v>143</v>
       </c>
@@ -38263,7 +38273,7 @@
       <c r="T141" s="9"/>
       <c r="U141" s="9"/>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:21">
       <c r="A142" s="17" t="s">
         <v>143</v>
       </c>
@@ -38324,7 +38334,7 @@
       <c r="T142" s="9"/>
       <c r="U142" s="9"/>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:21">
       <c r="A143" s="17" t="s">
         <v>143</v>
       </c>
@@ -38385,7 +38395,7 @@
       <c r="T143" s="9"/>
       <c r="U143" s="9"/>
     </row>
-    <row r="144" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:21" ht="45">
       <c r="A144" s="17" t="s">
         <v>143</v>
       </c>
@@ -38446,15 +38456,15 @@
       <c r="T144" s="9"/>
       <c r="U144" s="9"/>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:21" ht="135">
       <c r="A145" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B145" s="17" t="s">
-        <v>2111</v>
+        <v>2109</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>2110</v>
+        <v>2116</v>
       </c>
       <c r="D145" s="9"/>
       <c r="E145" s="9"/>
@@ -38466,8 +38476,8 @@
       <c r="K145" s="19"/>
       <c r="L145" s="19"/>
       <c r="M145" s="9"/>
-      <c r="N145" s="9" t="s">
-        <v>2110</v>
+      <c r="N145" s="10" t="s">
+        <v>2118</v>
       </c>
       <c r="O145" s="9"/>
       <c r="P145" s="9"/>
@@ -38477,12 +38487,12 @@
       <c r="T145" s="9"/>
       <c r="U145" s="9"/>
     </row>
-    <row r="146" spans="1:21" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:21" ht="409.5">
       <c r="A146" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B146" s="18" t="str">
-        <f>B9&amp;" - "&amp;"Summary"</f>
+        <f t="shared" ref="B146:B164" si="0">B9&amp;" - "&amp;"Summary"</f>
         <v>maiduguri - Summary</v>
       </c>
       <c r="C146" s="10" t="s">
@@ -38511,12 +38521,12 @@
       <c r="T146" s="9"/>
       <c r="U146" s="9"/>
     </row>
-    <row r="147" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:21" ht="409.5" customHeight="1">
       <c r="A147" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B147" s="18" t="str">
-        <f>B10&amp;" - "&amp;"Summary"</f>
+        <f t="shared" si="0"/>
         <v>mexico_city - Summary</v>
       </c>
       <c r="C147" s="10" t="s">
@@ -38545,12 +38555,12 @@
       <c r="T147" s="9"/>
       <c r="U147" s="9"/>
     </row>
-    <row r="148" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:21" ht="409.5" customHeight="1">
       <c r="A148" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B148" s="18" t="str">
-        <f>B11&amp;" - "&amp;"Summary"</f>
+        <f t="shared" si="0"/>
         <v>baltimore - Summary</v>
       </c>
       <c r="C148" s="10" t="s">
@@ -38577,12 +38587,12 @@
       <c r="T148" s="9"/>
       <c r="U148" s="9"/>
     </row>
-    <row r="149" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:21" ht="409.5" customHeight="1">
       <c r="A149" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B149" s="18" t="str">
-        <f>B12&amp;" - "&amp;"Summary"</f>
+        <f t="shared" si="0"/>
         <v>phoenix - Summary</v>
       </c>
       <c r="C149" s="10" t="s">
@@ -38609,12 +38619,12 @@
       <c r="T149" s="9"/>
       <c r="U149" s="9"/>
     </row>
-    <row r="150" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:21" ht="409.5" customHeight="1">
       <c r="A150" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B150" s="18" t="str">
-        <f>B13&amp;" - "&amp;"Summary"</f>
+        <f t="shared" si="0"/>
         <v>seattle - Summary</v>
       </c>
       <c r="C150" s="10" t="s">
@@ -38641,12 +38651,12 @@
       <c r="T150" s="9"/>
       <c r="U150" s="9"/>
     </row>
-    <row r="151" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:21" ht="409.5" customHeight="1">
       <c r="A151" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B151" s="18" t="str">
-        <f>B14&amp;" - "&amp;"Summary"</f>
+        <f t="shared" si="0"/>
         <v>sao_paulo - Summary</v>
       </c>
       <c r="C151" s="10" t="s">
@@ -38675,12 +38685,12 @@
       <c r="T151" s="9"/>
       <c r="U151" s="9"/>
     </row>
-    <row r="152" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:21" ht="409.5" customHeight="1">
       <c r="A152" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B152" s="18" t="str">
-        <f>B15&amp;" - "&amp;"Summary"</f>
+        <f t="shared" si="0"/>
         <v>hong_kong - Summary</v>
       </c>
       <c r="C152" s="10" t="s">
@@ -38711,12 +38721,12 @@
       <c r="T152" s="9"/>
       <c r="U152" s="9"/>
     </row>
-    <row r="153" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:21" ht="409.5" customHeight="1">
       <c r="A153" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B153" s="18" t="str">
-        <f>B16&amp;" - "&amp;"Summary"</f>
+        <f t="shared" si="0"/>
         <v>chennai - Summary</v>
       </c>
       <c r="C153" s="10" t="s">
@@ -38745,12 +38755,12 @@
       <c r="T153" s="9"/>
       <c r="U153" s="9"/>
     </row>
-    <row r="154" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:21" ht="409.5" customHeight="1">
       <c r="A154" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B154" s="18" t="str">
-        <f>B17&amp;" - "&amp;"Summary"</f>
+        <f t="shared" si="0"/>
         <v>bangkok - Summary</v>
       </c>
       <c r="C154" s="10" t="s">
@@ -38779,12 +38789,12 @@
       <c r="T154" s="9"/>
       <c r="U154" s="9"/>
     </row>
-    <row r="155" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:21" ht="409.5" customHeight="1">
       <c r="A155" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B155" s="18" t="str">
-        <f>B18&amp;" - "&amp;"Summary"</f>
+        <f t="shared" si="0"/>
         <v>hanoi - Summary</v>
       </c>
       <c r="C155" s="10" t="s">
@@ -38813,12 +38823,12 @@
       <c r="T155" s="9"/>
       <c r="U155" s="9"/>
     </row>
-    <row r="156" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:21" ht="409.5" customHeight="1">
       <c r="A156" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B156" s="18" t="str">
-        <f>B19&amp;" - "&amp;"Summary"</f>
+        <f t="shared" si="0"/>
         <v>graz - Summary</v>
       </c>
       <c r="C156" s="10" t="s">
@@ -38847,12 +38857,12 @@
       <c r="T156" s="9"/>
       <c r="U156" s="9"/>
     </row>
-    <row r="157" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:21" ht="409.5" customHeight="1">
       <c r="A157" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B157" s="18" t="str">
-        <f>B20&amp;" - "&amp;"Summary"</f>
+        <f t="shared" si="0"/>
         <v>ghent_2022 - Summary</v>
       </c>
       <c r="C157" s="10" t="s">
@@ -38881,12 +38891,12 @@
       <c r="T157" s="9"/>
       <c r="U157" s="9"/>
     </row>
-    <row r="158" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:21" ht="409.5" customHeight="1">
       <c r="A158" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B158" s="18" t="str">
-        <f>B21&amp;" - "&amp;"Summary"</f>
+        <f t="shared" si="0"/>
         <v>bern - Summary</v>
       </c>
       <c r="C158" s="10" t="s">
@@ -38915,12 +38925,12 @@
       <c r="T158" s="9"/>
       <c r="U158" s="9"/>
     </row>
-    <row r="159" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:21" ht="409.5" customHeight="1">
       <c r="A159" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B159" s="18" t="str">
-        <f>B22&amp;" - "&amp;"Summary"</f>
+        <f t="shared" si="0"/>
         <v>olomouc - Summary</v>
       </c>
       <c r="C159" s="10" t="s">
@@ -38949,12 +38959,12 @@
       <c r="T159" s="9"/>
       <c r="U159" s="9"/>
     </row>
-    <row r="160" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:21" ht="409.5" customHeight="1">
       <c r="A160" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B160" s="18" t="str">
-        <f>B23&amp;" - "&amp;"Summary"</f>
+        <f t="shared" si="0"/>
         <v>cologne - Summary</v>
       </c>
       <c r="C160" s="10" t="s">
@@ -38983,12 +38993,12 @@
       <c r="T160" s="9"/>
       <c r="U160" s="9"/>
     </row>
-    <row r="161" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:21" ht="409.5" customHeight="1">
       <c r="A161" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B161" s="18" t="str">
-        <f>B24&amp;" - "&amp;"Summary"</f>
+        <f t="shared" si="0"/>
         <v>odense - Summary</v>
       </c>
       <c r="C161" s="10" t="s">
@@ -39017,12 +39027,12 @@
       <c r="T161" s="9"/>
       <c r="U161" s="9"/>
     </row>
-    <row r="162" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:21" ht="409.5" customHeight="1">
       <c r="A162" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B162" s="18" t="str">
-        <f>B25&amp;" - "&amp;"Summary"</f>
+        <f t="shared" si="0"/>
         <v>barcelona - Summary</v>
       </c>
       <c r="C162" s="10" t="s">
@@ -39053,12 +39063,12 @@
       <c r="T162" s="9"/>
       <c r="U162" s="9"/>
     </row>
-    <row r="163" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:21" ht="409.5" customHeight="1">
       <c r="A163" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B163" s="18" t="str">
-        <f>B26&amp;" - "&amp;"Summary"</f>
+        <f t="shared" si="0"/>
         <v>valencia_2022 - Summary</v>
       </c>
       <c r="C163" s="10" t="s">
@@ -39089,12 +39099,12 @@
       <c r="T163" s="9"/>
       <c r="U163" s="9"/>
     </row>
-    <row r="164" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:21" ht="409.5" customHeight="1">
       <c r="A164" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B164" s="18" t="str">
-        <f>B27&amp;" - "&amp;"Summary"</f>
+        <f t="shared" si="0"/>
         <v>vic - Summary</v>
       </c>
       <c r="C164" s="10" t="s">
@@ -39125,12 +39135,12 @@
       <c r="T164" s="9"/>
       <c r="U164" s="9"/>
     </row>
-    <row r="165" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:21" ht="409.5" customHeight="1">
       <c r="A165" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B165" s="18" t="str">
-        <f t="shared" ref="B165:B170" si="0">B28&amp;" - "&amp;"Summary"</f>
+        <f t="shared" ref="B165:B170" si="1">B28&amp;" - "&amp;"Summary"</f>
         <v>belfast - Summary</v>
       </c>
       <c r="C165" s="10" t="s">
@@ -39157,12 +39167,12 @@
       <c r="T165" s="9"/>
       <c r="U165" s="9"/>
     </row>
-    <row r="166" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:21" ht="409.5" customHeight="1">
       <c r="A166" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B166" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>lisbon - Summary</v>
       </c>
       <c r="C166" s="10" t="s">
@@ -39189,12 +39199,12 @@
       <c r="T166" s="9"/>
       <c r="U166" s="9"/>
     </row>
-    <row r="167" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:21" ht="409.5" customHeight="1">
       <c r="A167" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B167" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>adelaide - Summary</v>
       </c>
       <c r="C167" s="10" t="s">
@@ -39221,12 +39231,12 @@
       <c r="T167" s="9"/>
       <c r="U167" s="9"/>
     </row>
-    <row r="168" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:21" ht="409.5" customHeight="1">
       <c r="A168" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B168" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>melbourne - Summary</v>
       </c>
       <c r="C168" s="10" t="s">
@@ -39253,12 +39263,12 @@
       <c r="T168" s="9"/>
       <c r="U168" s="9"/>
     </row>
-    <row r="169" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:21" ht="409.5" customHeight="1">
       <c r="A169" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B169" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>sydney - Summary</v>
       </c>
       <c r="C169" s="10" t="s">
@@ -39285,12 +39295,12 @@
       <c r="T169" s="9"/>
       <c r="U169" s="9"/>
     </row>
-    <row r="170" spans="1:21" ht="405" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:21" ht="405">
       <c r="A170" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B170" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>auckland - Summary</v>
       </c>
       <c r="C170" s="13" t="s">
@@ -39318,7 +39328,7 @@
       <c r="T170" s="9"/>
       <c r="U170" s="9"/>
     </row>
-    <row r="171" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:21" s="2" customFormat="1">
       <c r="A171" s="24" t="s">
         <v>143</v>
       </c>
@@ -39374,7 +39384,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="172" spans="1:21" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:21" s="2" customFormat="1" ht="30">
       <c r="A172" s="24" t="s">
         <v>143</v>
       </c>
@@ -39389,7 +39399,7 @@
       </c>
       <c r="H172" s="3"/>
     </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:21">
       <c r="A173" s="17" t="s">
         <v>143</v>
       </c>
@@ -39448,7 +39458,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:21">
       <c r="A174" s="17" t="s">
         <v>143</v>
       </c>
@@ -39507,7 +39517,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:21">
       <c r="A175" s="17" t="s">
         <v>143</v>
       </c>
@@ -39567,7 +39577,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B110:D112 G110:J112 B95:J109 B113:J123 B33:K34 B59:K59 B64:K64 B91:K92 B124:K126 K127:K140 K142 K173 K170:K171 K95:L123 B93:L94 B65:L89 M64:U89 K147:L169 K141:L141 K172:L172 K174:L175 M91:U175 B60:U63 B90:U90 B28:L32 B35:L58 B54:B59 M28:U59 B1:U27 B34:U34 K144:K146 B126:J175">
+  <conditionalFormatting sqref="B110:D112 G110:J112 B95:J109 B113:J123 B33:K34 B59:K59 B64:K64 B91:K92 B124:K126 K127:K140 K142 K173 K170:K171 K95:L123 B93:L94 B65:L89 M64:U89 K147:L169 K141:L141 K172:L172 K174:L175 B60:U63 B90:U90 B28:L32 B35:L58 B54:B59 M28:U59 B34:U34 K144:K146 B126:J175 M91:U175 B1:U27">
     <cfRule type="containsBlanks" dxfId="38" priority="67">
       <formula>LEN(TRIM(B1))=0</formula>
     </cfRule>
@@ -39680,14 +39690,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67CAA5C4-0A70-4221-8832-C196189F112B}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23" style="2" customWidth="1"/>
     <col min="2" max="2" width="47.7109375" style="3" customWidth="1"/>
@@ -39699,7 +39709,7 @@
     <col min="11" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15" customHeight="1">
       <c r="A1" s="26" t="s">
         <v>707</v>
       </c>
@@ -39731,7 +39741,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="409.5" customHeight="1">
       <c r="A2" s="26" t="s">
         <v>1465</v>
       </c>
@@ -39760,34 +39770,34 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="409.5" customHeight="1">
       <c r="A3" s="26" t="s">
         <v>2108</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>2112</v>
+        <v>2110</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="16" t="s">
+        <v>2111</v>
+      </c>
+      <c r="E3" s="16" t="s">
         <v>2113</v>
       </c>
-      <c r="E3" s="16" t="s">
-        <v>2115</v>
-      </c>
       <c r="G3" s="16" t="s">
+        <v>2112</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>2113</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>2114</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>2115</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>2116</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>1482</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="90">
       <c r="A4" s="2" t="s">
         <v>1980</v>
       </c>
@@ -39819,7 +39829,7 @@
         <v>1889</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="90">
       <c r="A5" s="2" t="s">
         <v>1981</v>
       </c>
@@ -39851,7 +39861,7 @@
         <v>1885</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="60">
       <c r="A6" s="2" t="s">
         <v>1982</v>
       </c>
@@ -39883,7 +39893,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="75">
       <c r="A7" s="2" t="s">
         <v>1983</v>
       </c>
@@ -39915,7 +39925,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="90.75" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>1984</v>
       </c>
@@ -39947,7 +39957,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="105">
       <c r="A9" s="2" t="s">
         <v>1985</v>
       </c>
@@ -39979,7 +39989,7 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="180" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="180">
       <c r="A10" s="2" t="s">
         <v>1986</v>
       </c>
@@ -40011,7 +40021,7 @@
         <v>1823</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="75">
       <c r="A11" s="2" t="s">
         <v>1987</v>
       </c>
@@ -40043,7 +40053,7 @@
         <v>1893</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="75">
       <c r="A12" s="2" t="s">
         <v>1988</v>
       </c>
@@ -40075,7 +40085,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="90">
       <c r="A13" s="2" t="s">
         <v>1989</v>
       </c>
@@ -40107,7 +40117,7 @@
         <v>1891</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="105">
       <c r="A14" s="2" t="s">
         <v>1990</v>
       </c>
@@ -40139,7 +40149,7 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="75">
       <c r="A15" s="2" t="s">
         <v>2104</v>
       </c>
@@ -40171,7 +40181,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="150">
       <c r="A16" s="2" t="s">
         <v>1991</v>
       </c>
@@ -40203,7 +40213,7 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="75">
       <c r="A17" s="2" t="s">
         <v>1992</v>
       </c>
@@ -40235,7 +40245,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="150">
       <c r="A18" s="2" t="s">
         <v>1993</v>
       </c>
@@ -40267,7 +40277,7 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="75">
       <c r="A19" s="2" t="s">
         <v>1994</v>
       </c>
@@ -40299,7 +40309,7 @@
         <v>1894</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="135">
       <c r="A20" s="2" t="s">
         <v>1995</v>
       </c>
@@ -40331,7 +40341,7 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="135">
       <c r="A21" s="2" t="s">
         <v>2043</v>
       </c>
@@ -40363,7 +40373,7 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="135">
       <c r="A22" s="2" t="s">
         <v>1996</v>
       </c>
@@ -40395,7 +40405,7 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="120">
       <c r="A23" s="2" t="s">
         <v>1997</v>
       </c>
@@ -40427,7 +40437,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="75">
       <c r="A24" s="2" t="s">
         <v>1998</v>
       </c>
@@ -40459,7 +40469,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="90">
       <c r="A25" s="2" t="s">
         <v>1999</v>
       </c>
@@ -40491,7 +40501,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="60">
       <c r="A26" s="2" t="s">
         <v>2000</v>
       </c>
@@ -40523,7 +40533,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="60">
       <c r="A27" s="2" t="s">
         <v>2001</v>
       </c>
@@ -40555,7 +40565,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="120">
       <c r="A28" s="2" t="s">
         <v>2002</v>
       </c>
@@ -40590,6 +40600,9 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Calibri"&amp;12&amp;KEEDC00RMIT Classification: Trusted&amp;1#</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -40601,7 +40614,7 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="27.28515625" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" customWidth="1"/>
@@ -40610,7 +40623,7 @@
     <col min="6" max="6" width="78.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="4" t="s">
         <v>136</v>
       </c>
@@ -40631,7 +40644,7 @@
       </c>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>334</v>
       </c>
@@ -40648,7 +40661,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>334</v>
       </c>
@@ -40668,7 +40681,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>334</v>
       </c>
@@ -40688,7 +40701,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>334</v>
       </c>
@@ -40708,7 +40721,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>321</v>
       </c>
@@ -40725,7 +40738,7 @@
         <v>1555</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>321</v>
       </c>
@@ -40745,7 +40758,7 @@
         <v>1555</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>321</v>
       </c>
@@ -40765,7 +40778,7 @@
         <v>1555</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>321</v>
       </c>
@@ -40785,7 +40798,7 @@
         <v>1555</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>813</v>
       </c>
@@ -40802,7 +40815,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>813</v>
       </c>
@@ -40822,7 +40835,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>813</v>
       </c>
@@ -40842,7 +40855,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>813</v>
       </c>
@@ -40862,7 +40875,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>164</v>
       </c>
@@ -40879,7 +40892,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>164</v>
       </c>
@@ -40899,7 +40912,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>164</v>
       </c>
@@ -40919,7 +40932,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>164</v>
       </c>
@@ -40939,7 +40952,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>215</v>
       </c>
@@ -40956,7 +40969,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>215</v>
       </c>
@@ -40976,7 +40989,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>215</v>
       </c>
@@ -40996,7 +41009,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>215</v>
       </c>
@@ -41016,7 +41029,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="F22" s="44"/>
     </row>
   </sheetData>
@@ -41036,7 +41049,7 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.140625" style="2" customWidth="1"/>
     <col min="2" max="3" width="39" style="3" hidden="1" customWidth="1"/>
@@ -41046,7 +41059,7 @@
     <col min="22" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21">
       <c r="A2" s="20" t="s">
         <v>707</v>
       </c>
@@ -41081,7 +41094,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="78" customHeight="1">
       <c r="A3" s="21"/>
       <c r="B3" s="29"/>
       <c r="C3" s="29"/>
@@ -41136,7 +41149,7 @@
       </c>
       <c r="U3" s="23"/>
     </row>
-    <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="15" customHeight="1">
       <c r="A4" s="30" t="s">
         <v>182</v>
       </c>
@@ -41201,7 +41214,7 @@
       </c>
       <c r="U4" s="35"/>
     </row>
-    <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="15" customHeight="1">
       <c r="A5" s="36" t="s">
         <v>177</v>
       </c>
@@ -41266,7 +41279,7 @@
       </c>
       <c r="U5" s="38"/>
     </row>
-    <row r="6" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="15" customHeight="1">
       <c r="A6" s="36" t="s">
         <v>183</v>
       </c>
@@ -41331,7 +41344,7 @@
       </c>
       <c r="U6" s="38"/>
     </row>
-    <row r="7" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="15" customHeight="1">
       <c r="A7" s="36" t="s">
         <v>184</v>
       </c>
@@ -41396,7 +41409,7 @@
       </c>
       <c r="U7" s="38"/>
     </row>
-    <row r="8" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="15" customHeight="1">
       <c r="A8" s="36" t="s">
         <v>185</v>
       </c>
@@ -41461,7 +41474,7 @@
       </c>
       <c r="U8" s="38"/>
     </row>
-    <row r="9" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="15" customHeight="1">
       <c r="A9" s="36" t="s">
         <v>186</v>
       </c>
@@ -41526,7 +41539,7 @@
       </c>
       <c r="U9" s="38"/>
     </row>
-    <row r="10" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="15" customHeight="1">
       <c r="A10" s="36" t="s">
         <v>187</v>
       </c>
@@ -41591,7 +41604,7 @@
       </c>
       <c r="U10" s="38"/>
     </row>
-    <row r="11" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="15" customHeight="1">
       <c r="A11" s="36" t="s">
         <v>188</v>
       </c>
@@ -41656,7 +41669,7 @@
       </c>
       <c r="U11" s="38"/>
     </row>
-    <row r="12" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="15" customHeight="1">
       <c r="A12" s="36" t="s">
         <v>176</v>
       </c>
@@ -41721,7 +41734,7 @@
       </c>
       <c r="U12" s="38"/>
     </row>
-    <row r="13" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="15" customHeight="1">
       <c r="A13" s="36" t="s">
         <v>189</v>
       </c>
@@ -41786,7 +41799,7 @@
       </c>
       <c r="U13" s="38"/>
     </row>
-    <row r="14" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="15" customHeight="1">
       <c r="A14" s="36" t="s">
         <v>190</v>
       </c>
@@ -41849,7 +41862,7 @@
       </c>
       <c r="U14" s="38"/>
     </row>
-    <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" ht="15" customHeight="1">
       <c r="A15" s="36" t="s">
         <v>191</v>
       </c>
@@ -41914,7 +41927,7 @@
       </c>
       <c r="U15" s="38"/>
     </row>
-    <row r="16" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" ht="15" customHeight="1">
       <c r="A16" s="36" t="s">
         <v>192</v>
       </c>
@@ -41981,7 +41994,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" ht="15" customHeight="1">
       <c r="A17" s="36" t="s">
         <v>193</v>
       </c>
@@ -42046,7 +42059,7 @@
       </c>
       <c r="U17" s="38"/>
     </row>
-    <row r="18" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" ht="15" customHeight="1">
       <c r="A18" s="36" t="s">
         <v>194</v>
       </c>
@@ -42111,7 +42124,7 @@
       </c>
       <c r="U18" s="38"/>
     </row>
-    <row r="19" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" ht="15" customHeight="1">
       <c r="A19" s="36" t="s">
         <v>195</v>
       </c>
@@ -42176,7 +42189,7 @@
       </c>
       <c r="U19" s="38"/>
     </row>
-    <row r="20" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" ht="15" customHeight="1">
       <c r="A20" s="36" t="s">
         <v>196</v>
       </c>
@@ -42241,7 +42254,7 @@
       </c>
       <c r="U20" s="38"/>
     </row>
-    <row r="21" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" ht="15" customHeight="1">
       <c r="A21" s="36" t="s">
         <v>197</v>
       </c>
@@ -42306,7 +42319,7 @@
       </c>
       <c r="U21" s="38"/>
     </row>
-    <row r="22" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" ht="15" customHeight="1">
       <c r="A22" s="36" t="s">
         <v>198</v>
       </c>
@@ -42371,7 +42384,7 @@
       </c>
       <c r="U22" s="38"/>
     </row>
-    <row r="23" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" ht="15" customHeight="1">
       <c r="A23" s="36" t="s">
         <v>199</v>
       </c>
@@ -42436,7 +42449,7 @@
       </c>
       <c r="U23" s="38"/>
     </row>
-    <row r="24" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" ht="15" customHeight="1">
       <c r="A24" s="36" t="s">
         <v>200</v>
       </c>
@@ -42501,7 +42514,7 @@
       </c>
       <c r="U24" s="38"/>
     </row>
-    <row r="25" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" ht="15" customHeight="1">
       <c r="A25" s="36" t="s">
         <v>201</v>
       </c>
@@ -42566,7 +42579,7 @@
       </c>
       <c r="U25" s="38"/>
     </row>
-    <row r="26" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" ht="15" customHeight="1">
       <c r="A26" s="36" t="s">
         <v>174</v>
       </c>
@@ -42631,7 +42644,7 @@
       </c>
       <c r="U26" s="38"/>
     </row>
-    <row r="27" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" ht="15" customHeight="1">
       <c r="A27" s="36" t="s">
         <v>202</v>
       </c>
@@ -42696,7 +42709,7 @@
       </c>
       <c r="U27" s="38"/>
     </row>
-    <row r="28" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" ht="15" customHeight="1">
       <c r="A28" s="39" t="s">
         <v>203</v>
       </c>
@@ -42761,7 +42774,7 @@
       </c>
       <c r="U28" s="42"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21">
       <c r="E29" s="43">
         <f>COUNTIF(E4:E28,"Yes")</f>
         <v>25</v>

--- a/process/configuration/templates/_report_configuration.xlsx
+++ b/process/configuration/templates/_report_configuration.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rmiteduau-my.sharepoint.com/personal/carl_higgs_rmit_edu_au/Documents/projects/global-indicators/process/configuration/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rmiteduau-my.sharepoint.com/personal/carl_higgs_rmit_edu_au/Documents/projects/ghsci-3.0.0/process/configuration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CED04CE-3476-4A81-BA3D-7F271E4F6C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{2CED04CE-3476-4A81-BA3D-7F271E4F6C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2F19BCD-9B4F-44D2-8636-A09B3BF0E6B0}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="3720" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="template_web" sheetId="1" r:id="rId1"/>
@@ -8076,11 +8076,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V194"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B176" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A191" sqref="A191"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8162,7 +8162,7 @@
         <v>19</v>
       </c>
       <c r="D2">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="E2">
         <v>110</v>
@@ -31128,7 +31128,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U175"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/process/configuration/templates/_report_configuration.xlsx
+++ b/process/configuration/templates/_report_configuration.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rmiteduau-my.sharepoint.com/personal/carl_higgs_rmit_edu_au/Documents/projects/ghsci-3.0.0/process/configuration/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rmiteduau-my.sharepoint.com/personal/carl_higgs_rmit_edu_au/Documents/projects/global-indicators/process/configuration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{2CED04CE-3476-4A81-BA3D-7F271E4F6C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2F19BCD-9B4F-44D2-8636-A09B3BF0E6B0}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{2CED04CE-3476-4A81-BA3D-7F271E4F6C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16CC3F25-5421-4913-8F57-E498326D761B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="template_web" sheetId="1" r:id="rId1"/>
@@ -6474,9 +6474,6 @@
     <t xml:space="preserve">Het rapport toont aan dat de beschikbaarheid van het stedelijk en vervoersbeleid ter ondersteuning van gezondheid en duurzaamheid in Gent net onder het gemiddelde ligt in vergelijking met de andere steden. De kwaliteit van de beschikbare beleidslijnen in termen van specificiteit, meetbaarheid en consistentie met beschikbare (gezondheids)evidentie ligt echter iets boven het gemiddelde. Gent lijkt geen beoordelingen van de gezondheidsimpact van vervoers- en stedelijke interventies te vereisen. Ook lijken specifieke standaarden / normen of meetbare doelstellingen voor het openbaar vervoersbeleid te ontbreken. Toch zijn vele Gentse buurten zeer bewegingsvriendelijk in vergelijking met de 25 steden in deze internationale studie; de bewegingsvriendelijkheid van de buurten is wel lager in buurten aan de rand van de stad. Wat betreft de drempels om de WHO doelstellingen te bereiken in het kader van het wereldwijde actieplan voor fysieke activiteit van de Wereldgezondheidsorganisatie, slechts 4,5% van de Gentenaars woont in buurten die aan dichtheidsdrempels voldoen, en 79% van de inwoners woont in een buurt die voldoet aan de drempelwaarde voor stratenconnectiviteit. De meerderheid van de inwoners (85%) heeft toegang tot een halte van het openbaar vervoer binnen 500 meter, maar er waren geen gegevens beschikbaar over de frequentie van de dienstverlening van het openbaar vervoer. Terwijl de overgrote meerderheid van de inwoners toegang heeft tot een publieke open ruimte binnen 500 meter, woont slechts 62% binnen een afstand van 500 meter van een grote publieke open ruimte. Dit laatste verband is afhankelijk van de locatie, er is een ruimtelijk patroon in het verband te zien. In vergelijking met de andere steden die opgenomen waren in deze studie, heeft in Gent een grotere proportie inwoners toegang tot supermarkten en grote publieke open ruimtes binnen een straal van 500 meter. </t>
   </si>
   <si>
-    <t>example_las_palmas_2023 - Country</t>
-  </si>
-  <si>
     <t>ghent_2022</t>
   </si>
   <si>
@@ -6487,12 +6484,6 @@
   </si>
   <si>
     <t>ghent_2022 - Groenevalleipark - © Stad Gent.jpg</t>
-  </si>
-  <si>
-    <t>example_las_palmas_2023</t>
-  </si>
-  <si>
-    <t>example_las_palmas_2023 - Summary</t>
   </si>
   <si>
     <t>Carl Higgs</t>
@@ -6522,13 +6513,22 @@
   <si>
     <t>..Solo ejemplo. No se ha realizado ninguna revisión de políticas para esta ciudad y los datos en la plantilla de revisión de políticas de ejemplo son puramente ficticios y se proporcionan solo con fines de demostración...
 Este texto de resumen se puede personalizar iterativamente después de la generación del informe inicial para contextualizar los hallazgos y relacionarlos con el texto externo y las URL</t>
+  </si>
+  <si>
+    <t>example_ES_Las_Palmas_2023</t>
+  </si>
+  <si>
+    <t>example_ES_Las_Palmas_2023 - Country</t>
+  </si>
+  <si>
+    <t>example_ES_Las_Palmas_2023 - Summary</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8076,20 +8076,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V194"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="48.140625" customWidth="1"/>
     <col min="16" max="16" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="4" customFormat="1">
+    <row r="1" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -8151,7 +8151,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -8207,7 +8207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -8267,7 +8267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -8327,7 +8327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -8387,7 +8387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>336</v>
       </c>
@@ -8445,7 +8445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>337</v>
       </c>
@@ -8502,7 +8502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -8560,7 +8560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -8613,7 +8613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>67</v>
       </c>
@@ -8670,7 +8670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2045</v>
       </c>
@@ -8728,7 +8728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>169</v>
       </c>
@@ -8842,7 +8842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -8899,7 +8899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>802</v>
       </c>
@@ -8955,7 +8955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>804</v>
       </c>
@@ -9012,7 +9012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1469</v>
       </c>
@@ -9069,7 +9069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1470</v>
       </c>
@@ -9128,7 +9128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>803</v>
       </c>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>805</v>
       </c>
@@ -9242,7 +9242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>858</v>
       </c>
@@ -9299,7 +9299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>815</v>
       </c>
@@ -9356,7 +9356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:22">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>1493</v>
       </c>
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:22">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>817</v>
       </c>
@@ -9466,7 +9466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:22">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -9522,7 +9522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:22">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>1829</v>
       </c>
@@ -9585,7 +9585,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:22">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>247</v>
       </c>
@@ -9645,7 +9645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:22">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -9705,7 +9705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:22">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -9762,7 +9762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:22">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -9818,7 +9818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:22">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>207</v>
       </c>
@@ -9877,7 +9877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:22">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>65</v>
       </c>
@@ -9934,7 +9934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -9994,7 +9994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>208</v>
       </c>
@@ -10053,7 +10053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>66</v>
       </c>
@@ -10110,7 +10110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>837</v>
       </c>
@@ -10168,7 +10168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>838</v>
       </c>
@@ -10227,7 +10227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>179</v>
       </c>
@@ -10287,7 +10287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>53</v>
       </c>
@@ -10344,7 +10344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:20">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -10404,7 +10404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>210</v>
       </c>
@@ -10466,7 +10466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>209</v>
       </c>
@@ -10528,7 +10528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>64</v>
       </c>
@@ -10641,7 +10641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:20">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>819</v>
       </c>
@@ -10704,7 +10704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:20">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>821</v>
       </c>
@@ -10764,7 +10764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:20">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>820</v>
       </c>
@@ -10827,7 +10827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:20">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <f>_xlfn.CONCAT("policy_urban_text",MID(A47,LEN("policy_urban_text")+1,1),"_middle")</f>
         <v>policy_urban_text1_middle</v>
@@ -10889,7 +10889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:20">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <f>_xlfn.CONCAT("policy_urban_text",MID(A48,LEN("policy_urban_text")+1,1),"_upper")</f>
         <v>policy_urban_text1_upper</v>
@@ -10951,7 +10951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:20">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>822</v>
       </c>
@@ -11014,7 +11014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:20">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>824</v>
       </c>
@@ -11074,7 +11074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:20">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>823</v>
       </c>
@@ -11137,7 +11137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:20">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
         <f>_xlfn.CONCAT("policy_urban_text",MID(A52,LEN("policy_urban_text")+1,1),"_middle")</f>
         <v>policy_urban_text2_middle</v>
@@ -11199,7 +11199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:20">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
         <f>_xlfn.CONCAT("policy_urban_text",MID(A53,LEN("policy_urban_text")+1,1),"_upper")</f>
         <v>policy_urban_text2_upper</v>
@@ -11261,7 +11261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:20">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>825</v>
       </c>
@@ -11324,7 +11324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:20">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>827</v>
       </c>
@@ -11384,7 +11384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:20">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>826</v>
       </c>
@@ -11447,7 +11447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:20">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
         <f>_xlfn.CONCAT("policy_urban_text",MID(A57,LEN("policy_urban_text")+1,1),"_middle")</f>
         <v>policy_urban_text3_middle</v>
@@ -11509,7 +11509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:20">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
         <f>_xlfn.CONCAT("policy_urban_text",MID(A58,LEN("policy_urban_text")+1,1),"_upper")</f>
         <v>policy_urban_text3_upper</v>
@@ -11571,7 +11571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:20">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>828</v>
       </c>
@@ -11634,7 +11634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:20">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>830</v>
       </c>
@@ -11694,7 +11694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:20">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>829</v>
       </c>
@@ -11757,7 +11757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:20">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" t="str">
         <f>_xlfn.CONCAT("policy_urban_text",MID(A62,LEN("policy_urban_text")+1,1),"_middle")</f>
         <v>policy_urban_text4_middle</v>
@@ -11819,7 +11819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:20">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" t="str">
         <f>_xlfn.CONCAT("policy_urban_text",MID(A63,LEN("policy_urban_text")+1,1),"_upper")</f>
         <v>policy_urban_text4_upper</v>
@@ -11881,7 +11881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:20">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>831</v>
       </c>
@@ -11944,7 +11944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:20">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>833</v>
       </c>
@@ -12004,7 +12004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:20">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>832</v>
       </c>
@@ -12067,7 +12067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:20">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
         <f>_xlfn.CONCAT("policy_urban_text",MID(A67,LEN("policy_urban_text")+1,1),"_middle")</f>
         <v>policy_urban_text5_middle</v>
@@ -12129,7 +12129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:20">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" t="str">
         <f>_xlfn.CONCAT("policy_urban_text",MID(A68,LEN("policy_urban_text")+1,1),"_upper")</f>
         <v>policy_urban_text5_upper</v>
@@ -12191,7 +12191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:20">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>834</v>
       </c>
@@ -12254,7 +12254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:20">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>836</v>
       </c>
@@ -12314,7 +12314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:20">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>835</v>
       </c>
@@ -12377,7 +12377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:20">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" t="str">
         <f>_xlfn.CONCAT("policy_urban_text",MID(A72,LEN("policy_urban_text")+1,1),"_middle")</f>
         <v>policy_urban_text6_middle</v>
@@ -12439,7 +12439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:20">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" t="str">
         <f>_xlfn.CONCAT("policy_urban_text",MID(A73,LEN("policy_urban_text")+1,1),"_upper")</f>
         <v>policy_urban_text6_upper</v>
@@ -12501,7 +12501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:20">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>34</v>
       </c>
@@ -12558,7 +12558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:20">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>51</v>
       </c>
@@ -12618,7 +12618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:20">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>35</v>
       </c>
@@ -12674,7 +12674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:20">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>546</v>
       </c>
@@ -12734,7 +12734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:20">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>839</v>
       </c>
@@ -12791,7 +12791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:20">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>840</v>
       </c>
@@ -12851,7 +12851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:20">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>841</v>
       </c>
@@ -12911,7 +12911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:20">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>842</v>
       </c>
@@ -12971,7 +12971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:20">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>843</v>
       </c>
@@ -13031,7 +13031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:20">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>844</v>
       </c>
@@ -13091,7 +13091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:20">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>53</v>
       </c>
@@ -13148,7 +13148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:20">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>54</v>
       </c>
@@ -13205,7 +13205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:20">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>55</v>
       </c>
@@ -13262,7 +13262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:20">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>64</v>
       </c>
@@ -13319,7 +13319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:20">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>68</v>
       </c>
@@ -13379,7 +13379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:20">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>69</v>
       </c>
@@ -13439,7 +13439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:20">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>70</v>
       </c>
@@ -13499,7 +13499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:20">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>71</v>
       </c>
@@ -13559,7 +13559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:20">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>72</v>
       </c>
@@ -13619,7 +13619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:20">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>73</v>
       </c>
@@ -13679,7 +13679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:20">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>74</v>
       </c>
@@ -13739,7 +13739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:20">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>75</v>
       </c>
@@ -13799,7 +13799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:20">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>76</v>
       </c>
@@ -13859,7 +13859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:20">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>77</v>
       </c>
@@ -13919,7 +13919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:20">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>78</v>
       </c>
@@ -13979,7 +13979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:20">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>79</v>
       </c>
@@ -14039,7 +14039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:20">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>80</v>
       </c>
@@ -14099,7 +14099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:20">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>81</v>
       </c>
@@ -14159,7 +14159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:20">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>82</v>
       </c>
@@ -14219,7 +14219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:20">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>83</v>
       </c>
@@ -14279,7 +14279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:20">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>84</v>
       </c>
@@ -14339,7 +14339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:20">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>85</v>
       </c>
@@ -14399,7 +14399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:20">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>86</v>
       </c>
@@ -14459,7 +14459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:20">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>87</v>
       </c>
@@ -14519,7 +14519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:20">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>88</v>
       </c>
@@ -14579,7 +14579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:20">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>89</v>
       </c>
@@ -14639,7 +14639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:20">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>90</v>
       </c>
@@ -14699,7 +14699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:20">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>91</v>
       </c>
@@ -14759,7 +14759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:20">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>92</v>
       </c>
@@ -14819,7 +14819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:20">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>93</v>
       </c>
@@ -14879,7 +14879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:20">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>94</v>
       </c>
@@ -14939,7 +14939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:20">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>95</v>
       </c>
@@ -14999,7 +14999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:20">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>96</v>
       </c>
@@ -15059,7 +15059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:20">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>97</v>
       </c>
@@ -15119,7 +15119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:20">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>98</v>
       </c>
@@ -15179,7 +15179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:20">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>99</v>
       </c>
@@ -15239,7 +15239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:20">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>100</v>
       </c>
@@ -15299,7 +15299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:20">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>101</v>
       </c>
@@ -15359,7 +15359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:20">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>102</v>
       </c>
@@ -15419,7 +15419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:20">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>36</v>
       </c>
@@ -15476,7 +15476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:20">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>37</v>
       </c>
@@ -15531,7 +15531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:20">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>543</v>
       </c>
@@ -15591,7 +15591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:20">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>45</v>
       </c>
@@ -15648,7 +15648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:20">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>46</v>
       </c>
@@ -15704,7 +15704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:20">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>544</v>
       </c>
@@ -15764,7 +15764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:20">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>228</v>
       </c>
@@ -15824,7 +15824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:20">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>545</v>
       </c>
@@ -15881,7 +15881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:20">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>180</v>
       </c>
@@ -15935,7 +15935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:20">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>181</v>
       </c>
@@ -15992,7 +15992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:20">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>2046</v>
       </c>
@@ -16049,7 +16049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:20">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>47</v>
       </c>
@@ -16105,7 +16105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:20">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>123</v>
       </c>
@@ -16164,7 +16164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:20">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>134</v>
       </c>
@@ -16220,7 +16220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:20">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>852</v>
       </c>
@@ -16279,7 +16279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:20">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>845</v>
       </c>
@@ -16339,7 +16339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:20">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>841</v>
       </c>
@@ -16399,7 +16399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:20">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>842</v>
       </c>
@@ -16459,7 +16459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:20">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>843</v>
       </c>
@@ -16519,7 +16519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:20">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>844</v>
       </c>
@@ -16579,7 +16579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:20">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>53</v>
       </c>
@@ -16636,7 +16636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:20">
+    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>54</v>
       </c>
@@ -16693,7 +16693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:20">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>55</v>
       </c>
@@ -16750,7 +16750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:20">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>64</v>
       </c>
@@ -16807,7 +16807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:20">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>103</v>
       </c>
@@ -16867,7 +16867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:20">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>104</v>
       </c>
@@ -16927,7 +16927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:20">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>105</v>
       </c>
@@ -16987,7 +16987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:20">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>106</v>
       </c>
@@ -17047,7 +17047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:20">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>107</v>
       </c>
@@ -17107,7 +17107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:20">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>108</v>
       </c>
@@ -17167,7 +17167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:20">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>109</v>
       </c>
@@ -17227,7 +17227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:20">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>110</v>
       </c>
@@ -17287,7 +17287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:20">
+    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>111</v>
       </c>
@@ -17347,7 +17347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:20">
+    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>112</v>
       </c>
@@ -17407,7 +17407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:20">
+    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>113</v>
       </c>
@@ -17467,7 +17467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:20">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>114</v>
       </c>
@@ -17527,7 +17527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:20">
+    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>115</v>
       </c>
@@ -17587,7 +17587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:20">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>116</v>
       </c>
@@ -17647,7 +17647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:20">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>117</v>
       </c>
@@ -17707,7 +17707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:20">
+    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>118</v>
       </c>
@@ -17767,7 +17767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:20">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>119</v>
       </c>
@@ -17827,7 +17827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:20">
+    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>120</v>
       </c>
@@ -17887,7 +17887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:20">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>121</v>
       </c>
@@ -17947,7 +17947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:20">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>122</v>
       </c>
@@ -18007,7 +18007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:20">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>48</v>
       </c>
@@ -18065,7 +18065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:20">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>132</v>
       </c>
@@ -18124,7 +18124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:20">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>49</v>
       </c>
@@ -18180,7 +18180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:20">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>851</v>
       </c>
@@ -18238,7 +18238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:20">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>846</v>
       </c>
@@ -18298,7 +18298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:20">
+    <row r="173" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>841</v>
       </c>
@@ -18358,7 +18358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:20">
+    <row r="174" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>842</v>
       </c>
@@ -18418,7 +18418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:20">
+    <row r="175" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>843</v>
       </c>
@@ -18478,7 +18478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:20">
+    <row r="176" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>844</v>
       </c>
@@ -18538,7 +18538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:20">
+    <row r="177" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>53</v>
       </c>
@@ -18595,7 +18595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:20">
+    <row r="178" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>54</v>
       </c>
@@ -18652,7 +18652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:20">
+    <row r="179" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>55</v>
       </c>
@@ -18709,7 +18709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:20">
+    <row r="180" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>64</v>
       </c>
@@ -18766,7 +18766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:20">
+    <row r="181" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>126</v>
       </c>
@@ -18826,7 +18826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:20">
+    <row r="182" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>127</v>
       </c>
@@ -18886,7 +18886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:20">
+    <row r="183" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>128</v>
       </c>
@@ -18946,7 +18946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:20">
+    <row r="184" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>129</v>
       </c>
@@ -19006,7 +19006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:20">
+    <row r="185" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>130</v>
       </c>
@@ -19066,7 +19066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:20">
+    <row r="186" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>248</v>
       </c>
@@ -19123,7 +19123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:20">
+    <row r="187" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>249</v>
       </c>
@@ -19181,7 +19181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:20">
+    <row r="188" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>175</v>
       </c>
@@ -19241,7 +19241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:20">
+    <row r="189" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>30</v>
       </c>
@@ -19295,7 +19295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:20">
+    <row r="190" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>650</v>
       </c>
@@ -19355,7 +19355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:20">
+    <row r="191" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>1675</v>
       </c>
@@ -19415,7 +19415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:20">
+    <row r="192" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>235</v>
       </c>
@@ -19473,7 +19473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:20" ht="18" customHeight="1">
+    <row r="193" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>229</v>
       </c>
@@ -19534,7 +19534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:20">
+    <row r="194" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>817</v>
       </c>
@@ -19611,13 +19611,13 @@
       <selection pane="bottomRight" activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="48.140625" customWidth="1"/>
     <col min="16" max="16" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="4" customFormat="1">
+    <row r="1" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -19679,7 +19679,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -19735,7 +19735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -19795,7 +19795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -19855,7 +19855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -19915,7 +19915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>336</v>
       </c>
@@ -19973,7 +19973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>337</v>
       </c>
@@ -20030,7 +20030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -20088,7 +20088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -20141,7 +20141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>67</v>
       </c>
@@ -20198,7 +20198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2045</v>
       </c>
@@ -20256,7 +20256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -20312,7 +20312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>169</v>
       </c>
@@ -20370,7 +20370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -20427,7 +20427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>802</v>
       </c>
@@ -20483,7 +20483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>804</v>
       </c>
@@ -20540,7 +20540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1469</v>
       </c>
@@ -20597,7 +20597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1470</v>
       </c>
@@ -20656,7 +20656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>803</v>
       </c>
@@ -20713,7 +20713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>805</v>
       </c>
@@ -20770,7 +20770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>858</v>
       </c>
@@ -20827,7 +20827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>815</v>
       </c>
@@ -20884,7 +20884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:22">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>1493</v>
       </c>
@@ -20941,7 +20941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:22">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>817</v>
       </c>
@@ -20994,7 +20994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:22">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -21051,7 +21051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:22">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>1829</v>
       </c>
@@ -21110,7 +21110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:22">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>247</v>
       </c>
@@ -21168,7 +21168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:22">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -21229,7 +21229,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:22">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -21286,7 +21286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:22">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -21343,7 +21343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:22">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>207</v>
       </c>
@@ -21401,7 +21401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:22">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>65</v>
       </c>
@@ -21457,7 +21457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -21517,7 +21517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>208</v>
       </c>
@@ -21576,7 +21576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>66</v>
       </c>
@@ -21633,7 +21633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>837</v>
       </c>
@@ -21691,7 +21691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>838</v>
       </c>
@@ -21751,7 +21751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>179</v>
       </c>
@@ -21811,7 +21811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>53</v>
       </c>
@@ -21868,7 +21868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:20">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -21928,7 +21928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>210</v>
       </c>
@@ -21990,7 +21990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>209</v>
       </c>
@@ -22052,7 +22052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -22109,7 +22109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>64</v>
       </c>
@@ -22165,7 +22165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:20">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>819</v>
       </c>
@@ -22228,7 +22228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:20">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>821</v>
       </c>
@@ -22288,7 +22288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:20">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>820</v>
       </c>
@@ -22351,7 +22351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:20">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <f>_xlfn.CONCAT("policy_urban_text",MID(A47,LEN("policy_urban_text")+1,1),"_middle")</f>
         <v>policy_urban_text1_middle</v>
@@ -22413,7 +22413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:20">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <f>_xlfn.CONCAT("policy_urban_text",MID(A48,LEN("policy_urban_text")+1,1),"_upper")</f>
         <v>policy_urban_text1_upper</v>
@@ -22475,7 +22475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:20">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>822</v>
       </c>
@@ -22538,7 +22538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:20">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>824</v>
       </c>
@@ -22598,7 +22598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:20">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>823</v>
       </c>
@@ -22661,7 +22661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:20">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
         <f>_xlfn.CONCAT("policy_urban_text",MID(A52,LEN("policy_urban_text")+1,1),"_middle")</f>
         <v>policy_urban_text2_middle</v>
@@ -22723,7 +22723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:20">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
         <f>_xlfn.CONCAT("policy_urban_text",MID(A53,LEN("policy_urban_text")+1,1),"_upper")</f>
         <v>policy_urban_text2_upper</v>
@@ -22785,7 +22785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:20">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>825</v>
       </c>
@@ -22848,7 +22848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:20">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>827</v>
       </c>
@@ -22908,7 +22908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:20">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>826</v>
       </c>
@@ -22971,7 +22971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:20">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
         <f>_xlfn.CONCAT("policy_urban_text",MID(A57,LEN("policy_urban_text")+1,1),"_middle")</f>
         <v>policy_urban_text3_middle</v>
@@ -23033,7 +23033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:20">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
         <f>_xlfn.CONCAT("policy_urban_text",MID(A58,LEN("policy_urban_text")+1,1),"_upper")</f>
         <v>policy_urban_text3_upper</v>
@@ -23095,7 +23095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:20">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>828</v>
       </c>
@@ -23158,7 +23158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:20">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>830</v>
       </c>
@@ -23218,7 +23218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:20">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>829</v>
       </c>
@@ -23281,7 +23281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:20">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" t="str">
         <f>_xlfn.CONCAT("policy_urban_text",MID(A62,LEN("policy_urban_text")+1,1),"_middle")</f>
         <v>policy_urban_text4_middle</v>
@@ -23343,7 +23343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:20">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" t="str">
         <f>_xlfn.CONCAT("policy_urban_text",MID(A63,LEN("policy_urban_text")+1,1),"_upper")</f>
         <v>policy_urban_text4_upper</v>
@@ -23405,7 +23405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:20">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>831</v>
       </c>
@@ -23468,7 +23468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:20">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>833</v>
       </c>
@@ -23528,7 +23528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:20">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>832</v>
       </c>
@@ -23591,7 +23591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:20">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
         <f>_xlfn.CONCAT("policy_urban_text",MID(A67,LEN("policy_urban_text")+1,1),"_middle")</f>
         <v>policy_urban_text5_middle</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:20">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" t="str">
         <f>_xlfn.CONCAT("policy_urban_text",MID(A68,LEN("policy_urban_text")+1,1),"_upper")</f>
         <v>policy_urban_text5_upper</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:20">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>834</v>
       </c>
@@ -23778,7 +23778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:20">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>836</v>
       </c>
@@ -23838,7 +23838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:20">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>835</v>
       </c>
@@ -23901,7 +23901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:20">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" t="str">
         <f>_xlfn.CONCAT("policy_urban_text",MID(A72,LEN("policy_urban_text")+1,1),"_middle")</f>
         <v>policy_urban_text6_middle</v>
@@ -23963,7 +23963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:20">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" t="str">
         <f>_xlfn.CONCAT("policy_urban_text",MID(A73,LEN("policy_urban_text")+1,1),"_upper")</f>
         <v>policy_urban_text6_upper</v>
@@ -24025,7 +24025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:20">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>34</v>
       </c>
@@ -24082,7 +24082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:20">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>51</v>
       </c>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:20">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>35</v>
       </c>
@@ -24197,7 +24197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:20">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>546</v>
       </c>
@@ -24257,7 +24257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:20">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>839</v>
       </c>
@@ -24315,7 +24315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:20">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>840</v>
       </c>
@@ -24375,7 +24375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:20">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>841</v>
       </c>
@@ -24435,7 +24435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:20">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>842</v>
       </c>
@@ -24495,7 +24495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:20">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>843</v>
       </c>
@@ -24555,7 +24555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:20">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>844</v>
       </c>
@@ -24615,7 +24615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:20">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>53</v>
       </c>
@@ -24672,7 +24672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:20">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>54</v>
       </c>
@@ -24729,7 +24729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:20">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>55</v>
       </c>
@@ -24786,7 +24786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:20">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>64</v>
       </c>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:20">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>68</v>
       </c>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:20">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>69</v>
       </c>
@@ -24963,7 +24963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:20">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>70</v>
       </c>
@@ -25023,7 +25023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:20">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>71</v>
       </c>
@@ -25083,7 +25083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:20">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>72</v>
       </c>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:20">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>73</v>
       </c>
@@ -25203,7 +25203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:20">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>74</v>
       </c>
@@ -25263,7 +25263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:20">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>75</v>
       </c>
@@ -25323,7 +25323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:20">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>76</v>
       </c>
@@ -25383,7 +25383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:20">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>77</v>
       </c>
@@ -25443,7 +25443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:20">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>78</v>
       </c>
@@ -25503,7 +25503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:20">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>79</v>
       </c>
@@ -25563,7 +25563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:20">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>80</v>
       </c>
@@ -25623,7 +25623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:20">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>81</v>
       </c>
@@ -25683,7 +25683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:20">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>82</v>
       </c>
@@ -25743,7 +25743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:20">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>83</v>
       </c>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:20">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>84</v>
       </c>
@@ -25863,7 +25863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:20">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>85</v>
       </c>
@@ -25923,7 +25923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:20">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>86</v>
       </c>
@@ -25983,7 +25983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:20">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>87</v>
       </c>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:20">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>88</v>
       </c>
@@ -26103,7 +26103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:20">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>89</v>
       </c>
@@ -26163,7 +26163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:20">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>90</v>
       </c>
@@ -26223,7 +26223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:20">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>91</v>
       </c>
@@ -26283,7 +26283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:20">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>92</v>
       </c>
@@ -26343,7 +26343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:20">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>93</v>
       </c>
@@ -26403,7 +26403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:20">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>94</v>
       </c>
@@ -26463,7 +26463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:20">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>95</v>
       </c>
@@ -26523,7 +26523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:20">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>96</v>
       </c>
@@ -26583,7 +26583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:20">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>97</v>
       </c>
@@ -26643,7 +26643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:20">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>98</v>
       </c>
@@ -26703,7 +26703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:20">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>99</v>
       </c>
@@ -26763,7 +26763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:20">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>100</v>
       </c>
@@ -26823,7 +26823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:20">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>101</v>
       </c>
@@ -26883,7 +26883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:20">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>102</v>
       </c>
@@ -26943,7 +26943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:20">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>36</v>
       </c>
@@ -27000,7 +27000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:20">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>37</v>
       </c>
@@ -27055,7 +27055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:20">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>543</v>
       </c>
@@ -27115,7 +27115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:20">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>45</v>
       </c>
@@ -27172,7 +27172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:20">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>46</v>
       </c>
@@ -27228,7 +27228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:20">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>544</v>
       </c>
@@ -27288,7 +27288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:20">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>228</v>
       </c>
@@ -27348,7 +27348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:20">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>545</v>
       </c>
@@ -27405,7 +27405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:20">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>180</v>
       </c>
@@ -27459,7 +27459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:20">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>181</v>
       </c>
@@ -27516,7 +27516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:20">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>2046</v>
       </c>
@@ -27573,7 +27573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:20">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>47</v>
       </c>
@@ -27629,7 +27629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:20">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>123</v>
       </c>
@@ -27688,7 +27688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:20">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>134</v>
       </c>
@@ -27744,7 +27744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:20">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>852</v>
       </c>
@@ -27803,7 +27803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:20">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>845</v>
       </c>
@@ -27863,7 +27863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:20">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>841</v>
       </c>
@@ -27923,7 +27923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:20">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>842</v>
       </c>
@@ -27983,7 +27983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:20">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>843</v>
       </c>
@@ -28043,7 +28043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:20">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>844</v>
       </c>
@@ -28103,7 +28103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:20">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>53</v>
       </c>
@@ -28160,7 +28160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:20">
+    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>54</v>
       </c>
@@ -28217,7 +28217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:20">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>55</v>
       </c>
@@ -28274,7 +28274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:20">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>64</v>
       </c>
@@ -28331,7 +28331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:20">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>103</v>
       </c>
@@ -28391,7 +28391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:20">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>104</v>
       </c>
@@ -28451,7 +28451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:20">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>105</v>
       </c>
@@ -28511,7 +28511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:20">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>106</v>
       </c>
@@ -28571,7 +28571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:20">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>107</v>
       </c>
@@ -28631,7 +28631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:20">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>108</v>
       </c>
@@ -28691,7 +28691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:20">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>109</v>
       </c>
@@ -28751,7 +28751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:20">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>110</v>
       </c>
@@ -28811,7 +28811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:20">
+    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>111</v>
       </c>
@@ -28871,7 +28871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:20">
+    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>112</v>
       </c>
@@ -28931,7 +28931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:20">
+    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>113</v>
       </c>
@@ -28991,7 +28991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:20">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>114</v>
       </c>
@@ -29051,7 +29051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:20">
+    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>115</v>
       </c>
@@ -29111,7 +29111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:20">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>116</v>
       </c>
@@ -29171,7 +29171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:20">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>117</v>
       </c>
@@ -29231,7 +29231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:20">
+    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>118</v>
       </c>
@@ -29291,7 +29291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:20">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>119</v>
       </c>
@@ -29351,7 +29351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:20">
+    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>120</v>
       </c>
@@ -29411,7 +29411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:20">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>121</v>
       </c>
@@ -29471,7 +29471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:20">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>122</v>
       </c>
@@ -29531,7 +29531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:20">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>48</v>
       </c>
@@ -29589,7 +29589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:20">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>132</v>
       </c>
@@ -29648,7 +29648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:20">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>49</v>
       </c>
@@ -29704,7 +29704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:20">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>851</v>
       </c>
@@ -29762,7 +29762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:20">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>846</v>
       </c>
@@ -29822,7 +29822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:20">
+    <row r="173" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>841</v>
       </c>
@@ -29882,7 +29882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:20">
+    <row r="174" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>842</v>
       </c>
@@ -29942,7 +29942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:20">
+    <row r="175" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>843</v>
       </c>
@@ -30002,7 +30002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:20">
+    <row r="176" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>844</v>
       </c>
@@ -30062,7 +30062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:20">
+    <row r="177" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>53</v>
       </c>
@@ -30119,7 +30119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:20">
+    <row r="178" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>54</v>
       </c>
@@ -30176,7 +30176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:20">
+    <row r="179" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>55</v>
       </c>
@@ -30233,7 +30233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:20">
+    <row r="180" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>64</v>
       </c>
@@ -30290,7 +30290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:20">
+    <row r="181" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>126</v>
       </c>
@@ -30350,7 +30350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:20">
+    <row r="182" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>127</v>
       </c>
@@ -30410,7 +30410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:20">
+    <row r="183" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>128</v>
       </c>
@@ -30470,7 +30470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:20">
+    <row r="184" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>129</v>
       </c>
@@ -30530,7 +30530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:20">
+    <row r="185" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>130</v>
       </c>
@@ -30590,7 +30590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:20">
+    <row r="186" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>248</v>
       </c>
@@ -30647,7 +30647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:20">
+    <row r="187" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>249</v>
       </c>
@@ -30705,7 +30705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:20">
+    <row r="188" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>175</v>
       </c>
@@ -30765,7 +30765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:20">
+    <row r="189" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>30</v>
       </c>
@@ -30819,7 +30819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:20">
+    <row r="190" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>650</v>
       </c>
@@ -30879,7 +30879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:20">
+    <row r="191" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>1675</v>
       </c>
@@ -30939,7 +30939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:20">
+    <row r="192" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>235</v>
       </c>
@@ -30997,7 +30997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:20" ht="60">
+    <row r="193" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>229</v>
       </c>
@@ -31058,7 +31058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:20">
+    <row r="194" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>817</v>
       </c>
@@ -31128,14 +31128,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U175"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomRight" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" style="17" customWidth="1"/>
     <col min="2" max="2" width="38" style="17" customWidth="1"/>
@@ -31152,7 +31152,7 @@
     <col min="22" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="16" customFormat="1">
+    <row r="1" spans="1:21" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>142</v>
       </c>
@@ -31213,7 +31213,7 @@
       <c r="T1" s="8"/>
       <c r="U1" s="8"/>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>143</v>
       </c>
@@ -31274,7 +31274,7 @@
       <c r="T2" s="9"/>
       <c r="U2" s="9"/>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>143</v>
       </c>
@@ -31335,7 +31335,7 @@
       <c r="T3" s="9"/>
       <c r="U3" s="9"/>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>143</v>
       </c>
@@ -31396,7 +31396,7 @@
       <c r="T4" s="9"/>
       <c r="U4" s="9"/>
     </row>
-    <row r="5" spans="1:21" ht="15" customHeight="1">
+    <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>143</v>
       </c>
@@ -31457,7 +31457,7 @@
       <c r="T5" s="9"/>
       <c r="U5" s="9"/>
     </row>
-    <row r="6" spans="1:21" ht="15" customHeight="1">
+    <row r="6" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>143</v>
       </c>
@@ -31518,7 +31518,7 @@
       <c r="T6" s="9"/>
       <c r="U6" s="9"/>
     </row>
-    <row r="7" spans="1:21" ht="30" customHeight="1">
+    <row r="7" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>143</v>
       </c>
@@ -31579,15 +31579,15 @@
       <c r="T7" s="9"/>
       <c r="U7" s="9"/>
     </row>
-    <row r="8" spans="1:21" ht="15" customHeight="1">
+    <row r="8" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>2108</v>
+        <v>2116</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>2115</v>
+        <v>2112</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
@@ -31600,7 +31600,7 @@
       <c r="L8" s="19"/>
       <c r="M8" s="9"/>
       <c r="N8" s="10" t="s">
-        <v>2117</v>
+        <v>2114</v>
       </c>
       <c r="O8" s="9"/>
       <c r="P8" s="9"/>
@@ -31610,7 +31610,7 @@
       <c r="T8" s="9"/>
       <c r="U8" s="9"/>
     </row>
-    <row r="9" spans="1:21" ht="15" customHeight="1">
+    <row r="9" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>143</v>
       </c>
@@ -31643,7 +31643,7 @@
       <c r="T9" s="9"/>
       <c r="U9" s="9"/>
     </row>
-    <row r="10" spans="1:21" ht="15" customHeight="1">
+    <row r="10" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>143</v>
       </c>
@@ -31676,7 +31676,7 @@
       <c r="T10" s="9"/>
       <c r="U10" s="9"/>
     </row>
-    <row r="11" spans="1:21" ht="15" customHeight="1">
+    <row r="11" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>143</v>
       </c>
@@ -31707,7 +31707,7 @@
       <c r="T11" s="9"/>
       <c r="U11" s="9"/>
     </row>
-    <row r="12" spans="1:21" ht="15" customHeight="1">
+    <row r="12" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>143</v>
       </c>
@@ -31738,7 +31738,7 @@
       <c r="T12" s="9"/>
       <c r="U12" s="9"/>
     </row>
-    <row r="13" spans="1:21" ht="15" customHeight="1">
+    <row r="13" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>143</v>
       </c>
@@ -31769,7 +31769,7 @@
       <c r="T13" s="9"/>
       <c r="U13" s="9"/>
     </row>
-    <row r="14" spans="1:21" ht="15" customHeight="1">
+    <row r="14" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>143</v>
       </c>
@@ -31802,7 +31802,7 @@
       <c r="T14" s="9"/>
       <c r="U14" s="9"/>
     </row>
-    <row r="15" spans="1:21" ht="15" customHeight="1">
+    <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>143</v>
       </c>
@@ -31837,7 +31837,7 @@
       <c r="T15" s="9"/>
       <c r="U15" s="9"/>
     </row>
-    <row r="16" spans="1:21" ht="15" customHeight="1">
+    <row r="16" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>143</v>
       </c>
@@ -31870,7 +31870,7 @@
       <c r="T16" s="9"/>
       <c r="U16" s="9"/>
     </row>
-    <row r="17" spans="1:21" ht="15" customHeight="1">
+    <row r="17" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>143</v>
       </c>
@@ -31903,7 +31903,7 @@
       <c r="T17" s="9"/>
       <c r="U17" s="9"/>
     </row>
-    <row r="18" spans="1:21" ht="15" customHeight="1">
+    <row r="18" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>143</v>
       </c>
@@ -31936,7 +31936,7 @@
       <c r="T18" s="9"/>
       <c r="U18" s="9"/>
     </row>
-    <row r="19" spans="1:21" ht="15" customHeight="1">
+    <row r="19" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
         <v>143</v>
       </c>
@@ -31969,12 +31969,12 @@
       <c r="T19" s="9"/>
       <c r="U19" s="9"/>
     </row>
-    <row r="20" spans="1:21" ht="15" customHeight="1">
+    <row r="20" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>191</v>
@@ -32002,7 +32002,7 @@
       <c r="T20" s="9"/>
       <c r="U20" s="9"/>
     </row>
-    <row r="21" spans="1:21" ht="15" customHeight="1">
+    <row r="21" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
         <v>143</v>
       </c>
@@ -32035,7 +32035,7 @@
       <c r="T21" s="9"/>
       <c r="U21" s="9"/>
     </row>
-    <row r="22" spans="1:21" ht="15" customHeight="1">
+    <row r="22" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
         <v>143</v>
       </c>
@@ -32068,7 +32068,7 @@
       <c r="T22" s="9"/>
       <c r="U22" s="9"/>
     </row>
-    <row r="23" spans="1:21" ht="15" customHeight="1">
+    <row r="23" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
         <v>143</v>
       </c>
@@ -32101,7 +32101,7 @@
       <c r="T23" s="9"/>
       <c r="U23" s="9"/>
     </row>
-    <row r="24" spans="1:21" ht="15" customHeight="1">
+    <row r="24" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
         <v>143</v>
       </c>
@@ -32134,7 +32134,7 @@
       <c r="T24" s="9"/>
       <c r="U24" s="9"/>
     </row>
-    <row r="25" spans="1:21" ht="15" customHeight="1">
+    <row r="25" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
         <v>143</v>
       </c>
@@ -32169,7 +32169,7 @@
       <c r="T25" s="9"/>
       <c r="U25" s="9"/>
     </row>
-    <row r="26" spans="1:21" ht="15" customHeight="1">
+    <row r="26" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
         <v>143</v>
       </c>
@@ -32204,7 +32204,7 @@
       <c r="T26" s="9"/>
       <c r="U26" s="9"/>
     </row>
-    <row r="27" spans="1:21" ht="15" customHeight="1">
+    <row r="27" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
         <v>143</v>
       </c>
@@ -32239,7 +32239,7 @@
       <c r="T27" s="9"/>
       <c r="U27" s="9"/>
     </row>
-    <row r="28" spans="1:21" ht="15" customHeight="1">
+    <row r="28" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
         <v>143</v>
       </c>
@@ -32270,7 +32270,7 @@
       <c r="T28" s="9"/>
       <c r="U28" s="9"/>
     </row>
-    <row r="29" spans="1:21" ht="15" customHeight="1">
+    <row r="29" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
         <v>143</v>
       </c>
@@ -32301,7 +32301,7 @@
       <c r="T29" s="9"/>
       <c r="U29" s="9"/>
     </row>
-    <row r="30" spans="1:21" ht="15" customHeight="1">
+    <row r="30" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
         <v>143</v>
       </c>
@@ -32332,7 +32332,7 @@
       <c r="T30" s="9"/>
       <c r="U30" s="9"/>
     </row>
-    <row r="31" spans="1:21" ht="15" customHeight="1">
+    <row r="31" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
         <v>143</v>
       </c>
@@ -32363,7 +32363,7 @@
       <c r="T31" s="9"/>
       <c r="U31" s="9"/>
     </row>
-    <row r="32" spans="1:21" ht="15" customHeight="1">
+    <row r="32" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
         <v>143</v>
       </c>
@@ -32394,7 +32394,7 @@
       <c r="T32" s="9"/>
       <c r="U32" s="9"/>
     </row>
-    <row r="33" spans="1:21" ht="15" customHeight="1">
+    <row r="33" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
         <v>143</v>
       </c>
@@ -32427,12 +32427,12 @@
       <c r="T33" s="9"/>
       <c r="U33" s="9"/>
     </row>
-    <row r="34" spans="1:21" ht="15" customHeight="1">
+    <row r="34" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>2103</v>
+        <v>2117</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>519</v>
@@ -32458,7 +32458,7 @@
       <c r="T34" s="9"/>
       <c r="U34" s="9"/>
     </row>
-    <row r="35" spans="1:21" ht="15" customHeight="1">
+    <row r="35" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
         <v>143</v>
       </c>
@@ -32491,7 +32491,7 @@
       <c r="T35" s="9"/>
       <c r="U35" s="9"/>
     </row>
-    <row r="36" spans="1:21" ht="15" customHeight="1">
+    <row r="36" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
         <v>143</v>
       </c>
@@ -32524,7 +32524,7 @@
       <c r="T36" s="9"/>
       <c r="U36" s="9"/>
     </row>
-    <row r="37" spans="1:21" ht="15" customHeight="1">
+    <row r="37" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="17" t="s">
         <v>143</v>
       </c>
@@ -32555,7 +32555,7 @@
       <c r="T37" s="9"/>
       <c r="U37" s="9"/>
     </row>
-    <row r="38" spans="1:21" ht="15" customHeight="1">
+    <row r="38" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="17" t="s">
         <v>143</v>
       </c>
@@ -32586,7 +32586,7 @@
       <c r="T38" s="9"/>
       <c r="U38" s="9"/>
     </row>
-    <row r="39" spans="1:21" ht="15" customHeight="1">
+    <row r="39" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="17" t="s">
         <v>143</v>
       </c>
@@ -32617,7 +32617,7 @@
       <c r="T39" s="9"/>
       <c r="U39" s="9"/>
     </row>
-    <row r="40" spans="1:21" ht="15" customHeight="1">
+    <row r="40" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="17" t="s">
         <v>143</v>
       </c>
@@ -32650,7 +32650,7 @@
       <c r="T40" s="9"/>
       <c r="U40" s="9"/>
     </row>
-    <row r="41" spans="1:21" ht="15" customHeight="1">
+    <row r="41" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="s">
         <v>143</v>
       </c>
@@ -32685,7 +32685,7 @@
       <c r="T41" s="9"/>
       <c r="U41" s="9"/>
     </row>
-    <row r="42" spans="1:21" ht="15" customHeight="1">
+    <row r="42" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="17" t="s">
         <v>143</v>
       </c>
@@ -32718,7 +32718,7 @@
       <c r="T42" s="9"/>
       <c r="U42" s="9"/>
     </row>
-    <row r="43" spans="1:21" ht="15" customHeight="1">
+    <row r="43" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="17" t="s">
         <v>143</v>
       </c>
@@ -32751,7 +32751,7 @@
       <c r="T43" s="9"/>
       <c r="U43" s="9"/>
     </row>
-    <row r="44" spans="1:21" ht="15" customHeight="1">
+    <row r="44" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="17" t="s">
         <v>143</v>
       </c>
@@ -32784,7 +32784,7 @@
       <c r="T44" s="9"/>
       <c r="U44" s="9"/>
     </row>
-    <row r="45" spans="1:21" ht="15" customHeight="1">
+    <row r="45" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="17" t="s">
         <v>143</v>
       </c>
@@ -32817,12 +32817,12 @@
       <c r="T45" s="9"/>
       <c r="U45" s="9"/>
     </row>
-    <row r="46" spans="1:21" ht="15" customHeight="1">
+    <row r="46" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="C46" s="10" t="s">
         <v>514</v>
@@ -32850,7 +32850,7 @@
       <c r="T46" s="9"/>
       <c r="U46" s="9"/>
     </row>
-    <row r="47" spans="1:21" ht="15" customHeight="1">
+    <row r="47" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="17" t="s">
         <v>143</v>
       </c>
@@ -32883,7 +32883,7 @@
       <c r="T47" s="9"/>
       <c r="U47" s="9"/>
     </row>
-    <row r="48" spans="1:21" ht="15" customHeight="1">
+    <row r="48" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="17" t="s">
         <v>143</v>
       </c>
@@ -32916,7 +32916,7 @@
       <c r="T48" s="9"/>
       <c r="U48" s="9"/>
     </row>
-    <row r="49" spans="1:21" ht="15" customHeight="1">
+    <row r="49" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="17" t="s">
         <v>143</v>
       </c>
@@ -32949,7 +32949,7 @@
       <c r="T49" s="9"/>
       <c r="U49" s="9"/>
     </row>
-    <row r="50" spans="1:21" ht="15" customHeight="1">
+    <row r="50" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="17" t="s">
         <v>143</v>
       </c>
@@ -32982,7 +32982,7 @@
       <c r="T50" s="9"/>
       <c r="U50" s="9"/>
     </row>
-    <row r="51" spans="1:21" ht="15" customHeight="1">
+    <row r="51" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="17" t="s">
         <v>143</v>
       </c>
@@ -33017,7 +33017,7 @@
       <c r="T51" s="9"/>
       <c r="U51" s="9"/>
     </row>
-    <row r="52" spans="1:21" ht="15" customHeight="1">
+    <row r="52" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="17" t="s">
         <v>143</v>
       </c>
@@ -33052,7 +33052,7 @@
       <c r="T52" s="9"/>
       <c r="U52" s="9"/>
     </row>
-    <row r="53" spans="1:21" ht="15" customHeight="1">
+    <row r="53" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="17" t="s">
         <v>143</v>
       </c>
@@ -33087,7 +33087,7 @@
       <c r="T53" s="9"/>
       <c r="U53" s="9"/>
     </row>
-    <row r="54" spans="1:21" ht="15" customHeight="1">
+    <row r="54" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="17" t="s">
         <v>143</v>
       </c>
@@ -33118,7 +33118,7 @@
       <c r="T54" s="9"/>
       <c r="U54" s="9"/>
     </row>
-    <row r="55" spans="1:21" ht="15" customHeight="1">
+    <row r="55" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="17" t="s">
         <v>143</v>
       </c>
@@ -33149,7 +33149,7 @@
       <c r="T55" s="9"/>
       <c r="U55" s="9"/>
     </row>
-    <row r="56" spans="1:21" ht="15" customHeight="1">
+    <row r="56" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="17" t="s">
         <v>143</v>
       </c>
@@ -33180,7 +33180,7 @@
       <c r="T56" s="9"/>
       <c r="U56" s="9"/>
     </row>
-    <row r="57" spans="1:21" ht="15" customHeight="1">
+    <row r="57" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="17" t="s">
         <v>143</v>
       </c>
@@ -33211,7 +33211,7 @@
       <c r="T57" s="9"/>
       <c r="U57" s="9"/>
     </row>
-    <row r="58" spans="1:21" ht="15" customHeight="1">
+    <row r="58" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="17" t="s">
         <v>143</v>
       </c>
@@ -33242,7 +33242,7 @@
       <c r="T58" s="9"/>
       <c r="U58" s="9"/>
     </row>
-    <row r="59" spans="1:21" ht="15" customHeight="1">
+    <row r="59" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="17" t="s">
         <v>143</v>
       </c>
@@ -33275,7 +33275,7 @@
       <c r="T59" s="9"/>
       <c r="U59" s="9"/>
     </row>
-    <row r="60" spans="1:21" ht="15" customHeight="1">
+    <row r="60" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="17" t="s">
         <v>143</v>
       </c>
@@ -33336,7 +33336,7 @@
       <c r="T60" s="9"/>
       <c r="U60" s="9"/>
     </row>
-    <row r="61" spans="1:21" ht="15" customHeight="1">
+    <row r="61" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="17" t="s">
         <v>144</v>
       </c>
@@ -33397,7 +33397,7 @@
       <c r="T61" s="9"/>
       <c r="U61" s="9"/>
     </row>
-    <row r="62" spans="1:21" ht="15" customHeight="1">
+    <row r="62" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="17" t="s">
         <v>144</v>
       </c>
@@ -33458,7 +33458,7 @@
       <c r="T62" s="9"/>
       <c r="U62" s="9"/>
     </row>
-    <row r="63" spans="1:21" ht="15" customHeight="1">
+    <row r="63" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="17" t="s">
         <v>144</v>
       </c>
@@ -33519,7 +33519,7 @@
       <c r="T63" s="9"/>
       <c r="U63" s="9"/>
     </row>
-    <row r="64" spans="1:21">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64" s="17" t="s">
         <v>144</v>
       </c>
@@ -33580,7 +33580,7 @@
       <c r="T64" s="9"/>
       <c r="U64" s="9"/>
     </row>
-    <row r="65" spans="1:21">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65" s="17" t="s">
         <v>144</v>
       </c>
@@ -33641,7 +33641,7 @@
       <c r="T65" s="9"/>
       <c r="U65" s="9"/>
     </row>
-    <row r="66" spans="1:21">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66" s="17" t="s">
         <v>144</v>
       </c>
@@ -33702,7 +33702,7 @@
       <c r="T66" s="9"/>
       <c r="U66" s="9"/>
     </row>
-    <row r="67" spans="1:21">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67" s="17" t="s">
         <v>144</v>
       </c>
@@ -33763,7 +33763,7 @@
       <c r="T67" s="9"/>
       <c r="U67" s="9"/>
     </row>
-    <row r="68" spans="1:21">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68" s="17" t="s">
         <v>144</v>
       </c>
@@ -33824,7 +33824,7 @@
       <c r="T68" s="9"/>
       <c r="U68" s="9"/>
     </row>
-    <row r="69" spans="1:21" ht="45">
+    <row r="69" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" s="17" t="s">
         <v>144</v>
       </c>
@@ -33885,7 +33885,7 @@
       <c r="T69" s="9"/>
       <c r="U69" s="9"/>
     </row>
-    <row r="70" spans="1:21">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A70" s="17" t="s">
         <v>144</v>
       </c>
@@ -33946,7 +33946,7 @@
       <c r="T70" s="9"/>
       <c r="U70" s="9"/>
     </row>
-    <row r="71" spans="1:21" ht="30">
+    <row r="71" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="17" t="s">
         <v>144</v>
       </c>
@@ -34007,7 +34007,7 @@
       <c r="T71" s="9"/>
       <c r="U71" s="9"/>
     </row>
-    <row r="72" spans="1:21" ht="45">
+    <row r="72" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="17" t="s">
         <v>144</v>
       </c>
@@ -34068,7 +34068,7 @@
       <c r="T72" s="9"/>
       <c r="U72" s="9"/>
     </row>
-    <row r="73" spans="1:21">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A73" s="17" t="s">
         <v>144</v>
       </c>
@@ -34129,7 +34129,7 @@
       <c r="T73" s="9"/>
       <c r="U73" s="9"/>
     </row>
-    <row r="74" spans="1:21">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A74" s="17" t="s">
         <v>144</v>
       </c>
@@ -34190,7 +34190,7 @@
       <c r="T74" s="9"/>
       <c r="U74" s="9"/>
     </row>
-    <row r="75" spans="1:21">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A75" s="17" t="s">
         <v>144</v>
       </c>
@@ -34251,7 +34251,7 @@
       <c r="T75" s="9"/>
       <c r="U75" s="9"/>
     </row>
-    <row r="76" spans="1:21" ht="30">
+    <row r="76" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="17" t="s">
         <v>144</v>
       </c>
@@ -34312,7 +34312,7 @@
       <c r="T76" s="9"/>
       <c r="U76" s="9"/>
     </row>
-    <row r="77" spans="1:21" ht="43.5" customHeight="1">
+    <row r="77" spans="1:21" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="17" t="s">
         <v>144</v>
       </c>
@@ -34373,7 +34373,7 @@
       <c r="T77" s="9"/>
       <c r="U77" s="9"/>
     </row>
-    <row r="78" spans="1:21" ht="43.5" customHeight="1">
+    <row r="78" spans="1:21" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="17" t="s">
         <v>144</v>
       </c>
@@ -34434,7 +34434,7 @@
       <c r="T78" s="9"/>
       <c r="U78" s="9"/>
     </row>
-    <row r="79" spans="1:21" ht="45">
+    <row r="79" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A79" s="17" t="s">
         <v>144</v>
       </c>
@@ -34495,7 +34495,7 @@
       <c r="T79" s="9"/>
       <c r="U79" s="9"/>
     </row>
-    <row r="80" spans="1:21" ht="45">
+    <row r="80" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A80" s="17" t="s">
         <v>144</v>
       </c>
@@ -34556,7 +34556,7 @@
       <c r="T80" s="9"/>
       <c r="U80" s="9"/>
     </row>
-    <row r="81" spans="1:21" ht="45">
+    <row r="81" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A81" s="17" t="s">
         <v>144</v>
       </c>
@@ -34617,7 +34617,7 @@
       <c r="T81" s="9"/>
       <c r="U81" s="9"/>
     </row>
-    <row r="82" spans="1:21">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A82" s="17" t="s">
         <v>144</v>
       </c>
@@ -34678,7 +34678,7 @@
       <c r="T82" s="9"/>
       <c r="U82" s="9"/>
     </row>
-    <row r="83" spans="1:21" ht="60">
+    <row r="83" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A83" s="17" t="s">
         <v>144</v>
       </c>
@@ -34739,7 +34739,7 @@
       <c r="T83" s="9"/>
       <c r="U83" s="9"/>
     </row>
-    <row r="84" spans="1:21" ht="30">
+    <row r="84" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="17" t="s">
         <v>144</v>
       </c>
@@ -34800,7 +34800,7 @@
       <c r="T84" s="9"/>
       <c r="U84" s="9"/>
     </row>
-    <row r="85" spans="1:21" ht="30">
+    <row r="85" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="17" t="s">
         <v>144</v>
       </c>
@@ -34861,7 +34861,7 @@
       <c r="T85" s="9"/>
       <c r="U85" s="9"/>
     </row>
-    <row r="86" spans="1:21">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A86" s="17" t="s">
         <v>144</v>
       </c>
@@ -34922,7 +34922,7 @@
       <c r="T86" s="9"/>
       <c r="U86" s="9"/>
     </row>
-    <row r="87" spans="1:21" ht="80.25" customHeight="1">
+    <row r="87" spans="1:21" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="17" t="s">
         <v>143</v>
       </c>
@@ -34981,7 +34981,7 @@
       <c r="T87" s="9"/>
       <c r="U87" s="9"/>
     </row>
-    <row r="88" spans="1:21" ht="67.5" customHeight="1">
+    <row r="88" spans="1:21" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="17" t="s">
         <v>143</v>
       </c>
@@ -35040,7 +35040,7 @@
       <c r="T88" s="9"/>
       <c r="U88" s="9"/>
     </row>
-    <row r="89" spans="1:21" ht="30">
+    <row r="89" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="17" t="s">
         <v>143</v>
       </c>
@@ -35101,7 +35101,7 @@
       <c r="T89" s="9"/>
       <c r="U89" s="9"/>
     </row>
-    <row r="90" spans="1:21" ht="238.5" customHeight="1">
+    <row r="90" spans="1:21" ht="238.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="17" t="s">
         <v>143</v>
       </c>
@@ -35162,7 +35162,7 @@
       <c r="T90" s="9"/>
       <c r="U90" s="9"/>
     </row>
-    <row r="91" spans="1:21" ht="238.5" customHeight="1">
+    <row r="91" spans="1:21" ht="238.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="17" t="s">
         <v>143</v>
       </c>
@@ -35223,7 +35223,7 @@
       <c r="T91" s="9"/>
       <c r="U91" s="9"/>
     </row>
-    <row r="92" spans="1:21" ht="238.5" customHeight="1">
+    <row r="92" spans="1:21" ht="238.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="17" t="s">
         <v>143</v>
       </c>
@@ -35284,7 +35284,7 @@
       <c r="T92" s="9"/>
       <c r="U92" s="9"/>
     </row>
-    <row r="93" spans="1:21" ht="45">
+    <row r="93" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A93" s="17" t="s">
         <v>143</v>
       </c>
@@ -35345,7 +35345,7 @@
       <c r="T93" s="9"/>
       <c r="U93" s="9"/>
     </row>
-    <row r="94" spans="1:21">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A94" s="17" t="s">
         <v>143</v>
       </c>
@@ -35406,7 +35406,7 @@
       <c r="T94" s="9"/>
       <c r="U94" s="9"/>
     </row>
-    <row r="95" spans="1:21">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A95" s="17" t="s">
         <v>143</v>
       </c>
@@ -35467,7 +35467,7 @@
       <c r="T95" s="9"/>
       <c r="U95" s="9"/>
     </row>
-    <row r="96" spans="1:21" ht="30">
+    <row r="96" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="17" t="s">
         <v>143</v>
       </c>
@@ -35528,7 +35528,7 @@
       <c r="T96" s="9"/>
       <c r="U96" s="9"/>
     </row>
-    <row r="97" spans="1:21">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A97" s="17" t="s">
         <v>143</v>
       </c>
@@ -35589,7 +35589,7 @@
       <c r="T97" s="9"/>
       <c r="U97" s="9"/>
     </row>
-    <row r="98" spans="1:21" ht="45">
+    <row r="98" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A98" s="17" t="s">
         <v>143</v>
       </c>
@@ -35650,7 +35650,7 @@
       <c r="T98" s="9"/>
       <c r="U98" s="9"/>
     </row>
-    <row r="99" spans="1:21">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A99" s="17" t="s">
         <v>143</v>
       </c>
@@ -35711,7 +35711,7 @@
       <c r="T99" s="9"/>
       <c r="U99" s="9"/>
     </row>
-    <row r="100" spans="1:21" ht="45">
+    <row r="100" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A100" s="17" t="s">
         <v>143</v>
       </c>
@@ -35772,7 +35772,7 @@
       <c r="T100" s="9"/>
       <c r="U100" s="9"/>
     </row>
-    <row r="101" spans="1:21" ht="30">
+    <row r="101" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="17" t="s">
         <v>143</v>
       </c>
@@ -35833,7 +35833,7 @@
       <c r="T101" s="9"/>
       <c r="U101" s="9"/>
     </row>
-    <row r="102" spans="1:21" ht="30">
+    <row r="102" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="17" t="s">
         <v>143</v>
       </c>
@@ -35894,7 +35894,7 @@
       <c r="T102" s="9"/>
       <c r="U102" s="9"/>
     </row>
-    <row r="103" spans="1:21" ht="30">
+    <row r="103" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="17" t="s">
         <v>143</v>
       </c>
@@ -35955,7 +35955,7 @@
       <c r="T103" s="9"/>
       <c r="U103" s="9"/>
     </row>
-    <row r="104" spans="1:21" ht="30">
+    <row r="104" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="17" t="s">
         <v>143</v>
       </c>
@@ -36016,7 +36016,7 @@
       <c r="T104" s="9"/>
       <c r="U104" s="9"/>
     </row>
-    <row r="105" spans="1:21" ht="45">
+    <row r="105" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A105" s="17" t="s">
         <v>143</v>
       </c>
@@ -36077,7 +36077,7 @@
       <c r="T105" s="9"/>
       <c r="U105" s="9"/>
     </row>
-    <row r="106" spans="1:21" ht="30">
+    <row r="106" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="17" t="s">
         <v>143</v>
       </c>
@@ -36138,7 +36138,7 @@
       <c r="T106" s="9"/>
       <c r="U106" s="9"/>
     </row>
-    <row r="107" spans="1:21" ht="30">
+    <row r="107" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="17" t="s">
         <v>143</v>
       </c>
@@ -36199,7 +36199,7 @@
       <c r="T107" s="9"/>
       <c r="U107" s="9"/>
     </row>
-    <row r="108" spans="1:21" ht="30">
+    <row r="108" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="17" t="s">
         <v>143</v>
       </c>
@@ -36260,7 +36260,7 @@
       <c r="T108" s="9"/>
       <c r="U108" s="9"/>
     </row>
-    <row r="109" spans="1:21" ht="210">
+    <row r="109" spans="1:21" ht="210" x14ac:dyDescent="0.25">
       <c r="A109" s="17" t="s">
         <v>143</v>
       </c>
@@ -36321,7 +36321,7 @@
       <c r="T109" s="9"/>
       <c r="U109" s="9"/>
     </row>
-    <row r="110" spans="1:21" ht="30">
+    <row r="110" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="17" t="s">
         <v>143</v>
       </c>
@@ -36382,7 +36382,7 @@
       <c r="T110" s="9"/>
       <c r="U110" s="9"/>
     </row>
-    <row r="111" spans="1:21" ht="30">
+    <row r="111" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="17" t="s">
         <v>143</v>
       </c>
@@ -36443,7 +36443,7 @@
       <c r="T111" s="9"/>
       <c r="U111" s="9"/>
     </row>
-    <row r="112" spans="1:21" ht="30">
+    <row r="112" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="17" t="s">
         <v>143</v>
       </c>
@@ -36504,7 +36504,7 @@
       <c r="T112" s="9"/>
       <c r="U112" s="9"/>
     </row>
-    <row r="113" spans="1:21">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A113" s="17" t="s">
         <v>143</v>
       </c>
@@ -36565,7 +36565,7 @@
       <c r="T113" s="9"/>
       <c r="U113" s="9"/>
     </row>
-    <row r="114" spans="1:21" ht="45">
+    <row r="114" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A114" s="17" t="s">
         <v>143</v>
       </c>
@@ -36626,7 +36626,7 @@
       <c r="T114" s="9"/>
       <c r="U114" s="9"/>
     </row>
-    <row r="115" spans="1:21">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A115" s="17" t="s">
         <v>143</v>
       </c>
@@ -36687,7 +36687,7 @@
       <c r="T115" s="9"/>
       <c r="U115" s="9"/>
     </row>
-    <row r="116" spans="1:21" ht="45">
+    <row r="116" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A116" s="17" t="s">
         <v>143</v>
       </c>
@@ -36748,7 +36748,7 @@
       <c r="T116" s="9"/>
       <c r="U116" s="9"/>
     </row>
-    <row r="117" spans="1:21">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A117" s="17" t="s">
         <v>143</v>
       </c>
@@ -36809,7 +36809,7 @@
       <c r="T117" s="9"/>
       <c r="U117" s="9"/>
     </row>
-    <row r="118" spans="1:21">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A118" s="17" t="s">
         <v>143</v>
       </c>
@@ -36870,7 +36870,7 @@
       <c r="T118" s="9"/>
       <c r="U118" s="9"/>
     </row>
-    <row r="119" spans="1:21" ht="30">
+    <row r="119" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="17" t="s">
         <v>143</v>
       </c>
@@ -36931,7 +36931,7 @@
       <c r="T119" s="9"/>
       <c r="U119" s="9"/>
     </row>
-    <row r="120" spans="1:21">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A120" s="17" t="s">
         <v>143</v>
       </c>
@@ -36992,7 +36992,7 @@
       <c r="T120" s="9"/>
       <c r="U120" s="9"/>
     </row>
-    <row r="121" spans="1:21">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A121" s="17" t="s">
         <v>143</v>
       </c>
@@ -37053,7 +37053,7 @@
       <c r="T121" s="9"/>
       <c r="U121" s="9"/>
     </row>
-    <row r="122" spans="1:21">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A122" s="17" t="s">
         <v>143</v>
       </c>
@@ -37114,7 +37114,7 @@
       <c r="T122" s="9"/>
       <c r="U122" s="9"/>
     </row>
-    <row r="123" spans="1:21" ht="30">
+    <row r="123" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="17" t="s">
         <v>143</v>
       </c>
@@ -37175,7 +37175,7 @@
       <c r="T123" s="9"/>
       <c r="U123" s="9"/>
     </row>
-    <row r="124" spans="1:21">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A124" s="17" t="s">
         <v>143</v>
       </c>
@@ -37236,7 +37236,7 @@
       <c r="T124" s="9"/>
       <c r="U124" s="9"/>
     </row>
-    <row r="125" spans="1:21">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A125" s="17" t="s">
         <v>143</v>
       </c>
@@ -37297,7 +37297,7 @@
       <c r="T125" s="9"/>
       <c r="U125" s="9"/>
     </row>
-    <row r="126" spans="1:21" ht="241.5" customHeight="1">
+    <row r="126" spans="1:21" ht="241.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="17" t="s">
         <v>143</v>
       </c>
@@ -37358,7 +37358,7 @@
       <c r="T126" s="9"/>
       <c r="U126" s="9"/>
     </row>
-    <row r="127" spans="1:21">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A127" s="17" t="s">
         <v>143</v>
       </c>
@@ -37419,7 +37419,7 @@
       <c r="T127" s="9"/>
       <c r="U127" s="9"/>
     </row>
-    <row r="128" spans="1:21">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A128" s="17" t="s">
         <v>143</v>
       </c>
@@ -37480,7 +37480,7 @@
       <c r="T128" s="9"/>
       <c r="U128" s="9"/>
     </row>
-    <row r="129" spans="1:21" ht="210">
+    <row r="129" spans="1:21" ht="210" x14ac:dyDescent="0.25">
       <c r="A129" s="17" t="s">
         <v>143</v>
       </c>
@@ -37541,7 +37541,7 @@
       <c r="T129" s="9"/>
       <c r="U129" s="9"/>
     </row>
-    <row r="130" spans="1:21" ht="30">
+    <row r="130" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="17" t="s">
         <v>143</v>
       </c>
@@ -37602,7 +37602,7 @@
       <c r="T130" s="9"/>
       <c r="U130" s="9"/>
     </row>
-    <row r="131" spans="1:21">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A131" s="17" t="s">
         <v>143</v>
       </c>
@@ -37663,7 +37663,7 @@
       <c r="T131" s="9"/>
       <c r="U131" s="9"/>
     </row>
-    <row r="132" spans="1:21" ht="30">
+    <row r="132" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="17" t="s">
         <v>143</v>
       </c>
@@ -37724,7 +37724,7 @@
       <c r="T132" s="9"/>
       <c r="U132" s="9"/>
     </row>
-    <row r="133" spans="1:21">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A133" s="17" t="s">
         <v>143</v>
       </c>
@@ -37785,7 +37785,7 @@
       <c r="T133" s="9"/>
       <c r="U133" s="9"/>
     </row>
-    <row r="134" spans="1:21" ht="210">
+    <row r="134" spans="1:21" ht="210" x14ac:dyDescent="0.25">
       <c r="A134" s="17" t="s">
         <v>143</v>
       </c>
@@ -37846,7 +37846,7 @@
       <c r="T134" s="9"/>
       <c r="U134" s="9"/>
     </row>
-    <row r="135" spans="1:21" ht="30">
+    <row r="135" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="17" t="s">
         <v>143</v>
       </c>
@@ -37907,7 +37907,7 @@
       <c r="T135" s="9"/>
       <c r="U135" s="9"/>
     </row>
-    <row r="136" spans="1:21" ht="30">
+    <row r="136" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A136" s="17" t="s">
         <v>143</v>
       </c>
@@ -37968,7 +37968,7 @@
       <c r="T136" s="9"/>
       <c r="U136" s="9"/>
     </row>
-    <row r="137" spans="1:21">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A137" s="17" t="s">
         <v>143</v>
       </c>
@@ -38029,7 +38029,7 @@
       <c r="T137" s="9"/>
       <c r="U137" s="9"/>
     </row>
-    <row r="138" spans="1:21">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A138" s="17" t="s">
         <v>143</v>
       </c>
@@ -38090,7 +38090,7 @@
       <c r="T138" s="9"/>
       <c r="U138" s="9"/>
     </row>
-    <row r="139" spans="1:21">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A139" s="17" t="s">
         <v>143</v>
       </c>
@@ -38151,7 +38151,7 @@
       <c r="T139" s="9"/>
       <c r="U139" s="9"/>
     </row>
-    <row r="140" spans="1:21">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A140" s="17" t="s">
         <v>143</v>
       </c>
@@ -38212,7 +38212,7 @@
       <c r="T140" s="9"/>
       <c r="U140" s="9"/>
     </row>
-    <row r="141" spans="1:21">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A141" s="17" t="s">
         <v>143</v>
       </c>
@@ -38273,7 +38273,7 @@
       <c r="T141" s="9"/>
       <c r="U141" s="9"/>
     </row>
-    <row r="142" spans="1:21">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A142" s="17" t="s">
         <v>143</v>
       </c>
@@ -38334,7 +38334,7 @@
       <c r="T142" s="9"/>
       <c r="U142" s="9"/>
     </row>
-    <row r="143" spans="1:21">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A143" s="17" t="s">
         <v>143</v>
       </c>
@@ -38395,7 +38395,7 @@
       <c r="T143" s="9"/>
       <c r="U143" s="9"/>
     </row>
-    <row r="144" spans="1:21" ht="45">
+    <row r="144" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A144" s="17" t="s">
         <v>143</v>
       </c>
@@ -38456,15 +38456,15 @@
       <c r="T144" s="9"/>
       <c r="U144" s="9"/>
     </row>
-    <row r="145" spans="1:21" ht="135">
+    <row r="145" spans="1:21" ht="135" x14ac:dyDescent="0.25">
       <c r="A145" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B145" s="17" t="s">
-        <v>2109</v>
+        <v>2118</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>2116</v>
+        <v>2113</v>
       </c>
       <c r="D145" s="9"/>
       <c r="E145" s="9"/>
@@ -38477,7 +38477,7 @@
       <c r="L145" s="19"/>
       <c r="M145" s="9"/>
       <c r="N145" s="10" t="s">
-        <v>2118</v>
+        <v>2115</v>
       </c>
       <c r="O145" s="9"/>
       <c r="P145" s="9"/>
@@ -38487,7 +38487,7 @@
       <c r="T145" s="9"/>
       <c r="U145" s="9"/>
     </row>
-    <row r="146" spans="1:21" ht="409.5">
+    <row r="146" spans="1:21" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A146" s="17" t="s">
         <v>143</v>
       </c>
@@ -38521,7 +38521,7 @@
       <c r="T146" s="9"/>
       <c r="U146" s="9"/>
     </row>
-    <row r="147" spans="1:21" ht="409.5" customHeight="1">
+    <row r="147" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="17" t="s">
         <v>143</v>
       </c>
@@ -38555,7 +38555,7 @@
       <c r="T147" s="9"/>
       <c r="U147" s="9"/>
     </row>
-    <row r="148" spans="1:21" ht="409.5" customHeight="1">
+    <row r="148" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="17" t="s">
         <v>143</v>
       </c>
@@ -38587,7 +38587,7 @@
       <c r="T148" s="9"/>
       <c r="U148" s="9"/>
     </row>
-    <row r="149" spans="1:21" ht="409.5" customHeight="1">
+    <row r="149" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="17" t="s">
         <v>143</v>
       </c>
@@ -38619,7 +38619,7 @@
       <c r="T149" s="9"/>
       <c r="U149" s="9"/>
     </row>
-    <row r="150" spans="1:21" ht="409.5" customHeight="1">
+    <row r="150" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="17" t="s">
         <v>143</v>
       </c>
@@ -38651,7 +38651,7 @@
       <c r="T150" s="9"/>
       <c r="U150" s="9"/>
     </row>
-    <row r="151" spans="1:21" ht="409.5" customHeight="1">
+    <row r="151" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="17" t="s">
         <v>143</v>
       </c>
@@ -38685,7 +38685,7 @@
       <c r="T151" s="9"/>
       <c r="U151" s="9"/>
     </row>
-    <row r="152" spans="1:21" ht="409.5" customHeight="1">
+    <row r="152" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="17" t="s">
         <v>143</v>
       </c>
@@ -38721,7 +38721,7 @@
       <c r="T152" s="9"/>
       <c r="U152" s="9"/>
     </row>
-    <row r="153" spans="1:21" ht="409.5" customHeight="1">
+    <row r="153" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="17" t="s">
         <v>143</v>
       </c>
@@ -38755,7 +38755,7 @@
       <c r="T153" s="9"/>
       <c r="U153" s="9"/>
     </row>
-    <row r="154" spans="1:21" ht="409.5" customHeight="1">
+    <row r="154" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="17" t="s">
         <v>143</v>
       </c>
@@ -38789,7 +38789,7 @@
       <c r="T154" s="9"/>
       <c r="U154" s="9"/>
     </row>
-    <row r="155" spans="1:21" ht="409.5" customHeight="1">
+    <row r="155" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="17" t="s">
         <v>143</v>
       </c>
@@ -38823,7 +38823,7 @@
       <c r="T155" s="9"/>
       <c r="U155" s="9"/>
     </row>
-    <row r="156" spans="1:21" ht="409.5" customHeight="1">
+    <row r="156" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="17" t="s">
         <v>143</v>
       </c>
@@ -38857,7 +38857,7 @@
       <c r="T156" s="9"/>
       <c r="U156" s="9"/>
     </row>
-    <row r="157" spans="1:21" ht="409.5" customHeight="1">
+    <row r="157" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="17" t="s">
         <v>143</v>
       </c>
@@ -38891,7 +38891,7 @@
       <c r="T157" s="9"/>
       <c r="U157" s="9"/>
     </row>
-    <row r="158" spans="1:21" ht="409.5" customHeight="1">
+    <row r="158" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="17" t="s">
         <v>143</v>
       </c>
@@ -38925,7 +38925,7 @@
       <c r="T158" s="9"/>
       <c r="U158" s="9"/>
     </row>
-    <row r="159" spans="1:21" ht="409.5" customHeight="1">
+    <row r="159" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="17" t="s">
         <v>143</v>
       </c>
@@ -38959,7 +38959,7 @@
       <c r="T159" s="9"/>
       <c r="U159" s="9"/>
     </row>
-    <row r="160" spans="1:21" ht="409.5" customHeight="1">
+    <row r="160" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="17" t="s">
         <v>143</v>
       </c>
@@ -38993,7 +38993,7 @@
       <c r="T160" s="9"/>
       <c r="U160" s="9"/>
     </row>
-    <row r="161" spans="1:21" ht="409.5" customHeight="1">
+    <row r="161" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="17" t="s">
         <v>143</v>
       </c>
@@ -39027,7 +39027,7 @@
       <c r="T161" s="9"/>
       <c r="U161" s="9"/>
     </row>
-    <row r="162" spans="1:21" ht="409.5" customHeight="1">
+    <row r="162" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="17" t="s">
         <v>143</v>
       </c>
@@ -39063,7 +39063,7 @@
       <c r="T162" s="9"/>
       <c r="U162" s="9"/>
     </row>
-    <row r="163" spans="1:21" ht="409.5" customHeight="1">
+    <row r="163" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="17" t="s">
         <v>143</v>
       </c>
@@ -39099,7 +39099,7 @@
       <c r="T163" s="9"/>
       <c r="U163" s="9"/>
     </row>
-    <row r="164" spans="1:21" ht="409.5" customHeight="1">
+    <row r="164" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="17" t="s">
         <v>143</v>
       </c>
@@ -39135,7 +39135,7 @@
       <c r="T164" s="9"/>
       <c r="U164" s="9"/>
     </row>
-    <row r="165" spans="1:21" ht="409.5" customHeight="1">
+    <row r="165" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="17" t="s">
         <v>143</v>
       </c>
@@ -39167,7 +39167,7 @@
       <c r="T165" s="9"/>
       <c r="U165" s="9"/>
     </row>
-    <row r="166" spans="1:21" ht="409.5" customHeight="1">
+    <row r="166" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="17" t="s">
         <v>143</v>
       </c>
@@ -39199,7 +39199,7 @@
       <c r="T166" s="9"/>
       <c r="U166" s="9"/>
     </row>
-    <row r="167" spans="1:21" ht="409.5" customHeight="1">
+    <row r="167" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="17" t="s">
         <v>143</v>
       </c>
@@ -39231,7 +39231,7 @@
       <c r="T167" s="9"/>
       <c r="U167" s="9"/>
     </row>
-    <row r="168" spans="1:21" ht="409.5" customHeight="1">
+    <row r="168" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="17" t="s">
         <v>143</v>
       </c>
@@ -39263,7 +39263,7 @@
       <c r="T168" s="9"/>
       <c r="U168" s="9"/>
     </row>
-    <row r="169" spans="1:21" ht="409.5" customHeight="1">
+    <row r="169" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="17" t="s">
         <v>143</v>
       </c>
@@ -39295,7 +39295,7 @@
       <c r="T169" s="9"/>
       <c r="U169" s="9"/>
     </row>
-    <row r="170" spans="1:21" ht="405">
+    <row r="170" spans="1:21" ht="405" x14ac:dyDescent="0.25">
       <c r="A170" s="17" t="s">
         <v>143</v>
       </c>
@@ -39328,7 +39328,7 @@
       <c r="T170" s="9"/>
       <c r="U170" s="9"/>
     </row>
-    <row r="171" spans="1:21" s="2" customFormat="1">
+    <row r="171" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="24" t="s">
         <v>143</v>
       </c>
@@ -39384,7 +39384,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="172" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="172" spans="1:21" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A172" s="24" t="s">
         <v>143</v>
       </c>
@@ -39399,7 +39399,7 @@
       </c>
       <c r="H172" s="3"/>
     </row>
-    <row r="173" spans="1:21">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A173" s="17" t="s">
         <v>143</v>
       </c>
@@ -39458,7 +39458,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="174" spans="1:21">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A174" s="17" t="s">
         <v>143</v>
       </c>
@@ -39517,7 +39517,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="175" spans="1:21">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A175" s="17" t="s">
         <v>143</v>
       </c>
@@ -39697,7 +39697,7 @@
       <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" style="2" customWidth="1"/>
     <col min="2" max="2" width="47.7109375" style="3" customWidth="1"/>
@@ -39709,7 +39709,7 @@
     <col min="11" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>707</v>
       </c>
@@ -39741,7 +39741,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="409.5" customHeight="1">
+    <row r="2" spans="1:10" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>1465</v>
       </c>
@@ -39770,34 +39770,34 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="409.5" customHeight="1">
+    <row r="3" spans="1:10" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>2108</v>
+        <v>2116</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>2110</v>
+        <v>2107</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="16" t="s">
+        <v>2108</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>2110</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>2109</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>2110</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>2111</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>2113</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>2112</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>2113</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>2114</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>1482</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="90">
+    <row r="4" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1980</v>
       </c>
@@ -39829,7 +39829,7 @@
         <v>1889</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="90">
+    <row r="5" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>1981</v>
       </c>
@@ -39861,7 +39861,7 @@
         <v>1885</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="60">
+    <row r="6" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>1982</v>
       </c>
@@ -39893,7 +39893,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="75">
+    <row r="7" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>1983</v>
       </c>
@@ -39925,7 +39925,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="90.75" customHeight="1">
+    <row r="8" spans="1:10" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>1984</v>
       </c>
@@ -39957,7 +39957,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="105">
+    <row r="9" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>1985</v>
       </c>
@@ -39989,7 +39989,7 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="180">
+    <row r="10" spans="1:10" ht="180" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>1986</v>
       </c>
@@ -40021,7 +40021,7 @@
         <v>1823</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="75">
+    <row r="11" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>1987</v>
       </c>
@@ -40053,7 +40053,7 @@
         <v>1893</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="75">
+    <row r="12" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>1988</v>
       </c>
@@ -40085,7 +40085,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="90">
+    <row r="13" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>1989</v>
       </c>
@@ -40117,7 +40117,7 @@
         <v>1891</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="105">
+    <row r="14" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>1990</v>
       </c>
@@ -40149,15 +40149,15 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="75">
+    <row r="15" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>759</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>1164</v>
@@ -40166,7 +40166,7 @@
         <v>1500</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>1163</v>
@@ -40181,7 +40181,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="150">
+    <row r="16" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>1991</v>
       </c>
@@ -40213,7 +40213,7 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="75">
+    <row r="17" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>1992</v>
       </c>
@@ -40245,7 +40245,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="150">
+    <row r="18" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>1993</v>
       </c>
@@ -40277,7 +40277,7 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="75">
+    <row r="19" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>1994</v>
       </c>
@@ -40309,7 +40309,7 @@
         <v>1894</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="135">
+    <row r="20" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>1995</v>
       </c>
@@ -40341,7 +40341,7 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="135">
+    <row r="21" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>2043</v>
       </c>
@@ -40373,7 +40373,7 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="135">
+    <row r="22" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>1996</v>
       </c>
@@ -40405,7 +40405,7 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="120">
+    <row r="23" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>1997</v>
       </c>
@@ -40437,7 +40437,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="75">
+    <row r="24" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>1998</v>
       </c>
@@ -40469,7 +40469,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="90">
+    <row r="25" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>1999</v>
       </c>
@@ -40501,7 +40501,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="60">
+    <row r="26" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>2000</v>
       </c>
@@ -40533,7 +40533,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="60">
+    <row r="27" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>2001</v>
       </c>
@@ -40565,7 +40565,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="120">
+    <row r="28" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>2002</v>
       </c>
@@ -40614,7 +40614,7 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.28515625" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" customWidth="1"/>
@@ -40623,7 +40623,7 @@
     <col min="6" max="6" width="78.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>136</v>
       </c>
@@ -40644,7 +40644,7 @@
       </c>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>334</v>
       </c>
@@ -40661,7 +40661,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>334</v>
       </c>
@@ -40681,7 +40681,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>334</v>
       </c>
@@ -40701,7 +40701,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>334</v>
       </c>
@@ -40721,7 +40721,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>321</v>
       </c>
@@ -40738,7 +40738,7 @@
         <v>1555</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>321</v>
       </c>
@@ -40758,7 +40758,7 @@
         <v>1555</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>321</v>
       </c>
@@ -40778,7 +40778,7 @@
         <v>1555</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>321</v>
       </c>
@@ -40798,7 +40798,7 @@
         <v>1555</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>813</v>
       </c>
@@ -40815,7 +40815,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>813</v>
       </c>
@@ -40835,7 +40835,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>813</v>
       </c>
@@ -40855,7 +40855,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>813</v>
       </c>
@@ -40875,7 +40875,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>164</v>
       </c>
@@ -40892,7 +40892,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>164</v>
       </c>
@@ -40912,7 +40912,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>164</v>
       </c>
@@ -40932,7 +40932,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>164</v>
       </c>
@@ -40952,7 +40952,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>215</v>
       </c>
@@ -40969,7 +40969,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>215</v>
       </c>
@@ -40989,7 +40989,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>215</v>
       </c>
@@ -41009,7 +41009,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>215</v>
       </c>
@@ -41029,7 +41029,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F22" s="44"/>
     </row>
   </sheetData>
@@ -41049,7 +41049,7 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" style="2" customWidth="1"/>
     <col min="2" max="3" width="39" style="3" hidden="1" customWidth="1"/>
@@ -41059,7 +41059,7 @@
     <col min="22" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>707</v>
       </c>
@@ -41094,7 +41094,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="78" customHeight="1">
+    <row r="3" spans="1:21" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="21"/>
       <c r="B3" s="29"/>
       <c r="C3" s="29"/>
@@ -41149,7 +41149,7 @@
       </c>
       <c r="U3" s="23"/>
     </row>
-    <row r="4" spans="1:21" ht="15" customHeight="1">
+    <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>182</v>
       </c>
@@ -41214,7 +41214,7 @@
       </c>
       <c r="U4" s="35"/>
     </row>
-    <row r="5" spans="1:21" ht="15" customHeight="1">
+    <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="36" t="s">
         <v>177</v>
       </c>
@@ -41279,7 +41279,7 @@
       </c>
       <c r="U5" s="38"/>
     </row>
-    <row r="6" spans="1:21" ht="15" customHeight="1">
+    <row r="6" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="36" t="s">
         <v>183</v>
       </c>
@@ -41344,7 +41344,7 @@
       </c>
       <c r="U6" s="38"/>
     </row>
-    <row r="7" spans="1:21" ht="15" customHeight="1">
+    <row r="7" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
         <v>184</v>
       </c>
@@ -41409,7 +41409,7 @@
       </c>
       <c r="U7" s="38"/>
     </row>
-    <row r="8" spans="1:21" ht="15" customHeight="1">
+    <row r="8" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="36" t="s">
         <v>185</v>
       </c>
@@ -41474,7 +41474,7 @@
       </c>
       <c r="U8" s="38"/>
     </row>
-    <row r="9" spans="1:21" ht="15" customHeight="1">
+    <row r="9" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
         <v>186</v>
       </c>
@@ -41539,7 +41539,7 @@
       </c>
       <c r="U9" s="38"/>
     </row>
-    <row r="10" spans="1:21" ht="15" customHeight="1">
+    <row r="10" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="36" t="s">
         <v>187</v>
       </c>
@@ -41604,7 +41604,7 @@
       </c>
       <c r="U10" s="38"/>
     </row>
-    <row r="11" spans="1:21" ht="15" customHeight="1">
+    <row r="11" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="36" t="s">
         <v>188</v>
       </c>
@@ -41669,7 +41669,7 @@
       </c>
       <c r="U11" s="38"/>
     </row>
-    <row r="12" spans="1:21" ht="15" customHeight="1">
+    <row r="12" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="s">
         <v>176</v>
       </c>
@@ -41734,7 +41734,7 @@
       </c>
       <c r="U12" s="38"/>
     </row>
-    <row r="13" spans="1:21" ht="15" customHeight="1">
+    <row r="13" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="36" t="s">
         <v>189</v>
       </c>
@@ -41799,7 +41799,7 @@
       </c>
       <c r="U13" s="38"/>
     </row>
-    <row r="14" spans="1:21" ht="15" customHeight="1">
+    <row r="14" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="36" t="s">
         <v>190</v>
       </c>
@@ -41862,7 +41862,7 @@
       </c>
       <c r="U14" s="38"/>
     </row>
-    <row r="15" spans="1:21" ht="15" customHeight="1">
+    <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="36" t="s">
         <v>191</v>
       </c>
@@ -41927,7 +41927,7 @@
       </c>
       <c r="U15" s="38"/>
     </row>
-    <row r="16" spans="1:21" ht="15" customHeight="1">
+    <row r="16" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="36" t="s">
         <v>192</v>
       </c>
@@ -41994,7 +41994,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="15" customHeight="1">
+    <row r="17" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="36" t="s">
         <v>193</v>
       </c>
@@ -42059,7 +42059,7 @@
       </c>
       <c r="U17" s="38"/>
     </row>
-    <row r="18" spans="1:21" ht="15" customHeight="1">
+    <row r="18" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="36" t="s">
         <v>194</v>
       </c>
@@ -42124,7 +42124,7 @@
       </c>
       <c r="U18" s="38"/>
     </row>
-    <row r="19" spans="1:21" ht="15" customHeight="1">
+    <row r="19" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="36" t="s">
         <v>195</v>
       </c>
@@ -42189,7 +42189,7 @@
       </c>
       <c r="U19" s="38"/>
     </row>
-    <row r="20" spans="1:21" ht="15" customHeight="1">
+    <row r="20" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="36" t="s">
         <v>196</v>
       </c>
@@ -42254,7 +42254,7 @@
       </c>
       <c r="U20" s="38"/>
     </row>
-    <row r="21" spans="1:21" ht="15" customHeight="1">
+    <row r="21" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="36" t="s">
         <v>197</v>
       </c>
@@ -42319,7 +42319,7 @@
       </c>
       <c r="U21" s="38"/>
     </row>
-    <row r="22" spans="1:21" ht="15" customHeight="1">
+    <row r="22" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="36" t="s">
         <v>198</v>
       </c>
@@ -42384,7 +42384,7 @@
       </c>
       <c r="U22" s="38"/>
     </row>
-    <row r="23" spans="1:21" ht="15" customHeight="1">
+    <row r="23" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="36" t="s">
         <v>199</v>
       </c>
@@ -42449,7 +42449,7 @@
       </c>
       <c r="U23" s="38"/>
     </row>
-    <row r="24" spans="1:21" ht="15" customHeight="1">
+    <row r="24" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="36" t="s">
         <v>200</v>
       </c>
@@ -42514,7 +42514,7 @@
       </c>
       <c r="U24" s="38"/>
     </row>
-    <row r="25" spans="1:21" ht="15" customHeight="1">
+    <row r="25" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="36" t="s">
         <v>201</v>
       </c>
@@ -42579,7 +42579,7 @@
       </c>
       <c r="U25" s="38"/>
     </row>
-    <row r="26" spans="1:21" ht="15" customHeight="1">
+    <row r="26" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="36" t="s">
         <v>174</v>
       </c>
@@ -42644,7 +42644,7 @@
       </c>
       <c r="U26" s="38"/>
     </row>
-    <row r="27" spans="1:21" ht="15" customHeight="1">
+    <row r="27" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="36" t="s">
         <v>202</v>
       </c>
@@ -42709,7 +42709,7 @@
       </c>
       <c r="U27" s="38"/>
     </row>
-    <row r="28" spans="1:21" ht="15" customHeight="1">
+    <row r="28" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="39" t="s">
         <v>203</v>
       </c>
@@ -42774,7 +42774,7 @@
       </c>
       <c r="U28" s="42"/>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E29" s="43">
         <f>COUNTIF(E4:E28,"Yes")</f>
         <v>25</v>

--- a/process/configuration/templates/_report_configuration.xlsx
+++ b/process/configuration/templates/_report_configuration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rmiteduau-my.sharepoint.com/personal/carl_higgs_rmit_edu_au/Documents/projects/global-indicators/process/configuration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{2CED04CE-3476-4A81-BA3D-7F271E4F6C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16CC3F25-5421-4913-8F57-E498326D761B}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="8_{2CED04CE-3476-4A81-BA3D-7F271E4F6C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10EE184C-B3D4-4964-BC17-02A2215C9193}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5320" uniqueCount="2119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5328" uniqueCount="2125">
   <si>
     <t>name</t>
   </si>
@@ -6522,6 +6522,28 @@
   </si>
   <si>
     <t>example_ES_Las_Palmas_2023 - Summary</t>
+  </si>
+  <si>
+    <t>Percentage of population with access to bicycle rental within 500 m</t>
+  </si>
+  <si>
+    <t>Percentage of population with access to bicycle parking within 500 m</t>
+  </si>
+  <si>
+    <t>% de población a menos de 500 m del estacionamiento 
+de bicicletas (OpenStreetMap)</t>
+  </si>
+  <si>
+    <t>% de la población a menos de 500 m de las estaciones de 
+alquiler de bicicletas (OpenStreetMap)</t>
+  </si>
+  <si>
+    <t>% population within 500m of bicycle rental 
+stations (OpenStreetMap)</t>
+  </si>
+  <si>
+    <t>% population within 500m of bicycle parking
+locations (OpenStreetMap)</t>
   </si>
 </sst>
 </file>
@@ -7464,28 +7486,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="41">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFED4F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="25">
     <dxf>
       <fill>
         <patternFill>
@@ -7539,27 +7540,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFED4F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -7648,65 +7628,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -7724,23 +7651,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -19590,7 +19500,7 @@
   </sheetData>
   <autoFilter ref="A1:T191" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="A130:A131">
-    <cfRule type="duplicateValues" dxfId="40" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -31114,7 +31024,7 @@
   </sheetData>
   <autoFilter ref="A1:T194" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="A130:A131">
-    <cfRule type="duplicateValues" dxfId="39" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -31126,13 +31036,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:U175"/>
+  <dimension ref="A1:U177"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C22" sqref="C22"/>
+      <selection pane="bottomRight" activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34434,125 +34344,65 @@
       <c r="T78" s="9"/>
       <c r="U78" s="9"/>
     </row>
-    <row r="79" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:21" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="17" t="s">
         <v>144</v>
       </c>
       <c r="B79" s="17" t="s">
-        <v>547</v>
+        <v>2119</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>1677</v>
-      </c>
-      <c r="D79" s="9" t="s">
-        <v>1678</v>
-      </c>
-      <c r="E79" s="9" t="s">
-        <v>1679</v>
-      </c>
-      <c r="F79" s="9" t="s">
-        <v>1680</v>
-      </c>
-      <c r="G79" s="10" t="s">
-        <v>1681</v>
-      </c>
-      <c r="H79" s="9" t="s">
-        <v>1836</v>
-      </c>
-      <c r="I79" s="19" t="s">
-        <v>1682</v>
-      </c>
-      <c r="J79" s="9" t="s">
-        <v>1683</v>
-      </c>
-      <c r="K79" s="19" t="s">
-        <v>1684</v>
-      </c>
-      <c r="L79" s="19" t="s">
-        <v>1909</v>
-      </c>
-      <c r="M79" s="9" t="s">
-        <v>1685</v>
-      </c>
+        <v>2123</v>
+      </c>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="10"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="19"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="19"/>
+      <c r="L79" s="19"/>
+      <c r="M79" s="9"/>
       <c r="N79" s="9" t="s">
-        <v>1686</v>
-      </c>
-      <c r="O79" s="9" t="s">
-        <v>1687</v>
-      </c>
-      <c r="P79" s="9" t="s">
-        <v>1688</v>
-      </c>
-      <c r="Q79" s="9" t="s">
-        <v>1689</v>
-      </c>
-      <c r="R79" s="9" t="s">
-        <v>1583</v>
-      </c>
-      <c r="S79" s="9" t="s">
-        <v>1690</v>
-      </c>
+        <v>2122</v>
+      </c>
+      <c r="O79" s="9"/>
+      <c r="P79" s="9"/>
+      <c r="Q79" s="9"/>
+      <c r="R79" s="9"/>
+      <c r="S79" s="9"/>
       <c r="T79" s="9"/>
       <c r="U79" s="9"/>
     </row>
-    <row r="80" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:21" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="17" t="s">
         <v>144</v>
       </c>
       <c r="B80" s="17" t="s">
-        <v>548</v>
+        <v>2120</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>1691</v>
-      </c>
-      <c r="D80" s="9" t="s">
-        <v>1692</v>
-      </c>
-      <c r="E80" s="9" t="s">
-        <v>1693</v>
-      </c>
-      <c r="F80" s="9" t="s">
-        <v>1694</v>
-      </c>
-      <c r="G80" s="10" t="s">
-        <v>1695</v>
-      </c>
-      <c r="H80" s="9" t="s">
-        <v>1696</v>
-      </c>
-      <c r="I80" s="19" t="s">
-        <v>1697</v>
-      </c>
-      <c r="J80" s="9" t="s">
-        <v>1698</v>
-      </c>
-      <c r="K80" s="19" t="s">
-        <v>1699</v>
-      </c>
-      <c r="L80" s="19" t="s">
-        <v>1910</v>
-      </c>
-      <c r="M80" s="9" t="s">
-        <v>1700</v>
-      </c>
+        <v>2124</v>
+      </c>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="10"/>
+      <c r="H80" s="9"/>
+      <c r="I80" s="19"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="19"/>
+      <c r="L80" s="19"/>
+      <c r="M80" s="9"/>
       <c r="N80" s="9" t="s">
-        <v>1701</v>
-      </c>
-      <c r="O80" s="9" t="s">
-        <v>1702</v>
-      </c>
-      <c r="P80" s="9" t="s">
-        <v>1703</v>
-      </c>
-      <c r="Q80" s="9" t="s">
-        <v>1704</v>
-      </c>
-      <c r="R80" s="9" t="s">
-        <v>1584</v>
-      </c>
-      <c r="S80" s="9" t="s">
-        <v>1705</v>
-      </c>
+        <v>2121</v>
+      </c>
+      <c r="O80" s="9"/>
+      <c r="P80" s="9"/>
+      <c r="Q80" s="9"/>
+      <c r="R80" s="9"/>
+      <c r="S80" s="9"/>
       <c r="T80" s="9"/>
       <c r="U80" s="9"/>
     </row>
@@ -34561,664 +34411,664 @@
         <v>144</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>1706</v>
+        <v>1677</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>1707</v>
+        <v>1678</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>1708</v>
+        <v>1679</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>1709</v>
+        <v>1680</v>
       </c>
       <c r="G81" s="10" t="s">
-        <v>1710</v>
+        <v>1681</v>
       </c>
       <c r="H81" s="9" t="s">
-        <v>1711</v>
+        <v>1836</v>
       </c>
       <c r="I81" s="19" t="s">
-        <v>1712</v>
+        <v>1682</v>
       </c>
       <c r="J81" s="9" t="s">
-        <v>1713</v>
+        <v>1683</v>
       </c>
       <c r="K81" s="19" t="s">
-        <v>1714</v>
+        <v>1684</v>
       </c>
       <c r="L81" s="19" t="s">
-        <v>1911</v>
+        <v>1909</v>
       </c>
       <c r="M81" s="9" t="s">
-        <v>1715</v>
+        <v>1685</v>
       </c>
       <c r="N81" s="9" t="s">
-        <v>1716</v>
+        <v>1686</v>
       </c>
       <c r="O81" s="9" t="s">
-        <v>1717</v>
+        <v>1687</v>
       </c>
       <c r="P81" s="9" t="s">
-        <v>1718</v>
+        <v>1688</v>
       </c>
       <c r="Q81" s="9" t="s">
-        <v>1719</v>
+        <v>1689</v>
       </c>
       <c r="R81" s="9" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="S81" s="9" t="s">
-        <v>1720</v>
+        <v>1690</v>
       </c>
       <c r="T81" s="9"/>
       <c r="U81" s="9"/>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A82" s="17" t="s">
         <v>144</v>
       </c>
       <c r="B82" s="17" t="s">
-        <v>160</v>
+        <v>548</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>160</v>
+        <v>1691</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>393</v>
+        <v>1692</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>879</v>
+        <v>1693</v>
       </c>
       <c r="F82" s="9" t="s">
-        <v>880</v>
+        <v>1694</v>
       </c>
       <c r="G82" s="10" t="s">
-        <v>1202</v>
+        <v>1695</v>
       </c>
       <c r="H82" s="9" t="s">
-        <v>1340</v>
+        <v>1696</v>
       </c>
       <c r="I82" s="19" t="s">
-        <v>1079</v>
+        <v>1697</v>
       </c>
       <c r="J82" s="9" t="s">
-        <v>445</v>
+        <v>1698</v>
       </c>
       <c r="K82" s="19" t="s">
-        <v>1272</v>
+        <v>1699</v>
       </c>
       <c r="L82" s="19" t="s">
-        <v>1912</v>
+        <v>1910</v>
       </c>
       <c r="M82" s="9" t="s">
-        <v>257</v>
+        <v>1700</v>
       </c>
       <c r="N82" s="9" t="s">
-        <v>257</v>
+        <v>1701</v>
       </c>
       <c r="O82" s="9" t="s">
-        <v>257</v>
+        <v>1702</v>
       </c>
       <c r="P82" s="9" t="s">
-        <v>257</v>
+        <v>1703</v>
       </c>
       <c r="Q82" s="9" t="s">
-        <v>1536</v>
+        <v>1704</v>
       </c>
       <c r="R82" s="9" t="s">
-        <v>317</v>
+        <v>1584</v>
       </c>
       <c r="S82" s="9" t="s">
-        <v>354</v>
+        <v>1705</v>
       </c>
       <c r="T82" s="9"/>
       <c r="U82" s="9"/>
     </row>
-    <row r="83" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A83" s="17" t="s">
         <v>144</v>
       </c>
       <c r="B83" s="17" t="s">
-        <v>163</v>
+        <v>546</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>1518</v>
+        <v>1706</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>1519</v>
+        <v>1707</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>881</v>
+        <v>1708</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>882</v>
+        <v>1709</v>
       </c>
       <c r="G83" s="10" t="s">
-        <v>1520</v>
+        <v>1710</v>
       </c>
       <c r="H83" s="9" t="s">
-        <v>1521</v>
+        <v>1711</v>
       </c>
       <c r="I83" s="19" t="s">
-        <v>1080</v>
+        <v>1712</v>
       </c>
       <c r="J83" s="9" t="s">
-        <v>1525</v>
+        <v>1713</v>
       </c>
       <c r="K83" s="19" t="s">
-        <v>1522</v>
+        <v>1714</v>
       </c>
       <c r="L83" s="19" t="s">
-        <v>1913</v>
+        <v>1911</v>
       </c>
       <c r="M83" s="9" t="s">
-        <v>1515</v>
+        <v>1715</v>
       </c>
       <c r="N83" s="9" t="s">
-        <v>1516</v>
+        <v>1716</v>
       </c>
       <c r="O83" s="9" t="s">
-        <v>1517</v>
+        <v>1717</v>
       </c>
       <c r="P83" s="9" t="s">
-        <v>1523</v>
+        <v>1718</v>
       </c>
       <c r="Q83" s="9" t="s">
-        <v>1537</v>
+        <v>1719</v>
       </c>
       <c r="R83" s="9" t="s">
-        <v>1578</v>
+        <v>1582</v>
       </c>
       <c r="S83" s="9" t="s">
-        <v>1524</v>
+        <v>1720</v>
       </c>
       <c r="T83" s="9"/>
       <c r="U83" s="9"/>
     </row>
-    <row r="84" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A84" s="17" t="s">
         <v>144</v>
       </c>
       <c r="B84" s="17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>431</v>
+        <v>160</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>670</v>
+        <v>393</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>471</v>
+        <v>879</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="G84" s="10" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="H84" s="9" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="I84" s="19" t="s">
-        <v>489</v>
+        <v>1079</v>
       </c>
       <c r="J84" s="9" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="K84" s="19" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="L84" s="19" t="s">
-        <v>1914</v>
+        <v>1912</v>
       </c>
       <c r="M84" s="9" t="s">
-        <v>720</v>
+        <v>257</v>
       </c>
       <c r="N84" s="9" t="s">
-        <v>690</v>
+        <v>257</v>
       </c>
       <c r="O84" s="9" t="s">
-        <v>462</v>
+        <v>257</v>
       </c>
       <c r="P84" s="9" t="s">
-        <v>462</v>
+        <v>257</v>
       </c>
       <c r="Q84" s="9" t="s">
-        <v>473</v>
+        <v>1536</v>
       </c>
       <c r="R84" s="9" t="s">
-        <v>738</v>
+        <v>317</v>
       </c>
       <c r="S84" s="9" t="s">
-        <v>1130</v>
+        <v>354</v>
       </c>
       <c r="T84" s="9"/>
       <c r="U84" s="9"/>
     </row>
-    <row r="85" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A85" s="17" t="s">
         <v>144</v>
       </c>
       <c r="B85" s="17" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>432</v>
+        <v>1518</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>671</v>
+        <v>1519</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="G85" s="10" t="s">
-        <v>1205</v>
+        <v>1520</v>
       </c>
       <c r="H85" s="9" t="s">
-        <v>1342</v>
+        <v>1521</v>
       </c>
       <c r="I85" s="19" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="J85" s="9" t="s">
-        <v>1505</v>
+        <v>1525</v>
       </c>
       <c r="K85" s="19" t="s">
-        <v>1275</v>
+        <v>1522</v>
       </c>
       <c r="L85" s="19" t="s">
-        <v>1915</v>
+        <v>1913</v>
       </c>
       <c r="M85" s="9" t="s">
-        <v>721</v>
+        <v>1515</v>
       </c>
       <c r="N85" s="9" t="s">
-        <v>691</v>
+        <v>1516</v>
       </c>
       <c r="O85" s="9" t="s">
-        <v>1008</v>
+        <v>1517</v>
       </c>
       <c r="P85" s="9" t="s">
-        <v>1395</v>
+        <v>1523</v>
       </c>
       <c r="Q85" s="9" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="R85" s="9" t="s">
-        <v>739</v>
+        <v>1578</v>
       </c>
       <c r="S85" s="9" t="s">
-        <v>1131</v>
+        <v>1524</v>
       </c>
       <c r="T85" s="9"/>
       <c r="U85" s="9"/>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="17" t="s">
         <v>144</v>
       </c>
       <c r="B86" s="17" t="s">
-        <v>206</v>
+        <v>161</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>537</v>
+        <v>431</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>818</v>
+        <v>670</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>886</v>
+        <v>471</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="G86" s="10" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="H86" s="9" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="I86" s="19" t="s">
-        <v>1082</v>
+        <v>489</v>
       </c>
       <c r="J86" s="9" t="s">
-        <v>1438</v>
+        <v>447</v>
       </c>
       <c r="K86" s="19" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="L86" s="19" t="s">
-        <v>1916</v>
+        <v>1914</v>
       </c>
       <c r="M86" s="9" t="s">
-        <v>556</v>
+        <v>720</v>
       </c>
       <c r="N86" s="9" t="s">
-        <v>556</v>
+        <v>690</v>
       </c>
       <c r="O86" s="9" t="s">
-        <v>1040</v>
+        <v>462</v>
       </c>
       <c r="P86" s="9" t="s">
-        <v>997</v>
+        <v>462</v>
       </c>
       <c r="Q86" s="9" t="s">
-        <v>562</v>
+        <v>473</v>
       </c>
       <c r="R86" s="9" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="S86" s="9" t="s">
-        <v>567</v>
+        <v>1130</v>
       </c>
       <c r="T86" s="9"/>
       <c r="U86" s="9"/>
     </row>
-    <row r="87" spans="1:21" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="17" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B87" s="17" t="s">
-        <v>67</v>
+        <v>162</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>969</v>
+        <v>432</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>969</v>
+        <v>884</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>969</v>
+        <v>885</v>
       </c>
       <c r="G87" s="10" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="H87" s="9" t="s">
-        <v>970</v>
+        <v>1342</v>
       </c>
       <c r="I87" s="19" t="s">
-        <v>1846</v>
+        <v>1081</v>
       </c>
       <c r="J87" s="9" t="s">
-        <v>1439</v>
+        <v>1505</v>
       </c>
       <c r="K87" s="19" t="s">
-        <v>1277</v>
-      </c>
-      <c r="L87" s="19"/>
+        <v>1275</v>
+      </c>
+      <c r="L87" s="19" t="s">
+        <v>1915</v>
+      </c>
       <c r="M87" s="9" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="N87" s="9" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="O87" s="9" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="P87" s="9" t="s">
-        <v>977</v>
+        <v>1395</v>
       </c>
       <c r="Q87" s="9" t="s">
-        <v>563</v>
+        <v>1538</v>
       </c>
       <c r="R87" s="9" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="S87" s="9" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="T87" s="9"/>
       <c r="U87" s="9"/>
     </row>
-    <row r="88" spans="1:21" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A88" s="17" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B88" s="17" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>971</v>
+        <v>537</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>673</v>
+        <v>818</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>971</v>
+        <v>886</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>971</v>
+        <v>887</v>
       </c>
       <c r="G88" s="10" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="H88" s="9" t="s">
-        <v>972</v>
+        <v>1343</v>
       </c>
       <c r="I88" s="19" t="s">
-        <v>1847</v>
+        <v>1082</v>
       </c>
       <c r="J88" s="9" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="K88" s="19" t="s">
-        <v>1278</v>
-      </c>
-      <c r="L88" s="19"/>
+        <v>1276</v>
+      </c>
+      <c r="L88" s="19" t="s">
+        <v>1916</v>
+      </c>
       <c r="M88" s="9" t="s">
-        <v>723</v>
+        <v>556</v>
       </c>
       <c r="N88" s="9" t="s">
-        <v>693</v>
+        <v>556</v>
       </c>
       <c r="O88" s="9" t="s">
-        <v>1010</v>
+        <v>1040</v>
       </c>
       <c r="P88" s="9" t="s">
-        <v>560</v>
+        <v>997</v>
       </c>
       <c r="Q88" s="9" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="R88" s="9" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="S88" s="9" t="s">
-        <v>1133</v>
+        <v>567</v>
       </c>
       <c r="T88" s="9"/>
       <c r="U88" s="9"/>
     </row>
-    <row r="89" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:21" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B89" s="17" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>580</v>
+        <v>969</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>888</v>
+        <v>969</v>
       </c>
       <c r="F89" s="9" t="s">
-        <v>889</v>
+        <v>969</v>
       </c>
       <c r="G89" s="10" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="H89" s="9" t="s">
-        <v>1974</v>
+        <v>970</v>
       </c>
       <c r="I89" s="19" t="s">
-        <v>1071</v>
+        <v>1846</v>
       </c>
       <c r="J89" s="9" t="s">
-        <v>585</v>
+        <v>1439</v>
       </c>
       <c r="K89" s="19" t="s">
-        <v>1279</v>
-      </c>
-      <c r="L89" s="19" t="s">
-        <v>1895</v>
-      </c>
+        <v>1277</v>
+      </c>
+      <c r="L89" s="19"/>
       <c r="M89" s="9" t="s">
-        <v>581</v>
+        <v>722</v>
       </c>
       <c r="N89" s="9" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="O89" s="9" t="s">
-        <v>1000</v>
+        <v>1009</v>
       </c>
       <c r="P89" s="9" t="s">
-        <v>582</v>
+        <v>977</v>
       </c>
       <c r="Q89" s="9" t="s">
-        <v>583</v>
+        <v>563</v>
       </c>
       <c r="R89" s="9" t="s">
-        <v>584</v>
+        <v>741</v>
       </c>
       <c r="S89" s="9" t="s">
-        <v>1121</v>
+        <v>1132</v>
       </c>
       <c r="T89" s="9"/>
       <c r="U89" s="9"/>
     </row>
-    <row r="90" spans="1:21" ht="238.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:21" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B90" s="17" t="s">
-        <v>1800</v>
+        <v>181</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>1852</v>
+        <v>971</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>1853</v>
+        <v>673</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>1585</v>
+        <v>971</v>
       </c>
       <c r="F90" s="9" t="s">
-        <v>1476</v>
+        <v>971</v>
       </c>
       <c r="G90" s="10" t="s">
-        <v>1854</v>
+        <v>1208</v>
       </c>
       <c r="H90" s="9" t="s">
-        <v>1463</v>
+        <v>972</v>
       </c>
       <c r="I90" s="19" t="s">
-        <v>1855</v>
+        <v>1847</v>
       </c>
       <c r="J90" s="9" t="s">
-        <v>1856</v>
+        <v>1440</v>
       </c>
       <c r="K90" s="19" t="s">
-        <v>1857</v>
-      </c>
-      <c r="L90" s="19" t="s">
-        <v>1917</v>
-      </c>
+        <v>1278</v>
+      </c>
+      <c r="L90" s="19"/>
       <c r="M90" s="9" t="s">
-        <v>1858</v>
+        <v>723</v>
       </c>
       <c r="N90" s="9" t="s">
-        <v>1859</v>
+        <v>693</v>
       </c>
       <c r="O90" s="9" t="s">
-        <v>1586</v>
+        <v>1010</v>
       </c>
       <c r="P90" s="9" t="s">
-        <v>1860</v>
+        <v>560</v>
       </c>
       <c r="Q90" s="9" t="s">
-        <v>1861</v>
+        <v>564</v>
       </c>
       <c r="R90" s="9" t="s">
-        <v>1656</v>
+        <v>742</v>
       </c>
       <c r="S90" s="9" t="s">
-        <v>1464</v>
+        <v>1133</v>
       </c>
       <c r="T90" s="9"/>
       <c r="U90" s="9"/>
     </row>
-    <row r="91" spans="1:21" ht="238.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B91" s="17" t="s">
-        <v>178</v>
+        <v>31</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>1862</v>
+        <v>580</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>1863</v>
+        <v>674</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>1797</v>
+        <v>888</v>
       </c>
       <c r="F91" s="9" t="s">
-        <v>1798</v>
+        <v>889</v>
       </c>
       <c r="G91" s="10" t="s">
-        <v>1864</v>
+        <v>1209</v>
       </c>
       <c r="H91" s="9" t="s">
-        <v>1799</v>
+        <v>1974</v>
       </c>
       <c r="I91" s="19" t="s">
-        <v>1865</v>
+        <v>1071</v>
       </c>
       <c r="J91" s="9" t="s">
-        <v>1866</v>
+        <v>585</v>
       </c>
       <c r="K91" s="19" t="s">
-        <v>1867</v>
+        <v>1279</v>
       </c>
       <c r="L91" s="19" t="s">
-        <v>1918</v>
+        <v>1895</v>
       </c>
       <c r="M91" s="9" t="s">
-        <v>1868</v>
+        <v>581</v>
       </c>
       <c r="N91" s="9" t="s">
-        <v>1869</v>
+        <v>694</v>
       </c>
       <c r="O91" s="9" t="s">
-        <v>1801</v>
+        <v>1000</v>
       </c>
       <c r="P91" s="9" t="s">
-        <v>1870</v>
+        <v>582</v>
       </c>
       <c r="Q91" s="9" t="s">
-        <v>1871</v>
+        <v>583</v>
       </c>
       <c r="R91" s="9" t="s">
-        <v>1803</v>
+        <v>584</v>
       </c>
       <c r="S91" s="9" t="s">
-        <v>1802</v>
+        <v>1121</v>
       </c>
       <c r="T91" s="9"/>
       <c r="U91" s="9"/>
@@ -35228,302 +35078,302 @@
         <v>143</v>
       </c>
       <c r="B92" s="17" t="s">
-        <v>247</v>
+        <v>1800</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>1872</v>
+        <v>1852</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>1873</v>
+        <v>1853</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>1477</v>
+        <v>1585</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>890</v>
+        <v>1476</v>
       </c>
       <c r="G92" s="10" t="s">
-        <v>1246</v>
+        <v>1854</v>
       </c>
       <c r="H92" s="9" t="s">
-        <v>1344</v>
+        <v>1463</v>
       </c>
       <c r="I92" s="19" t="s">
-        <v>1874</v>
+        <v>1855</v>
       </c>
       <c r="J92" s="9" t="s">
-        <v>1875</v>
+        <v>1856</v>
       </c>
       <c r="K92" s="19" t="s">
-        <v>1876</v>
-      </c>
-      <c r="L92" s="49" t="s">
-        <v>1919</v>
+        <v>1857</v>
+      </c>
+      <c r="L92" s="19" t="s">
+        <v>1917</v>
       </c>
       <c r="M92" s="9" t="s">
-        <v>1877</v>
+        <v>1858</v>
       </c>
       <c r="N92" s="9" t="s">
-        <v>1878</v>
+        <v>1859</v>
       </c>
       <c r="O92" s="9" t="s">
-        <v>1011</v>
+        <v>1586</v>
       </c>
       <c r="P92" s="9" t="s">
-        <v>1879</v>
+        <v>1860</v>
       </c>
       <c r="Q92" s="9" t="s">
-        <v>1880</v>
+        <v>1861</v>
       </c>
       <c r="R92" s="9" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="S92" s="9" t="s">
-        <v>1171</v>
+        <v>1464</v>
       </c>
       <c r="T92" s="9"/>
       <c r="U92" s="9"/>
     </row>
-    <row r="93" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:21" ht="238.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B93" s="17" t="s">
-        <v>33</v>
+        <v>178</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>535</v>
+        <v>1862</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>549</v>
+        <v>1863</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>1431</v>
+        <v>1797</v>
       </c>
       <c r="F93" s="9" t="s">
-        <v>1432</v>
+        <v>1798</v>
       </c>
       <c r="G93" s="10" t="s">
-        <v>1247</v>
+        <v>1864</v>
       </c>
       <c r="H93" s="9" t="s">
-        <v>1345</v>
+        <v>1799</v>
       </c>
       <c r="I93" s="19" t="s">
-        <v>1083</v>
+        <v>1865</v>
       </c>
       <c r="J93" s="9" t="s">
-        <v>578</v>
+        <v>1866</v>
       </c>
       <c r="K93" s="19" t="s">
-        <v>1330</v>
+        <v>1867</v>
       </c>
       <c r="L93" s="19" t="s">
-        <v>1977</v>
+        <v>1918</v>
       </c>
       <c r="M93" s="9" t="s">
-        <v>1587</v>
+        <v>1868</v>
       </c>
       <c r="N93" s="9" t="s">
-        <v>695</v>
+        <v>1869</v>
       </c>
       <c r="O93" s="9" t="s">
-        <v>1012</v>
+        <v>1801</v>
       </c>
       <c r="P93" s="9" t="s">
-        <v>1396</v>
+        <v>1870</v>
       </c>
       <c r="Q93" s="9" t="s">
-        <v>1539</v>
+        <v>1871</v>
       </c>
       <c r="R93" s="9" t="s">
-        <v>1561</v>
+        <v>1803</v>
       </c>
       <c r="S93" s="9" t="s">
-        <v>1134</v>
+        <v>1802</v>
       </c>
       <c r="T93" s="9"/>
       <c r="U93" s="9"/>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:21" ht="238.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B94" s="17" t="s">
-        <v>34</v>
+        <v>247</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>536</v>
+        <v>1872</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>550</v>
+        <v>1873</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>891</v>
+        <v>1477</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="G94" s="10" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="H94" s="9" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="I94" s="19" t="s">
-        <v>1084</v>
+        <v>1874</v>
       </c>
       <c r="J94" s="9" t="s">
-        <v>1441</v>
+        <v>1875</v>
       </c>
       <c r="K94" s="19" t="s">
-        <v>1323</v>
-      </c>
-      <c r="L94" s="19" t="s">
-        <v>1969</v>
+        <v>1876</v>
+      </c>
+      <c r="L94" s="49" t="s">
+        <v>1919</v>
       </c>
       <c r="M94" s="9" t="s">
-        <v>557</v>
+        <v>1877</v>
       </c>
       <c r="N94" s="9" t="s">
-        <v>557</v>
+        <v>1878</v>
       </c>
       <c r="O94" s="9" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="P94" s="9" t="s">
-        <v>978</v>
+        <v>1879</v>
       </c>
       <c r="Q94" s="9" t="s">
-        <v>1540</v>
+        <v>1880</v>
       </c>
       <c r="R94" s="9" t="s">
-        <v>1562</v>
+        <v>1657</v>
       </c>
       <c r="S94" s="9" t="s">
-        <v>1135</v>
+        <v>1171</v>
       </c>
       <c r="T94" s="9"/>
       <c r="U94" s="9"/>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A95" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B95" s="17" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>426</v>
+        <v>535</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>476</v>
+        <v>549</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>966</v>
+        <v>1431</v>
       </c>
       <c r="F95" s="9" t="s">
-        <v>967</v>
+        <v>1432</v>
       </c>
       <c r="G95" s="10" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="H95" s="9" t="s">
-        <v>1348</v>
+        <v>1345</v>
       </c>
       <c r="I95" s="19" t="s">
-        <v>495</v>
+        <v>1083</v>
       </c>
       <c r="J95" s="9" t="s">
-        <v>1506</v>
+        <v>578</v>
       </c>
       <c r="K95" s="19" t="s">
-        <v>1324</v>
+        <v>1330</v>
       </c>
       <c r="L95" s="19" t="s">
-        <v>1921</v>
+        <v>1977</v>
       </c>
       <c r="M95" s="9" t="s">
-        <v>501</v>
+        <v>1587</v>
       </c>
       <c r="N95" s="9" t="s">
-        <v>501</v>
+        <v>695</v>
       </c>
       <c r="O95" s="9" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="P95" s="9" t="s">
-        <v>465</v>
+        <v>1396</v>
       </c>
       <c r="Q95" s="9" t="s">
-        <v>503</v>
+        <v>1539</v>
       </c>
       <c r="R95" s="9" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="S95" s="9" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="T95" s="9"/>
       <c r="U95" s="9"/>
     </row>
-    <row r="96" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A96" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B96" s="17" t="s">
-        <v>207</v>
+        <v>34</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>675</v>
+        <v>550</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="F96" s="9" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="G96" s="10" t="s">
-        <v>1211</v>
+        <v>1248</v>
       </c>
       <c r="H96" s="9" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
       <c r="I96" s="19" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="J96" s="9" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="K96" s="19" t="s">
-        <v>1282</v>
+        <v>1323</v>
       </c>
       <c r="L96" s="19" t="s">
-        <v>1922</v>
+        <v>1969</v>
       </c>
       <c r="M96" s="9" t="s">
-        <v>408</v>
+        <v>557</v>
       </c>
       <c r="N96" s="9" t="s">
-        <v>696</v>
+        <v>557</v>
       </c>
       <c r="O96" s="9" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="P96" s="9" t="s">
-        <v>1397</v>
+        <v>978</v>
       </c>
       <c r="Q96" s="9" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="R96" s="9" t="s">
-        <v>1659</v>
+        <v>1562</v>
       </c>
       <c r="S96" s="9" t="s">
-        <v>1181</v>
+        <v>1135</v>
       </c>
       <c r="T96" s="9"/>
       <c r="U96" s="9"/>
@@ -35533,119 +35383,119 @@
         <v>143</v>
       </c>
       <c r="B97" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="F97" s="9" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="G97" s="10" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="H97" s="9" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="I97" s="19" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="J97" s="9" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="K97" s="19" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="L97" s="19" t="s">
-        <v>1923</v>
+        <v>1921</v>
       </c>
       <c r="M97" s="9" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="N97" s="9" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="O97" s="9" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="P97" s="9" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="Q97" s="9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="R97" s="9" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="S97" s="9" t="s">
-        <v>568</v>
+        <v>1137</v>
       </c>
       <c r="T97" s="9"/>
       <c r="U97" s="9"/>
     </row>
-    <row r="98" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B98" s="17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>213</v>
+        <v>541</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>765</v>
+        <v>675</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>1635</v>
+        <v>893</v>
       </c>
       <c r="G98" s="10" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="H98" s="9" t="s">
-        <v>1456</v>
+        <v>1349</v>
       </c>
       <c r="I98" s="19" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="J98" s="9" t="s">
-        <v>1638</v>
+        <v>1442</v>
       </c>
       <c r="K98" s="19" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="L98" s="19" t="s">
-        <v>1924</v>
+        <v>1922</v>
       </c>
       <c r="M98" s="9" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N98" s="9" t="s">
-        <v>784</v>
+        <v>696</v>
       </c>
       <c r="O98" s="9" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="P98" s="9" t="s">
-        <v>979</v>
+        <v>1397</v>
       </c>
       <c r="Q98" s="9" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="R98" s="9" t="s">
-        <v>745</v>
+        <v>1659</v>
       </c>
       <c r="S98" s="9" t="s">
-        <v>1138</v>
+        <v>1181</v>
       </c>
       <c r="T98" s="9"/>
       <c r="U98" s="9"/>
@@ -35655,58 +35505,58 @@
         <v>143</v>
       </c>
       <c r="B99" s="17" t="s">
-        <v>838</v>
+        <v>39</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>170</v>
+        <v>427</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>766</v>
+        <v>477</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>895</v>
+        <v>968</v>
       </c>
       <c r="F99" s="9" t="s">
-        <v>896</v>
+        <v>968</v>
       </c>
       <c r="G99" s="10" t="s">
-        <v>1213</v>
+        <v>1250</v>
       </c>
       <c r="H99" s="9" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="I99" s="19" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="J99" s="9" t="s">
-        <v>1443</v>
+        <v>1507</v>
       </c>
       <c r="K99" s="19" t="s">
-        <v>1284</v>
+        <v>1325</v>
       </c>
       <c r="L99" s="19" t="s">
-        <v>1925</v>
+        <v>1923</v>
       </c>
       <c r="M99" s="9" t="s">
-        <v>410</v>
+        <v>502</v>
       </c>
       <c r="N99" s="9" t="s">
-        <v>785</v>
+        <v>502</v>
       </c>
       <c r="O99" s="9" t="s">
-        <v>281</v>
+        <v>1018</v>
       </c>
       <c r="P99" s="9" t="s">
-        <v>299</v>
+        <v>466</v>
       </c>
       <c r="Q99" s="9" t="s">
-        <v>367</v>
+        <v>504</v>
       </c>
       <c r="R99" s="9" t="s">
-        <v>746</v>
+        <v>1564</v>
       </c>
       <c r="S99" s="9" t="s">
-        <v>1139</v>
+        <v>568</v>
       </c>
       <c r="T99" s="9"/>
       <c r="U99" s="9"/>
@@ -35716,180 +35566,180 @@
         <v>143</v>
       </c>
       <c r="B100" s="17" t="s">
-        <v>40</v>
+        <v>208</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>1753</v>
+        <v>213</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>1766</v>
+        <v>765</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>1765</v>
+        <v>894</v>
       </c>
       <c r="F100" s="9" t="s">
-        <v>1764</v>
+        <v>1635</v>
       </c>
       <c r="G100" s="10" t="s">
-        <v>1763</v>
+        <v>1212</v>
       </c>
       <c r="H100" s="9" t="s">
-        <v>1762</v>
+        <v>1456</v>
       </c>
       <c r="I100" s="19" t="s">
-        <v>1761</v>
+        <v>1086</v>
       </c>
       <c r="J100" s="9" t="s">
-        <v>1782</v>
+        <v>1638</v>
       </c>
       <c r="K100" s="19" t="s">
-        <v>1760</v>
+        <v>1283</v>
       </c>
       <c r="L100" s="19" t="s">
-        <v>1967</v>
+        <v>1924</v>
       </c>
       <c r="M100" s="9" t="s">
-        <v>1754</v>
+        <v>409</v>
       </c>
       <c r="N100" s="9" t="s">
-        <v>1755</v>
+        <v>784</v>
       </c>
       <c r="O100" s="9" t="s">
-        <v>1756</v>
+        <v>1019</v>
       </c>
       <c r="P100" s="9" t="s">
-        <v>1757</v>
+        <v>979</v>
       </c>
       <c r="Q100" s="9" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="R100" s="9" t="s">
-        <v>1758</v>
+        <v>745</v>
       </c>
       <c r="S100" s="9" t="s">
-        <v>1759</v>
+        <v>1138</v>
       </c>
       <c r="T100" s="9"/>
       <c r="U100" s="9"/>
     </row>
-    <row r="101" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A101" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B101" s="17" t="s">
-        <v>210</v>
+        <v>838</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>212</v>
+        <v>170</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>849</v>
+        <v>766</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>1061</v>
+        <v>895</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>1061</v>
+        <v>896</v>
       </c>
       <c r="G101" s="10" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="H101" s="9" t="s">
-        <v>1832</v>
+        <v>1351</v>
       </c>
       <c r="I101" s="19" t="s">
-        <v>1112</v>
+        <v>490</v>
       </c>
       <c r="J101" s="9" t="s">
-        <v>1619</v>
+        <v>1443</v>
       </c>
       <c r="K101" s="19" t="s">
-        <v>1834</v>
+        <v>1284</v>
       </c>
       <c r="L101" s="19" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="M101" s="9" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N101" s="9" t="s">
-        <v>847</v>
+        <v>785</v>
       </c>
       <c r="O101" s="9" t="s">
-        <v>1063</v>
+        <v>281</v>
       </c>
       <c r="P101" s="9" t="s">
-        <v>1065</v>
+        <v>299</v>
       </c>
       <c r="Q101" s="9" t="s">
-        <v>1068</v>
+        <v>367</v>
       </c>
       <c r="R101" s="9" t="s">
-        <v>1066</v>
+        <v>746</v>
       </c>
       <c r="S101" s="9" t="s">
-        <v>1161</v>
+        <v>1139</v>
       </c>
       <c r="T101" s="9"/>
       <c r="U101" s="9"/>
     </row>
-    <row r="102" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A102" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B102" s="17" t="s">
-        <v>209</v>
+        <v>40</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>221</v>
+        <v>1753</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>850</v>
+        <v>1766</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>1062</v>
+        <v>1765</v>
       </c>
       <c r="F102" s="9" t="s">
-        <v>1062</v>
+        <v>1764</v>
       </c>
       <c r="G102" s="10" t="s">
-        <v>1215</v>
+        <v>1763</v>
       </c>
       <c r="H102" s="9" t="s">
-        <v>1833</v>
+        <v>1762</v>
       </c>
       <c r="I102" s="19" t="s">
-        <v>1113</v>
+        <v>1761</v>
       </c>
       <c r="J102" s="9" t="s">
-        <v>1511</v>
+        <v>1782</v>
       </c>
       <c r="K102" s="19" t="s">
-        <v>1835</v>
+        <v>1760</v>
       </c>
       <c r="L102" s="19" t="s">
-        <v>1060</v>
+        <v>1967</v>
       </c>
       <c r="M102" s="9" t="s">
-        <v>412</v>
+        <v>1754</v>
       </c>
       <c r="N102" s="9" t="s">
-        <v>848</v>
+        <v>1755</v>
       </c>
       <c r="O102" s="9" t="s">
-        <v>1064</v>
+        <v>1756</v>
       </c>
       <c r="P102" s="9" t="s">
-        <v>412</v>
+        <v>1757</v>
       </c>
       <c r="Q102" s="9" t="s">
-        <v>1069</v>
+        <v>1543</v>
       </c>
       <c r="R102" s="9" t="s">
-        <v>1067</v>
+        <v>1758</v>
       </c>
       <c r="S102" s="9" t="s">
-        <v>1070</v>
+        <v>1759</v>
       </c>
       <c r="T102" s="9"/>
       <c r="U102" s="9"/>
@@ -35899,58 +35749,58 @@
         <v>143</v>
       </c>
       <c r="B103" s="17" t="s">
-        <v>819</v>
+        <v>210</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>767</v>
+        <v>849</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>897</v>
+        <v>1061</v>
       </c>
       <c r="F103" s="9" t="s">
-        <v>898</v>
+        <v>1061</v>
       </c>
       <c r="G103" s="10" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="H103" s="9" t="s">
-        <v>1352</v>
+        <v>1832</v>
       </c>
       <c r="I103" s="19" t="s">
-        <v>1087</v>
+        <v>1112</v>
       </c>
       <c r="J103" s="9" t="s">
-        <v>1639</v>
+        <v>1619</v>
       </c>
       <c r="K103" s="19" t="s">
-        <v>1285</v>
+        <v>1834</v>
       </c>
       <c r="L103" s="19" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="M103" s="9" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="N103" s="9" t="s">
-        <v>786</v>
+        <v>847</v>
       </c>
       <c r="O103" s="9" t="s">
-        <v>282</v>
+        <v>1063</v>
       </c>
       <c r="P103" s="9" t="s">
-        <v>300</v>
+        <v>1065</v>
       </c>
       <c r="Q103" s="9" t="s">
-        <v>368</v>
+        <v>1068</v>
       </c>
       <c r="R103" s="9" t="s">
-        <v>1568</v>
+        <v>1066</v>
       </c>
       <c r="S103" s="9" t="s">
-        <v>1140</v>
+        <v>1161</v>
       </c>
       <c r="T103" s="9"/>
       <c r="U103" s="9"/>
@@ -35960,119 +35810,119 @@
         <v>143</v>
       </c>
       <c r="B104" s="17" t="s">
-        <v>822</v>
+        <v>209</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>768</v>
+        <v>850</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>899</v>
+        <v>1062</v>
       </c>
       <c r="F104" s="9" t="s">
-        <v>1480</v>
+        <v>1062</v>
       </c>
       <c r="G104" s="10" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="H104" s="9" t="s">
-        <v>1353</v>
+        <v>1833</v>
       </c>
       <c r="I104" s="19" t="s">
-        <v>1088</v>
+        <v>1113</v>
       </c>
       <c r="J104" s="9" t="s">
-        <v>448</v>
+        <v>1511</v>
       </c>
       <c r="K104" s="19" t="s">
-        <v>1286</v>
+        <v>1835</v>
       </c>
       <c r="L104" s="19" t="s">
-        <v>1928</v>
+        <v>1060</v>
       </c>
       <c r="M104" s="9" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N104" s="9" t="s">
-        <v>787</v>
+        <v>848</v>
       </c>
       <c r="O104" s="9" t="s">
-        <v>283</v>
+        <v>1064</v>
       </c>
       <c r="P104" s="9" t="s">
-        <v>301</v>
+        <v>412</v>
       </c>
       <c r="Q104" s="9" t="s">
-        <v>369</v>
+        <v>1069</v>
       </c>
       <c r="R104" s="9" t="s">
-        <v>1660</v>
+        <v>1067</v>
       </c>
       <c r="S104" s="9" t="s">
-        <v>1141</v>
+        <v>1070</v>
       </c>
       <c r="T104" s="9"/>
       <c r="U104" s="9"/>
     </row>
-    <row r="105" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B105" s="17" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="F105" s="9" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="G105" s="10" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="H105" s="9" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="I105" s="19" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="J105" s="9" t="s">
-        <v>1784</v>
+        <v>1639</v>
       </c>
       <c r="K105" s="19" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="L105" s="19" t="s">
-        <v>1929</v>
+        <v>1927</v>
       </c>
       <c r="M105" s="9" t="s">
-        <v>1721</v>
+        <v>413</v>
       </c>
       <c r="N105" s="9" t="s">
-        <v>697</v>
+        <v>786</v>
       </c>
       <c r="O105" s="9" t="s">
-        <v>1020</v>
+        <v>282</v>
       </c>
       <c r="P105" s="9" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="Q105" s="9" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="R105" s="9" t="s">
-        <v>1661</v>
+        <v>1568</v>
       </c>
       <c r="S105" s="9" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="T105" s="9"/>
       <c r="U105" s="9"/>
@@ -36082,119 +35932,119 @@
         <v>143</v>
       </c>
       <c r="B106" s="17" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>394</v>
+        <v>768</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="F106" s="9" t="s">
-        <v>903</v>
+        <v>1480</v>
       </c>
       <c r="G106" s="10" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="H106" s="9" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="I106" s="19" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="J106" s="9" t="s">
-        <v>1783</v>
+        <v>448</v>
       </c>
       <c r="K106" s="19" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="L106" s="19" t="s">
-        <v>1930</v>
+        <v>1928</v>
       </c>
       <c r="M106" s="9" t="s">
-        <v>258</v>
+        <v>414</v>
       </c>
       <c r="N106" s="9" t="s">
-        <v>258</v>
+        <v>787</v>
       </c>
       <c r="O106" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P106" s="9" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="Q106" s="9" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="R106" s="9" t="s">
-        <v>1569</v>
+        <v>1660</v>
       </c>
       <c r="S106" s="9" t="s">
-        <v>1172</v>
+        <v>1141</v>
       </c>
       <c r="T106" s="9"/>
       <c r="U106" s="9"/>
     </row>
-    <row r="107" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A107" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B107" s="17" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>395</v>
+        <v>769</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="F107" s="9" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="G107" s="10" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="H107" s="9" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="I107" s="19" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="J107" s="9" t="s">
-        <v>1444</v>
+        <v>1784</v>
       </c>
       <c r="K107" s="19" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="L107" s="19" t="s">
-        <v>1931</v>
+        <v>1929</v>
       </c>
       <c r="M107" s="9" t="s">
-        <v>259</v>
+        <v>1721</v>
       </c>
       <c r="N107" s="9" t="s">
-        <v>259</v>
+        <v>697</v>
       </c>
       <c r="O107" s="9" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="P107" s="9" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="Q107" s="9" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="R107" s="9" t="s">
-        <v>1570</v>
+        <v>1661</v>
       </c>
       <c r="S107" s="9" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="T107" s="9"/>
       <c r="U107" s="9"/>
@@ -36204,119 +36054,119 @@
         <v>143</v>
       </c>
       <c r="B108" s="17" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>676</v>
+        <v>394</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="F108" s="9" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="G108" s="10" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="H108" s="9" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="I108" s="19" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="J108" s="9" t="s">
-        <v>1445</v>
+        <v>1783</v>
       </c>
       <c r="K108" s="19" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="L108" s="19" t="s">
-        <v>1932</v>
+        <v>1930</v>
       </c>
       <c r="M108" s="9" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="N108" s="9" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="O108" s="9" t="s">
-        <v>1022</v>
+        <v>284</v>
       </c>
       <c r="P108" s="9" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="Q108" s="9" t="s">
-        <v>1544</v>
+        <v>371</v>
       </c>
       <c r="R108" s="9" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
       <c r="S108" s="9" t="s">
-        <v>1144</v>
+        <v>1172</v>
       </c>
       <c r="T108" s="9"/>
       <c r="U108" s="9"/>
     </row>
-    <row r="109" spans="1:21" ht="210" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B109" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C109" s="11" t="s">
-        <v>1596</v>
+        <v>831</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>222</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>770</v>
+        <v>395</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="F109" s="9" t="s">
-        <v>909</v>
-      </c>
-      <c r="G109" s="11" t="s">
-        <v>1222</v>
-      </c>
-      <c r="H109" s="12" t="s">
-        <v>1358</v>
+        <v>905</v>
+      </c>
+      <c r="G109" s="10" t="s">
+        <v>1220</v>
+      </c>
+      <c r="H109" s="9" t="s">
+        <v>1356</v>
       </c>
       <c r="I109" s="19" t="s">
-        <v>1093</v>
-      </c>
-      <c r="J109" s="12" t="s">
-        <v>1640</v>
+        <v>1091</v>
+      </c>
+      <c r="J109" s="9" t="s">
+        <v>1444</v>
       </c>
       <c r="K109" s="19" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="L109" s="19" t="s">
-        <v>1933</v>
+        <v>1931</v>
       </c>
       <c r="M109" s="9" t="s">
-        <v>1722</v>
-      </c>
-      <c r="N109" s="12" t="s">
-        <v>788</v>
+        <v>259</v>
+      </c>
+      <c r="N109" s="9" t="s">
+        <v>259</v>
       </c>
       <c r="O109" s="9" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="P109" s="9" t="s">
-        <v>1398</v>
+        <v>304</v>
       </c>
       <c r="Q109" s="9" t="s">
-        <v>1650</v>
+        <v>372</v>
       </c>
       <c r="R109" s="9" t="s">
-        <v>1658</v>
+        <v>1570</v>
       </c>
       <c r="S109" s="9" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="T109" s="9"/>
       <c r="U109" s="9"/>
@@ -36326,119 +36176,119 @@
         <v>143</v>
       </c>
       <c r="B110" s="17" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>1767</v>
+        <v>227</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>771</v>
-      </c>
-      <c r="E110" s="25" t="s">
-        <v>910</v>
-      </c>
-      <c r="F110" s="25" t="s">
-        <v>911</v>
+        <v>676</v>
+      </c>
+      <c r="E110" s="9" t="s">
+        <v>906</v>
+      </c>
+      <c r="F110" s="9" t="s">
+        <v>907</v>
       </c>
       <c r="G110" s="10" t="s">
-        <v>1513</v>
+        <v>1221</v>
       </c>
       <c r="H110" s="9" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="I110" s="19" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="J110" s="9" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="K110" s="19" t="s">
-        <v>1326</v>
+        <v>1290</v>
       </c>
       <c r="L110" s="19" t="s">
-        <v>1934</v>
+        <v>1932</v>
       </c>
       <c r="M110" s="9" t="s">
-        <v>498</v>
+        <v>260</v>
       </c>
       <c r="N110" s="9" t="s">
-        <v>789</v>
+        <v>260</v>
       </c>
       <c r="O110" s="9" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="P110" s="9" t="s">
-        <v>980</v>
+        <v>305</v>
       </c>
       <c r="Q110" s="9" t="s">
-        <v>422</v>
+        <v>1544</v>
       </c>
       <c r="R110" s="9" t="s">
-        <v>468</v>
+        <v>1571</v>
       </c>
       <c r="S110" s="9" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="T110" s="9"/>
       <c r="U110" s="9"/>
     </row>
-    <row r="111" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:21" ht="210" x14ac:dyDescent="0.25">
       <c r="A111" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B111" s="17" t="s">
-        <v>845</v>
-      </c>
-      <c r="C111" s="10" t="s">
-        <v>1769</v>
+        <v>51</v>
+      </c>
+      <c r="C111" s="11" t="s">
+        <v>1596</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>772</v>
-      </c>
-      <c r="E111" s="25" t="s">
-        <v>912</v>
-      </c>
-      <c r="F111" s="25" t="s">
-        <v>913</v>
-      </c>
-      <c r="G111" s="10" t="s">
-        <v>1251</v>
-      </c>
-      <c r="H111" s="9" t="s">
-        <v>1360</v>
+        <v>770</v>
+      </c>
+      <c r="E111" s="9" t="s">
+        <v>908</v>
+      </c>
+      <c r="F111" s="9" t="s">
+        <v>909</v>
+      </c>
+      <c r="G111" s="11" t="s">
+        <v>1222</v>
+      </c>
+      <c r="H111" s="12" t="s">
+        <v>1358</v>
       </c>
       <c r="I111" s="19" t="s">
-        <v>497</v>
-      </c>
-      <c r="J111" s="9" t="s">
-        <v>1447</v>
+        <v>1093</v>
+      </c>
+      <c r="J111" s="12" t="s">
+        <v>1640</v>
       </c>
       <c r="K111" s="19" t="s">
-        <v>1327</v>
+        <v>1291</v>
       </c>
       <c r="L111" s="19" t="s">
-        <v>1935</v>
+        <v>1933</v>
       </c>
       <c r="M111" s="9" t="s">
-        <v>499</v>
-      </c>
-      <c r="N111" s="9" t="s">
-        <v>790</v>
+        <v>1722</v>
+      </c>
+      <c r="N111" s="12" t="s">
+        <v>788</v>
       </c>
       <c r="O111" s="9" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="P111" s="9" t="s">
-        <v>467</v>
+        <v>1398</v>
       </c>
       <c r="Q111" s="9" t="s">
-        <v>423</v>
+        <v>1650</v>
       </c>
       <c r="R111" s="9" t="s">
-        <v>973</v>
+        <v>1658</v>
       </c>
       <c r="S111" s="9" t="s">
-        <v>569</v>
+        <v>1145</v>
       </c>
       <c r="T111" s="9"/>
       <c r="U111" s="9"/>
@@ -36448,180 +36298,180 @@
         <v>143</v>
       </c>
       <c r="B112" s="17" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>1770</v>
+        <v>1767</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E112" s="25" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="F112" s="25" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="G112" s="10" t="s">
-        <v>1252</v>
+        <v>1513</v>
       </c>
       <c r="H112" s="9" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="I112" s="19" t="s">
-        <v>1848</v>
+        <v>1094</v>
       </c>
       <c r="J112" s="9" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="K112" s="19" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="L112" s="19" t="s">
-        <v>1936</v>
+        <v>1934</v>
       </c>
       <c r="M112" s="9" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="N112" s="9" t="s">
-        <v>500</v>
+        <v>789</v>
       </c>
       <c r="O112" s="9" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="P112" s="9" t="s">
-        <v>1597</v>
+        <v>980</v>
       </c>
       <c r="Q112" s="9" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="R112" s="9" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="S112" s="9" t="s">
-        <v>1176</v>
+        <v>1146</v>
       </c>
       <c r="T112" s="9"/>
       <c r="U112" s="9"/>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B113" s="17" t="s">
-        <v>841</v>
+        <v>845</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>63</v>
+        <v>1769</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="E113" s="9" t="s">
-        <v>879</v>
-      </c>
-      <c r="F113" s="9" t="s">
-        <v>880</v>
+        <v>772</v>
+      </c>
+      <c r="E113" s="25" t="s">
+        <v>912</v>
+      </c>
+      <c r="F113" s="25" t="s">
+        <v>913</v>
       </c>
       <c r="G113" s="10" t="s">
-        <v>1223</v>
+        <v>1251</v>
       </c>
       <c r="H113" s="9" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="I113" s="19" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="J113" s="9" t="s">
-        <v>449</v>
+        <v>1447</v>
       </c>
       <c r="K113" s="19" t="s">
-        <v>1292</v>
+        <v>1327</v>
       </c>
       <c r="L113" s="19" t="s">
-        <v>1937</v>
+        <v>1935</v>
       </c>
       <c r="M113" s="9" t="s">
-        <v>261</v>
+        <v>499</v>
       </c>
       <c r="N113" s="9" t="s">
-        <v>261</v>
+        <v>790</v>
       </c>
       <c r="O113" s="9" t="s">
-        <v>261</v>
+        <v>1025</v>
       </c>
       <c r="P113" s="9" t="s">
-        <v>261</v>
+        <v>467</v>
       </c>
       <c r="Q113" s="9" t="s">
-        <v>1545</v>
+        <v>423</v>
       </c>
       <c r="R113" s="9" t="s">
-        <v>1565</v>
+        <v>973</v>
       </c>
       <c r="S113" s="9" t="s">
-        <v>1147</v>
+        <v>569</v>
       </c>
       <c r="T113" s="9"/>
       <c r="U113" s="9"/>
     </row>
-    <row r="114" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B114" s="17" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>171</v>
+        <v>1770</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>774</v>
-      </c>
-      <c r="E114" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="F114" s="9" t="s">
-        <v>916</v>
+        <v>773</v>
+      </c>
+      <c r="E114" s="25" t="s">
+        <v>914</v>
+      </c>
+      <c r="F114" s="25" t="s">
+        <v>915</v>
       </c>
       <c r="G114" s="10" t="s">
-        <v>480</v>
+        <v>1252</v>
       </c>
       <c r="H114" s="9" t="s">
-        <v>245</v>
+        <v>1361</v>
       </c>
       <c r="I114" s="19" t="s">
-        <v>492</v>
+        <v>1848</v>
       </c>
       <c r="J114" s="9" t="s">
-        <v>450</v>
+        <v>1448</v>
       </c>
       <c r="K114" s="19" t="s">
-        <v>1293</v>
+        <v>1328</v>
       </c>
       <c r="L114" s="19" t="s">
-        <v>576</v>
+        <v>1936</v>
       </c>
       <c r="M114" s="9" t="s">
-        <v>415</v>
+        <v>500</v>
       </c>
       <c r="N114" s="9" t="s">
-        <v>791</v>
+        <v>500</v>
       </c>
       <c r="O114" s="9" t="s">
-        <v>306</v>
+        <v>1026</v>
       </c>
       <c r="P114" s="9" t="s">
-        <v>306</v>
+        <v>1597</v>
       </c>
       <c r="Q114" s="9" t="s">
-        <v>373</v>
+        <v>424</v>
       </c>
       <c r="R114" s="9" t="s">
-        <v>1663</v>
+        <v>469</v>
       </c>
       <c r="S114" s="9" t="s">
-        <v>355</v>
+        <v>1176</v>
       </c>
       <c r="T114" s="9"/>
       <c r="U114" s="9"/>
@@ -36631,58 +36481,58 @@
         <v>143</v>
       </c>
       <c r="B115" s="17" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>396</v>
+        <v>261</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>329</v>
+        <v>879</v>
       </c>
       <c r="F115" s="9" t="s">
-        <v>917</v>
+        <v>880</v>
       </c>
       <c r="G115" s="10" t="s">
-        <v>481</v>
+        <v>1223</v>
       </c>
       <c r="H115" s="9" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="I115" s="19" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J115" s="9" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="K115" s="19" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="L115" s="19" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="M115" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="N115" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O115" s="9" t="s">
-        <v>1027</v>
+        <v>261</v>
       </c>
       <c r="P115" s="9" t="s">
-        <v>1027</v>
+        <v>261</v>
       </c>
       <c r="Q115" s="9" t="s">
-        <v>374</v>
+        <v>1545</v>
       </c>
       <c r="R115" s="9" t="s">
-        <v>319</v>
+        <v>1565</v>
       </c>
       <c r="S115" s="9" t="s">
-        <v>356</v>
+        <v>1147</v>
       </c>
       <c r="T115" s="9"/>
       <c r="U115" s="9"/>
@@ -36692,58 +36542,58 @@
         <v>143</v>
       </c>
       <c r="B116" s="17" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>677</v>
+        <v>774</v>
       </c>
       <c r="E116" s="9" t="s">
-        <v>918</v>
+        <v>328</v>
       </c>
       <c r="F116" s="9" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="G116" s="10" t="s">
-        <v>1224</v>
+        <v>480</v>
       </c>
       <c r="H116" s="9" t="s">
-        <v>1503</v>
+        <v>245</v>
       </c>
       <c r="I116" s="19" t="s">
-        <v>1095</v>
+        <v>492</v>
       </c>
       <c r="J116" s="9" t="s">
-        <v>1789</v>
+        <v>450</v>
       </c>
       <c r="K116" s="19" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="L116" s="19" t="s">
-        <v>1939</v>
+        <v>576</v>
       </c>
       <c r="M116" s="9" t="s">
-        <v>263</v>
+        <v>415</v>
       </c>
       <c r="N116" s="9" t="s">
-        <v>698</v>
+        <v>791</v>
       </c>
       <c r="O116" s="9" t="s">
-        <v>285</v>
+        <v>306</v>
       </c>
       <c r="P116" s="9" t="s">
-        <v>981</v>
+        <v>306</v>
       </c>
       <c r="Q116" s="9" t="s">
-        <v>1546</v>
+        <v>373</v>
       </c>
       <c r="R116" s="9" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="S116" s="9" t="s">
-        <v>1148</v>
+        <v>355</v>
       </c>
       <c r="T116" s="9"/>
       <c r="U116" s="9"/>
@@ -36753,180 +36603,180 @@
         <v>143</v>
       </c>
       <c r="B117" s="17" t="s">
-        <v>68</v>
+        <v>843</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D117" s="9" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E117" s="9" t="s">
-        <v>919</v>
+        <v>329</v>
       </c>
       <c r="F117" s="9" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="G117" s="10" t="s">
-        <v>1225</v>
+        <v>481</v>
       </c>
       <c r="H117" s="9" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="I117" s="19" t="s">
-        <v>1096</v>
+        <v>493</v>
       </c>
       <c r="J117" s="9" t="s">
-        <v>1449</v>
+        <v>451</v>
       </c>
       <c r="K117" s="19" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="L117" s="19" t="s">
-        <v>1940</v>
+        <v>1938</v>
       </c>
       <c r="M117" s="9" t="s">
-        <v>416</v>
+        <v>262</v>
       </c>
       <c r="N117" s="9" t="s">
-        <v>416</v>
+        <v>262</v>
       </c>
       <c r="O117" s="9" t="s">
-        <v>286</v>
+        <v>1027</v>
       </c>
       <c r="P117" s="9" t="s">
-        <v>286</v>
+        <v>1027</v>
       </c>
       <c r="Q117" s="9" t="s">
-        <v>1547</v>
+        <v>374</v>
       </c>
       <c r="R117" s="9" t="s">
-        <v>1566</v>
+        <v>319</v>
       </c>
       <c r="S117" s="9" t="s">
-        <v>1149</v>
+        <v>356</v>
       </c>
       <c r="T117" s="9"/>
       <c r="U117" s="9"/>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A118" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B118" s="17" t="s">
-        <v>73</v>
+        <v>844</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>236</v>
+        <v>172</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="F118" s="9" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="G118" s="10" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="H118" s="9" t="s">
-        <v>1365</v>
+        <v>1503</v>
       </c>
       <c r="I118" s="19" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="J118" s="9" t="s">
-        <v>1791</v>
+        <v>1789</v>
       </c>
       <c r="K118" s="19" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="L118" s="19" t="s">
-        <v>1941</v>
+        <v>1939</v>
       </c>
       <c r="M118" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="N118" s="9" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="O118" s="9" t="s">
-        <v>1028</v>
+        <v>285</v>
       </c>
       <c r="P118" s="9" t="s">
-        <v>287</v>
+        <v>981</v>
       </c>
       <c r="Q118" s="9" t="s">
-        <v>375</v>
+        <v>1546</v>
       </c>
       <c r="R118" s="9" t="s">
-        <v>747</v>
+        <v>1662</v>
       </c>
       <c r="S118" s="9" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="T118" s="9"/>
       <c r="U118" s="9"/>
     </row>
-    <row r="119" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A119" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B119" s="17" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E119" s="9" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="F119" s="9" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="G119" s="10" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="H119" s="9" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="I119" s="19" t="s">
-        <v>494</v>
+        <v>1096</v>
       </c>
       <c r="J119" s="9" t="s">
-        <v>1508</v>
+        <v>1449</v>
       </c>
       <c r="K119" s="19" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="L119" s="19" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="M119" s="9" t="s">
-        <v>265</v>
+        <v>416</v>
       </c>
       <c r="N119" s="9" t="s">
-        <v>700</v>
+        <v>416</v>
       </c>
       <c r="O119" s="9" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="P119" s="9" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="Q119" s="9" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="R119" s="9" t="s">
-        <v>1666</v>
+        <v>1566</v>
       </c>
       <c r="S119" s="9" t="s">
-        <v>1173</v>
+        <v>1149</v>
       </c>
       <c r="T119" s="9"/>
       <c r="U119" s="9"/>
@@ -36936,119 +36786,119 @@
         <v>143</v>
       </c>
       <c r="B120" s="17" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>58</v>
+        <v>236</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>399</v>
+        <v>678</v>
       </c>
       <c r="E120" s="9" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="F120" s="9" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="G120" s="10" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="H120" s="9" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="I120" s="19" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="J120" s="9" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="K120" s="19" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="L120" s="19" t="s">
-        <v>1943</v>
+        <v>1941</v>
       </c>
       <c r="M120" s="9" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="N120" s="9" t="s">
-        <v>266</v>
+        <v>699</v>
       </c>
       <c r="O120" s="9" t="s">
-        <v>289</v>
+        <v>1028</v>
       </c>
       <c r="P120" s="9" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
       <c r="Q120" s="9" t="s">
-        <v>1549</v>
+        <v>375</v>
       </c>
       <c r="R120" s="9" t="s">
-        <v>1664</v>
+        <v>747</v>
       </c>
       <c r="S120" s="9" t="s">
-        <v>357</v>
+        <v>1150</v>
       </c>
       <c r="T120" s="9"/>
       <c r="U120" s="9"/>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B121" s="17" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>775</v>
+        <v>398</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="F121" s="9" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="G121" s="10" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="H121" s="9" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="I121" s="19" t="s">
-        <v>1099</v>
+        <v>494</v>
       </c>
       <c r="J121" s="9" t="s">
-        <v>1793</v>
+        <v>1508</v>
       </c>
       <c r="K121" s="19" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L121" s="19" t="s">
-        <v>1944</v>
+        <v>1942</v>
       </c>
       <c r="M121" s="9" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="N121" s="9" t="s">
-        <v>792</v>
+        <v>700</v>
       </c>
       <c r="O121" s="9" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="P121" s="9" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="Q121" s="9" t="s">
-        <v>376</v>
+        <v>1548</v>
       </c>
       <c r="R121" s="9" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="S121" s="9" t="s">
-        <v>1151</v>
+        <v>1173</v>
       </c>
       <c r="T121" s="9"/>
       <c r="U121" s="9"/>
@@ -37058,119 +36908,119 @@
         <v>143</v>
       </c>
       <c r="B122" s="17" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>776</v>
+        <v>399</v>
       </c>
       <c r="E122" s="9" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="F122" s="9" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="G122" s="10" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="H122" s="9" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="I122" s="19" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="J122" s="9" t="s">
-        <v>1450</v>
+        <v>1792</v>
       </c>
       <c r="K122" s="19" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="L122" s="19" t="s">
-        <v>1945</v>
+        <v>1943</v>
       </c>
       <c r="M122" s="9" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="N122" s="9" t="s">
-        <v>793</v>
+        <v>266</v>
       </c>
       <c r="O122" s="9" t="s">
-        <v>1029</v>
+        <v>289</v>
       </c>
       <c r="P122" s="9" t="s">
-        <v>982</v>
+        <v>307</v>
       </c>
       <c r="Q122" s="9" t="s">
-        <v>377</v>
+        <v>1549</v>
       </c>
       <c r="R122" s="9" t="s">
-        <v>320</v>
+        <v>1664</v>
       </c>
       <c r="S122" s="9" t="s">
-        <v>1152</v>
+        <v>357</v>
       </c>
       <c r="T122" s="9"/>
       <c r="U122" s="9"/>
     </row>
-    <row r="123" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A123" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B123" s="17" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D123" s="9" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="E123" s="9" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="F123" s="9" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="G123" s="10" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="H123" s="9" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="I123" s="19" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="J123" s="9" t="s">
-        <v>1509</v>
+        <v>1793</v>
       </c>
       <c r="K123" s="19" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="L123" s="19" t="s">
-        <v>1946</v>
+        <v>1944</v>
       </c>
       <c r="M123" s="9" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="N123" s="9" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="O123" s="9" t="s">
-        <v>1030</v>
+        <v>290</v>
       </c>
       <c r="P123" s="9" t="s">
-        <v>1399</v>
+        <v>308</v>
       </c>
       <c r="Q123" s="9" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="R123" s="9" t="s">
-        <v>1567</v>
+        <v>1665</v>
       </c>
       <c r="S123" s="9" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="T123" s="9"/>
       <c r="U123" s="9"/>
@@ -37180,180 +37030,180 @@
         <v>143</v>
       </c>
       <c r="B124" s="17" t="s">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="C124" s="10" t="s">
-        <v>586</v>
+        <v>60</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>587</v>
+        <v>776</v>
       </c>
       <c r="E124" s="9" t="s">
-        <v>588</v>
+        <v>928</v>
       </c>
       <c r="F124" s="9" t="s">
-        <v>588</v>
+        <v>929</v>
       </c>
       <c r="G124" s="10" t="s">
-        <v>589</v>
+        <v>1230</v>
       </c>
       <c r="H124" s="9" t="s">
-        <v>1347</v>
+        <v>1369</v>
       </c>
       <c r="I124" s="19" t="s">
-        <v>590</v>
+        <v>1100</v>
       </c>
       <c r="J124" s="9" t="s">
-        <v>591</v>
+        <v>1450</v>
       </c>
       <c r="K124" s="19" t="s">
-        <v>1280</v>
+        <v>1301</v>
       </c>
       <c r="L124" s="19" t="s">
-        <v>1920</v>
+        <v>1945</v>
       </c>
       <c r="M124" s="9" t="s">
-        <v>592</v>
+        <v>268</v>
       </c>
       <c r="N124" s="9" t="s">
-        <v>592</v>
+        <v>793</v>
       </c>
       <c r="O124" s="9" t="s">
-        <v>1014</v>
+        <v>1029</v>
       </c>
       <c r="P124" s="9" t="s">
-        <v>593</v>
+        <v>982</v>
       </c>
       <c r="Q124" s="9" t="s">
-        <v>594</v>
+        <v>377</v>
       </c>
       <c r="R124" s="9" t="s">
-        <v>743</v>
+        <v>320</v>
       </c>
       <c r="S124" s="9" t="s">
-        <v>1136</v>
+        <v>1152</v>
       </c>
       <c r="T124" s="9"/>
       <c r="U124" s="9"/>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B125" s="17" t="s">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>595</v>
+        <v>61</v>
       </c>
       <c r="D125" s="9" t="s">
-        <v>679</v>
+        <v>777</v>
       </c>
       <c r="E125" s="9" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="F125" s="9" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="G125" s="10" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="H125" s="9" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="I125" s="19" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="J125" s="9" t="s">
-        <v>1451</v>
+        <v>1509</v>
       </c>
       <c r="K125" s="19" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="L125" s="19" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="M125" s="9" t="s">
-        <v>601</v>
+        <v>269</v>
       </c>
       <c r="N125" s="9" t="s">
-        <v>701</v>
+        <v>794</v>
       </c>
       <c r="O125" s="9" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="P125" s="9" t="s">
-        <v>603</v>
+        <v>1399</v>
       </c>
       <c r="Q125" s="9" t="s">
-        <v>1550</v>
+        <v>378</v>
       </c>
       <c r="R125" s="9" t="s">
-        <v>748</v>
+        <v>1567</v>
       </c>
       <c r="S125" s="9" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="T125" s="9"/>
       <c r="U125" s="9"/>
     </row>
-    <row r="126" spans="1:21" ht="241.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A126" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B126" s="17" t="s">
-        <v>228</v>
+        <v>36</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>1768</v>
+        <v>586</v>
       </c>
       <c r="D126" s="9" t="s">
-        <v>1185</v>
+        <v>587</v>
       </c>
       <c r="E126" s="9" t="s">
-        <v>1478</v>
+        <v>588</v>
       </c>
       <c r="F126" s="9" t="s">
-        <v>1479</v>
+        <v>588</v>
       </c>
       <c r="G126" s="10" t="s">
-        <v>1210</v>
+        <v>589</v>
       </c>
       <c r="H126" s="9" t="s">
-        <v>1588</v>
+        <v>1347</v>
       </c>
       <c r="I126" s="19" t="s">
-        <v>1589</v>
+        <v>590</v>
       </c>
       <c r="J126" s="9" t="s">
-        <v>1590</v>
+        <v>591</v>
       </c>
       <c r="K126" s="19" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="L126" s="19" t="s">
-        <v>1964</v>
+        <v>1920</v>
       </c>
       <c r="M126" s="9" t="s">
-        <v>1591</v>
+        <v>592</v>
       </c>
       <c r="N126" s="9" t="s">
-        <v>1592</v>
+        <v>592</v>
       </c>
       <c r="O126" s="9" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="P126" s="9" t="s">
-        <v>1593</v>
+        <v>593</v>
       </c>
       <c r="Q126" s="9" t="s">
-        <v>1594</v>
+        <v>594</v>
       </c>
       <c r="R126" s="9" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="S126" s="9" t="s">
-        <v>1595</v>
+        <v>1136</v>
       </c>
       <c r="T126" s="9"/>
       <c r="U126" s="9"/>
@@ -37363,302 +37213,302 @@
         <v>143</v>
       </c>
       <c r="B127" s="17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>600</v>
-      </c>
-      <c r="E127" s="12" t="s">
-        <v>934</v>
-      </c>
-      <c r="F127" s="12" t="s">
-        <v>934</v>
+        <v>679</v>
+      </c>
+      <c r="E127" s="9" t="s">
+        <v>932</v>
+      </c>
+      <c r="F127" s="9" t="s">
+        <v>933</v>
       </c>
       <c r="G127" s="10" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="H127" s="9" t="s">
-        <v>599</v>
+        <v>1371</v>
       </c>
       <c r="I127" s="19" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="J127" s="9" t="s">
-        <v>597</v>
+        <v>1451</v>
       </c>
       <c r="K127" s="19" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="L127" s="19" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="M127" s="9" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="N127" s="9" t="s">
-        <v>795</v>
+        <v>701</v>
       </c>
       <c r="O127" s="9" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="P127" s="9" t="s">
-        <v>604</v>
-      </c>
-      <c r="Q127" s="12" t="s">
-        <v>605</v>
+        <v>603</v>
+      </c>
+      <c r="Q127" s="9" t="s">
+        <v>1550</v>
       </c>
       <c r="R127" s="9" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="S127" s="9" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="T127" s="9"/>
       <c r="U127" s="9"/>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:21" ht="241.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B128" s="17" t="s">
-        <v>48</v>
+        <v>228</v>
       </c>
       <c r="C128" s="10" t="s">
-        <v>598</v>
+        <v>1768</v>
       </c>
       <c r="D128" s="9" t="s">
-        <v>680</v>
+        <v>1185</v>
       </c>
       <c r="E128" s="9" t="s">
-        <v>935</v>
+        <v>1478</v>
       </c>
       <c r="F128" s="9" t="s">
-        <v>936</v>
+        <v>1479</v>
       </c>
       <c r="G128" s="10" t="s">
-        <v>1234</v>
+        <v>1210</v>
       </c>
       <c r="H128" s="9" t="s">
-        <v>1372</v>
+        <v>1588</v>
       </c>
       <c r="I128" s="19" t="s">
-        <v>1849</v>
+        <v>1589</v>
       </c>
       <c r="J128" s="9" t="s">
-        <v>1452</v>
+        <v>1590</v>
       </c>
       <c r="K128" s="19" t="s">
-        <v>1305</v>
+        <v>1281</v>
       </c>
       <c r="L128" s="19" t="s">
-        <v>1949</v>
+        <v>1964</v>
       </c>
       <c r="M128" s="9" t="s">
-        <v>796</v>
+        <v>1591</v>
       </c>
       <c r="N128" s="9" t="s">
-        <v>796</v>
+        <v>1592</v>
       </c>
       <c r="O128" s="9" t="s">
-        <v>1033</v>
+        <v>1015</v>
       </c>
       <c r="P128" s="9" t="s">
-        <v>1598</v>
+        <v>1593</v>
       </c>
       <c r="Q128" s="9" t="s">
-        <v>1551</v>
+        <v>1594</v>
       </c>
       <c r="R128" s="9" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="S128" s="9" t="s">
-        <v>1174</v>
+        <v>1595</v>
       </c>
       <c r="T128" s="9"/>
       <c r="U128" s="9"/>
     </row>
-    <row r="129" spans="1:21" ht="210" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A129" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B129" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="C129" s="11" t="s">
-        <v>223</v>
+        <v>47</v>
+      </c>
+      <c r="C129" s="10" t="s">
+        <v>596</v>
       </c>
       <c r="D129" s="9" t="s">
-        <v>778</v>
-      </c>
-      <c r="E129" s="9" t="s">
-        <v>937</v>
-      </c>
-      <c r="F129" s="9" t="s">
-        <v>938</v>
-      </c>
-      <c r="G129" s="11" t="s">
-        <v>1235</v>
-      </c>
-      <c r="H129" s="12" t="s">
-        <v>1373</v>
+        <v>600</v>
+      </c>
+      <c r="E129" s="12" t="s">
+        <v>934</v>
+      </c>
+      <c r="F129" s="12" t="s">
+        <v>934</v>
+      </c>
+      <c r="G129" s="10" t="s">
+        <v>1233</v>
+      </c>
+      <c r="H129" s="9" t="s">
+        <v>599</v>
       </c>
       <c r="I129" s="19" t="s">
-        <v>1599</v>
-      </c>
-      <c r="J129" s="12" t="s">
-        <v>1641</v>
+        <v>1103</v>
+      </c>
+      <c r="J129" s="9" t="s">
+        <v>597</v>
       </c>
       <c r="K129" s="19" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="L129" s="19" t="s">
-        <v>1950</v>
+        <v>1948</v>
       </c>
       <c r="M129" s="9" t="s">
-        <v>1723</v>
-      </c>
-      <c r="N129" s="12" t="s">
-        <v>797</v>
+        <v>602</v>
+      </c>
+      <c r="N129" s="9" t="s">
+        <v>795</v>
       </c>
       <c r="O129" s="9" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="P129" s="9" t="s">
-        <v>1400</v>
-      </c>
-      <c r="Q129" s="9" t="s">
-        <v>1651</v>
+        <v>604</v>
+      </c>
+      <c r="Q129" s="12" t="s">
+        <v>605</v>
       </c>
       <c r="R129" s="9" t="s">
-        <v>1667</v>
+        <v>749</v>
       </c>
       <c r="S129" s="9" t="s">
-        <v>1600</v>
+        <v>1155</v>
       </c>
       <c r="T129" s="9"/>
       <c r="U129" s="9"/>
     </row>
-    <row r="130" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A130" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B130" s="17" t="s">
-        <v>103</v>
+        <v>48</v>
       </c>
       <c r="C130" s="10" t="s">
-        <v>542</v>
+        <v>598</v>
       </c>
       <c r="D130" s="9" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E130" s="9" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="F130" s="9" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="G130" s="10" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="H130" s="9" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="I130" s="19" t="s">
-        <v>1104</v>
+        <v>1849</v>
       </c>
       <c r="J130" s="9" t="s">
-        <v>1794</v>
+        <v>1452</v>
       </c>
       <c r="K130" s="19" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="L130" s="19" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="M130" s="9" t="s">
-        <v>555</v>
+        <v>796</v>
       </c>
       <c r="N130" s="9" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="O130" s="9" t="s">
-        <v>558</v>
+        <v>1033</v>
       </c>
       <c r="P130" s="9" t="s">
-        <v>561</v>
+        <v>1598</v>
       </c>
       <c r="Q130" s="9" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="R130" s="9" t="s">
-        <v>1572</v>
+        <v>750</v>
       </c>
       <c r="S130" s="9" t="s">
-        <v>1156</v>
+        <v>1174</v>
       </c>
       <c r="T130" s="9"/>
       <c r="U130" s="9"/>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:21" ht="210" x14ac:dyDescent="0.25">
       <c r="A131" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B131" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="C131" s="10" t="s">
-        <v>173</v>
+        <v>123</v>
+      </c>
+      <c r="C131" s="11" t="s">
+        <v>223</v>
       </c>
       <c r="D131" s="9" t="s">
-        <v>682</v>
+        <v>778</v>
       </c>
       <c r="E131" s="9" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="F131" s="9" t="s">
-        <v>942</v>
-      </c>
-      <c r="G131" s="10" t="s">
-        <v>1237</v>
-      </c>
-      <c r="H131" s="9" t="s">
-        <v>1375</v>
+        <v>938</v>
+      </c>
+      <c r="G131" s="11" t="s">
+        <v>1235</v>
+      </c>
+      <c r="H131" s="12" t="s">
+        <v>1373</v>
       </c>
       <c r="I131" s="19" t="s">
-        <v>1105</v>
-      </c>
-      <c r="J131" s="9" t="s">
-        <v>452</v>
+        <v>1599</v>
+      </c>
+      <c r="J131" s="12" t="s">
+        <v>1641</v>
       </c>
       <c r="K131" s="19" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="L131" s="19" t="s">
-        <v>1952</v>
+        <v>1950</v>
       </c>
       <c r="M131" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="N131" s="9" t="s">
-        <v>702</v>
+        <v>1723</v>
+      </c>
+      <c r="N131" s="12" t="s">
+        <v>797</v>
       </c>
       <c r="O131" s="9" t="s">
-        <v>291</v>
+        <v>1034</v>
       </c>
       <c r="P131" s="9" t="s">
-        <v>291</v>
+        <v>1400</v>
       </c>
       <c r="Q131" s="9" t="s">
-        <v>379</v>
+        <v>1651</v>
       </c>
       <c r="R131" s="9" t="s">
-        <v>1573</v>
+        <v>1667</v>
       </c>
       <c r="S131" s="9" t="s">
-        <v>1157</v>
+        <v>1600</v>
       </c>
       <c r="T131" s="9"/>
       <c r="U131" s="9"/>
@@ -37668,58 +37518,58 @@
         <v>143</v>
       </c>
       <c r="B132" s="17" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C132" s="10" t="s">
-        <v>124</v>
+        <v>542</v>
       </c>
       <c r="D132" s="9" t="s">
-        <v>683</v>
-      </c>
-      <c r="E132" s="12" t="s">
-        <v>943</v>
-      </c>
-      <c r="F132" s="12" t="s">
-        <v>943</v>
+        <v>681</v>
+      </c>
+      <c r="E132" s="9" t="s">
+        <v>939</v>
+      </c>
+      <c r="F132" s="9" t="s">
+        <v>940</v>
       </c>
       <c r="G132" s="10" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="H132" s="9" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="I132" s="19" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="J132" s="9" t="s">
-        <v>453</v>
+        <v>1794</v>
       </c>
       <c r="K132" s="19" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="L132" s="19" t="s">
-        <v>1953</v>
+        <v>1951</v>
       </c>
       <c r="M132" s="9" t="s">
-        <v>271</v>
+        <v>555</v>
       </c>
       <c r="N132" s="9" t="s">
-        <v>271</v>
+        <v>798</v>
       </c>
       <c r="O132" s="9" t="s">
-        <v>292</v>
+        <v>558</v>
       </c>
       <c r="P132" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q132" s="12" t="s">
-        <v>380</v>
+        <v>561</v>
+      </c>
+      <c r="Q132" s="9" t="s">
+        <v>1552</v>
       </c>
       <c r="R132" s="9" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="S132" s="9" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="T132" s="9"/>
       <c r="U132" s="9"/>
@@ -37729,363 +37579,363 @@
         <v>143</v>
       </c>
       <c r="B133" s="17" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="D133" s="9" t="s">
-        <v>400</v>
+        <v>682</v>
       </c>
       <c r="E133" s="9" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="F133" s="9" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="G133" s="10" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="H133" s="9" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="I133" s="19" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="J133" s="9" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="K133" s="19" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="L133" s="19" t="s">
-        <v>1954</v>
+        <v>1952</v>
       </c>
       <c r="M133" s="9" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="N133" s="9" t="s">
-        <v>272</v>
+        <v>702</v>
       </c>
       <c r="O133" s="9" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="P133" s="9" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
       <c r="Q133" s="9" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="R133" s="9" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="S133" s="9" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="T133" s="9"/>
       <c r="U133" s="9"/>
     </row>
-    <row r="134" spans="1:21" ht="210" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B134" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="C134" s="11" t="s">
-        <v>225</v>
+        <v>113</v>
+      </c>
+      <c r="C134" s="10" t="s">
+        <v>124</v>
       </c>
       <c r="D134" s="9" t="s">
-        <v>779</v>
-      </c>
-      <c r="E134" s="9" t="s">
-        <v>946</v>
-      </c>
-      <c r="F134" s="9" t="s">
-        <v>947</v>
-      </c>
-      <c r="G134" s="11" t="s">
-        <v>1240</v>
-      </c>
-      <c r="H134" s="12" t="s">
-        <v>1378</v>
+        <v>683</v>
+      </c>
+      <c r="E134" s="12" t="s">
+        <v>943</v>
+      </c>
+      <c r="F134" s="12" t="s">
+        <v>943</v>
+      </c>
+      <c r="G134" s="10" t="s">
+        <v>1238</v>
+      </c>
+      <c r="H134" s="9" t="s">
+        <v>1376</v>
       </c>
       <c r="I134" s="19" t="s">
-        <v>1850</v>
-      </c>
-      <c r="J134" s="12" t="s">
-        <v>455</v>
+        <v>1106</v>
+      </c>
+      <c r="J134" s="9" t="s">
+        <v>453</v>
       </c>
       <c r="K134" s="19" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="L134" s="19" t="s">
-        <v>1976</v>
+        <v>1953</v>
       </c>
       <c r="M134" s="9" t="s">
-        <v>1724</v>
-      </c>
-      <c r="N134" s="12" t="s">
-        <v>799</v>
+        <v>271</v>
+      </c>
+      <c r="N134" s="9" t="s">
+        <v>271</v>
       </c>
       <c r="O134" s="9" t="s">
-        <v>1035</v>
+        <v>292</v>
       </c>
       <c r="P134" s="9" t="s">
-        <v>1601</v>
-      </c>
-      <c r="Q134" s="9" t="s">
-        <v>1553</v>
+        <v>309</v>
+      </c>
+      <c r="Q134" s="12" t="s">
+        <v>380</v>
       </c>
       <c r="R134" s="9" t="s">
-        <v>1668</v>
+        <v>1574</v>
       </c>
       <c r="S134" s="9" t="s">
-        <v>1175</v>
+        <v>1158</v>
       </c>
       <c r="T134" s="9"/>
       <c r="U134" s="9"/>
     </row>
-    <row r="135" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A135" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B135" s="17" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D135" s="9" t="s">
-        <v>684</v>
+        <v>400</v>
       </c>
       <c r="E135" s="9" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="F135" s="9" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="G135" s="10" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="H135" s="9" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="I135" s="19" t="s">
-        <v>1851</v>
+        <v>1107</v>
       </c>
       <c r="J135" s="9" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="K135" s="19" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="L135" s="19" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="M135" s="9" t="s">
-        <v>417</v>
+        <v>272</v>
       </c>
       <c r="N135" s="9" t="s">
-        <v>703</v>
+        <v>272</v>
       </c>
       <c r="O135" s="9" t="s">
-        <v>1036</v>
+        <v>293</v>
       </c>
       <c r="P135" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Q135" s="9" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="R135" s="9" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="S135" s="9" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="T135" s="9"/>
       <c r="U135" s="9"/>
     </row>
-    <row r="136" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:21" ht="210" x14ac:dyDescent="0.25">
       <c r="A136" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B136" s="17" t="s">
-        <v>606</v>
-      </c>
-      <c r="C136" s="10" t="s">
-        <v>1750</v>
+        <v>132</v>
+      </c>
+      <c r="C136" s="11" t="s">
+        <v>225</v>
       </c>
       <c r="D136" s="9" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E136" s="9" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="F136" s="9" t="s">
-        <v>951</v>
-      </c>
-      <c r="G136" s="10" t="s">
-        <v>1242</v>
-      </c>
-      <c r="H136" s="9" t="s">
-        <v>1380</v>
+        <v>947</v>
+      </c>
+      <c r="G136" s="11" t="s">
+        <v>1240</v>
+      </c>
+      <c r="H136" s="12" t="s">
+        <v>1378</v>
       </c>
       <c r="I136" s="19" t="s">
-        <v>1108</v>
-      </c>
-      <c r="J136" s="9" t="s">
-        <v>1510</v>
+        <v>1850</v>
+      </c>
+      <c r="J136" s="12" t="s">
+        <v>455</v>
       </c>
       <c r="K136" s="19" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="L136" s="19" t="s">
-        <v>1968</v>
+        <v>1976</v>
       </c>
       <c r="M136" s="9" t="s">
-        <v>630</v>
-      </c>
-      <c r="N136" s="9" t="s">
-        <v>630</v>
+        <v>1724</v>
+      </c>
+      <c r="N136" s="12" t="s">
+        <v>799</v>
       </c>
       <c r="O136" s="9" t="s">
-        <v>634</v>
+        <v>1035</v>
       </c>
       <c r="P136" s="9" t="s">
-        <v>634</v>
+        <v>1601</v>
       </c>
       <c r="Q136" s="9" t="s">
-        <v>639</v>
+        <v>1553</v>
       </c>
       <c r="R136" s="9" t="s">
-        <v>751</v>
+        <v>1668</v>
       </c>
       <c r="S136" s="9" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="T136" s="9"/>
       <c r="U136" s="9"/>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A137" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B137" s="17" t="s">
-        <v>608</v>
+        <v>126</v>
       </c>
       <c r="C137" s="10" t="s">
-        <v>607</v>
+        <v>131</v>
       </c>
       <c r="D137" s="9" t="s">
-        <v>615</v>
+        <v>684</v>
       </c>
       <c r="E137" s="9" t="s">
-        <v>1481</v>
+        <v>948</v>
       </c>
       <c r="F137" s="9" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="G137" s="10" t="s">
-        <v>619</v>
+        <v>1241</v>
       </c>
       <c r="H137" s="9" t="s">
-        <v>623</v>
+        <v>1379</v>
       </c>
       <c r="I137" s="19" t="s">
-        <v>625</v>
+        <v>1851</v>
       </c>
       <c r="J137" s="9" t="s">
-        <v>627</v>
+        <v>456</v>
       </c>
       <c r="K137" s="19" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="L137" s="19" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="M137" s="9" t="s">
-        <v>704</v>
+        <v>417</v>
       </c>
       <c r="N137" s="9" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="O137" s="9" t="s">
-        <v>635</v>
+        <v>1036</v>
       </c>
       <c r="P137" s="9" t="s">
-        <v>635</v>
+        <v>311</v>
       </c>
       <c r="Q137" s="9" t="s">
-        <v>649</v>
+        <v>382</v>
       </c>
       <c r="R137" s="9" t="s">
-        <v>642</v>
+        <v>1576</v>
       </c>
       <c r="S137" s="9" t="s">
-        <v>647</v>
+        <v>1160</v>
       </c>
       <c r="T137" s="9"/>
       <c r="U137" s="9"/>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A138" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B138" s="17" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>612</v>
+        <v>1750</v>
       </c>
       <c r="D138" s="9" t="s">
-        <v>616</v>
+        <v>780</v>
       </c>
       <c r="E138" s="9" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="F138" s="9" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="G138" s="10" t="s">
-        <v>620</v>
+        <v>1242</v>
       </c>
       <c r="H138" s="9" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="I138" s="19" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="J138" s="9" t="s">
-        <v>628</v>
+        <v>1510</v>
       </c>
       <c r="K138" s="19" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="L138" s="19" t="s">
-        <v>648</v>
+        <v>1968</v>
       </c>
       <c r="M138" s="9" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="N138" s="9" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="O138" s="9" t="s">
-        <v>1037</v>
+        <v>634</v>
       </c>
       <c r="P138" s="9" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="Q138" s="9" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="R138" s="9" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="S138" s="9" t="s">
-        <v>646</v>
+        <v>1177</v>
       </c>
       <c r="T138" s="9"/>
       <c r="U138" s="9"/>
@@ -38095,58 +37945,58 @@
         <v>143</v>
       </c>
       <c r="B139" s="17" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="D139" s="9" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="E139" s="9" t="s">
-        <v>955</v>
+        <v>1481</v>
       </c>
       <c r="F139" s="9" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="G139" s="10" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="H139" s="9" t="s">
-        <v>1382</v>
+        <v>623</v>
       </c>
       <c r="I139" s="19" t="s">
-        <v>1110</v>
+        <v>625</v>
       </c>
       <c r="J139" s="9" t="s">
-        <v>1453</v>
+        <v>627</v>
       </c>
       <c r="K139" s="19" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="L139" s="19" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="M139" s="9" t="s">
-        <v>632</v>
+        <v>704</v>
       </c>
       <c r="N139" s="9" t="s">
-        <v>632</v>
+        <v>704</v>
       </c>
       <c r="O139" s="9" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="P139" s="9" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="Q139" s="9" t="s">
-        <v>641</v>
+        <v>649</v>
       </c>
       <c r="R139" s="9" t="s">
-        <v>753</v>
+        <v>642</v>
       </c>
       <c r="S139" s="9" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="T139" s="9"/>
       <c r="U139" s="9"/>
@@ -38156,58 +38006,58 @@
         <v>143</v>
       </c>
       <c r="B140" s="17" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C140" s="10" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D140" s="9" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="E140" s="9" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="F140" s="9" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="G140" s="10" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="H140" s="9" t="s">
-        <v>624</v>
+        <v>1381</v>
       </c>
       <c r="I140" s="19" t="s">
-        <v>626</v>
+        <v>1109</v>
       </c>
       <c r="J140" s="9" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K140" s="19" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="L140" s="19" t="s">
-        <v>1958</v>
+        <v>648</v>
       </c>
       <c r="M140" s="9" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="N140" s="9" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="O140" s="9" t="s">
-        <v>637</v>
+        <v>1037</v>
       </c>
       <c r="P140" s="9" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="Q140" s="9" t="s">
-        <v>1554</v>
+        <v>640</v>
       </c>
       <c r="R140" s="9" t="s">
-        <v>643</v>
+        <v>752</v>
       </c>
       <c r="S140" s="9" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="T140" s="9"/>
       <c r="U140" s="9"/>
@@ -38217,58 +38067,58 @@
         <v>143</v>
       </c>
       <c r="B141" s="17" t="s">
-        <v>858</v>
+        <v>610</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>854</v>
-      </c>
-      <c r="D141" s="10" t="s">
-        <v>856</v>
-      </c>
-      <c r="E141" s="10" t="s">
-        <v>963</v>
-      </c>
-      <c r="F141" s="10" t="s">
-        <v>962</v>
+        <v>613</v>
+      </c>
+      <c r="D141" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="E141" s="9" t="s">
+        <v>955</v>
+      </c>
+      <c r="F141" s="9" t="s">
+        <v>956</v>
       </c>
       <c r="G141" s="10" t="s">
-        <v>1243</v>
-      </c>
-      <c r="H141" s="10" t="s">
-        <v>1116</v>
-      </c>
-      <c r="I141" s="10" t="s">
-        <v>1115</v>
-      </c>
-      <c r="J141" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="K141" s="10" t="s">
-        <v>1318</v>
-      </c>
-      <c r="L141" s="10" t="s">
-        <v>1965</v>
-      </c>
-      <c r="M141" s="10" t="s">
-        <v>855</v>
-      </c>
-      <c r="N141" s="10" t="s">
-        <v>855</v>
-      </c>
-      <c r="O141" s="10" t="s">
-        <v>983</v>
-      </c>
-      <c r="P141" s="10" t="s">
-        <v>983</v>
-      </c>
-      <c r="Q141" s="10" t="s">
-        <v>1118</v>
-      </c>
-      <c r="R141" s="10" t="s">
-        <v>857</v>
-      </c>
-      <c r="S141" s="10" t="s">
-        <v>1119</v>
+        <v>621</v>
+      </c>
+      <c r="H141" s="9" t="s">
+        <v>1382</v>
+      </c>
+      <c r="I141" s="19" t="s">
+        <v>1110</v>
+      </c>
+      <c r="J141" s="9" t="s">
+        <v>1453</v>
+      </c>
+      <c r="K141" s="19" t="s">
+        <v>1316</v>
+      </c>
+      <c r="L141" s="19" t="s">
+        <v>1957</v>
+      </c>
+      <c r="M141" s="9" t="s">
+        <v>632</v>
+      </c>
+      <c r="N141" s="9" t="s">
+        <v>632</v>
+      </c>
+      <c r="O141" s="9" t="s">
+        <v>632</v>
+      </c>
+      <c r="P141" s="9" t="s">
+        <v>632</v>
+      </c>
+      <c r="Q141" s="9" t="s">
+        <v>641</v>
+      </c>
+      <c r="R141" s="9" t="s">
+        <v>753</v>
+      </c>
+      <c r="S141" s="9" t="s">
+        <v>645</v>
       </c>
       <c r="T141" s="9"/>
       <c r="U141" s="9"/>
@@ -38278,58 +38128,58 @@
         <v>143</v>
       </c>
       <c r="B142" s="17" t="s">
-        <v>650</v>
+        <v>611</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>651</v>
+        <v>614</v>
       </c>
       <c r="D142" s="9" t="s">
-        <v>685</v>
-      </c>
-      <c r="E142" s="10" t="s">
-        <v>552</v>
-      </c>
-      <c r="F142" s="10" t="s">
-        <v>959</v>
+        <v>618</v>
+      </c>
+      <c r="E142" s="9" t="s">
+        <v>957</v>
+      </c>
+      <c r="F142" s="9" t="s">
+        <v>958</v>
       </c>
       <c r="G142" s="10" t="s">
-        <v>652</v>
-      </c>
-      <c r="H142" s="10" t="s">
-        <v>653</v>
-      </c>
-      <c r="I142" s="10" t="s">
-        <v>654</v>
-      </c>
-      <c r="J142" s="10" t="s">
-        <v>655</v>
-      </c>
-      <c r="K142" s="10" t="s">
-        <v>1319</v>
-      </c>
-      <c r="L142" s="10" t="s">
-        <v>1959</v>
-      </c>
-      <c r="M142" s="10" t="s">
-        <v>656</v>
+        <v>622</v>
+      </c>
+      <c r="H142" s="9" t="s">
+        <v>624</v>
+      </c>
+      <c r="I142" s="19" t="s">
+        <v>626</v>
+      </c>
+      <c r="J142" s="9" t="s">
+        <v>629</v>
+      </c>
+      <c r="K142" s="19" t="s">
+        <v>1317</v>
+      </c>
+      <c r="L142" s="19" t="s">
+        <v>1958</v>
+      </c>
+      <c r="M142" s="9" t="s">
+        <v>633</v>
       </c>
       <c r="N142" s="9" t="s">
-        <v>656</v>
-      </c>
-      <c r="O142" s="10" t="s">
-        <v>657</v>
-      </c>
-      <c r="P142" s="10" t="s">
-        <v>657</v>
-      </c>
-      <c r="Q142" s="10" t="s">
-        <v>658</v>
-      </c>
-      <c r="R142" s="10" t="s">
-        <v>754</v>
-      </c>
-      <c r="S142" s="10" t="s">
-        <v>659</v>
+        <v>633</v>
+      </c>
+      <c r="O142" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="P142" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="Q142" s="9" t="s">
+        <v>1554</v>
+      </c>
+      <c r="R142" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="S142" s="9" t="s">
+        <v>644</v>
       </c>
       <c r="T142" s="9"/>
       <c r="U142" s="9"/>
@@ -38339,198 +38189,254 @@
         <v>143</v>
       </c>
       <c r="B143" s="17" t="s">
-        <v>249</v>
+        <v>858</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>433</v>
-      </c>
-      <c r="D143" s="9" t="s">
-        <v>551</v>
-      </c>
-      <c r="E143" s="9" t="s">
-        <v>552</v>
-      </c>
-      <c r="F143" s="9" t="s">
-        <v>959</v>
+        <v>854</v>
+      </c>
+      <c r="D143" s="10" t="s">
+        <v>856</v>
+      </c>
+      <c r="E143" s="10" t="s">
+        <v>963</v>
+      </c>
+      <c r="F143" s="10" t="s">
+        <v>962</v>
       </c>
       <c r="G143" s="10" t="s">
-        <v>1244</v>
-      </c>
-      <c r="H143" s="9" t="s">
-        <v>330</v>
-      </c>
-      <c r="I143" s="9" t="s">
-        <v>553</v>
-      </c>
-      <c r="J143" s="9" t="s">
-        <v>554</v>
+        <v>1243</v>
+      </c>
+      <c r="H143" s="10" t="s">
+        <v>1116</v>
+      </c>
+      <c r="I143" s="10" t="s">
+        <v>1115</v>
+      </c>
+      <c r="J143" s="10" t="s">
+        <v>1117</v>
       </c>
       <c r="K143" s="10" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="L143" s="10" t="s">
-        <v>577</v>
-      </c>
-      <c r="M143" s="9" t="s">
-        <v>505</v>
-      </c>
-      <c r="N143" s="9" t="s">
-        <v>505</v>
-      </c>
-      <c r="O143" s="9" t="s">
-        <v>559</v>
-      </c>
-      <c r="P143" s="9" t="s">
-        <v>559</v>
-      </c>
-      <c r="Q143" s="9" t="s">
-        <v>565</v>
-      </c>
-      <c r="R143" s="9" t="s">
-        <v>755</v>
-      </c>
-      <c r="S143" s="9" t="s">
-        <v>570</v>
+        <v>1965</v>
+      </c>
+      <c r="M143" s="10" t="s">
+        <v>855</v>
+      </c>
+      <c r="N143" s="10" t="s">
+        <v>855</v>
+      </c>
+      <c r="O143" s="10" t="s">
+        <v>983</v>
+      </c>
+      <c r="P143" s="10" t="s">
+        <v>983</v>
+      </c>
+      <c r="Q143" s="10" t="s">
+        <v>1118</v>
+      </c>
+      <c r="R143" s="10" t="s">
+        <v>857</v>
+      </c>
+      <c r="S143" s="10" t="s">
+        <v>1119</v>
       </c>
       <c r="T143" s="9"/>
       <c r="U143" s="9"/>
     </row>
-    <row r="144" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A144" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B144" s="17" t="s">
-        <v>229</v>
+        <v>650</v>
       </c>
       <c r="C144" s="10" t="s">
-        <v>234</v>
+        <v>651</v>
       </c>
       <c r="D144" s="9" t="s">
-        <v>781</v>
-      </c>
-      <c r="E144" s="9" t="s">
-        <v>960</v>
-      </c>
-      <c r="F144" s="9" t="s">
-        <v>961</v>
+        <v>685</v>
+      </c>
+      <c r="E144" s="10" t="s">
+        <v>552</v>
+      </c>
+      <c r="F144" s="10" t="s">
+        <v>959</v>
       </c>
       <c r="G144" s="10" t="s">
-        <v>482</v>
-      </c>
-      <c r="H144" s="9" t="s">
-        <v>1383</v>
-      </c>
-      <c r="I144" s="19" t="s">
-        <v>1111</v>
-      </c>
-      <c r="J144" s="9" t="s">
-        <v>457</v>
-      </c>
-      <c r="K144" s="19" t="s">
-        <v>1672</v>
-      </c>
-      <c r="L144" s="19" t="s">
-        <v>1960</v>
-      </c>
-      <c r="M144" s="9" t="s">
-        <v>331</v>
+        <v>652</v>
+      </c>
+      <c r="H144" s="10" t="s">
+        <v>653</v>
+      </c>
+      <c r="I144" s="10" t="s">
+        <v>654</v>
+      </c>
+      <c r="J144" s="10" t="s">
+        <v>655</v>
+      </c>
+      <c r="K144" s="10" t="s">
+        <v>1319</v>
+      </c>
+      <c r="L144" s="10" t="s">
+        <v>1959</v>
+      </c>
+      <c r="M144" s="10" t="s">
+        <v>656</v>
       </c>
       <c r="N144" s="9" t="s">
-        <v>705</v>
-      </c>
-      <c r="O144" s="9" t="s">
-        <v>332</v>
-      </c>
-      <c r="P144" s="9" t="s">
-        <v>333</v>
-      </c>
-      <c r="Q144" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="R144" s="9" t="s">
-        <v>756</v>
-      </c>
-      <c r="S144" s="9" t="s">
-        <v>1602</v>
+        <v>656</v>
+      </c>
+      <c r="O144" s="10" t="s">
+        <v>657</v>
+      </c>
+      <c r="P144" s="10" t="s">
+        <v>657</v>
+      </c>
+      <c r="Q144" s="10" t="s">
+        <v>658</v>
+      </c>
+      <c r="R144" s="10" t="s">
+        <v>754</v>
+      </c>
+      <c r="S144" s="10" t="s">
+        <v>659</v>
       </c>
       <c r="T144" s="9"/>
       <c r="U144" s="9"/>
     </row>
-    <row r="145" spans="1:21" ht="135" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A145" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B145" s="17" t="s">
-        <v>2118</v>
+        <v>249</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>2113</v>
-      </c>
-      <c r="D145" s="9"/>
-      <c r="E145" s="9"/>
-      <c r="F145" s="9"/>
-      <c r="G145" s="10"/>
-      <c r="H145" s="9"/>
-      <c r="I145" s="19"/>
-      <c r="J145" s="9"/>
-      <c r="K145" s="19"/>
-      <c r="L145" s="19"/>
-      <c r="M145" s="9"/>
-      <c r="N145" s="10" t="s">
-        <v>2115</v>
-      </c>
-      <c r="O145" s="9"/>
-      <c r="P145" s="9"/>
-      <c r="Q145" s="9"/>
-      <c r="R145" s="9"/>
-      <c r="S145" s="9"/>
+        <v>433</v>
+      </c>
+      <c r="D145" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="E145" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="F145" s="9" t="s">
+        <v>959</v>
+      </c>
+      <c r="G145" s="10" t="s">
+        <v>1244</v>
+      </c>
+      <c r="H145" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="I145" s="9" t="s">
+        <v>553</v>
+      </c>
+      <c r="J145" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="K145" s="10" t="s">
+        <v>1320</v>
+      </c>
+      <c r="L145" s="10" t="s">
+        <v>577</v>
+      </c>
+      <c r="M145" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="N145" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="O145" s="9" t="s">
+        <v>559</v>
+      </c>
+      <c r="P145" s="9" t="s">
+        <v>559</v>
+      </c>
+      <c r="Q145" s="9" t="s">
+        <v>565</v>
+      </c>
+      <c r="R145" s="9" t="s">
+        <v>755</v>
+      </c>
+      <c r="S145" s="9" t="s">
+        <v>570</v>
+      </c>
       <c r="T145" s="9"/>
       <c r="U145" s="9"/>
     </row>
-    <row r="146" spans="1:21" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A146" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="B146" s="18" t="str">
-        <f t="shared" ref="B146:B164" si="0">B9&amp;" - "&amp;"Summary"</f>
-        <v>maiduguri - Summary</v>
+      <c r="B146" s="17" t="s">
+        <v>229</v>
       </c>
       <c r="C146" s="10" t="s">
-        <v>1613</v>
-      </c>
-      <c r="D146" s="9"/>
-      <c r="E146" s="9"/>
-      <c r="F146" s="9"/>
-      <c r="G146" s="10"/>
-      <c r="H146" s="9"/>
-      <c r="I146" s="19"/>
-      <c r="J146" s="9"/>
+        <v>234</v>
+      </c>
+      <c r="D146" s="9" t="s">
+        <v>781</v>
+      </c>
+      <c r="E146" s="9" t="s">
+        <v>960</v>
+      </c>
+      <c r="F146" s="9" t="s">
+        <v>961</v>
+      </c>
+      <c r="G146" s="10" t="s">
+        <v>482</v>
+      </c>
+      <c r="H146" s="9" t="s">
+        <v>1383</v>
+      </c>
+      <c r="I146" s="19" t="s">
+        <v>1111</v>
+      </c>
+      <c r="J146" s="9" t="s">
+        <v>457</v>
+      </c>
       <c r="K146" s="19" t="s">
-        <v>1321</v>
-      </c>
-      <c r="L146" s="19"/>
-      <c r="M146" s="9"/>
-      <c r="N146" s="9"/>
-      <c r="O146" s="9"/>
+        <v>1672</v>
+      </c>
+      <c r="L146" s="19" t="s">
+        <v>1960</v>
+      </c>
+      <c r="M146" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="N146" s="9" t="s">
+        <v>705</v>
+      </c>
+      <c r="O146" s="9" t="s">
+        <v>332</v>
+      </c>
       <c r="P146" s="9" t="s">
-        <v>974</v>
-      </c>
-      <c r="Q146" s="9"/>
-      <c r="R146" s="9"/>
-      <c r="S146" s="9"/>
+        <v>333</v>
+      </c>
+      <c r="Q146" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="R146" s="9" t="s">
+        <v>756</v>
+      </c>
+      <c r="S146" s="9" t="s">
+        <v>1602</v>
+      </c>
       <c r="T146" s="9"/>
       <c r="U146" s="9"/>
     </row>
-    <row r="147" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:21" ht="135" x14ac:dyDescent="0.25">
       <c r="A147" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="B147" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>mexico_city - Summary</v>
+      <c r="B147" s="17" t="s">
+        <v>2118</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>1810</v>
+        <v>2113</v>
       </c>
       <c r="D147" s="9"/>
       <c r="E147" s="9"/>
@@ -38541,30 +38447,28 @@
       <c r="J147" s="9"/>
       <c r="K147" s="19"/>
       <c r="L147" s="19"/>
-      <c r="M147" s="9" t="s">
-        <v>1811</v>
-      </c>
-      <c r="N147" s="9"/>
+      <c r="M147" s="9"/>
+      <c r="N147" s="10" t="s">
+        <v>2115</v>
+      </c>
       <c r="O147" s="9"/>
-      <c r="P147" s="9" t="s">
-        <v>974</v>
-      </c>
+      <c r="P147" s="9"/>
       <c r="Q147" s="9"/>
       <c r="R147" s="9"/>
       <c r="S147" s="9"/>
       <c r="T147" s="9"/>
       <c r="U147" s="9"/>
     </row>
-    <row r="148" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:21" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A148" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B148" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>baltimore - Summary</v>
+        <f t="shared" ref="B148:B166" si="0">B9&amp;" - "&amp;"Summary"</f>
+        <v>maiduguri - Summary</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="D148" s="9"/>
       <c r="E148" s="9"/>
@@ -38573,7 +38477,9 @@
       <c r="H148" s="9"/>
       <c r="I148" s="19"/>
       <c r="J148" s="9"/>
-      <c r="K148" s="19"/>
+      <c r="K148" s="19" t="s">
+        <v>1321</v>
+      </c>
       <c r="L148" s="19"/>
       <c r="M148" s="9"/>
       <c r="N148" s="9"/>
@@ -38593,10 +38499,10 @@
       </c>
       <c r="B149" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>phoenix - Summary</v>
+        <v>mexico_city - Summary</v>
       </c>
       <c r="C149" s="10" t="s">
-        <v>1813</v>
+        <v>1810</v>
       </c>
       <c r="D149" s="9"/>
       <c r="E149" s="9"/>
@@ -38607,7 +38513,9 @@
       <c r="J149" s="9"/>
       <c r="K149" s="19"/>
       <c r="L149" s="19"/>
-      <c r="M149" s="9"/>
+      <c r="M149" s="9" t="s">
+        <v>1811</v>
+      </c>
       <c r="N149" s="9"/>
       <c r="O149" s="9"/>
       <c r="P149" s="9" t="s">
@@ -38625,10 +38533,10 @@
       </c>
       <c r="B150" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>seattle - Summary</v>
+        <v>baltimore - Summary</v>
       </c>
       <c r="C150" s="10" t="s">
-        <v>1815</v>
+        <v>1614</v>
       </c>
       <c r="D150" s="9"/>
       <c r="E150" s="9"/>
@@ -38657,10 +38565,10 @@
       </c>
       <c r="B151" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>sao_paulo - Summary</v>
+        <v>phoenix - Summary</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="D151" s="9"/>
       <c r="E151" s="9"/>
@@ -38673,9 +38581,7 @@
       <c r="L151" s="19"/>
       <c r="M151" s="9"/>
       <c r="N151" s="9"/>
-      <c r="O151" s="9" t="s">
-        <v>1038</v>
-      </c>
+      <c r="O151" s="9"/>
       <c r="P151" s="9" t="s">
         <v>974</v>
       </c>
@@ -38691,18 +38597,14 @@
       </c>
       <c r="B152" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>hong_kong - Summary</v>
+        <v>seattle - Summary</v>
       </c>
       <c r="C152" s="10" t="s">
-        <v>1808</v>
+        <v>1815</v>
       </c>
       <c r="D152" s="9"/>
-      <c r="E152" s="9" t="s">
-        <v>1634</v>
-      </c>
-      <c r="F152" s="9" t="s">
-        <v>1636</v>
-      </c>
+      <c r="E152" s="9"/>
+      <c r="F152" s="9"/>
       <c r="G152" s="10"/>
       <c r="H152" s="9"/>
       <c r="I152" s="19"/>
@@ -38727,10 +38629,10 @@
       </c>
       <c r="B153" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>chennai - Summary</v>
+        <v>sao_paulo - Summary</v>
       </c>
       <c r="C153" s="10" t="s">
-        <v>1603</v>
+        <v>1814</v>
       </c>
       <c r="D153" s="9"/>
       <c r="E153" s="9"/>
@@ -38743,13 +38645,13 @@
       <c r="L153" s="19"/>
       <c r="M153" s="9"/>
       <c r="N153" s="9"/>
-      <c r="O153" s="9"/>
+      <c r="O153" s="9" t="s">
+        <v>1038</v>
+      </c>
       <c r="P153" s="9" t="s">
         <v>974</v>
       </c>
-      <c r="Q153" s="9" t="s">
-        <v>1604</v>
-      </c>
+      <c r="Q153" s="9"/>
       <c r="R153" s="9"/>
       <c r="S153" s="9"/>
       <c r="T153" s="9"/>
@@ -38761,14 +38663,18 @@
       </c>
       <c r="B154" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>bangkok - Summary</v>
+        <v>hong_kong - Summary</v>
       </c>
       <c r="C154" s="10" t="s">
-        <v>1615</v>
+        <v>1808</v>
       </c>
       <c r="D154" s="9"/>
-      <c r="E154" s="9"/>
-      <c r="F154" s="9"/>
+      <c r="E154" s="9" t="s">
+        <v>1634</v>
+      </c>
+      <c r="F154" s="9" t="s">
+        <v>1636</v>
+      </c>
       <c r="G154" s="10"/>
       <c r="H154" s="9"/>
       <c r="I154" s="19"/>
@@ -38782,9 +38688,7 @@
         <v>974</v>
       </c>
       <c r="Q154" s="9"/>
-      <c r="R154" s="9" t="s">
-        <v>1669</v>
-      </c>
+      <c r="R154" s="9"/>
       <c r="S154" s="9"/>
       <c r="T154" s="9"/>
       <c r="U154" s="9"/>
@@ -38795,10 +38699,10 @@
       </c>
       <c r="B155" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>hanoi - Summary</v>
+        <v>chennai - Summary</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="D155" s="9"/>
       <c r="E155" s="9"/>
@@ -38815,11 +38719,11 @@
       <c r="P155" s="9" t="s">
         <v>974</v>
       </c>
-      <c r="Q155" s="9"/>
+      <c r="Q155" s="9" t="s">
+        <v>1604</v>
+      </c>
       <c r="R155" s="9"/>
-      <c r="S155" s="9" t="s">
-        <v>1606</v>
-      </c>
+      <c r="S155" s="9"/>
       <c r="T155" s="9"/>
       <c r="U155" s="9"/>
     </row>
@@ -38829,10 +38733,10 @@
       </c>
       <c r="B156" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>graz - Summary</v>
+        <v>bangkok - Summary</v>
       </c>
       <c r="C156" s="10" t="s">
-        <v>1807</v>
+        <v>1615</v>
       </c>
       <c r="D156" s="9"/>
       <c r="E156" s="9"/>
@@ -38840,9 +38744,7 @@
       <c r="G156" s="10"/>
       <c r="H156" s="9"/>
       <c r="I156" s="19"/>
-      <c r="J156" s="9" t="s">
-        <v>1786</v>
-      </c>
+      <c r="J156" s="9"/>
       <c r="K156" s="19"/>
       <c r="L156" s="19"/>
       <c r="M156" s="9"/>
@@ -38852,7 +38754,9 @@
         <v>974</v>
       </c>
       <c r="Q156" s="9"/>
-      <c r="R156" s="9"/>
+      <c r="R156" s="9" t="s">
+        <v>1669</v>
+      </c>
       <c r="S156" s="9"/>
       <c r="T156" s="9"/>
       <c r="U156" s="9"/>
@@ -38863,19 +38767,17 @@
       </c>
       <c r="B157" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>ghent_2022 - Summary</v>
+        <v>hanoi - Summary</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>2101</v>
+        <v>1605</v>
       </c>
       <c r="D157" s="9"/>
       <c r="E157" s="9"/>
       <c r="F157" s="9"/>
       <c r="G157" s="10"/>
       <c r="H157" s="9"/>
-      <c r="I157" s="19" t="s">
-        <v>2102</v>
-      </c>
+      <c r="I157" s="19"/>
       <c r="J157" s="9"/>
       <c r="K157" s="19"/>
       <c r="L157" s="19"/>
@@ -38887,7 +38789,9 @@
       </c>
       <c r="Q157" s="9"/>
       <c r="R157" s="9"/>
-      <c r="S157" s="9"/>
+      <c r="S157" s="9" t="s">
+        <v>1606</v>
+      </c>
       <c r="T157" s="9"/>
       <c r="U157" s="9"/>
     </row>
@@ -38897,10 +38801,10 @@
       </c>
       <c r="B158" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>bern - Summary</v>
+        <v>graz - Summary</v>
       </c>
       <c r="C158" s="10" t="s">
-        <v>1607</v>
+        <v>1807</v>
       </c>
       <c r="D158" s="9"/>
       <c r="E158" s="9"/>
@@ -38909,7 +38813,7 @@
       <c r="H158" s="9"/>
       <c r="I158" s="19"/>
       <c r="J158" s="9" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="K158" s="19"/>
       <c r="L158" s="19"/>
@@ -38931,19 +38835,19 @@
       </c>
       <c r="B159" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>olomouc - Summary</v>
+        <v>ghent_2022 - Summary</v>
       </c>
       <c r="C159" s="10" t="s">
-        <v>1608</v>
+        <v>2101</v>
       </c>
       <c r="D159" s="9"/>
       <c r="E159" s="9"/>
       <c r="F159" s="9"/>
-      <c r="G159" s="10" t="s">
-        <v>1245</v>
-      </c>
+      <c r="G159" s="10"/>
       <c r="H159" s="9"/>
-      <c r="I159" s="19"/>
+      <c r="I159" s="19" t="s">
+        <v>2102</v>
+      </c>
       <c r="J159" s="9"/>
       <c r="K159" s="19"/>
       <c r="L159" s="19"/>
@@ -38965,10 +38869,10 @@
       </c>
       <c r="B160" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>cologne - Summary</v>
+        <v>bern - Summary</v>
       </c>
       <c r="C160" s="10" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="D160" s="9"/>
       <c r="E160" s="9"/>
@@ -38977,7 +38881,7 @@
       <c r="H160" s="9"/>
       <c r="I160" s="19"/>
       <c r="J160" s="9" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="K160" s="19"/>
       <c r="L160" s="19"/>
@@ -38999,18 +38903,18 @@
       </c>
       <c r="B161" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>odense - Summary</v>
+        <v>olomouc - Summary</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>1812</v>
+        <v>1608</v>
       </c>
       <c r="D161" s="9"/>
       <c r="E161" s="9"/>
       <c r="F161" s="9"/>
-      <c r="G161" s="10"/>
-      <c r="H161" s="9" t="s">
-        <v>1384</v>
-      </c>
+      <c r="G161" s="10" t="s">
+        <v>1245</v>
+      </c>
+      <c r="H161" s="9"/>
       <c r="I161" s="19"/>
       <c r="J161" s="9"/>
       <c r="K161" s="19"/>
@@ -39033,26 +38937,24 @@
       </c>
       <c r="B162" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>barcelona - Summary</v>
+        <v>cologne - Summary</v>
       </c>
       <c r="C162" s="10" t="s">
-        <v>1805</v>
-      </c>
-      <c r="D162" s="9" t="s">
-        <v>1610</v>
-      </c>
+        <v>1609</v>
+      </c>
+      <c r="D162" s="9"/>
       <c r="E162" s="9"/>
       <c r="F162" s="9"/>
       <c r="G162" s="10"/>
       <c r="H162" s="9"/>
       <c r="I162" s="19"/>
-      <c r="J162" s="9"/>
+      <c r="J162" s="9" t="s">
+        <v>1787</v>
+      </c>
       <c r="K162" s="19"/>
       <c r="L162" s="19"/>
       <c r="M162" s="9"/>
-      <c r="N162" s="9" t="s">
-        <v>800</v>
-      </c>
+      <c r="N162" s="9"/>
       <c r="O162" s="9"/>
       <c r="P162" s="9" t="s">
         <v>974</v>
@@ -39069,26 +38971,24 @@
       </c>
       <c r="B163" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>valencia_2022 - Summary</v>
+        <v>odense - Summary</v>
       </c>
       <c r="C163" s="10" t="s">
-        <v>1817</v>
-      </c>
-      <c r="D163" s="9" t="s">
-        <v>1611</v>
-      </c>
+        <v>1812</v>
+      </c>
+      <c r="D163" s="9"/>
       <c r="E163" s="9"/>
       <c r="F163" s="9"/>
       <c r="G163" s="10"/>
-      <c r="H163" s="9"/>
+      <c r="H163" s="9" t="s">
+        <v>1384</v>
+      </c>
       <c r="I163" s="19"/>
       <c r="J163" s="9"/>
       <c r="K163" s="19"/>
       <c r="L163" s="19"/>
       <c r="M163" s="9"/>
-      <c r="N163" s="9" t="s">
-        <v>801</v>
-      </c>
+      <c r="N163" s="9"/>
       <c r="O163" s="9"/>
       <c r="P163" s="9" t="s">
         <v>974</v>
@@ -39105,13 +39005,13 @@
       </c>
       <c r="B164" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>vic - Summary</v>
+        <v>barcelona - Summary</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>1818</v>
+        <v>1805</v>
       </c>
       <c r="D164" s="9" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="E164" s="9"/>
       <c r="F164" s="9"/>
@@ -39123,7 +39023,7 @@
       <c r="L164" s="19"/>
       <c r="M164" s="9"/>
       <c r="N164" s="9" t="s">
-        <v>706</v>
+        <v>800</v>
       </c>
       <c r="O164" s="9"/>
       <c r="P164" s="9" t="s">
@@ -39140,13 +39040,15 @@
         <v>143</v>
       </c>
       <c r="B165" s="18" t="str">
-        <f t="shared" ref="B165:B170" si="1">B28&amp;" - "&amp;"Summary"</f>
-        <v>belfast - Summary</v>
+        <f t="shared" si="0"/>
+        <v>valencia_2022 - Summary</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>1806</v>
-      </c>
-      <c r="D165" s="9"/>
+        <v>1817</v>
+      </c>
+      <c r="D165" s="9" t="s">
+        <v>1611</v>
+      </c>
       <c r="E165" s="9"/>
       <c r="F165" s="9"/>
       <c r="G165" s="10"/>
@@ -39156,7 +39058,9 @@
       <c r="K165" s="19"/>
       <c r="L165" s="19"/>
       <c r="M165" s="9"/>
-      <c r="N165" s="9"/>
+      <c r="N165" s="9" t="s">
+        <v>801</v>
+      </c>
       <c r="O165" s="9"/>
       <c r="P165" s="9" t="s">
         <v>974</v>
@@ -39172,13 +39076,15 @@
         <v>143</v>
       </c>
       <c r="B166" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>lisbon - Summary</v>
+        <f t="shared" si="0"/>
+        <v>vic - Summary</v>
       </c>
       <c r="C166" s="10" t="s">
-        <v>1616</v>
-      </c>
-      <c r="D166" s="9"/>
+        <v>1818</v>
+      </c>
+      <c r="D166" s="9" t="s">
+        <v>1612</v>
+      </c>
       <c r="E166" s="9"/>
       <c r="F166" s="9"/>
       <c r="G166" s="10"/>
@@ -39188,10 +39094,12 @@
       <c r="K166" s="19"/>
       <c r="L166" s="19"/>
       <c r="M166" s="9"/>
-      <c r="N166" s="9"/>
+      <c r="N166" s="9" t="s">
+        <v>706</v>
+      </c>
       <c r="O166" s="9"/>
       <c r="P166" s="9" t="s">
-        <v>1617</v>
+        <v>974</v>
       </c>
       <c r="Q166" s="9"/>
       <c r="R166" s="9"/>
@@ -39204,11 +39112,11 @@
         <v>143</v>
       </c>
       <c r="B167" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>adelaide - Summary</v>
+        <f t="shared" ref="B167:B172" si="1">B28&amp;" - "&amp;"Summary"</f>
+        <v>belfast - Summary</v>
       </c>
       <c r="C167" s="10" t="s">
-        <v>1804</v>
+        <v>1806</v>
       </c>
       <c r="D167" s="9"/>
       <c r="E167" s="9"/>
@@ -39237,10 +39145,10 @@
       </c>
       <c r="B168" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>melbourne - Summary</v>
+        <v>lisbon - Summary</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>1809</v>
+        <v>1616</v>
       </c>
       <c r="D168" s="9"/>
       <c r="E168" s="9"/>
@@ -39255,7 +39163,7 @@
       <c r="N168" s="9"/>
       <c r="O168" s="9"/>
       <c r="P168" s="9" t="s">
-        <v>974</v>
+        <v>1617</v>
       </c>
       <c r="Q168" s="9"/>
       <c r="R168" s="9"/>
@@ -39269,10 +39177,10 @@
       </c>
       <c r="B169" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>sydney - Summary</v>
+        <v>adelaide - Summary</v>
       </c>
       <c r="C169" s="10" t="s">
-        <v>1816</v>
+        <v>1804</v>
       </c>
       <c r="D169" s="9"/>
       <c r="E169" s="9"/>
@@ -39295,27 +39203,26 @@
       <c r="T169" s="9"/>
       <c r="U169" s="9"/>
     </row>
-    <row r="170" spans="1:21" ht="405" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B170" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>auckland - Summary</v>
-      </c>
-      <c r="C170" s="13" t="s">
-        <v>1618</v>
-      </c>
+        <v>melbourne - Summary</v>
+      </c>
+      <c r="C170" s="10" t="s">
+        <v>1809</v>
+      </c>
+      <c r="D170" s="9"/>
       <c r="E170" s="9"/>
       <c r="F170" s="9"/>
-      <c r="G170" s="13"/>
+      <c r="G170" s="10"/>
       <c r="H170" s="9"/>
       <c r="I170" s="19"/>
       <c r="J170" s="9"/>
       <c r="K170" s="19"/>
-      <c r="L170" s="19" t="s">
-        <v>1961</v>
-      </c>
+      <c r="L170" s="19"/>
       <c r="M170" s="9"/>
       <c r="N170" s="9"/>
       <c r="O170" s="9"/>
@@ -39328,354 +39235,369 @@
       <c r="T170" s="9"/>
       <c r="U170" s="9"/>
     </row>
-    <row r="171" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="24" t="s">
+    <row r="171" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="B171" s="17" t="s">
+      <c r="B171" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>sydney - Summary</v>
+      </c>
+      <c r="C171" s="10" t="s">
+        <v>1816</v>
+      </c>
+      <c r="D171" s="9"/>
+      <c r="E171" s="9"/>
+      <c r="F171" s="9"/>
+      <c r="G171" s="10"/>
+      <c r="H171" s="9"/>
+      <c r="I171" s="19"/>
+      <c r="J171" s="9"/>
+      <c r="K171" s="19"/>
+      <c r="L171" s="19"/>
+      <c r="M171" s="9"/>
+      <c r="N171" s="9"/>
+      <c r="O171" s="9"/>
+      <c r="P171" s="9" t="s">
+        <v>974</v>
+      </c>
+      <c r="Q171" s="9"/>
+      <c r="R171" s="9"/>
+      <c r="S171" s="9"/>
+      <c r="T171" s="9"/>
+      <c r="U171" s="9"/>
+    </row>
+    <row r="172" spans="1:21" ht="405" x14ac:dyDescent="0.25">
+      <c r="A172" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="B172" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>auckland - Summary</v>
+      </c>
+      <c r="C172" s="13" t="s">
+        <v>1618</v>
+      </c>
+      <c r="E172" s="9"/>
+      <c r="F172" s="9"/>
+      <c r="G172" s="13"/>
+      <c r="H172" s="9"/>
+      <c r="I172" s="19"/>
+      <c r="J172" s="9"/>
+      <c r="K172" s="19"/>
+      <c r="L172" s="19" t="s">
+        <v>1961</v>
+      </c>
+      <c r="M172" s="9"/>
+      <c r="N172" s="9"/>
+      <c r="O172" s="9"/>
+      <c r="P172" s="9" t="s">
+        <v>974</v>
+      </c>
+      <c r="Q172" s="9"/>
+      <c r="R172" s="9"/>
+      <c r="S172" s="9"/>
+      <c r="T172" s="9"/>
+      <c r="U172" s="9"/>
+    </row>
+    <row r="173" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="B173" s="17" t="s">
         <v>815</v>
       </c>
-      <c r="D171" s="2" t="s">
+      <c r="D173" s="2" t="s">
         <v>1838</v>
       </c>
-      <c r="E171" s="2" t="s">
+      <c r="E173" s="2" t="s">
         <v>1496</v>
       </c>
-      <c r="F171" s="2" t="s">
+      <c r="F173" s="2" t="s">
         <v>1497</v>
       </c>
-      <c r="G171" s="2" t="s">
+      <c r="G173" s="2" t="s">
         <v>1253</v>
       </c>
-      <c r="H171" s="3" t="s">
+      <c r="H173" s="3" t="s">
         <v>859</v>
       </c>
-      <c r="I171" s="2" t="s">
+      <c r="I173" s="2" t="s">
         <v>1114</v>
       </c>
-      <c r="J171" s="2" t="s">
+      <c r="J173" s="2" t="s">
         <v>1796</v>
       </c>
-      <c r="K171" s="2" t="s">
+      <c r="K173" s="2" t="s">
         <v>1670</v>
       </c>
-      <c r="L171" s="50" t="s">
+      <c r="L173" s="50" t="s">
         <v>1963</v>
       </c>
-      <c r="M171" s="2" t="s">
+      <c r="M173" s="2" t="s">
         <v>763</v>
       </c>
-      <c r="N171" s="2" t="s">
+      <c r="N173" s="2" t="s">
         <v>1838</v>
       </c>
-      <c r="O171" s="2" t="s">
+      <c r="O173" s="2" t="s">
         <v>1830</v>
       </c>
-      <c r="P171" s="2" t="s">
+      <c r="P173" s="2" t="s">
         <v>1401</v>
       </c>
-      <c r="Q171" s="2" t="s">
+      <c r="Q173" s="2" t="s">
         <v>764</v>
       </c>
-      <c r="R171" s="2" t="s">
+      <c r="R173" s="2" t="s">
         <v>1577</v>
       </c>
-      <c r="S171" s="2" t="s">
+      <c r="S173" s="2" t="s">
         <v>1162</v>
       </c>
     </row>
-    <row r="172" spans="1:21" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A172" s="24" t="s">
+    <row r="174" spans="1:21" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A174" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="B172" s="17" t="s">
+      <c r="B174" s="17" t="s">
         <v>1493</v>
       </c>
-      <c r="E172" s="3" t="s">
+      <c r="E174" s="3" t="s">
         <v>1494</v>
       </c>
-      <c r="F172" s="3" t="s">
+      <c r="F174" s="3" t="s">
         <v>1495</v>
       </c>
-      <c r="H172" s="3"/>
-    </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A173" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="B173" s="17" t="s">
-        <v>802</v>
-      </c>
-      <c r="C173" s="3" t="s">
-        <v>806</v>
-      </c>
-      <c r="D173" s="3" t="s">
-        <v>996</v>
-      </c>
-      <c r="E173" s="3" t="s">
-        <v>814</v>
-      </c>
-      <c r="F173" s="3" t="s">
-        <v>814</v>
-      </c>
-      <c r="G173" s="3" t="s">
-        <v>812</v>
-      </c>
-      <c r="H173" s="3" t="s">
-        <v>1504</v>
-      </c>
-      <c r="I173" s="3" t="s">
-        <v>811</v>
-      </c>
-      <c r="J173" s="3" t="s">
-        <v>810</v>
-      </c>
-      <c r="K173" s="3" t="s">
-        <v>1322</v>
-      </c>
-      <c r="L173" s="3" t="s">
-        <v>1962</v>
-      </c>
-      <c r="M173" s="3" t="s">
-        <v>995</v>
-      </c>
-      <c r="N173" s="3" t="s">
-        <v>995</v>
-      </c>
-      <c r="O173" s="3" t="s">
-        <v>809</v>
-      </c>
-      <c r="P173" s="3" t="s">
-        <v>809</v>
-      </c>
-      <c r="Q173" s="3" t="s">
-        <v>808</v>
-      </c>
-      <c r="R173" s="3" t="s">
-        <v>807</v>
-      </c>
-      <c r="S173" s="3" t="s">
-        <v>1178</v>
-      </c>
-    </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A174" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="B174" s="17" t="s">
-        <v>1469</v>
-      </c>
-      <c r="C174" s="3" t="s">
-        <v>1471</v>
-      </c>
-      <c r="D174" s="3" t="s">
-        <v>1471</v>
-      </c>
-      <c r="E174" s="3" t="s">
-        <v>1483</v>
-      </c>
-      <c r="F174" s="3" t="s">
-        <v>1484</v>
-      </c>
-      <c r="G174" s="3" t="s">
-        <v>1644</v>
-      </c>
-      <c r="H174" s="3" t="s">
-        <v>1485</v>
-      </c>
-      <c r="I174" s="3" t="s">
-        <v>1471</v>
-      </c>
-      <c r="J174" s="3" t="s">
-        <v>1488</v>
-      </c>
-      <c r="K174" s="3" t="s">
-        <v>1486</v>
-      </c>
-      <c r="L174" s="3" t="s">
-        <v>1487</v>
-      </c>
-      <c r="M174" s="3" t="s">
-        <v>1489</v>
-      </c>
-      <c r="N174" s="3" t="s">
-        <v>1489</v>
-      </c>
-      <c r="O174" s="3" t="s">
-        <v>1489</v>
-      </c>
-      <c r="P174" s="3" t="s">
-        <v>1489</v>
-      </c>
-      <c r="Q174" s="3" t="s">
-        <v>1490</v>
-      </c>
-      <c r="R174" s="3" t="s">
-        <v>1491</v>
-      </c>
-      <c r="S174" s="3" t="s">
-        <v>1492</v>
-      </c>
+      <c r="H174" s="3"/>
     </row>
     <row r="175" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A175" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B175" s="17" t="s">
+        <v>802</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>996</v>
+      </c>
+      <c r="E175" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="F175" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="G175" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="H175" s="3" t="s">
+        <v>1504</v>
+      </c>
+      <c r="I175" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="J175" s="3" t="s">
+        <v>810</v>
+      </c>
+      <c r="K175" s="3" t="s">
+        <v>1322</v>
+      </c>
+      <c r="L175" s="3" t="s">
+        <v>1962</v>
+      </c>
+      <c r="M175" s="3" t="s">
+        <v>995</v>
+      </c>
+      <c r="N175" s="3" t="s">
+        <v>995</v>
+      </c>
+      <c r="O175" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="P175" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="Q175" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="R175" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="S175" s="3" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="176" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A176" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="B176" s="17" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>1471</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>1471</v>
+      </c>
+      <c r="E176" s="3" t="s">
+        <v>1483</v>
+      </c>
+      <c r="F176" s="3" t="s">
+        <v>1484</v>
+      </c>
+      <c r="G176" s="3" t="s">
+        <v>1644</v>
+      </c>
+      <c r="H176" s="3" t="s">
+        <v>1485</v>
+      </c>
+      <c r="I176" s="3" t="s">
+        <v>1471</v>
+      </c>
+      <c r="J176" s="3" t="s">
+        <v>1488</v>
+      </c>
+      <c r="K176" s="3" t="s">
+        <v>1486</v>
+      </c>
+      <c r="L176" s="3" t="s">
+        <v>1487</v>
+      </c>
+      <c r="M176" s="3" t="s">
+        <v>1489</v>
+      </c>
+      <c r="N176" s="3" t="s">
+        <v>1489</v>
+      </c>
+      <c r="O176" s="3" t="s">
+        <v>1489</v>
+      </c>
+      <c r="P176" s="3" t="s">
+        <v>1489</v>
+      </c>
+      <c r="Q176" s="3" t="s">
+        <v>1490</v>
+      </c>
+      <c r="R176" s="3" t="s">
+        <v>1491</v>
+      </c>
+      <c r="S176" s="3" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="177" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A177" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="B177" s="17" t="s">
         <v>803</v>
       </c>
-      <c r="C175" s="3" t="s">
+      <c r="C177" s="3" t="s">
         <v>986</v>
       </c>
-      <c r="D175" s="3" t="s">
+      <c r="D177" s="3" t="s">
         <v>987</v>
       </c>
-      <c r="E175" s="3" t="s">
+      <c r="E177" s="3" t="s">
         <v>1558</v>
       </c>
-      <c r="F175" s="3" t="s">
+      <c r="F177" s="3" t="s">
         <v>1557</v>
       </c>
-      <c r="G175" s="3" t="s">
+      <c r="G177" s="3" t="s">
         <v>988</v>
       </c>
-      <c r="H175" s="3" t="s">
+      <c r="H177" s="3" t="s">
         <v>1385</v>
       </c>
-      <c r="I175" s="3" t="s">
+      <c r="I177" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="J175" s="3" t="s">
+      <c r="J177" s="3" t="s">
         <v>990</v>
       </c>
-      <c r="K175" s="3" t="s">
+      <c r="K177" s="3" t="s">
         <v>1329</v>
       </c>
-      <c r="L175" s="3" t="s">
+      <c r="L177" s="3" t="s">
         <v>1971</v>
       </c>
-      <c r="M175" s="3" t="s">
+      <c r="M177" s="3" t="s">
         <v>991</v>
       </c>
-      <c r="N175" s="3" t="s">
+      <c r="N177" s="3" t="s">
         <v>991</v>
       </c>
-      <c r="O175" s="3" t="s">
+      <c r="O177" s="3" t="s">
         <v>992</v>
       </c>
-      <c r="P175" s="3" t="s">
+      <c r="P177" s="3" t="s">
         <v>992</v>
       </c>
-      <c r="Q175" s="3" t="s">
+      <c r="Q177" s="3" t="s">
         <v>993</v>
       </c>
-      <c r="R175" s="3" t="s">
+      <c r="R177" s="3" t="s">
         <v>994</v>
       </c>
-      <c r="S175" s="3" t="s">
+      <c r="S177" s="3" t="s">
         <v>1179</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B110:D112 G110:J112 B95:J109 B113:J123 B33:K34 B59:K59 B64:K64 B91:K92 B124:K126 K127:K140 K142 K173 K170:K171 K95:L123 B93:L94 B65:L89 M64:U89 K147:L169 K141:L141 K172:L172 K174:L175 B60:U63 B90:U90 B28:L32 B35:L58 B54:B59 M28:U59 B34:U34 K144:K146 B126:J175 M91:U175 B1:U27">
-    <cfRule type="containsBlanks" dxfId="38" priority="67">
+  <conditionalFormatting sqref="B93:B177 B1:B91">
+    <cfRule type="duplicateValues" dxfId="22" priority="97"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B54:B59 B112:D114 B97:J111 B115:J125 B128:J177 B93:K94 B126:K128 B95:L96 B92:U92 G112:J114 K129:K142 K144 K146:K148 K172:K173 K175 K97:L125 K143:L143 K149:L171 K174:L174 K176:L177 M93:U177">
+    <cfRule type="containsBlanks" dxfId="21" priority="67">
+      <formula>LEN(TRIM(B54))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B92">
+    <cfRule type="duplicateValues" dxfId="20" priority="23"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:U91">
+    <cfRule type="containsBlanks" dxfId="19" priority="19">
       <formula>LEN(TRIM(B1))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B91:B175 B1:B89">
-    <cfRule type="duplicateValues" dxfId="37" priority="97"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B90">
-    <cfRule type="duplicateValues" dxfId="36" priority="23"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L33:L34">
-    <cfRule type="containsBlanks" dxfId="35" priority="21">
-      <formula>LEN(TRIM(L33))=0</formula>
+  <conditionalFormatting sqref="K145:L145">
+    <cfRule type="containsBlanks" dxfId="18" priority="1">
+      <formula>LEN(TRIM(K145))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L59">
-    <cfRule type="containsBlanks" dxfId="34" priority="20">
-      <formula>LEN(TRIM(L59))=0</formula>
+  <conditionalFormatting sqref="L93:L94">
+    <cfRule type="containsBlanks" dxfId="17" priority="15">
+      <formula>LEN(TRIM(L93))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L64">
-    <cfRule type="containsBlanks" dxfId="33" priority="19">
-      <formula>LEN(TRIM(L64))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L91">
-    <cfRule type="containsBlanks" dxfId="32" priority="18">
-      <formula>LEN(TRIM(L91))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L92">
-    <cfRule type="containsBlanks" dxfId="31" priority="15">
-      <formula>LEN(TRIM(L92))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L124">
-    <cfRule type="containsBlanks" dxfId="30" priority="14">
-      <formula>LEN(TRIM(L124))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L126">
-    <cfRule type="containsBlanks" dxfId="29" priority="13">
+  <conditionalFormatting sqref="L126:L142">
+    <cfRule type="containsBlanks" dxfId="16" priority="8">
       <formula>LEN(TRIM(L126))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L125">
-    <cfRule type="containsBlanks" dxfId="28" priority="12">
-      <formula>LEN(TRIM(L125))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L127:L129">
-    <cfRule type="containsBlanks" dxfId="27" priority="11">
-      <formula>LEN(TRIM(L127))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L130:L134">
-    <cfRule type="containsBlanks" dxfId="26" priority="10">
-      <formula>LEN(TRIM(L130))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L135:L136">
-    <cfRule type="containsBlanks" dxfId="25" priority="9">
-      <formula>LEN(TRIM(L135))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L137:L140">
-    <cfRule type="containsBlanks" dxfId="24" priority="8">
-      <formula>LEN(TRIM(L137))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L142">
-    <cfRule type="containsBlanks" dxfId="23" priority="7">
-      <formula>LEN(TRIM(L142))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L144:L145">
-    <cfRule type="containsBlanks" dxfId="22" priority="5">
+  <conditionalFormatting sqref="L144">
+    <cfRule type="containsBlanks" dxfId="15" priority="7">
       <formula>LEN(TRIM(L144))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L146">
-    <cfRule type="containsBlanks" dxfId="21" priority="4">
+  <conditionalFormatting sqref="L146:L148">
+    <cfRule type="containsBlanks" dxfId="14" priority="4">
       <formula>LEN(TRIM(L146))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L170">
-    <cfRule type="containsBlanks" dxfId="20" priority="3">
-      <formula>LEN(TRIM(L170))=0</formula>
+  <conditionalFormatting sqref="L172">
+    <cfRule type="containsBlanks" dxfId="13" priority="3">
+      <formula>LEN(TRIM(L172))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L173">
-    <cfRule type="containsBlanks" dxfId="19" priority="2">
-      <formula>LEN(TRIM(L173))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K143:L143">
-    <cfRule type="containsBlanks" dxfId="18" priority="1">
-      <formula>LEN(TRIM(K143))=0</formula>
+  <conditionalFormatting sqref="L175">
+    <cfRule type="containsBlanks" dxfId="12" priority="2">
+      <formula>LEN(TRIM(L175))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -42850,47 +42772,27 @@
     <mergeCell ref="E2:T2"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:C28">
-    <cfRule type="containsBlanks" dxfId="17" priority="18">
+    <cfRule type="containsBlanks" dxfId="11" priority="18">
       <formula>LEN(TRIM(B4))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P4:P28">
-    <cfRule type="containsText" dxfId="16" priority="12" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH("Yes",P4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="13" operator="containsText" text="Auto">
-      <formula>NOT(ISERROR(SEARCH("Auto",P4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="14" operator="containsText" text="No">
-      <formula>NOT(ISERROR(SEARCH("No",P4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4:D28">
-    <cfRule type="containsText" dxfId="13" priority="9" operator="containsText" text="Yes">
+  <conditionalFormatting sqref="D4:T28">
+    <cfRule type="containsText" dxfId="10" priority="9" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="10" operator="containsText" text="Auto">
+    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="Auto">
       <formula>NOT(ISERROR(SEARCH("Auto",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:T28">
-    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>"???"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>"Partial"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="15" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH("Yes",E4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="16" operator="containsText" text="Auto">
-      <formula>NOT(ISERROR(SEARCH("Auto",E4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="17" operator="containsText" text="No">
-      <formula>NOT(ISERROR(SEARCH("No",E4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9">

--- a/process/configuration/templates/_report_configuration.xlsx
+++ b/process/configuration/templates/_report_configuration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rmiteduau-my.sharepoint.com/personal/carl_higgs_rmit_edu_au/Documents/projects/global-indicators/process/configuration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="8_{2CED04CE-3476-4A81-BA3D-7F271E4F6C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10EE184C-B3D4-4964-BC17-02A2215C9193}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="8_{2CED04CE-3476-4A81-BA3D-7F271E4F6C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1174B786-0445-41FC-9466-C7C82E2F692F}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5328" uniqueCount="2125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5336" uniqueCount="2129">
   <si>
     <t>name</t>
   </si>
@@ -6544,6 +6544,18 @@
   <si>
     <t>% population within 500m of bicycle parking
 locations (OpenStreetMap)</t>
+  </si>
+  <si>
+    <t>Bicycle rental</t>
+  </si>
+  <si>
+    <t>Bicycle parking</t>
+  </si>
+  <si>
+    <t>Alquiler de bicicletas</t>
+  </si>
+  <si>
+    <t>Parking de bicicletas</t>
   </si>
 </sst>
 </file>
@@ -7486,7 +7498,24 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="26">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -7561,13 +7590,6 @@
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -19500,7 +19522,7 @@
   </sheetData>
   <autoFilter ref="A1:T191" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="A130:A131">
-    <cfRule type="duplicateValues" dxfId="24" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -31024,7 +31046,7 @@
   </sheetData>
   <autoFilter ref="A1:T194" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="A130:A131">
-    <cfRule type="duplicateValues" dxfId="23" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -31036,13 +31058,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:U177"/>
+  <dimension ref="A1:U179"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D60" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="K48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C79" sqref="C79"/>
+      <selection pane="bottomRight" activeCell="M71" sqref="M71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33800,302 +33822,242 @@
         <v>144</v>
       </c>
       <c r="B70" s="17" t="s">
-        <v>152</v>
+        <v>2125</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="D70" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="E70" s="9" t="s">
-        <v>325</v>
-      </c>
-      <c r="F70" s="9" t="s">
-        <v>870</v>
-      </c>
-      <c r="G70" s="10" t="s">
-        <v>1194</v>
-      </c>
-      <c r="H70" s="9" t="s">
-        <v>1333</v>
-      </c>
-      <c r="I70" s="19" t="s">
-        <v>484</v>
-      </c>
-      <c r="J70" s="9" t="s">
-        <v>439</v>
-      </c>
-      <c r="K70" s="19" t="s">
-        <v>1264</v>
-      </c>
-      <c r="L70" s="19" t="s">
-        <v>1903</v>
-      </c>
-      <c r="M70" s="9" t="s">
-        <v>252</v>
-      </c>
+        <v>2125</v>
+      </c>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="19"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="19"/>
+      <c r="L70" s="19"/>
+      <c r="M70" s="9"/>
       <c r="N70" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="O70" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="P70" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q70" s="9" t="s">
-        <v>363</v>
-      </c>
-      <c r="R70" s="9" t="s">
-        <v>730</v>
-      </c>
-      <c r="S70" s="9" t="s">
-        <v>1125</v>
-      </c>
+        <v>2127</v>
+      </c>
+      <c r="O70" s="9"/>
+      <c r="P70" s="9"/>
+      <c r="Q70" s="9"/>
+      <c r="R70" s="9"/>
+      <c r="S70" s="9"/>
       <c r="T70" s="9"/>
       <c r="U70" s="9"/>
     </row>
-    <row r="71" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A71" s="17" t="s">
         <v>144</v>
       </c>
       <c r="B71" s="17" t="s">
-        <v>151</v>
+        <v>2126</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="D71" s="9" t="s">
-        <v>391</v>
-      </c>
-      <c r="E71" s="9" t="s">
-        <v>871</v>
-      </c>
-      <c r="F71" s="9" t="s">
-        <v>872</v>
-      </c>
-      <c r="G71" s="10" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H71" s="9" t="s">
-        <v>1334</v>
-      </c>
-      <c r="I71" s="19" t="s">
-        <v>485</v>
-      </c>
-      <c r="J71" s="9" t="s">
-        <v>440</v>
-      </c>
-      <c r="K71" s="19" t="s">
-        <v>1265</v>
-      </c>
-      <c r="L71" s="19" t="s">
-        <v>1904</v>
-      </c>
-      <c r="M71" s="9" t="s">
-        <v>253</v>
-      </c>
+        <v>2126</v>
+      </c>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="19"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="19"/>
+      <c r="L71" s="19"/>
+      <c r="M71" s="9"/>
       <c r="N71" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="O71" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="P71" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q71" s="9" t="s">
-        <v>1531</v>
-      </c>
-      <c r="R71" s="9" t="s">
-        <v>731</v>
-      </c>
-      <c r="S71" s="9" t="s">
-        <v>1126</v>
-      </c>
+        <v>2128</v>
+      </c>
+      <c r="O71" s="9"/>
+      <c r="P71" s="9"/>
+      <c r="Q71" s="9"/>
+      <c r="R71" s="9"/>
+      <c r="S71" s="9"/>
       <c r="T71" s="9"/>
       <c r="U71" s="9"/>
     </row>
-    <row r="72" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A72" s="17" t="s">
         <v>144</v>
       </c>
       <c r="B72" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>1454</v>
+        <v>152</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>666</v>
+        <v>390</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>873</v>
+        <v>325</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="G72" s="10" t="s">
-        <v>1642</v>
+        <v>1194</v>
       </c>
       <c r="H72" s="9" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="I72" s="19" t="s">
-        <v>1076</v>
+        <v>484</v>
       </c>
       <c r="J72" s="9" t="s">
-        <v>1512</v>
+        <v>439</v>
       </c>
       <c r="K72" s="19" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="L72" s="19" t="s">
-        <v>1905</v>
+        <v>1903</v>
       </c>
       <c r="M72" s="9" t="s">
-        <v>719</v>
+        <v>252</v>
       </c>
       <c r="N72" s="9" t="s">
-        <v>407</v>
+        <v>252</v>
       </c>
       <c r="O72" s="9" t="s">
-        <v>1004</v>
+        <v>277</v>
       </c>
       <c r="P72" s="9" t="s">
-        <v>975</v>
+        <v>296</v>
       </c>
       <c r="Q72" s="9" t="s">
-        <v>1532</v>
+        <v>363</v>
       </c>
       <c r="R72" s="9" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="S72" s="9" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="T72" s="9"/>
       <c r="U72" s="9"/>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="17" t="s">
         <v>144</v>
       </c>
       <c r="B73" s="17" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>667</v>
+        <v>391</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>326</v>
+        <v>871</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>326</v>
+        <v>872</v>
       </c>
       <c r="G73" s="10" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="H73" s="9" t="s">
-        <v>243</v>
+        <v>1334</v>
       </c>
       <c r="I73" s="19" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="J73" s="9" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K73" s="19" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="L73" s="19" t="s">
-        <v>573</v>
+        <v>1904</v>
       </c>
       <c r="M73" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N73" s="9" t="s">
-        <v>688</v>
+        <v>253</v>
       </c>
       <c r="O73" s="9" t="s">
-        <v>667</v>
+        <v>278</v>
       </c>
       <c r="P73" s="9" t="s">
-        <v>279</v>
+        <v>297</v>
       </c>
       <c r="Q73" s="9" t="s">
-        <v>364</v>
+        <v>1531</v>
       </c>
       <c r="R73" s="9" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="S73" s="9" t="s">
-        <v>351</v>
+        <v>1126</v>
       </c>
       <c r="T73" s="9"/>
       <c r="U73" s="9"/>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" s="17" t="s">
         <v>144</v>
       </c>
       <c r="B74" s="17" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>155</v>
+        <v>1454</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>392</v>
+        <v>666</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="G74" s="10" t="s">
-        <v>1197</v>
+        <v>1642</v>
       </c>
       <c r="H74" s="9" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="I74" s="19" t="s">
-        <v>487</v>
+        <v>1076</v>
       </c>
       <c r="J74" s="9" t="s">
-        <v>442</v>
+        <v>1512</v>
       </c>
       <c r="K74" s="19" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="L74" s="19" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="M74" s="9" t="s">
-        <v>255</v>
+        <v>719</v>
       </c>
       <c r="N74" s="9" t="s">
-        <v>689</v>
+        <v>407</v>
       </c>
       <c r="O74" s="9" t="s">
-        <v>280</v>
+        <v>1004</v>
       </c>
       <c r="P74" s="9" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="Q74" s="9" t="s">
-        <v>365</v>
+        <v>1532</v>
       </c>
       <c r="R74" s="9" t="s">
-        <v>315</v>
+        <v>732</v>
       </c>
       <c r="S74" s="9" t="s">
-        <v>352</v>
+        <v>1127</v>
       </c>
       <c r="T74" s="9"/>
       <c r="U74" s="9"/>
@@ -34105,241 +34067,241 @@
         <v>144</v>
       </c>
       <c r="B75" s="17" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G75" s="10" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I75" s="19" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="K75" s="19" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="L75" s="19" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="N75" s="9" t="s">
-        <v>668</v>
+        <v>688</v>
       </c>
       <c r="O75" s="9" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="P75" s="9" t="s">
-        <v>256</v>
+        <v>279</v>
       </c>
       <c r="Q75" s="9" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="R75" s="9" t="s">
-        <v>316</v>
+        <v>733</v>
       </c>
       <c r="S75" s="9" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="T75" s="9"/>
       <c r="U75" s="9"/>
     </row>
-    <row r="76" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A76" s="17" t="s">
         <v>144</v>
       </c>
       <c r="B76" s="17" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>419</v>
+        <v>155</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>475</v>
+        <v>392</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="G76" s="10" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="H76" s="9" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="I76" s="19" t="s">
-        <v>1077</v>
+        <v>487</v>
       </c>
       <c r="J76" s="9" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="K76" s="19" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="L76" s="19" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="M76" s="9" t="s">
-        <v>420</v>
+        <v>255</v>
       </c>
       <c r="N76" s="9" t="s">
-        <v>418</v>
+        <v>689</v>
       </c>
       <c r="O76" s="9" t="s">
-        <v>1005</v>
+        <v>280</v>
       </c>
       <c r="P76" s="9" t="s">
-        <v>464</v>
+        <v>976</v>
       </c>
       <c r="Q76" s="9" t="s">
-        <v>1533</v>
+        <v>365</v>
       </c>
       <c r="R76" s="9" t="s">
-        <v>734</v>
+        <v>315</v>
       </c>
       <c r="S76" s="9" t="s">
-        <v>566</v>
+        <v>352</v>
       </c>
       <c r="T76" s="9"/>
       <c r="U76" s="9"/>
     </row>
-    <row r="77" spans="1:21" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A77" s="17" t="s">
         <v>144</v>
       </c>
       <c r="B77" s="17" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>224</v>
+        <v>156</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>853</v>
+        <v>668</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>1425</v>
+        <v>327</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>1426</v>
+        <v>327</v>
       </c>
       <c r="G77" s="10" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="H77" s="9" t="s">
-        <v>1338</v>
+        <v>244</v>
       </c>
       <c r="I77" s="19" t="s">
-        <v>1078</v>
+        <v>488</v>
       </c>
       <c r="J77" s="9" t="s">
-        <v>1436</v>
+        <v>443</v>
       </c>
       <c r="K77" s="19" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="L77" s="19" t="s">
-        <v>1975</v>
+        <v>574</v>
       </c>
       <c r="M77" s="9" t="s">
-        <v>421</v>
+        <v>256</v>
       </c>
       <c r="N77" s="9" t="s">
-        <v>782</v>
+        <v>668</v>
       </c>
       <c r="O77" s="9" t="s">
-        <v>1006</v>
+        <v>668</v>
       </c>
       <c r="P77" s="9" t="s">
-        <v>1393</v>
+        <v>256</v>
       </c>
       <c r="Q77" s="9" t="s">
-        <v>1534</v>
+        <v>366</v>
       </c>
       <c r="R77" s="9" t="s">
-        <v>735</v>
+        <v>316</v>
       </c>
       <c r="S77" s="9" t="s">
-        <v>1128</v>
+        <v>353</v>
       </c>
       <c r="T77" s="9"/>
       <c r="U77" s="9"/>
     </row>
-    <row r="78" spans="1:21" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="17" t="s">
         <v>144</v>
       </c>
       <c r="B78" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>226</v>
+        <v>419</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>669</v>
+        <v>475</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="G78" s="10" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="H78" s="9" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="I78" s="19" t="s">
-        <v>1845</v>
+        <v>1077</v>
       </c>
       <c r="J78" s="9" t="s">
-        <v>1437</v>
+        <v>444</v>
       </c>
       <c r="K78" s="19" t="s">
-        <v>1671</v>
+        <v>1270</v>
       </c>
       <c r="L78" s="19" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="M78" s="9" t="s">
-        <v>572</v>
+        <v>420</v>
       </c>
       <c r="N78" s="9" t="s">
-        <v>783</v>
+        <v>418</v>
       </c>
       <c r="O78" s="9" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="P78" s="9" t="s">
-        <v>1394</v>
+        <v>464</v>
       </c>
       <c r="Q78" s="9" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="R78" s="9" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="S78" s="9" t="s">
-        <v>1129</v>
+        <v>566</v>
       </c>
       <c r="T78" s="9"/>
       <c r="U78" s="9"/>
@@ -34349,29 +34311,59 @@
         <v>144</v>
       </c>
       <c r="B79" s="17" t="s">
-        <v>2119</v>
+        <v>158</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>2123</v>
-      </c>
-      <c r="D79" s="9"/>
-      <c r="E79" s="9"/>
-      <c r="F79" s="9"/>
-      <c r="G79" s="10"/>
-      <c r="H79" s="9"/>
-      <c r="I79" s="19"/>
-      <c r="J79" s="9"/>
-      <c r="K79" s="19"/>
-      <c r="L79" s="19"/>
-      <c r="M79" s="9"/>
+        <v>224</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>853</v>
+      </c>
+      <c r="E79" s="9" t="s">
+        <v>1425</v>
+      </c>
+      <c r="F79" s="9" t="s">
+        <v>1426</v>
+      </c>
+      <c r="G79" s="10" t="s">
+        <v>1200</v>
+      </c>
+      <c r="H79" s="9" t="s">
+        <v>1338</v>
+      </c>
+      <c r="I79" s="19" t="s">
+        <v>1078</v>
+      </c>
+      <c r="J79" s="9" t="s">
+        <v>1436</v>
+      </c>
+      <c r="K79" s="19" t="s">
+        <v>1271</v>
+      </c>
+      <c r="L79" s="19" t="s">
+        <v>1975</v>
+      </c>
+      <c r="M79" s="9" t="s">
+        <v>421</v>
+      </c>
       <c r="N79" s="9" t="s">
-        <v>2122</v>
-      </c>
-      <c r="O79" s="9"/>
-      <c r="P79" s="9"/>
-      <c r="Q79" s="9"/>
-      <c r="R79" s="9"/>
-      <c r="S79" s="9"/>
+        <v>782</v>
+      </c>
+      <c r="O79" s="9" t="s">
+        <v>1006</v>
+      </c>
+      <c r="P79" s="9" t="s">
+        <v>1393</v>
+      </c>
+      <c r="Q79" s="9" t="s">
+        <v>1534</v>
+      </c>
+      <c r="R79" s="9" t="s">
+        <v>735</v>
+      </c>
+      <c r="S79" s="9" t="s">
+        <v>1128</v>
+      </c>
       <c r="T79" s="9"/>
       <c r="U79" s="9"/>
     </row>
@@ -34380,151 +34372,121 @@
         <v>144</v>
       </c>
       <c r="B80" s="17" t="s">
-        <v>2120</v>
+        <v>159</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>2124</v>
-      </c>
-      <c r="D80" s="9"/>
-      <c r="E80" s="9"/>
-      <c r="F80" s="9"/>
-      <c r="G80" s="10"/>
-      <c r="H80" s="9"/>
-      <c r="I80" s="19"/>
-      <c r="J80" s="9"/>
-      <c r="K80" s="19"/>
-      <c r="L80" s="19"/>
-      <c r="M80" s="9"/>
+        <v>226</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>669</v>
+      </c>
+      <c r="E80" s="9" t="s">
+        <v>877</v>
+      </c>
+      <c r="F80" s="9" t="s">
+        <v>878</v>
+      </c>
+      <c r="G80" s="10" t="s">
+        <v>1201</v>
+      </c>
+      <c r="H80" s="9" t="s">
+        <v>1339</v>
+      </c>
+      <c r="I80" s="19" t="s">
+        <v>1845</v>
+      </c>
+      <c r="J80" s="9" t="s">
+        <v>1437</v>
+      </c>
+      <c r="K80" s="19" t="s">
+        <v>1671</v>
+      </c>
+      <c r="L80" s="19" t="s">
+        <v>1908</v>
+      </c>
+      <c r="M80" s="9" t="s">
+        <v>572</v>
+      </c>
       <c r="N80" s="9" t="s">
-        <v>2121</v>
-      </c>
-      <c r="O80" s="9"/>
-      <c r="P80" s="9"/>
-      <c r="Q80" s="9"/>
-      <c r="R80" s="9"/>
-      <c r="S80" s="9"/>
+        <v>783</v>
+      </c>
+      <c r="O80" s="9" t="s">
+        <v>1007</v>
+      </c>
+      <c r="P80" s="9" t="s">
+        <v>1394</v>
+      </c>
+      <c r="Q80" s="9" t="s">
+        <v>1535</v>
+      </c>
+      <c r="R80" s="9" t="s">
+        <v>736</v>
+      </c>
+      <c r="S80" s="9" t="s">
+        <v>1129</v>
+      </c>
       <c r="T80" s="9"/>
       <c r="U80" s="9"/>
     </row>
-    <row r="81" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:21" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="17" t="s">
         <v>144</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>547</v>
+        <v>2119</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>1677</v>
-      </c>
-      <c r="D81" s="9" t="s">
-        <v>1678</v>
-      </c>
-      <c r="E81" s="9" t="s">
-        <v>1679</v>
-      </c>
-      <c r="F81" s="9" t="s">
-        <v>1680</v>
-      </c>
-      <c r="G81" s="10" t="s">
-        <v>1681</v>
-      </c>
-      <c r="H81" s="9" t="s">
-        <v>1836</v>
-      </c>
-      <c r="I81" s="19" t="s">
-        <v>1682</v>
-      </c>
-      <c r="J81" s="9" t="s">
-        <v>1683</v>
-      </c>
-      <c r="K81" s="19" t="s">
-        <v>1684</v>
-      </c>
-      <c r="L81" s="19" t="s">
-        <v>1909</v>
-      </c>
-      <c r="M81" s="9" t="s">
-        <v>1685</v>
-      </c>
+        <v>2123</v>
+      </c>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="10"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="19"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="19"/>
+      <c r="L81" s="19"/>
+      <c r="M81" s="9"/>
       <c r="N81" s="9" t="s">
-        <v>1686</v>
-      </c>
-      <c r="O81" s="9" t="s">
-        <v>1687</v>
-      </c>
-      <c r="P81" s="9" t="s">
-        <v>1688</v>
-      </c>
-      <c r="Q81" s="9" t="s">
-        <v>1689</v>
-      </c>
-      <c r="R81" s="9" t="s">
-        <v>1583</v>
-      </c>
-      <c r="S81" s="9" t="s">
-        <v>1690</v>
-      </c>
+        <v>2122</v>
+      </c>
+      <c r="O81" s="9"/>
+      <c r="P81" s="9"/>
+      <c r="Q81" s="9"/>
+      <c r="R81" s="9"/>
+      <c r="S81" s="9"/>
       <c r="T81" s="9"/>
       <c r="U81" s="9"/>
     </row>
-    <row r="82" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:21" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="17" t="s">
         <v>144</v>
       </c>
       <c r="B82" s="17" t="s">
-        <v>548</v>
+        <v>2120</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>1691</v>
-      </c>
-      <c r="D82" s="9" t="s">
-        <v>1692</v>
-      </c>
-      <c r="E82" s="9" t="s">
-        <v>1693</v>
-      </c>
-      <c r="F82" s="9" t="s">
-        <v>1694</v>
-      </c>
-      <c r="G82" s="10" t="s">
-        <v>1695</v>
-      </c>
-      <c r="H82" s="9" t="s">
-        <v>1696</v>
-      </c>
-      <c r="I82" s="19" t="s">
-        <v>1697</v>
-      </c>
-      <c r="J82" s="9" t="s">
-        <v>1698</v>
-      </c>
-      <c r="K82" s="19" t="s">
-        <v>1699</v>
-      </c>
-      <c r="L82" s="19" t="s">
-        <v>1910</v>
-      </c>
-      <c r="M82" s="9" t="s">
-        <v>1700</v>
-      </c>
+        <v>2124</v>
+      </c>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="10"/>
+      <c r="H82" s="9"/>
+      <c r="I82" s="19"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="19"/>
+      <c r="L82" s="19"/>
+      <c r="M82" s="9"/>
       <c r="N82" s="9" t="s">
-        <v>1701</v>
-      </c>
-      <c r="O82" s="9" t="s">
-        <v>1702</v>
-      </c>
-      <c r="P82" s="9" t="s">
-        <v>1703</v>
-      </c>
-      <c r="Q82" s="9" t="s">
-        <v>1704</v>
-      </c>
-      <c r="R82" s="9" t="s">
-        <v>1584</v>
-      </c>
-      <c r="S82" s="9" t="s">
-        <v>1705</v>
-      </c>
+        <v>2121</v>
+      </c>
+      <c r="O82" s="9"/>
+      <c r="P82" s="9"/>
+      <c r="Q82" s="9"/>
+      <c r="R82" s="9"/>
+      <c r="S82" s="9"/>
       <c r="T82" s="9"/>
       <c r="U82" s="9"/>
     </row>
@@ -34533,664 +34495,664 @@
         <v>144</v>
       </c>
       <c r="B83" s="17" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>1706</v>
+        <v>1677</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>1707</v>
+        <v>1678</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>1708</v>
+        <v>1679</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>1709</v>
+        <v>1680</v>
       </c>
       <c r="G83" s="10" t="s">
-        <v>1710</v>
+        <v>1681</v>
       </c>
       <c r="H83" s="9" t="s">
-        <v>1711</v>
+        <v>1836</v>
       </c>
       <c r="I83" s="19" t="s">
-        <v>1712</v>
+        <v>1682</v>
       </c>
       <c r="J83" s="9" t="s">
-        <v>1713</v>
+        <v>1683</v>
       </c>
       <c r="K83" s="19" t="s">
-        <v>1714</v>
+        <v>1684</v>
       </c>
       <c r="L83" s="19" t="s">
-        <v>1911</v>
+        <v>1909</v>
       </c>
       <c r="M83" s="9" t="s">
-        <v>1715</v>
+        <v>1685</v>
       </c>
       <c r="N83" s="9" t="s">
-        <v>1716</v>
+        <v>1686</v>
       </c>
       <c r="O83" s="9" t="s">
-        <v>1717</v>
+        <v>1687</v>
       </c>
       <c r="P83" s="9" t="s">
-        <v>1718</v>
+        <v>1688</v>
       </c>
       <c r="Q83" s="9" t="s">
-        <v>1719</v>
+        <v>1689</v>
       </c>
       <c r="R83" s="9" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="S83" s="9" t="s">
-        <v>1720</v>
+        <v>1690</v>
       </c>
       <c r="T83" s="9"/>
       <c r="U83" s="9"/>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A84" s="17" t="s">
         <v>144</v>
       </c>
       <c r="B84" s="17" t="s">
-        <v>160</v>
+        <v>548</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>160</v>
+        <v>1691</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>393</v>
+        <v>1692</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>879</v>
+        <v>1693</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>880</v>
+        <v>1694</v>
       </c>
       <c r="G84" s="10" t="s">
-        <v>1202</v>
+        <v>1695</v>
       </c>
       <c r="H84" s="9" t="s">
-        <v>1340</v>
+        <v>1696</v>
       </c>
       <c r="I84" s="19" t="s">
-        <v>1079</v>
+        <v>1697</v>
       </c>
       <c r="J84" s="9" t="s">
-        <v>445</v>
+        <v>1698</v>
       </c>
       <c r="K84" s="19" t="s">
-        <v>1272</v>
+        <v>1699</v>
       </c>
       <c r="L84" s="19" t="s">
-        <v>1912</v>
+        <v>1910</v>
       </c>
       <c r="M84" s="9" t="s">
-        <v>257</v>
+        <v>1700</v>
       </c>
       <c r="N84" s="9" t="s">
-        <v>257</v>
+        <v>1701</v>
       </c>
       <c r="O84" s="9" t="s">
-        <v>257</v>
+        <v>1702</v>
       </c>
       <c r="P84" s="9" t="s">
-        <v>257</v>
+        <v>1703</v>
       </c>
       <c r="Q84" s="9" t="s">
-        <v>1536</v>
+        <v>1704</v>
       </c>
       <c r="R84" s="9" t="s">
-        <v>317</v>
+        <v>1584</v>
       </c>
       <c r="S84" s="9" t="s">
-        <v>354</v>
+        <v>1705</v>
       </c>
       <c r="T84" s="9"/>
       <c r="U84" s="9"/>
     </row>
-    <row r="85" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A85" s="17" t="s">
         <v>144</v>
       </c>
       <c r="B85" s="17" t="s">
-        <v>163</v>
+        <v>546</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>1518</v>
+        <v>1706</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>1519</v>
+        <v>1707</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>881</v>
+        <v>1708</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>882</v>
+        <v>1709</v>
       </c>
       <c r="G85" s="10" t="s">
-        <v>1520</v>
+        <v>1710</v>
       </c>
       <c r="H85" s="9" t="s">
-        <v>1521</v>
+        <v>1711</v>
       </c>
       <c r="I85" s="19" t="s">
-        <v>1080</v>
+        <v>1712</v>
       </c>
       <c r="J85" s="9" t="s">
-        <v>1525</v>
+        <v>1713</v>
       </c>
       <c r="K85" s="19" t="s">
-        <v>1522</v>
+        <v>1714</v>
       </c>
       <c r="L85" s="19" t="s">
-        <v>1913</v>
+        <v>1911</v>
       </c>
       <c r="M85" s="9" t="s">
-        <v>1515</v>
+        <v>1715</v>
       </c>
       <c r="N85" s="9" t="s">
-        <v>1516</v>
+        <v>1716</v>
       </c>
       <c r="O85" s="9" t="s">
-        <v>1517</v>
+        <v>1717</v>
       </c>
       <c r="P85" s="9" t="s">
-        <v>1523</v>
+        <v>1718</v>
       </c>
       <c r="Q85" s="9" t="s">
-        <v>1537</v>
+        <v>1719</v>
       </c>
       <c r="R85" s="9" t="s">
-        <v>1578</v>
+        <v>1582</v>
       </c>
       <c r="S85" s="9" t="s">
-        <v>1524</v>
+        <v>1720</v>
       </c>
       <c r="T85" s="9"/>
       <c r="U85" s="9"/>
     </row>
-    <row r="86" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A86" s="17" t="s">
         <v>144</v>
       </c>
       <c r="B86" s="17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>431</v>
+        <v>160</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>670</v>
+        <v>393</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>471</v>
+        <v>879</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="G86" s="10" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="H86" s="9" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="I86" s="19" t="s">
-        <v>489</v>
+        <v>1079</v>
       </c>
       <c r="J86" s="9" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="K86" s="19" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="L86" s="19" t="s">
-        <v>1914</v>
+        <v>1912</v>
       </c>
       <c r="M86" s="9" t="s">
-        <v>720</v>
+        <v>257</v>
       </c>
       <c r="N86" s="9" t="s">
-        <v>690</v>
+        <v>257</v>
       </c>
       <c r="O86" s="9" t="s">
-        <v>462</v>
+        <v>257</v>
       </c>
       <c r="P86" s="9" t="s">
-        <v>462</v>
+        <v>257</v>
       </c>
       <c r="Q86" s="9" t="s">
-        <v>473</v>
+        <v>1536</v>
       </c>
       <c r="R86" s="9" t="s">
-        <v>738</v>
+        <v>317</v>
       </c>
       <c r="S86" s="9" t="s">
-        <v>1130</v>
+        <v>354</v>
       </c>
       <c r="T86" s="9"/>
       <c r="U86" s="9"/>
     </row>
-    <row r="87" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A87" s="17" t="s">
         <v>144</v>
       </c>
       <c r="B87" s="17" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>432</v>
+        <v>1518</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>671</v>
+        <v>1519</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="G87" s="10" t="s">
-        <v>1205</v>
+        <v>1520</v>
       </c>
       <c r="H87" s="9" t="s">
-        <v>1342</v>
+        <v>1521</v>
       </c>
       <c r="I87" s="19" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="J87" s="9" t="s">
-        <v>1505</v>
+        <v>1525</v>
       </c>
       <c r="K87" s="19" t="s">
-        <v>1275</v>
+        <v>1522</v>
       </c>
       <c r="L87" s="19" t="s">
-        <v>1915</v>
+        <v>1913</v>
       </c>
       <c r="M87" s="9" t="s">
-        <v>721</v>
+        <v>1515</v>
       </c>
       <c r="N87" s="9" t="s">
-        <v>691</v>
+        <v>1516</v>
       </c>
       <c r="O87" s="9" t="s">
-        <v>1008</v>
+        <v>1517</v>
       </c>
       <c r="P87" s="9" t="s">
-        <v>1395</v>
+        <v>1523</v>
       </c>
       <c r="Q87" s="9" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="R87" s="9" t="s">
-        <v>739</v>
+        <v>1578</v>
       </c>
       <c r="S87" s="9" t="s">
-        <v>1131</v>
+        <v>1524</v>
       </c>
       <c r="T87" s="9"/>
       <c r="U87" s="9"/>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="17" t="s">
         <v>144</v>
       </c>
       <c r="B88" s="17" t="s">
-        <v>206</v>
+        <v>161</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>537</v>
+        <v>431</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>818</v>
+        <v>670</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>886</v>
+        <v>471</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="G88" s="10" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="H88" s="9" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="I88" s="19" t="s">
-        <v>1082</v>
+        <v>489</v>
       </c>
       <c r="J88" s="9" t="s">
-        <v>1438</v>
+        <v>447</v>
       </c>
       <c r="K88" s="19" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="L88" s="19" t="s">
-        <v>1916</v>
+        <v>1914</v>
       </c>
       <c r="M88" s="9" t="s">
-        <v>556</v>
+        <v>720</v>
       </c>
       <c r="N88" s="9" t="s">
-        <v>556</v>
+        <v>690</v>
       </c>
       <c r="O88" s="9" t="s">
-        <v>1040</v>
+        <v>462</v>
       </c>
       <c r="P88" s="9" t="s">
-        <v>997</v>
+        <v>462</v>
       </c>
       <c r="Q88" s="9" t="s">
-        <v>562</v>
+        <v>473</v>
       </c>
       <c r="R88" s="9" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="S88" s="9" t="s">
-        <v>567</v>
+        <v>1130</v>
       </c>
       <c r="T88" s="9"/>
       <c r="U88" s="9"/>
     </row>
-    <row r="89" spans="1:21" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="17" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B89" s="17" t="s">
-        <v>67</v>
+        <v>162</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>969</v>
+        <v>432</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>969</v>
+        <v>884</v>
       </c>
       <c r="F89" s="9" t="s">
-        <v>969</v>
+        <v>885</v>
       </c>
       <c r="G89" s="10" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="H89" s="9" t="s">
-        <v>970</v>
+        <v>1342</v>
       </c>
       <c r="I89" s="19" t="s">
-        <v>1846</v>
+        <v>1081</v>
       </c>
       <c r="J89" s="9" t="s">
-        <v>1439</v>
+        <v>1505</v>
       </c>
       <c r="K89" s="19" t="s">
-        <v>1277</v>
-      </c>
-      <c r="L89" s="19"/>
+        <v>1275</v>
+      </c>
+      <c r="L89" s="19" t="s">
+        <v>1915</v>
+      </c>
       <c r="M89" s="9" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="N89" s="9" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="O89" s="9" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="P89" s="9" t="s">
-        <v>977</v>
+        <v>1395</v>
       </c>
       <c r="Q89" s="9" t="s">
-        <v>563</v>
+        <v>1538</v>
       </c>
       <c r="R89" s="9" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="S89" s="9" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="T89" s="9"/>
       <c r="U89" s="9"/>
     </row>
-    <row r="90" spans="1:21" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A90" s="17" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B90" s="17" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>971</v>
+        <v>537</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>673</v>
+        <v>818</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>971</v>
+        <v>886</v>
       </c>
       <c r="F90" s="9" t="s">
-        <v>971</v>
+        <v>887</v>
       </c>
       <c r="G90" s="10" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="H90" s="9" t="s">
-        <v>972</v>
+        <v>1343</v>
       </c>
       <c r="I90" s="19" t="s">
-        <v>1847</v>
+        <v>1082</v>
       </c>
       <c r="J90" s="9" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="K90" s="19" t="s">
-        <v>1278</v>
-      </c>
-      <c r="L90" s="19"/>
+        <v>1276</v>
+      </c>
+      <c r="L90" s="19" t="s">
+        <v>1916</v>
+      </c>
       <c r="M90" s="9" t="s">
-        <v>723</v>
+        <v>556</v>
       </c>
       <c r="N90" s="9" t="s">
-        <v>693</v>
+        <v>556</v>
       </c>
       <c r="O90" s="9" t="s">
-        <v>1010</v>
+        <v>1040</v>
       </c>
       <c r="P90" s="9" t="s">
-        <v>560</v>
+        <v>997</v>
       </c>
       <c r="Q90" s="9" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="R90" s="9" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="S90" s="9" t="s">
-        <v>1133</v>
+        <v>567</v>
       </c>
       <c r="T90" s="9"/>
       <c r="U90" s="9"/>
     </row>
-    <row r="91" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:21" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B91" s="17" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>580</v>
+        <v>969</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>888</v>
+        <v>969</v>
       </c>
       <c r="F91" s="9" t="s">
-        <v>889</v>
+        <v>969</v>
       </c>
       <c r="G91" s="10" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="H91" s="9" t="s">
-        <v>1974</v>
+        <v>970</v>
       </c>
       <c r="I91" s="19" t="s">
-        <v>1071</v>
+        <v>1846</v>
       </c>
       <c r="J91" s="9" t="s">
-        <v>585</v>
+        <v>1439</v>
       </c>
       <c r="K91" s="19" t="s">
-        <v>1279</v>
-      </c>
-      <c r="L91" s="19" t="s">
-        <v>1895</v>
-      </c>
+        <v>1277</v>
+      </c>
+      <c r="L91" s="19"/>
       <c r="M91" s="9" t="s">
-        <v>581</v>
+        <v>722</v>
       </c>
       <c r="N91" s="9" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="O91" s="9" t="s">
-        <v>1000</v>
+        <v>1009</v>
       </c>
       <c r="P91" s="9" t="s">
-        <v>582</v>
+        <v>977</v>
       </c>
       <c r="Q91" s="9" t="s">
-        <v>583</v>
+        <v>563</v>
       </c>
       <c r="R91" s="9" t="s">
-        <v>584</v>
+        <v>741</v>
       </c>
       <c r="S91" s="9" t="s">
-        <v>1121</v>
+        <v>1132</v>
       </c>
       <c r="T91" s="9"/>
       <c r="U91" s="9"/>
     </row>
-    <row r="92" spans="1:21" ht="238.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:21" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B92" s="17" t="s">
-        <v>1800</v>
+        <v>181</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>1852</v>
+        <v>971</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>1853</v>
+        <v>673</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>1585</v>
+        <v>971</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>1476</v>
+        <v>971</v>
       </c>
       <c r="G92" s="10" t="s">
-        <v>1854</v>
+        <v>1208</v>
       </c>
       <c r="H92" s="9" t="s">
-        <v>1463</v>
+        <v>972</v>
       </c>
       <c r="I92" s="19" t="s">
-        <v>1855</v>
+        <v>1847</v>
       </c>
       <c r="J92" s="9" t="s">
-        <v>1856</v>
+        <v>1440</v>
       </c>
       <c r="K92" s="19" t="s">
-        <v>1857</v>
-      </c>
-      <c r="L92" s="19" t="s">
-        <v>1917</v>
-      </c>
+        <v>1278</v>
+      </c>
+      <c r="L92" s="19"/>
       <c r="M92" s="9" t="s">
-        <v>1858</v>
+        <v>723</v>
       </c>
       <c r="N92" s="9" t="s">
-        <v>1859</v>
+        <v>693</v>
       </c>
       <c r="O92" s="9" t="s">
-        <v>1586</v>
+        <v>1010</v>
       </c>
       <c r="P92" s="9" t="s">
-        <v>1860</v>
+        <v>560</v>
       </c>
       <c r="Q92" s="9" t="s">
-        <v>1861</v>
+        <v>564</v>
       </c>
       <c r="R92" s="9" t="s">
-        <v>1656</v>
+        <v>742</v>
       </c>
       <c r="S92" s="9" t="s">
-        <v>1464</v>
+        <v>1133</v>
       </c>
       <c r="T92" s="9"/>
       <c r="U92" s="9"/>
     </row>
-    <row r="93" spans="1:21" ht="238.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B93" s="17" t="s">
-        <v>178</v>
+        <v>31</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>1862</v>
+        <v>580</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>1863</v>
+        <v>674</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>1797</v>
+        <v>888</v>
       </c>
       <c r="F93" s="9" t="s">
-        <v>1798</v>
+        <v>889</v>
       </c>
       <c r="G93" s="10" t="s">
-        <v>1864</v>
+        <v>1209</v>
       </c>
       <c r="H93" s="9" t="s">
-        <v>1799</v>
+        <v>1974</v>
       </c>
       <c r="I93" s="19" t="s">
-        <v>1865</v>
+        <v>1071</v>
       </c>
       <c r="J93" s="9" t="s">
-        <v>1866</v>
+        <v>585</v>
       </c>
       <c r="K93" s="19" t="s">
-        <v>1867</v>
+        <v>1279</v>
       </c>
       <c r="L93" s="19" t="s">
-        <v>1918</v>
+        <v>1895</v>
       </c>
       <c r="M93" s="9" t="s">
-        <v>1868</v>
+        <v>581</v>
       </c>
       <c r="N93" s="9" t="s">
-        <v>1869</v>
+        <v>694</v>
       </c>
       <c r="O93" s="9" t="s">
-        <v>1801</v>
+        <v>1000</v>
       </c>
       <c r="P93" s="9" t="s">
-        <v>1870</v>
+        <v>582</v>
       </c>
       <c r="Q93" s="9" t="s">
-        <v>1871</v>
+        <v>583</v>
       </c>
       <c r="R93" s="9" t="s">
-        <v>1803</v>
+        <v>584</v>
       </c>
       <c r="S93" s="9" t="s">
-        <v>1802</v>
+        <v>1121</v>
       </c>
       <c r="T93" s="9"/>
       <c r="U93" s="9"/>
@@ -35200,302 +35162,302 @@
         <v>143</v>
       </c>
       <c r="B94" s="17" t="s">
-        <v>247</v>
+        <v>1800</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>1872</v>
+        <v>1852</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>1873</v>
+        <v>1853</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>1477</v>
+        <v>1585</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>890</v>
+        <v>1476</v>
       </c>
       <c r="G94" s="10" t="s">
-        <v>1246</v>
+        <v>1854</v>
       </c>
       <c r="H94" s="9" t="s">
-        <v>1344</v>
+        <v>1463</v>
       </c>
       <c r="I94" s="19" t="s">
-        <v>1874</v>
+        <v>1855</v>
       </c>
       <c r="J94" s="9" t="s">
-        <v>1875</v>
+        <v>1856</v>
       </c>
       <c r="K94" s="19" t="s">
-        <v>1876</v>
-      </c>
-      <c r="L94" s="49" t="s">
-        <v>1919</v>
+        <v>1857</v>
+      </c>
+      <c r="L94" s="19" t="s">
+        <v>1917</v>
       </c>
       <c r="M94" s="9" t="s">
-        <v>1877</v>
+        <v>1858</v>
       </c>
       <c r="N94" s="9" t="s">
-        <v>1878</v>
+        <v>1859</v>
       </c>
       <c r="O94" s="9" t="s">
-        <v>1011</v>
+        <v>1586</v>
       </c>
       <c r="P94" s="9" t="s">
-        <v>1879</v>
+        <v>1860</v>
       </c>
       <c r="Q94" s="9" t="s">
-        <v>1880</v>
+        <v>1861</v>
       </c>
       <c r="R94" s="9" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="S94" s="9" t="s">
-        <v>1171</v>
+        <v>1464</v>
       </c>
       <c r="T94" s="9"/>
       <c r="U94" s="9"/>
     </row>
-    <row r="95" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:21" ht="238.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B95" s="17" t="s">
-        <v>33</v>
+        <v>178</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>535</v>
+        <v>1862</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>549</v>
+        <v>1863</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>1431</v>
+        <v>1797</v>
       </c>
       <c r="F95" s="9" t="s">
-        <v>1432</v>
+        <v>1798</v>
       </c>
       <c r="G95" s="10" t="s">
-        <v>1247</v>
+        <v>1864</v>
       </c>
       <c r="H95" s="9" t="s">
-        <v>1345</v>
+        <v>1799</v>
       </c>
       <c r="I95" s="19" t="s">
-        <v>1083</v>
+        <v>1865</v>
       </c>
       <c r="J95" s="9" t="s">
-        <v>578</v>
+        <v>1866</v>
       </c>
       <c r="K95" s="19" t="s">
-        <v>1330</v>
+        <v>1867</v>
       </c>
       <c r="L95" s="19" t="s">
-        <v>1977</v>
+        <v>1918</v>
       </c>
       <c r="M95" s="9" t="s">
-        <v>1587</v>
+        <v>1868</v>
       </c>
       <c r="N95" s="9" t="s">
-        <v>695</v>
+        <v>1869</v>
       </c>
       <c r="O95" s="9" t="s">
-        <v>1012</v>
+        <v>1801</v>
       </c>
       <c r="P95" s="9" t="s">
-        <v>1396</v>
+        <v>1870</v>
       </c>
       <c r="Q95" s="9" t="s">
-        <v>1539</v>
+        <v>1871</v>
       </c>
       <c r="R95" s="9" t="s">
-        <v>1561</v>
+        <v>1803</v>
       </c>
       <c r="S95" s="9" t="s">
-        <v>1134</v>
+        <v>1802</v>
       </c>
       <c r="T95" s="9"/>
       <c r="U95" s="9"/>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:21" ht="238.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B96" s="17" t="s">
-        <v>34</v>
+        <v>247</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>536</v>
+        <v>1872</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>550</v>
+        <v>1873</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>891</v>
+        <v>1477</v>
       </c>
       <c r="F96" s="9" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="G96" s="10" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="H96" s="9" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="I96" s="19" t="s">
-        <v>1084</v>
+        <v>1874</v>
       </c>
       <c r="J96" s="9" t="s">
-        <v>1441</v>
+        <v>1875</v>
       </c>
       <c r="K96" s="19" t="s">
-        <v>1323</v>
-      </c>
-      <c r="L96" s="19" t="s">
-        <v>1969</v>
+        <v>1876</v>
+      </c>
+      <c r="L96" s="49" t="s">
+        <v>1919</v>
       </c>
       <c r="M96" s="9" t="s">
-        <v>557</v>
+        <v>1877</v>
       </c>
       <c r="N96" s="9" t="s">
-        <v>557</v>
+        <v>1878</v>
       </c>
       <c r="O96" s="9" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="P96" s="9" t="s">
-        <v>978</v>
+        <v>1879</v>
       </c>
       <c r="Q96" s="9" t="s">
-        <v>1540</v>
+        <v>1880</v>
       </c>
       <c r="R96" s="9" t="s">
-        <v>1562</v>
+        <v>1657</v>
       </c>
       <c r="S96" s="9" t="s">
-        <v>1135</v>
+        <v>1171</v>
       </c>
       <c r="T96" s="9"/>
       <c r="U96" s="9"/>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A97" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B97" s="17" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>426</v>
+        <v>535</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>476</v>
+        <v>549</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>966</v>
+        <v>1431</v>
       </c>
       <c r="F97" s="9" t="s">
-        <v>967</v>
+        <v>1432</v>
       </c>
       <c r="G97" s="10" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="H97" s="9" t="s">
-        <v>1348</v>
+        <v>1345</v>
       </c>
       <c r="I97" s="19" t="s">
-        <v>495</v>
+        <v>1083</v>
       </c>
       <c r="J97" s="9" t="s">
-        <v>1506</v>
+        <v>578</v>
       </c>
       <c r="K97" s="19" t="s">
-        <v>1324</v>
+        <v>1330</v>
       </c>
       <c r="L97" s="19" t="s">
-        <v>1921</v>
+        <v>1977</v>
       </c>
       <c r="M97" s="9" t="s">
-        <v>501</v>
+        <v>1587</v>
       </c>
       <c r="N97" s="9" t="s">
-        <v>501</v>
+        <v>695</v>
       </c>
       <c r="O97" s="9" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="P97" s="9" t="s">
-        <v>465</v>
+        <v>1396</v>
       </c>
       <c r="Q97" s="9" t="s">
-        <v>503</v>
+        <v>1539</v>
       </c>
       <c r="R97" s="9" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="S97" s="9" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="T97" s="9"/>
       <c r="U97" s="9"/>
     </row>
-    <row r="98" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A98" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B98" s="17" t="s">
-        <v>207</v>
+        <v>34</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>675</v>
+        <v>550</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="G98" s="10" t="s">
-        <v>1211</v>
+        <v>1248</v>
       </c>
       <c r="H98" s="9" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
       <c r="I98" s="19" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="J98" s="9" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="K98" s="19" t="s">
-        <v>1282</v>
+        <v>1323</v>
       </c>
       <c r="L98" s="19" t="s">
-        <v>1922</v>
+        <v>1969</v>
       </c>
       <c r="M98" s="9" t="s">
-        <v>408</v>
+        <v>557</v>
       </c>
       <c r="N98" s="9" t="s">
-        <v>696</v>
+        <v>557</v>
       </c>
       <c r="O98" s="9" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="P98" s="9" t="s">
-        <v>1397</v>
+        <v>978</v>
       </c>
       <c r="Q98" s="9" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="R98" s="9" t="s">
-        <v>1659</v>
+        <v>1562</v>
       </c>
       <c r="S98" s="9" t="s">
-        <v>1181</v>
+        <v>1135</v>
       </c>
       <c r="T98" s="9"/>
       <c r="U98" s="9"/>
@@ -35505,119 +35467,119 @@
         <v>143</v>
       </c>
       <c r="B99" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="F99" s="9" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="G99" s="10" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="H99" s="9" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="I99" s="19" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="J99" s="9" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="K99" s="19" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="L99" s="19" t="s">
-        <v>1923</v>
+        <v>1921</v>
       </c>
       <c r="M99" s="9" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="N99" s="9" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="O99" s="9" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="P99" s="9" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="Q99" s="9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="R99" s="9" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="S99" s="9" t="s">
-        <v>568</v>
+        <v>1137</v>
       </c>
       <c r="T99" s="9"/>
       <c r="U99" s="9"/>
     </row>
-    <row r="100" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B100" s="17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>213</v>
+        <v>541</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>765</v>
+        <v>675</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="F100" s="9" t="s">
-        <v>1635</v>
+        <v>893</v>
       </c>
       <c r="G100" s="10" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="H100" s="9" t="s">
-        <v>1456</v>
+        <v>1349</v>
       </c>
       <c r="I100" s="19" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="J100" s="9" t="s">
-        <v>1638</v>
+        <v>1442</v>
       </c>
       <c r="K100" s="19" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="L100" s="19" t="s">
-        <v>1924</v>
+        <v>1922</v>
       </c>
       <c r="M100" s="9" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N100" s="9" t="s">
-        <v>784</v>
+        <v>696</v>
       </c>
       <c r="O100" s="9" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="P100" s="9" t="s">
-        <v>979</v>
+        <v>1397</v>
       </c>
       <c r="Q100" s="9" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="R100" s="9" t="s">
-        <v>745</v>
+        <v>1659</v>
       </c>
       <c r="S100" s="9" t="s">
-        <v>1138</v>
+        <v>1181</v>
       </c>
       <c r="T100" s="9"/>
       <c r="U100" s="9"/>
@@ -35627,58 +35589,58 @@
         <v>143</v>
       </c>
       <c r="B101" s="17" t="s">
-        <v>838</v>
+        <v>39</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>170</v>
+        <v>427</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>766</v>
+        <v>477</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>895</v>
+        <v>968</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>896</v>
+        <v>968</v>
       </c>
       <c r="G101" s="10" t="s">
-        <v>1213</v>
+        <v>1250</v>
       </c>
       <c r="H101" s="9" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="I101" s="19" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="J101" s="9" t="s">
-        <v>1443</v>
+        <v>1507</v>
       </c>
       <c r="K101" s="19" t="s">
-        <v>1284</v>
+        <v>1325</v>
       </c>
       <c r="L101" s="19" t="s">
-        <v>1925</v>
+        <v>1923</v>
       </c>
       <c r="M101" s="9" t="s">
-        <v>410</v>
+        <v>502</v>
       </c>
       <c r="N101" s="9" t="s">
-        <v>785</v>
+        <v>502</v>
       </c>
       <c r="O101" s="9" t="s">
-        <v>281</v>
+        <v>1018</v>
       </c>
       <c r="P101" s="9" t="s">
-        <v>299</v>
+        <v>466</v>
       </c>
       <c r="Q101" s="9" t="s">
-        <v>367</v>
+        <v>504</v>
       </c>
       <c r="R101" s="9" t="s">
-        <v>746</v>
+        <v>1564</v>
       </c>
       <c r="S101" s="9" t="s">
-        <v>1139</v>
+        <v>568</v>
       </c>
       <c r="T101" s="9"/>
       <c r="U101" s="9"/>
@@ -35688,180 +35650,180 @@
         <v>143</v>
       </c>
       <c r="B102" s="17" t="s">
-        <v>40</v>
+        <v>208</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>1753</v>
+        <v>213</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>1766</v>
+        <v>765</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>1765</v>
+        <v>894</v>
       </c>
       <c r="F102" s="9" t="s">
-        <v>1764</v>
+        <v>1635</v>
       </c>
       <c r="G102" s="10" t="s">
-        <v>1763</v>
+        <v>1212</v>
       </c>
       <c r="H102" s="9" t="s">
-        <v>1762</v>
+        <v>1456</v>
       </c>
       <c r="I102" s="19" t="s">
-        <v>1761</v>
+        <v>1086</v>
       </c>
       <c r="J102" s="9" t="s">
-        <v>1782</v>
+        <v>1638</v>
       </c>
       <c r="K102" s="19" t="s">
-        <v>1760</v>
+        <v>1283</v>
       </c>
       <c r="L102" s="19" t="s">
-        <v>1967</v>
+        <v>1924</v>
       </c>
       <c r="M102" s="9" t="s">
-        <v>1754</v>
+        <v>409</v>
       </c>
       <c r="N102" s="9" t="s">
-        <v>1755</v>
+        <v>784</v>
       </c>
       <c r="O102" s="9" t="s">
-        <v>1756</v>
+        <v>1019</v>
       </c>
       <c r="P102" s="9" t="s">
-        <v>1757</v>
+        <v>979</v>
       </c>
       <c r="Q102" s="9" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="R102" s="9" t="s">
-        <v>1758</v>
+        <v>745</v>
       </c>
       <c r="S102" s="9" t="s">
-        <v>1759</v>
+        <v>1138</v>
       </c>
       <c r="T102" s="9"/>
       <c r="U102" s="9"/>
     </row>
-    <row r="103" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A103" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B103" s="17" t="s">
-        <v>210</v>
+        <v>838</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>212</v>
+        <v>170</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>849</v>
+        <v>766</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>1061</v>
+        <v>895</v>
       </c>
       <c r="F103" s="9" t="s">
-        <v>1061</v>
+        <v>896</v>
       </c>
       <c r="G103" s="10" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="H103" s="9" t="s">
-        <v>1832</v>
+        <v>1351</v>
       </c>
       <c r="I103" s="19" t="s">
-        <v>1112</v>
+        <v>490</v>
       </c>
       <c r="J103" s="9" t="s">
-        <v>1619</v>
+        <v>1443</v>
       </c>
       <c r="K103" s="19" t="s">
-        <v>1834</v>
+        <v>1284</v>
       </c>
       <c r="L103" s="19" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="M103" s="9" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N103" s="9" t="s">
-        <v>847</v>
+        <v>785</v>
       </c>
       <c r="O103" s="9" t="s">
-        <v>1063</v>
+        <v>281</v>
       </c>
       <c r="P103" s="9" t="s">
-        <v>1065</v>
+        <v>299</v>
       </c>
       <c r="Q103" s="9" t="s">
-        <v>1068</v>
+        <v>367</v>
       </c>
       <c r="R103" s="9" t="s">
-        <v>1066</v>
+        <v>746</v>
       </c>
       <c r="S103" s="9" t="s">
-        <v>1161</v>
+        <v>1139</v>
       </c>
       <c r="T103" s="9"/>
       <c r="U103" s="9"/>
     </row>
-    <row r="104" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A104" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B104" s="17" t="s">
-        <v>209</v>
+        <v>40</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>221</v>
+        <v>1753</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>850</v>
+        <v>1766</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>1062</v>
+        <v>1765</v>
       </c>
       <c r="F104" s="9" t="s">
-        <v>1062</v>
+        <v>1764</v>
       </c>
       <c r="G104" s="10" t="s">
-        <v>1215</v>
+        <v>1763</v>
       </c>
       <c r="H104" s="9" t="s">
-        <v>1833</v>
+        <v>1762</v>
       </c>
       <c r="I104" s="19" t="s">
-        <v>1113</v>
+        <v>1761</v>
       </c>
       <c r="J104" s="9" t="s">
-        <v>1511</v>
+        <v>1782</v>
       </c>
       <c r="K104" s="19" t="s">
-        <v>1835</v>
+        <v>1760</v>
       </c>
       <c r="L104" s="19" t="s">
-        <v>1060</v>
+        <v>1967</v>
       </c>
       <c r="M104" s="9" t="s">
-        <v>412</v>
+        <v>1754</v>
       </c>
       <c r="N104" s="9" t="s">
-        <v>848</v>
+        <v>1755</v>
       </c>
       <c r="O104" s="9" t="s">
-        <v>1064</v>
+        <v>1756</v>
       </c>
       <c r="P104" s="9" t="s">
-        <v>412</v>
+        <v>1757</v>
       </c>
       <c r="Q104" s="9" t="s">
-        <v>1069</v>
+        <v>1543</v>
       </c>
       <c r="R104" s="9" t="s">
-        <v>1067</v>
+        <v>1758</v>
       </c>
       <c r="S104" s="9" t="s">
-        <v>1070</v>
+        <v>1759</v>
       </c>
       <c r="T104" s="9"/>
       <c r="U104" s="9"/>
@@ -35871,58 +35833,58 @@
         <v>143</v>
       </c>
       <c r="B105" s="17" t="s">
-        <v>819</v>
+        <v>210</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>767</v>
+        <v>849</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>897</v>
+        <v>1061</v>
       </c>
       <c r="F105" s="9" t="s">
-        <v>898</v>
+        <v>1061</v>
       </c>
       <c r="G105" s="10" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="H105" s="9" t="s">
-        <v>1352</v>
+        <v>1832</v>
       </c>
       <c r="I105" s="19" t="s">
-        <v>1087</v>
+        <v>1112</v>
       </c>
       <c r="J105" s="9" t="s">
-        <v>1639</v>
+        <v>1619</v>
       </c>
       <c r="K105" s="19" t="s">
-        <v>1285</v>
+        <v>1834</v>
       </c>
       <c r="L105" s="19" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="M105" s="9" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="N105" s="9" t="s">
-        <v>786</v>
+        <v>847</v>
       </c>
       <c r="O105" s="9" t="s">
-        <v>282</v>
+        <v>1063</v>
       </c>
       <c r="P105" s="9" t="s">
-        <v>300</v>
+        <v>1065</v>
       </c>
       <c r="Q105" s="9" t="s">
-        <v>368</v>
+        <v>1068</v>
       </c>
       <c r="R105" s="9" t="s">
-        <v>1568</v>
+        <v>1066</v>
       </c>
       <c r="S105" s="9" t="s">
-        <v>1140</v>
+        <v>1161</v>
       </c>
       <c r="T105" s="9"/>
       <c r="U105" s="9"/>
@@ -35932,119 +35894,119 @@
         <v>143</v>
       </c>
       <c r="B106" s="17" t="s">
-        <v>822</v>
+        <v>209</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>768</v>
+        <v>850</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>899</v>
+        <v>1062</v>
       </c>
       <c r="F106" s="9" t="s">
-        <v>1480</v>
+        <v>1062</v>
       </c>
       <c r="G106" s="10" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="H106" s="9" t="s">
-        <v>1353</v>
+        <v>1833</v>
       </c>
       <c r="I106" s="19" t="s">
-        <v>1088</v>
+        <v>1113</v>
       </c>
       <c r="J106" s="9" t="s">
-        <v>448</v>
+        <v>1511</v>
       </c>
       <c r="K106" s="19" t="s">
-        <v>1286</v>
+        <v>1835</v>
       </c>
       <c r="L106" s="19" t="s">
-        <v>1928</v>
+        <v>1060</v>
       </c>
       <c r="M106" s="9" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N106" s="9" t="s">
-        <v>787</v>
+        <v>848</v>
       </c>
       <c r="O106" s="9" t="s">
-        <v>283</v>
+        <v>1064</v>
       </c>
       <c r="P106" s="9" t="s">
-        <v>301</v>
+        <v>412</v>
       </c>
       <c r="Q106" s="9" t="s">
-        <v>369</v>
+        <v>1069</v>
       </c>
       <c r="R106" s="9" t="s">
-        <v>1660</v>
+        <v>1067</v>
       </c>
       <c r="S106" s="9" t="s">
-        <v>1141</v>
+        <v>1070</v>
       </c>
       <c r="T106" s="9"/>
       <c r="U106" s="9"/>
     </row>
-    <row r="107" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B107" s="17" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="F107" s="9" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="G107" s="10" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="H107" s="9" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="I107" s="19" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="J107" s="9" t="s">
-        <v>1784</v>
+        <v>1639</v>
       </c>
       <c r="K107" s="19" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="L107" s="19" t="s">
-        <v>1929</v>
+        <v>1927</v>
       </c>
       <c r="M107" s="9" t="s">
-        <v>1721</v>
+        <v>413</v>
       </c>
       <c r="N107" s="9" t="s">
-        <v>697</v>
+        <v>786</v>
       </c>
       <c r="O107" s="9" t="s">
-        <v>1020</v>
+        <v>282</v>
       </c>
       <c r="P107" s="9" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="Q107" s="9" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="R107" s="9" t="s">
-        <v>1661</v>
+        <v>1568</v>
       </c>
       <c r="S107" s="9" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="T107" s="9"/>
       <c r="U107" s="9"/>
@@ -36054,119 +36016,119 @@
         <v>143</v>
       </c>
       <c r="B108" s="17" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>394</v>
+        <v>768</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="F108" s="9" t="s">
-        <v>903</v>
+        <v>1480</v>
       </c>
       <c r="G108" s="10" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="H108" s="9" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="I108" s="19" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="J108" s="9" t="s">
-        <v>1783</v>
+        <v>448</v>
       </c>
       <c r="K108" s="19" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="L108" s="19" t="s">
-        <v>1930</v>
+        <v>1928</v>
       </c>
       <c r="M108" s="9" t="s">
-        <v>258</v>
+        <v>414</v>
       </c>
       <c r="N108" s="9" t="s">
-        <v>258</v>
+        <v>787</v>
       </c>
       <c r="O108" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P108" s="9" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="Q108" s="9" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="R108" s="9" t="s">
-        <v>1569</v>
+        <v>1660</v>
       </c>
       <c r="S108" s="9" t="s">
-        <v>1172</v>
+        <v>1141</v>
       </c>
       <c r="T108" s="9"/>
       <c r="U108" s="9"/>
     </row>
-    <row r="109" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A109" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B109" s="17" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>395</v>
+        <v>769</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="F109" s="9" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="G109" s="10" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="H109" s="9" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="I109" s="19" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="J109" s="9" t="s">
-        <v>1444</v>
+        <v>1784</v>
       </c>
       <c r="K109" s="19" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="L109" s="19" t="s">
-        <v>1931</v>
+        <v>1929</v>
       </c>
       <c r="M109" s="9" t="s">
-        <v>259</v>
+        <v>1721</v>
       </c>
       <c r="N109" s="9" t="s">
-        <v>259</v>
+        <v>697</v>
       </c>
       <c r="O109" s="9" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="P109" s="9" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="Q109" s="9" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="R109" s="9" t="s">
-        <v>1570</v>
+        <v>1661</v>
       </c>
       <c r="S109" s="9" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="T109" s="9"/>
       <c r="U109" s="9"/>
@@ -36176,119 +36138,119 @@
         <v>143</v>
       </c>
       <c r="B110" s="17" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>676</v>
+        <v>394</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="F110" s="9" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="G110" s="10" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="H110" s="9" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="I110" s="19" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="J110" s="9" t="s">
-        <v>1445</v>
+        <v>1783</v>
       </c>
       <c r="K110" s="19" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="L110" s="19" t="s">
-        <v>1932</v>
+        <v>1930</v>
       </c>
       <c r="M110" s="9" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="N110" s="9" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="O110" s="9" t="s">
-        <v>1022</v>
+        <v>284</v>
       </c>
       <c r="P110" s="9" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="Q110" s="9" t="s">
-        <v>1544</v>
+        <v>371</v>
       </c>
       <c r="R110" s="9" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
       <c r="S110" s="9" t="s">
-        <v>1144</v>
+        <v>1172</v>
       </c>
       <c r="T110" s="9"/>
       <c r="U110" s="9"/>
     </row>
-    <row r="111" spans="1:21" ht="210" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B111" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C111" s="11" t="s">
-        <v>1596</v>
+        <v>831</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>222</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>770</v>
+        <v>395</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="F111" s="9" t="s">
-        <v>909</v>
-      </c>
-      <c r="G111" s="11" t="s">
-        <v>1222</v>
-      </c>
-      <c r="H111" s="12" t="s">
-        <v>1358</v>
+        <v>905</v>
+      </c>
+      <c r="G111" s="10" t="s">
+        <v>1220</v>
+      </c>
+      <c r="H111" s="9" t="s">
+        <v>1356</v>
       </c>
       <c r="I111" s="19" t="s">
-        <v>1093</v>
-      </c>
-      <c r="J111" s="12" t="s">
-        <v>1640</v>
+        <v>1091</v>
+      </c>
+      <c r="J111" s="9" t="s">
+        <v>1444</v>
       </c>
       <c r="K111" s="19" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="L111" s="19" t="s">
-        <v>1933</v>
+        <v>1931</v>
       </c>
       <c r="M111" s="9" t="s">
-        <v>1722</v>
-      </c>
-      <c r="N111" s="12" t="s">
-        <v>788</v>
+        <v>259</v>
+      </c>
+      <c r="N111" s="9" t="s">
+        <v>259</v>
       </c>
       <c r="O111" s="9" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="P111" s="9" t="s">
-        <v>1398</v>
+        <v>304</v>
       </c>
       <c r="Q111" s="9" t="s">
-        <v>1650</v>
+        <v>372</v>
       </c>
       <c r="R111" s="9" t="s">
-        <v>1658</v>
+        <v>1570</v>
       </c>
       <c r="S111" s="9" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="T111" s="9"/>
       <c r="U111" s="9"/>
@@ -36298,119 +36260,119 @@
         <v>143</v>
       </c>
       <c r="B112" s="17" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>1767</v>
+        <v>227</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>771</v>
-      </c>
-      <c r="E112" s="25" t="s">
-        <v>910</v>
-      </c>
-      <c r="F112" s="25" t="s">
-        <v>911</v>
+        <v>676</v>
+      </c>
+      <c r="E112" s="9" t="s">
+        <v>906</v>
+      </c>
+      <c r="F112" s="9" t="s">
+        <v>907</v>
       </c>
       <c r="G112" s="10" t="s">
-        <v>1513</v>
+        <v>1221</v>
       </c>
       <c r="H112" s="9" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="I112" s="19" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="J112" s="9" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="K112" s="19" t="s">
-        <v>1326</v>
+        <v>1290</v>
       </c>
       <c r="L112" s="19" t="s">
-        <v>1934</v>
+        <v>1932</v>
       </c>
       <c r="M112" s="9" t="s">
-        <v>498</v>
+        <v>260</v>
       </c>
       <c r="N112" s="9" t="s">
-        <v>789</v>
+        <v>260</v>
       </c>
       <c r="O112" s="9" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="P112" s="9" t="s">
-        <v>980</v>
+        <v>305</v>
       </c>
       <c r="Q112" s="9" t="s">
-        <v>422</v>
+        <v>1544</v>
       </c>
       <c r="R112" s="9" t="s">
-        <v>468</v>
+        <v>1571</v>
       </c>
       <c r="S112" s="9" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="T112" s="9"/>
       <c r="U112" s="9"/>
     </row>
-    <row r="113" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:21" ht="210" x14ac:dyDescent="0.25">
       <c r="A113" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B113" s="17" t="s">
-        <v>845</v>
-      </c>
-      <c r="C113" s="10" t="s">
-        <v>1769</v>
+        <v>51</v>
+      </c>
+      <c r="C113" s="11" t="s">
+        <v>1596</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>772</v>
-      </c>
-      <c r="E113" s="25" t="s">
-        <v>912</v>
-      </c>
-      <c r="F113" s="25" t="s">
-        <v>913</v>
-      </c>
-      <c r="G113" s="10" t="s">
-        <v>1251</v>
-      </c>
-      <c r="H113" s="9" t="s">
-        <v>1360</v>
+        <v>770</v>
+      </c>
+      <c r="E113" s="9" t="s">
+        <v>908</v>
+      </c>
+      <c r="F113" s="9" t="s">
+        <v>909</v>
+      </c>
+      <c r="G113" s="11" t="s">
+        <v>1222</v>
+      </c>
+      <c r="H113" s="12" t="s">
+        <v>1358</v>
       </c>
       <c r="I113" s="19" t="s">
-        <v>497</v>
-      </c>
-      <c r="J113" s="9" t="s">
-        <v>1447</v>
+        <v>1093</v>
+      </c>
+      <c r="J113" s="12" t="s">
+        <v>1640</v>
       </c>
       <c r="K113" s="19" t="s">
-        <v>1327</v>
+        <v>1291</v>
       </c>
       <c r="L113" s="19" t="s">
-        <v>1935</v>
+        <v>1933</v>
       </c>
       <c r="M113" s="9" t="s">
-        <v>499</v>
-      </c>
-      <c r="N113" s="9" t="s">
-        <v>790</v>
+        <v>1722</v>
+      </c>
+      <c r="N113" s="12" t="s">
+        <v>788</v>
       </c>
       <c r="O113" s="9" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="P113" s="9" t="s">
-        <v>467</v>
+        <v>1398</v>
       </c>
       <c r="Q113" s="9" t="s">
-        <v>423</v>
+        <v>1650</v>
       </c>
       <c r="R113" s="9" t="s">
-        <v>973</v>
+        <v>1658</v>
       </c>
       <c r="S113" s="9" t="s">
-        <v>569</v>
+        <v>1145</v>
       </c>
       <c r="T113" s="9"/>
       <c r="U113" s="9"/>
@@ -36420,180 +36382,180 @@
         <v>143</v>
       </c>
       <c r="B114" s="17" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>1770</v>
+        <v>1767</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E114" s="25" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="F114" s="25" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="G114" s="10" t="s">
-        <v>1252</v>
+        <v>1513</v>
       </c>
       <c r="H114" s="9" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="I114" s="19" t="s">
-        <v>1848</v>
+        <v>1094</v>
       </c>
       <c r="J114" s="9" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="K114" s="19" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="L114" s="19" t="s">
-        <v>1936</v>
+        <v>1934</v>
       </c>
       <c r="M114" s="9" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="N114" s="9" t="s">
-        <v>500</v>
+        <v>789</v>
       </c>
       <c r="O114" s="9" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="P114" s="9" t="s">
-        <v>1597</v>
+        <v>980</v>
       </c>
       <c r="Q114" s="9" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="R114" s="9" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="S114" s="9" t="s">
-        <v>1176</v>
+        <v>1146</v>
       </c>
       <c r="T114" s="9"/>
       <c r="U114" s="9"/>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B115" s="17" t="s">
-        <v>841</v>
+        <v>845</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>63</v>
+        <v>1769</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="E115" s="9" t="s">
-        <v>879</v>
-      </c>
-      <c r="F115" s="9" t="s">
-        <v>880</v>
+        <v>772</v>
+      </c>
+      <c r="E115" s="25" t="s">
+        <v>912</v>
+      </c>
+      <c r="F115" s="25" t="s">
+        <v>913</v>
       </c>
       <c r="G115" s="10" t="s">
-        <v>1223</v>
+        <v>1251</v>
       </c>
       <c r="H115" s="9" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="I115" s="19" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="J115" s="9" t="s">
-        <v>449</v>
+        <v>1447</v>
       </c>
       <c r="K115" s="19" t="s">
-        <v>1292</v>
+        <v>1327</v>
       </c>
       <c r="L115" s="19" t="s">
-        <v>1937</v>
+        <v>1935</v>
       </c>
       <c r="M115" s="9" t="s">
-        <v>261</v>
+        <v>499</v>
       </c>
       <c r="N115" s="9" t="s">
-        <v>261</v>
+        <v>790</v>
       </c>
       <c r="O115" s="9" t="s">
-        <v>261</v>
+        <v>1025</v>
       </c>
       <c r="P115" s="9" t="s">
-        <v>261</v>
+        <v>467</v>
       </c>
       <c r="Q115" s="9" t="s">
-        <v>1545</v>
+        <v>423</v>
       </c>
       <c r="R115" s="9" t="s">
-        <v>1565</v>
+        <v>973</v>
       </c>
       <c r="S115" s="9" t="s">
-        <v>1147</v>
+        <v>569</v>
       </c>
       <c r="T115" s="9"/>
       <c r="U115" s="9"/>
     </row>
-    <row r="116" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B116" s="17" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>171</v>
+        <v>1770</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>774</v>
-      </c>
-      <c r="E116" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="F116" s="9" t="s">
-        <v>916</v>
+        <v>773</v>
+      </c>
+      <c r="E116" s="25" t="s">
+        <v>914</v>
+      </c>
+      <c r="F116" s="25" t="s">
+        <v>915</v>
       </c>
       <c r="G116" s="10" t="s">
-        <v>480</v>
+        <v>1252</v>
       </c>
       <c r="H116" s="9" t="s">
-        <v>245</v>
+        <v>1361</v>
       </c>
       <c r="I116" s="19" t="s">
-        <v>492</v>
+        <v>1848</v>
       </c>
       <c r="J116" s="9" t="s">
-        <v>450</v>
+        <v>1448</v>
       </c>
       <c r="K116" s="19" t="s">
-        <v>1293</v>
+        <v>1328</v>
       </c>
       <c r="L116" s="19" t="s">
-        <v>576</v>
+        <v>1936</v>
       </c>
       <c r="M116" s="9" t="s">
-        <v>415</v>
+        <v>500</v>
       </c>
       <c r="N116" s="9" t="s">
-        <v>791</v>
+        <v>500</v>
       </c>
       <c r="O116" s="9" t="s">
-        <v>306</v>
+        <v>1026</v>
       </c>
       <c r="P116" s="9" t="s">
-        <v>306</v>
+        <v>1597</v>
       </c>
       <c r="Q116" s="9" t="s">
-        <v>373</v>
+        <v>424</v>
       </c>
       <c r="R116" s="9" t="s">
-        <v>1663</v>
+        <v>469</v>
       </c>
       <c r="S116" s="9" t="s">
-        <v>355</v>
+        <v>1176</v>
       </c>
       <c r="T116" s="9"/>
       <c r="U116" s="9"/>
@@ -36603,58 +36565,58 @@
         <v>143</v>
       </c>
       <c r="B117" s="17" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D117" s="9" t="s">
-        <v>396</v>
+        <v>261</v>
       </c>
       <c r="E117" s="9" t="s">
-        <v>329</v>
+        <v>879</v>
       </c>
       <c r="F117" s="9" t="s">
-        <v>917</v>
+        <v>880</v>
       </c>
       <c r="G117" s="10" t="s">
-        <v>481</v>
+        <v>1223</v>
       </c>
       <c r="H117" s="9" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="I117" s="19" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J117" s="9" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="K117" s="19" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="L117" s="19" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="M117" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="N117" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O117" s="9" t="s">
-        <v>1027</v>
+        <v>261</v>
       </c>
       <c r="P117" s="9" t="s">
-        <v>1027</v>
+        <v>261</v>
       </c>
       <c r="Q117" s="9" t="s">
-        <v>374</v>
+        <v>1545</v>
       </c>
       <c r="R117" s="9" t="s">
-        <v>319</v>
+        <v>1565</v>
       </c>
       <c r="S117" s="9" t="s">
-        <v>356</v>
+        <v>1147</v>
       </c>
       <c r="T117" s="9"/>
       <c r="U117" s="9"/>
@@ -36664,58 +36626,58 @@
         <v>143</v>
       </c>
       <c r="B118" s="17" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>677</v>
+        <v>774</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>918</v>
+        <v>328</v>
       </c>
       <c r="F118" s="9" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="G118" s="10" t="s">
-        <v>1224</v>
+        <v>480</v>
       </c>
       <c r="H118" s="9" t="s">
-        <v>1503</v>
+        <v>245</v>
       </c>
       <c r="I118" s="19" t="s">
-        <v>1095</v>
+        <v>492</v>
       </c>
       <c r="J118" s="9" t="s">
-        <v>1789</v>
+        <v>450</v>
       </c>
       <c r="K118" s="19" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="L118" s="19" t="s">
-        <v>1939</v>
+        <v>576</v>
       </c>
       <c r="M118" s="9" t="s">
-        <v>263</v>
+        <v>415</v>
       </c>
       <c r="N118" s="9" t="s">
-        <v>698</v>
+        <v>791</v>
       </c>
       <c r="O118" s="9" t="s">
-        <v>285</v>
+        <v>306</v>
       </c>
       <c r="P118" s="9" t="s">
-        <v>981</v>
+        <v>306</v>
       </c>
       <c r="Q118" s="9" t="s">
-        <v>1546</v>
+        <v>373</v>
       </c>
       <c r="R118" s="9" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="S118" s="9" t="s">
-        <v>1148</v>
+        <v>355</v>
       </c>
       <c r="T118" s="9"/>
       <c r="U118" s="9"/>
@@ -36725,180 +36687,180 @@
         <v>143</v>
       </c>
       <c r="B119" s="17" t="s">
-        <v>68</v>
+        <v>843</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E119" s="9" t="s">
-        <v>919</v>
+        <v>329</v>
       </c>
       <c r="F119" s="9" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="G119" s="10" t="s">
-        <v>1225</v>
+        <v>481</v>
       </c>
       <c r="H119" s="9" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="I119" s="19" t="s">
-        <v>1096</v>
+        <v>493</v>
       </c>
       <c r="J119" s="9" t="s">
-        <v>1449</v>
+        <v>451</v>
       </c>
       <c r="K119" s="19" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="L119" s="19" t="s">
-        <v>1940</v>
+        <v>1938</v>
       </c>
       <c r="M119" s="9" t="s">
-        <v>416</v>
+        <v>262</v>
       </c>
       <c r="N119" s="9" t="s">
-        <v>416</v>
+        <v>262</v>
       </c>
       <c r="O119" s="9" t="s">
-        <v>286</v>
+        <v>1027</v>
       </c>
       <c r="P119" s="9" t="s">
-        <v>286</v>
+        <v>1027</v>
       </c>
       <c r="Q119" s="9" t="s">
-        <v>1547</v>
+        <v>374</v>
       </c>
       <c r="R119" s="9" t="s">
-        <v>1566</v>
+        <v>319</v>
       </c>
       <c r="S119" s="9" t="s">
-        <v>1149</v>
+        <v>356</v>
       </c>
       <c r="T119" s="9"/>
       <c r="U119" s="9"/>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A120" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B120" s="17" t="s">
-        <v>73</v>
+        <v>844</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>236</v>
+        <v>172</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E120" s="9" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="F120" s="9" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="G120" s="10" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="H120" s="9" t="s">
-        <v>1365</v>
+        <v>1503</v>
       </c>
       <c r="I120" s="19" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="J120" s="9" t="s">
-        <v>1791</v>
+        <v>1789</v>
       </c>
       <c r="K120" s="19" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="L120" s="19" t="s">
-        <v>1941</v>
+        <v>1939</v>
       </c>
       <c r="M120" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="N120" s="9" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="O120" s="9" t="s">
-        <v>1028</v>
+        <v>285</v>
       </c>
       <c r="P120" s="9" t="s">
-        <v>287</v>
+        <v>981</v>
       </c>
       <c r="Q120" s="9" t="s">
-        <v>375</v>
+        <v>1546</v>
       </c>
       <c r="R120" s="9" t="s">
-        <v>747</v>
+        <v>1662</v>
       </c>
       <c r="S120" s="9" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="T120" s="9"/>
       <c r="U120" s="9"/>
     </row>
-    <row r="121" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A121" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B121" s="17" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="F121" s="9" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="G121" s="10" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="H121" s="9" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="I121" s="19" t="s">
-        <v>494</v>
+        <v>1096</v>
       </c>
       <c r="J121" s="9" t="s">
-        <v>1508</v>
+        <v>1449</v>
       </c>
       <c r="K121" s="19" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="L121" s="19" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="M121" s="9" t="s">
-        <v>265</v>
+        <v>416</v>
       </c>
       <c r="N121" s="9" t="s">
-        <v>700</v>
+        <v>416</v>
       </c>
       <c r="O121" s="9" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="P121" s="9" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="Q121" s="9" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="R121" s="9" t="s">
-        <v>1666</v>
+        <v>1566</v>
       </c>
       <c r="S121" s="9" t="s">
-        <v>1173</v>
+        <v>1149</v>
       </c>
       <c r="T121" s="9"/>
       <c r="U121" s="9"/>
@@ -36908,119 +36870,119 @@
         <v>143</v>
       </c>
       <c r="B122" s="17" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>58</v>
+        <v>236</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>399</v>
+        <v>678</v>
       </c>
       <c r="E122" s="9" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="F122" s="9" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="G122" s="10" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="H122" s="9" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="I122" s="19" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="J122" s="9" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="K122" s="19" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="L122" s="19" t="s">
-        <v>1943</v>
+        <v>1941</v>
       </c>
       <c r="M122" s="9" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="N122" s="9" t="s">
-        <v>266</v>
+        <v>699</v>
       </c>
       <c r="O122" s="9" t="s">
-        <v>289</v>
+        <v>1028</v>
       </c>
       <c r="P122" s="9" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
       <c r="Q122" s="9" t="s">
-        <v>1549</v>
+        <v>375</v>
       </c>
       <c r="R122" s="9" t="s">
-        <v>1664</v>
+        <v>747</v>
       </c>
       <c r="S122" s="9" t="s">
-        <v>357</v>
+        <v>1150</v>
       </c>
       <c r="T122" s="9"/>
       <c r="U122" s="9"/>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B123" s="17" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D123" s="9" t="s">
-        <v>775</v>
+        <v>398</v>
       </c>
       <c r="E123" s="9" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="F123" s="9" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="G123" s="10" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="H123" s="9" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="I123" s="19" t="s">
-        <v>1099</v>
+        <v>494</v>
       </c>
       <c r="J123" s="9" t="s">
-        <v>1793</v>
+        <v>1508</v>
       </c>
       <c r="K123" s="19" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L123" s="19" t="s">
-        <v>1944</v>
+        <v>1942</v>
       </c>
       <c r="M123" s="9" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="N123" s="9" t="s">
-        <v>792</v>
+        <v>700</v>
       </c>
       <c r="O123" s="9" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="P123" s="9" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="Q123" s="9" t="s">
-        <v>376</v>
+        <v>1548</v>
       </c>
       <c r="R123" s="9" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="S123" s="9" t="s">
-        <v>1151</v>
+        <v>1173</v>
       </c>
       <c r="T123" s="9"/>
       <c r="U123" s="9"/>
@@ -37030,119 +36992,119 @@
         <v>143</v>
       </c>
       <c r="B124" s="17" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C124" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>776</v>
+        <v>399</v>
       </c>
       <c r="E124" s="9" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="F124" s="9" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="G124" s="10" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="H124" s="9" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="I124" s="19" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="J124" s="9" t="s">
-        <v>1450</v>
+        <v>1792</v>
       </c>
       <c r="K124" s="19" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="L124" s="19" t="s">
-        <v>1945</v>
+        <v>1943</v>
       </c>
       <c r="M124" s="9" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="N124" s="9" t="s">
-        <v>793</v>
+        <v>266</v>
       </c>
       <c r="O124" s="9" t="s">
-        <v>1029</v>
+        <v>289</v>
       </c>
       <c r="P124" s="9" t="s">
-        <v>982</v>
+        <v>307</v>
       </c>
       <c r="Q124" s="9" t="s">
-        <v>377</v>
+        <v>1549</v>
       </c>
       <c r="R124" s="9" t="s">
-        <v>320</v>
+        <v>1664</v>
       </c>
       <c r="S124" s="9" t="s">
-        <v>1152</v>
+        <v>357</v>
       </c>
       <c r="T124" s="9"/>
       <c r="U124" s="9"/>
     </row>
-    <row r="125" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A125" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B125" s="17" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D125" s="9" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="E125" s="9" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="F125" s="9" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="G125" s="10" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="H125" s="9" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="I125" s="19" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="J125" s="9" t="s">
-        <v>1509</v>
+        <v>1793</v>
       </c>
       <c r="K125" s="19" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="L125" s="19" t="s">
-        <v>1946</v>
+        <v>1944</v>
       </c>
       <c r="M125" s="9" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="N125" s="9" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="O125" s="9" t="s">
-        <v>1030</v>
+        <v>290</v>
       </c>
       <c r="P125" s="9" t="s">
-        <v>1399</v>
+        <v>308</v>
       </c>
       <c r="Q125" s="9" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="R125" s="9" t="s">
-        <v>1567</v>
+        <v>1665</v>
       </c>
       <c r="S125" s="9" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="T125" s="9"/>
       <c r="U125" s="9"/>
@@ -37152,180 +37114,180 @@
         <v>143</v>
       </c>
       <c r="B126" s="17" t="s">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>586</v>
+        <v>60</v>
       </c>
       <c r="D126" s="9" t="s">
-        <v>587</v>
+        <v>776</v>
       </c>
       <c r="E126" s="9" t="s">
-        <v>588</v>
+        <v>928</v>
       </c>
       <c r="F126" s="9" t="s">
-        <v>588</v>
+        <v>929</v>
       </c>
       <c r="G126" s="10" t="s">
-        <v>589</v>
+        <v>1230</v>
       </c>
       <c r="H126" s="9" t="s">
-        <v>1347</v>
+        <v>1369</v>
       </c>
       <c r="I126" s="19" t="s">
-        <v>590</v>
+        <v>1100</v>
       </c>
       <c r="J126" s="9" t="s">
-        <v>591</v>
+        <v>1450</v>
       </c>
       <c r="K126" s="19" t="s">
-        <v>1280</v>
+        <v>1301</v>
       </c>
       <c r="L126" s="19" t="s">
-        <v>1920</v>
+        <v>1945</v>
       </c>
       <c r="M126" s="9" t="s">
-        <v>592</v>
+        <v>268</v>
       </c>
       <c r="N126" s="9" t="s">
-        <v>592</v>
+        <v>793</v>
       </c>
       <c r="O126" s="9" t="s">
-        <v>1014</v>
+        <v>1029</v>
       </c>
       <c r="P126" s="9" t="s">
-        <v>593</v>
+        <v>982</v>
       </c>
       <c r="Q126" s="9" t="s">
-        <v>594</v>
+        <v>377</v>
       </c>
       <c r="R126" s="9" t="s">
-        <v>743</v>
+        <v>320</v>
       </c>
       <c r="S126" s="9" t="s">
-        <v>1136</v>
+        <v>1152</v>
       </c>
       <c r="T126" s="9"/>
       <c r="U126" s="9"/>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B127" s="17" t="s">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>595</v>
+        <v>61</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>679</v>
+        <v>777</v>
       </c>
       <c r="E127" s="9" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="F127" s="9" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="G127" s="10" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="H127" s="9" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="I127" s="19" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="J127" s="9" t="s">
-        <v>1451</v>
+        <v>1509</v>
       </c>
       <c r="K127" s="19" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="L127" s="19" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="M127" s="9" t="s">
-        <v>601</v>
+        <v>269</v>
       </c>
       <c r="N127" s="9" t="s">
-        <v>701</v>
+        <v>794</v>
       </c>
       <c r="O127" s="9" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="P127" s="9" t="s">
-        <v>603</v>
+        <v>1399</v>
       </c>
       <c r="Q127" s="9" t="s">
-        <v>1550</v>
+        <v>378</v>
       </c>
       <c r="R127" s="9" t="s">
-        <v>748</v>
+        <v>1567</v>
       </c>
       <c r="S127" s="9" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="T127" s="9"/>
       <c r="U127" s="9"/>
     </row>
-    <row r="128" spans="1:21" ht="241.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A128" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B128" s="17" t="s">
-        <v>228</v>
+        <v>36</v>
       </c>
       <c r="C128" s="10" t="s">
-        <v>1768</v>
+        <v>586</v>
       </c>
       <c r="D128" s="9" t="s">
-        <v>1185</v>
+        <v>587</v>
       </c>
       <c r="E128" s="9" t="s">
-        <v>1478</v>
+        <v>588</v>
       </c>
       <c r="F128" s="9" t="s">
-        <v>1479</v>
+        <v>588</v>
       </c>
       <c r="G128" s="10" t="s">
-        <v>1210</v>
+        <v>589</v>
       </c>
       <c r="H128" s="9" t="s">
-        <v>1588</v>
+        <v>1347</v>
       </c>
       <c r="I128" s="19" t="s">
-        <v>1589</v>
+        <v>590</v>
       </c>
       <c r="J128" s="9" t="s">
-        <v>1590</v>
+        <v>591</v>
       </c>
       <c r="K128" s="19" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="L128" s="19" t="s">
-        <v>1964</v>
+        <v>1920</v>
       </c>
       <c r="M128" s="9" t="s">
-        <v>1591</v>
+        <v>592</v>
       </c>
       <c r="N128" s="9" t="s">
-        <v>1592</v>
+        <v>592</v>
       </c>
       <c r="O128" s="9" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="P128" s="9" t="s">
-        <v>1593</v>
+        <v>593</v>
       </c>
       <c r="Q128" s="9" t="s">
-        <v>1594</v>
+        <v>594</v>
       </c>
       <c r="R128" s="9" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="S128" s="9" t="s">
-        <v>1595</v>
+        <v>1136</v>
       </c>
       <c r="T128" s="9"/>
       <c r="U128" s="9"/>
@@ -37335,302 +37297,302 @@
         <v>143</v>
       </c>
       <c r="B129" s="17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D129" s="9" t="s">
-        <v>600</v>
-      </c>
-      <c r="E129" s="12" t="s">
-        <v>934</v>
-      </c>
-      <c r="F129" s="12" t="s">
-        <v>934</v>
+        <v>679</v>
+      </c>
+      <c r="E129" s="9" t="s">
+        <v>932</v>
+      </c>
+      <c r="F129" s="9" t="s">
+        <v>933</v>
       </c>
       <c r="G129" s="10" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="H129" s="9" t="s">
-        <v>599</v>
+        <v>1371</v>
       </c>
       <c r="I129" s="19" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="J129" s="9" t="s">
-        <v>597</v>
+        <v>1451</v>
       </c>
       <c r="K129" s="19" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="L129" s="19" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="M129" s="9" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="N129" s="9" t="s">
-        <v>795</v>
+        <v>701</v>
       </c>
       <c r="O129" s="9" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="P129" s="9" t="s">
-        <v>604</v>
-      </c>
-      <c r="Q129" s="12" t="s">
-        <v>605</v>
+        <v>603</v>
+      </c>
+      <c r="Q129" s="9" t="s">
+        <v>1550</v>
       </c>
       <c r="R129" s="9" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="S129" s="9" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="T129" s="9"/>
       <c r="U129" s="9"/>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:21" ht="241.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B130" s="17" t="s">
-        <v>48</v>
+        <v>228</v>
       </c>
       <c r="C130" s="10" t="s">
-        <v>598</v>
+        <v>1768</v>
       </c>
       <c r="D130" s="9" t="s">
-        <v>680</v>
+        <v>1185</v>
       </c>
       <c r="E130" s="9" t="s">
-        <v>935</v>
+        <v>1478</v>
       </c>
       <c r="F130" s="9" t="s">
-        <v>936</v>
+        <v>1479</v>
       </c>
       <c r="G130" s="10" t="s">
-        <v>1234</v>
+        <v>1210</v>
       </c>
       <c r="H130" s="9" t="s">
-        <v>1372</v>
+        <v>1588</v>
       </c>
       <c r="I130" s="19" t="s">
-        <v>1849</v>
+        <v>1589</v>
       </c>
       <c r="J130" s="9" t="s">
-        <v>1452</v>
+        <v>1590</v>
       </c>
       <c r="K130" s="19" t="s">
-        <v>1305</v>
+        <v>1281</v>
       </c>
       <c r="L130" s="19" t="s">
-        <v>1949</v>
+        <v>1964</v>
       </c>
       <c r="M130" s="9" t="s">
-        <v>796</v>
+        <v>1591</v>
       </c>
       <c r="N130" s="9" t="s">
-        <v>796</v>
+        <v>1592</v>
       </c>
       <c r="O130" s="9" t="s">
-        <v>1033</v>
+        <v>1015</v>
       </c>
       <c r="P130" s="9" t="s">
-        <v>1598</v>
+        <v>1593</v>
       </c>
       <c r="Q130" s="9" t="s">
-        <v>1551</v>
+        <v>1594</v>
       </c>
       <c r="R130" s="9" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="S130" s="9" t="s">
-        <v>1174</v>
+        <v>1595</v>
       </c>
       <c r="T130" s="9"/>
       <c r="U130" s="9"/>
     </row>
-    <row r="131" spans="1:21" ht="210" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A131" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B131" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="C131" s="11" t="s">
-        <v>223</v>
+        <v>47</v>
+      </c>
+      <c r="C131" s="10" t="s">
+        <v>596</v>
       </c>
       <c r="D131" s="9" t="s">
-        <v>778</v>
-      </c>
-      <c r="E131" s="9" t="s">
-        <v>937</v>
-      </c>
-      <c r="F131" s="9" t="s">
-        <v>938</v>
-      </c>
-      <c r="G131" s="11" t="s">
-        <v>1235</v>
-      </c>
-      <c r="H131" s="12" t="s">
-        <v>1373</v>
+        <v>600</v>
+      </c>
+      <c r="E131" s="12" t="s">
+        <v>934</v>
+      </c>
+      <c r="F131" s="12" t="s">
+        <v>934</v>
+      </c>
+      <c r="G131" s="10" t="s">
+        <v>1233</v>
+      </c>
+      <c r="H131" s="9" t="s">
+        <v>599</v>
       </c>
       <c r="I131" s="19" t="s">
-        <v>1599</v>
-      </c>
-      <c r="J131" s="12" t="s">
-        <v>1641</v>
+        <v>1103</v>
+      </c>
+      <c r="J131" s="9" t="s">
+        <v>597</v>
       </c>
       <c r="K131" s="19" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="L131" s="19" t="s">
-        <v>1950</v>
+        <v>1948</v>
       </c>
       <c r="M131" s="9" t="s">
-        <v>1723</v>
-      </c>
-      <c r="N131" s="12" t="s">
-        <v>797</v>
+        <v>602</v>
+      </c>
+      <c r="N131" s="9" t="s">
+        <v>795</v>
       </c>
       <c r="O131" s="9" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="P131" s="9" t="s">
-        <v>1400</v>
-      </c>
-      <c r="Q131" s="9" t="s">
-        <v>1651</v>
+        <v>604</v>
+      </c>
+      <c r="Q131" s="12" t="s">
+        <v>605</v>
       </c>
       <c r="R131" s="9" t="s">
-        <v>1667</v>
+        <v>749</v>
       </c>
       <c r="S131" s="9" t="s">
-        <v>1600</v>
+        <v>1155</v>
       </c>
       <c r="T131" s="9"/>
       <c r="U131" s="9"/>
     </row>
-    <row r="132" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A132" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B132" s="17" t="s">
-        <v>103</v>
+        <v>48</v>
       </c>
       <c r="C132" s="10" t="s">
-        <v>542</v>
+        <v>598</v>
       </c>
       <c r="D132" s="9" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E132" s="9" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="F132" s="9" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="G132" s="10" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="H132" s="9" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="I132" s="19" t="s">
-        <v>1104</v>
+        <v>1849</v>
       </c>
       <c r="J132" s="9" t="s">
-        <v>1794</v>
+        <v>1452</v>
       </c>
       <c r="K132" s="19" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="L132" s="19" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="M132" s="9" t="s">
-        <v>555</v>
+        <v>796</v>
       </c>
       <c r="N132" s="9" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="O132" s="9" t="s">
-        <v>558</v>
+        <v>1033</v>
       </c>
       <c r="P132" s="9" t="s">
-        <v>561</v>
+        <v>1598</v>
       </c>
       <c r="Q132" s="9" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="R132" s="9" t="s">
-        <v>1572</v>
+        <v>750</v>
       </c>
       <c r="S132" s="9" t="s">
-        <v>1156</v>
+        <v>1174</v>
       </c>
       <c r="T132" s="9"/>
       <c r="U132" s="9"/>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:21" ht="210" x14ac:dyDescent="0.25">
       <c r="A133" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B133" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="C133" s="10" t="s">
-        <v>173</v>
+        <v>123</v>
+      </c>
+      <c r="C133" s="11" t="s">
+        <v>223</v>
       </c>
       <c r="D133" s="9" t="s">
-        <v>682</v>
+        <v>778</v>
       </c>
       <c r="E133" s="9" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="F133" s="9" t="s">
-        <v>942</v>
-      </c>
-      <c r="G133" s="10" t="s">
-        <v>1237</v>
-      </c>
-      <c r="H133" s="9" t="s">
-        <v>1375</v>
+        <v>938</v>
+      </c>
+      <c r="G133" s="11" t="s">
+        <v>1235</v>
+      </c>
+      <c r="H133" s="12" t="s">
+        <v>1373</v>
       </c>
       <c r="I133" s="19" t="s">
-        <v>1105</v>
-      </c>
-      <c r="J133" s="9" t="s">
-        <v>452</v>
+        <v>1599</v>
+      </c>
+      <c r="J133" s="12" t="s">
+        <v>1641</v>
       </c>
       <c r="K133" s="19" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="L133" s="19" t="s">
-        <v>1952</v>
+        <v>1950</v>
       </c>
       <c r="M133" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="N133" s="9" t="s">
-        <v>702</v>
+        <v>1723</v>
+      </c>
+      <c r="N133" s="12" t="s">
+        <v>797</v>
       </c>
       <c r="O133" s="9" t="s">
-        <v>291</v>
+        <v>1034</v>
       </c>
       <c r="P133" s="9" t="s">
-        <v>291</v>
+        <v>1400</v>
       </c>
       <c r="Q133" s="9" t="s">
-        <v>379</v>
+        <v>1651</v>
       </c>
       <c r="R133" s="9" t="s">
-        <v>1573</v>
+        <v>1667</v>
       </c>
       <c r="S133" s="9" t="s">
-        <v>1157</v>
+        <v>1600</v>
       </c>
       <c r="T133" s="9"/>
       <c r="U133" s="9"/>
@@ -37640,58 +37602,58 @@
         <v>143</v>
       </c>
       <c r="B134" s="17" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>124</v>
+        <v>542</v>
       </c>
       <c r="D134" s="9" t="s">
-        <v>683</v>
-      </c>
-      <c r="E134" s="12" t="s">
-        <v>943</v>
-      </c>
-      <c r="F134" s="12" t="s">
-        <v>943</v>
+        <v>681</v>
+      </c>
+      <c r="E134" s="9" t="s">
+        <v>939</v>
+      </c>
+      <c r="F134" s="9" t="s">
+        <v>940</v>
       </c>
       <c r="G134" s="10" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="H134" s="9" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="I134" s="19" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="J134" s="9" t="s">
-        <v>453</v>
+        <v>1794</v>
       </c>
       <c r="K134" s="19" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="L134" s="19" t="s">
-        <v>1953</v>
+        <v>1951</v>
       </c>
       <c r="M134" s="9" t="s">
-        <v>271</v>
+        <v>555</v>
       </c>
       <c r="N134" s="9" t="s">
-        <v>271</v>
+        <v>798</v>
       </c>
       <c r="O134" s="9" t="s">
-        <v>292</v>
+        <v>558</v>
       </c>
       <c r="P134" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q134" s="12" t="s">
-        <v>380</v>
+        <v>561</v>
+      </c>
+      <c r="Q134" s="9" t="s">
+        <v>1552</v>
       </c>
       <c r="R134" s="9" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="S134" s="9" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="T134" s="9"/>
       <c r="U134" s="9"/>
@@ -37701,363 +37663,363 @@
         <v>143</v>
       </c>
       <c r="B135" s="17" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="D135" s="9" t="s">
-        <v>400</v>
+        <v>682</v>
       </c>
       <c r="E135" s="9" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="F135" s="9" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="G135" s="10" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="H135" s="9" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="I135" s="19" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="J135" s="9" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="K135" s="19" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="L135" s="19" t="s">
-        <v>1954</v>
+        <v>1952</v>
       </c>
       <c r="M135" s="9" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="N135" s="9" t="s">
-        <v>272</v>
+        <v>702</v>
       </c>
       <c r="O135" s="9" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="P135" s="9" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
       <c r="Q135" s="9" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="R135" s="9" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="S135" s="9" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="T135" s="9"/>
       <c r="U135" s="9"/>
     </row>
-    <row r="136" spans="1:21" ht="210" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A136" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B136" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="C136" s="11" t="s">
-        <v>225</v>
+        <v>113</v>
+      </c>
+      <c r="C136" s="10" t="s">
+        <v>124</v>
       </c>
       <c r="D136" s="9" t="s">
-        <v>779</v>
-      </c>
-      <c r="E136" s="9" t="s">
-        <v>946</v>
-      </c>
-      <c r="F136" s="9" t="s">
-        <v>947</v>
-      </c>
-      <c r="G136" s="11" t="s">
-        <v>1240</v>
-      </c>
-      <c r="H136" s="12" t="s">
-        <v>1378</v>
+        <v>683</v>
+      </c>
+      <c r="E136" s="12" t="s">
+        <v>943</v>
+      </c>
+      <c r="F136" s="12" t="s">
+        <v>943</v>
+      </c>
+      <c r="G136" s="10" t="s">
+        <v>1238</v>
+      </c>
+      <c r="H136" s="9" t="s">
+        <v>1376</v>
       </c>
       <c r="I136" s="19" t="s">
-        <v>1850</v>
-      </c>
-      <c r="J136" s="12" t="s">
-        <v>455</v>
+        <v>1106</v>
+      </c>
+      <c r="J136" s="9" t="s">
+        <v>453</v>
       </c>
       <c r="K136" s="19" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="L136" s="19" t="s">
-        <v>1976</v>
+        <v>1953</v>
       </c>
       <c r="M136" s="9" t="s">
-        <v>1724</v>
-      </c>
-      <c r="N136" s="12" t="s">
-        <v>799</v>
+        <v>271</v>
+      </c>
+      <c r="N136" s="9" t="s">
+        <v>271</v>
       </c>
       <c r="O136" s="9" t="s">
-        <v>1035</v>
+        <v>292</v>
       </c>
       <c r="P136" s="9" t="s">
-        <v>1601</v>
-      </c>
-      <c r="Q136" s="9" t="s">
-        <v>1553</v>
+        <v>309</v>
+      </c>
+      <c r="Q136" s="12" t="s">
+        <v>380</v>
       </c>
       <c r="R136" s="9" t="s">
-        <v>1668</v>
+        <v>1574</v>
       </c>
       <c r="S136" s="9" t="s">
-        <v>1175</v>
+        <v>1158</v>
       </c>
       <c r="T136" s="9"/>
       <c r="U136" s="9"/>
     </row>
-    <row r="137" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A137" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B137" s="17" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C137" s="10" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D137" s="9" t="s">
-        <v>684</v>
+        <v>400</v>
       </c>
       <c r="E137" s="9" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="F137" s="9" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="G137" s="10" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="H137" s="9" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="I137" s="19" t="s">
-        <v>1851</v>
+        <v>1107</v>
       </c>
       <c r="J137" s="9" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="K137" s="19" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="L137" s="19" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="M137" s="9" t="s">
-        <v>417</v>
+        <v>272</v>
       </c>
       <c r="N137" s="9" t="s">
-        <v>703</v>
+        <v>272</v>
       </c>
       <c r="O137" s="9" t="s">
-        <v>1036</v>
+        <v>293</v>
       </c>
       <c r="P137" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Q137" s="9" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="R137" s="9" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="S137" s="9" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="T137" s="9"/>
       <c r="U137" s="9"/>
     </row>
-    <row r="138" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:21" ht="210" x14ac:dyDescent="0.25">
       <c r="A138" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B138" s="17" t="s">
-        <v>606</v>
-      </c>
-      <c r="C138" s="10" t="s">
-        <v>1750</v>
+        <v>132</v>
+      </c>
+      <c r="C138" s="11" t="s">
+        <v>225</v>
       </c>
       <c r="D138" s="9" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E138" s="9" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="F138" s="9" t="s">
-        <v>951</v>
-      </c>
-      <c r="G138" s="10" t="s">
-        <v>1242</v>
-      </c>
-      <c r="H138" s="9" t="s">
-        <v>1380</v>
+        <v>947</v>
+      </c>
+      <c r="G138" s="11" t="s">
+        <v>1240</v>
+      </c>
+      <c r="H138" s="12" t="s">
+        <v>1378</v>
       </c>
       <c r="I138" s="19" t="s">
-        <v>1108</v>
-      </c>
-      <c r="J138" s="9" t="s">
-        <v>1510</v>
+        <v>1850</v>
+      </c>
+      <c r="J138" s="12" t="s">
+        <v>455</v>
       </c>
       <c r="K138" s="19" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="L138" s="19" t="s">
-        <v>1968</v>
+        <v>1976</v>
       </c>
       <c r="M138" s="9" t="s">
-        <v>630</v>
-      </c>
-      <c r="N138" s="9" t="s">
-        <v>630</v>
+        <v>1724</v>
+      </c>
+      <c r="N138" s="12" t="s">
+        <v>799</v>
       </c>
       <c r="O138" s="9" t="s">
-        <v>634</v>
+        <v>1035</v>
       </c>
       <c r="P138" s="9" t="s">
-        <v>634</v>
+        <v>1601</v>
       </c>
       <c r="Q138" s="9" t="s">
-        <v>639</v>
+        <v>1553</v>
       </c>
       <c r="R138" s="9" t="s">
-        <v>751</v>
+        <v>1668</v>
       </c>
       <c r="S138" s="9" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="T138" s="9"/>
       <c r="U138" s="9"/>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B139" s="17" t="s">
-        <v>608</v>
+        <v>126</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>607</v>
+        <v>131</v>
       </c>
       <c r="D139" s="9" t="s">
-        <v>615</v>
+        <v>684</v>
       </c>
       <c r="E139" s="9" t="s">
-        <v>1481</v>
+        <v>948</v>
       </c>
       <c r="F139" s="9" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="G139" s="10" t="s">
-        <v>619</v>
+        <v>1241</v>
       </c>
       <c r="H139" s="9" t="s">
-        <v>623</v>
+        <v>1379</v>
       </c>
       <c r="I139" s="19" t="s">
-        <v>625</v>
+        <v>1851</v>
       </c>
       <c r="J139" s="9" t="s">
-        <v>627</v>
+        <v>456</v>
       </c>
       <c r="K139" s="19" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="L139" s="19" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="M139" s="9" t="s">
-        <v>704</v>
+        <v>417</v>
       </c>
       <c r="N139" s="9" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="O139" s="9" t="s">
-        <v>635</v>
+        <v>1036</v>
       </c>
       <c r="P139" s="9" t="s">
-        <v>635</v>
+        <v>311</v>
       </c>
       <c r="Q139" s="9" t="s">
-        <v>649</v>
+        <v>382</v>
       </c>
       <c r="R139" s="9" t="s">
-        <v>642</v>
+        <v>1576</v>
       </c>
       <c r="S139" s="9" t="s">
-        <v>647</v>
+        <v>1160</v>
       </c>
       <c r="T139" s="9"/>
       <c r="U139" s="9"/>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B140" s="17" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="C140" s="10" t="s">
-        <v>612</v>
+        <v>1750</v>
       </c>
       <c r="D140" s="9" t="s">
-        <v>616</v>
+        <v>780</v>
       </c>
       <c r="E140" s="9" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="F140" s="9" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="G140" s="10" t="s">
-        <v>620</v>
+        <v>1242</v>
       </c>
       <c r="H140" s="9" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="I140" s="19" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="J140" s="9" t="s">
-        <v>628</v>
+        <v>1510</v>
       </c>
       <c r="K140" s="19" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="L140" s="19" t="s">
-        <v>648</v>
+        <v>1968</v>
       </c>
       <c r="M140" s="9" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="N140" s="9" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="O140" s="9" t="s">
-        <v>1037</v>
+        <v>634</v>
       </c>
       <c r="P140" s="9" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="Q140" s="9" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="R140" s="9" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="S140" s="9" t="s">
-        <v>646</v>
+        <v>1177</v>
       </c>
       <c r="T140" s="9"/>
       <c r="U140" s="9"/>
@@ -38067,58 +38029,58 @@
         <v>143</v>
       </c>
       <c r="B141" s="17" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="D141" s="9" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="E141" s="9" t="s">
-        <v>955</v>
+        <v>1481</v>
       </c>
       <c r="F141" s="9" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="G141" s="10" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="H141" s="9" t="s">
-        <v>1382</v>
+        <v>623</v>
       </c>
       <c r="I141" s="19" t="s">
-        <v>1110</v>
+        <v>625</v>
       </c>
       <c r="J141" s="9" t="s">
-        <v>1453</v>
+        <v>627</v>
       </c>
       <c r="K141" s="19" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="L141" s="19" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="M141" s="9" t="s">
-        <v>632</v>
+        <v>704</v>
       </c>
       <c r="N141" s="9" t="s">
-        <v>632</v>
+        <v>704</v>
       </c>
       <c r="O141" s="9" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="P141" s="9" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="Q141" s="9" t="s">
-        <v>641</v>
+        <v>649</v>
       </c>
       <c r="R141" s="9" t="s">
-        <v>753</v>
+        <v>642</v>
       </c>
       <c r="S141" s="9" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="T141" s="9"/>
       <c r="U141" s="9"/>
@@ -38128,58 +38090,58 @@
         <v>143</v>
       </c>
       <c r="B142" s="17" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D142" s="9" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="E142" s="9" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="F142" s="9" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="G142" s="10" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="H142" s="9" t="s">
-        <v>624</v>
+        <v>1381</v>
       </c>
       <c r="I142" s="19" t="s">
-        <v>626</v>
+        <v>1109</v>
       </c>
       <c r="J142" s="9" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K142" s="19" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="L142" s="19" t="s">
-        <v>1958</v>
+        <v>648</v>
       </c>
       <c r="M142" s="9" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="N142" s="9" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="O142" s="9" t="s">
-        <v>637</v>
+        <v>1037</v>
       </c>
       <c r="P142" s="9" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="Q142" s="9" t="s">
-        <v>1554</v>
+        <v>640</v>
       </c>
       <c r="R142" s="9" t="s">
-        <v>643</v>
+        <v>752</v>
       </c>
       <c r="S142" s="9" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="T142" s="9"/>
       <c r="U142" s="9"/>
@@ -38189,58 +38151,58 @@
         <v>143</v>
       </c>
       <c r="B143" s="17" t="s">
-        <v>858</v>
+        <v>610</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>854</v>
-      </c>
-      <c r="D143" s="10" t="s">
-        <v>856</v>
-      </c>
-      <c r="E143" s="10" t="s">
-        <v>963</v>
-      </c>
-      <c r="F143" s="10" t="s">
-        <v>962</v>
+        <v>613</v>
+      </c>
+      <c r="D143" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="E143" s="9" t="s">
+        <v>955</v>
+      </c>
+      <c r="F143" s="9" t="s">
+        <v>956</v>
       </c>
       <c r="G143" s="10" t="s">
-        <v>1243</v>
-      </c>
-      <c r="H143" s="10" t="s">
-        <v>1116</v>
-      </c>
-      <c r="I143" s="10" t="s">
-        <v>1115</v>
-      </c>
-      <c r="J143" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="K143" s="10" t="s">
-        <v>1318</v>
-      </c>
-      <c r="L143" s="10" t="s">
-        <v>1965</v>
-      </c>
-      <c r="M143" s="10" t="s">
-        <v>855</v>
-      </c>
-      <c r="N143" s="10" t="s">
-        <v>855</v>
-      </c>
-      <c r="O143" s="10" t="s">
-        <v>983</v>
-      </c>
-      <c r="P143" s="10" t="s">
-        <v>983</v>
-      </c>
-      <c r="Q143" s="10" t="s">
-        <v>1118</v>
-      </c>
-      <c r="R143" s="10" t="s">
-        <v>857</v>
-      </c>
-      <c r="S143" s="10" t="s">
-        <v>1119</v>
+        <v>621</v>
+      </c>
+      <c r="H143" s="9" t="s">
+        <v>1382</v>
+      </c>
+      <c r="I143" s="19" t="s">
+        <v>1110</v>
+      </c>
+      <c r="J143" s="9" t="s">
+        <v>1453</v>
+      </c>
+      <c r="K143" s="19" t="s">
+        <v>1316</v>
+      </c>
+      <c r="L143" s="19" t="s">
+        <v>1957</v>
+      </c>
+      <c r="M143" s="9" t="s">
+        <v>632</v>
+      </c>
+      <c r="N143" s="9" t="s">
+        <v>632</v>
+      </c>
+      <c r="O143" s="9" t="s">
+        <v>632</v>
+      </c>
+      <c r="P143" s="9" t="s">
+        <v>632</v>
+      </c>
+      <c r="Q143" s="9" t="s">
+        <v>641</v>
+      </c>
+      <c r="R143" s="9" t="s">
+        <v>753</v>
+      </c>
+      <c r="S143" s="9" t="s">
+        <v>645</v>
       </c>
       <c r="T143" s="9"/>
       <c r="U143" s="9"/>
@@ -38250,58 +38212,58 @@
         <v>143</v>
       </c>
       <c r="B144" s="17" t="s">
-        <v>650</v>
+        <v>611</v>
       </c>
       <c r="C144" s="10" t="s">
-        <v>651</v>
+        <v>614</v>
       </c>
       <c r="D144" s="9" t="s">
-        <v>685</v>
-      </c>
-      <c r="E144" s="10" t="s">
-        <v>552</v>
-      </c>
-      <c r="F144" s="10" t="s">
-        <v>959</v>
+        <v>618</v>
+      </c>
+      <c r="E144" s="9" t="s">
+        <v>957</v>
+      </c>
+      <c r="F144" s="9" t="s">
+        <v>958</v>
       </c>
       <c r="G144" s="10" t="s">
-        <v>652</v>
-      </c>
-      <c r="H144" s="10" t="s">
-        <v>653</v>
-      </c>
-      <c r="I144" s="10" t="s">
-        <v>654</v>
-      </c>
-      <c r="J144" s="10" t="s">
-        <v>655</v>
-      </c>
-      <c r="K144" s="10" t="s">
-        <v>1319</v>
-      </c>
-      <c r="L144" s="10" t="s">
-        <v>1959</v>
-      </c>
-      <c r="M144" s="10" t="s">
-        <v>656</v>
+        <v>622</v>
+      </c>
+      <c r="H144" s="9" t="s">
+        <v>624</v>
+      </c>
+      <c r="I144" s="19" t="s">
+        <v>626</v>
+      </c>
+      <c r="J144" s="9" t="s">
+        <v>629</v>
+      </c>
+      <c r="K144" s="19" t="s">
+        <v>1317</v>
+      </c>
+      <c r="L144" s="19" t="s">
+        <v>1958</v>
+      </c>
+      <c r="M144" s="9" t="s">
+        <v>633</v>
       </c>
       <c r="N144" s="9" t="s">
-        <v>656</v>
-      </c>
-      <c r="O144" s="10" t="s">
-        <v>657</v>
-      </c>
-      <c r="P144" s="10" t="s">
-        <v>657</v>
-      </c>
-      <c r="Q144" s="10" t="s">
-        <v>658</v>
-      </c>
-      <c r="R144" s="10" t="s">
-        <v>754</v>
-      </c>
-      <c r="S144" s="10" t="s">
-        <v>659</v>
+        <v>633</v>
+      </c>
+      <c r="O144" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="P144" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="Q144" s="9" t="s">
+        <v>1554</v>
+      </c>
+      <c r="R144" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="S144" s="9" t="s">
+        <v>644</v>
       </c>
       <c r="T144" s="9"/>
       <c r="U144" s="9"/>
@@ -38311,198 +38273,254 @@
         <v>143</v>
       </c>
       <c r="B145" s="17" t="s">
-        <v>249</v>
+        <v>858</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>433</v>
-      </c>
-      <c r="D145" s="9" t="s">
-        <v>551</v>
-      </c>
-      <c r="E145" s="9" t="s">
-        <v>552</v>
-      </c>
-      <c r="F145" s="9" t="s">
-        <v>959</v>
+        <v>854</v>
+      </c>
+      <c r="D145" s="10" t="s">
+        <v>856</v>
+      </c>
+      <c r="E145" s="10" t="s">
+        <v>963</v>
+      </c>
+      <c r="F145" s="10" t="s">
+        <v>962</v>
       </c>
       <c r="G145" s="10" t="s">
-        <v>1244</v>
-      </c>
-      <c r="H145" s="9" t="s">
-        <v>330</v>
-      </c>
-      <c r="I145" s="9" t="s">
-        <v>553</v>
-      </c>
-      <c r="J145" s="9" t="s">
-        <v>554</v>
+        <v>1243</v>
+      </c>
+      <c r="H145" s="10" t="s">
+        <v>1116</v>
+      </c>
+      <c r="I145" s="10" t="s">
+        <v>1115</v>
+      </c>
+      <c r="J145" s="10" t="s">
+        <v>1117</v>
       </c>
       <c r="K145" s="10" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="L145" s="10" t="s">
-        <v>577</v>
-      </c>
-      <c r="M145" s="9" t="s">
-        <v>505</v>
-      </c>
-      <c r="N145" s="9" t="s">
-        <v>505</v>
-      </c>
-      <c r="O145" s="9" t="s">
-        <v>559</v>
-      </c>
-      <c r="P145" s="9" t="s">
-        <v>559</v>
-      </c>
-      <c r="Q145" s="9" t="s">
-        <v>565</v>
-      </c>
-      <c r="R145" s="9" t="s">
-        <v>755</v>
-      </c>
-      <c r="S145" s="9" t="s">
-        <v>570</v>
+        <v>1965</v>
+      </c>
+      <c r="M145" s="10" t="s">
+        <v>855</v>
+      </c>
+      <c r="N145" s="10" t="s">
+        <v>855</v>
+      </c>
+      <c r="O145" s="10" t="s">
+        <v>983</v>
+      </c>
+      <c r="P145" s="10" t="s">
+        <v>983</v>
+      </c>
+      <c r="Q145" s="10" t="s">
+        <v>1118</v>
+      </c>
+      <c r="R145" s="10" t="s">
+        <v>857</v>
+      </c>
+      <c r="S145" s="10" t="s">
+        <v>1119</v>
       </c>
       <c r="T145" s="9"/>
       <c r="U145" s="9"/>
     </row>
-    <row r="146" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A146" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B146" s="17" t="s">
-        <v>229</v>
+        <v>650</v>
       </c>
       <c r="C146" s="10" t="s">
-        <v>234</v>
+        <v>651</v>
       </c>
       <c r="D146" s="9" t="s">
-        <v>781</v>
-      </c>
-      <c r="E146" s="9" t="s">
-        <v>960</v>
-      </c>
-      <c r="F146" s="9" t="s">
-        <v>961</v>
+        <v>685</v>
+      </c>
+      <c r="E146" s="10" t="s">
+        <v>552</v>
+      </c>
+      <c r="F146" s="10" t="s">
+        <v>959</v>
       </c>
       <c r="G146" s="10" t="s">
-        <v>482</v>
-      </c>
-      <c r="H146" s="9" t="s">
-        <v>1383</v>
-      </c>
-      <c r="I146" s="19" t="s">
-        <v>1111</v>
-      </c>
-      <c r="J146" s="9" t="s">
-        <v>457</v>
-      </c>
-      <c r="K146" s="19" t="s">
-        <v>1672</v>
-      </c>
-      <c r="L146" s="19" t="s">
-        <v>1960</v>
-      </c>
-      <c r="M146" s="9" t="s">
-        <v>331</v>
+        <v>652</v>
+      </c>
+      <c r="H146" s="10" t="s">
+        <v>653</v>
+      </c>
+      <c r="I146" s="10" t="s">
+        <v>654</v>
+      </c>
+      <c r="J146" s="10" t="s">
+        <v>655</v>
+      </c>
+      <c r="K146" s="10" t="s">
+        <v>1319</v>
+      </c>
+      <c r="L146" s="10" t="s">
+        <v>1959</v>
+      </c>
+      <c r="M146" s="10" t="s">
+        <v>656</v>
       </c>
       <c r="N146" s="9" t="s">
-        <v>705</v>
-      </c>
-      <c r="O146" s="9" t="s">
-        <v>332</v>
-      </c>
-      <c r="P146" s="9" t="s">
-        <v>333</v>
-      </c>
-      <c r="Q146" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="R146" s="9" t="s">
-        <v>756</v>
-      </c>
-      <c r="S146" s="9" t="s">
-        <v>1602</v>
+        <v>656</v>
+      </c>
+      <c r="O146" s="10" t="s">
+        <v>657</v>
+      </c>
+      <c r="P146" s="10" t="s">
+        <v>657</v>
+      </c>
+      <c r="Q146" s="10" t="s">
+        <v>658</v>
+      </c>
+      <c r="R146" s="10" t="s">
+        <v>754</v>
+      </c>
+      <c r="S146" s="10" t="s">
+        <v>659</v>
       </c>
       <c r="T146" s="9"/>
       <c r="U146" s="9"/>
     </row>
-    <row r="147" spans="1:21" ht="135" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A147" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B147" s="17" t="s">
-        <v>2118</v>
+        <v>249</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>2113</v>
-      </c>
-      <c r="D147" s="9"/>
-      <c r="E147" s="9"/>
-      <c r="F147" s="9"/>
-      <c r="G147" s="10"/>
-      <c r="H147" s="9"/>
-      <c r="I147" s="19"/>
-      <c r="J147" s="9"/>
-      <c r="K147" s="19"/>
-      <c r="L147" s="19"/>
-      <c r="M147" s="9"/>
-      <c r="N147" s="10" t="s">
-        <v>2115</v>
-      </c>
-      <c r="O147" s="9"/>
-      <c r="P147" s="9"/>
-      <c r="Q147" s="9"/>
-      <c r="R147" s="9"/>
-      <c r="S147" s="9"/>
+        <v>433</v>
+      </c>
+      <c r="D147" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="E147" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="F147" s="9" t="s">
+        <v>959</v>
+      </c>
+      <c r="G147" s="10" t="s">
+        <v>1244</v>
+      </c>
+      <c r="H147" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="I147" s="9" t="s">
+        <v>553</v>
+      </c>
+      <c r="J147" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="K147" s="10" t="s">
+        <v>1320</v>
+      </c>
+      <c r="L147" s="10" t="s">
+        <v>577</v>
+      </c>
+      <c r="M147" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="N147" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="O147" s="9" t="s">
+        <v>559</v>
+      </c>
+      <c r="P147" s="9" t="s">
+        <v>559</v>
+      </c>
+      <c r="Q147" s="9" t="s">
+        <v>565</v>
+      </c>
+      <c r="R147" s="9" t="s">
+        <v>755</v>
+      </c>
+      <c r="S147" s="9" t="s">
+        <v>570</v>
+      </c>
       <c r="T147" s="9"/>
       <c r="U147" s="9"/>
     </row>
-    <row r="148" spans="1:21" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A148" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="B148" s="18" t="str">
-        <f t="shared" ref="B148:B166" si="0">B9&amp;" - "&amp;"Summary"</f>
-        <v>maiduguri - Summary</v>
+      <c r="B148" s="17" t="s">
+        <v>229</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>1613</v>
-      </c>
-      <c r="D148" s="9"/>
-      <c r="E148" s="9"/>
-      <c r="F148" s="9"/>
-      <c r="G148" s="10"/>
-      <c r="H148" s="9"/>
-      <c r="I148" s="19"/>
-      <c r="J148" s="9"/>
+        <v>234</v>
+      </c>
+      <c r="D148" s="9" t="s">
+        <v>781</v>
+      </c>
+      <c r="E148" s="9" t="s">
+        <v>960</v>
+      </c>
+      <c r="F148" s="9" t="s">
+        <v>961</v>
+      </c>
+      <c r="G148" s="10" t="s">
+        <v>482</v>
+      </c>
+      <c r="H148" s="9" t="s">
+        <v>1383</v>
+      </c>
+      <c r="I148" s="19" t="s">
+        <v>1111</v>
+      </c>
+      <c r="J148" s="9" t="s">
+        <v>457</v>
+      </c>
       <c r="K148" s="19" t="s">
-        <v>1321</v>
-      </c>
-      <c r="L148" s="19"/>
-      <c r="M148" s="9"/>
-      <c r="N148" s="9"/>
-      <c r="O148" s="9"/>
+        <v>1672</v>
+      </c>
+      <c r="L148" s="19" t="s">
+        <v>1960</v>
+      </c>
+      <c r="M148" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="N148" s="9" t="s">
+        <v>705</v>
+      </c>
+      <c r="O148" s="9" t="s">
+        <v>332</v>
+      </c>
       <c r="P148" s="9" t="s">
-        <v>974</v>
-      </c>
-      <c r="Q148" s="9"/>
-      <c r="R148" s="9"/>
-      <c r="S148" s="9"/>
+        <v>333</v>
+      </c>
+      <c r="Q148" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="R148" s="9" t="s">
+        <v>756</v>
+      </c>
+      <c r="S148" s="9" t="s">
+        <v>1602</v>
+      </c>
       <c r="T148" s="9"/>
       <c r="U148" s="9"/>
     </row>
-    <row r="149" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:21" ht="135" x14ac:dyDescent="0.25">
       <c r="A149" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="B149" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>mexico_city - Summary</v>
+      <c r="B149" s="17" t="s">
+        <v>2118</v>
       </c>
       <c r="C149" s="10" t="s">
-        <v>1810</v>
+        <v>2113</v>
       </c>
       <c r="D149" s="9"/>
       <c r="E149" s="9"/>
@@ -38513,30 +38531,28 @@
       <c r="J149" s="9"/>
       <c r="K149" s="19"/>
       <c r="L149" s="19"/>
-      <c r="M149" s="9" t="s">
-        <v>1811</v>
-      </c>
-      <c r="N149" s="9"/>
+      <c r="M149" s="9"/>
+      <c r="N149" s="10" t="s">
+        <v>2115</v>
+      </c>
       <c r="O149" s="9"/>
-      <c r="P149" s="9" t="s">
-        <v>974</v>
-      </c>
+      <c r="P149" s="9"/>
       <c r="Q149" s="9"/>
       <c r="R149" s="9"/>
       <c r="S149" s="9"/>
       <c r="T149" s="9"/>
       <c r="U149" s="9"/>
     </row>
-    <row r="150" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:21" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A150" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B150" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>baltimore - Summary</v>
+        <f t="shared" ref="B150:B168" si="0">B9&amp;" - "&amp;"Summary"</f>
+        <v>maiduguri - Summary</v>
       </c>
       <c r="C150" s="10" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="D150" s="9"/>
       <c r="E150" s="9"/>
@@ -38545,7 +38561,9 @@
       <c r="H150" s="9"/>
       <c r="I150" s="19"/>
       <c r="J150" s="9"/>
-      <c r="K150" s="19"/>
+      <c r="K150" s="19" t="s">
+        <v>1321</v>
+      </c>
       <c r="L150" s="19"/>
       <c r="M150" s="9"/>
       <c r="N150" s="9"/>
@@ -38565,10 +38583,10 @@
       </c>
       <c r="B151" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>phoenix - Summary</v>
+        <v>mexico_city - Summary</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>1813</v>
+        <v>1810</v>
       </c>
       <c r="D151" s="9"/>
       <c r="E151" s="9"/>
@@ -38579,7 +38597,9 @@
       <c r="J151" s="9"/>
       <c r="K151" s="19"/>
       <c r="L151" s="19"/>
-      <c r="M151" s="9"/>
+      <c r="M151" s="9" t="s">
+        <v>1811</v>
+      </c>
       <c r="N151" s="9"/>
       <c r="O151" s="9"/>
       <c r="P151" s="9" t="s">
@@ -38597,10 +38617,10 @@
       </c>
       <c r="B152" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>seattle - Summary</v>
+        <v>baltimore - Summary</v>
       </c>
       <c r="C152" s="10" t="s">
-        <v>1815</v>
+        <v>1614</v>
       </c>
       <c r="D152" s="9"/>
       <c r="E152" s="9"/>
@@ -38629,10 +38649,10 @@
       </c>
       <c r="B153" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>sao_paulo - Summary</v>
+        <v>phoenix - Summary</v>
       </c>
       <c r="C153" s="10" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="D153" s="9"/>
       <c r="E153" s="9"/>
@@ -38645,9 +38665,7 @@
       <c r="L153" s="19"/>
       <c r="M153" s="9"/>
       <c r="N153" s="9"/>
-      <c r="O153" s="9" t="s">
-        <v>1038</v>
-      </c>
+      <c r="O153" s="9"/>
       <c r="P153" s="9" t="s">
         <v>974</v>
       </c>
@@ -38663,18 +38681,14 @@
       </c>
       <c r="B154" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>hong_kong - Summary</v>
+        <v>seattle - Summary</v>
       </c>
       <c r="C154" s="10" t="s">
-        <v>1808</v>
+        <v>1815</v>
       </c>
       <c r="D154" s="9"/>
-      <c r="E154" s="9" t="s">
-        <v>1634</v>
-      </c>
-      <c r="F154" s="9" t="s">
-        <v>1636</v>
-      </c>
+      <c r="E154" s="9"/>
+      <c r="F154" s="9"/>
       <c r="G154" s="10"/>
       <c r="H154" s="9"/>
       <c r="I154" s="19"/>
@@ -38699,10 +38713,10 @@
       </c>
       <c r="B155" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>chennai - Summary</v>
+        <v>sao_paulo - Summary</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>1603</v>
+        <v>1814</v>
       </c>
       <c r="D155" s="9"/>
       <c r="E155" s="9"/>
@@ -38715,13 +38729,13 @@
       <c r="L155" s="19"/>
       <c r="M155" s="9"/>
       <c r="N155" s="9"/>
-      <c r="O155" s="9"/>
+      <c r="O155" s="9" t="s">
+        <v>1038</v>
+      </c>
       <c r="P155" s="9" t="s">
         <v>974</v>
       </c>
-      <c r="Q155" s="9" t="s">
-        <v>1604</v>
-      </c>
+      <c r="Q155" s="9"/>
       <c r="R155" s="9"/>
       <c r="S155" s="9"/>
       <c r="T155" s="9"/>
@@ -38733,14 +38747,18 @@
       </c>
       <c r="B156" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>bangkok - Summary</v>
+        <v>hong_kong - Summary</v>
       </c>
       <c r="C156" s="10" t="s">
-        <v>1615</v>
+        <v>1808</v>
       </c>
       <c r="D156" s="9"/>
-      <c r="E156" s="9"/>
-      <c r="F156" s="9"/>
+      <c r="E156" s="9" t="s">
+        <v>1634</v>
+      </c>
+      <c r="F156" s="9" t="s">
+        <v>1636</v>
+      </c>
       <c r="G156" s="10"/>
       <c r="H156" s="9"/>
       <c r="I156" s="19"/>
@@ -38754,9 +38772,7 @@
         <v>974</v>
       </c>
       <c r="Q156" s="9"/>
-      <c r="R156" s="9" t="s">
-        <v>1669</v>
-      </c>
+      <c r="R156" s="9"/>
       <c r="S156" s="9"/>
       <c r="T156" s="9"/>
       <c r="U156" s="9"/>
@@ -38767,10 +38783,10 @@
       </c>
       <c r="B157" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>hanoi - Summary</v>
+        <v>chennai - Summary</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="D157" s="9"/>
       <c r="E157" s="9"/>
@@ -38787,11 +38803,11 @@
       <c r="P157" s="9" t="s">
         <v>974</v>
       </c>
-      <c r="Q157" s="9"/>
+      <c r="Q157" s="9" t="s">
+        <v>1604</v>
+      </c>
       <c r="R157" s="9"/>
-      <c r="S157" s="9" t="s">
-        <v>1606</v>
-      </c>
+      <c r="S157" s="9"/>
       <c r="T157" s="9"/>
       <c r="U157" s="9"/>
     </row>
@@ -38801,10 +38817,10 @@
       </c>
       <c r="B158" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>graz - Summary</v>
+        <v>bangkok - Summary</v>
       </c>
       <c r="C158" s="10" t="s">
-        <v>1807</v>
+        <v>1615</v>
       </c>
       <c r="D158" s="9"/>
       <c r="E158" s="9"/>
@@ -38812,9 +38828,7 @@
       <c r="G158" s="10"/>
       <c r="H158" s="9"/>
       <c r="I158" s="19"/>
-      <c r="J158" s="9" t="s">
-        <v>1786</v>
-      </c>
+      <c r="J158" s="9"/>
       <c r="K158" s="19"/>
       <c r="L158" s="19"/>
       <c r="M158" s="9"/>
@@ -38824,7 +38838,9 @@
         <v>974</v>
       </c>
       <c r="Q158" s="9"/>
-      <c r="R158" s="9"/>
+      <c r="R158" s="9" t="s">
+        <v>1669</v>
+      </c>
       <c r="S158" s="9"/>
       <c r="T158" s="9"/>
       <c r="U158" s="9"/>
@@ -38835,19 +38851,17 @@
       </c>
       <c r="B159" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>ghent_2022 - Summary</v>
+        <v>hanoi - Summary</v>
       </c>
       <c r="C159" s="10" t="s">
-        <v>2101</v>
+        <v>1605</v>
       </c>
       <c r="D159" s="9"/>
       <c r="E159" s="9"/>
       <c r="F159" s="9"/>
       <c r="G159" s="10"/>
       <c r="H159" s="9"/>
-      <c r="I159" s="19" t="s">
-        <v>2102</v>
-      </c>
+      <c r="I159" s="19"/>
       <c r="J159" s="9"/>
       <c r="K159" s="19"/>
       <c r="L159" s="19"/>
@@ -38859,7 +38873,9 @@
       </c>
       <c r="Q159" s="9"/>
       <c r="R159" s="9"/>
-      <c r="S159" s="9"/>
+      <c r="S159" s="9" t="s">
+        <v>1606</v>
+      </c>
       <c r="T159" s="9"/>
       <c r="U159" s="9"/>
     </row>
@@ -38869,10 +38885,10 @@
       </c>
       <c r="B160" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>bern - Summary</v>
+        <v>graz - Summary</v>
       </c>
       <c r="C160" s="10" t="s">
-        <v>1607</v>
+        <v>1807</v>
       </c>
       <c r="D160" s="9"/>
       <c r="E160" s="9"/>
@@ -38881,7 +38897,7 @@
       <c r="H160" s="9"/>
       <c r="I160" s="19"/>
       <c r="J160" s="9" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="K160" s="19"/>
       <c r="L160" s="19"/>
@@ -38903,19 +38919,19 @@
       </c>
       <c r="B161" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>olomouc - Summary</v>
+        <v>ghent_2022 - Summary</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>1608</v>
+        <v>2101</v>
       </c>
       <c r="D161" s="9"/>
       <c r="E161" s="9"/>
       <c r="F161" s="9"/>
-      <c r="G161" s="10" t="s">
-        <v>1245</v>
-      </c>
+      <c r="G161" s="10"/>
       <c r="H161" s="9"/>
-      <c r="I161" s="19"/>
+      <c r="I161" s="19" t="s">
+        <v>2102</v>
+      </c>
       <c r="J161" s="9"/>
       <c r="K161" s="19"/>
       <c r="L161" s="19"/>
@@ -38937,10 +38953,10 @@
       </c>
       <c r="B162" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>cologne - Summary</v>
+        <v>bern - Summary</v>
       </c>
       <c r="C162" s="10" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="D162" s="9"/>
       <c r="E162" s="9"/>
@@ -38949,7 +38965,7 @@
       <c r="H162" s="9"/>
       <c r="I162" s="19"/>
       <c r="J162" s="9" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="K162" s="19"/>
       <c r="L162" s="19"/>
@@ -38971,18 +38987,18 @@
       </c>
       <c r="B163" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>odense - Summary</v>
+        <v>olomouc - Summary</v>
       </c>
       <c r="C163" s="10" t="s">
-        <v>1812</v>
+        <v>1608</v>
       </c>
       <c r="D163" s="9"/>
       <c r="E163" s="9"/>
       <c r="F163" s="9"/>
-      <c r="G163" s="10"/>
-      <c r="H163" s="9" t="s">
-        <v>1384</v>
-      </c>
+      <c r="G163" s="10" t="s">
+        <v>1245</v>
+      </c>
+      <c r="H163" s="9"/>
       <c r="I163" s="19"/>
       <c r="J163" s="9"/>
       <c r="K163" s="19"/>
@@ -39005,26 +39021,24 @@
       </c>
       <c r="B164" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>barcelona - Summary</v>
+        <v>cologne - Summary</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>1805</v>
-      </c>
-      <c r="D164" s="9" t="s">
-        <v>1610</v>
-      </c>
+        <v>1609</v>
+      </c>
+      <c r="D164" s="9"/>
       <c r="E164" s="9"/>
       <c r="F164" s="9"/>
       <c r="G164" s="10"/>
       <c r="H164" s="9"/>
       <c r="I164" s="19"/>
-      <c r="J164" s="9"/>
+      <c r="J164" s="9" t="s">
+        <v>1787</v>
+      </c>
       <c r="K164" s="19"/>
       <c r="L164" s="19"/>
       <c r="M164" s="9"/>
-      <c r="N164" s="9" t="s">
-        <v>800</v>
-      </c>
+      <c r="N164" s="9"/>
       <c r="O164" s="9"/>
       <c r="P164" s="9" t="s">
         <v>974</v>
@@ -39041,26 +39055,24 @@
       </c>
       <c r="B165" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>valencia_2022 - Summary</v>
+        <v>odense - Summary</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>1817</v>
-      </c>
-      <c r="D165" s="9" t="s">
-        <v>1611</v>
-      </c>
+        <v>1812</v>
+      </c>
+      <c r="D165" s="9"/>
       <c r="E165" s="9"/>
       <c r="F165" s="9"/>
       <c r="G165" s="10"/>
-      <c r="H165" s="9"/>
+      <c r="H165" s="9" t="s">
+        <v>1384</v>
+      </c>
       <c r="I165" s="19"/>
       <c r="J165" s="9"/>
       <c r="K165" s="19"/>
       <c r="L165" s="19"/>
       <c r="M165" s="9"/>
-      <c r="N165" s="9" t="s">
-        <v>801</v>
-      </c>
+      <c r="N165" s="9"/>
       <c r="O165" s="9"/>
       <c r="P165" s="9" t="s">
         <v>974</v>
@@ -39077,13 +39089,13 @@
       </c>
       <c r="B166" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>vic - Summary</v>
+        <v>barcelona - Summary</v>
       </c>
       <c r="C166" s="10" t="s">
-        <v>1818</v>
+        <v>1805</v>
       </c>
       <c r="D166" s="9" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="E166" s="9"/>
       <c r="F166" s="9"/>
@@ -39095,7 +39107,7 @@
       <c r="L166" s="19"/>
       <c r="M166" s="9"/>
       <c r="N166" s="9" t="s">
-        <v>706</v>
+        <v>800</v>
       </c>
       <c r="O166" s="9"/>
       <c r="P166" s="9" t="s">
@@ -39112,13 +39124,15 @@
         <v>143</v>
       </c>
       <c r="B167" s="18" t="str">
-        <f t="shared" ref="B167:B172" si="1">B28&amp;" - "&amp;"Summary"</f>
-        <v>belfast - Summary</v>
+        <f t="shared" si="0"/>
+        <v>valencia_2022 - Summary</v>
       </c>
       <c r="C167" s="10" t="s">
-        <v>1806</v>
-      </c>
-      <c r="D167" s="9"/>
+        <v>1817</v>
+      </c>
+      <c r="D167" s="9" t="s">
+        <v>1611</v>
+      </c>
       <c r="E167" s="9"/>
       <c r="F167" s="9"/>
       <c r="G167" s="10"/>
@@ -39128,7 +39142,9 @@
       <c r="K167" s="19"/>
       <c r="L167" s="19"/>
       <c r="M167" s="9"/>
-      <c r="N167" s="9"/>
+      <c r="N167" s="9" t="s">
+        <v>801</v>
+      </c>
       <c r="O167" s="9"/>
       <c r="P167" s="9" t="s">
         <v>974</v>
@@ -39144,13 +39160,15 @@
         <v>143</v>
       </c>
       <c r="B168" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>lisbon - Summary</v>
+        <f t="shared" si="0"/>
+        <v>vic - Summary</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>1616</v>
-      </c>
-      <c r="D168" s="9"/>
+        <v>1818</v>
+      </c>
+      <c r="D168" s="9" t="s">
+        <v>1612</v>
+      </c>
       <c r="E168" s="9"/>
       <c r="F168" s="9"/>
       <c r="G168" s="10"/>
@@ -39160,10 +39178,12 @@
       <c r="K168" s="19"/>
       <c r="L168" s="19"/>
       <c r="M168" s="9"/>
-      <c r="N168" s="9"/>
+      <c r="N168" s="9" t="s">
+        <v>706</v>
+      </c>
       <c r="O168" s="9"/>
       <c r="P168" s="9" t="s">
-        <v>1617</v>
+        <v>974</v>
       </c>
       <c r="Q168" s="9"/>
       <c r="R168" s="9"/>
@@ -39176,11 +39196,11 @@
         <v>143</v>
       </c>
       <c r="B169" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>adelaide - Summary</v>
+        <f t="shared" ref="B169:B174" si="1">B28&amp;" - "&amp;"Summary"</f>
+        <v>belfast - Summary</v>
       </c>
       <c r="C169" s="10" t="s">
-        <v>1804</v>
+        <v>1806</v>
       </c>
       <c r="D169" s="9"/>
       <c r="E169" s="9"/>
@@ -39209,10 +39229,10 @@
       </c>
       <c r="B170" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>melbourne - Summary</v>
+        <v>lisbon - Summary</v>
       </c>
       <c r="C170" s="10" t="s">
-        <v>1809</v>
+        <v>1616</v>
       </c>
       <c r="D170" s="9"/>
       <c r="E170" s="9"/>
@@ -39227,7 +39247,7 @@
       <c r="N170" s="9"/>
       <c r="O170" s="9"/>
       <c r="P170" s="9" t="s">
-        <v>974</v>
+        <v>1617</v>
       </c>
       <c r="Q170" s="9"/>
       <c r="R170" s="9"/>
@@ -39241,10 +39261,10 @@
       </c>
       <c r="B171" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>sydney - Summary</v>
+        <v>adelaide - Summary</v>
       </c>
       <c r="C171" s="10" t="s">
-        <v>1816</v>
+        <v>1804</v>
       </c>
       <c r="D171" s="9"/>
       <c r="E171" s="9"/>
@@ -39267,27 +39287,26 @@
       <c r="T171" s="9"/>
       <c r="U171" s="9"/>
     </row>
-    <row r="172" spans="1:21" ht="405" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B172" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>auckland - Summary</v>
-      </c>
-      <c r="C172" s="13" t="s">
-        <v>1618</v>
-      </c>
+        <v>melbourne - Summary</v>
+      </c>
+      <c r="C172" s="10" t="s">
+        <v>1809</v>
+      </c>
+      <c r="D172" s="9"/>
       <c r="E172" s="9"/>
       <c r="F172" s="9"/>
-      <c r="G172" s="13"/>
+      <c r="G172" s="10"/>
       <c r="H172" s="9"/>
       <c r="I172" s="19"/>
       <c r="J172" s="9"/>
       <c r="K172" s="19"/>
-      <c r="L172" s="19" t="s">
-        <v>1961</v>
-      </c>
+      <c r="L172" s="19"/>
       <c r="M172" s="9"/>
       <c r="N172" s="9"/>
       <c r="O172" s="9"/>
@@ -39300,304 +39319,369 @@
       <c r="T172" s="9"/>
       <c r="U172" s="9"/>
     </row>
-    <row r="173" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="24" t="s">
+    <row r="173" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="B173" s="17" t="s">
+      <c r="B173" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>sydney - Summary</v>
+      </c>
+      <c r="C173" s="10" t="s">
+        <v>1816</v>
+      </c>
+      <c r="D173" s="9"/>
+      <c r="E173" s="9"/>
+      <c r="F173" s="9"/>
+      <c r="G173" s="10"/>
+      <c r="H173" s="9"/>
+      <c r="I173" s="19"/>
+      <c r="J173" s="9"/>
+      <c r="K173" s="19"/>
+      <c r="L173" s="19"/>
+      <c r="M173" s="9"/>
+      <c r="N173" s="9"/>
+      <c r="O173" s="9"/>
+      <c r="P173" s="9" t="s">
+        <v>974</v>
+      </c>
+      <c r="Q173" s="9"/>
+      <c r="R173" s="9"/>
+      <c r="S173" s="9"/>
+      <c r="T173" s="9"/>
+      <c r="U173" s="9"/>
+    </row>
+    <row r="174" spans="1:21" ht="405" x14ac:dyDescent="0.25">
+      <c r="A174" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="B174" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>auckland - Summary</v>
+      </c>
+      <c r="C174" s="13" t="s">
+        <v>1618</v>
+      </c>
+      <c r="E174" s="9"/>
+      <c r="F174" s="9"/>
+      <c r="G174" s="13"/>
+      <c r="H174" s="9"/>
+      <c r="I174" s="19"/>
+      <c r="J174" s="9"/>
+      <c r="K174" s="19"/>
+      <c r="L174" s="19" t="s">
+        <v>1961</v>
+      </c>
+      <c r="M174" s="9"/>
+      <c r="N174" s="9"/>
+      <c r="O174" s="9"/>
+      <c r="P174" s="9" t="s">
+        <v>974</v>
+      </c>
+      <c r="Q174" s="9"/>
+      <c r="R174" s="9"/>
+      <c r="S174" s="9"/>
+      <c r="T174" s="9"/>
+      <c r="U174" s="9"/>
+    </row>
+    <row r="175" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="B175" s="17" t="s">
         <v>815</v>
       </c>
-      <c r="D173" s="2" t="s">
+      <c r="D175" s="2" t="s">
         <v>1838</v>
       </c>
-      <c r="E173" s="2" t="s">
+      <c r="E175" s="2" t="s">
         <v>1496</v>
       </c>
-      <c r="F173" s="2" t="s">
+      <c r="F175" s="2" t="s">
         <v>1497</v>
       </c>
-      <c r="G173" s="2" t="s">
+      <c r="G175" s="2" t="s">
         <v>1253</v>
       </c>
-      <c r="H173" s="3" t="s">
+      <c r="H175" s="3" t="s">
         <v>859</v>
       </c>
-      <c r="I173" s="2" t="s">
+      <c r="I175" s="2" t="s">
         <v>1114</v>
       </c>
-      <c r="J173" s="2" t="s">
+      <c r="J175" s="2" t="s">
         <v>1796</v>
       </c>
-      <c r="K173" s="2" t="s">
+      <c r="K175" s="2" t="s">
         <v>1670</v>
       </c>
-      <c r="L173" s="50" t="s">
+      <c r="L175" s="50" t="s">
         <v>1963</v>
       </c>
-      <c r="M173" s="2" t="s">
+      <c r="M175" s="2" t="s">
         <v>763</v>
       </c>
-      <c r="N173" s="2" t="s">
+      <c r="N175" s="2" t="s">
         <v>1838</v>
       </c>
-      <c r="O173" s="2" t="s">
+      <c r="O175" s="2" t="s">
         <v>1830</v>
       </c>
-      <c r="P173" s="2" t="s">
+      <c r="P175" s="2" t="s">
         <v>1401</v>
       </c>
-      <c r="Q173" s="2" t="s">
+      <c r="Q175" s="2" t="s">
         <v>764</v>
       </c>
-      <c r="R173" s="2" t="s">
+      <c r="R175" s="2" t="s">
         <v>1577</v>
       </c>
-      <c r="S173" s="2" t="s">
+      <c r="S175" s="2" t="s">
         <v>1162</v>
       </c>
     </row>
-    <row r="174" spans="1:21" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A174" s="24" t="s">
+    <row r="176" spans="1:21" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A176" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="B174" s="17" t="s">
+      <c r="B176" s="17" t="s">
         <v>1493</v>
       </c>
-      <c r="E174" s="3" t="s">
+      <c r="E176" s="3" t="s">
         <v>1494</v>
       </c>
-      <c r="F174" s="3" t="s">
+      <c r="F176" s="3" t="s">
         <v>1495</v>
       </c>
-      <c r="H174" s="3"/>
-    </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A175" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="B175" s="17" t="s">
-        <v>802</v>
-      </c>
-      <c r="C175" s="3" t="s">
-        <v>806</v>
-      </c>
-      <c r="D175" s="3" t="s">
-        <v>996</v>
-      </c>
-      <c r="E175" s="3" t="s">
-        <v>814</v>
-      </c>
-      <c r="F175" s="3" t="s">
-        <v>814</v>
-      </c>
-      <c r="G175" s="3" t="s">
-        <v>812</v>
-      </c>
-      <c r="H175" s="3" t="s">
-        <v>1504</v>
-      </c>
-      <c r="I175" s="3" t="s">
-        <v>811</v>
-      </c>
-      <c r="J175" s="3" t="s">
-        <v>810</v>
-      </c>
-      <c r="K175" s="3" t="s">
-        <v>1322</v>
-      </c>
-      <c r="L175" s="3" t="s">
-        <v>1962</v>
-      </c>
-      <c r="M175" s="3" t="s">
-        <v>995</v>
-      </c>
-      <c r="N175" s="3" t="s">
-        <v>995</v>
-      </c>
-      <c r="O175" s="3" t="s">
-        <v>809</v>
-      </c>
-      <c r="P175" s="3" t="s">
-        <v>809</v>
-      </c>
-      <c r="Q175" s="3" t="s">
-        <v>808</v>
-      </c>
-      <c r="R175" s="3" t="s">
-        <v>807</v>
-      </c>
-      <c r="S175" s="3" t="s">
-        <v>1178</v>
-      </c>
-    </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A176" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="B176" s="17" t="s">
-        <v>1469</v>
-      </c>
-      <c r="C176" s="3" t="s">
-        <v>1471</v>
-      </c>
-      <c r="D176" s="3" t="s">
-        <v>1471</v>
-      </c>
-      <c r="E176" s="3" t="s">
-        <v>1483</v>
-      </c>
-      <c r="F176" s="3" t="s">
-        <v>1484</v>
-      </c>
-      <c r="G176" s="3" t="s">
-        <v>1644</v>
-      </c>
-      <c r="H176" s="3" t="s">
-        <v>1485</v>
-      </c>
-      <c r="I176" s="3" t="s">
-        <v>1471</v>
-      </c>
-      <c r="J176" s="3" t="s">
-        <v>1488</v>
-      </c>
-      <c r="K176" s="3" t="s">
-        <v>1486</v>
-      </c>
-      <c r="L176" s="3" t="s">
-        <v>1487</v>
-      </c>
-      <c r="M176" s="3" t="s">
-        <v>1489</v>
-      </c>
-      <c r="N176" s="3" t="s">
-        <v>1489</v>
-      </c>
-      <c r="O176" s="3" t="s">
-        <v>1489</v>
-      </c>
-      <c r="P176" s="3" t="s">
-        <v>1489</v>
-      </c>
-      <c r="Q176" s="3" t="s">
-        <v>1490</v>
-      </c>
-      <c r="R176" s="3" t="s">
-        <v>1491</v>
-      </c>
-      <c r="S176" s="3" t="s">
-        <v>1492</v>
-      </c>
+      <c r="H176" s="3"/>
     </row>
     <row r="177" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A177" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B177" s="17" t="s">
+        <v>802</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>996</v>
+      </c>
+      <c r="E177" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="F177" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="G177" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="H177" s="3" t="s">
+        <v>1504</v>
+      </c>
+      <c r="I177" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="J177" s="3" t="s">
+        <v>810</v>
+      </c>
+      <c r="K177" s="3" t="s">
+        <v>1322</v>
+      </c>
+      <c r="L177" s="3" t="s">
+        <v>1962</v>
+      </c>
+      <c r="M177" s="3" t="s">
+        <v>995</v>
+      </c>
+      <c r="N177" s="3" t="s">
+        <v>995</v>
+      </c>
+      <c r="O177" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="P177" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="Q177" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="R177" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="S177" s="3" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="178" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A178" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="B178" s="17" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>1471</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>1471</v>
+      </c>
+      <c r="E178" s="3" t="s">
+        <v>1483</v>
+      </c>
+      <c r="F178" s="3" t="s">
+        <v>1484</v>
+      </c>
+      <c r="G178" s="3" t="s">
+        <v>1644</v>
+      </c>
+      <c r="H178" s="3" t="s">
+        <v>1485</v>
+      </c>
+      <c r="I178" s="3" t="s">
+        <v>1471</v>
+      </c>
+      <c r="J178" s="3" t="s">
+        <v>1488</v>
+      </c>
+      <c r="K178" s="3" t="s">
+        <v>1486</v>
+      </c>
+      <c r="L178" s="3" t="s">
+        <v>1487</v>
+      </c>
+      <c r="M178" s="3" t="s">
+        <v>1489</v>
+      </c>
+      <c r="N178" s="3" t="s">
+        <v>1489</v>
+      </c>
+      <c r="O178" s="3" t="s">
+        <v>1489</v>
+      </c>
+      <c r="P178" s="3" t="s">
+        <v>1489</v>
+      </c>
+      <c r="Q178" s="3" t="s">
+        <v>1490</v>
+      </c>
+      <c r="R178" s="3" t="s">
+        <v>1491</v>
+      </c>
+      <c r="S178" s="3" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="179" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A179" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="B179" s="17" t="s">
         <v>803</v>
       </c>
-      <c r="C177" s="3" t="s">
+      <c r="C179" s="3" t="s">
         <v>986</v>
       </c>
-      <c r="D177" s="3" t="s">
+      <c r="D179" s="3" t="s">
         <v>987</v>
       </c>
-      <c r="E177" s="3" t="s">
+      <c r="E179" s="3" t="s">
         <v>1558</v>
       </c>
-      <c r="F177" s="3" t="s">
+      <c r="F179" s="3" t="s">
         <v>1557</v>
       </c>
-      <c r="G177" s="3" t="s">
+      <c r="G179" s="3" t="s">
         <v>988</v>
       </c>
-      <c r="H177" s="3" t="s">
+      <c r="H179" s="3" t="s">
         <v>1385</v>
       </c>
-      <c r="I177" s="3" t="s">
+      <c r="I179" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="J177" s="3" t="s">
+      <c r="J179" s="3" t="s">
         <v>990</v>
       </c>
-      <c r="K177" s="3" t="s">
+      <c r="K179" s="3" t="s">
         <v>1329</v>
       </c>
-      <c r="L177" s="3" t="s">
+      <c r="L179" s="3" t="s">
         <v>1971</v>
       </c>
-      <c r="M177" s="3" t="s">
+      <c r="M179" s="3" t="s">
         <v>991</v>
       </c>
-      <c r="N177" s="3" t="s">
+      <c r="N179" s="3" t="s">
         <v>991</v>
       </c>
-      <c r="O177" s="3" t="s">
+      <c r="O179" s="3" t="s">
         <v>992</v>
       </c>
-      <c r="P177" s="3" t="s">
+      <c r="P179" s="3" t="s">
         <v>992</v>
       </c>
-      <c r="Q177" s="3" t="s">
+      <c r="Q179" s="3" t="s">
         <v>993</v>
       </c>
-      <c r="R177" s="3" t="s">
+      <c r="R179" s="3" t="s">
         <v>994</v>
       </c>
-      <c r="S177" s="3" t="s">
+      <c r="S179" s="3" t="s">
         <v>1179</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B93:B177 B1:B91">
-    <cfRule type="duplicateValues" dxfId="22" priority="97"/>
+  <conditionalFormatting sqref="B95:B179 B1:B93">
+    <cfRule type="duplicateValues" dxfId="23" priority="97"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B54:B59 B112:D114 B97:J111 B115:J125 B128:J177 B93:K94 B126:K128 B95:L96 B92:U92 G112:J114 K129:K142 K144 K146:K148 K172:K173 K175 K97:L125 K143:L143 K149:L171 K174:L174 K176:L177 M93:U177">
-    <cfRule type="containsBlanks" dxfId="21" priority="67">
+  <conditionalFormatting sqref="B54:B59 B114:D116 B99:J113 B117:J127 B130:J179 B95:K96 B128:K130 B97:L98 B94:U94 G114:J116 K131:K144 K146 K148:K150 K174:K175 K177 K99:L127 K145:L145 K151:L173 K176:L176 K178:L179 M95:U179">
+    <cfRule type="containsBlanks" dxfId="22" priority="67">
       <formula>LEN(TRIM(B54))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B92">
-    <cfRule type="duplicateValues" dxfId="20" priority="23"/>
+  <conditionalFormatting sqref="B94">
+    <cfRule type="duplicateValues" dxfId="21" priority="23"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:U91">
-    <cfRule type="containsBlanks" dxfId="19" priority="19">
+  <conditionalFormatting sqref="B1:U93">
+    <cfRule type="containsBlanks" dxfId="0" priority="19">
       <formula>LEN(TRIM(B1))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K145:L145">
-    <cfRule type="containsBlanks" dxfId="18" priority="1">
-      <formula>LEN(TRIM(K145))=0</formula>
+  <conditionalFormatting sqref="K147:L147">
+    <cfRule type="containsBlanks" dxfId="20" priority="1">
+      <formula>LEN(TRIM(K147))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L93:L94">
-    <cfRule type="containsBlanks" dxfId="17" priority="15">
-      <formula>LEN(TRIM(L93))=0</formula>
+  <conditionalFormatting sqref="L95:L96">
+    <cfRule type="containsBlanks" dxfId="19" priority="15">
+      <formula>LEN(TRIM(L95))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L126:L142">
-    <cfRule type="containsBlanks" dxfId="16" priority="8">
-      <formula>LEN(TRIM(L126))=0</formula>
+  <conditionalFormatting sqref="L128:L144">
+    <cfRule type="containsBlanks" dxfId="18" priority="8">
+      <formula>LEN(TRIM(L128))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L144">
-    <cfRule type="containsBlanks" dxfId="15" priority="7">
-      <formula>LEN(TRIM(L144))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L146:L148">
-    <cfRule type="containsBlanks" dxfId="14" priority="4">
+  <conditionalFormatting sqref="L146">
+    <cfRule type="containsBlanks" dxfId="17" priority="7">
       <formula>LEN(TRIM(L146))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L172">
-    <cfRule type="containsBlanks" dxfId="13" priority="3">
-      <formula>LEN(TRIM(L172))=0</formula>
+  <conditionalFormatting sqref="L148:L150">
+    <cfRule type="containsBlanks" dxfId="16" priority="4">
+      <formula>LEN(TRIM(L148))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L175">
-    <cfRule type="containsBlanks" dxfId="12" priority="2">
-      <formula>LEN(TRIM(L175))=0</formula>
+  <conditionalFormatting sqref="L174">
+    <cfRule type="containsBlanks" dxfId="15" priority="3">
+      <formula>LEN(TRIM(L174))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L177">
+    <cfRule type="containsBlanks" dxfId="14" priority="2">
+      <formula>LEN(TRIM(L177))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -42772,48 +42856,48 @@
     <mergeCell ref="E2:T2"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:C28">
-    <cfRule type="containsBlanks" dxfId="11" priority="18">
+    <cfRule type="containsBlanks" dxfId="13" priority="18">
       <formula>LEN(TRIM(B4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:T28">
-    <cfRule type="containsText" dxfId="10" priority="9" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="12" priority="9" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="Auto">
+    <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="Auto">
       <formula>NOT(ISERROR(SEARCH("Auto",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:T28">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
       <formula>"???"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
       <formula>"Partial"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9">
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="7" priority="4" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",N9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Auto">
+    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="Auto">
       <formula>NOT(ISERROR(SEARCH("Auto",N9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",N9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T13">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",T13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Auto">
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="Auto">
       <formula>NOT(ISERROR(SEARCH("Auto",T13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",T13)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/process/configuration/templates/_report_configuration.xlsx
+++ b/process/configuration/templates/_report_configuration.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rmiteduau-my.sharepoint.com/personal/carl_higgs_rmit_edu_au/Documents/projects/global-indicators/process/configuration/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rmiteduau-my.sharepoint.com/personal/carl_higgs_rmit_edu_au/Documents/projects/global-indicators/process/configuration/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="331" documentId="114_{57517418-E3A8-4D24-9644-27D04334BB89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38A126A7-9E6F-4B70-827A-8A7A6EB60C50}"/>
+  <xr:revisionPtr revIDLastSave="342" documentId="114_{57517418-E3A8-4D24-9644-27D04334BB89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE6CD053-7C18-45E7-B747-E669C22D447E}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="policy_spatial" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">languages!$B$1:$M$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">policy_spatial!$A$1:$T$188</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">print_not_implemented!$A$1:$T$194</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">spatial!$A$1:$T$68</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">spatial!$A$1:$T$69</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4637" uniqueCount="1711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4642" uniqueCount="1712">
   <si>
     <t>name</t>
   </si>
@@ -5300,6 +5300,9 @@
   </si>
   <si>
     <t>Español de España</t>
+  </si>
+  <si>
+    <t>study_region_context</t>
   </si>
 </sst>
 </file>
@@ -17735,13 +17738,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{275ED209-18EA-43FD-841F-C491018348BF}">
-  <dimension ref="A1:T71"/>
+  <dimension ref="A1:T72"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P19" sqref="P19"/>
+      <selection pane="bottomRight" activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18970,7 +18973,7 @@
         <v>13</v>
       </c>
       <c r="F22">
-        <f>D26-3</f>
+        <f>D25-3</f>
         <v>131</v>
       </c>
       <c r="G22">
@@ -19073,40 +19076,37 @@
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>1711</v>
       </c>
       <c r="B24">
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D24">
-        <f>D22</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>75</v>
+        <f>E23</f>
+        <v>41</v>
       </c>
       <c r="F24">
-        <f>D24+92</f>
-        <v>99</v>
+        <f>D25</f>
+        <v>134</v>
       </c>
       <c r="G24">
-        <f>E24+3</f>
-        <v>78</v>
-      </c>
-      <c r="H24" t="s">
-        <v>180</v>
+        <f>F24/192*144</f>
+        <v>100.5</v>
       </c>
       <c r="I24">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -19118,10 +19118,10 @@
         <v>26</v>
       </c>
       <c r="Q24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S24" t="s">
         <v>208</v>
@@ -19132,35 +19132,32 @@
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>1670</v>
       </c>
       <c r="B25">
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D25">
-        <f>D24-2</f>
-        <v>5</v>
+        <v>134</v>
       </c>
       <c r="E25">
-        <f>E24</f>
-        <v>75</v>
+        <f>E22</f>
+        <v>13</v>
       </c>
       <c r="F25">
-        <f>D25+90</f>
-        <v>95</v>
+        <v>210</v>
       </c>
       <c r="G25">
-        <f>E25+90</f>
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -19168,14 +19165,17 @@
       <c r="L25">
         <v>0</v>
       </c>
+      <c r="M25" t="s">
+        <v>1319</v>
+      </c>
       <c r="N25" t="s">
-        <v>21</v>
+        <v>1319</v>
       </c>
       <c r="O25" t="s">
         <v>26</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R25" t="b">
         <v>0</v>
@@ -19189,29 +19189,34 @@
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="B26">
         <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D26">
-        <v>134</v>
+        <f>D25+1</f>
+        <v>135</v>
       </c>
       <c r="E26">
-        <f>E22</f>
-        <v>13</v>
+        <f>E25+3</f>
+        <v>16</v>
       </c>
       <c r="F26">
         <v>210</v>
       </c>
       <c r="G26">
-        <v>161</v>
+        <f>E26+3</f>
+        <v>19</v>
+      </c>
+      <c r="H26" t="s">
+        <v>180</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J26">
         <v>1</v>
@@ -19221,9 +19226,6 @@
       </c>
       <c r="L26">
         <v>0</v>
-      </c>
-      <c r="M26" t="s">
-        <v>1319</v>
       </c>
       <c r="N26" t="s">
         <v>1319</v>
@@ -19231,8 +19233,11 @@
       <c r="O26" t="s">
         <v>26</v>
       </c>
+      <c r="P26" t="s">
+        <v>1677</v>
+      </c>
       <c r="Q26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R26" t="b">
         <v>0</v>
@@ -19246,7 +19251,7 @@
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1671</v>
+        <v>1679</v>
       </c>
       <c r="B27">
         <v>3</v>
@@ -19255,28 +19260,29 @@
         <v>19</v>
       </c>
       <c r="D27">
-        <f>D26+1</f>
+        <f>$D$26</f>
         <v>135</v>
       </c>
       <c r="E27">
-        <f>E26+3</f>
-        <v>16</v>
+        <f>G26+5</f>
+        <v>24</v>
       </c>
       <c r="F27">
-        <v>210</v>
+        <f>D27+74</f>
+        <v>209</v>
       </c>
       <c r="G27">
         <f>E27+3</f>
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="H27" t="s">
         <v>180</v>
       </c>
       <c r="I27">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -19290,14 +19296,11 @@
       <c r="O27" t="s">
         <v>26</v>
       </c>
-      <c r="P27" t="s">
-        <v>1677</v>
-      </c>
       <c r="Q27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S27" t="s">
         <v>208</v>
@@ -19308,7 +19311,7 @@
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -19317,20 +19320,20 @@
         <v>19</v>
       </c>
       <c r="D28">
-        <f>$D$27</f>
+        <f>$D$26</f>
         <v>135</v>
       </c>
       <c r="E28">
-        <f>G27+5</f>
-        <v>24</v>
+        <f>G27+1</f>
+        <v>28</v>
       </c>
       <c r="F28">
         <f>D28+74</f>
         <v>209</v>
       </c>
       <c r="G28">
-        <f>E28+3</f>
-        <v>27</v>
+        <f>E28+4</f>
+        <v>32</v>
       </c>
       <c r="H28" t="s">
         <v>180</v>
@@ -19342,7 +19345,7 @@
         <v>0</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -19368,7 +19371,7 @@
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="B29">
         <v>3</v>
@@ -19377,20 +19380,20 @@
         <v>19</v>
       </c>
       <c r="D29">
-        <f>$D$27</f>
-        <v>135</v>
+        <f>$D25</f>
+        <v>134</v>
       </c>
       <c r="E29">
-        <f>G28+1</f>
-        <v>28</v>
+        <f>G28+12</f>
+        <v>44</v>
       </c>
       <c r="F29">
-        <f>D29+74</f>
+        <f t="shared" ref="F29:F40" si="2">F27</f>
         <v>209</v>
       </c>
       <c r="G29">
-        <f>E29+4</f>
-        <v>32</v>
+        <f>E29+3</f>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
         <v>180</v>
@@ -19402,7 +19405,7 @@
         <v>0</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -19428,7 +19431,7 @@
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="B30">
         <v>3</v>
@@ -19438,19 +19441,19 @@
       </c>
       <c r="D30">
         <f>$D26</f>
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E30">
-        <f>G29+12</f>
-        <v>44</v>
+        <f>G29+1</f>
+        <v>48</v>
       </c>
       <c r="F30">
-        <f t="shared" ref="F30:F41" si="2">F28</f>
+        <f t="shared" si="2"/>
         <v>209</v>
       </c>
       <c r="G30">
-        <f>E30+3</f>
-        <v>47</v>
+        <f>E30+4</f>
+        <v>52</v>
       </c>
       <c r="H30" t="s">
         <v>180</v>
@@ -19462,7 +19465,7 @@
         <v>0</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -19488,7 +19491,7 @@
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="B31">
         <v>3</v>
@@ -19497,20 +19500,20 @@
         <v>19</v>
       </c>
       <c r="D31">
-        <f>$D27</f>
+        <f t="shared" ref="D31:D40" si="3">$D$26</f>
         <v>135</v>
       </c>
       <c r="E31">
-        <f>G30+1</f>
-        <v>48</v>
+        <f>G30+12</f>
+        <v>64</v>
       </c>
       <c r="F31">
         <f t="shared" si="2"/>
         <v>209</v>
       </c>
       <c r="G31">
-        <f>E31+4</f>
-        <v>52</v>
+        <f>E31+3</f>
+        <v>67</v>
       </c>
       <c r="H31" t="s">
         <v>180</v>
@@ -19522,7 +19525,7 @@
         <v>0</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L31">
         <v>0</v>
@@ -19548,7 +19551,7 @@
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="B32">
         <v>3</v>
@@ -19557,20 +19560,20 @@
         <v>19</v>
       </c>
       <c r="D32">
-        <f t="shared" ref="D32:D41" si="3">$D$27</f>
+        <f t="shared" si="3"/>
         <v>135</v>
       </c>
       <c r="E32">
-        <f>G31+12</f>
-        <v>64</v>
+        <f>G31+1</f>
+        <v>68</v>
       </c>
       <c r="F32">
         <f t="shared" si="2"/>
         <v>209</v>
       </c>
       <c r="G32">
-        <f>E32+3</f>
-        <v>67</v>
+        <f>E32+4</f>
+        <v>72</v>
       </c>
       <c r="H32" t="s">
         <v>180</v>
@@ -19582,7 +19585,7 @@
         <v>0</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -19608,7 +19611,7 @@
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="B33">
         <v>3</v>
@@ -19621,16 +19624,16 @@
         <v>135</v>
       </c>
       <c r="E33">
-        <f>G32+1</f>
-        <v>68</v>
+        <f>G32+12</f>
+        <v>84</v>
       </c>
       <c r="F33">
         <f t="shared" si="2"/>
         <v>209</v>
       </c>
       <c r="G33">
-        <f>E33+4</f>
-        <v>72</v>
+        <f>E33+3</f>
+        <v>87</v>
       </c>
       <c r="H33" t="s">
         <v>180</v>
@@ -19642,7 +19645,7 @@
         <v>0</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -19668,7 +19671,7 @@
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -19681,16 +19684,16 @@
         <v>135</v>
       </c>
       <c r="E34">
-        <f>G33+12</f>
-        <v>84</v>
+        <f>G33+1</f>
+        <v>88</v>
       </c>
       <c r="F34">
         <f t="shared" si="2"/>
         <v>209</v>
       </c>
       <c r="G34">
-        <f>E34+3</f>
-        <v>87</v>
+        <f>E34+4</f>
+        <v>92</v>
       </c>
       <c r="H34" t="s">
         <v>180</v>
@@ -19702,7 +19705,7 @@
         <v>0</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -19728,7 +19731,7 @@
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="B35">
         <v>3</v>
@@ -19741,16 +19744,16 @@
         <v>135</v>
       </c>
       <c r="E35">
-        <f>G34+1</f>
-        <v>88</v>
+        <f>G34+12</f>
+        <v>104</v>
       </c>
       <c r="F35">
         <f t="shared" si="2"/>
         <v>209</v>
       </c>
       <c r="G35">
-        <f>E35+4</f>
-        <v>92</v>
+        <f>E35+3</f>
+        <v>107</v>
       </c>
       <c r="H35" t="s">
         <v>180</v>
@@ -19762,7 +19765,7 @@
         <v>0</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -19788,7 +19791,7 @@
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B36">
         <v>3</v>
@@ -19801,16 +19804,16 @@
         <v>135</v>
       </c>
       <c r="E36">
-        <f>G35+12</f>
-        <v>104</v>
+        <f>G35+1</f>
+        <v>108</v>
       </c>
       <c r="F36">
         <f t="shared" si="2"/>
         <v>209</v>
       </c>
       <c r="G36">
-        <f>E36+3</f>
-        <v>107</v>
+        <f>E36+4</f>
+        <v>112</v>
       </c>
       <c r="H36" t="s">
         <v>180</v>
@@ -19822,7 +19825,7 @@
         <v>0</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -19848,7 +19851,7 @@
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="B37">
         <v>3</v>
@@ -19861,16 +19864,16 @@
         <v>135</v>
       </c>
       <c r="E37">
-        <f>G36+1</f>
-        <v>108</v>
+        <f>G36+12</f>
+        <v>124</v>
       </c>
       <c r="F37">
         <f t="shared" si="2"/>
         <v>209</v>
       </c>
       <c r="G37">
-        <f>E37+4</f>
-        <v>112</v>
+        <f>E37+3</f>
+        <v>127</v>
       </c>
       <c r="H37" t="s">
         <v>180</v>
@@ -19882,7 +19885,7 @@
         <v>0</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -19908,7 +19911,7 @@
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
       <c r="B38">
         <v>3</v>
@@ -19921,16 +19924,16 @@
         <v>135</v>
       </c>
       <c r="E38">
-        <f>G37+12</f>
-        <v>124</v>
+        <f>G37+1</f>
+        <v>128</v>
       </c>
       <c r="F38">
         <f t="shared" si="2"/>
         <v>209</v>
       </c>
       <c r="G38">
-        <f>E38+3</f>
-        <v>127</v>
+        <f>E38+4</f>
+        <v>132</v>
       </c>
       <c r="H38" t="s">
         <v>180</v>
@@ -19942,7 +19945,7 @@
         <v>0</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -19968,7 +19971,7 @@
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="B39">
         <v>3</v>
@@ -19981,16 +19984,16 @@
         <v>135</v>
       </c>
       <c r="E39">
-        <f>G38+1</f>
-        <v>128</v>
+        <f>G38+12</f>
+        <v>144</v>
       </c>
       <c r="F39">
         <f t="shared" si="2"/>
         <v>209</v>
       </c>
       <c r="G39">
-        <f>E39+4</f>
-        <v>132</v>
+        <f>E39+3</f>
+        <v>147</v>
       </c>
       <c r="H39" t="s">
         <v>180</v>
@@ -20002,7 +20005,7 @@
         <v>0</v>
       </c>
       <c r="K39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L39">
         <v>0</v>
@@ -20028,7 +20031,7 @@
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="B40">
         <v>3</v>
@@ -20041,16 +20044,16 @@
         <v>135</v>
       </c>
       <c r="E40">
-        <f>G39+12</f>
-        <v>144</v>
+        <f>G39+1</f>
+        <v>148</v>
       </c>
       <c r="F40">
         <f t="shared" si="2"/>
         <v>209</v>
       </c>
       <c r="G40">
-        <f>E40+3</f>
-        <v>147</v>
+        <f>E40+4</f>
+        <v>152</v>
       </c>
       <c r="H40" t="s">
         <v>180</v>
@@ -20062,7 +20065,7 @@
         <v>0</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -20088,7 +20091,7 @@
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>1692</v>
+        <v>34</v>
       </c>
       <c r="B41">
         <v>3</v>
@@ -20097,20 +20100,17 @@
         <v>19</v>
       </c>
       <c r="D41">
-        <f t="shared" si="3"/>
-        <v>135</v>
+        <v>7</v>
       </c>
       <c r="E41">
-        <f>G40+1</f>
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="F41">
-        <f t="shared" si="2"/>
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="G41">
-        <f>E41+4</f>
-        <v>152</v>
+        <f>E41+3</f>
+        <v>168</v>
       </c>
       <c r="H41" t="s">
         <v>180</v>
@@ -20119,25 +20119,25 @@
         <v>10</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L41">
         <v>0</v>
       </c>
       <c r="N41" t="s">
-        <v>1319</v>
+        <v>21</v>
       </c>
       <c r="O41" t="s">
         <v>26</v>
       </c>
       <c r="Q41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S41" t="s">
         <v>208</v>
@@ -20148,7 +20148,7 @@
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B42">
         <v>3</v>
@@ -20157,26 +20157,28 @@
         <v>19</v>
       </c>
       <c r="D42">
+        <f>D41</f>
         <v>7</v>
       </c>
       <c r="E42">
-        <v>165</v>
+        <f>G41+3</f>
+        <v>171</v>
       </c>
       <c r="F42">
         <v>203</v>
       </c>
       <c r="G42">
-        <f>E42+3</f>
-        <v>168</v>
+        <f>E42+4</f>
+        <v>175</v>
       </c>
       <c r="H42" t="s">
         <v>180</v>
       </c>
       <c r="I42">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42">
         <v>0</v>
@@ -20188,13 +20190,14 @@
         <v>21</v>
       </c>
       <c r="O42" t="s">
-        <v>26</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="P42" s="1"/>
       <c r="Q42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S42" t="s">
         <v>208</v>
@@ -20205,34 +20208,28 @@
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="B43">
         <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D43">
-        <f>D42</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E43">
-        <f>G42+3</f>
-        <v>171</v>
+        <v>203</v>
       </c>
       <c r="F43">
-        <v>203</v>
+        <v>93</v>
       </c>
       <c r="G43">
-        <f>E43+4</f>
-        <v>175</v>
-      </c>
-      <c r="H43" t="s">
-        <v>180</v>
+        <v>283</v>
       </c>
       <c r="I43">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J43">
         <v>0</v>
@@ -20247,14 +20244,13 @@
         <v>21</v>
       </c>
       <c r="O43" t="s">
-        <v>179</v>
-      </c>
-      <c r="P43" s="1"/>
+        <v>26</v>
+      </c>
       <c r="Q43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S43" t="s">
         <v>208</v>
@@ -20265,34 +20261,37 @@
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>35</v>
+        <v>449</v>
       </c>
       <c r="B44">
         <v>3</v>
       </c>
       <c r="C44" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D44">
         <v>5</v>
       </c>
       <c r="E44">
-        <v>203</v>
+        <v>283</v>
       </c>
       <c r="F44">
         <v>93</v>
       </c>
       <c r="G44">
-        <v>283</v>
+        <v>286</v>
+      </c>
+      <c r="H44" t="s">
+        <v>180</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J44">
         <v>0</v>
       </c>
       <c r="K44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L44">
         <v>0</v>
@@ -20301,13 +20300,13 @@
         <v>21</v>
       </c>
       <c r="O44" t="s">
-        <v>26</v>
+        <v>179</v>
       </c>
       <c r="Q44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S44" t="s">
         <v>208</v>
@@ -20318,7 +20317,7 @@
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>449</v>
+        <v>33</v>
       </c>
       <c r="B45">
         <v>3</v>
@@ -20327,16 +20326,19 @@
         <v>19</v>
       </c>
       <c r="D45">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="E45">
-        <v>283</v>
+        <f>E43</f>
+        <v>203</v>
       </c>
       <c r="F45">
-        <v>93</v>
+        <f>D45+92</f>
+        <v>192</v>
       </c>
       <c r="G45">
-        <v>286</v>
+        <f>E45+3</f>
+        <v>206</v>
       </c>
       <c r="H45" t="s">
         <v>180</v>
@@ -20357,10 +20359,10 @@
         <v>21</v>
       </c>
       <c r="O45" t="s">
-        <v>179</v>
+        <v>26</v>
       </c>
       <c r="Q45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R45" t="b">
         <v>1</v>
@@ -20374,35 +20376,35 @@
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C46" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D46">
-        <v>7</v>
+        <f>D45-2</f>
+        <v>98</v>
       </c>
       <c r="E46">
-        <v>13</v>
+        <f>E45</f>
+        <v>203</v>
       </c>
       <c r="F46">
-        <f>D46+100</f>
-        <v>107</v>
+        <f>D46+90</f>
+        <v>188</v>
       </c>
       <c r="G46">
-        <v>16</v>
-      </c>
-      <c r="H46" t="s">
-        <v>180</v>
+        <f>E46+90</f>
+        <v>293</v>
       </c>
       <c r="I46">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46">
         <v>0</v>
@@ -20417,7 +20419,7 @@
         <v>26</v>
       </c>
       <c r="Q46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R46" t="b">
         <v>0</v>
@@ -20431,33 +20433,35 @@
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B47">
         <v>4</v>
       </c>
       <c r="C47" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D47">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E47">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F47">
-        <f>D47+88</f>
-        <v>93</v>
+        <f>D47+100</f>
+        <v>107</v>
       </c>
       <c r="G47">
-        <f>E47+80</f>
-        <v>98</v>
+        <v>16</v>
+      </c>
+      <c r="H47" t="s">
+        <v>180</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K47">
         <v>0</v>
@@ -20486,41 +20490,36 @@
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>446</v>
+        <v>37</v>
       </c>
       <c r="B48">
         <v>4</v>
       </c>
       <c r="C48" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D48">
-        <f>D47-2</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E48">
-        <f>G47</f>
+        <v>18</v>
+      </c>
+      <c r="F48">
+        <f>D48+88</f>
+        <v>93</v>
+      </c>
+      <c r="G48">
+        <f>E48+80</f>
         <v>98</v>
       </c>
-      <c r="F48">
-        <f>F47+2</f>
-        <v>95</v>
-      </c>
-      <c r="G48">
-        <f>E48+3</f>
-        <v>101</v>
-      </c>
-      <c r="H48" t="s">
-        <v>180</v>
-      </c>
       <c r="I48">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J48">
         <v>0</v>
       </c>
       <c r="K48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L48">
         <v>0</v>
@@ -20529,13 +20528,13 @@
         <v>21</v>
       </c>
       <c r="O48" t="s">
-        <v>179</v>
+        <v>26</v>
       </c>
       <c r="Q48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S48" t="s">
         <v>208</v>
@@ -20546,7 +20545,7 @@
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>45</v>
+        <v>446</v>
       </c>
       <c r="B49">
         <v>4</v>
@@ -20555,29 +20554,32 @@
         <v>19</v>
       </c>
       <c r="D49">
-        <v>111</v>
+        <f>D48-2</f>
+        <v>3</v>
       </c>
       <c r="E49">
-        <v>13</v>
+        <f>G48</f>
+        <v>98</v>
       </c>
       <c r="F49">
-        <f>D49+92</f>
-        <v>203</v>
+        <f>F48+2</f>
+        <v>95</v>
       </c>
       <c r="G49">
-        <v>16</v>
+        <f>E49+3</f>
+        <v>101</v>
       </c>
       <c r="H49" t="s">
         <v>180</v>
       </c>
       <c r="I49">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L49">
         <v>0</v>
@@ -20586,13 +20588,13 @@
         <v>21</v>
       </c>
       <c r="O49" t="s">
-        <v>26</v>
+        <v>179</v>
       </c>
       <c r="Q49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S49" t="s">
         <v>208</v>
@@ -20603,34 +20605,35 @@
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B50">
         <v>4</v>
       </c>
       <c r="C50" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D50">
-        <f>D49-2</f>
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E50">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F50">
-        <f>D50+88</f>
-        <v>197</v>
+        <f>D50+92</f>
+        <v>203</v>
       </c>
       <c r="G50">
-        <f>E50+80</f>
-        <v>98</v>
+        <v>16</v>
+      </c>
+      <c r="H50" t="s">
+        <v>180</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K50">
         <v>0</v>
@@ -20659,41 +20662,37 @@
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>447</v>
+        <v>46</v>
       </c>
       <c r="B51">
         <v>4</v>
       </c>
       <c r="C51" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D51">
         <f>D50-2</f>
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E51">
-        <f>G50</f>
+        <v>18</v>
+      </c>
+      <c r="F51">
+        <f>D51+88</f>
+        <v>197</v>
+      </c>
+      <c r="G51">
+        <f>E51+80</f>
         <v>98</v>
       </c>
-      <c r="F51">
-        <f>F50+2</f>
-        <v>199</v>
-      </c>
-      <c r="G51">
-        <f>E51+3</f>
-        <v>101</v>
-      </c>
-      <c r="H51" t="s">
-        <v>180</v>
-      </c>
       <c r="I51">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J51">
         <v>0</v>
       </c>
       <c r="K51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L51">
         <v>0</v>
@@ -20702,13 +20701,13 @@
         <v>21</v>
       </c>
       <c r="O51" t="s">
-        <v>179</v>
+        <v>26</v>
       </c>
       <c r="Q51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S51" t="s">
         <v>208</v>
@@ -20718,8 +20717,8 @@
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>203</v>
+      <c r="A52" t="s">
+        <v>447</v>
       </c>
       <c r="B52">
         <v>4</v>
@@ -20728,32 +20727,32 @@
         <v>19</v>
       </c>
       <c r="D52">
-        <f>D46</f>
-        <v>7</v>
+        <f>D51-2</f>
+        <v>107</v>
       </c>
       <c r="E52">
-        <f>G50+7</f>
-        <v>105</v>
+        <f>G51</f>
+        <v>98</v>
       </c>
       <c r="F52">
-        <f>F49</f>
-        <v>203</v>
+        <f>F51+2</f>
+        <v>199</v>
       </c>
       <c r="G52">
         <f>E52+3</f>
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H52" t="s">
         <v>180</v>
       </c>
       <c r="I52">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J52">
         <v>0</v>
       </c>
       <c r="K52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L52">
         <v>0</v>
@@ -20762,7 +20761,7 @@
         <v>21</v>
       </c>
       <c r="O52" t="s">
-        <v>26</v>
+        <v>179</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -20779,41 +20778,44 @@
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>448</v>
+        <v>203</v>
       </c>
       <c r="B53">
         <v>4</v>
       </c>
       <c r="C53" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <f>D47</f>
+        <v>7</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <f>G51+7</f>
+        <v>105</v>
       </c>
       <c r="F53">
-        <v>210</v>
+        <f>F50</f>
+        <v>203</v>
       </c>
       <c r="G53">
-        <f>G52+9</f>
-        <v>117</v>
+        <f>E53+3</f>
+        <v>108</v>
+      </c>
+      <c r="H53" t="s">
+        <v>180</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K53">
         <v>0</v>
       </c>
       <c r="L53">
         <v>0</v>
-      </c>
-      <c r="M53" t="s">
-        <v>21</v>
       </c>
       <c r="N53" t="s">
         <v>21</v>
@@ -20822,10 +20824,10 @@
         <v>26</v>
       </c>
       <c r="Q53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S53" t="s">
         <v>208</v>
@@ -20835,39 +20837,42 @@
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>177</v>
+      <c r="A54" s="2" t="s">
+        <v>448</v>
       </c>
       <c r="B54">
         <v>4</v>
       </c>
       <c r="C54" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="E54">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="F54">
         <v>210</v>
       </c>
       <c r="G54">
-        <f>E54+210</f>
-        <v>318</v>
+        <f>G53+9</f>
+        <v>117</v>
       </c>
       <c r="I54">
         <v>0</v>
       </c>
       <c r="J54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K54">
         <v>0</v>
       </c>
       <c r="L54">
         <v>0</v>
+      </c>
+      <c r="M54" t="s">
+        <v>21</v>
       </c>
       <c r="N54" t="s">
         <v>21</v>
@@ -20876,7 +20881,7 @@
         <v>26</v>
       </c>
       <c r="Q54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R54" t="b">
         <v>0</v>
@@ -20890,38 +20895,35 @@
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B55">
         <v>4</v>
       </c>
       <c r="C55" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D55">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E55">
-        <v>211</v>
+        <v>108</v>
       </c>
       <c r="F55">
         <v>210</v>
       </c>
       <c r="G55">
-        <f>E55+5</f>
-        <v>216</v>
-      </c>
-      <c r="H55" t="s">
-        <v>180</v>
+        <f>E55+210</f>
+        <v>318</v>
       </c>
       <c r="I55">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J55">
         <v>0</v>
       </c>
       <c r="K55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L55">
         <v>0</v>
@@ -20936,7 +20938,7 @@
         <v>0</v>
       </c>
       <c r="R55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S55" t="s">
         <v>208</v>
@@ -20947,7 +20949,7 @@
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>1512</v>
+        <v>178</v>
       </c>
       <c r="B56">
         <v>4</v>
@@ -20956,23 +20958,23 @@
         <v>19</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E56">
-        <f>G56-3</f>
-        <v>294</v>
+        <v>211</v>
       </c>
       <c r="F56">
         <v>210</v>
       </c>
       <c r="G56">
-        <v>297</v>
+        <f>E56+5</f>
+        <v>216</v>
       </c>
       <c r="H56" t="s">
         <v>180</v>
       </c>
       <c r="I56">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -20984,13 +20986,13 @@
         <v>0</v>
       </c>
       <c r="N56" t="s">
-        <v>677</v>
+        <v>21</v>
       </c>
       <c r="O56" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="Q56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R56" t="b">
         <v>1</v>
@@ -21004,52 +21006,53 @@
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>47</v>
+        <v>1512</v>
       </c>
       <c r="B57">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C57" t="s">
         <v>19</v>
       </c>
       <c r="D57">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E57">
-        <v>13</v>
+        <f>G57-3</f>
+        <v>294</v>
       </c>
       <c r="F57">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="G57">
-        <v>16</v>
+        <v>297</v>
       </c>
       <c r="H57" t="s">
         <v>180</v>
       </c>
       <c r="I57">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L57">
         <v>0</v>
       </c>
       <c r="N57" t="s">
-        <v>21</v>
+        <v>677</v>
       </c>
       <c r="O57" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="Q57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S57" t="s">
         <v>208</v>
@@ -21060,7 +21063,7 @@
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>123</v>
+        <v>47</v>
       </c>
       <c r="B58">
         <v>5</v>
@@ -21069,27 +21072,25 @@
         <v>19</v>
       </c>
       <c r="D58">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="E58">
-        <f>G57+4</f>
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F58">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G58">
-        <f>E58+4</f>
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="H58" t="s">
         <v>180</v>
       </c>
       <c r="I58">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K58">
         <v>0</v>
@@ -21101,14 +21102,13 @@
         <v>21</v>
       </c>
       <c r="O58" t="s">
-        <v>179</v>
-      </c>
-      <c r="P58" s="1"/>
+        <v>26</v>
+      </c>
       <c r="Q58">
         <v>2</v>
       </c>
       <c r="R58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S58" t="s">
         <v>208</v>
@@ -21119,31 +21119,33 @@
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="B59">
         <v>5</v>
       </c>
       <c r="C59" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D59">
-        <v>5</v>
+        <v>101</v>
       </c>
       <c r="E59">
-        <f>G57+4</f>
+        <f>G58+4</f>
         <v>20</v>
       </c>
       <c r="F59">
-        <f>D59+88</f>
-        <v>93</v>
+        <v>205</v>
       </c>
       <c r="G59">
-        <f>E59+80</f>
-        <v>100</v>
+        <f>E59+4</f>
+        <v>24</v>
+      </c>
+      <c r="H59" t="s">
+        <v>180</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J59">
         <v>0</v>
@@ -21158,13 +21160,14 @@
         <v>21</v>
       </c>
       <c r="O59" t="s">
-        <v>26</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="P59" s="1"/>
       <c r="Q59">
         <v>2</v>
       </c>
       <c r="R59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S59" t="s">
         <v>208</v>
@@ -21175,34 +21178,34 @@
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>48</v>
+        <v>134</v>
       </c>
       <c r="B60">
         <v>5</v>
       </c>
       <c r="C60" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D60">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E60">
-        <v>134</v>
+        <f>G58+4</f>
+        <v>20</v>
       </c>
       <c r="F60">
-        <v>203</v>
+        <f>D60+88</f>
+        <v>93</v>
       </c>
       <c r="G60">
-        <v>137</v>
-      </c>
-      <c r="H60" t="s">
-        <v>180</v>
+        <f>E60+80</f>
+        <v>100</v>
       </c>
       <c r="I60">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K60">
         <v>0</v>
@@ -21231,7 +21234,7 @@
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>132</v>
+        <v>48</v>
       </c>
       <c r="B61">
         <v>5</v>
@@ -21240,25 +21243,25 @@
         <v>19</v>
       </c>
       <c r="D61">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="E61">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F61">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G61">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="H61" t="s">
         <v>180</v>
       </c>
       <c r="I61">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K61">
         <v>0</v>
@@ -21270,14 +21273,13 @@
         <v>21</v>
       </c>
       <c r="O61" t="s">
-        <v>179</v>
-      </c>
-      <c r="P61" s="1"/>
+        <v>26</v>
+      </c>
       <c r="Q61">
         <v>2</v>
       </c>
       <c r="R61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S61" t="s">
         <v>208</v>
@@ -21288,28 +21290,31 @@
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>49</v>
+        <v>132</v>
       </c>
       <c r="B62">
         <v>5</v>
       </c>
       <c r="C62" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D62">
-        <v>5</v>
+        <v>101</v>
       </c>
       <c r="E62">
         <v>141</v>
       </c>
       <c r="F62">
-        <v>93</v>
+        <v>205</v>
       </c>
       <c r="G62">
-        <v>221</v>
+        <v>145</v>
+      </c>
+      <c r="H62" t="s">
+        <v>180</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -21324,13 +21329,14 @@
         <v>21</v>
       </c>
       <c r="O62" t="s">
-        <v>26</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="P62" s="1"/>
       <c r="Q62">
         <v>2</v>
       </c>
       <c r="R62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S62" t="s">
         <v>208</v>
@@ -21341,31 +21347,31 @@
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>223</v>
+        <v>49</v>
       </c>
       <c r="B63">
         <v>5</v>
       </c>
       <c r="C63" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E63">
-        <v>222</v>
+        <v>141</v>
       </c>
       <c r="F63">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="G63">
-        <v>298</v>
+        <v>221</v>
       </c>
       <c r="I63">
         <v>0</v>
       </c>
       <c r="J63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K63">
         <v>0</v>
@@ -21373,11 +21379,8 @@
       <c r="L63">
         <v>0</v>
       </c>
-      <c r="M63" t="s">
-        <v>1319</v>
-      </c>
       <c r="N63" t="s">
-        <v>1319</v>
+        <v>21</v>
       </c>
       <c r="O63" t="s">
         <v>26</v>
@@ -21397,31 +21400,28 @@
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B64">
         <v>5</v>
       </c>
       <c r="C64" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D64">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E64">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F64">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="G64">
-        <v>229</v>
-      </c>
-      <c r="H64" t="s">
-        <v>180</v>
+        <v>298</v>
       </c>
       <c r="I64">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="J64">
         <v>1</v>
@@ -21431,18 +21431,21 @@
       </c>
       <c r="L64">
         <v>0</v>
+      </c>
+      <c r="M64" t="s">
+        <v>1319</v>
       </c>
       <c r="N64" t="s">
         <v>1319</v>
       </c>
       <c r="O64" t="s">
-        <v>179</v>
+        <v>26</v>
       </c>
       <c r="Q64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S64" t="s">
         <v>208</v>
@@ -21453,7 +21456,7 @@
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>174</v>
+        <v>224</v>
       </c>
       <c r="B65">
         <v>5</v>
@@ -21465,22 +21468,22 @@
         <v>13</v>
       </c>
       <c r="E65">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="F65">
         <v>199</v>
       </c>
       <c r="G65">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="H65" t="s">
         <v>180</v>
       </c>
       <c r="I65">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="J65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K65">
         <v>0</v>
@@ -21509,29 +21512,31 @@
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>30</v>
+        <v>174</v>
       </c>
       <c r="B66">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C66" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D66">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E66">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="F66">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="G66">
-        <f>E66</f>
-        <v>220</v>
+        <v>235</v>
+      </c>
+      <c r="H66" t="s">
+        <v>180</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J66">
         <v>0</v>
@@ -21543,16 +21548,16 @@
         <v>0</v>
       </c>
       <c r="N66" t="s">
-        <v>677</v>
+        <v>1319</v>
       </c>
       <c r="O66" t="s">
-        <v>26</v>
+        <v>179</v>
       </c>
       <c r="Q66">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S66" t="s">
         <v>208</v>
@@ -21563,37 +21568,32 @@
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>546</v>
+        <v>30</v>
       </c>
       <c r="B67">
         <v>6</v>
       </c>
       <c r="C67" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D67">
         <v>20</v>
       </c>
       <c r="E67">
-        <f>E66+5</f>
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F67">
-        <f>F66</f>
         <v>190</v>
       </c>
       <c r="G67">
-        <f>E67+4</f>
-        <v>229</v>
-      </c>
-      <c r="H67" t="s">
-        <v>180</v>
+        <f>E67</f>
+        <v>220</v>
       </c>
       <c r="I67">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K67">
         <v>0</v>
@@ -21607,12 +21607,11 @@
       <c r="O67" t="s">
         <v>26</v>
       </c>
-      <c r="P67" s="1"/>
       <c r="Q67">
         <v>2</v>
       </c>
       <c r="R67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S67" t="s">
         <v>208</v>
@@ -21623,7 +21622,7 @@
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>1321</v>
+        <v>546</v>
       </c>
       <c r="B68">
         <v>6</v>
@@ -21635,8 +21634,8 @@
         <v>20</v>
       </c>
       <c r="E68">
-        <f>G67</f>
-        <v>229</v>
+        <f>E67+5</f>
+        <v>225</v>
       </c>
       <c r="F68">
         <f>F67</f>
@@ -21644,7 +21643,7 @@
       </c>
       <c r="G68">
         <f>E68+4</f>
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="H68" t="s">
         <v>180</v>
@@ -21653,7 +21652,7 @@
         <v>8</v>
       </c>
       <c r="J68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K68">
         <v>0</v>
@@ -21683,27 +21682,31 @@
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>210</v>
+        <v>1321</v>
       </c>
       <c r="B69">
         <v>6</v>
       </c>
       <c r="C69" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D69">
         <v>20</v>
       </c>
       <c r="E69">
-        <v>260</v>
+        <f>G68</f>
+        <v>229</v>
       </c>
       <c r="F69">
-        <f>D69+40</f>
-        <v>60</v>
+        <f>F68</f>
+        <v>190</v>
       </c>
       <c r="G69">
-        <f>E69+14</f>
-        <v>274</v>
+        <f>E69+4</f>
+        <v>233</v>
+      </c>
+      <c r="H69" t="s">
+        <v>180</v>
       </c>
       <c r="I69">
         <v>8</v>
@@ -21723,9 +21726,7 @@
       <c r="O69" t="s">
         <v>26</v>
       </c>
-      <c r="P69" s="6" t="s">
-        <v>1510</v>
-      </c>
+      <c r="P69" s="1"/>
       <c r="Q69">
         <v>2</v>
       </c>
@@ -21733,38 +21734,35 @@
         <v>1</v>
       </c>
       <c r="S69" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="T69">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B70">
         <v>6</v>
       </c>
       <c r="C70" t="s">
-        <v>205</v>
+        <v>25</v>
       </c>
       <c r="D70">
         <v>20</v>
       </c>
       <c r="E70">
-        <f>G69+5</f>
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="F70">
-        <f>F68</f>
-        <v>190</v>
+        <f>D70+40</f>
+        <v>60</v>
       </c>
       <c r="G70">
-        <v>288</v>
-      </c>
-      <c r="H70" t="s">
-        <v>180</v>
+        <f>E70+14</f>
+        <v>274</v>
       </c>
       <c r="I70">
         <v>8</v>
@@ -21776,7 +21774,7 @@
         <v>0</v>
       </c>
       <c r="L70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N70" t="s">
         <v>677</v>
@@ -21785,7 +21783,7 @@
         <v>26</v>
       </c>
       <c r="P70" s="6" t="s">
-        <v>209</v>
+        <v>1510</v>
       </c>
       <c r="Q70">
         <v>2</v>
@@ -21800,30 +21798,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>678</v>
+        <v>204</v>
       </c>
       <c r="B71">
         <v>6</v>
       </c>
       <c r="C71" t="s">
-        <v>27</v>
+        <v>205</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <f>G70+5</f>
+        <v>279</v>
       </c>
       <c r="F71">
-        <v>211</v>
+        <f>F69</f>
+        <v>190</v>
       </c>
       <c r="G71">
-        <v>298</v>
+        <v>288</v>
+      </c>
+      <c r="H71" t="s">
+        <v>180</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J71">
         <v>0</v>
@@ -21832,7 +21835,7 @@
         <v>0</v>
       </c>
       <c r="L71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N71" t="s">
         <v>677</v>
@@ -21840,22 +21843,78 @@
       <c r="O71" t="s">
         <v>26</v>
       </c>
+      <c r="P71" s="6" t="s">
+        <v>209</v>
+      </c>
       <c r="Q71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S71" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="T71">
         <v>0</v>
       </c>
     </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>678</v>
+      </c>
+      <c r="B72">
+        <v>6</v>
+      </c>
+      <c r="C72" t="s">
+        <v>27</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>211</v>
+      </c>
+      <c r="G72">
+        <v>298</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="N72" t="s">
+        <v>677</v>
+      </c>
+      <c r="O72" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q72">
+        <v>1</v>
+      </c>
+      <c r="R72" t="b">
+        <v>0</v>
+      </c>
+      <c r="S72" t="s">
+        <v>208</v>
+      </c>
+      <c r="T72">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:T68" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <conditionalFormatting sqref="A52:A53">
+  <autoFilter ref="A1:T69" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <conditionalFormatting sqref="A53:A54">
     <cfRule type="duplicateValues" dxfId="9" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -33391,11 +33450,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B25" sqref="B25"/>
+      <selection pane="bottomRight" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/process/configuration/templates/_report_configuration.xlsx
+++ b/process/configuration/templates/_report_configuration.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rmiteduau-my.sharepoint.com/personal/carl_higgs_rmit_edu_au/Documents/projects/global-indicators/process/configuration/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rmiteduau-my.sharepoint.com/personal/carl_higgs_rmit_edu_au/Documents/projects/global-indicators/process/configuration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="342" documentId="114_{57517418-E3A8-4D24-9644-27D04334BB89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE6CD053-7C18-45E7-B747-E669C22D447E}"/>
+  <xr:revisionPtr revIDLastSave="463" documentId="114_{57517418-E3A8-4D24-9644-27D04334BB89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC101E93-2D4E-4187-9241-05950E549E7B}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4642" uniqueCount="1712">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4623" uniqueCount="1709">
   <si>
     <t>name</t>
   </si>
@@ -5166,9 +5166,6 @@
     <t>region_box</t>
   </si>
   <si>
-    <t>region_context</t>
-  </si>
-  <si>
     <t>updated_translation</t>
   </si>
   <si>
@@ -5182,13 +5179,7 @@
 1000 Cities Challenge: {template} indicators</t>
   </si>
   <si>
-    <t>{city_name} context</t>
-  </si>
-  <si>
     <t>{city} context</t>
-  </si>
-  <si>
-    <t>{city_name}</t>
   </si>
   <si>
     <t>region_context_header1</t>
@@ -5986,9 +5977,12 @@
   </cellStyles>
   <dxfs count="11">
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6028,12 +6022,9 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6390,10 +6381,10 @@
   <dimension ref="A1:T191"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B170" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P19" sqref="P19"/>
+      <selection pane="bottomRight" activeCell="A197" sqref="A197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17741,10 +17732,10 @@
   <dimension ref="A1:T72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A31" sqref="A31"/>
+      <selection pane="bottomRight" activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17877,7 +17868,7 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>-999</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -19076,7 +19067,7 @@
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1711</v>
+        <v>1708</v>
       </c>
       <c r="B24">
         <v>3</v>
@@ -19085,19 +19076,20 @@
         <v>25</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <f>D22</f>
+        <v>7</v>
       </c>
       <c r="E24">
-        <f>E23</f>
-        <v>41</v>
+        <f>G24-(F24/192)*144</f>
+        <v>64.25</v>
       </c>
       <c r="F24">
-        <f>D25</f>
-        <v>134</v>
+        <f>D25-5</f>
+        <v>129</v>
       </c>
       <c r="G24">
-        <f>F24/192*144</f>
-        <v>100.5</v>
+        <f>G25</f>
+        <v>161</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -19189,7 +19181,7 @@
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1671</v>
+        <v>18</v>
       </c>
       <c r="B26">
         <v>3</v>
@@ -19234,7 +19226,7 @@
         <v>26</v>
       </c>
       <c r="P26" t="s">
-        <v>1677</v>
+        <v>1675</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -19251,7 +19243,7 @@
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1679</v>
+        <v>1676</v>
       </c>
       <c r="B27">
         <v>3</v>
@@ -19311,7 +19303,7 @@
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1680</v>
+        <v>1677</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -19371,7 +19363,7 @@
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1681</v>
+        <v>1678</v>
       </c>
       <c r="B29">
         <v>3</v>
@@ -19431,7 +19423,7 @@
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1682</v>
+        <v>1679</v>
       </c>
       <c r="B30">
         <v>3</v>
@@ -19491,7 +19483,7 @@
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1683</v>
+        <v>1680</v>
       </c>
       <c r="B31">
         <v>3</v>
@@ -19500,7 +19492,7 @@
         <v>19</v>
       </c>
       <c r="D31">
-        <f t="shared" ref="D31:D40" si="3">$D$26</f>
+        <f>$D$26</f>
         <v>135</v>
       </c>
       <c r="E31">
@@ -19551,7 +19543,7 @@
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1684</v>
+        <v>1681</v>
       </c>
       <c r="B32">
         <v>3</v>
@@ -19560,7 +19552,7 @@
         <v>19</v>
       </c>
       <c r="D32">
-        <f t="shared" si="3"/>
+        <f>$D$26</f>
         <v>135</v>
       </c>
       <c r="E32">
@@ -19611,7 +19603,7 @@
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1685</v>
+        <v>1682</v>
       </c>
       <c r="B33">
         <v>3</v>
@@ -19620,7 +19612,7 @@
         <v>19</v>
       </c>
       <c r="D33">
-        <f t="shared" si="3"/>
+        <f>$D$26</f>
         <v>135</v>
       </c>
       <c r="E33">
@@ -19671,7 +19663,7 @@
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1686</v>
+        <v>1683</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -19680,7 +19672,7 @@
         <v>19</v>
       </c>
       <c r="D34">
-        <f t="shared" si="3"/>
+        <f>$D$26</f>
         <v>135</v>
       </c>
       <c r="E34">
@@ -19731,7 +19723,7 @@
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1687</v>
+        <v>1684</v>
       </c>
       <c r="B35">
         <v>3</v>
@@ -19740,7 +19732,7 @@
         <v>19</v>
       </c>
       <c r="D35">
-        <f t="shared" si="3"/>
+        <f>$D$26</f>
         <v>135</v>
       </c>
       <c r="E35">
@@ -19791,7 +19783,7 @@
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>1688</v>
+        <v>1685</v>
       </c>
       <c r="B36">
         <v>3</v>
@@ -19800,7 +19792,7 @@
         <v>19</v>
       </c>
       <c r="D36">
-        <f t="shared" si="3"/>
+        <f>$D$26</f>
         <v>135</v>
       </c>
       <c r="E36">
@@ -19851,7 +19843,7 @@
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>1689</v>
+        <v>1686</v>
       </c>
       <c r="B37">
         <v>3</v>
@@ -19860,7 +19852,7 @@
         <v>19</v>
       </c>
       <c r="D37">
-        <f t="shared" si="3"/>
+        <f>$D$26</f>
         <v>135</v>
       </c>
       <c r="E37">
@@ -19911,7 +19903,7 @@
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>1690</v>
+        <v>1687</v>
       </c>
       <c r="B38">
         <v>3</v>
@@ -19920,7 +19912,7 @@
         <v>19</v>
       </c>
       <c r="D38">
-        <f t="shared" si="3"/>
+        <f>$D$26</f>
         <v>135</v>
       </c>
       <c r="E38">
@@ -19971,7 +19963,7 @@
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>1691</v>
+        <v>1688</v>
       </c>
       <c r="B39">
         <v>3</v>
@@ -19980,7 +19972,7 @@
         <v>19</v>
       </c>
       <c r="D39">
-        <f t="shared" si="3"/>
+        <f>$D$26</f>
         <v>135</v>
       </c>
       <c r="E39">
@@ -20031,7 +20023,7 @@
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>1692</v>
+        <v>1689</v>
       </c>
       <c r="B40">
         <v>3</v>
@@ -20040,7 +20032,7 @@
         <v>19</v>
       </c>
       <c r="D40">
-        <f t="shared" si="3"/>
+        <f>$D$26</f>
         <v>135</v>
       </c>
       <c r="E40">
@@ -20317,40 +20309,37 @@
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B45">
         <v>3</v>
       </c>
       <c r="C45" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D45">
-        <v>100</v>
+        <f>D46-2</f>
+        <v>98</v>
       </c>
       <c r="E45">
-        <f>E43</f>
-        <v>203</v>
+        <f>G45-90</f>
+        <v>193</v>
       </c>
       <c r="F45">
-        <f>D45+92</f>
-        <v>192</v>
+        <f>D45+90</f>
+        <v>188</v>
       </c>
       <c r="G45">
-        <f>E45+3</f>
-        <v>206</v>
-      </c>
-      <c r="H45" t="s">
-        <v>180</v>
+        <v>283</v>
       </c>
       <c r="I45">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J45">
         <v>0</v>
       </c>
       <c r="K45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L45">
         <v>0</v>
@@ -20362,10 +20351,10 @@
         <v>26</v>
       </c>
       <c r="Q45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S45" t="s">
         <v>208</v>
@@ -20376,38 +20365,40 @@
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B46">
         <v>3</v>
       </c>
       <c r="C46" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D46">
-        <f>D45-2</f>
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E46">
-        <f>E45</f>
-        <v>203</v>
+        <f>E44</f>
+        <v>283</v>
       </c>
       <c r="F46">
-        <f>D46+90</f>
-        <v>188</v>
+        <f>D46+92</f>
+        <v>192</v>
       </c>
       <c r="G46">
-        <f>E46+90</f>
-        <v>293</v>
+        <f>E46+3</f>
+        <v>286</v>
+      </c>
+      <c r="H46" t="s">
+        <v>180</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J46">
         <v>0</v>
       </c>
       <c r="K46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L46">
         <v>0</v>
@@ -20419,10 +20410,10 @@
         <v>26</v>
       </c>
       <c r="Q46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S46" t="s">
         <v>208</v>
@@ -21930,10 +21921,10 @@
   <dimension ref="A1:T194"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B149" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A28" sqref="A28"/>
+      <selection pane="bottomRight" activeCell="A188" sqref="A188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33448,13 +33439,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:U98"/>
+  <dimension ref="A1:U97"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C24" sqref="C24"/>
+      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33573,16 +33564,16 @@
         <v>191</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>1709</v>
+        <v>1706</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>1710</v>
+        <v>1707</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>1708</v>
+        <v>1705</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>1708</v>
+        <v>1705</v>
       </c>
       <c r="Q2" s="9" t="s">
         <v>1216</v>
@@ -33601,7 +33592,7 @@
         <v>143</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="C3" s="13">
         <v>0</v>
@@ -33848,55 +33839,55 @@
         <v>311</v>
       </c>
       <c r="C7" s="10" t="s">
+        <v>1690</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>1691</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>1692</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>1693</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="G7" s="10" t="s">
         <v>1694</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="H7" s="9" t="s">
         <v>1695</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="I7" s="17" t="s">
         <v>1696</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="J7" s="9" t="s">
         <v>1697</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="K7" s="17" t="s">
         <v>1698</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="L7" s="17" t="s">
         <v>1699</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="M7" s="9" t="s">
         <v>1700</v>
       </c>
-      <c r="K7" s="17" t="s">
+      <c r="N7" s="9" t="s">
+        <v>1700</v>
+      </c>
+      <c r="O7" s="9" t="s">
         <v>1701</v>
       </c>
-      <c r="L7" s="17" t="s">
+      <c r="P7" s="9" t="s">
+        <v>1701</v>
+      </c>
+      <c r="Q7" s="9" t="s">
         <v>1702</v>
       </c>
-      <c r="M7" s="9" t="s">
+      <c r="R7" s="9" t="s">
         <v>1703</v>
       </c>
-      <c r="N7" s="9" t="s">
-        <v>1703</v>
-      </c>
-      <c r="O7" s="9" t="s">
+      <c r="S7" s="9" t="s">
         <v>1704</v>
-      </c>
-      <c r="P7" s="9" t="s">
-        <v>1704</v>
-      </c>
-      <c r="Q7" s="9" t="s">
-        <v>1705</v>
-      </c>
-      <c r="R7" s="9" t="s">
-        <v>1706</v>
-      </c>
-      <c r="S7" s="9" t="s">
-        <v>1707</v>
       </c>
       <c r="T7" s="9"/>
       <c r="U7" s="9"/>
@@ -33909,7 +33900,7 @@
         <v>23</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>556</v>
@@ -34269,61 +34260,61 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>1671</v>
+        <v>147</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>1676</v>
+        <v>147</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>1678</v>
+        <v>352</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>1678</v>
+        <v>723</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>1678</v>
+        <v>1177</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>1678</v>
+        <v>960</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>1678</v>
+        <v>1082</v>
       </c>
       <c r="I14" s="17" t="s">
-        <v>1678</v>
+        <v>870</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>1678</v>
+        <v>393</v>
       </c>
       <c r="K14" s="17" t="s">
-        <v>1678</v>
+        <v>1019</v>
       </c>
       <c r="L14" s="17" t="s">
-        <v>1678</v>
+        <v>1432</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>1678</v>
+        <v>369</v>
       </c>
       <c r="N14" s="9" t="s">
-        <v>1678</v>
+        <v>248</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>1678</v>
+        <v>831</v>
       </c>
       <c r="P14" s="9" t="s">
-        <v>1678</v>
+        <v>269</v>
       </c>
       <c r="Q14" s="9" t="s">
-        <v>1678</v>
+        <v>327</v>
       </c>
       <c r="R14" s="9" t="s">
-        <v>1678</v>
+        <v>287</v>
       </c>
       <c r="S14" s="9" t="s">
-        <v>1678</v>
+        <v>315</v>
       </c>
       <c r="T14" s="9"/>
       <c r="U14" s="9"/>
@@ -34333,58 +34324,58 @@
         <v>144</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>147</v>
+        <v>221</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>147</v>
+        <v>221</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>352</v>
+        <v>557</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>723</v>
+        <v>297</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>1177</v>
+        <v>297</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>1082</v>
+        <v>1170</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>870</v>
+        <v>428</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>393</v>
+        <v>1386</v>
       </c>
       <c r="K15" s="17" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="L15" s="17" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N15" s="9" t="s">
-        <v>248</v>
+        <v>578</v>
       </c>
       <c r="O15" s="9" t="s">
-        <v>831</v>
+        <v>249</v>
       </c>
       <c r="P15" s="9" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="Q15" s="9" t="s">
-        <v>327</v>
+        <v>1217</v>
       </c>
       <c r="R15" s="9" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="S15" s="9" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="T15" s="9"/>
       <c r="U15" s="9"/>
@@ -34394,58 +34385,58 @@
         <v>144</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>221</v>
+        <v>148</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>221</v>
+        <v>148</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>557</v>
+        <v>353</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>297</v>
+        <v>724</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>1170</v>
+        <v>1083</v>
       </c>
       <c r="I16" s="17" t="s">
-        <v>428</v>
+        <v>1405</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>1386</v>
+        <v>1381</v>
       </c>
       <c r="K16" s="17" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="L16" s="17" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>370</v>
+        <v>225</v>
       </c>
       <c r="N16" s="9" t="s">
-        <v>578</v>
+        <v>225</v>
       </c>
       <c r="O16" s="9" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="P16" s="9" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q16" s="9" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="R16" s="9" t="s">
-        <v>288</v>
+        <v>602</v>
       </c>
       <c r="S16" s="9" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="T16" s="9"/>
       <c r="U16" s="9"/>
@@ -34455,363 +34446,363 @@
         <v>144</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>1083</v>
+        <v>216</v>
       </c>
       <c r="I17" s="17" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>1381</v>
+        <v>394</v>
       </c>
       <c r="K17" s="17" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="L17" s="17" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="M17" s="9" t="s">
-        <v>225</v>
+        <v>371</v>
       </c>
       <c r="N17" s="9" t="s">
-        <v>225</v>
+        <v>371</v>
       </c>
       <c r="O17" s="9" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="P17" s="9" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q17" s="9" t="s">
-        <v>1218</v>
+        <v>328</v>
       </c>
       <c r="R17" s="9" t="s">
-        <v>602</v>
+        <v>289</v>
       </c>
       <c r="S17" s="9" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="T17" s="9"/>
       <c r="U17" s="9"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>144</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>299</v>
+        <v>726</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I18" s="17" t="s">
-        <v>1406</v>
+        <v>871</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>394</v>
+        <v>1382</v>
       </c>
       <c r="K18" s="17" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="L18" s="17" t="s">
-        <v>1435</v>
+        <v>1489</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>371</v>
+        <v>226</v>
       </c>
       <c r="N18" s="9" t="s">
-        <v>371</v>
+        <v>226</v>
       </c>
       <c r="O18" s="9" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="P18" s="9" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="Q18" s="9" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="R18" s="9" t="s">
-        <v>289</v>
+        <v>603</v>
       </c>
       <c r="S18" s="9" t="s">
-        <v>318</v>
+        <v>916</v>
       </c>
       <c r="T18" s="9"/>
       <c r="U18" s="9"/>
     </row>
-    <row r="19" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>144</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>726</v>
+        <v>300</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>217</v>
+        <v>1084</v>
       </c>
       <c r="I19" s="17" t="s">
-        <v>871</v>
+        <v>429</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>1382</v>
+        <v>395</v>
       </c>
       <c r="K19" s="17" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="L19" s="17" t="s">
-        <v>1489</v>
+        <v>1436</v>
       </c>
       <c r="M19" s="9" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N19" s="9" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O19" s="9" t="s">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c r="P19" s="9" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q19" s="9" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="R19" s="9" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="S19" s="9" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="T19" s="9"/>
       <c r="U19" s="9"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>144</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>300</v>
+        <v>728</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="I20" s="17" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="K20" s="17" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="L20" s="17" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="M20" s="9" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N20" s="9" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O20" s="9" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="P20" s="9" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q20" s="9" t="s">
-        <v>330</v>
+        <v>1219</v>
       </c>
       <c r="R20" s="9" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="S20" s="9" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="T20" s="9"/>
       <c r="U20" s="9"/>
     </row>
-    <row r="21" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>144</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>151</v>
+        <v>1168</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>357</v>
+        <v>558</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>966</v>
+        <v>1299</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="I21" s="17" t="s">
-        <v>430</v>
+        <v>872</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>396</v>
+        <v>1204</v>
       </c>
       <c r="K21" s="17" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="L21" s="17" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="M21" s="9" t="s">
-        <v>228</v>
+        <v>596</v>
       </c>
       <c r="N21" s="9" t="s">
-        <v>228</v>
+        <v>372</v>
       </c>
       <c r="O21" s="9" t="s">
-        <v>253</v>
+        <v>832</v>
       </c>
       <c r="P21" s="9" t="s">
-        <v>272</v>
+        <v>819</v>
       </c>
       <c r="Q21" s="9" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="R21" s="9" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="S21" s="9" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="T21" s="9"/>
       <c r="U21" s="9"/>
     </row>
-    <row r="22" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>144</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>1168</v>
+        <v>154</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>730</v>
+        <v>301</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>731</v>
+        <v>301</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>1299</v>
+        <v>967</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>1086</v>
+        <v>218</v>
       </c>
       <c r="I22" s="17" t="s">
-        <v>872</v>
+        <v>431</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>1204</v>
+        <v>397</v>
       </c>
       <c r="K22" s="17" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="L22" s="17" t="s">
-        <v>1438</v>
+        <v>470</v>
       </c>
       <c r="M22" s="9" t="s">
-        <v>596</v>
+        <v>229</v>
       </c>
       <c r="N22" s="9" t="s">
-        <v>372</v>
+        <v>579</v>
       </c>
       <c r="O22" s="9" t="s">
-        <v>832</v>
+        <v>559</v>
       </c>
       <c r="P22" s="9" t="s">
-        <v>819</v>
+        <v>254</v>
       </c>
       <c r="Q22" s="9" t="s">
-        <v>1220</v>
+        <v>331</v>
       </c>
       <c r="R22" s="9" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="S22" s="9" t="s">
-        <v>919</v>
+        <v>319</v>
       </c>
       <c r="T22" s="9"/>
       <c r="U22" s="9"/>
@@ -34821,58 +34812,58 @@
         <v>144</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>559</v>
+        <v>358</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>301</v>
+        <v>732</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>301</v>
+        <v>732</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>218</v>
+        <v>1087</v>
       </c>
       <c r="I23" s="17" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K23" s="17" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="L23" s="17" t="s">
-        <v>470</v>
+        <v>1439</v>
       </c>
       <c r="M23" s="9" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N23" s="9" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="O23" s="9" t="s">
-        <v>559</v>
+        <v>255</v>
       </c>
       <c r="P23" s="9" t="s">
-        <v>254</v>
+        <v>820</v>
       </c>
       <c r="Q23" s="9" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="R23" s="9" t="s">
-        <v>607</v>
+        <v>290</v>
       </c>
       <c r="S23" s="9" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="T23" s="9"/>
       <c r="U23" s="9"/>
@@ -34882,180 +34873,180 @@
         <v>144</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>358</v>
+        <v>560</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>732</v>
+        <v>302</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>732</v>
+        <v>302</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>1087</v>
+        <v>219</v>
       </c>
       <c r="I24" s="17" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K24" s="17" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="L24" s="17" t="s">
-        <v>1439</v>
+        <v>471</v>
       </c>
       <c r="M24" s="9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N24" s="9" t="s">
-        <v>580</v>
+        <v>560</v>
       </c>
       <c r="O24" s="9" t="s">
-        <v>255</v>
+        <v>560</v>
       </c>
       <c r="P24" s="9" t="s">
-        <v>820</v>
+        <v>231</v>
       </c>
       <c r="Q24" s="9" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="R24" s="9" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S24" s="9" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="T24" s="9"/>
       <c r="U24" s="9"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
         <v>144</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>156</v>
+        <v>384</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>560</v>
+        <v>422</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>302</v>
+        <v>733</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>302</v>
+        <v>733</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>219</v>
+        <v>1088</v>
       </c>
       <c r="I25" s="17" t="s">
-        <v>433</v>
+        <v>873</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K25" s="17" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="L25" s="17" t="s">
-        <v>471</v>
+        <v>1440</v>
       </c>
       <c r="M25" s="9" t="s">
-        <v>231</v>
+        <v>385</v>
       </c>
       <c r="N25" s="9" t="s">
-        <v>560</v>
+        <v>383</v>
       </c>
       <c r="O25" s="9" t="s">
-        <v>560</v>
+        <v>833</v>
       </c>
       <c r="P25" s="9" t="s">
-        <v>231</v>
+        <v>416</v>
       </c>
       <c r="Q25" s="9" t="s">
-        <v>333</v>
+        <v>1221</v>
       </c>
       <c r="R25" s="9" t="s">
-        <v>291</v>
+        <v>608</v>
       </c>
       <c r="S25" s="9" t="s">
-        <v>321</v>
+        <v>466</v>
       </c>
       <c r="T25" s="9"/>
       <c r="U25" s="9"/>
     </row>
-    <row r="26" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
         <v>144</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>384</v>
+        <v>199</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>422</v>
+        <v>714</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>733</v>
+        <v>1145</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>733</v>
+        <v>1146</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="I26" s="17" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>400</v>
+        <v>1154</v>
       </c>
       <c r="K26" s="17" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="L26" s="17" t="s">
-        <v>1440</v>
+        <v>1493</v>
       </c>
       <c r="M26" s="9" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N26" s="9" t="s">
-        <v>383</v>
+        <v>647</v>
       </c>
       <c r="O26" s="9" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="P26" s="9" t="s">
-        <v>416</v>
+        <v>1128</v>
       </c>
       <c r="Q26" s="9" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="R26" s="9" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="S26" s="9" t="s">
-        <v>466</v>
+        <v>920</v>
       </c>
       <c r="T26" s="9"/>
       <c r="U26" s="9"/>
@@ -35065,119 +35056,119 @@
         <v>144</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>714</v>
+        <v>561</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>1145</v>
+        <v>734</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>1146</v>
+        <v>735</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="I27" s="17" t="s">
-        <v>874</v>
+        <v>1407</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="K27" s="17" t="s">
-        <v>1031</v>
+        <v>1317</v>
       </c>
       <c r="L27" s="17" t="s">
-        <v>1493</v>
+        <v>1441</v>
       </c>
       <c r="M27" s="9" t="s">
-        <v>386</v>
+        <v>469</v>
       </c>
       <c r="N27" s="9" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="O27" s="9" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="P27" s="9" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="Q27" s="9" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="R27" s="9" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="S27" s="9" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="T27" s="9"/>
       <c r="U27" s="9"/>
     </row>
-    <row r="28" spans="1:21" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
         <v>144</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>159</v>
+        <v>450</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>201</v>
+        <v>1322</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>561</v>
+        <v>1323</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>734</v>
+        <v>1630</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>735</v>
+        <v>1664</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>972</v>
+        <v>1324</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>1090</v>
+        <v>1403</v>
       </c>
       <c r="I28" s="17" t="s">
-        <v>1407</v>
+        <v>1325</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>1155</v>
+        <v>1326</v>
       </c>
       <c r="K28" s="17" t="s">
-        <v>1317</v>
+        <v>1327</v>
       </c>
       <c r="L28" s="17" t="s">
-        <v>1441</v>
+        <v>1667</v>
       </c>
       <c r="M28" s="9" t="s">
-        <v>469</v>
+        <v>1328</v>
       </c>
       <c r="N28" s="9" t="s">
-        <v>648</v>
+        <v>1329</v>
       </c>
       <c r="O28" s="9" t="s">
-        <v>835</v>
+        <v>1330</v>
       </c>
       <c r="P28" s="9" t="s">
-        <v>1129</v>
+        <v>1331</v>
       </c>
       <c r="Q28" s="9" t="s">
-        <v>1223</v>
+        <v>1332</v>
       </c>
       <c r="R28" s="9" t="s">
-        <v>610</v>
+        <v>1263</v>
       </c>
       <c r="S28" s="9" t="s">
-        <v>921</v>
+        <v>1333</v>
       </c>
       <c r="T28" s="9"/>
       <c r="U28" s="9"/>
@@ -35187,58 +35178,58 @@
         <v>144</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>1322</v>
+        <v>1334</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>1323</v>
+        <v>1335</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>1324</v>
+        <v>1336</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>1403</v>
+        <v>1666</v>
       </c>
       <c r="I29" s="17" t="s">
-        <v>1325</v>
+        <v>1337</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>1326</v>
+        <v>1338</v>
       </c>
       <c r="K29" s="17" t="s">
-        <v>1327</v>
+        <v>1339</v>
       </c>
       <c r="L29" s="17" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="M29" s="9" t="s">
-        <v>1328</v>
+        <v>1340</v>
       </c>
       <c r="N29" s="9" t="s">
-        <v>1329</v>
+        <v>1341</v>
       </c>
       <c r="O29" s="9" t="s">
-        <v>1330</v>
+        <v>1342</v>
       </c>
       <c r="P29" s="9" t="s">
-        <v>1331</v>
+        <v>1343</v>
       </c>
       <c r="Q29" s="9" t="s">
-        <v>1332</v>
+        <v>1344</v>
       </c>
       <c r="R29" s="9" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="S29" s="9" t="s">
-        <v>1333</v>
+        <v>1345</v>
       </c>
       <c r="T29" s="9"/>
       <c r="U29" s="9"/>
@@ -35248,241 +35239,241 @@
         <v>144</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>1334</v>
+        <v>1346</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>1335</v>
+        <v>1347</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>1631</v>
+        <v>1348</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>1665</v>
+        <v>1349</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>1336</v>
+        <v>1350</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>1666</v>
+        <v>1351</v>
       </c>
       <c r="I30" s="17" t="s">
-        <v>1337</v>
+        <v>1352</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>1338</v>
+        <v>1353</v>
       </c>
       <c r="K30" s="17" t="s">
-        <v>1339</v>
+        <v>1354</v>
       </c>
       <c r="L30" s="17" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="M30" s="9" t="s">
-        <v>1340</v>
+        <v>1355</v>
       </c>
       <c r="N30" s="9" t="s">
-        <v>1341</v>
+        <v>1356</v>
       </c>
       <c r="O30" s="9" t="s">
-        <v>1342</v>
+        <v>1357</v>
       </c>
       <c r="P30" s="9" t="s">
-        <v>1343</v>
+        <v>1358</v>
       </c>
       <c r="Q30" s="9" t="s">
-        <v>1344</v>
+        <v>1359</v>
       </c>
       <c r="R30" s="9" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="S30" s="9" t="s">
-        <v>1345</v>
+        <v>1360</v>
       </c>
       <c r="T30" s="9"/>
       <c r="U30" s="9"/>
     </row>
-    <row r="31" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
         <v>144</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>449</v>
+        <v>160</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>1346</v>
+        <v>160</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>1347</v>
+        <v>359</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>1348</v>
+        <v>736</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>1349</v>
+        <v>737</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>1350</v>
+        <v>973</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>1351</v>
+        <v>1091</v>
       </c>
       <c r="I31" s="17" t="s">
-        <v>1352</v>
+        <v>875</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>1353</v>
+        <v>401</v>
       </c>
       <c r="K31" s="17" t="s">
-        <v>1354</v>
+        <v>1032</v>
       </c>
       <c r="L31" s="17" t="s">
-        <v>1669</v>
+        <v>1442</v>
       </c>
       <c r="M31" s="9" t="s">
-        <v>1355</v>
+        <v>232</v>
       </c>
       <c r="N31" s="9" t="s">
-        <v>1356</v>
+        <v>232</v>
       </c>
       <c r="O31" s="9" t="s">
-        <v>1357</v>
+        <v>232</v>
       </c>
       <c r="P31" s="9" t="s">
-        <v>1358</v>
+        <v>232</v>
       </c>
       <c r="Q31" s="9" t="s">
-        <v>1359</v>
+        <v>1224</v>
       </c>
       <c r="R31" s="9" t="s">
-        <v>1262</v>
+        <v>292</v>
       </c>
       <c r="S31" s="9" t="s">
-        <v>1360</v>
+        <v>322</v>
       </c>
       <c r="T31" s="9"/>
       <c r="U31" s="9"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
         <v>144</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>160</v>
+        <v>1208</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>359</v>
+        <v>1209</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>973</v>
+        <v>1210</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>1091</v>
+        <v>1211</v>
       </c>
       <c r="I32" s="17" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>401</v>
+        <v>1215</v>
       </c>
       <c r="K32" s="17" t="s">
-        <v>1032</v>
+        <v>1212</v>
       </c>
       <c r="L32" s="17" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="M32" s="9" t="s">
-        <v>232</v>
+        <v>1206</v>
       </c>
       <c r="N32" s="9" t="s">
-        <v>232</v>
+        <v>1207</v>
       </c>
       <c r="O32" s="9" t="s">
-        <v>232</v>
+        <v>1657</v>
       </c>
       <c r="P32" s="9" t="s">
-        <v>232</v>
+        <v>1213</v>
       </c>
       <c r="Q32" s="9" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="R32" s="9" t="s">
-        <v>292</v>
+        <v>1258</v>
       </c>
       <c r="S32" s="9" t="s">
-        <v>322</v>
+        <v>1214</v>
       </c>
       <c r="T32" s="9"/>
       <c r="U32" s="9"/>
     </row>
-    <row r="33" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
         <v>144</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>1208</v>
+        <v>389</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>1209</v>
+        <v>562</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>738</v>
+        <v>418</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>1210</v>
+        <v>975</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>1211</v>
+        <v>1092</v>
       </c>
       <c r="I33" s="17" t="s">
-        <v>876</v>
+        <v>434</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>1215</v>
+        <v>403</v>
       </c>
       <c r="K33" s="17" t="s">
-        <v>1212</v>
+        <v>1034</v>
       </c>
       <c r="L33" s="17" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="M33" s="9" t="s">
-        <v>1206</v>
+        <v>597</v>
       </c>
       <c r="N33" s="9" t="s">
-        <v>1207</v>
+        <v>581</v>
       </c>
       <c r="O33" s="9" t="s">
-        <v>1657</v>
+        <v>415</v>
       </c>
       <c r="P33" s="9" t="s">
-        <v>1213</v>
+        <v>415</v>
       </c>
       <c r="Q33" s="9" t="s">
-        <v>1225</v>
+        <v>420</v>
       </c>
       <c r="R33" s="9" t="s">
-        <v>1258</v>
+        <v>612</v>
       </c>
       <c r="S33" s="9" t="s">
-        <v>1214</v>
+        <v>922</v>
       </c>
       <c r="T33" s="9"/>
       <c r="U33" s="9"/>
@@ -35492,359 +35483,359 @@
         <v>144</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>418</v>
+        <v>741</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="I34" s="17" t="s">
-        <v>434</v>
+        <v>877</v>
       </c>
       <c r="J34" s="9" t="s">
-        <v>403</v>
+        <v>1199</v>
       </c>
       <c r="K34" s="17" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="L34" s="17" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="M34" s="9" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="N34" s="9" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="O34" s="9" t="s">
-        <v>415</v>
+        <v>836</v>
       </c>
       <c r="P34" s="9" t="s">
-        <v>415</v>
+        <v>1130</v>
       </c>
       <c r="Q34" s="9" t="s">
-        <v>420</v>
+        <v>1226</v>
       </c>
       <c r="R34" s="9" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="S34" s="9" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="T34" s="9"/>
       <c r="U34" s="9"/>
     </row>
-    <row r="35" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
         <v>144</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>390</v>
+        <v>441</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>563</v>
+        <v>679</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="I35" s="17" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>1199</v>
+        <v>1156</v>
       </c>
       <c r="K35" s="17" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="L35" s="17" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="M35" s="9" t="s">
-        <v>598</v>
+        <v>457</v>
       </c>
       <c r="N35" s="9" t="s">
-        <v>582</v>
+        <v>457</v>
       </c>
       <c r="O35" s="9" t="s">
-        <v>836</v>
+        <v>856</v>
       </c>
       <c r="P35" s="9" t="s">
-        <v>1130</v>
+        <v>828</v>
       </c>
       <c r="Q35" s="9" t="s">
-        <v>1226</v>
+        <v>462</v>
       </c>
       <c r="R35" s="9" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="S35" s="9" t="s">
-        <v>923</v>
+        <v>467</v>
       </c>
       <c r="T35" s="9"/>
       <c r="U35" s="9"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>181</v>
+        <v>67</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>441</v>
+        <v>815</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>679</v>
+        <v>564</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>743</v>
+        <v>815</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>744</v>
+        <v>815</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>1094</v>
+        <v>816</v>
       </c>
       <c r="I36" s="17" t="s">
-        <v>878</v>
+        <v>1408</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="K36" s="17" t="s">
-        <v>1036</v>
-      </c>
-      <c r="L36" s="17" t="s">
-        <v>1446</v>
-      </c>
+        <v>1037</v>
+      </c>
+      <c r="L36" s="17"/>
       <c r="M36" s="9" t="s">
-        <v>457</v>
+        <v>599</v>
       </c>
       <c r="N36" s="9" t="s">
-        <v>457</v>
+        <v>583</v>
       </c>
       <c r="O36" s="9" t="s">
-        <v>856</v>
+        <v>1658</v>
       </c>
       <c r="P36" s="9" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="Q36" s="9" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="R36" s="9" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="S36" s="9" t="s">
-        <v>467</v>
+        <v>924</v>
       </c>
       <c r="T36" s="9"/>
       <c r="U36" s="9"/>
     </row>
-    <row r="37" spans="1:21" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
         <v>143</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>67</v>
+        <v>178</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="I37" s="17" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="K37" s="17" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="L37" s="17"/>
       <c r="M37" s="9" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="O37" s="9" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="P37" s="9" t="s">
-        <v>821</v>
+        <v>460</v>
       </c>
       <c r="Q37" s="9" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="R37" s="9" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="S37" s="9" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="T37" s="9"/>
       <c r="U37" s="9"/>
     </row>
-    <row r="38" spans="1:21" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
         <v>143</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>178</v>
+        <v>31</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>817</v>
+        <v>476</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>817</v>
+        <v>745</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>817</v>
+        <v>746</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>818</v>
+        <v>1492</v>
       </c>
       <c r="I38" s="17" t="s">
-        <v>1409</v>
+        <v>868</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>1158</v>
+        <v>481</v>
       </c>
       <c r="K38" s="17" t="s">
-        <v>1038</v>
-      </c>
-      <c r="L38" s="17"/>
+        <v>1039</v>
+      </c>
+      <c r="L38" s="17" t="s">
+        <v>1430</v>
+      </c>
       <c r="M38" s="9" t="s">
-        <v>600</v>
+        <v>477</v>
       </c>
       <c r="N38" s="9" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="O38" s="9" t="s">
-        <v>1659</v>
+        <v>829</v>
       </c>
       <c r="P38" s="9" t="s">
-        <v>460</v>
+        <v>478</v>
       </c>
       <c r="Q38" s="9" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="R38" s="9" t="s">
-        <v>616</v>
+        <v>480</v>
       </c>
       <c r="S38" s="9" t="s">
-        <v>925</v>
+        <v>914</v>
       </c>
       <c r="T38" s="9"/>
       <c r="U38" s="9"/>
     </row>
-    <row r="39" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" ht="238.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
         <v>143</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>31</v>
+        <v>175</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>476</v>
+        <v>1672</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>566</v>
+        <v>1413</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>745</v>
+        <v>1632</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>746</v>
+        <v>1633</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>980</v>
+        <v>1414</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>1492</v>
+        <v>1614</v>
       </c>
       <c r="I39" s="17" t="s">
-        <v>868</v>
+        <v>1415</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>481</v>
+        <v>1416</v>
       </c>
       <c r="K39" s="17" t="s">
-        <v>1039</v>
+        <v>1417</v>
       </c>
       <c r="L39" s="17" t="s">
-        <v>1430</v>
+        <v>1447</v>
       </c>
       <c r="M39" s="9" t="s">
-        <v>477</v>
+        <v>1418</v>
       </c>
       <c r="N39" s="9" t="s">
-        <v>585</v>
+        <v>1419</v>
       </c>
       <c r="O39" s="9" t="s">
-        <v>829</v>
+        <v>1650</v>
       </c>
       <c r="P39" s="9" t="s">
-        <v>478</v>
+        <v>1420</v>
       </c>
       <c r="Q39" s="9" t="s">
-        <v>479</v>
+        <v>1421</v>
       </c>
       <c r="R39" s="9" t="s">
-        <v>480</v>
+        <v>1393</v>
       </c>
       <c r="S39" s="9" t="s">
-        <v>914</v>
+        <v>1662</v>
       </c>
       <c r="T39" s="9"/>
       <c r="U39" s="9"/>
@@ -35854,180 +35845,180 @@
         <v>143</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>175</v>
+        <v>222</v>
       </c>
       <c r="C40" s="10" t="s">
         <v>1673</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>1413</v>
+        <v>1422</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>1632</v>
+        <v>1634</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>1633</v>
+        <v>1635</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>1414</v>
+        <v>1623</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="I40" s="17" t="s">
-        <v>1415</v>
+        <v>1423</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>1416</v>
+        <v>1424</v>
       </c>
       <c r="K40" s="17" t="s">
-        <v>1417</v>
-      </c>
-      <c r="L40" s="17" t="s">
-        <v>1447</v>
+        <v>1425</v>
+      </c>
+      <c r="L40" s="22" t="s">
+        <v>1448</v>
       </c>
       <c r="M40" s="9" t="s">
-        <v>1418</v>
+        <v>1426</v>
       </c>
       <c r="N40" s="9" t="s">
-        <v>1419</v>
+        <v>1427</v>
       </c>
       <c r="O40" s="9" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="P40" s="9" t="s">
-        <v>1420</v>
+        <v>1428</v>
       </c>
       <c r="Q40" s="9" t="s">
-        <v>1421</v>
+        <v>1429</v>
       </c>
       <c r="R40" s="9" t="s">
-        <v>1393</v>
+        <v>1304</v>
       </c>
       <c r="S40" s="9" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="T40" s="9"/>
       <c r="U40" s="9"/>
     </row>
-    <row r="41" spans="1:21" ht="238.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="s">
         <v>143</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>222</v>
+        <v>33</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>1674</v>
+        <v>1524</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>1422</v>
+        <v>1525</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>1634</v>
+        <v>1151</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>1635</v>
+        <v>1152</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="I41" s="17" t="s">
-        <v>1423</v>
+        <v>1526</v>
       </c>
       <c r="J41" s="9" t="s">
-        <v>1424</v>
+        <v>1527</v>
       </c>
       <c r="K41" s="17" t="s">
-        <v>1425</v>
-      </c>
-      <c r="L41" s="22" t="s">
-        <v>1448</v>
+        <v>1528</v>
+      </c>
+      <c r="L41" s="17" t="s">
+        <v>1529</v>
       </c>
       <c r="M41" s="9" t="s">
-        <v>1426</v>
+        <v>1530</v>
       </c>
       <c r="N41" s="9" t="s">
-        <v>1427</v>
+        <v>1531</v>
       </c>
       <c r="O41" s="9" t="s">
-        <v>1651</v>
+        <v>1660</v>
       </c>
       <c r="P41" s="9" t="s">
-        <v>1428</v>
+        <v>1532</v>
       </c>
       <c r="Q41" s="9" t="s">
-        <v>1429</v>
+        <v>1533</v>
       </c>
       <c r="R41" s="9" t="s">
-        <v>1304</v>
+        <v>1534</v>
       </c>
       <c r="S41" s="9" t="s">
-        <v>1663</v>
+        <v>1535</v>
       </c>
       <c r="T41" s="9"/>
       <c r="U41" s="9"/>
     </row>
-    <row r="42" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="16" t="s">
         <v>143</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>1524</v>
+        <v>1536</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>1525</v>
+        <v>1537</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>1151</v>
+        <v>1636</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>1152</v>
+        <v>1636</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="I42" s="17" t="s">
-        <v>1526</v>
+        <v>1538</v>
       </c>
       <c r="J42" s="9" t="s">
-        <v>1527</v>
+        <v>1539</v>
       </c>
       <c r="K42" s="17" t="s">
-        <v>1528</v>
+        <v>1540</v>
       </c>
       <c r="L42" s="17" t="s">
-        <v>1529</v>
+        <v>1541</v>
       </c>
       <c r="M42" s="9" t="s">
-        <v>1530</v>
+        <v>1542</v>
       </c>
       <c r="N42" s="9" t="s">
-        <v>1531</v>
+        <v>1542</v>
       </c>
       <c r="O42" s="9" t="s">
-        <v>1660</v>
+        <v>1648</v>
       </c>
       <c r="P42" s="9" t="s">
-        <v>1532</v>
+        <v>1648</v>
       </c>
       <c r="Q42" s="9" t="s">
-        <v>1533</v>
+        <v>1543</v>
       </c>
       <c r="R42" s="9" t="s">
-        <v>1534</v>
+        <v>1544</v>
       </c>
       <c r="S42" s="9" t="s">
-        <v>1535</v>
+        <v>1545</v>
       </c>
       <c r="T42" s="9"/>
       <c r="U42" s="9"/>
@@ -36037,424 +36028,424 @@
         <v>143</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>1536</v>
+        <v>1546</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>1537</v>
+        <v>1547</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>1636</v>
+        <v>1638</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="I43" s="17" t="s">
-        <v>1538</v>
+        <v>1548</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>1539</v>
+        <v>1549</v>
       </c>
       <c r="K43" s="17" t="s">
-        <v>1540</v>
+        <v>1550</v>
       </c>
       <c r="L43" s="17" t="s">
-        <v>1541</v>
+        <v>1551</v>
       </c>
       <c r="M43" s="9" t="s">
-        <v>1542</v>
+        <v>1552</v>
       </c>
       <c r="N43" s="9" t="s">
-        <v>1542</v>
+        <v>1552</v>
       </c>
       <c r="O43" s="9" t="s">
-        <v>1648</v>
+        <v>1652</v>
       </c>
       <c r="P43" s="9" t="s">
-        <v>1648</v>
+        <v>1553</v>
       </c>
       <c r="Q43" s="9" t="s">
-        <v>1543</v>
+        <v>1554</v>
       </c>
       <c r="R43" s="9" t="s">
-        <v>1544</v>
+        <v>1555</v>
       </c>
       <c r="S43" s="9" t="s">
-        <v>1545</v>
+        <v>1556</v>
       </c>
       <c r="T43" s="9"/>
       <c r="U43" s="9"/>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="16" t="s">
         <v>143</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>38</v>
+        <v>182</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>1546</v>
+        <v>444</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>1547</v>
+        <v>567</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>1637</v>
+        <v>747</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>1638</v>
+        <v>748</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>1626</v>
+        <v>982</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>1618</v>
+        <v>1096</v>
       </c>
       <c r="I44" s="17" t="s">
-        <v>1548</v>
+        <v>879</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>1549</v>
+        <v>1159</v>
       </c>
       <c r="K44" s="17" t="s">
-        <v>1550</v>
+        <v>1042</v>
       </c>
       <c r="L44" s="17" t="s">
-        <v>1551</v>
+        <v>1450</v>
       </c>
       <c r="M44" s="9" t="s">
-        <v>1552</v>
+        <v>373</v>
       </c>
       <c r="N44" s="9" t="s">
-        <v>1552</v>
+        <v>586</v>
       </c>
       <c r="O44" s="9" t="s">
-        <v>1652</v>
+        <v>839</v>
       </c>
       <c r="P44" s="9" t="s">
-        <v>1553</v>
+        <v>1131</v>
       </c>
       <c r="Q44" s="9" t="s">
-        <v>1554</v>
+        <v>1227</v>
       </c>
       <c r="R44" s="9" t="s">
-        <v>1555</v>
+        <v>1306</v>
       </c>
       <c r="S44" s="9" t="s">
-        <v>1556</v>
+        <v>957</v>
       </c>
       <c r="T44" s="9"/>
       <c r="U44" s="9"/>
     </row>
-    <row r="45" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
         <v>143</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>182</v>
+        <v>39</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>444</v>
+        <v>1557</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>567</v>
+        <v>1558</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>747</v>
+        <v>1639</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>748</v>
+        <v>1639</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>982</v>
+        <v>1627</v>
       </c>
       <c r="H45" s="9" t="s">
-        <v>1096</v>
+        <v>1619</v>
       </c>
       <c r="I45" s="17" t="s">
-        <v>879</v>
+        <v>1559</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>1159</v>
+        <v>1560</v>
       </c>
       <c r="K45" s="17" t="s">
-        <v>1042</v>
+        <v>1561</v>
       </c>
       <c r="L45" s="17" t="s">
-        <v>1450</v>
+        <v>1562</v>
       </c>
       <c r="M45" s="9" t="s">
-        <v>373</v>
+        <v>1563</v>
       </c>
       <c r="N45" s="9" t="s">
-        <v>586</v>
+        <v>1563</v>
       </c>
       <c r="O45" s="9" t="s">
-        <v>839</v>
+        <v>1653</v>
       </c>
       <c r="P45" s="9" t="s">
-        <v>1131</v>
+        <v>1564</v>
       </c>
       <c r="Q45" s="9" t="s">
-        <v>1227</v>
+        <v>1565</v>
       </c>
       <c r="R45" s="9" t="s">
-        <v>1306</v>
+        <v>1566</v>
       </c>
       <c r="S45" s="9" t="s">
-        <v>957</v>
+        <v>1567</v>
       </c>
       <c r="T45" s="9"/>
       <c r="U45" s="9"/>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
         <v>143</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>39</v>
+        <v>183</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>1557</v>
+        <v>188</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>1558</v>
+        <v>633</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>1639</v>
+        <v>749</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>1639</v>
+        <v>1294</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>1627</v>
+        <v>983</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>1619</v>
+        <v>1169</v>
       </c>
       <c r="I46" s="17" t="s">
-        <v>1559</v>
+        <v>880</v>
       </c>
       <c r="J46" s="9" t="s">
-        <v>1560</v>
+        <v>1295</v>
       </c>
       <c r="K46" s="17" t="s">
-        <v>1561</v>
+        <v>1043</v>
       </c>
       <c r="L46" s="17" t="s">
-        <v>1562</v>
+        <v>1451</v>
       </c>
       <c r="M46" s="9" t="s">
-        <v>1563</v>
+        <v>374</v>
       </c>
       <c r="N46" s="9" t="s">
-        <v>1563</v>
+        <v>649</v>
       </c>
       <c r="O46" s="9" t="s">
-        <v>1653</v>
+        <v>840</v>
       </c>
       <c r="P46" s="9" t="s">
-        <v>1564</v>
+        <v>822</v>
       </c>
       <c r="Q46" s="9" t="s">
-        <v>1565</v>
+        <v>1228</v>
       </c>
       <c r="R46" s="9" t="s">
-        <v>1566</v>
+        <v>619</v>
       </c>
       <c r="S46" s="9" t="s">
-        <v>1567</v>
+        <v>927</v>
       </c>
       <c r="T46" s="9"/>
       <c r="U46" s="9"/>
     </row>
-    <row r="47" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="16" t="s">
         <v>143</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>183</v>
+        <v>699</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>1294</v>
+        <v>751</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="H47" s="9" t="s">
-        <v>1169</v>
+        <v>1097</v>
       </c>
       <c r="I47" s="17" t="s">
-        <v>880</v>
+        <v>435</v>
       </c>
       <c r="J47" s="9" t="s">
-        <v>1295</v>
+        <v>1160</v>
       </c>
       <c r="K47" s="17" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="L47" s="17" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="M47" s="9" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N47" s="9" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="O47" s="9" t="s">
-        <v>840</v>
+        <v>256</v>
       </c>
       <c r="P47" s="9" t="s">
-        <v>822</v>
+        <v>274</v>
       </c>
       <c r="Q47" s="9" t="s">
-        <v>1228</v>
+        <v>334</v>
       </c>
       <c r="R47" s="9" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="S47" s="9" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="T47" s="9"/>
       <c r="U47" s="9"/>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="16" t="s">
         <v>143</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>699</v>
+        <v>40</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>170</v>
+        <v>1366</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>634</v>
+        <v>1379</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>750</v>
+        <v>1378</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>751</v>
+        <v>1377</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>984</v>
+        <v>1376</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>1097</v>
+        <v>1375</v>
       </c>
       <c r="I48" s="17" t="s">
-        <v>435</v>
+        <v>1374</v>
       </c>
       <c r="J48" s="9" t="s">
-        <v>1160</v>
+        <v>1383</v>
       </c>
       <c r="K48" s="17" t="s">
-        <v>1044</v>
+        <v>1373</v>
       </c>
       <c r="L48" s="17" t="s">
-        <v>1452</v>
+        <v>1490</v>
       </c>
       <c r="M48" s="9" t="s">
-        <v>375</v>
+        <v>1367</v>
       </c>
       <c r="N48" s="9" t="s">
-        <v>650</v>
+        <v>1368</v>
       </c>
       <c r="O48" s="9" t="s">
-        <v>256</v>
+        <v>1369</v>
       </c>
       <c r="P48" s="9" t="s">
-        <v>274</v>
+        <v>1370</v>
       </c>
       <c r="Q48" s="9" t="s">
-        <v>334</v>
+        <v>1229</v>
       </c>
       <c r="R48" s="9" t="s">
-        <v>620</v>
+        <v>1371</v>
       </c>
       <c r="S48" s="9" t="s">
-        <v>928</v>
+        <v>1372</v>
       </c>
       <c r="T48" s="9"/>
       <c r="U48" s="9"/>
     </row>
-    <row r="49" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="16" t="s">
         <v>143</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>40</v>
+        <v>185</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>1366</v>
+        <v>187</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>1379</v>
+        <v>710</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>1378</v>
+        <v>858</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>1377</v>
+        <v>858</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>1376</v>
+        <v>985</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>1375</v>
+        <v>1399</v>
       </c>
       <c r="I49" s="17" t="s">
-        <v>1374</v>
+        <v>905</v>
       </c>
       <c r="J49" s="9" t="s">
-        <v>1383</v>
+        <v>1279</v>
       </c>
       <c r="K49" s="17" t="s">
-        <v>1373</v>
+        <v>1401</v>
       </c>
       <c r="L49" s="17" t="s">
-        <v>1490</v>
+        <v>1453</v>
       </c>
       <c r="M49" s="9" t="s">
-        <v>1367</v>
+        <v>376</v>
       </c>
       <c r="N49" s="9" t="s">
-        <v>1368</v>
+        <v>708</v>
       </c>
       <c r="O49" s="9" t="s">
-        <v>1369</v>
+        <v>860</v>
       </c>
       <c r="P49" s="9" t="s">
-        <v>1370</v>
+        <v>862</v>
       </c>
       <c r="Q49" s="9" t="s">
-        <v>1229</v>
+        <v>865</v>
       </c>
       <c r="R49" s="9" t="s">
-        <v>1371</v>
+        <v>863</v>
       </c>
       <c r="S49" s="9" t="s">
-        <v>1372</v>
+        <v>949</v>
       </c>
       <c r="T49" s="9"/>
       <c r="U49" s="9"/>
@@ -36464,58 +36455,58 @@
         <v>143</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="H50" s="9" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="I50" s="17" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="J50" s="9" t="s">
-        <v>1279</v>
+        <v>1203</v>
       </c>
       <c r="K50" s="17" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="L50" s="17" t="s">
-        <v>1453</v>
+        <v>857</v>
       </c>
       <c r="M50" s="9" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="N50" s="9" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="O50" s="9" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="P50" s="9" t="s">
-        <v>862</v>
+        <v>377</v>
       </c>
       <c r="Q50" s="9" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="R50" s="9" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="S50" s="9" t="s">
-        <v>949</v>
+        <v>867</v>
       </c>
       <c r="T50" s="9"/>
       <c r="U50" s="9"/>
@@ -36525,58 +36516,58 @@
         <v>143</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>184</v>
+        <v>680</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>711</v>
+        <v>635</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>859</v>
+        <v>752</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>859</v>
+        <v>753</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="H51" s="9" t="s">
-        <v>1400</v>
+        <v>1098</v>
       </c>
       <c r="I51" s="17" t="s">
-        <v>906</v>
+        <v>881</v>
       </c>
       <c r="J51" s="9" t="s">
-        <v>1203</v>
+        <v>1296</v>
       </c>
       <c r="K51" s="17" t="s">
-        <v>1402</v>
+        <v>1045</v>
       </c>
       <c r="L51" s="17" t="s">
-        <v>857</v>
+        <v>1454</v>
       </c>
       <c r="M51" s="9" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="N51" s="9" t="s">
-        <v>709</v>
+        <v>651</v>
       </c>
       <c r="O51" s="9" t="s">
-        <v>861</v>
+        <v>257</v>
       </c>
       <c r="P51" s="9" t="s">
-        <v>377</v>
+        <v>275</v>
       </c>
       <c r="Q51" s="9" t="s">
-        <v>866</v>
+        <v>335</v>
       </c>
       <c r="R51" s="9" t="s">
-        <v>864</v>
+        <v>1248</v>
       </c>
       <c r="S51" s="9" t="s">
-        <v>867</v>
+        <v>929</v>
       </c>
       <c r="T51" s="9"/>
       <c r="U51" s="9"/>
@@ -36586,180 +36577,180 @@
         <v>143</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>753</v>
+        <v>1180</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="H52" s="9" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="I52" s="17" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="J52" s="9" t="s">
-        <v>1296</v>
+        <v>404</v>
       </c>
       <c r="K52" s="17" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="L52" s="17" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="M52" s="9" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N52" s="9" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="O52" s="9" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="P52" s="9" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q52" s="9" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="R52" s="9" t="s">
-        <v>1248</v>
+        <v>1307</v>
       </c>
       <c r="S52" s="9" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="T52" s="9"/>
       <c r="U52" s="9"/>
     </row>
-    <row r="53" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="16" t="s">
         <v>143</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>1180</v>
+        <v>756</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="H53" s="9" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="I53" s="17" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="J53" s="9" t="s">
-        <v>404</v>
+        <v>1385</v>
       </c>
       <c r="K53" s="17" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="L53" s="17" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="M53" s="9" t="s">
-        <v>379</v>
+        <v>1361</v>
       </c>
       <c r="N53" s="9" t="s">
-        <v>652</v>
+        <v>587</v>
       </c>
       <c r="O53" s="9" t="s">
-        <v>258</v>
+        <v>841</v>
       </c>
       <c r="P53" s="9" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q53" s="9" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="R53" s="9" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="S53" s="9" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="T53" s="9"/>
       <c r="U53" s="9"/>
     </row>
-    <row r="54" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="16" t="s">
         <v>143</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>637</v>
+        <v>360</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="H54" s="9" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="I54" s="17" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="J54" s="9" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="K54" s="17" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="L54" s="17" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="M54" s="9" t="s">
-        <v>1361</v>
+        <v>233</v>
       </c>
       <c r="N54" s="9" t="s">
-        <v>587</v>
+        <v>233</v>
       </c>
       <c r="O54" s="9" t="s">
-        <v>841</v>
+        <v>259</v>
       </c>
       <c r="P54" s="9" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q54" s="9" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="R54" s="9" t="s">
-        <v>1308</v>
+        <v>1249</v>
       </c>
       <c r="S54" s="9" t="s">
-        <v>931</v>
+        <v>951</v>
       </c>
       <c r="T54" s="9"/>
       <c r="U54" s="9"/>
@@ -36769,58 +36760,58 @@
         <v>143</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="H55" s="9" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="I55" s="17" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="J55" s="9" t="s">
-        <v>1384</v>
+        <v>1161</v>
       </c>
       <c r="K55" s="17" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="L55" s="17" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="M55" s="9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N55" s="9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O55" s="9" t="s">
-        <v>259</v>
+        <v>842</v>
       </c>
       <c r="P55" s="9" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q55" s="9" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="R55" s="9" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="S55" s="9" t="s">
-        <v>951</v>
+        <v>932</v>
       </c>
       <c r="T55" s="9"/>
       <c r="U55" s="9"/>
@@ -36830,180 +36821,180 @@
         <v>143</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>361</v>
+        <v>568</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="I56" s="17" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="J56" s="9" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="K56" s="17" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="L56" s="17" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="M56" s="9" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N56" s="9" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O56" s="9" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="P56" s="9" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q56" s="9" t="s">
-        <v>339</v>
+        <v>1230</v>
       </c>
       <c r="R56" s="9" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="S56" s="9" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="T56" s="9"/>
       <c r="U56" s="9"/>
     </row>
-    <row r="57" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" ht="210" x14ac:dyDescent="0.25">
       <c r="A57" s="16" t="s">
         <v>143</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>695</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>202</v>
+        <v>51</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>1273</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>568</v>
+        <v>638</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>762</v>
-      </c>
-      <c r="G57" s="10" t="s">
-        <v>992</v>
-      </c>
-      <c r="H57" s="9" t="s">
-        <v>1103</v>
+        <v>764</v>
+      </c>
+      <c r="G57" s="11" t="s">
+        <v>993</v>
+      </c>
+      <c r="H57" s="12" t="s">
+        <v>1104</v>
       </c>
       <c r="I57" s="17" t="s">
-        <v>886</v>
-      </c>
-      <c r="J57" s="9" t="s">
-        <v>1162</v>
+        <v>887</v>
+      </c>
+      <c r="J57" s="12" t="s">
+        <v>1297</v>
       </c>
       <c r="K57" s="17" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="L57" s="17" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="M57" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="N57" s="9" t="s">
-        <v>235</v>
+        <v>1362</v>
+      </c>
+      <c r="N57" s="12" t="s">
+        <v>653</v>
       </c>
       <c r="O57" s="9" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="P57" s="9" t="s">
-        <v>280</v>
+        <v>1132</v>
       </c>
       <c r="Q57" s="9" t="s">
-        <v>1230</v>
+        <v>1302</v>
       </c>
       <c r="R57" s="9" t="s">
-        <v>1251</v>
+        <v>1305</v>
       </c>
       <c r="S57" s="9" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="T57" s="9"/>
       <c r="U57" s="9"/>
     </row>
-    <row r="58" spans="1:21" ht="210" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="16" t="s">
         <v>143</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C58" s="11" t="s">
-        <v>1273</v>
+        <v>701</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>1568</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>638</v>
-      </c>
-      <c r="E58" s="9" t="s">
-        <v>763</v>
-      </c>
-      <c r="F58" s="9" t="s">
-        <v>764</v>
-      </c>
-      <c r="G58" s="11" t="s">
-        <v>993</v>
-      </c>
-      <c r="H58" s="12" t="s">
-        <v>1104</v>
+        <v>1569</v>
+      </c>
+      <c r="E58" s="19" t="s">
+        <v>1640</v>
+      </c>
+      <c r="F58" s="19" t="s">
+        <v>1641</v>
+      </c>
+      <c r="G58" s="10" t="s">
+        <v>1205</v>
+      </c>
+      <c r="H58" s="9" t="s">
+        <v>1620</v>
       </c>
       <c r="I58" s="17" t="s">
-        <v>887</v>
-      </c>
-      <c r="J58" s="12" t="s">
-        <v>1297</v>
+        <v>1570</v>
+      </c>
+      <c r="J58" s="9" t="s">
+        <v>1571</v>
       </c>
       <c r="K58" s="17" t="s">
-        <v>1051</v>
+        <v>1572</v>
       </c>
       <c r="L58" s="17" t="s">
-        <v>1460</v>
+        <v>1573</v>
       </c>
       <c r="M58" s="9" t="s">
-        <v>1362</v>
-      </c>
-      <c r="N58" s="12" t="s">
-        <v>653</v>
+        <v>1574</v>
+      </c>
+      <c r="N58" s="9" t="s">
+        <v>1575</v>
       </c>
       <c r="O58" s="9" t="s">
-        <v>844</v>
+        <v>1654</v>
       </c>
       <c r="P58" s="9" t="s">
-        <v>1132</v>
+        <v>1649</v>
       </c>
       <c r="Q58" s="9" t="s">
-        <v>1302</v>
+        <v>1576</v>
       </c>
       <c r="R58" s="9" t="s">
-        <v>1305</v>
+        <v>1577</v>
       </c>
       <c r="S58" s="9" t="s">
-        <v>934</v>
+        <v>1578</v>
       </c>
       <c r="T58" s="9"/>
       <c r="U58" s="9"/>
@@ -37013,58 +37004,58 @@
         <v>143</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>1568</v>
+        <v>1579</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>1569</v>
+        <v>1580</v>
       </c>
       <c r="E59" s="19" t="s">
-        <v>1640</v>
+        <v>1642</v>
       </c>
       <c r="F59" s="19" t="s">
-        <v>1641</v>
+        <v>1643</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>1205</v>
+        <v>1628</v>
       </c>
       <c r="H59" s="9" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="I59" s="17" t="s">
-        <v>1570</v>
+        <v>1581</v>
       </c>
       <c r="J59" s="9" t="s">
-        <v>1571</v>
+        <v>1582</v>
       </c>
       <c r="K59" s="17" t="s">
-        <v>1572</v>
+        <v>1583</v>
       </c>
       <c r="L59" s="17" t="s">
-        <v>1573</v>
+        <v>1584</v>
       </c>
       <c r="M59" s="9" t="s">
-        <v>1574</v>
+        <v>1585</v>
       </c>
       <c r="N59" s="9" t="s">
-        <v>1575</v>
+        <v>1586</v>
       </c>
       <c r="O59" s="9" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="P59" s="9" t="s">
-        <v>1649</v>
+        <v>1587</v>
       </c>
       <c r="Q59" s="9" t="s">
-        <v>1576</v>
+        <v>1588</v>
       </c>
       <c r="R59" s="9" t="s">
-        <v>1577</v>
+        <v>1589</v>
       </c>
       <c r="S59" s="9" t="s">
-        <v>1578</v>
+        <v>1590</v>
       </c>
       <c r="T59" s="9"/>
       <c r="U59" s="9"/>
@@ -37074,363 +37065,363 @@
         <v>143</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>1579</v>
+        <v>1591</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>1580</v>
+        <v>1592</v>
       </c>
       <c r="E60" s="19" t="s">
-        <v>1642</v>
+        <v>1644</v>
       </c>
       <c r="F60" s="19" t="s">
-        <v>1643</v>
+        <v>1645</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="H60" s="9" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="I60" s="17" t="s">
-        <v>1581</v>
+        <v>1593</v>
       </c>
       <c r="J60" s="9" t="s">
-        <v>1582</v>
+        <v>1594</v>
       </c>
       <c r="K60" s="17" t="s">
-        <v>1583</v>
+        <v>1595</v>
       </c>
       <c r="L60" s="17" t="s">
-        <v>1584</v>
+        <v>1596</v>
       </c>
       <c r="M60" s="9" t="s">
-        <v>1585</v>
+        <v>1597</v>
       </c>
       <c r="N60" s="9" t="s">
-        <v>1586</v>
+        <v>1597</v>
       </c>
       <c r="O60" s="9" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="P60" s="9" t="s">
-        <v>1587</v>
+        <v>1598</v>
       </c>
       <c r="Q60" s="9" t="s">
-        <v>1588</v>
+        <v>1599</v>
       </c>
       <c r="R60" s="9" t="s">
-        <v>1589</v>
+        <v>1600</v>
       </c>
       <c r="S60" s="9" t="s">
-        <v>1590</v>
+        <v>1601</v>
       </c>
       <c r="T60" s="9"/>
       <c r="U60" s="9"/>
     </row>
-    <row r="61" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" s="16" t="s">
         <v>143</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>1591</v>
+        <v>63</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>1592</v>
-      </c>
-      <c r="E61" s="19" t="s">
-        <v>1644</v>
-      </c>
-      <c r="F61" s="19" t="s">
-        <v>1645</v>
+        <v>236</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>736</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>737</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>1629</v>
+        <v>994</v>
       </c>
       <c r="H61" s="9" t="s">
-        <v>1622</v>
+        <v>1105</v>
       </c>
       <c r="I61" s="17" t="s">
-        <v>1593</v>
+        <v>436</v>
       </c>
       <c r="J61" s="9" t="s">
-        <v>1594</v>
+        <v>405</v>
       </c>
       <c r="K61" s="17" t="s">
-        <v>1595</v>
+        <v>1052</v>
       </c>
       <c r="L61" s="17" t="s">
-        <v>1596</v>
+        <v>1461</v>
       </c>
       <c r="M61" s="9" t="s">
-        <v>1597</v>
+        <v>236</v>
       </c>
       <c r="N61" s="9" t="s">
-        <v>1597</v>
+        <v>236</v>
       </c>
       <c r="O61" s="9" t="s">
-        <v>1656</v>
+        <v>236</v>
       </c>
       <c r="P61" s="9" t="s">
-        <v>1598</v>
+        <v>236</v>
       </c>
       <c r="Q61" s="9" t="s">
-        <v>1599</v>
+        <v>1231</v>
       </c>
       <c r="R61" s="9" t="s">
-        <v>1600</v>
+        <v>1245</v>
       </c>
       <c r="S61" s="9" t="s">
-        <v>1601</v>
+        <v>935</v>
       </c>
       <c r="T61" s="9"/>
       <c r="U61" s="9"/>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" s="16" t="s">
         <v>143</v>
       </c>
       <c r="B62" s="16" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>63</v>
+        <v>171</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>236</v>
+        <v>639</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>736</v>
+        <v>303</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>737</v>
+        <v>765</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>994</v>
+        <v>425</v>
       </c>
       <c r="H62" s="9" t="s">
-        <v>1105</v>
+        <v>220</v>
       </c>
       <c r="I62" s="17" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="J62" s="9" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="K62" s="17" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="L62" s="17" t="s">
-        <v>1461</v>
+        <v>473</v>
       </c>
       <c r="M62" s="9" t="s">
-        <v>236</v>
+        <v>380</v>
       </c>
       <c r="N62" s="9" t="s">
-        <v>236</v>
+        <v>654</v>
       </c>
       <c r="O62" s="9" t="s">
-        <v>236</v>
+        <v>281</v>
       </c>
       <c r="P62" s="9" t="s">
-        <v>236</v>
+        <v>281</v>
       </c>
       <c r="Q62" s="9" t="s">
-        <v>1231</v>
+        <v>340</v>
       </c>
       <c r="R62" s="9" t="s">
-        <v>1245</v>
+        <v>1310</v>
       </c>
       <c r="S62" s="9" t="s">
-        <v>935</v>
+        <v>323</v>
       </c>
       <c r="T62" s="9"/>
       <c r="U62" s="9"/>
     </row>
-    <row r="63" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" s="16" t="s">
         <v>143</v>
       </c>
       <c r="B63" s="16" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>171</v>
+        <v>62</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>639</v>
+        <v>362</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H63" s="9" t="s">
-        <v>220</v>
+        <v>1106</v>
       </c>
       <c r="I63" s="17" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="J63" s="9" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K63" s="17" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="L63" s="17" t="s">
-        <v>473</v>
+        <v>1462</v>
       </c>
       <c r="M63" s="9" t="s">
-        <v>380</v>
+        <v>237</v>
       </c>
       <c r="N63" s="9" t="s">
-        <v>654</v>
+        <v>237</v>
       </c>
       <c r="O63" s="9" t="s">
-        <v>281</v>
+        <v>845</v>
       </c>
       <c r="P63" s="9" t="s">
-        <v>281</v>
+        <v>845</v>
       </c>
       <c r="Q63" s="9" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="R63" s="9" t="s">
-        <v>1310</v>
+        <v>294</v>
       </c>
       <c r="S63" s="9" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="T63" s="9"/>
       <c r="U63" s="9"/>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" s="16" t="s">
         <v>143</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>62</v>
+        <v>172</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>362</v>
+        <v>569</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>304</v>
+        <v>767</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>426</v>
+        <v>995</v>
       </c>
       <c r="H64" s="9" t="s">
-        <v>1106</v>
+        <v>1197</v>
       </c>
       <c r="I64" s="17" t="s">
-        <v>438</v>
+        <v>888</v>
       </c>
       <c r="J64" s="9" t="s">
-        <v>407</v>
+        <v>1387</v>
       </c>
       <c r="K64" s="17" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="L64" s="17" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="M64" s="9" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N64" s="9" t="s">
-        <v>237</v>
+        <v>588</v>
       </c>
       <c r="O64" s="9" t="s">
-        <v>845</v>
+        <v>260</v>
       </c>
       <c r="P64" s="9" t="s">
-        <v>845</v>
+        <v>823</v>
       </c>
       <c r="Q64" s="9" t="s">
-        <v>341</v>
+        <v>1232</v>
       </c>
       <c r="R64" s="9" t="s">
-        <v>294</v>
+        <v>1309</v>
       </c>
       <c r="S64" s="9" t="s">
-        <v>324</v>
+        <v>936</v>
       </c>
       <c r="T64" s="9"/>
       <c r="U64" s="9"/>
     </row>
-    <row r="65" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65" s="16" t="s">
         <v>143</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>705</v>
+        <v>68</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>172</v>
+        <v>56</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>569</v>
+        <v>363</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="H65" s="9" t="s">
-        <v>1197</v>
+        <v>1107</v>
       </c>
       <c r="I65" s="17" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="J65" s="9" t="s">
-        <v>1387</v>
+        <v>1163</v>
       </c>
       <c r="K65" s="17" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="L65" s="17" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="M65" s="9" t="s">
-        <v>238</v>
+        <v>381</v>
       </c>
       <c r="N65" s="9" t="s">
-        <v>588</v>
+        <v>381</v>
       </c>
       <c r="O65" s="9" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="P65" s="9" t="s">
-        <v>823</v>
+        <v>261</v>
       </c>
       <c r="Q65" s="9" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="R65" s="9" t="s">
-        <v>1309</v>
+        <v>1246</v>
       </c>
       <c r="S65" s="9" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="T65" s="9"/>
       <c r="U65" s="9"/>
@@ -37440,180 +37431,180 @@
         <v>143</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>56</v>
+        <v>211</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>363</v>
+        <v>570</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="G66" s="10" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="H66" s="9" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="I66" s="17" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="J66" s="9" t="s">
-        <v>1163</v>
+        <v>1388</v>
       </c>
       <c r="K66" s="17" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="L66" s="17" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="M66" s="9" t="s">
-        <v>381</v>
+        <v>239</v>
       </c>
       <c r="N66" s="9" t="s">
-        <v>381</v>
+        <v>589</v>
       </c>
       <c r="O66" s="9" t="s">
-        <v>261</v>
+        <v>846</v>
       </c>
       <c r="P66" s="9" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q66" s="9" t="s">
-        <v>1233</v>
+        <v>342</v>
       </c>
       <c r="R66" s="9" t="s">
-        <v>1246</v>
+        <v>621</v>
       </c>
       <c r="S66" s="9" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="T66" s="9"/>
       <c r="U66" s="9"/>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="16" t="s">
         <v>143</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>211</v>
+        <v>57</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>570</v>
+        <v>364</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="H67" s="9" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="I67" s="17" t="s">
-        <v>890</v>
+        <v>439</v>
       </c>
       <c r="J67" s="9" t="s">
-        <v>1388</v>
+        <v>1200</v>
       </c>
       <c r="K67" s="17" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="L67" s="17" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="M67" s="9" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N67" s="9" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="O67" s="9" t="s">
-        <v>846</v>
+        <v>263</v>
       </c>
       <c r="P67" s="9" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q67" s="9" t="s">
-        <v>342</v>
+        <v>1234</v>
       </c>
       <c r="R67" s="9" t="s">
-        <v>621</v>
+        <v>1313</v>
       </c>
       <c r="S67" s="9" t="s">
-        <v>938</v>
+        <v>952</v>
       </c>
       <c r="T67" s="9"/>
       <c r="U67" s="9"/>
     </row>
-    <row r="68" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68" s="16" t="s">
         <v>143</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="G68" s="10" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="H68" s="9" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="I68" s="17" t="s">
-        <v>439</v>
+        <v>891</v>
       </c>
       <c r="J68" s="9" t="s">
-        <v>1200</v>
+        <v>1389</v>
       </c>
       <c r="K68" s="17" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="L68" s="17" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="M68" s="9" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N68" s="9" t="s">
-        <v>590</v>
+        <v>241</v>
       </c>
       <c r="O68" s="9" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="P68" s="9" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="Q68" s="9" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="R68" s="9" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="S68" s="9" t="s">
-        <v>952</v>
+        <v>325</v>
       </c>
       <c r="T68" s="9"/>
       <c r="U68" s="9"/>
@@ -37623,58 +37614,58 @@
         <v>143</v>
       </c>
       <c r="B69" s="16" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>365</v>
+        <v>640</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="G69" s="10" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="H69" s="9" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="I69" s="17" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="J69" s="9" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="K69" s="17" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="L69" s="17" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="M69" s="9" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N69" s="9" t="s">
-        <v>241</v>
+        <v>655</v>
       </c>
       <c r="O69" s="9" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="P69" s="9" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q69" s="9" t="s">
-        <v>1235</v>
+        <v>343</v>
       </c>
       <c r="R69" s="9" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="S69" s="9" t="s">
-        <v>325</v>
+        <v>939</v>
       </c>
       <c r="T69" s="9"/>
       <c r="U69" s="9"/>
@@ -37684,180 +37675,180 @@
         <v>143</v>
       </c>
       <c r="B70" s="16" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="G70" s="10" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="H70" s="9" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="I70" s="17" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="J70" s="9" t="s">
-        <v>1390</v>
+        <v>1164</v>
       </c>
       <c r="K70" s="17" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="L70" s="17" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="M70" s="9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N70" s="9" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="O70" s="9" t="s">
-        <v>265</v>
+        <v>847</v>
       </c>
       <c r="P70" s="9" t="s">
-        <v>283</v>
+        <v>824</v>
       </c>
       <c r="Q70" s="9" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="R70" s="9" t="s">
-        <v>1312</v>
+        <v>295</v>
       </c>
       <c r="S70" s="9" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="T70" s="9"/>
       <c r="U70" s="9"/>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="16" t="s">
         <v>143</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="G71" s="10" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="H71" s="9" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="I71" s="17" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="J71" s="9" t="s">
-        <v>1164</v>
+        <v>1201</v>
       </c>
       <c r="K71" s="17" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="L71" s="17" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="M71" s="9" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N71" s="9" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="O71" s="9" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="P71" s="9" t="s">
-        <v>824</v>
+        <v>1133</v>
       </c>
       <c r="Q71" s="9" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="R71" s="9" t="s">
-        <v>295</v>
+        <v>1247</v>
       </c>
       <c r="S71" s="9" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="T71" s="9"/>
       <c r="U71" s="9"/>
     </row>
-    <row r="72" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A72" s="16" t="s">
         <v>143</v>
       </c>
       <c r="B72" s="16" t="s">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>61</v>
+        <v>482</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>642</v>
+        <v>483</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>779</v>
+        <v>484</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>780</v>
+        <v>484</v>
       </c>
       <c r="G72" s="10" t="s">
-        <v>1002</v>
+        <v>485</v>
       </c>
       <c r="H72" s="9" t="s">
-        <v>1113</v>
+        <v>1095</v>
       </c>
       <c r="I72" s="17" t="s">
-        <v>894</v>
+        <v>486</v>
       </c>
       <c r="J72" s="9" t="s">
-        <v>1201</v>
+        <v>487</v>
       </c>
       <c r="K72" s="17" t="s">
-        <v>1062</v>
+        <v>1040</v>
       </c>
       <c r="L72" s="17" t="s">
-        <v>1470</v>
+        <v>1449</v>
       </c>
       <c r="M72" s="9" t="s">
-        <v>244</v>
+        <v>488</v>
       </c>
       <c r="N72" s="9" t="s">
-        <v>657</v>
+        <v>488</v>
       </c>
       <c r="O72" s="9" t="s">
-        <v>848</v>
+        <v>837</v>
       </c>
       <c r="P72" s="9" t="s">
-        <v>1133</v>
+        <v>489</v>
       </c>
       <c r="Q72" s="9" t="s">
-        <v>345</v>
+        <v>490</v>
       </c>
       <c r="R72" s="9" t="s">
-        <v>1247</v>
+        <v>617</v>
       </c>
       <c r="S72" s="9" t="s">
-        <v>941</v>
+        <v>926</v>
       </c>
       <c r="T72" s="9"/>
       <c r="U72" s="9"/>
@@ -37867,180 +37858,180 @@
         <v>143</v>
       </c>
       <c r="B73" s="16" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>483</v>
+        <v>571</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>484</v>
+        <v>781</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>484</v>
+        <v>782</v>
       </c>
       <c r="G73" s="10" t="s">
-        <v>485</v>
+        <v>1003</v>
       </c>
       <c r="H73" s="9" t="s">
-        <v>1095</v>
+        <v>1114</v>
       </c>
       <c r="I73" s="17" t="s">
-        <v>486</v>
+        <v>895</v>
       </c>
       <c r="J73" s="9" t="s">
-        <v>487</v>
+        <v>1165</v>
       </c>
       <c r="K73" s="17" t="s">
-        <v>1040</v>
+        <v>1063</v>
       </c>
       <c r="L73" s="17" t="s">
-        <v>1449</v>
+        <v>1471</v>
       </c>
       <c r="M73" s="9" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="N73" s="9" t="s">
-        <v>488</v>
+        <v>591</v>
       </c>
       <c r="O73" s="9" t="s">
-        <v>837</v>
+        <v>849</v>
       </c>
       <c r="P73" s="9" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="Q73" s="9" t="s">
-        <v>490</v>
+        <v>1236</v>
       </c>
       <c r="R73" s="9" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="S73" s="9" t="s">
-        <v>926</v>
+        <v>942</v>
       </c>
       <c r="T73" s="9"/>
       <c r="U73" s="9"/>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:21" ht="241.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="16" t="s">
         <v>143</v>
       </c>
       <c r="B74" s="16" t="s">
-        <v>45</v>
+        <v>203</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>491</v>
+        <v>1380</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>571</v>
+        <v>958</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>781</v>
+        <v>1178</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>782</v>
+        <v>1179</v>
       </c>
       <c r="G74" s="10" t="s">
-        <v>1003</v>
+        <v>981</v>
       </c>
       <c r="H74" s="9" t="s">
-        <v>1114</v>
+        <v>1265</v>
       </c>
       <c r="I74" s="17" t="s">
-        <v>895</v>
+        <v>1266</v>
       </c>
       <c r="J74" s="9" t="s">
-        <v>1165</v>
+        <v>1267</v>
       </c>
       <c r="K74" s="17" t="s">
-        <v>1063</v>
+        <v>1041</v>
       </c>
       <c r="L74" s="17" t="s">
-        <v>1471</v>
+        <v>1487</v>
       </c>
       <c r="M74" s="9" t="s">
-        <v>497</v>
+        <v>1268</v>
       </c>
       <c r="N74" s="9" t="s">
-        <v>591</v>
+        <v>1269</v>
       </c>
       <c r="O74" s="9" t="s">
-        <v>849</v>
+        <v>838</v>
       </c>
       <c r="P74" s="9" t="s">
-        <v>499</v>
+        <v>1270</v>
       </c>
       <c r="Q74" s="9" t="s">
-        <v>1236</v>
+        <v>1271</v>
       </c>
       <c r="R74" s="9" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="S74" s="9" t="s">
-        <v>942</v>
+        <v>1272</v>
       </c>
       <c r="T74" s="9"/>
       <c r="U74" s="9"/>
     </row>
-    <row r="75" spans="1:21" ht="241.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A75" s="16" t="s">
         <v>143</v>
       </c>
       <c r="B75" s="16" t="s">
-        <v>203</v>
+        <v>47</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>1380</v>
+        <v>492</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>958</v>
-      </c>
-      <c r="E75" s="9" t="s">
-        <v>1178</v>
-      </c>
-      <c r="F75" s="9" t="s">
-        <v>1179</v>
+        <v>496</v>
+      </c>
+      <c r="E75" s="12" t="s">
+        <v>783</v>
+      </c>
+      <c r="F75" s="12" t="s">
+        <v>783</v>
       </c>
       <c r="G75" s="10" t="s">
-        <v>981</v>
+        <v>1004</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>1265</v>
+        <v>495</v>
       </c>
       <c r="I75" s="17" t="s">
-        <v>1266</v>
+        <v>896</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>1267</v>
+        <v>493</v>
       </c>
       <c r="K75" s="17" t="s">
-        <v>1041</v>
+        <v>1064</v>
       </c>
       <c r="L75" s="17" t="s">
-        <v>1487</v>
+        <v>1472</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>1268</v>
+        <v>498</v>
       </c>
       <c r="N75" s="9" t="s">
-        <v>1269</v>
+        <v>658</v>
       </c>
       <c r="O75" s="9" t="s">
-        <v>838</v>
+        <v>850</v>
       </c>
       <c r="P75" s="9" t="s">
-        <v>1270</v>
-      </c>
-      <c r="Q75" s="9" t="s">
-        <v>1271</v>
+        <v>500</v>
+      </c>
+      <c r="Q75" s="12" t="s">
+        <v>501</v>
       </c>
       <c r="R75" s="9" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="S75" s="9" t="s">
-        <v>1272</v>
+        <v>943</v>
       </c>
       <c r="T75" s="9"/>
       <c r="U75" s="9"/>
@@ -38050,485 +38041,485 @@
         <v>143</v>
       </c>
       <c r="B76" s="16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>496</v>
-      </c>
-      <c r="E76" s="12" t="s">
-        <v>783</v>
-      </c>
-      <c r="F76" s="12" t="s">
-        <v>783</v>
+        <v>572</v>
+      </c>
+      <c r="E76" s="9" t="s">
+        <v>784</v>
+      </c>
+      <c r="F76" s="9" t="s">
+        <v>785</v>
       </c>
       <c r="G76" s="10" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="H76" s="9" t="s">
-        <v>495</v>
+        <v>1115</v>
       </c>
       <c r="I76" s="17" t="s">
-        <v>896</v>
+        <v>1410</v>
       </c>
       <c r="J76" s="9" t="s">
-        <v>493</v>
+        <v>1166</v>
       </c>
       <c r="K76" s="17" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="L76" s="17" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="M76" s="9" t="s">
-        <v>498</v>
+        <v>659</v>
       </c>
       <c r="N76" s="9" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="O76" s="9" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="P76" s="9" t="s">
-        <v>500</v>
-      </c>
-      <c r="Q76" s="12" t="s">
-        <v>501</v>
+        <v>1274</v>
+      </c>
+      <c r="Q76" s="9" t="s">
+        <v>1237</v>
       </c>
       <c r="R76" s="9" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="S76" s="9" t="s">
-        <v>943</v>
+        <v>953</v>
       </c>
       <c r="T76" s="9"/>
       <c r="U76" s="9"/>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:21" ht="210" x14ac:dyDescent="0.25">
       <c r="A77" s="16" t="s">
         <v>143</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C77" s="10" t="s">
-        <v>494</v>
+        <v>123</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>198</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>572</v>
+        <v>643</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>785</v>
-      </c>
-      <c r="G77" s="10" t="s">
-        <v>1005</v>
-      </c>
-      <c r="H77" s="9" t="s">
-        <v>1115</v>
+        <v>787</v>
+      </c>
+      <c r="G77" s="11" t="s">
+        <v>1006</v>
+      </c>
+      <c r="H77" s="12" t="s">
+        <v>1116</v>
       </c>
       <c r="I77" s="17" t="s">
-        <v>1410</v>
-      </c>
-      <c r="J77" s="9" t="s">
-        <v>1166</v>
+        <v>1275</v>
+      </c>
+      <c r="J77" s="12" t="s">
+        <v>1298</v>
       </c>
       <c r="K77" s="17" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="L77" s="17" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="M77" s="9" t="s">
-        <v>659</v>
-      </c>
-      <c r="N77" s="9" t="s">
-        <v>659</v>
+        <v>1363</v>
+      </c>
+      <c r="N77" s="12" t="s">
+        <v>660</v>
       </c>
       <c r="O77" s="9" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="P77" s="9" t="s">
-        <v>1274</v>
+        <v>1134</v>
       </c>
       <c r="Q77" s="9" t="s">
-        <v>1237</v>
+        <v>1303</v>
       </c>
       <c r="R77" s="9" t="s">
-        <v>624</v>
+        <v>1314</v>
       </c>
       <c r="S77" s="9" t="s">
-        <v>953</v>
+        <v>1276</v>
       </c>
       <c r="T77" s="9"/>
       <c r="U77" s="9"/>
     </row>
-    <row r="78" spans="1:21" ht="210" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="16" t="s">
         <v>143</v>
       </c>
       <c r="B78" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="C78" s="11" t="s">
-        <v>198</v>
+        <v>103</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>445</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>643</v>
+        <v>573</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>787</v>
-      </c>
-      <c r="G78" s="11" t="s">
-        <v>1006</v>
-      </c>
-      <c r="H78" s="12" t="s">
-        <v>1116</v>
+        <v>789</v>
+      </c>
+      <c r="G78" s="10" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H78" s="9" t="s">
+        <v>1117</v>
       </c>
       <c r="I78" s="17" t="s">
-        <v>1275</v>
-      </c>
-      <c r="J78" s="12" t="s">
-        <v>1298</v>
+        <v>897</v>
+      </c>
+      <c r="J78" s="9" t="s">
+        <v>1391</v>
       </c>
       <c r="K78" s="17" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="L78" s="17" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="M78" s="9" t="s">
-        <v>1363</v>
-      </c>
-      <c r="N78" s="12" t="s">
-        <v>660</v>
+        <v>456</v>
+      </c>
+      <c r="N78" s="9" t="s">
+        <v>661</v>
       </c>
       <c r="O78" s="9" t="s">
-        <v>852</v>
+        <v>458</v>
       </c>
       <c r="P78" s="9" t="s">
-        <v>1134</v>
+        <v>461</v>
       </c>
       <c r="Q78" s="9" t="s">
-        <v>1303</v>
+        <v>1238</v>
       </c>
       <c r="R78" s="9" t="s">
-        <v>1314</v>
+        <v>1252</v>
       </c>
       <c r="S78" s="9" t="s">
-        <v>1276</v>
+        <v>944</v>
       </c>
       <c r="T78" s="9"/>
       <c r="U78" s="9"/>
     </row>
-    <row r="79" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A79" s="16" t="s">
         <v>143</v>
       </c>
       <c r="B79" s="16" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>445</v>
+        <v>173</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="H79" s="9" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="I79" s="17" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="J79" s="9" t="s">
-        <v>1391</v>
+        <v>408</v>
       </c>
       <c r="K79" s="17" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="L79" s="17" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="M79" s="9" t="s">
-        <v>456</v>
+        <v>245</v>
       </c>
       <c r="N79" s="9" t="s">
-        <v>661</v>
+        <v>592</v>
       </c>
       <c r="O79" s="9" t="s">
-        <v>458</v>
+        <v>266</v>
       </c>
       <c r="P79" s="9" t="s">
-        <v>461</v>
+        <v>266</v>
       </c>
       <c r="Q79" s="9" t="s">
-        <v>1238</v>
+        <v>346</v>
       </c>
       <c r="R79" s="9" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="S79" s="9" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="T79" s="9"/>
       <c r="U79" s="9"/>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="16" t="s">
         <v>143</v>
       </c>
       <c r="B80" s="16" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>173</v>
+        <v>124</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>574</v>
-      </c>
-      <c r="E80" s="9" t="s">
-        <v>790</v>
-      </c>
-      <c r="F80" s="9" t="s">
-        <v>791</v>
+        <v>575</v>
+      </c>
+      <c r="E80" s="12" t="s">
+        <v>792</v>
+      </c>
+      <c r="F80" s="12" t="s">
+        <v>792</v>
       </c>
       <c r="G80" s="10" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="H80" s="9" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="I80" s="17" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="J80" s="9" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="K80" s="17" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="L80" s="17" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="M80" s="9" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N80" s="9" t="s">
-        <v>592</v>
+        <v>246</v>
       </c>
       <c r="O80" s="9" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="P80" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q80" s="9" t="s">
-        <v>346</v>
+        <v>284</v>
+      </c>
+      <c r="Q80" s="12" t="s">
+        <v>347</v>
       </c>
       <c r="R80" s="9" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="S80" s="9" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="T80" s="9"/>
       <c r="U80" s="9"/>
     </row>
-    <row r="81" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A81" s="16" t="s">
         <v>143</v>
       </c>
       <c r="B81" s="16" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>575</v>
-      </c>
-      <c r="E81" s="12" t="s">
-        <v>792</v>
-      </c>
-      <c r="F81" s="12" t="s">
-        <v>792</v>
+        <v>366</v>
+      </c>
+      <c r="E81" s="9" t="s">
+        <v>793</v>
+      </c>
+      <c r="F81" s="9" t="s">
+        <v>794</v>
       </c>
       <c r="G81" s="10" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="H81" s="9" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="I81" s="17" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="J81" s="9" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="K81" s="17" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="L81" s="17" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="M81" s="9" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N81" s="9" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O81" s="9" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="P81" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q81" s="12" t="s">
-        <v>347</v>
+        <v>285</v>
+      </c>
+      <c r="Q81" s="9" t="s">
+        <v>348</v>
       </c>
       <c r="R81" s="9" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="S81" s="9" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="T81" s="9"/>
       <c r="U81" s="9"/>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:21" ht="210" x14ac:dyDescent="0.25">
       <c r="A82" s="16" t="s">
         <v>143</v>
       </c>
       <c r="B82" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="C82" s="10" t="s">
-        <v>125</v>
+        <v>132</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>200</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>366</v>
+        <v>644</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="F82" s="9" t="s">
-        <v>794</v>
-      </c>
-      <c r="G82" s="10" t="s">
-        <v>1010</v>
-      </c>
-      <c r="H82" s="9" t="s">
-        <v>1120</v>
+        <v>796</v>
+      </c>
+      <c r="G82" s="11" t="s">
+        <v>1011</v>
+      </c>
+      <c r="H82" s="12" t="s">
+        <v>1121</v>
       </c>
       <c r="I82" s="17" t="s">
-        <v>900</v>
-      </c>
-      <c r="J82" s="9" t="s">
-        <v>410</v>
+        <v>1411</v>
+      </c>
+      <c r="J82" s="12" t="s">
+        <v>411</v>
       </c>
       <c r="K82" s="17" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="L82" s="17" t="s">
-        <v>1478</v>
+        <v>1494</v>
       </c>
       <c r="M82" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="N82" s="9" t="s">
-        <v>247</v>
+        <v>1364</v>
+      </c>
+      <c r="N82" s="12" t="s">
+        <v>662</v>
       </c>
       <c r="O82" s="9" t="s">
-        <v>268</v>
+        <v>853</v>
       </c>
       <c r="P82" s="9" t="s">
-        <v>285</v>
+        <v>1277</v>
       </c>
       <c r="Q82" s="9" t="s">
-        <v>348</v>
+        <v>1239</v>
       </c>
       <c r="R82" s="9" t="s">
-        <v>1255</v>
+        <v>1315</v>
       </c>
       <c r="S82" s="9" t="s">
-        <v>947</v>
+        <v>954</v>
       </c>
       <c r="T82" s="9"/>
       <c r="U82" s="9"/>
     </row>
-    <row r="83" spans="1:21" ht="210" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="16" t="s">
         <v>143</v>
       </c>
       <c r="B83" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="C83" s="11" t="s">
-        <v>200</v>
+        <v>126</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>131</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>644</v>
+        <v>576</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>796</v>
-      </c>
-      <c r="G83" s="11" t="s">
-        <v>1011</v>
-      </c>
-      <c r="H83" s="12" t="s">
-        <v>1121</v>
+        <v>798</v>
+      </c>
+      <c r="G83" s="10" t="s">
+        <v>1012</v>
+      </c>
+      <c r="H83" s="9" t="s">
+        <v>1122</v>
       </c>
       <c r="I83" s="17" t="s">
-        <v>1411</v>
-      </c>
-      <c r="J83" s="12" t="s">
-        <v>411</v>
+        <v>1412</v>
+      </c>
+      <c r="J83" s="9" t="s">
+        <v>412</v>
       </c>
       <c r="K83" s="17" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="L83" s="17" t="s">
-        <v>1494</v>
+        <v>1479</v>
       </c>
       <c r="M83" s="9" t="s">
-        <v>1364</v>
-      </c>
-      <c r="N83" s="12" t="s">
-        <v>662</v>
+        <v>382</v>
+      </c>
+      <c r="N83" s="9" t="s">
+        <v>593</v>
       </c>
       <c r="O83" s="9" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="P83" s="9" t="s">
-        <v>1277</v>
+        <v>286</v>
       </c>
       <c r="Q83" s="9" t="s">
-        <v>1239</v>
+        <v>349</v>
       </c>
       <c r="R83" s="9" t="s">
-        <v>1315</v>
+        <v>1256</v>
       </c>
       <c r="S83" s="9" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="T83" s="9"/>
       <c r="U83" s="9"/>
@@ -38538,119 +38529,119 @@
         <v>143</v>
       </c>
       <c r="B84" s="16" t="s">
-        <v>126</v>
+        <v>502</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>131</v>
+        <v>1365</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>576</v>
+        <v>645</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="G84" s="10" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="H84" s="9" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="I84" s="17" t="s">
-        <v>1412</v>
+        <v>901</v>
       </c>
       <c r="J84" s="9" t="s">
-        <v>412</v>
+        <v>1202</v>
       </c>
       <c r="K84" s="17" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="L84" s="17" t="s">
-        <v>1479</v>
+        <v>1491</v>
       </c>
       <c r="M84" s="9" t="s">
-        <v>382</v>
+        <v>526</v>
       </c>
       <c r="N84" s="9" t="s">
-        <v>593</v>
+        <v>526</v>
       </c>
       <c r="O84" s="9" t="s">
-        <v>854</v>
+        <v>530</v>
       </c>
       <c r="P84" s="9" t="s">
-        <v>286</v>
+        <v>530</v>
       </c>
       <c r="Q84" s="9" t="s">
-        <v>349</v>
+        <v>535</v>
       </c>
       <c r="R84" s="9" t="s">
-        <v>1256</v>
+        <v>625</v>
       </c>
       <c r="S84" s="9" t="s">
-        <v>948</v>
+        <v>955</v>
       </c>
       <c r="T84" s="9"/>
       <c r="U84" s="9"/>
     </row>
-    <row r="85" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A85" s="16" t="s">
         <v>143</v>
       </c>
       <c r="B85" s="16" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>1365</v>
+        <v>503</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>645</v>
+        <v>511</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>799</v>
+        <v>1181</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="G85" s="10" t="s">
-        <v>1013</v>
+        <v>515</v>
       </c>
       <c r="H85" s="9" t="s">
-        <v>1123</v>
+        <v>519</v>
       </c>
       <c r="I85" s="17" t="s">
-        <v>901</v>
+        <v>521</v>
       </c>
       <c r="J85" s="9" t="s">
-        <v>1202</v>
+        <v>523</v>
       </c>
       <c r="K85" s="17" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="L85" s="17" t="s">
-        <v>1491</v>
+        <v>1480</v>
       </c>
       <c r="M85" s="9" t="s">
-        <v>526</v>
+        <v>594</v>
       </c>
       <c r="N85" s="9" t="s">
-        <v>526</v>
+        <v>594</v>
       </c>
       <c r="O85" s="9" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="P85" s="9" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="Q85" s="9" t="s">
-        <v>535</v>
+        <v>545</v>
       </c>
       <c r="R85" s="9" t="s">
-        <v>625</v>
+        <v>538</v>
       </c>
       <c r="S85" s="9" t="s">
-        <v>955</v>
+        <v>543</v>
       </c>
       <c r="T85" s="9"/>
       <c r="U85" s="9"/>
@@ -38660,58 +38651,58 @@
         <v>143</v>
       </c>
       <c r="B86" s="16" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>1181</v>
+        <v>802</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="G86" s="10" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H86" s="9" t="s">
-        <v>519</v>
+        <v>1124</v>
       </c>
       <c r="I86" s="17" t="s">
-        <v>521</v>
+        <v>902</v>
       </c>
       <c r="J86" s="9" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="K86" s="17" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="L86" s="17" t="s">
-        <v>1480</v>
+        <v>544</v>
       </c>
       <c r="M86" s="9" t="s">
-        <v>594</v>
+        <v>527</v>
       </c>
       <c r="N86" s="9" t="s">
-        <v>594</v>
+        <v>527</v>
       </c>
       <c r="O86" s="9" t="s">
-        <v>531</v>
+        <v>855</v>
       </c>
       <c r="P86" s="9" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="Q86" s="9" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="R86" s="9" t="s">
-        <v>538</v>
+        <v>626</v>
       </c>
       <c r="S86" s="9" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="T86" s="9"/>
       <c r="U86" s="9"/>
@@ -38721,58 +38712,58 @@
         <v>143</v>
       </c>
       <c r="B87" s="16" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="G87" s="10" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H87" s="9" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="I87" s="17" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="J87" s="9" t="s">
-        <v>524</v>
+        <v>1167</v>
       </c>
       <c r="K87" s="17" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="L87" s="17" t="s">
-        <v>544</v>
+        <v>1481</v>
       </c>
       <c r="M87" s="9" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="N87" s="9" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="O87" s="9" t="s">
-        <v>855</v>
+        <v>528</v>
       </c>
       <c r="P87" s="9" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="Q87" s="9" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="R87" s="9" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="S87" s="9" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="T87" s="9"/>
       <c r="U87" s="9"/>
@@ -38782,58 +38773,58 @@
         <v>143</v>
       </c>
       <c r="B88" s="16" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="G88" s="10" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H88" s="9" t="s">
-        <v>1125</v>
+        <v>520</v>
       </c>
       <c r="I88" s="17" t="s">
-        <v>903</v>
+        <v>522</v>
       </c>
       <c r="J88" s="9" t="s">
-        <v>1167</v>
+        <v>525</v>
       </c>
       <c r="K88" s="17" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="L88" s="17" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="M88" s="9" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="N88" s="9" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="O88" s="9" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="P88" s="9" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="Q88" s="9" t="s">
-        <v>537</v>
+        <v>1240</v>
       </c>
       <c r="R88" s="9" t="s">
-        <v>627</v>
+        <v>539</v>
       </c>
       <c r="S88" s="9" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="T88" s="9"/>
       <c r="U88" s="9"/>
@@ -38843,58 +38834,58 @@
         <v>143</v>
       </c>
       <c r="B89" s="16" t="s">
-        <v>507</v>
+        <v>719</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>510</v>
-      </c>
-      <c r="D89" s="9" t="s">
-        <v>514</v>
-      </c>
-      <c r="E89" s="9" t="s">
-        <v>806</v>
-      </c>
-      <c r="F89" s="9" t="s">
-        <v>807</v>
+        <v>715</v>
+      </c>
+      <c r="D89" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="E89" s="10" t="s">
+        <v>812</v>
+      </c>
+      <c r="F89" s="10" t="s">
+        <v>811</v>
       </c>
       <c r="G89" s="10" t="s">
-        <v>518</v>
-      </c>
-      <c r="H89" s="9" t="s">
-        <v>520</v>
-      </c>
-      <c r="I89" s="17" t="s">
-        <v>522</v>
-      </c>
-      <c r="J89" s="9" t="s">
-        <v>525</v>
-      </c>
-      <c r="K89" s="17" t="s">
-        <v>1077</v>
-      </c>
-      <c r="L89" s="17" t="s">
-        <v>1482</v>
-      </c>
-      <c r="M89" s="9" t="s">
-        <v>529</v>
-      </c>
-      <c r="N89" s="9" t="s">
-        <v>529</v>
-      </c>
-      <c r="O89" s="9" t="s">
-        <v>533</v>
-      </c>
-      <c r="P89" s="9" t="s">
-        <v>534</v>
-      </c>
-      <c r="Q89" s="9" t="s">
-        <v>1240</v>
-      </c>
-      <c r="R89" s="9" t="s">
-        <v>539</v>
-      </c>
-      <c r="S89" s="9" t="s">
-        <v>540</v>
+        <v>1014</v>
+      </c>
+      <c r="H89" s="10" t="s">
+        <v>909</v>
+      </c>
+      <c r="I89" s="10" t="s">
+        <v>908</v>
+      </c>
+      <c r="J89" s="10" t="s">
+        <v>910</v>
+      </c>
+      <c r="K89" s="10" t="s">
+        <v>1078</v>
+      </c>
+      <c r="L89" s="10" t="s">
+        <v>1488</v>
+      </c>
+      <c r="M89" s="10" t="s">
+        <v>716</v>
+      </c>
+      <c r="N89" s="10" t="s">
+        <v>716</v>
+      </c>
+      <c r="O89" s="10" t="s">
+        <v>825</v>
+      </c>
+      <c r="P89" s="10" t="s">
+        <v>825</v>
+      </c>
+      <c r="Q89" s="10" t="s">
+        <v>911</v>
+      </c>
+      <c r="R89" s="10" t="s">
+        <v>718</v>
+      </c>
+      <c r="S89" s="10" t="s">
+        <v>912</v>
       </c>
       <c r="T89" s="9"/>
       <c r="U89" s="9"/>
@@ -38904,58 +38895,58 @@
         <v>143</v>
       </c>
       <c r="B90" s="16" t="s">
-        <v>719</v>
+        <v>546</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>715</v>
-      </c>
-      <c r="D90" s="10" t="s">
-        <v>717</v>
+        <v>547</v>
+      </c>
+      <c r="D90" s="9" t="s">
+        <v>577</v>
       </c>
       <c r="E90" s="10" t="s">
-        <v>812</v>
+        <v>453</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="G90" s="10" t="s">
-        <v>1014</v>
+        <v>548</v>
       </c>
       <c r="H90" s="10" t="s">
-        <v>909</v>
+        <v>549</v>
       </c>
       <c r="I90" s="10" t="s">
-        <v>908</v>
+        <v>550</v>
       </c>
       <c r="J90" s="10" t="s">
-        <v>910</v>
+        <v>551</v>
       </c>
       <c r="K90" s="10" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="L90" s="10" t="s">
-        <v>1488</v>
+        <v>1483</v>
       </c>
       <c r="M90" s="10" t="s">
-        <v>716</v>
-      </c>
-      <c r="N90" s="10" t="s">
-        <v>716</v>
+        <v>552</v>
+      </c>
+      <c r="N90" s="9" t="s">
+        <v>552</v>
       </c>
       <c r="O90" s="10" t="s">
-        <v>825</v>
+        <v>553</v>
       </c>
       <c r="P90" s="10" t="s">
-        <v>825</v>
+        <v>553</v>
       </c>
       <c r="Q90" s="10" t="s">
-        <v>911</v>
+        <v>554</v>
       </c>
       <c r="R90" s="10" t="s">
-        <v>718</v>
+        <v>628</v>
       </c>
       <c r="S90" s="10" t="s">
-        <v>912</v>
+        <v>555</v>
       </c>
       <c r="T90" s="9"/>
       <c r="U90" s="9"/>
@@ -38965,312 +38956,310 @@
         <v>143</v>
       </c>
       <c r="B91" s="16" t="s">
-        <v>546</v>
+        <v>224</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>547</v>
+        <v>391</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>577</v>
-      </c>
-      <c r="E91" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="E91" s="9" t="s">
         <v>453</v>
       </c>
-      <c r="F91" s="10" t="s">
+      <c r="F91" s="9" t="s">
         <v>808</v>
       </c>
       <c r="G91" s="10" t="s">
-        <v>548</v>
-      </c>
-      <c r="H91" s="10" t="s">
-        <v>549</v>
-      </c>
-      <c r="I91" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="J91" s="10" t="s">
-        <v>551</v>
+        <v>1015</v>
+      </c>
+      <c r="H91" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="I91" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="J91" s="9" t="s">
+        <v>455</v>
       </c>
       <c r="K91" s="10" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="L91" s="10" t="s">
-        <v>1483</v>
-      </c>
-      <c r="M91" s="10" t="s">
-        <v>552</v>
+        <v>474</v>
+      </c>
+      <c r="M91" s="9" t="s">
+        <v>440</v>
       </c>
       <c r="N91" s="9" t="s">
-        <v>552</v>
-      </c>
-      <c r="O91" s="10" t="s">
-        <v>553</v>
-      </c>
-      <c r="P91" s="10" t="s">
-        <v>553</v>
-      </c>
-      <c r="Q91" s="10" t="s">
-        <v>554</v>
-      </c>
-      <c r="R91" s="10" t="s">
-        <v>628</v>
-      </c>
-      <c r="S91" s="10" t="s">
-        <v>555</v>
+        <v>440</v>
+      </c>
+      <c r="O91" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="P91" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q91" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="R91" s="9" t="s">
+        <v>629</v>
+      </c>
+      <c r="S91" s="9" t="s">
+        <v>468</v>
       </c>
       <c r="T91" s="9"/>
       <c r="U91" s="9"/>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A92" s="16" t="s">
         <v>143</v>
       </c>
       <c r="B92" s="16" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>391</v>
+        <v>209</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>452</v>
+        <v>646</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>453</v>
+        <v>809</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="G92" s="10" t="s">
-        <v>1015</v>
+        <v>427</v>
       </c>
       <c r="H92" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="I92" s="9" t="s">
-        <v>454</v>
+        <v>1126</v>
+      </c>
+      <c r="I92" s="17" t="s">
+        <v>904</v>
       </c>
       <c r="J92" s="9" t="s">
-        <v>455</v>
-      </c>
-      <c r="K92" s="10" t="s">
-        <v>1080</v>
-      </c>
-      <c r="L92" s="10" t="s">
-        <v>474</v>
+        <v>413</v>
+      </c>
+      <c r="K92" s="17" t="s">
+        <v>1318</v>
+      </c>
+      <c r="L92" s="17" t="s">
+        <v>1484</v>
       </c>
       <c r="M92" s="9" t="s">
-        <v>440</v>
+        <v>306</v>
       </c>
       <c r="N92" s="9" t="s">
-        <v>440</v>
+        <v>595</v>
       </c>
       <c r="O92" s="9" t="s">
-        <v>459</v>
+        <v>307</v>
       </c>
       <c r="P92" s="9" t="s">
-        <v>459</v>
+        <v>308</v>
       </c>
       <c r="Q92" s="9" t="s">
-        <v>465</v>
+        <v>350</v>
       </c>
       <c r="R92" s="9" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="S92" s="9" t="s">
-        <v>468</v>
+        <v>1278</v>
       </c>
       <c r="T92" s="9"/>
       <c r="U92" s="9"/>
     </row>
-    <row r="93" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A93" s="16" t="s">
+    <row r="93" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="18" t="s">
         <v>143</v>
       </c>
       <c r="B93" s="16" t="s">
-        <v>204</v>
-      </c>
-      <c r="C93" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="D93" s="9" t="s">
-        <v>646</v>
-      </c>
-      <c r="E93" s="9" t="s">
-        <v>809</v>
-      </c>
-      <c r="F93" s="9" t="s">
-        <v>810</v>
-      </c>
-      <c r="G93" s="10" t="s">
-        <v>427</v>
-      </c>
-      <c r="H93" s="9" t="s">
-        <v>1126</v>
-      </c>
-      <c r="I93" s="17" t="s">
-        <v>904</v>
-      </c>
-      <c r="J93" s="9" t="s">
-        <v>413</v>
-      </c>
-      <c r="K93" s="17" t="s">
-        <v>1318</v>
-      </c>
-      <c r="L93" s="17" t="s">
-        <v>1484</v>
-      </c>
-      <c r="M93" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="N93" s="9" t="s">
-        <v>595</v>
-      </c>
-      <c r="O93" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="P93" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q93" s="9" t="s">
-        <v>350</v>
-      </c>
-      <c r="R93" s="9" t="s">
-        <v>630</v>
-      </c>
-      <c r="S93" s="9" t="s">
-        <v>1278</v>
-      </c>
-      <c r="T93" s="9"/>
-      <c r="U93" s="9"/>
-    </row>
-    <row r="94" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>676</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>1404</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>1195</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>1016</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>907</v>
+      </c>
+      <c r="J93" s="2" t="s">
+        <v>1392</v>
+      </c>
+      <c r="K93" s="2" t="s">
+        <v>1316</v>
+      </c>
+      <c r="L93" s="23" t="s">
+        <v>1486</v>
+      </c>
+      <c r="M93" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="N93" s="2" t="s">
+        <v>1404</v>
+      </c>
+      <c r="O93" s="2" t="s">
+        <v>1661</v>
+      </c>
+      <c r="P93" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="Q93" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="R93" s="2" t="s">
+        <v>1257</v>
+      </c>
+      <c r="S93" s="2" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="18" t="s">
         <v>143</v>
       </c>
       <c r="B94" s="16" t="s">
-        <v>676</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>1404</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>1195</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>1196</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>1016</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>720</v>
-      </c>
-      <c r="I94" s="2" t="s">
-        <v>907</v>
-      </c>
-      <c r="J94" s="2" t="s">
-        <v>1392</v>
-      </c>
-      <c r="K94" s="2" t="s">
-        <v>1316</v>
-      </c>
-      <c r="L94" s="23" t="s">
-        <v>1486</v>
-      </c>
-      <c r="M94" s="2" t="s">
-        <v>631</v>
-      </c>
-      <c r="N94" s="2" t="s">
-        <v>1404</v>
-      </c>
-      <c r="O94" s="2" t="s">
-        <v>1661</v>
-      </c>
-      <c r="P94" s="2" t="s">
-        <v>1135</v>
-      </c>
-      <c r="Q94" s="2" t="s">
-        <v>632</v>
-      </c>
-      <c r="R94" s="2" t="s">
-        <v>1257</v>
-      </c>
-      <c r="S94" s="2" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="95" spans="1:21" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A95" s="18" t="s">
+        <v>1192</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>1193</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>1194</v>
+      </c>
+      <c r="H94" s="3"/>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A95" s="16" t="s">
         <v>143</v>
       </c>
       <c r="B95" s="16" t="s">
-        <v>1192</v>
+        <v>663</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>827</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>1193</v>
+        <v>675</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>1194</v>
-      </c>
-      <c r="H95" s="3"/>
+        <v>675</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I95" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="J95" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="K95" s="3" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L95" s="3" t="s">
+        <v>1485</v>
+      </c>
+      <c r="M95" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="N95" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="O95" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="P95" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="Q95" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="R95" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="S95" s="3" t="s">
+        <v>956</v>
+      </c>
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A96" s="16" t="s">
         <v>143</v>
       </c>
       <c r="B96" s="16" t="s">
-        <v>663</v>
+        <v>1171</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>667</v>
+        <v>1173</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>827</v>
+        <v>1173</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>675</v>
+        <v>1182</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>675</v>
+        <v>1183</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>673</v>
+        <v>1301</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>1198</v>
+        <v>1184</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>672</v>
+        <v>1173</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>671</v>
+        <v>1187</v>
       </c>
       <c r="K96" s="3" t="s">
-        <v>1081</v>
+        <v>1185</v>
       </c>
       <c r="L96" s="3" t="s">
-        <v>1485</v>
+        <v>1186</v>
       </c>
       <c r="M96" s="3" t="s">
-        <v>826</v>
+        <v>1188</v>
       </c>
       <c r="N96" s="3" t="s">
-        <v>826</v>
+        <v>1188</v>
       </c>
       <c r="O96" s="3" t="s">
-        <v>670</v>
+        <v>1188</v>
       </c>
       <c r="P96" s="3" t="s">
-        <v>670</v>
+        <v>1188</v>
       </c>
       <c r="Q96" s="3" t="s">
-        <v>669</v>
+        <v>1189</v>
       </c>
       <c r="R96" s="3" t="s">
-        <v>668</v>
+        <v>1190</v>
       </c>
       <c r="S96" s="3" t="s">
-        <v>956</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.25">
@@ -39278,155 +39267,96 @@
         <v>143</v>
       </c>
       <c r="B97" s="16" t="s">
-        <v>1171</v>
+        <v>664</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>1173</v>
+        <v>1602</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>1173</v>
+        <v>1603</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>1182</v>
+        <v>1646</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>1183</v>
+        <v>1647</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>1301</v>
+        <v>1604</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>1184</v>
+        <v>1127</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>1173</v>
+        <v>1605</v>
       </c>
       <c r="J97" s="3" t="s">
-        <v>1187</v>
+        <v>1606</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>1185</v>
+        <v>1607</v>
       </c>
       <c r="L97" s="3" t="s">
-        <v>1186</v>
+        <v>1608</v>
       </c>
       <c r="M97" s="3" t="s">
-        <v>1188</v>
+        <v>1609</v>
       </c>
       <c r="N97" s="3" t="s">
-        <v>1188</v>
+        <v>1609</v>
       </c>
       <c r="O97" s="3" t="s">
-        <v>1188</v>
+        <v>1610</v>
       </c>
       <c r="P97" s="3" t="s">
-        <v>1188</v>
+        <v>1610</v>
       </c>
       <c r="Q97" s="3" t="s">
-        <v>1189</v>
+        <v>1611</v>
       </c>
       <c r="R97" s="3" t="s">
-        <v>1190</v>
+        <v>1612</v>
       </c>
       <c r="S97" s="3" t="s">
-        <v>1191</v>
-      </c>
-    </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A98" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="B98" s="16" t="s">
-        <v>664</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>1602</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>1603</v>
-      </c>
-      <c r="E98" s="3" t="s">
-        <v>1646</v>
-      </c>
-      <c r="F98" s="3" t="s">
-        <v>1647</v>
-      </c>
-      <c r="G98" s="3" t="s">
-        <v>1604</v>
-      </c>
-      <c r="H98" s="3" t="s">
-        <v>1127</v>
-      </c>
-      <c r="I98" s="3" t="s">
-        <v>1605</v>
-      </c>
-      <c r="J98" s="3" t="s">
-        <v>1606</v>
-      </c>
-      <c r="K98" s="3" t="s">
-        <v>1607</v>
-      </c>
-      <c r="L98" s="3" t="s">
-        <v>1608</v>
-      </c>
-      <c r="M98" s="3" t="s">
-        <v>1609</v>
-      </c>
-      <c r="N98" s="3" t="s">
-        <v>1609</v>
-      </c>
-      <c r="O98" s="3" t="s">
-        <v>1610</v>
-      </c>
-      <c r="P98" s="3" t="s">
-        <v>1610</v>
-      </c>
-      <c r="Q98" s="3" t="s">
-        <v>1611</v>
-      </c>
-      <c r="R98" s="3" t="s">
-        <v>1612</v>
-      </c>
-      <c r="S98" s="3" t="s">
         <v>1613</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:B6 B8:B98">
-    <cfRule type="duplicateValues" dxfId="7" priority="105"/>
+  <conditionalFormatting sqref="B7">
+    <cfRule type="duplicateValues" dxfId="7" priority="106"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7">
-    <cfRule type="duplicateValues" dxfId="6" priority="106"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:U39 B40:L43">
-    <cfRule type="containsBlanks" dxfId="5" priority="17">
+  <conditionalFormatting sqref="B39:L42 B1:U38">
+    <cfRule type="containsBlanks" dxfId="6" priority="17">
       <formula>LEN(TRIM(B1))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K90:L92">
-    <cfRule type="containsBlanks" dxfId="4" priority="3">
-      <formula>LEN(TRIM(K90))=0</formula>
+  <conditionalFormatting sqref="K89:L91">
+    <cfRule type="containsBlanks" dxfId="5" priority="3">
+      <formula>LEN(TRIM(K89))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K95:L98">
-    <cfRule type="containsBlanks" dxfId="3" priority="4">
-      <formula>LEN(TRIM(K95))=0</formula>
+  <conditionalFormatting sqref="K94:L97">
+    <cfRule type="containsBlanks" dxfId="4" priority="4">
+      <formula>LEN(TRIM(K94))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L73:L89">
-    <cfRule type="containsBlanks" dxfId="2" priority="10">
-      <formula>LEN(TRIM(L73))=0</formula>
+  <conditionalFormatting sqref="L72:L88">
+    <cfRule type="containsBlanks" dxfId="3" priority="10">
+      <formula>LEN(TRIM(L72))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L93">
-    <cfRule type="containsBlanks" dxfId="1" priority="7">
-      <formula>LEN(TRIM(L93))=0</formula>
+  <conditionalFormatting sqref="L92">
+    <cfRule type="containsBlanks" dxfId="2" priority="7">
+      <formula>LEN(TRIM(L92))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M40:U98 D44:J58 K44:L72 B44:C98 D59:D61 G59:J61 D62:J72 D73:K75 D75:J98 K76:K89 K93:K94">
-    <cfRule type="containsBlanks" dxfId="0" priority="69">
-      <formula>LEN(TRIM(B40))=0</formula>
+  <conditionalFormatting sqref="M39:U97 D43:J57 K43:L71 B43:C97 D58:D60 G58:J60 D61:J71 D72:K74 D74:J97 K75:K88 K92:K93">
+    <cfRule type="containsBlanks" dxfId="1" priority="69">
+      <formula>LEN(TRIM(B39))=0</formula>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B6 B8:B97">
+    <cfRule type="duplicateValues" dxfId="0" priority="107"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/process/configuration/templates/_report_configuration.xlsx
+++ b/process/configuration/templates/_report_configuration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rmiteduau-my.sharepoint.com/personal/carl_higgs_rmit_edu_au/Documents/projects/global-indicators/process/configuration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2409" documentId="114_{57517418-E3A8-4D24-9644-27D04334BB89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86C966ED-16C1-415D-9016-6FD84B92A169}"/>
+  <xr:revisionPtr revIDLastSave="2479" documentId="114_{57517418-E3A8-4D24-9644-27D04334BB89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66A4C53F-086F-45AD-BE06-1335D27415F2}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32145" yWindow="3090" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="policy_spatial" sheetId="1" r:id="rId1"/>
@@ -21,9 +21,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">languages!$B$1:$M$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">policy_spatial!$A$1:$T$264</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">policy_spatial!$A$1:$T$266</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">print_not_implemented!$A$1:$T$194</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">spatial!$A$1:$T$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">spatial!$A$1:$T$78</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4974" uniqueCount="1737">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5039" uniqueCount="1739">
   <si>
     <t>name</t>
   </si>
@@ -5378,6 +5378,12 @@
   </si>
   <si>
     <t>policy_checklist5_text5_response3</t>
+  </si>
+  <si>
+    <t>pct_access_500m_pt_label</t>
+  </si>
+  <si>
+    <t>pct_access_500m_public_open_space_large_score_label</t>
   </si>
 </sst>
 </file>
@@ -6062,7 +6068,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="11">
     <dxf>
       <fill>
         <patternFill>
@@ -6102,16 +6108,6 @@
       <fill>
         <patternFill>
           <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6475,13 +6471,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T267"/>
+  <dimension ref="A1:T269"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B168" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I194" sqref="I194"/>
+      <selection pane="bottomRight" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7938,14 +7934,14 @@
         <v>10</v>
       </c>
       <c r="E26">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="F26">
         <v>131</v>
       </c>
       <c r="G26">
         <f>E26+5</f>
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="H26" t="s">
         <v>178</v>
@@ -7997,7 +7993,7 @@
       </c>
       <c r="E27">
         <f>G26+2</f>
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="F27">
         <f>F26</f>
@@ -8005,7 +8001,7 @@
       </c>
       <c r="G27">
         <f>E27+5</f>
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="H27" t="s">
         <v>178</v>
@@ -18048,102 +18044,101 @@
     </row>
     <row r="196" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>1596</v>
+        <v>1737</v>
       </c>
       <c r="B196">
         <v>7</v>
       </c>
       <c r="C196" t="s">
+        <v>19</v>
+      </c>
+      <c r="D196">
+        <v>10</v>
+      </c>
+      <c r="E196">
+        <f>G195+5</f>
+        <v>105</v>
+      </c>
+      <c r="F196">
+        <f>D196+88</f>
+        <v>98</v>
+      </c>
+      <c r="G196">
+        <f>E196+8</f>
+        <v>113</v>
+      </c>
+      <c r="H196" t="s">
+        <v>178</v>
+      </c>
+      <c r="I196">
+        <v>16</v>
+      </c>
+      <c r="J196">
+        <v>0</v>
+      </c>
+      <c r="K196">
+        <v>0</v>
+      </c>
+      <c r="L196">
+        <v>0</v>
+      </c>
+      <c r="N196" t="s">
+        <v>1642</v>
+      </c>
+      <c r="O196" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q196">
+        <v>2</v>
+      </c>
+      <c r="R196" t="b">
+        <v>1</v>
+      </c>
+      <c r="S196" t="s">
+        <v>205</v>
+      </c>
+      <c r="T196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B197">
+        <v>7</v>
+      </c>
+      <c r="C197" t="s">
         <v>27</v>
       </c>
-      <c r="D196">
-        <v>101</v>
-      </c>
-      <c r="E196">
+      <c r="D197">
+        <v>100</v>
+      </c>
+      <c r="E197">
         <f>E194+60</f>
         <v>80</v>
       </c>
-      <c r="F196">
+      <c r="F197">
         <v>210</v>
       </c>
-      <c r="G196">
-        <f>G216+10</f>
+      <c r="G197">
+        <f>G217+10</f>
         <v>160</v>
       </c>
-      <c r="I196">
-        <v>0</v>
-      </c>
-      <c r="J196">
-        <v>1</v>
-      </c>
-      <c r="K196">
-        <v>0</v>
-      </c>
-      <c r="L196">
-        <v>0</v>
-      </c>
-      <c r="M196" t="s">
+      <c r="I197">
+        <v>0</v>
+      </c>
+      <c r="J197">
+        <v>1</v>
+      </c>
+      <c r="K197">
+        <v>0</v>
+      </c>
+      <c r="L197">
+        <v>0</v>
+      </c>
+      <c r="M197" t="s">
         <v>1282</v>
-      </c>
-      <c r="N196" t="s">
-        <v>1282</v>
-      </c>
-      <c r="O196" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q196">
-        <v>0</v>
-      </c>
-      <c r="R196" t="b">
-        <v>0</v>
-      </c>
-      <c r="S196" t="s">
-        <v>205</v>
-      </c>
-      <c r="T196">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>1597</v>
-      </c>
-      <c r="B197">
-        <v>7</v>
-      </c>
-      <c r="C197" t="s">
-        <v>19</v>
-      </c>
-      <c r="D197">
-        <f>D196+1</f>
-        <v>102</v>
-      </c>
-      <c r="E197">
-        <f>E196+2</f>
-        <v>82</v>
-      </c>
-      <c r="F197">
-        <f>F196</f>
-        <v>210</v>
-      </c>
-      <c r="G197">
-        <f>E197+5</f>
-        <v>87</v>
-      </c>
-      <c r="H197" t="s">
-        <v>178</v>
-      </c>
-      <c r="I197">
-        <v>12</v>
-      </c>
-      <c r="J197">
-        <v>1</v>
-      </c>
-      <c r="K197">
-        <v>0</v>
-      </c>
-      <c r="L197">
-        <v>0</v>
       </c>
       <c r="N197" t="s">
         <v>1282</v>
@@ -18152,7 +18147,7 @@
         <v>26</v>
       </c>
       <c r="Q197">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R197" t="b">
         <v>0</v>
@@ -18166,7 +18161,7 @@
     </row>
     <row r="198" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="B198">
         <v>7</v>
@@ -18175,29 +18170,29 @@
         <v>19</v>
       </c>
       <c r="D198">
-        <f t="shared" ref="D198" si="39">D201-1</f>
-        <v>146</v>
+        <f>D197</f>
+        <v>100</v>
       </c>
       <c r="E198">
-        <f>G197+5</f>
-        <v>92</v>
+        <f>E197+2</f>
+        <v>82</v>
       </c>
       <c r="F198">
-        <f>D202-1</f>
-        <v>165</v>
+        <f>F197</f>
+        <v>210</v>
       </c>
       <c r="G198">
         <f>E198+5</f>
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="H198" t="s">
         <v>178</v>
       </c>
       <c r="I198">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K198">
         <v>0</v>
@@ -18209,13 +18204,13 @@
         <v>1282</v>
       </c>
       <c r="O198" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q198">
         <v>3</v>
       </c>
       <c r="R198" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S198" t="s">
         <v>205</v>
@@ -18226,7 +18221,7 @@
     </row>
     <row r="199" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="B199">
         <v>7</v>
@@ -18235,19 +18230,19 @@
         <v>19</v>
       </c>
       <c r="D199">
-        <f>D202-1</f>
+        <f t="shared" ref="D199" si="39">D202-1</f>
+        <v>146</v>
+      </c>
+      <c r="E199">
+        <f>G198+5</f>
+        <v>92</v>
+      </c>
+      <c r="F199">
+        <f>D203-1</f>
         <v>165</v>
       </c>
-      <c r="E199">
-        <f t="shared" ref="E199:E203" si="40">E198</f>
-        <v>92</v>
-      </c>
-      <c r="F199">
-        <f>D203+1</f>
-        <v>189</v>
-      </c>
       <c r="G199">
-        <f>G198</f>
+        <f>E199+5</f>
         <v>97</v>
       </c>
       <c r="H199" t="s">
@@ -18286,7 +18281,7 @@
     </row>
     <row r="200" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="B200">
         <v>7</v>
@@ -18295,83 +18290,86 @@
         <v>19</v>
       </c>
       <c r="D200">
-        <f>D203</f>
+        <f>D203-1</f>
+        <v>165</v>
+      </c>
+      <c r="E200">
+        <f t="shared" ref="E200:E204" si="40">E199</f>
+        <v>92</v>
+      </c>
+      <c r="F200">
+        <f>D204+1</f>
+        <v>189</v>
+      </c>
+      <c r="G200">
+        <f>G199</f>
+        <v>97</v>
+      </c>
+      <c r="H200" t="s">
+        <v>178</v>
+      </c>
+      <c r="I200">
+        <v>10</v>
+      </c>
+      <c r="J200">
+        <v>0</v>
+      </c>
+      <c r="K200">
+        <v>0</v>
+      </c>
+      <c r="L200">
+        <v>0</v>
+      </c>
+      <c r="N200" t="s">
+        <v>1282</v>
+      </c>
+      <c r="O200" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q200">
+        <v>3</v>
+      </c>
+      <c r="R200" t="b">
+        <v>1</v>
+      </c>
+      <c r="S200" t="s">
+        <v>205</v>
+      </c>
+      <c r="T200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B201">
+        <v>7</v>
+      </c>
+      <c r="C201" t="s">
+        <v>19</v>
+      </c>
+      <c r="D201">
+        <f>D204</f>
         <v>188</v>
       </c>
-      <c r="E200">
+      <c r="E201">
         <f t="shared" si="40"/>
         <v>92</v>
       </c>
-      <c r="F200">
-        <f>D200+21</f>
+      <c r="F201">
+        <f>D201+21</f>
         <v>209</v>
       </c>
-      <c r="G200">
-        <f t="shared" ref="G200" si="41">G199</f>
+      <c r="G201">
+        <f t="shared" ref="G201" si="41">G200</f>
         <v>97</v>
       </c>
-      <c r="H200" t="s">
+      <c r="H201" t="s">
         <v>178</v>
       </c>
-      <c r="I200">
+      <c r="I201">
         <v>10</v>
-      </c>
-      <c r="J200">
-        <v>0</v>
-      </c>
-      <c r="K200">
-        <v>0</v>
-      </c>
-      <c r="L200">
-        <v>0</v>
-      </c>
-      <c r="N200" t="s">
-        <v>1282</v>
-      </c>
-      <c r="O200" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q200">
-        <v>3</v>
-      </c>
-      <c r="R200" t="b">
-        <v>1</v>
-      </c>
-      <c r="S200" t="s">
-        <v>205</v>
-      </c>
-      <c r="T200">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>53</v>
-      </c>
-      <c r="B201">
-        <v>7</v>
-      </c>
-      <c r="C201" t="s">
-        <v>26</v>
-      </c>
-      <c r="D201">
-        <f>D197+45</f>
-        <v>147</v>
-      </c>
-      <c r="E201">
-        <f>E200</f>
-        <v>92</v>
-      </c>
-      <c r="F201">
-        <f>D201</f>
-        <v>147</v>
-      </c>
-      <c r="G201">
-        <f>G196</f>
-        <v>160</v>
-      </c>
-      <c r="I201">
-        <v>0</v>
       </c>
       <c r="J201">
         <v>0</v>
@@ -18386,13 +18384,13 @@
         <v>1282</v>
       </c>
       <c r="O201" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q201">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S201" t="s">
         <v>205</v>
@@ -18403,7 +18401,7 @@
     </row>
     <row r="202" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B202">
         <v>7</v>
@@ -18412,19 +18410,19 @@
         <v>26</v>
       </c>
       <c r="D202">
-        <f>D201+19</f>
-        <v>166</v>
+        <f>D198+47</f>
+        <v>147</v>
       </c>
       <c r="E202">
-        <f t="shared" si="40"/>
+        <f>E201</f>
         <v>92</v>
       </c>
       <c r="F202">
-        <f t="shared" ref="F202:F203" si="42">D202</f>
-        <v>166</v>
+        <f>D202</f>
+        <v>147</v>
       </c>
       <c r="G202">
-        <f>G201</f>
+        <f>G197</f>
         <v>160</v>
       </c>
       <c r="I202">
@@ -18460,7 +18458,7 @@
     </row>
     <row r="203" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B203">
         <v>7</v>
@@ -18469,16 +18467,16 @@
         <v>26</v>
       </c>
       <c r="D203">
-        <f>D202+22</f>
-        <v>188</v>
+        <f>D202+19</f>
+        <v>166</v>
       </c>
       <c r="E203">
         <f t="shared" si="40"/>
         <v>92</v>
       </c>
       <c r="F203">
-        <f t="shared" si="42"/>
-        <v>188</v>
+        <f t="shared" ref="F203:F204" si="42">D203</f>
+        <v>166</v>
       </c>
       <c r="G203">
         <f>G202</f>
@@ -18517,7 +18515,7 @@
     </row>
     <row r="204" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B204">
         <v>7</v>
@@ -18526,20 +18524,20 @@
         <v>26</v>
       </c>
       <c r="D204">
-        <f>D196</f>
-        <v>101</v>
+        <f>D203+22</f>
+        <v>188</v>
       </c>
       <c r="E204">
-        <f>E198+16</f>
-        <v>108</v>
+        <f t="shared" si="40"/>
+        <v>92</v>
       </c>
       <c r="F204">
-        <f>F196</f>
-        <v>210</v>
+        <f t="shared" si="42"/>
+        <v>188</v>
       </c>
       <c r="G204">
-        <f>E204</f>
-        <v>108</v>
+        <f>G203</f>
+        <v>160</v>
       </c>
       <c r="I204">
         <v>0</v>
@@ -18572,36 +18570,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>1589</v>
+        <v>64</v>
       </c>
       <c r="B205">
         <v>7</v>
       </c>
       <c r="C205" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D205">
+        <f>D197</f>
         <v>100</v>
       </c>
       <c r="E205">
-        <f>E204+2</f>
-        <v>110</v>
+        <f>E199+16</f>
+        <v>108</v>
       </c>
       <c r="F205">
-        <f>D201-2</f>
-        <v>145</v>
+        <f>F197</f>
+        <v>210</v>
       </c>
       <c r="G205">
-        <f>E205+5</f>
-        <v>115</v>
-      </c>
-      <c r="H205" t="s">
-        <v>178</v>
+        <f>E205</f>
+        <v>108</v>
       </c>
       <c r="I205">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J205">
         <v>0</v>
@@ -18619,10 +18615,10 @@
         <v>26</v>
       </c>
       <c r="Q205">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R205" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S205" t="s">
         <v>205</v>
@@ -18631,9 +18627,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="B206">
         <v>7</v>
@@ -18642,29 +18638,28 @@
         <v>19</v>
       </c>
       <c r="D206">
-        <f>D198</f>
-        <v>146</v>
+        <v>100</v>
       </c>
       <c r="E206">
-        <f>E205+1</f>
-        <v>111</v>
+        <f>E205+2</f>
+        <v>110</v>
       </c>
       <c r="F206">
-        <f>F198</f>
-        <v>165</v>
+        <f>D202-2</f>
+        <v>145</v>
       </c>
       <c r="G206">
-        <f t="shared" ref="G206:G208" si="43">E206+3</f>
-        <v>114</v>
+        <f>E206+5</f>
+        <v>115</v>
       </c>
       <c r="H206" t="s">
-        <v>20</v>
+        <v>178</v>
       </c>
       <c r="I206">
         <v>10</v>
       </c>
       <c r="J206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K206">
         <v>0</v>
@@ -18676,13 +18671,13 @@
         <v>1282</v>
       </c>
       <c r="O206" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q206">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R206" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S206" t="s">
         <v>205</v>
@@ -18693,7 +18688,7 @@
     </row>
     <row r="207" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="B207">
         <v>7</v>
@@ -18703,18 +18698,18 @@
       </c>
       <c r="D207">
         <f>D199</f>
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="E207">
-        <f>E206</f>
+        <f>E206+1</f>
         <v>111</v>
       </c>
       <c r="F207">
         <f>F199</f>
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="G207">
-        <f t="shared" si="43"/>
+        <f t="shared" ref="G207:G209" si="43">E207+3</f>
         <v>114</v>
       </c>
       <c r="H207" t="s">
@@ -18753,7 +18748,7 @@
     </row>
     <row r="208" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="B208">
         <v>7</v>
@@ -18763,7 +18758,7 @@
       </c>
       <c r="D208">
         <f>D200</f>
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="E208">
         <f>E207</f>
@@ -18771,7 +18766,7 @@
       </c>
       <c r="F208">
         <f>F200</f>
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="G208">
         <f t="shared" si="43"/>
@@ -18811,9 +18806,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>1701</v>
+        <v>1592</v>
       </c>
       <c r="B209">
         <v>7</v>
@@ -18822,28 +18817,29 @@
         <v>19</v>
       </c>
       <c r="D209">
-        <v>100</v>
+        <f>D201</f>
+        <v>188</v>
       </c>
       <c r="E209">
-        <f>E205+18</f>
-        <v>128</v>
+        <f>E208</f>
+        <v>111</v>
       </c>
       <c r="F209">
-        <f>F205</f>
-        <v>145</v>
+        <f>F201</f>
+        <v>209</v>
       </c>
       <c r="G209">
-        <f>E209+5</f>
-        <v>133</v>
+        <f t="shared" si="43"/>
+        <v>114</v>
       </c>
       <c r="H209" t="s">
-        <v>178</v>
+        <v>20</v>
       </c>
       <c r="I209">
         <v>10</v>
       </c>
       <c r="J209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K209">
         <v>0</v>
@@ -18855,13 +18851,13 @@
         <v>1282</v>
       </c>
       <c r="O209" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q209">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R209" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S209" t="s">
         <v>205</v>
@@ -18870,9 +18866,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="B210">
         <v>7</v>
@@ -18881,29 +18877,28 @@
         <v>19</v>
       </c>
       <c r="D210">
-        <f>D206</f>
-        <v>146</v>
+        <v>100</v>
       </c>
       <c r="E210">
-        <f>E209+1</f>
-        <v>129</v>
+        <f>E206+18</f>
+        <v>128</v>
       </c>
       <c r="F210">
         <f>F206</f>
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="G210">
-        <f t="shared" ref="G210:G212" si="44">E210+3</f>
-        <v>132</v>
+        <f>E210+5</f>
+        <v>133</v>
       </c>
       <c r="H210" t="s">
-        <v>20</v>
+        <v>178</v>
       </c>
       <c r="I210">
         <v>10</v>
       </c>
       <c r="J210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K210">
         <v>0</v>
@@ -18915,13 +18910,13 @@
         <v>1282</v>
       </c>
       <c r="O210" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q210">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R210" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S210" t="s">
         <v>205</v>
@@ -18932,7 +18927,7 @@
     </row>
     <row r="211" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="B211">
         <v>7</v>
@@ -18942,18 +18937,18 @@
       </c>
       <c r="D211">
         <f>D207</f>
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="E211">
-        <f>E210</f>
+        <f>E210+1</f>
         <v>129</v>
       </c>
       <c r="F211">
         <f>F207</f>
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="G211">
-        <f t="shared" si="44"/>
+        <f t="shared" ref="G211:G213" si="44">E211+3</f>
         <v>132</v>
       </c>
       <c r="H211" t="s">
@@ -18992,7 +18987,7 @@
     </row>
     <row r="212" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="B212">
         <v>7</v>
@@ -19002,7 +18997,7 @@
       </c>
       <c r="D212">
         <f>D208</f>
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="E212">
         <f>E211</f>
@@ -19010,7 +19005,7 @@
       </c>
       <c r="F212">
         <f>F208</f>
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="G212">
         <f t="shared" si="44"/>
@@ -19050,9 +19045,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="B213">
         <v>7</v>
@@ -19061,28 +19056,29 @@
         <v>19</v>
       </c>
       <c r="D213">
-        <v>100</v>
+        <f>D209</f>
+        <v>188</v>
       </c>
       <c r="E213">
-        <f>E209+18</f>
-        <v>146</v>
+        <f>E212</f>
+        <v>129</v>
       </c>
       <c r="F213">
         <f>F209</f>
-        <v>145</v>
+        <v>209</v>
       </c>
       <c r="G213">
-        <f>E213+5</f>
-        <v>151</v>
+        <f t="shared" si="44"/>
+        <v>132</v>
       </c>
       <c r="H213" t="s">
-        <v>178</v>
+        <v>20</v>
       </c>
       <c r="I213">
         <v>10</v>
       </c>
       <c r="J213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K213">
         <v>0</v>
@@ -19094,13 +19090,13 @@
         <v>1282</v>
       </c>
       <c r="O213" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q213">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R213" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S213" t="s">
         <v>205</v>
@@ -19109,9 +19105,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="B214">
         <v>7</v>
@@ -19120,29 +19116,28 @@
         <v>19</v>
       </c>
       <c r="D214">
-        <f>D206</f>
+        <v>100</v>
+      </c>
+      <c r="E214">
+        <f>E210+18</f>
         <v>146</v>
       </c>
-      <c r="E214">
-        <f>E213+1</f>
-        <v>147</v>
-      </c>
       <c r="F214">
-        <f>F206</f>
-        <v>165</v>
+        <f>F210</f>
+        <v>145</v>
       </c>
       <c r="G214">
-        <f t="shared" ref="G214:G216" si="45">E214+3</f>
-        <v>150</v>
+        <f>E214+5</f>
+        <v>151</v>
       </c>
       <c r="H214" t="s">
-        <v>20</v>
+        <v>178</v>
       </c>
       <c r="I214">
         <v>10</v>
       </c>
       <c r="J214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K214">
         <v>0</v>
@@ -19154,13 +19149,13 @@
         <v>1282</v>
       </c>
       <c r="O214" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q214">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R214" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S214" t="s">
         <v>205</v>
@@ -19171,7 +19166,7 @@
     </row>
     <row r="215" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="B215">
         <v>7</v>
@@ -19181,18 +19176,18 @@
       </c>
       <c r="D215">
         <f>D207</f>
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="E215">
-        <f>E214</f>
+        <f>E214+1</f>
         <v>147</v>
       </c>
       <c r="F215">
         <f>F207</f>
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="G215">
-        <f t="shared" si="45"/>
+        <f t="shared" ref="G215:G217" si="45">E215+3</f>
         <v>150</v>
       </c>
       <c r="H215" t="s">
@@ -19231,7 +19226,7 @@
     </row>
     <row r="216" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="B216">
         <v>7</v>
@@ -19241,7 +19236,7 @@
       </c>
       <c r="D216">
         <f>D208</f>
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="E216">
         <f>E215</f>
@@ -19249,7 +19244,7 @@
       </c>
       <c r="F216">
         <f>F208</f>
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="G216">
         <f t="shared" si="45"/>
@@ -19291,7 +19286,7 @@
     </row>
     <row r="217" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>48</v>
+        <v>1708</v>
       </c>
       <c r="B217">
         <v>7</v>
@@ -19300,24 +19295,27 @@
         <v>19</v>
       </c>
       <c r="D217">
+        <f>D209</f>
+        <v>188</v>
+      </c>
+      <c r="E217">
+        <f>E216</f>
+        <v>147</v>
+      </c>
+      <c r="F217">
+        <f>F209</f>
+        <v>209</v>
+      </c>
+      <c r="G217">
+        <f t="shared" si="45"/>
+        <v>150</v>
+      </c>
+      <c r="H217" t="s">
+        <v>20</v>
+      </c>
+      <c r="I217">
         <v>10</v>
       </c>
-      <c r="E217">
-        <v>134</v>
-      </c>
-      <c r="F217">
-        <v>100</v>
-      </c>
-      <c r="G217">
-        <f t="shared" ref="G217" si="46">E217+3</f>
-        <v>137</v>
-      </c>
-      <c r="H217" t="s">
-        <v>178</v>
-      </c>
-      <c r="I217">
-        <v>12</v>
-      </c>
       <c r="J217">
         <v>1</v>
       </c>
@@ -19328,10 +19326,10 @@
         <v>0</v>
       </c>
       <c r="N217" t="s">
-        <v>1642</v>
+        <v>1282</v>
       </c>
       <c r="O217" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q217">
         <v>2</v>
@@ -19348,7 +19346,7 @@
     </row>
     <row r="218" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>132</v>
+        <v>48</v>
       </c>
       <c r="B218">
         <v>7</v>
@@ -19357,18 +19355,17 @@
         <v>19</v>
       </c>
       <c r="D218">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="E218">
-        <f>G196+5</f>
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="F218">
-        <v>205</v>
+        <v>100</v>
       </c>
       <c r="G218">
-        <f>E218+5</f>
-        <v>170</v>
+        <f t="shared" ref="G218" si="46">E218+3</f>
+        <v>153</v>
       </c>
       <c r="H218" t="s">
         <v>178</v>
@@ -19377,7 +19374,7 @@
         <v>12</v>
       </c>
       <c r="J218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K218">
         <v>0</v>
@@ -19389,14 +19386,13 @@
         <v>1642</v>
       </c>
       <c r="O218" t="s">
-        <v>177</v>
-      </c>
-      <c r="P218" s="1"/>
+        <v>26</v>
+      </c>
       <c r="Q218">
         <v>2</v>
       </c>
       <c r="R218" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S218" t="s">
         <v>205</v>
@@ -19407,31 +19403,33 @@
     </row>
     <row r="219" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>49</v>
+        <v>132</v>
       </c>
       <c r="B219">
         <v>7</v>
       </c>
       <c r="C219" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D219">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="E219">
-        <f>G217+4</f>
-        <v>141</v>
+        <f>G197+5</f>
+        <v>165</v>
       </c>
       <c r="F219">
-        <f>D219+88</f>
-        <v>98</v>
+        <v>205</v>
       </c>
       <c r="G219">
-        <f>E219+80</f>
-        <v>221</v>
+        <f>E219+5</f>
+        <v>170</v>
+      </c>
+      <c r="H219" t="s">
+        <v>178</v>
       </c>
       <c r="I219">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J219">
         <v>0</v>
@@ -19446,13 +19444,14 @@
         <v>1642</v>
       </c>
       <c r="O219" t="s">
-        <v>26</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="P219" s="1"/>
       <c r="Q219">
         <v>2</v>
       </c>
       <c r="R219" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S219" t="s">
         <v>205</v>
@@ -19463,33 +19462,34 @@
     </row>
     <row r="220" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>1709</v>
+        <v>49</v>
       </c>
       <c r="B220">
         <v>7</v>
       </c>
       <c r="C220" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D220">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E220">
-        <f>E218+56</f>
-        <v>221</v>
+        <f>G218+4</f>
+        <v>157</v>
       </c>
       <c r="F220">
-        <v>210</v>
+        <f>D220+88</f>
+        <v>98</v>
       </c>
       <c r="G220">
-        <f>G232+10</f>
-        <v>265</v>
+        <f>E220+80</f>
+        <v>237</v>
       </c>
       <c r="I220">
         <v>0</v>
       </c>
       <c r="J220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K220">
         <v>0</v>
@@ -19497,17 +19497,14 @@
       <c r="L220">
         <v>0</v>
       </c>
-      <c r="M220" t="s">
-        <v>1282</v>
-      </c>
       <c r="N220" t="s">
-        <v>1282</v>
+        <v>1642</v>
       </c>
       <c r="O220" t="s">
         <v>26</v>
       </c>
       <c r="Q220">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R220" t="b">
         <v>0</v>
@@ -19521,7 +19518,7 @@
     </row>
     <row r="221" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>1710</v>
+        <v>1738</v>
       </c>
       <c r="B221">
         <v>7</v>
@@ -19530,28 +19527,28 @@
         <v>19</v>
       </c>
       <c r="D221">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E221">
-        <f>E220+2</f>
-        <v>223</v>
+        <f>G220+5</f>
+        <v>242</v>
       </c>
       <c r="F221">
-        <f>F220</f>
-        <v>210</v>
+        <f>D221+88</f>
+        <v>98</v>
       </c>
       <c r="G221">
-        <f>E221+5</f>
-        <v>228</v>
+        <f>E221+8</f>
+        <v>250</v>
       </c>
       <c r="H221" t="s">
         <v>178</v>
       </c>
       <c r="I221">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K221">
         <v>0</v>
@@ -19560,13 +19557,13 @@
         <v>0</v>
       </c>
       <c r="N221" t="s">
-        <v>1282</v>
+        <v>1642</v>
       </c>
       <c r="O221" t="s">
         <v>26</v>
       </c>
       <c r="Q221">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R221" t="b">
         <v>1</v>
@@ -19580,56 +19577,54 @@
     </row>
     <row r="222" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>1598</v>
+        <v>1709</v>
       </c>
       <c r="B222">
         <v>7</v>
       </c>
       <c r="C222" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D222">
-        <f t="shared" ref="D222" si="47">D225-1</f>
-        <v>149</v>
+        <v>100</v>
       </c>
       <c r="E222">
-        <f>G221+5</f>
-        <v>233</v>
+        <f>E219+56</f>
+        <v>221</v>
       </c>
       <c r="F222">
-        <f>D226-1</f>
-        <v>171</v>
+        <v>210</v>
       </c>
       <c r="G222">
-        <f>E222+5</f>
-        <v>238</v>
-      </c>
-      <c r="H222" t="s">
-        <v>178</v>
+        <f>G234+10</f>
+        <v>265</v>
       </c>
       <c r="I222">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J222">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K222">
         <v>0</v>
       </c>
       <c r="L222">
         <v>0</v>
+      </c>
+      <c r="M222" t="s">
+        <v>1282</v>
       </c>
       <c r="N222" t="s">
         <v>1282</v>
       </c>
       <c r="O222" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q222">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R222" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S222" t="s">
         <v>205</v>
@@ -19640,7 +19635,7 @@
     </row>
     <row r="223" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>1599</v>
+        <v>1710</v>
       </c>
       <c r="B223">
         <v>7</v>
@@ -19649,29 +19644,29 @@
         <v>19</v>
       </c>
       <c r="D223">
-        <f>D226-1</f>
-        <v>171</v>
+        <f>D222</f>
+        <v>100</v>
       </c>
       <c r="E223">
-        <f t="shared" ref="E223:E227" si="48">E222</f>
-        <v>233</v>
+        <f>E222+2</f>
+        <v>223</v>
       </c>
       <c r="F223">
-        <f>D227+1</f>
-        <v>195</v>
+        <f>F222</f>
+        <v>210</v>
       </c>
       <c r="G223">
-        <f>G222</f>
-        <v>238</v>
+        <f>E223+5</f>
+        <v>228</v>
       </c>
       <c r="H223" t="s">
         <v>178</v>
       </c>
       <c r="I223">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K223">
         <v>0</v>
@@ -19683,7 +19678,7 @@
         <v>1282</v>
       </c>
       <c r="O223" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q223">
         <v>3</v>
@@ -19700,7 +19695,7 @@
     </row>
     <row r="224" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="B224">
         <v>7</v>
@@ -19709,19 +19704,19 @@
         <v>19</v>
       </c>
       <c r="D224">
-        <f>D227</f>
-        <v>194</v>
+        <f t="shared" ref="D224" si="47">D227-1</f>
+        <v>146</v>
       </c>
       <c r="E224">
-        <f t="shared" si="48"/>
+        <f>G223+5</f>
         <v>233</v>
       </c>
       <c r="F224">
-        <f>D224+21</f>
-        <v>215</v>
+        <f>D228-1</f>
+        <v>165</v>
       </c>
       <c r="G224">
-        <f t="shared" ref="G224" si="49">G223</f>
+        <f>E224+5</f>
         <v>238</v>
       </c>
       <c r="H224" t="s">
@@ -19760,32 +19755,35 @@
     </row>
     <row r="225" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>53</v>
+        <v>1599</v>
       </c>
       <c r="B225">
         <v>7</v>
       </c>
       <c r="C225" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D225">
-        <f>D221+50</f>
-        <v>150</v>
+        <f>D228-1</f>
+        <v>165</v>
       </c>
       <c r="E225">
-        <f>E224</f>
+        <f t="shared" ref="E225:E229" si="48">E224</f>
         <v>233</v>
       </c>
       <c r="F225">
-        <f>D225</f>
-        <v>150</v>
+        <f>D229+1</f>
+        <v>189</v>
       </c>
       <c r="G225">
-        <f>G220</f>
-        <v>265</v>
+        <f>G224</f>
+        <v>238</v>
+      </c>
+      <c r="H225" t="s">
+        <v>178</v>
       </c>
       <c r="I225">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J225">
         <v>0</v>
@@ -19800,13 +19798,13 @@
         <v>1282</v>
       </c>
       <c r="O225" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q225">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R225" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S225" t="s">
         <v>205</v>
@@ -19817,32 +19815,35 @@
     </row>
     <row r="226" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>54</v>
+        <v>1600</v>
       </c>
       <c r="B226">
         <v>7</v>
       </c>
       <c r="C226" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D226">
-        <f>D225+22</f>
-        <v>172</v>
+        <f>D229</f>
+        <v>188</v>
       </c>
       <c r="E226">
         <f t="shared" si="48"/>
         <v>233</v>
       </c>
       <c r="F226">
-        <f t="shared" ref="F226:F227" si="50">D226</f>
-        <v>172</v>
+        <f>D226+21</f>
+        <v>209</v>
       </c>
       <c r="G226">
-        <f>G225</f>
-        <v>265</v>
+        <f t="shared" ref="G226" si="49">G225</f>
+        <v>238</v>
+      </c>
+      <c r="H226" t="s">
+        <v>178</v>
       </c>
       <c r="I226">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J226">
         <v>0</v>
@@ -19857,13 +19858,13 @@
         <v>1282</v>
       </c>
       <c r="O226" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q226">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R226" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S226" t="s">
         <v>205</v>
@@ -19874,7 +19875,7 @@
     </row>
     <row r="227" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B227">
         <v>7</v>
@@ -19883,77 +19884,77 @@
         <v>26</v>
       </c>
       <c r="D227">
-        <f>D226+22</f>
-        <v>194</v>
+        <f>D223+47</f>
+        <v>147</v>
       </c>
       <c r="E227">
+        <f>E226</f>
+        <v>233</v>
+      </c>
+      <c r="F227">
+        <f>D227</f>
+        <v>147</v>
+      </c>
+      <c r="G227">
+        <f>G222</f>
+        <v>265</v>
+      </c>
+      <c r="I227">
+        <v>0</v>
+      </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
+      <c r="K227">
+        <v>0</v>
+      </c>
+      <c r="L227">
+        <v>0</v>
+      </c>
+      <c r="N227" t="s">
+        <v>1282</v>
+      </c>
+      <c r="O227" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q227">
+        <v>4</v>
+      </c>
+      <c r="R227" t="b">
+        <v>0</v>
+      </c>
+      <c r="S227" t="s">
+        <v>205</v>
+      </c>
+      <c r="T227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>54</v>
+      </c>
+      <c r="B228">
+        <v>7</v>
+      </c>
+      <c r="C228" t="s">
+        <v>26</v>
+      </c>
+      <c r="D228">
+        <f>D227+19</f>
+        <v>166</v>
+      </c>
+      <c r="E228">
         <f t="shared" si="48"/>
         <v>233</v>
       </c>
-      <c r="F227">
-        <f t="shared" si="50"/>
-        <v>194</v>
-      </c>
-      <c r="G227">
-        <f>G226</f>
+      <c r="F228">
+        <f t="shared" ref="F228:F229" si="50">D228</f>
+        <v>166</v>
+      </c>
+      <c r="G228">
+        <f>G227</f>
         <v>265</v>
-      </c>
-      <c r="I227">
-        <v>0</v>
-      </c>
-      <c r="J227">
-        <v>0</v>
-      </c>
-      <c r="K227">
-        <v>0</v>
-      </c>
-      <c r="L227">
-        <v>0</v>
-      </c>
-      <c r="N227" t="s">
-        <v>1282</v>
-      </c>
-      <c r="O227" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q227">
-        <v>4</v>
-      </c>
-      <c r="R227" t="b">
-        <v>0</v>
-      </c>
-      <c r="S227" t="s">
-        <v>205</v>
-      </c>
-      <c r="T227">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
-        <v>64</v>
-      </c>
-      <c r="B228">
-        <v>7</v>
-      </c>
-      <c r="C228" t="s">
-        <v>26</v>
-      </c>
-      <c r="D228">
-        <f>D220</f>
-        <v>100</v>
-      </c>
-      <c r="E228">
-        <f>E222+16</f>
-        <v>249</v>
-      </c>
-      <c r="F228">
-        <f>F220</f>
-        <v>210</v>
-      </c>
-      <c r="G228">
-        <f>E228</f>
-        <v>249</v>
       </c>
       <c r="I228">
         <v>0</v>
@@ -19986,36 +19987,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>1711</v>
+        <v>55</v>
       </c>
       <c r="B229">
         <v>7</v>
       </c>
       <c r="C229" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D229">
-        <v>100</v>
+        <f>D228+22</f>
+        <v>188</v>
       </c>
       <c r="E229">
-        <f>E228+2</f>
-        <v>251</v>
+        <f t="shared" si="48"/>
+        <v>233</v>
       </c>
       <c r="F229">
-        <f>D225-2</f>
-        <v>148</v>
+        <f t="shared" si="50"/>
+        <v>188</v>
       </c>
       <c r="G229">
-        <f>E229+5</f>
-        <v>256</v>
-      </c>
-      <c r="H229" t="s">
-        <v>178</v>
+        <f>G228</f>
+        <v>265</v>
       </c>
       <c r="I229">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J229">
         <v>0</v>
@@ -20033,10 +20032,10 @@
         <v>26</v>
       </c>
       <c r="Q229">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R229" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S229" t="s">
         <v>205</v>
@@ -20047,38 +20046,35 @@
     </row>
     <row r="230" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>1712</v>
+        <v>64</v>
       </c>
       <c r="B230">
         <v>7</v>
       </c>
       <c r="C230" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D230">
         <f>D222</f>
-        <v>149</v>
+        <v>100</v>
       </c>
       <c r="E230">
-        <f>E229+1</f>
-        <v>252</v>
+        <f>E224+16</f>
+        <v>249</v>
       </c>
       <c r="F230">
         <f>F222</f>
-        <v>171</v>
+        <v>210</v>
       </c>
       <c r="G230">
-        <f t="shared" ref="G230:G232" si="51">E230+3</f>
-        <v>255</v>
-      </c>
-      <c r="H230" t="s">
-        <v>20</v>
+        <f>E230</f>
+        <v>249</v>
       </c>
       <c r="I230">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K230">
         <v>0</v>
@@ -20090,10 +20086,10 @@
         <v>1282</v>
       </c>
       <c r="O230" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q230">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R230" t="b">
         <v>0</v>
@@ -20105,9 +20101,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="B231">
         <v>7</v>
@@ -20116,219 +20112,223 @@
         <v>19</v>
       </c>
       <c r="D231">
-        <f>D223</f>
-        <v>171</v>
+        <v>100</v>
       </c>
       <c r="E231">
-        <f>E230</f>
+        <f>E230+2</f>
+        <v>251</v>
+      </c>
+      <c r="F231">
+        <f>D227-2</f>
+        <v>145</v>
+      </c>
+      <c r="G231">
+        <f>E231+5</f>
+        <v>256</v>
+      </c>
+      <c r="H231" t="s">
+        <v>178</v>
+      </c>
+      <c r="I231">
+        <v>10</v>
+      </c>
+      <c r="J231">
+        <v>0</v>
+      </c>
+      <c r="K231">
+        <v>0</v>
+      </c>
+      <c r="L231">
+        <v>0</v>
+      </c>
+      <c r="N231" t="s">
+        <v>1282</v>
+      </c>
+      <c r="O231" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q231">
+        <v>3</v>
+      </c>
+      <c r="R231" t="b">
+        <v>1</v>
+      </c>
+      <c r="S231" t="s">
+        <v>205</v>
+      </c>
+      <c r="T231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>1712</v>
+      </c>
+      <c r="B232">
+        <v>7</v>
+      </c>
+      <c r="C232" t="s">
+        <v>19</v>
+      </c>
+      <c r="D232">
+        <f>D224</f>
+        <v>146</v>
+      </c>
+      <c r="E232">
+        <f>E231+1</f>
         <v>252</v>
       </c>
-      <c r="F231">
-        <f>F223</f>
-        <v>195</v>
-      </c>
-      <c r="G231">
+      <c r="F232">
+        <f>F224</f>
+        <v>165</v>
+      </c>
+      <c r="G232">
+        <f t="shared" ref="G232:G234" si="51">E232+3</f>
+        <v>255</v>
+      </c>
+      <c r="H232" t="s">
+        <v>20</v>
+      </c>
+      <c r="I232">
+        <v>10</v>
+      </c>
+      <c r="J232">
+        <v>1</v>
+      </c>
+      <c r="K232">
+        <v>0</v>
+      </c>
+      <c r="L232">
+        <v>0</v>
+      </c>
+      <c r="N232" t="s">
+        <v>1282</v>
+      </c>
+      <c r="O232" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q232">
+        <v>2</v>
+      </c>
+      <c r="R232" t="b">
+        <v>0</v>
+      </c>
+      <c r="S232" t="s">
+        <v>205</v>
+      </c>
+      <c r="T232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>1713</v>
+      </c>
+      <c r="B233">
+        <v>7</v>
+      </c>
+      <c r="C233" t="s">
+        <v>19</v>
+      </c>
+      <c r="D233">
+        <f>D225</f>
+        <v>165</v>
+      </c>
+      <c r="E233">
+        <f>E232</f>
+        <v>252</v>
+      </c>
+      <c r="F233">
+        <f>F225</f>
+        <v>189</v>
+      </c>
+      <c r="G233">
         <f t="shared" si="51"/>
         <v>255</v>
       </c>
-      <c r="H231" t="s">
+      <c r="H233" t="s">
         <v>20</v>
       </c>
-      <c r="I231">
+      <c r="I233">
         <v>10</v>
       </c>
-      <c r="J231">
-        <v>1</v>
-      </c>
-      <c r="K231">
-        <v>0</v>
-      </c>
-      <c r="L231">
-        <v>0</v>
-      </c>
-      <c r="N231" t="s">
+      <c r="J233">
+        <v>1</v>
+      </c>
+      <c r="K233">
+        <v>0</v>
+      </c>
+      <c r="L233">
+        <v>0</v>
+      </c>
+      <c r="N233" t="s">
         <v>1282</v>
       </c>
-      <c r="O231" t="s">
+      <c r="O233" t="s">
         <v>28</v>
       </c>
-      <c r="Q231">
+      <c r="Q233">
         <v>2</v>
       </c>
-      <c r="R231" t="b">
-        <v>0</v>
-      </c>
-      <c r="S231" t="s">
-        <v>205</v>
-      </c>
-      <c r="T231">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
+      <c r="R233" t="b">
+        <v>0</v>
+      </c>
+      <c r="S233" t="s">
+        <v>205</v>
+      </c>
+      <c r="T233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
         <v>1714</v>
       </c>
-      <c r="B232">
+      <c r="B234">
         <v>7</v>
       </c>
-      <c r="C232" t="s">
+      <c r="C234" t="s">
         <v>19</v>
       </c>
-      <c r="D232">
-        <f>D224</f>
-        <v>194</v>
-      </c>
-      <c r="E232">
-        <f>E231</f>
+      <c r="D234">
+        <f>D226</f>
+        <v>188</v>
+      </c>
+      <c r="E234">
+        <f>E233</f>
         <v>252</v>
       </c>
-      <c r="F232">
-        <f>F224</f>
-        <v>215</v>
-      </c>
-      <c r="G232">
+      <c r="F234">
+        <f>F226</f>
+        <v>209</v>
+      </c>
+      <c r="G234">
         <f t="shared" si="51"/>
         <v>255</v>
       </c>
-      <c r="H232" t="s">
+      <c r="H234" t="s">
         <v>20</v>
       </c>
-      <c r="I232">
+      <c r="I234">
         <v>10</v>
       </c>
-      <c r="J232">
-        <v>1</v>
-      </c>
-      <c r="K232">
-        <v>0</v>
-      </c>
-      <c r="L232">
-        <v>0</v>
-      </c>
-      <c r="N232" t="s">
+      <c r="J234">
+        <v>1</v>
+      </c>
+      <c r="K234">
+        <v>0</v>
+      </c>
+      <c r="L234">
+        <v>0</v>
+      </c>
+      <c r="N234" t="s">
         <v>1282</v>
       </c>
-      <c r="O232" t="s">
+      <c r="O234" t="s">
         <v>28</v>
       </c>
-      <c r="Q232">
+      <c r="Q234">
         <v>2</v>
-      </c>
-      <c r="R232" t="b">
-        <v>0</v>
-      </c>
-      <c r="S232" t="s">
-        <v>205</v>
-      </c>
-      <c r="T232">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
-        <v>1715</v>
-      </c>
-      <c r="B233">
-        <v>8</v>
-      </c>
-      <c r="C233" t="s">
-        <v>27</v>
-      </c>
-      <c r="D233">
-        <v>0</v>
-      </c>
-      <c r="E233">
-        <v>12</v>
-      </c>
-      <c r="F233">
-        <v>210</v>
-      </c>
-      <c r="G233">
-        <f>G261+10</f>
-        <v>109</v>
-      </c>
-      <c r="I233">
-        <v>0</v>
-      </c>
-      <c r="J233">
-        <v>1</v>
-      </c>
-      <c r="K233">
-        <v>0</v>
-      </c>
-      <c r="L233">
-        <v>0</v>
-      </c>
-      <c r="M233" t="s">
-        <v>1282</v>
-      </c>
-      <c r="N233" t="s">
-        <v>656</v>
-      </c>
-      <c r="O233" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q233">
-        <v>1</v>
-      </c>
-      <c r="R233" t="b">
-        <v>0</v>
-      </c>
-      <c r="S233" t="s">
-        <v>205</v>
-      </c>
-      <c r="T233">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
-        <v>1716</v>
-      </c>
-      <c r="B234">
-        <v>8</v>
-      </c>
-      <c r="C234" t="s">
-        <v>19</v>
-      </c>
-      <c r="D234">
-        <v>10</v>
-      </c>
-      <c r="E234">
-        <f>E233+5</f>
-        <v>17</v>
-      </c>
-      <c r="F234">
-        <v>200</v>
-      </c>
-      <c r="G234">
-        <f>E234+3</f>
-        <v>20</v>
-      </c>
-      <c r="H234" t="s">
-        <v>178</v>
-      </c>
-      <c r="I234">
-        <v>12</v>
-      </c>
-      <c r="J234">
-        <v>1</v>
-      </c>
-      <c r="K234">
-        <v>0</v>
-      </c>
-      <c r="L234">
-        <v>0</v>
-      </c>
-      <c r="N234" t="s">
-        <v>656</v>
-      </c>
-      <c r="O234" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q234">
-        <v>3</v>
       </c>
       <c r="R234" t="b">
         <v>0</v>
@@ -20342,56 +20342,53 @@
     </row>
     <row r="235" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>1598</v>
+        <v>1715</v>
       </c>
       <c r="B235">
         <v>8</v>
       </c>
       <c r="C235" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D235">
-        <f t="shared" ref="D235" si="52">D238-1</f>
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="E235">
-        <f>G234+5</f>
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F235">
-        <f>D239-1</f>
-        <v>155</v>
+        <v>210</v>
       </c>
       <c r="G235">
-        <f>E235+5</f>
-        <v>30</v>
-      </c>
-      <c r="H235" t="s">
-        <v>178</v>
+        <f>G263+10</f>
+        <v>109</v>
       </c>
       <c r="I235">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J235">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K235">
         <v>0</v>
       </c>
       <c r="L235">
         <v>0</v>
+      </c>
+      <c r="M235" t="s">
+        <v>1282</v>
       </c>
       <c r="N235" t="s">
         <v>656</v>
       </c>
       <c r="O235" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q235">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R235" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S235" t="s">
         <v>205</v>
@@ -20402,7 +20399,7 @@
     </row>
     <row r="236" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>1599</v>
+        <v>1716</v>
       </c>
       <c r="B236">
         <v>8</v>
@@ -20411,29 +20408,27 @@
         <v>19</v>
       </c>
       <c r="D236">
-        <f>D239-1</f>
-        <v>155</v>
+        <v>10</v>
       </c>
       <c r="E236">
-        <f t="shared" ref="E236:E240" si="53">E235</f>
-        <v>25</v>
+        <f>E235+5</f>
+        <v>17</v>
       </c>
       <c r="F236">
-        <f>D240+1</f>
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="G236">
-        <f>G235</f>
-        <v>30</v>
+        <f>E236+3</f>
+        <v>20</v>
       </c>
       <c r="H236" t="s">
         <v>178</v>
       </c>
       <c r="I236">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K236">
         <v>0</v>
@@ -20445,13 +20440,13 @@
         <v>656</v>
       </c>
       <c r="O236" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q236">
         <v>3</v>
       </c>
       <c r="R236" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S236" t="s">
         <v>205</v>
@@ -20462,7 +20457,7 @@
     </row>
     <row r="237" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="B237">
         <v>8</v>
@@ -20471,19 +20466,19 @@
         <v>19</v>
       </c>
       <c r="D237">
-        <f>D240</f>
-        <v>181</v>
+        <f t="shared" ref="D237" si="52">D240-1</f>
+        <v>130</v>
       </c>
       <c r="E237">
-        <f t="shared" si="53"/>
+        <f>G236+5</f>
         <v>25</v>
       </c>
       <c r="F237">
-        <f>D237+26</f>
-        <v>207</v>
+        <f>D241-1</f>
+        <v>155</v>
       </c>
       <c r="G237">
-        <f t="shared" ref="G237" si="54">G236</f>
+        <f>E237+5</f>
         <v>30</v>
       </c>
       <c r="H237" t="s">
@@ -20522,32 +20517,35 @@
     </row>
     <row r="238" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>53</v>
+        <v>1599</v>
       </c>
       <c r="B238">
         <v>8</v>
       </c>
       <c r="C238" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D238">
-        <f>D234+121</f>
-        <v>131</v>
+        <f>D241-1</f>
+        <v>155</v>
       </c>
       <c r="E238">
-        <f>E237</f>
+        <f t="shared" ref="E238:E242" si="53">E237</f>
         <v>25</v>
       </c>
       <c r="F238">
-        <f>D238</f>
-        <v>131</v>
+        <f>D242+1</f>
+        <v>182</v>
       </c>
       <c r="G238">
-        <f>G233</f>
-        <v>109</v>
+        <f>G237</f>
+        <v>30</v>
+      </c>
+      <c r="H238" t="s">
+        <v>178</v>
       </c>
       <c r="I238">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J238">
         <v>0</v>
@@ -20562,13 +20560,13 @@
         <v>656</v>
       </c>
       <c r="O238" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q238">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R238" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S238" t="s">
         <v>205</v>
@@ -20579,32 +20577,35 @@
     </row>
     <row r="239" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>54</v>
+        <v>1600</v>
       </c>
       <c r="B239">
         <v>8</v>
       </c>
       <c r="C239" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D239">
-        <f>D238+25</f>
-        <v>156</v>
+        <f>D242</f>
+        <v>181</v>
       </c>
       <c r="E239">
         <f t="shared" si="53"/>
         <v>25</v>
       </c>
       <c r="F239">
-        <f t="shared" ref="F239:F240" si="55">D239</f>
-        <v>156</v>
+        <f>D239+26</f>
+        <v>207</v>
       </c>
       <c r="G239">
-        <f>G238</f>
-        <v>109</v>
+        <f t="shared" ref="G239" si="54">G238</f>
+        <v>30</v>
+      </c>
+      <c r="H239" t="s">
+        <v>178</v>
       </c>
       <c r="I239">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J239">
         <v>0</v>
@@ -20619,13 +20620,13 @@
         <v>656</v>
       </c>
       <c r="O239" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q239">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R239" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S239" t="s">
         <v>205</v>
@@ -20636,7 +20637,7 @@
     </row>
     <row r="240" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B240">
         <v>8</v>
@@ -20645,140 +20646,137 @@
         <v>26</v>
       </c>
       <c r="D240">
-        <f>D239+25</f>
-        <v>181</v>
+        <f>D236+121</f>
+        <v>131</v>
       </c>
       <c r="E240">
+        <f>E239</f>
+        <v>25</v>
+      </c>
+      <c r="F240">
+        <f>D240</f>
+        <v>131</v>
+      </c>
+      <c r="G240">
+        <f>G235</f>
+        <v>109</v>
+      </c>
+      <c r="I240">
+        <v>0</v>
+      </c>
+      <c r="J240">
+        <v>0</v>
+      </c>
+      <c r="K240">
+        <v>0</v>
+      </c>
+      <c r="L240">
+        <v>0</v>
+      </c>
+      <c r="N240" t="s">
+        <v>656</v>
+      </c>
+      <c r="O240" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q240">
+        <v>4</v>
+      </c>
+      <c r="R240" t="b">
+        <v>0</v>
+      </c>
+      <c r="S240" t="s">
+        <v>205</v>
+      </c>
+      <c r="T240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>54</v>
+      </c>
+      <c r="B241">
+        <v>8</v>
+      </c>
+      <c r="C241" t="s">
+        <v>26</v>
+      </c>
+      <c r="D241">
+        <f>D240+25</f>
+        <v>156</v>
+      </c>
+      <c r="E241">
         <f t="shared" si="53"/>
         <v>25</v>
       </c>
-      <c r="F240">
+      <c r="F241">
+        <f t="shared" ref="F241:F242" si="55">D241</f>
+        <v>156</v>
+      </c>
+      <c r="G241">
+        <f>G240</f>
+        <v>109</v>
+      </c>
+      <c r="I241">
+        <v>0</v>
+      </c>
+      <c r="J241">
+        <v>0</v>
+      </c>
+      <c r="K241">
+        <v>0</v>
+      </c>
+      <c r="L241">
+        <v>0</v>
+      </c>
+      <c r="N241" t="s">
+        <v>656</v>
+      </c>
+      <c r="O241" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q241">
+        <v>4</v>
+      </c>
+      <c r="R241" t="b">
+        <v>0</v>
+      </c>
+      <c r="S241" t="s">
+        <v>205</v>
+      </c>
+      <c r="T241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>55</v>
+      </c>
+      <c r="B242">
+        <v>8</v>
+      </c>
+      <c r="C242" t="s">
+        <v>26</v>
+      </c>
+      <c r="D242">
+        <f>D241+25</f>
+        <v>181</v>
+      </c>
+      <c r="E242">
+        <f t="shared" si="53"/>
+        <v>25</v>
+      </c>
+      <c r="F242">
         <f t="shared" si="55"/>
         <v>181</v>
       </c>
-      <c r="G240">
-        <f>G239</f>
+      <c r="G242">
+        <f>G241</f>
         <v>109</v>
       </c>
-      <c r="I240">
-        <v>0</v>
-      </c>
-      <c r="J240">
-        <v>0</v>
-      </c>
-      <c r="K240">
-        <v>0</v>
-      </c>
-      <c r="L240">
-        <v>0</v>
-      </c>
-      <c r="N240" t="s">
-        <v>656</v>
-      </c>
-      <c r="O240" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q240">
-        <v>4</v>
-      </c>
-      <c r="R240" t="b">
-        <v>0</v>
-      </c>
-      <c r="S240" t="s">
-        <v>205</v>
-      </c>
-      <c r="T240">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
-        <v>64</v>
-      </c>
-      <c r="B241">
-        <v>8</v>
-      </c>
-      <c r="C241" t="s">
-        <v>26</v>
-      </c>
-      <c r="D241">
-        <f>D233</f>
-        <v>0</v>
-      </c>
-      <c r="E241">
-        <f>E235+16</f>
-        <v>41</v>
-      </c>
-      <c r="F241">
-        <f>F233</f>
-        <v>210</v>
-      </c>
-      <c r="G241">
-        <f>E241</f>
-        <v>41</v>
-      </c>
-      <c r="I241">
-        <v>0</v>
-      </c>
-      <c r="J241">
-        <v>0</v>
-      </c>
-      <c r="K241">
-        <v>0</v>
-      </c>
-      <c r="L241">
-        <v>0</v>
-      </c>
-      <c r="N241" t="s">
-        <v>656</v>
-      </c>
-      <c r="O241" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q241">
-        <v>4</v>
-      </c>
-      <c r="R241" t="b">
-        <v>0</v>
-      </c>
-      <c r="S241" t="s">
-        <v>205</v>
-      </c>
-      <c r="T241">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
-        <v>1717</v>
-      </c>
-      <c r="B242">
-        <v>8</v>
-      </c>
-      <c r="C242" t="s">
-        <v>19</v>
-      </c>
-      <c r="D242">
-        <f>D233+10</f>
-        <v>10</v>
-      </c>
-      <c r="E242">
-        <f>E241+2</f>
-        <v>43</v>
-      </c>
-      <c r="F242">
-        <f>D238-2</f>
-        <v>129</v>
-      </c>
-      <c r="G242">
-        <f>E242+5</f>
-        <v>48</v>
-      </c>
-      <c r="H242" t="s">
-        <v>178</v>
-      </c>
       <c r="I242">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J242">
         <v>0</v>
@@ -20796,10 +20794,10 @@
         <v>26</v>
       </c>
       <c r="Q242">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R242" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S242" t="s">
         <v>205</v>
@@ -20810,38 +20808,35 @@
     </row>
     <row r="243" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>1718</v>
+        <v>64</v>
       </c>
       <c r="B243">
         <v>8</v>
       </c>
       <c r="C243" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D243">
         <f>D235</f>
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="E243">
-        <f>E242+1</f>
-        <v>44</v>
+        <f>E237+16</f>
+        <v>41</v>
       </c>
       <c r="F243">
         <f>F235</f>
-        <v>155</v>
+        <v>210</v>
       </c>
       <c r="G243">
-        <f t="shared" ref="G243:G261" si="56">E243+3</f>
-        <v>47</v>
-      </c>
-      <c r="H243" t="s">
-        <v>20</v>
+        <f>E243</f>
+        <v>41</v>
       </c>
       <c r="I243">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K243">
         <v>0</v>
@@ -20853,10 +20848,10 @@
         <v>656</v>
       </c>
       <c r="O243" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q243">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R243" t="b">
         <v>0</v>
@@ -20870,7 +20865,7 @@
     </row>
     <row r="244" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
       <c r="B244">
         <v>8</v>
@@ -20879,1156 +20874,1163 @@
         <v>19</v>
       </c>
       <c r="D244">
-        <f>D236</f>
+        <f>D235+10</f>
+        <v>10</v>
+      </c>
+      <c r="E244">
+        <f>E243+2</f>
+        <v>43</v>
+      </c>
+      <c r="F244">
+        <f>D240-2</f>
+        <v>129</v>
+      </c>
+      <c r="G244">
+        <f>E244+5</f>
+        <v>48</v>
+      </c>
+      <c r="H244" t="s">
+        <v>178</v>
+      </c>
+      <c r="I244">
+        <v>10</v>
+      </c>
+      <c r="J244">
+        <v>0</v>
+      </c>
+      <c r="K244">
+        <v>0</v>
+      </c>
+      <c r="L244">
+        <v>0</v>
+      </c>
+      <c r="N244" t="s">
+        <v>656</v>
+      </c>
+      <c r="O244" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q244">
+        <v>3</v>
+      </c>
+      <c r="R244" t="b">
+        <v>1</v>
+      </c>
+      <c r="S244" t="s">
+        <v>205</v>
+      </c>
+      <c r="T244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>1718</v>
+      </c>
+      <c r="B245">
+        <v>8</v>
+      </c>
+      <c r="C245" t="s">
+        <v>19</v>
+      </c>
+      <c r="D245">
+        <f>D237</f>
+        <v>130</v>
+      </c>
+      <c r="E245">
+        <f>E244+1</f>
+        <v>44</v>
+      </c>
+      <c r="F245">
+        <f>F237</f>
         <v>155</v>
       </c>
-      <c r="E244">
-        <f>E243</f>
+      <c r="G245">
+        <f t="shared" ref="G245:G247" si="56">E245+3</f>
+        <v>47</v>
+      </c>
+      <c r="H245" t="s">
+        <v>20</v>
+      </c>
+      <c r="I245">
+        <v>10</v>
+      </c>
+      <c r="J245">
+        <v>1</v>
+      </c>
+      <c r="K245">
+        <v>0</v>
+      </c>
+      <c r="L245">
+        <v>0</v>
+      </c>
+      <c r="N245" t="s">
+        <v>656</v>
+      </c>
+      <c r="O245" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q245">
+        <v>2</v>
+      </c>
+      <c r="R245" t="b">
+        <v>0</v>
+      </c>
+      <c r="S245" t="s">
+        <v>205</v>
+      </c>
+      <c r="T245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>1719</v>
+      </c>
+      <c r="B246">
+        <v>8</v>
+      </c>
+      <c r="C246" t="s">
+        <v>19</v>
+      </c>
+      <c r="D246">
+        <f>D238</f>
+        <v>155</v>
+      </c>
+      <c r="E246">
+        <f>E245</f>
         <v>44</v>
       </c>
-      <c r="F244">
-        <f>F236</f>
+      <c r="F246">
+        <f>F238</f>
         <v>182</v>
       </c>
-      <c r="G244">
+      <c r="G246">
         <f t="shared" si="56"/>
         <v>47</v>
       </c>
-      <c r="H244" t="s">
+      <c r="H246" t="s">
         <v>20</v>
       </c>
-      <c r="I244">
+      <c r="I246">
         <v>10</v>
       </c>
-      <c r="J244">
-        <v>1</v>
-      </c>
-      <c r="K244">
-        <v>0</v>
-      </c>
-      <c r="L244">
-        <v>0</v>
-      </c>
-      <c r="N244" t="s">
+      <c r="J246">
+        <v>1</v>
+      </c>
+      <c r="K246">
+        <v>0</v>
+      </c>
+      <c r="L246">
+        <v>0</v>
+      </c>
+      <c r="N246" t="s">
         <v>656</v>
       </c>
-      <c r="O244" t="s">
+      <c r="O246" t="s">
         <v>28</v>
       </c>
-      <c r="Q244">
+      <c r="Q246">
         <v>2</v>
       </c>
-      <c r="R244" t="b">
-        <v>0</v>
-      </c>
-      <c r="S244" t="s">
-        <v>205</v>
-      </c>
-      <c r="T244">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
+      <c r="R246" t="b">
+        <v>0</v>
+      </c>
+      <c r="S246" t="s">
+        <v>205</v>
+      </c>
+      <c r="T246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
         <v>1720</v>
       </c>
-      <c r="B245">
+      <c r="B247">
         <v>8</v>
       </c>
-      <c r="C245" t="s">
+      <c r="C247" t="s">
         <v>19</v>
       </c>
-      <c r="D245">
-        <f>D237</f>
+      <c r="D247">
+        <f>D239</f>
         <v>181</v>
       </c>
-      <c r="E245">
-        <f>E244</f>
+      <c r="E247">
+        <f>E246</f>
         <v>44</v>
       </c>
-      <c r="F245">
-        <f>F237</f>
+      <c r="F247">
+        <f>F239</f>
         <v>207</v>
       </c>
-      <c r="G245">
+      <c r="G247">
         <f t="shared" si="56"/>
         <v>47</v>
       </c>
-      <c r="H245" t="s">
+      <c r="H247" t="s">
         <v>20</v>
       </c>
-      <c r="I245">
+      <c r="I247">
         <v>10</v>
       </c>
-      <c r="J245">
-        <v>1</v>
-      </c>
-      <c r="K245">
-        <v>0</v>
-      </c>
-      <c r="L245">
-        <v>0</v>
-      </c>
-      <c r="N245" t="s">
+      <c r="J247">
+        <v>1</v>
+      </c>
+      <c r="K247">
+        <v>0</v>
+      </c>
+      <c r="L247">
+        <v>0</v>
+      </c>
+      <c r="N247" t="s">
         <v>656</v>
       </c>
-      <c r="O245" t="s">
+      <c r="O247" t="s">
         <v>28</v>
       </c>
-      <c r="Q245">
+      <c r="Q247">
         <v>2</v>
       </c>
-      <c r="R245" t="b">
-        <v>0</v>
-      </c>
-      <c r="S245" t="s">
-        <v>205</v>
-      </c>
-      <c r="T245">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
+      <c r="R247" t="b">
+        <v>0</v>
+      </c>
+      <c r="S247" t="s">
+        <v>205</v>
+      </c>
+      <c r="T247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
         <v>1721</v>
       </c>
-      <c r="B246">
+      <c r="B248">
         <v>8</v>
       </c>
-      <c r="C246" t="s">
+      <c r="C248" t="s">
         <v>19</v>
       </c>
-      <c r="D246">
-        <f t="shared" ref="D246:D261" si="57">D242</f>
+      <c r="D248">
+        <f t="shared" ref="D248:D263" si="57">D244</f>
         <v>10</v>
       </c>
-      <c r="E246">
-        <f>E242+13</f>
+      <c r="E248">
+        <f>E244+13</f>
         <v>56</v>
       </c>
-      <c r="F246">
-        <f t="shared" ref="F246:F261" si="58">F242</f>
+      <c r="F248">
+        <f t="shared" ref="F248:F263" si="58">F244</f>
         <v>129</v>
       </c>
-      <c r="G246">
-        <f>E246+5</f>
+      <c r="G248">
+        <f>E248+5</f>
         <v>61</v>
       </c>
-      <c r="H246" t="s">
+      <c r="H248" t="s">
         <v>178</v>
       </c>
-      <c r="I246">
+      <c r="I248">
         <v>10</v>
       </c>
-      <c r="J246">
-        <v>0</v>
-      </c>
-      <c r="K246">
-        <v>0</v>
-      </c>
-      <c r="L246">
-        <v>0</v>
-      </c>
-      <c r="N246" t="s">
+      <c r="J248">
+        <v>0</v>
+      </c>
+      <c r="K248">
+        <v>0</v>
+      </c>
+      <c r="L248">
+        <v>0</v>
+      </c>
+      <c r="N248" t="s">
         <v>656</v>
       </c>
-      <c r="O246" t="s">
+      <c r="O248" t="s">
         <v>26</v>
       </c>
-      <c r="Q246">
+      <c r="Q248">
         <v>3</v>
       </c>
-      <c r="R246" t="b">
-        <v>1</v>
-      </c>
-      <c r="S246" t="s">
-        <v>205</v>
-      </c>
-      <c r="T246">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
+      <c r="R248" t="b">
+        <v>1</v>
+      </c>
+      <c r="S248" t="s">
+        <v>205</v>
+      </c>
+      <c r="T248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
         <v>1722</v>
       </c>
-      <c r="B247">
+      <c r="B249">
         <v>8</v>
       </c>
-      <c r="C247" t="s">
+      <c r="C249" t="s">
         <v>19</v>
       </c>
-      <c r="D247">
+      <c r="D249">
         <f t="shared" si="57"/>
         <v>130</v>
       </c>
-      <c r="E247">
-        <f>E246+1</f>
+      <c r="E249">
+        <f>E248+1</f>
         <v>57</v>
       </c>
-      <c r="F247">
+      <c r="F249">
         <f t="shared" si="58"/>
         <v>155</v>
       </c>
-      <c r="G247">
-        <f>E247+3</f>
+      <c r="G249">
+        <f>E249+3</f>
         <v>60</v>
       </c>
-      <c r="H247" t="s">
+      <c r="H249" t="s">
         <v>20</v>
       </c>
-      <c r="I247">
+      <c r="I249">
         <v>10</v>
       </c>
-      <c r="J247">
-        <v>1</v>
-      </c>
-      <c r="K247">
-        <v>0</v>
-      </c>
-      <c r="L247">
-        <v>0</v>
-      </c>
-      <c r="N247" t="s">
+      <c r="J249">
+        <v>1</v>
+      </c>
+      <c r="K249">
+        <v>0</v>
+      </c>
+      <c r="L249">
+        <v>0</v>
+      </c>
+      <c r="N249" t="s">
         <v>656</v>
       </c>
-      <c r="O247" t="s">
+      <c r="O249" t="s">
         <v>28</v>
       </c>
-      <c r="Q247">
+      <c r="Q249">
         <v>2</v>
       </c>
-      <c r="R247" t="b">
-        <v>0</v>
-      </c>
-      <c r="S247" t="s">
-        <v>205</v>
-      </c>
-      <c r="T247">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
+      <c r="R249" t="b">
+        <v>0</v>
+      </c>
+      <c r="S249" t="s">
+        <v>205</v>
+      </c>
+      <c r="T249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
         <v>1723</v>
       </c>
-      <c r="B248">
+      <c r="B250">
         <v>8</v>
       </c>
-      <c r="C248" t="s">
+      <c r="C250" t="s">
         <v>19</v>
       </c>
-      <c r="D248">
+      <c r="D250">
         <f t="shared" si="57"/>
         <v>155</v>
       </c>
-      <c r="E248">
-        <f>E247</f>
+      <c r="E250">
+        <f>E249</f>
         <v>57</v>
       </c>
-      <c r="F248">
+      <c r="F250">
         <f t="shared" si="58"/>
         <v>182</v>
       </c>
-      <c r="G248">
-        <f t="shared" ref="G248:G261" si="59">E248+3</f>
+      <c r="G250">
+        <f t="shared" ref="G250:G251" si="59">E250+3</f>
         <v>60</v>
       </c>
-      <c r="H248" t="s">
+      <c r="H250" t="s">
         <v>20</v>
       </c>
-      <c r="I248">
+      <c r="I250">
         <v>10</v>
       </c>
-      <c r="J248">
-        <v>1</v>
-      </c>
-      <c r="K248">
-        <v>0</v>
-      </c>
-      <c r="L248">
-        <v>0</v>
-      </c>
-      <c r="N248" t="s">
+      <c r="J250">
+        <v>1</v>
+      </c>
+      <c r="K250">
+        <v>0</v>
+      </c>
+      <c r="L250">
+        <v>0</v>
+      </c>
+      <c r="N250" t="s">
         <v>656</v>
       </c>
-      <c r="O248" t="s">
+      <c r="O250" t="s">
         <v>28</v>
       </c>
-      <c r="Q248">
+      <c r="Q250">
         <v>2</v>
       </c>
-      <c r="R248" t="b">
-        <v>0</v>
-      </c>
-      <c r="S248" t="s">
-        <v>205</v>
-      </c>
-      <c r="T248">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
+      <c r="R250" t="b">
+        <v>0</v>
+      </c>
+      <c r="S250" t="s">
+        <v>205</v>
+      </c>
+      <c r="T250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
         <v>1724</v>
       </c>
-      <c r="B249">
+      <c r="B251">
         <v>8</v>
       </c>
-      <c r="C249" t="s">
+      <c r="C251" t="s">
         <v>19</v>
       </c>
-      <c r="D249">
+      <c r="D251">
         <f t="shared" si="57"/>
         <v>181</v>
       </c>
-      <c r="E249">
-        <f>E248</f>
+      <c r="E251">
+        <f>E250</f>
         <v>57</v>
       </c>
-      <c r="F249">
+      <c r="F251">
         <f t="shared" si="58"/>
         <v>207</v>
       </c>
-      <c r="G249">
+      <c r="G251">
         <f t="shared" si="59"/>
         <v>60</v>
       </c>
-      <c r="H249" t="s">
+      <c r="H251" t="s">
         <v>20</v>
       </c>
-      <c r="I249">
+      <c r="I251">
         <v>10</v>
       </c>
-      <c r="J249">
-        <v>1</v>
-      </c>
-      <c r="K249">
-        <v>0</v>
-      </c>
-      <c r="L249">
-        <v>0</v>
-      </c>
-      <c r="N249" t="s">
+      <c r="J251">
+        <v>1</v>
+      </c>
+      <c r="K251">
+        <v>0</v>
+      </c>
+      <c r="L251">
+        <v>0</v>
+      </c>
+      <c r="N251" t="s">
         <v>656</v>
       </c>
-      <c r="O249" t="s">
+      <c r="O251" t="s">
         <v>28</v>
       </c>
-      <c r="Q249">
+      <c r="Q251">
         <v>2</v>
       </c>
-      <c r="R249" t="b">
-        <v>0</v>
-      </c>
-      <c r="S249" t="s">
-        <v>205</v>
-      </c>
-      <c r="T249">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
+      <c r="R251" t="b">
+        <v>0</v>
+      </c>
+      <c r="S251" t="s">
+        <v>205</v>
+      </c>
+      <c r="T251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
         <v>1725</v>
       </c>
-      <c r="B250">
+      <c r="B252">
         <v>8</v>
       </c>
-      <c r="C250" t="s">
+      <c r="C252" t="s">
         <v>19</v>
       </c>
-      <c r="D250">
+      <c r="D252">
         <f t="shared" si="57"/>
         <v>10</v>
       </c>
-      <c r="E250">
-        <f>E246+13</f>
+      <c r="E252">
+        <f>E248+13</f>
         <v>69</v>
       </c>
-      <c r="F250">
+      <c r="F252">
         <f t="shared" si="58"/>
         <v>129</v>
       </c>
-      <c r="G250">
-        <f>E250+5</f>
+      <c r="G252">
+        <f>E252+5</f>
         <v>74</v>
       </c>
-      <c r="H250" t="s">
+      <c r="H252" t="s">
         <v>178</v>
       </c>
-      <c r="I250">
+      <c r="I252">
         <v>10</v>
       </c>
-      <c r="J250">
-        <v>0</v>
-      </c>
-      <c r="K250">
-        <v>0</v>
-      </c>
-      <c r="L250">
-        <v>0</v>
-      </c>
-      <c r="N250" t="s">
+      <c r="J252">
+        <v>0</v>
+      </c>
+      <c r="K252">
+        <v>0</v>
+      </c>
+      <c r="L252">
+        <v>0</v>
+      </c>
+      <c r="N252" t="s">
         <v>656</v>
       </c>
-      <c r="O250" t="s">
+      <c r="O252" t="s">
         <v>26</v>
       </c>
-      <c r="Q250">
+      <c r="Q252">
         <v>3</v>
       </c>
-      <c r="R250" t="b">
-        <v>1</v>
-      </c>
-      <c r="S250" t="s">
-        <v>205</v>
-      </c>
-      <c r="T250">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
+      <c r="R252" t="b">
+        <v>1</v>
+      </c>
+      <c r="S252" t="s">
+        <v>205</v>
+      </c>
+      <c r="T252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
         <v>1726</v>
       </c>
-      <c r="B251">
+      <c r="B253">
         <v>8</v>
       </c>
-      <c r="C251" t="s">
+      <c r="C253" t="s">
         <v>19</v>
       </c>
-      <c r="D251">
+      <c r="D253">
         <f t="shared" si="57"/>
         <v>130</v>
       </c>
-      <c r="E251">
-        <f>E250+1</f>
+      <c r="E253">
+        <f>E252+1</f>
         <v>70</v>
       </c>
-      <c r="F251">
+      <c r="F253">
         <f t="shared" si="58"/>
         <v>155</v>
       </c>
-      <c r="G251">
-        <f t="shared" ref="G251:G261" si="60">E251+3</f>
+      <c r="G253">
+        <f t="shared" ref="G253:G255" si="60">E253+3</f>
         <v>73</v>
       </c>
-      <c r="H251" t="s">
+      <c r="H253" t="s">
         <v>20</v>
       </c>
-      <c r="I251">
+      <c r="I253">
         <v>10</v>
       </c>
-      <c r="J251">
-        <v>1</v>
-      </c>
-      <c r="K251">
-        <v>0</v>
-      </c>
-      <c r="L251">
-        <v>0</v>
-      </c>
-      <c r="N251" t="s">
+      <c r="J253">
+        <v>1</v>
+      </c>
+      <c r="K253">
+        <v>0</v>
+      </c>
+      <c r="L253">
+        <v>0</v>
+      </c>
+      <c r="N253" t="s">
         <v>656</v>
       </c>
-      <c r="O251" t="s">
+      <c r="O253" t="s">
         <v>28</v>
       </c>
-      <c r="Q251">
+      <c r="Q253">
         <v>2</v>
       </c>
-      <c r="R251" t="b">
-        <v>0</v>
-      </c>
-      <c r="S251" t="s">
-        <v>205</v>
-      </c>
-      <c r="T251">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
+      <c r="R253" t="b">
+        <v>0</v>
+      </c>
+      <c r="S253" t="s">
+        <v>205</v>
+      </c>
+      <c r="T253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
         <v>1727</v>
       </c>
-      <c r="B252">
+      <c r="B254">
         <v>8</v>
       </c>
-      <c r="C252" t="s">
+      <c r="C254" t="s">
         <v>19</v>
       </c>
-      <c r="D252">
+      <c r="D254">
         <f t="shared" si="57"/>
         <v>155</v>
       </c>
-      <c r="E252">
-        <f>E251</f>
+      <c r="E254">
+        <f>E253</f>
         <v>70</v>
       </c>
-      <c r="F252">
+      <c r="F254">
         <f t="shared" si="58"/>
         <v>182</v>
       </c>
-      <c r="G252">
+      <c r="G254">
         <f t="shared" si="60"/>
         <v>73</v>
       </c>
-      <c r="H252" t="s">
+      <c r="H254" t="s">
         <v>20</v>
       </c>
-      <c r="I252">
+      <c r="I254">
         <v>10</v>
       </c>
-      <c r="J252">
-        <v>1</v>
-      </c>
-      <c r="K252">
-        <v>0</v>
-      </c>
-      <c r="L252">
-        <v>0</v>
-      </c>
-      <c r="N252" t="s">
+      <c r="J254">
+        <v>1</v>
+      </c>
+      <c r="K254">
+        <v>0</v>
+      </c>
+      <c r="L254">
+        <v>0</v>
+      </c>
+      <c r="N254" t="s">
         <v>656</v>
       </c>
-      <c r="O252" t="s">
+      <c r="O254" t="s">
         <v>28</v>
       </c>
-      <c r="Q252">
+      <c r="Q254">
         <v>2</v>
       </c>
-      <c r="R252" t="b">
-        <v>0</v>
-      </c>
-      <c r="S252" t="s">
-        <v>205</v>
-      </c>
-      <c r="T252">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
+      <c r="R254" t="b">
+        <v>0</v>
+      </c>
+      <c r="S254" t="s">
+        <v>205</v>
+      </c>
+      <c r="T254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
         <v>1728</v>
       </c>
-      <c r="B253">
+      <c r="B255">
         <v>8</v>
       </c>
-      <c r="C253" t="s">
+      <c r="C255" t="s">
         <v>19</v>
       </c>
-      <c r="D253">
+      <c r="D255">
         <f t="shared" si="57"/>
         <v>181</v>
       </c>
-      <c r="E253">
-        <f>E252</f>
+      <c r="E255">
+        <f>E254</f>
         <v>70</v>
       </c>
-      <c r="F253">
+      <c r="F255">
         <f t="shared" si="58"/>
         <v>207</v>
       </c>
-      <c r="G253">
+      <c r="G255">
         <f t="shared" si="60"/>
         <v>73</v>
       </c>
-      <c r="H253" t="s">
+      <c r="H255" t="s">
         <v>20</v>
       </c>
-      <c r="I253">
+      <c r="I255">
         <v>10</v>
       </c>
-      <c r="J253">
-        <v>1</v>
-      </c>
-      <c r="K253">
-        <v>0</v>
-      </c>
-      <c r="L253">
-        <v>0</v>
-      </c>
-      <c r="N253" t="s">
+      <c r="J255">
+        <v>1</v>
+      </c>
+      <c r="K255">
+        <v>0</v>
+      </c>
+      <c r="L255">
+        <v>0</v>
+      </c>
+      <c r="N255" t="s">
         <v>656</v>
       </c>
-      <c r="O253" t="s">
+      <c r="O255" t="s">
         <v>28</v>
       </c>
-      <c r="Q253">
+      <c r="Q255">
         <v>2</v>
       </c>
-      <c r="R253" t="b">
-        <v>0</v>
-      </c>
-      <c r="S253" t="s">
-        <v>205</v>
-      </c>
-      <c r="T253">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
+      <c r="R255" t="b">
+        <v>0</v>
+      </c>
+      <c r="S255" t="s">
+        <v>205</v>
+      </c>
+      <c r="T255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
         <v>1729</v>
       </c>
-      <c r="B254">
+      <c r="B256">
         <v>8</v>
       </c>
-      <c r="C254" t="s">
+      <c r="C256" t="s">
         <v>19</v>
       </c>
-      <c r="D254">
+      <c r="D256">
         <f t="shared" si="57"/>
         <v>10</v>
       </c>
-      <c r="E254">
-        <f>E250+13</f>
+      <c r="E256">
+        <f>E252+13</f>
         <v>82</v>
       </c>
-      <c r="F254">
+      <c r="F256">
         <f t="shared" si="58"/>
         <v>129</v>
       </c>
-      <c r="G254">
-        <f>E254+5</f>
+      <c r="G256">
+        <f>E256+5</f>
         <v>87</v>
       </c>
-      <c r="H254" t="s">
+      <c r="H256" t="s">
         <v>178</v>
       </c>
-      <c r="I254">
+      <c r="I256">
         <v>10</v>
       </c>
-      <c r="J254">
-        <v>0</v>
-      </c>
-      <c r="K254">
-        <v>0</v>
-      </c>
-      <c r="L254">
-        <v>0</v>
-      </c>
-      <c r="N254" t="s">
+      <c r="J256">
+        <v>0</v>
+      </c>
+      <c r="K256">
+        <v>0</v>
+      </c>
+      <c r="L256">
+        <v>0</v>
+      </c>
+      <c r="N256" t="s">
         <v>656</v>
       </c>
-      <c r="O254" t="s">
+      <c r="O256" t="s">
         <v>26</v>
       </c>
-      <c r="Q254">
+      <c r="Q256">
         <v>3</v>
       </c>
-      <c r="R254" t="b">
-        <v>1</v>
-      </c>
-      <c r="S254" t="s">
-        <v>205</v>
-      </c>
-      <c r="T254">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
+      <c r="R256" t="b">
+        <v>1</v>
+      </c>
+      <c r="S256" t="s">
+        <v>205</v>
+      </c>
+      <c r="T256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
         <v>1730</v>
       </c>
-      <c r="B255">
+      <c r="B257">
         <v>8</v>
       </c>
-      <c r="C255" t="s">
+      <c r="C257" t="s">
         <v>19</v>
       </c>
-      <c r="D255">
+      <c r="D257">
         <f t="shared" si="57"/>
         <v>130</v>
       </c>
-      <c r="E255">
-        <f>E254+1</f>
+      <c r="E257">
+        <f>E256+1</f>
         <v>83</v>
       </c>
-      <c r="F255">
+      <c r="F257">
         <f t="shared" si="58"/>
         <v>155</v>
       </c>
-      <c r="G255">
-        <f t="shared" ref="G255:G261" si="61">E255+3</f>
+      <c r="G257">
+        <f t="shared" ref="G257:G259" si="61">E257+3</f>
         <v>86</v>
       </c>
-      <c r="H255" t="s">
+      <c r="H257" t="s">
         <v>20</v>
       </c>
-      <c r="I255">
+      <c r="I257">
         <v>10</v>
       </c>
-      <c r="J255">
-        <v>1</v>
-      </c>
-      <c r="K255">
-        <v>0</v>
-      </c>
-      <c r="L255">
-        <v>0</v>
-      </c>
-      <c r="N255" t="s">
+      <c r="J257">
+        <v>1</v>
+      </c>
+      <c r="K257">
+        <v>0</v>
+      </c>
+      <c r="L257">
+        <v>0</v>
+      </c>
+      <c r="N257" t="s">
         <v>656</v>
       </c>
-      <c r="O255" t="s">
+      <c r="O257" t="s">
         <v>28</v>
       </c>
-      <c r="Q255">
+      <c r="Q257">
         <v>2</v>
       </c>
-      <c r="R255" t="b">
-        <v>0</v>
-      </c>
-      <c r="S255" t="s">
-        <v>205</v>
-      </c>
-      <c r="T255">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
+      <c r="R257" t="b">
+        <v>0</v>
+      </c>
+      <c r="S257" t="s">
+        <v>205</v>
+      </c>
+      <c r="T257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
         <v>1731</v>
       </c>
-      <c r="B256">
+      <c r="B258">
         <v>8</v>
       </c>
-      <c r="C256" t="s">
+      <c r="C258" t="s">
         <v>19</v>
       </c>
-      <c r="D256">
+      <c r="D258">
         <f t="shared" si="57"/>
         <v>155</v>
       </c>
-      <c r="E256">
-        <f>E255</f>
+      <c r="E258">
+        <f>E257</f>
         <v>83</v>
       </c>
-      <c r="F256">
+      <c r="F258">
         <f t="shared" si="58"/>
         <v>182</v>
       </c>
-      <c r="G256">
+      <c r="G258">
         <f t="shared" si="61"/>
         <v>86</v>
       </c>
-      <c r="H256" t="s">
+      <c r="H258" t="s">
         <v>20</v>
       </c>
-      <c r="I256">
+      <c r="I258">
         <v>10</v>
       </c>
-      <c r="J256">
-        <v>1</v>
-      </c>
-      <c r="K256">
-        <v>0</v>
-      </c>
-      <c r="L256">
-        <v>0</v>
-      </c>
-      <c r="N256" t="s">
+      <c r="J258">
+        <v>1</v>
+      </c>
+      <c r="K258">
+        <v>0</v>
+      </c>
+      <c r="L258">
+        <v>0</v>
+      </c>
+      <c r="N258" t="s">
         <v>656</v>
       </c>
-      <c r="O256" t="s">
+      <c r="O258" t="s">
         <v>28</v>
       </c>
-      <c r="Q256">
+      <c r="Q258">
         <v>2</v>
       </c>
-      <c r="R256" t="b">
-        <v>0</v>
-      </c>
-      <c r="S256" t="s">
-        <v>205</v>
-      </c>
-      <c r="T256">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
+      <c r="R258" t="b">
+        <v>0</v>
+      </c>
+      <c r="S258" t="s">
+        <v>205</v>
+      </c>
+      <c r="T258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
         <v>1732</v>
       </c>
-      <c r="B257">
+      <c r="B259">
         <v>8</v>
       </c>
-      <c r="C257" t="s">
+      <c r="C259" t="s">
         <v>19</v>
       </c>
-      <c r="D257">
+      <c r="D259">
         <f t="shared" si="57"/>
         <v>181</v>
       </c>
-      <c r="E257">
-        <f>E256</f>
+      <c r="E259">
+        <f>E258</f>
         <v>83</v>
       </c>
-      <c r="F257">
+      <c r="F259">
         <f t="shared" si="58"/>
         <v>207</v>
       </c>
-      <c r="G257">
+      <c r="G259">
         <f t="shared" si="61"/>
         <v>86</v>
       </c>
-      <c r="H257" t="s">
+      <c r="H259" t="s">
         <v>20</v>
       </c>
-      <c r="I257">
+      <c r="I259">
         <v>10</v>
       </c>
-      <c r="J257">
-        <v>1</v>
-      </c>
-      <c r="K257">
-        <v>0</v>
-      </c>
-      <c r="L257">
-        <v>0</v>
-      </c>
-      <c r="N257" t="s">
+      <c r="J259">
+        <v>1</v>
+      </c>
+      <c r="K259">
+        <v>0</v>
+      </c>
+      <c r="L259">
+        <v>0</v>
+      </c>
+      <c r="N259" t="s">
         <v>656</v>
       </c>
-      <c r="O257" t="s">
+      <c r="O259" t="s">
         <v>28</v>
       </c>
-      <c r="Q257">
+      <c r="Q259">
         <v>2</v>
       </c>
-      <c r="R257" t="b">
-        <v>0</v>
-      </c>
-      <c r="S257" t="s">
-        <v>205</v>
-      </c>
-      <c r="T257">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
+      <c r="R259" t="b">
+        <v>0</v>
+      </c>
+      <c r="S259" t="s">
+        <v>205</v>
+      </c>
+      <c r="T259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
         <v>1733</v>
       </c>
-      <c r="B258">
+      <c r="B260">
         <v>8</v>
       </c>
-      <c r="C258" t="s">
+      <c r="C260" t="s">
         <v>19</v>
       </c>
-      <c r="D258">
+      <c r="D260">
         <f t="shared" si="57"/>
         <v>10</v>
       </c>
-      <c r="E258">
-        <f>E254+13</f>
+      <c r="E260">
+        <f>E256+13</f>
         <v>95</v>
       </c>
-      <c r="F258">
+      <c r="F260">
         <f t="shared" si="58"/>
         <v>129</v>
       </c>
-      <c r="G258">
-        <f>E258+5</f>
+      <c r="G260">
+        <f>E260+5</f>
         <v>100</v>
       </c>
-      <c r="H258" t="s">
+      <c r="H260" t="s">
         <v>178</v>
       </c>
-      <c r="I258">
+      <c r="I260">
         <v>10</v>
       </c>
-      <c r="J258">
-        <v>0</v>
-      </c>
-      <c r="K258">
-        <v>0</v>
-      </c>
-      <c r="L258">
-        <v>0</v>
-      </c>
-      <c r="N258" t="s">
+      <c r="J260">
+        <v>0</v>
+      </c>
+      <c r="K260">
+        <v>0</v>
+      </c>
+      <c r="L260">
+        <v>0</v>
+      </c>
+      <c r="N260" t="s">
         <v>656</v>
       </c>
-      <c r="O258" t="s">
+      <c r="O260" t="s">
         <v>26</v>
       </c>
-      <c r="Q258">
+      <c r="Q260">
         <v>3</v>
       </c>
-      <c r="R258" t="b">
-        <v>1</v>
-      </c>
-      <c r="S258" t="s">
-        <v>205</v>
-      </c>
-      <c r="T258">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
+      <c r="R260" t="b">
+        <v>1</v>
+      </c>
+      <c r="S260" t="s">
+        <v>205</v>
+      </c>
+      <c r="T260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
         <v>1734</v>
       </c>
-      <c r="B259">
+      <c r="B261">
         <v>8</v>
       </c>
-      <c r="C259" t="s">
+      <c r="C261" t="s">
         <v>19</v>
       </c>
-      <c r="D259">
+      <c r="D261">
         <f t="shared" si="57"/>
         <v>130</v>
       </c>
-      <c r="E259">
-        <f>E258+1</f>
+      <c r="E261">
+        <f>E260+1</f>
         <v>96</v>
       </c>
-      <c r="F259">
+      <c r="F261">
         <f t="shared" si="58"/>
         <v>155</v>
       </c>
-      <c r="G259">
-        <f t="shared" ref="G259:G261" si="62">E259+3</f>
+      <c r="G261">
+        <f t="shared" ref="G261:G263" si="62">E261+3</f>
         <v>99</v>
       </c>
-      <c r="H259" t="s">
+      <c r="H261" t="s">
         <v>20</v>
       </c>
-      <c r="I259">
+      <c r="I261">
         <v>10</v>
       </c>
-      <c r="J259">
-        <v>1</v>
-      </c>
-      <c r="K259">
-        <v>0</v>
-      </c>
-      <c r="L259">
-        <v>0</v>
-      </c>
-      <c r="N259" t="s">
+      <c r="J261">
+        <v>1</v>
+      </c>
+      <c r="K261">
+        <v>0</v>
+      </c>
+      <c r="L261">
+        <v>0</v>
+      </c>
+      <c r="N261" t="s">
         <v>656</v>
       </c>
-      <c r="O259" t="s">
+      <c r="O261" t="s">
         <v>28</v>
       </c>
-      <c r="Q259">
+      <c r="Q261">
         <v>2</v>
       </c>
-      <c r="R259" t="b">
-        <v>0</v>
-      </c>
-      <c r="S259" t="s">
-        <v>205</v>
-      </c>
-      <c r="T259">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A260" t="s">
+      <c r="R261" t="b">
+        <v>0</v>
+      </c>
+      <c r="S261" t="s">
+        <v>205</v>
+      </c>
+      <c r="T261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
         <v>1735</v>
       </c>
-      <c r="B260">
+      <c r="B262">
         <v>8</v>
       </c>
-      <c r="C260" t="s">
+      <c r="C262" t="s">
         <v>19</v>
       </c>
-      <c r="D260">
+      <c r="D262">
         <f t="shared" si="57"/>
         <v>155</v>
       </c>
-      <c r="E260">
-        <f>E259</f>
+      <c r="E262">
+        <f>E261</f>
         <v>96</v>
       </c>
-      <c r="F260">
+      <c r="F262">
         <f t="shared" si="58"/>
         <v>182</v>
       </c>
-      <c r="G260">
+      <c r="G262">
         <f t="shared" si="62"/>
         <v>99</v>
       </c>
-      <c r="H260" t="s">
+      <c r="H262" t="s">
         <v>20</v>
       </c>
-      <c r="I260">
+      <c r="I262">
         <v>10</v>
       </c>
-      <c r="J260">
-        <v>1</v>
-      </c>
-      <c r="K260">
-        <v>0</v>
-      </c>
-      <c r="L260">
-        <v>0</v>
-      </c>
-      <c r="N260" t="s">
+      <c r="J262">
+        <v>1</v>
+      </c>
+      <c r="K262">
+        <v>0</v>
+      </c>
+      <c r="L262">
+        <v>0</v>
+      </c>
+      <c r="N262" t="s">
         <v>656</v>
       </c>
-      <c r="O260" t="s">
+      <c r="O262" t="s">
         <v>28</v>
       </c>
-      <c r="Q260">
+      <c r="Q262">
         <v>2</v>
       </c>
-      <c r="R260" t="b">
-        <v>0</v>
-      </c>
-      <c r="S260" t="s">
-        <v>205</v>
-      </c>
-      <c r="T260">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
+      <c r="R262" t="b">
+        <v>0</v>
+      </c>
+      <c r="S262" t="s">
+        <v>205</v>
+      </c>
+      <c r="T262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
         <v>1736</v>
       </c>
-      <c r="B261">
+      <c r="B263">
         <v>8</v>
       </c>
-      <c r="C261" t="s">
+      <c r="C263" t="s">
         <v>19</v>
       </c>
-      <c r="D261">
+      <c r="D263">
         <f t="shared" si="57"/>
         <v>181</v>
       </c>
-      <c r="E261">
-        <f>E260</f>
+      <c r="E263">
+        <f>E262</f>
         <v>96</v>
       </c>
-      <c r="F261">
+      <c r="F263">
         <f t="shared" si="58"/>
         <v>207</v>
       </c>
-      <c r="G261">
+      <c r="G263">
         <f t="shared" si="62"/>
         <v>99</v>
       </c>
-      <c r="H261" t="s">
+      <c r="H263" t="s">
         <v>20</v>
-      </c>
-      <c r="I261">
-        <v>10</v>
-      </c>
-      <c r="J261">
-        <v>1</v>
-      </c>
-      <c r="K261">
-        <v>0</v>
-      </c>
-      <c r="L261">
-        <v>0</v>
-      </c>
-      <c r="N261" t="s">
-        <v>656</v>
-      </c>
-      <c r="O261" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q261">
-        <v>2</v>
-      </c>
-      <c r="R261" t="b">
-        <v>0</v>
-      </c>
-      <c r="S261" t="s">
-        <v>205</v>
-      </c>
-      <c r="T261">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A262" t="s">
-        <v>30</v>
-      </c>
-      <c r="B262">
-        <v>8</v>
-      </c>
-      <c r="C262" t="s">
-        <v>26</v>
-      </c>
-      <c r="D262">
-        <v>20</v>
-      </c>
-      <c r="E262">
-        <v>220</v>
-      </c>
-      <c r="F262">
-        <v>190</v>
-      </c>
-      <c r="G262">
-        <f>E262</f>
-        <v>220</v>
-      </c>
-      <c r="I262">
-        <v>0</v>
-      </c>
-      <c r="J262">
-        <v>0</v>
-      </c>
-      <c r="K262">
-        <v>0</v>
-      </c>
-      <c r="L262">
-        <v>0</v>
-      </c>
-      <c r="N262" t="s">
-        <v>656</v>
-      </c>
-      <c r="O262" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q262">
-        <v>2</v>
-      </c>
-      <c r="R262" t="b">
-        <v>0</v>
-      </c>
-      <c r="S262" t="s">
-        <v>205</v>
-      </c>
-      <c r="T262">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
-        <v>529</v>
-      </c>
-      <c r="B263">
-        <v>8</v>
-      </c>
-      <c r="C263" t="s">
-        <v>19</v>
-      </c>
-      <c r="D263">
-        <v>20</v>
-      </c>
-      <c r="E263">
-        <f>E262+5</f>
-        <v>225</v>
-      </c>
-      <c r="F263">
-        <f>F262</f>
-        <v>190</v>
-      </c>
-      <c r="G263">
-        <f>E263+4</f>
-        <v>229</v>
-      </c>
-      <c r="H263" t="s">
-        <v>178</v>
       </c>
       <c r="I263">
         <v>10</v>
@@ -22046,14 +22048,13 @@
         <v>656</v>
       </c>
       <c r="O263" t="s">
-        <v>26</v>
-      </c>
-      <c r="P263" s="1"/>
+        <v>28</v>
+      </c>
       <c r="Q263">
         <v>2</v>
       </c>
       <c r="R263" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S263" t="s">
         <v>205</v>
@@ -22064,34 +22065,29 @@
     </row>
     <row r="264" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>1283</v>
+        <v>30</v>
       </c>
       <c r="B264">
         <v>8</v>
       </c>
       <c r="C264" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D264">
         <v>20</v>
       </c>
       <c r="E264">
-        <f>G263</f>
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="F264">
-        <f>F263</f>
         <v>190</v>
       </c>
       <c r="G264">
-        <f>E264+4</f>
-        <v>233</v>
-      </c>
-      <c r="H264" t="s">
-        <v>178</v>
+        <f>E264</f>
+        <v>220</v>
       </c>
       <c r="I264">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J264">
         <v>0</v>
@@ -22108,12 +22104,11 @@
       <c r="O264" t="s">
         <v>26</v>
       </c>
-      <c r="P264" s="1"/>
       <c r="Q264">
         <v>2</v>
       </c>
       <c r="R264" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S264" t="s">
         <v>205</v>
@@ -22124,33 +22119,37 @@
     </row>
     <row r="265" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>207</v>
+        <v>529</v>
       </c>
       <c r="B265">
         <v>8</v>
       </c>
       <c r="C265" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D265">
         <v>20</v>
       </c>
       <c r="E265">
-        <v>260</v>
+        <f>E264+5</f>
+        <v>225</v>
       </c>
       <c r="F265">
-        <f>D265+40</f>
-        <v>60</v>
+        <f>F264</f>
+        <v>190</v>
       </c>
       <c r="G265">
-        <f>E265+14</f>
-        <v>274</v>
+        <f>E265+4</f>
+        <v>229</v>
+      </c>
+      <c r="H265" t="s">
+        <v>178</v>
       </c>
       <c r="I265">
         <v>10</v>
       </c>
       <c r="J265">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K265">
         <v>0</v>
@@ -22164,9 +22163,7 @@
       <c r="O265" t="s">
         <v>26</v>
       </c>
-      <c r="P265" s="6" t="s">
-        <v>1430</v>
-      </c>
+      <c r="P265" s="1"/>
       <c r="Q265">
         <v>2</v>
       </c>
@@ -22174,35 +22171,36 @@
         <v>1</v>
       </c>
       <c r="S265" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="T265">
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>201</v>
+        <v>1283</v>
       </c>
       <c r="B266">
         <v>8</v>
       </c>
       <c r="C266" t="s">
-        <v>202</v>
+        <v>19</v>
       </c>
       <c r="D266">
         <v>20</v>
       </c>
       <c r="E266">
-        <f>G265+5</f>
-        <v>279</v>
+        <f>G265</f>
+        <v>229</v>
       </c>
       <c r="F266">
-        <f>F264</f>
+        <f>F265</f>
         <v>190</v>
       </c>
       <c r="G266">
-        <v>288</v>
+        <f>E266+4</f>
+        <v>233</v>
       </c>
       <c r="H266" t="s">
         <v>178</v>
@@ -22217,7 +22215,7 @@
         <v>0</v>
       </c>
       <c r="L266">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N266" t="s">
         <v>656</v>
@@ -22225,9 +22223,7 @@
       <c r="O266" t="s">
         <v>26</v>
       </c>
-      <c r="P266" s="6" t="s">
-        <v>206</v>
-      </c>
+      <c r="P266" s="1"/>
       <c r="Q266">
         <v>2</v>
       </c>
@@ -22235,7 +22231,7 @@
         <v>1</v>
       </c>
       <c r="S266" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="T266">
         <v>0</v>
@@ -22243,28 +22239,30 @@
     </row>
     <row r="267" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>657</v>
+        <v>207</v>
       </c>
       <c r="B267">
         <v>8</v>
       </c>
       <c r="C267" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D267">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E267">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="F267">
-        <v>211</v>
+        <f>D267+40</f>
+        <v>60</v>
       </c>
       <c r="G267">
-        <v>298</v>
+        <f>E267+14</f>
+        <v>274</v>
       </c>
       <c r="I267">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J267">
         <v>0</v>
@@ -22281,23 +22279,140 @@
       <c r="O267" t="s">
         <v>26</v>
       </c>
+      <c r="P267" s="6" t="s">
+        <v>1430</v>
+      </c>
       <c r="Q267">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R267" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S267" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="T267">
         <v>0</v>
       </c>
     </row>
+    <row r="268" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>201</v>
+      </c>
+      <c r="B268">
+        <v>8</v>
+      </c>
+      <c r="C268" t="s">
+        <v>202</v>
+      </c>
+      <c r="D268">
+        <v>20</v>
+      </c>
+      <c r="E268">
+        <f>G267+5</f>
+        <v>279</v>
+      </c>
+      <c r="F268">
+        <f>F266</f>
+        <v>190</v>
+      </c>
+      <c r="G268">
+        <v>288</v>
+      </c>
+      <c r="H268" t="s">
+        <v>178</v>
+      </c>
+      <c r="I268">
+        <v>10</v>
+      </c>
+      <c r="J268">
+        <v>0</v>
+      </c>
+      <c r="K268">
+        <v>0</v>
+      </c>
+      <c r="L268">
+        <v>1</v>
+      </c>
+      <c r="N268" t="s">
+        <v>656</v>
+      </c>
+      <c r="O268" t="s">
+        <v>26</v>
+      </c>
+      <c r="P268" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q268">
+        <v>2</v>
+      </c>
+      <c r="R268" t="b">
+        <v>1</v>
+      </c>
+      <c r="S268" t="s">
+        <v>204</v>
+      </c>
+      <c r="T268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>657</v>
+      </c>
+      <c r="B269">
+        <v>8</v>
+      </c>
+      <c r="C269" t="s">
+        <v>27</v>
+      </c>
+      <c r="D269">
+        <v>0</v>
+      </c>
+      <c r="E269">
+        <v>0</v>
+      </c>
+      <c r="F269">
+        <v>211</v>
+      </c>
+      <c r="G269">
+        <v>298</v>
+      </c>
+      <c r="I269">
+        <v>0</v>
+      </c>
+      <c r="J269">
+        <v>0</v>
+      </c>
+      <c r="K269">
+        <v>0</v>
+      </c>
+      <c r="L269">
+        <v>0</v>
+      </c>
+      <c r="N269" t="s">
+        <v>656</v>
+      </c>
+      <c r="O269" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q269">
+        <v>1</v>
+      </c>
+      <c r="R269" t="b">
+        <v>0</v>
+      </c>
+      <c r="S269" t="s">
+        <v>205</v>
+      </c>
+      <c r="T269">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:T264" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:T266" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="A191 A55">
-    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -22309,13 +22424,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{275ED209-18EA-43FD-841F-C491018348BF}">
-  <dimension ref="A1:T72"/>
+  <dimension ref="A1:T81"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E43" sqref="E43"/>
+      <selection pane="bottomRight" activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22448,7 +22563,7 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>-999</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -22463,7 +22578,6 @@
         <v>204</v>
       </c>
       <c r="G3">
-        <f>E3+3</f>
         <v>8</v>
       </c>
       <c r="H3" t="s">
@@ -22485,13 +22599,16 @@
         <v>461</v>
       </c>
       <c r="N3" t="s">
-        <v>21</v>
+        <v>1282</v>
       </c>
       <c r="O3" t="s">
         <v>22</v>
       </c>
+      <c r="P3" t="s">
+        <v>1509</v>
+      </c>
       <c r="Q3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R3" t="b">
         <v>0</v>
@@ -22508,7 +22625,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
@@ -22517,14 +22634,13 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>204</v>
       </c>
       <c r="G4">
-        <f>E4+3</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H4" t="s">
         <v>178</v>
@@ -22568,7 +22684,7 @@
         <v>18</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
@@ -22605,7 +22721,7 @@
         <v>461</v>
       </c>
       <c r="N5" t="s">
-        <v>21</v>
+        <v>1642</v>
       </c>
       <c r="O5" t="s">
         <v>22</v>
@@ -23529,33 +23645,28 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1320</v>
+        <v>657</v>
       </c>
       <c r="B22">
         <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D22">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <f>D25-3</f>
-        <v>131</v>
+        <v>211</v>
       </c>
       <c r="G22">
-        <f>E22+4</f>
-        <v>17</v>
-      </c>
-      <c r="H22" t="s">
-        <v>178</v>
+        <v>298</v>
       </c>
       <c r="I22">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -23567,16 +23678,16 @@
         <v>0</v>
       </c>
       <c r="N22" t="s">
-        <v>21</v>
+        <v>1282</v>
       </c>
       <c r="O22" t="s">
-        <v>177</v>
+        <v>26</v>
       </c>
       <c r="Q22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S22" t="s">
         <v>205</v>
@@ -23587,38 +23698,36 @@
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>218</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>-999</v>
+        <v>3</v>
       </c>
       <c r="C23" t="s">
         <v>19</v>
       </c>
       <c r="D23">
-        <f>D22</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E23">
-        <f>E22+28</f>
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F23">
-        <f>F22</f>
-        <v>131</v>
+        <f>F25-1</f>
+        <v>130</v>
       </c>
       <c r="G23">
-        <f>E23+4</f>
-        <v>45</v>
+        <f>E23+5</f>
+        <v>17</v>
       </c>
       <c r="H23" t="s">
         <v>178</v>
       </c>
       <c r="I23">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -23627,7 +23736,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="s">
-        <v>21</v>
+        <v>1282</v>
       </c>
       <c r="O23" t="s">
         <v>177</v>
@@ -23647,32 +23756,34 @@
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1542</v>
+        <v>1320</v>
       </c>
       <c r="B24">
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D24">
-        <f>D22</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E24">
-        <f>G24-(F24/192)*144</f>
-        <v>64.25</v>
+        <f>G23+7</f>
+        <v>24</v>
       </c>
       <c r="F24">
-        <f>D25-5</f>
-        <v>129</v>
+        <f>D29-3</f>
+        <v>131</v>
       </c>
       <c r="G24">
-        <f>G25</f>
-        <v>161</v>
+        <f>E24+5</f>
+        <v>29</v>
+      </c>
+      <c r="H24" t="s">
+        <v>178</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -23684,16 +23795,16 @@
         <v>0</v>
       </c>
       <c r="N24" t="s">
-        <v>21</v>
+        <v>1282</v>
       </c>
       <c r="O24" t="s">
-        <v>26</v>
+        <v>177</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S24" t="s">
         <v>205</v>
@@ -23704,32 +23815,38 @@
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1505</v>
+        <v>218</v>
       </c>
       <c r="B25">
-        <v>3</v>
+        <v>-999</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D25">
-        <v>134</v>
+        <f>D24</f>
+        <v>10</v>
       </c>
       <c r="E25">
-        <f>E22</f>
-        <v>13</v>
+        <f>E24+28</f>
+        <v>52</v>
       </c>
       <c r="F25">
-        <v>210</v>
+        <f>F24</f>
+        <v>131</v>
       </c>
       <c r="G25">
-        <v>161</v>
+        <f>E25+4</f>
+        <v>56</v>
+      </c>
+      <c r="H25" t="s">
+        <v>178</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -23737,20 +23854,17 @@
       <c r="L25">
         <v>0</v>
       </c>
-      <c r="M25" t="s">
-        <v>1281</v>
-      </c>
       <c r="N25" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="O25" t="s">
-        <v>26</v>
+        <v>177</v>
       </c>
       <c r="Q25">
         <v>3</v>
       </c>
       <c r="R25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S25" t="s">
         <v>205</v>
@@ -23761,7 +23875,7 @@
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>220</v>
       </c>
       <c r="B26">
         <v>3</v>
@@ -23770,19 +23884,17 @@
         <v>19</v>
       </c>
       <c r="D26">
-        <f>D25+1</f>
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="E26">
-        <f>E25+3</f>
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="F26">
-        <v>210</v>
+        <v>131</v>
       </c>
       <c r="G26">
-        <f>E26+3</f>
-        <v>19</v>
+        <f>E26+5</f>
+        <v>95</v>
       </c>
       <c r="H26" t="s">
         <v>178</v>
@@ -23800,19 +23912,16 @@
         <v>0</v>
       </c>
       <c r="N26" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="O26" t="s">
-        <v>26</v>
-      </c>
-      <c r="P26" t="s">
-        <v>1509</v>
+        <v>177</v>
       </c>
       <c r="Q26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S26" t="s">
         <v>205</v>
@@ -23823,7 +23932,7 @@
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1510</v>
+        <v>172</v>
       </c>
       <c r="B27">
         <v>3</v>
@@ -23832,26 +23941,26 @@
         <v>19</v>
       </c>
       <c r="D27">
-        <f>$D$26</f>
-        <v>135</v>
+        <f>D26</f>
+        <v>10</v>
       </c>
       <c r="E27">
-        <f>G26+5</f>
-        <v>24</v>
+        <f>G26+2</f>
+        <v>97</v>
       </c>
       <c r="F27">
-        <f>D27+74</f>
-        <v>209</v>
+        <f>F26</f>
+        <v>131</v>
       </c>
       <c r="G27">
-        <f>E27+3</f>
-        <v>27</v>
+        <f>E27+5</f>
+        <v>102</v>
       </c>
       <c r="H27" t="s">
         <v>178</v>
       </c>
       <c r="I27">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -23863,10 +23972,10 @@
         <v>0</v>
       </c>
       <c r="N27" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="O27" t="s">
-        <v>26</v>
+        <v>177</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -23883,56 +23992,51 @@
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1511</v>
+        <v>1542</v>
       </c>
       <c r="B28">
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D28">
-        <f>$D$26</f>
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="E28">
-        <f>G27+1</f>
-        <v>28</v>
+        <v>160</v>
       </c>
       <c r="F28">
-        <f>D28+74</f>
-        <v>209</v>
+        <f>D28+170</f>
+        <v>190</v>
       </c>
       <c r="G28">
-        <f>E28+4</f>
-        <v>32</v>
-      </c>
-      <c r="H28" t="s">
-        <v>178</v>
+        <f>E28+INT(144*(F28-D28)/192)</f>
+        <v>287</v>
       </c>
       <c r="I28">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J28">
         <v>0</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28">
         <v>0</v>
       </c>
       <c r="N28" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="O28" t="s">
         <v>26</v>
       </c>
       <c r="Q28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S28" t="s">
         <v>205</v>
@@ -23943,44 +24047,41 @@
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1512</v>
+        <v>1505</v>
       </c>
       <c r="B29">
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D29">
-        <f>$D25</f>
         <v>134</v>
       </c>
       <c r="E29">
-        <f>G28+12</f>
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="F29">
-        <f t="shared" ref="F29:F40" si="2">F27</f>
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G29">
-        <f>E29+3</f>
-        <v>47</v>
-      </c>
-      <c r="H29" t="s">
-        <v>178</v>
+        <f>E28-5</f>
+        <v>155</v>
       </c>
       <c r="I29">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29">
         <v>0</v>
       </c>
       <c r="L29">
         <v>0</v>
+      </c>
+      <c r="M29" t="s">
+        <v>1281</v>
       </c>
       <c r="N29" t="s">
         <v>1281</v>
@@ -23989,10 +24090,10 @@
         <v>26</v>
       </c>
       <c r="Q29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S29" t="s">
         <v>205</v>
@@ -24003,7 +24104,7 @@
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1513</v>
+        <v>1510</v>
       </c>
       <c r="B30">
         <v>3</v>
@@ -24012,20 +24113,20 @@
         <v>19</v>
       </c>
       <c r="D30">
-        <f>$D26</f>
+        <f>$D$29+1</f>
         <v>135</v>
       </c>
       <c r="E30">
-        <f>G29+1</f>
-        <v>48</v>
+        <f>E29+4</f>
+        <v>16</v>
       </c>
       <c r="F30">
-        <f t="shared" si="2"/>
+        <f>D30+74</f>
         <v>209</v>
       </c>
       <c r="G30">
-        <f>E30+4</f>
-        <v>52</v>
+        <f>E30+3</f>
+        <v>19</v>
       </c>
       <c r="H30" t="s">
         <v>178</v>
@@ -24034,10 +24135,10 @@
         <v>10</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -24063,7 +24164,7 @@
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1514</v>
+        <v>1511</v>
       </c>
       <c r="B31">
         <v>3</v>
@@ -24072,20 +24173,20 @@
         <v>19</v>
       </c>
       <c r="D31">
-        <f t="shared" ref="D31:D40" si="3">$D$26</f>
+        <f>$D$30</f>
         <v>135</v>
       </c>
       <c r="E31">
-        <f>G30+12</f>
-        <v>64</v>
+        <f>G30+1</f>
+        <v>20</v>
       </c>
       <c r="F31">
-        <f t="shared" si="2"/>
+        <f>D31+74</f>
         <v>209</v>
       </c>
       <c r="G31">
-        <f>E31+3</f>
-        <v>67</v>
+        <f>E31+4</f>
+        <v>24</v>
       </c>
       <c r="H31" t="s">
         <v>178</v>
@@ -24097,7 +24198,7 @@
         <v>0</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31">
         <v>0</v>
@@ -24123,7 +24224,7 @@
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1515</v>
+        <v>1512</v>
       </c>
       <c r="B32">
         <v>3</v>
@@ -24132,20 +24233,20 @@
         <v>19</v>
       </c>
       <c r="D32">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="D32:D43" si="2">$D$30</f>
         <v>135</v>
       </c>
       <c r="E32">
-        <f>G31+1</f>
-        <v>68</v>
+        <f>G31+12</f>
+        <v>36</v>
       </c>
       <c r="F32">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="F32:F43" si="3">F30</f>
         <v>209</v>
       </c>
       <c r="G32">
-        <f>E32+4</f>
-        <v>72</v>
+        <f>E32+3</f>
+        <v>39</v>
       </c>
       <c r="H32" t="s">
         <v>178</v>
@@ -24154,10 +24255,10 @@
         <v>10</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -24183,7 +24284,7 @@
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="B33">
         <v>3</v>
@@ -24192,20 +24293,20 @@
         <v>19</v>
       </c>
       <c r="D33">
+        <f t="shared" si="2"/>
+        <v>135</v>
+      </c>
+      <c r="E33">
+        <f>G32+1</f>
+        <v>40</v>
+      </c>
+      <c r="F33">
         <f t="shared" si="3"/>
-        <v>135</v>
-      </c>
-      <c r="E33">
-        <f>G32+12</f>
-        <v>84</v>
-      </c>
-      <c r="F33">
-        <f t="shared" si="2"/>
         <v>209</v>
       </c>
       <c r="G33">
-        <f>E33+3</f>
-        <v>87</v>
+        <f>E33+4</f>
+        <v>44</v>
       </c>
       <c r="H33" t="s">
         <v>178</v>
@@ -24217,7 +24318,7 @@
         <v>0</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -24243,7 +24344,7 @@
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1517</v>
+        <v>1514</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -24252,20 +24353,20 @@
         <v>19</v>
       </c>
       <c r="D34">
+        <f t="shared" si="2"/>
+        <v>135</v>
+      </c>
+      <c r="E34">
+        <f>G33+12</f>
+        <v>56</v>
+      </c>
+      <c r="F34">
         <f t="shared" si="3"/>
-        <v>135</v>
-      </c>
-      <c r="E34">
-        <f>G33+1</f>
-        <v>88</v>
-      </c>
-      <c r="F34">
-        <f t="shared" si="2"/>
         <v>209</v>
       </c>
       <c r="G34">
-        <f>E34+4</f>
-        <v>92</v>
+        <f>E34+3</f>
+        <v>59</v>
       </c>
       <c r="H34" t="s">
         <v>178</v>
@@ -24274,10 +24375,10 @@
         <v>10</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -24303,7 +24404,7 @@
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1518</v>
+        <v>1515</v>
       </c>
       <c r="B35">
         <v>3</v>
@@ -24312,20 +24413,20 @@
         <v>19</v>
       </c>
       <c r="D35">
+        <f t="shared" si="2"/>
+        <v>135</v>
+      </c>
+      <c r="E35">
+        <f>G34+1</f>
+        <v>60</v>
+      </c>
+      <c r="F35">
         <f t="shared" si="3"/>
-        <v>135</v>
-      </c>
-      <c r="E35">
-        <f>G34+12</f>
-        <v>104</v>
-      </c>
-      <c r="F35">
-        <f t="shared" si="2"/>
         <v>209</v>
       </c>
       <c r="G35">
-        <f>E35+3</f>
-        <v>107</v>
+        <f>E35+4</f>
+        <v>64</v>
       </c>
       <c r="H35" t="s">
         <v>178</v>
@@ -24337,7 +24438,7 @@
         <v>0</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -24363,7 +24464,7 @@
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>1519</v>
+        <v>1516</v>
       </c>
       <c r="B36">
         <v>3</v>
@@ -24372,20 +24473,20 @@
         <v>19</v>
       </c>
       <c r="D36">
+        <f t="shared" si="2"/>
+        <v>135</v>
+      </c>
+      <c r="E36">
+        <f>G35+12</f>
+        <v>76</v>
+      </c>
+      <c r="F36">
         <f t="shared" si="3"/>
-        <v>135</v>
-      </c>
-      <c r="E36">
-        <f>G35+1</f>
-        <v>108</v>
-      </c>
-      <c r="F36">
-        <f t="shared" si="2"/>
         <v>209</v>
       </c>
       <c r="G36">
-        <f>E36+4</f>
-        <v>112</v>
+        <f>E36+3</f>
+        <v>79</v>
       </c>
       <c r="H36" t="s">
         <v>178</v>
@@ -24394,10 +24495,10 @@
         <v>10</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -24423,7 +24524,7 @@
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>1520</v>
+        <v>1517</v>
       </c>
       <c r="B37">
         <v>3</v>
@@ -24432,20 +24533,20 @@
         <v>19</v>
       </c>
       <c r="D37">
+        <f t="shared" si="2"/>
+        <v>135</v>
+      </c>
+      <c r="E37">
+        <f>G36+1</f>
+        <v>80</v>
+      </c>
+      <c r="F37">
         <f t="shared" si="3"/>
-        <v>135</v>
-      </c>
-      <c r="E37">
-        <f>G36+12</f>
-        <v>124</v>
-      </c>
-      <c r="F37">
-        <f t="shared" si="2"/>
         <v>209</v>
       </c>
       <c r="G37">
-        <f>E37+3</f>
-        <v>127</v>
+        <f>E37+4</f>
+        <v>84</v>
       </c>
       <c r="H37" t="s">
         <v>178</v>
@@ -24457,7 +24558,7 @@
         <v>0</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -24483,7 +24584,7 @@
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>1521</v>
+        <v>1518</v>
       </c>
       <c r="B38">
         <v>3</v>
@@ -24492,20 +24593,20 @@
         <v>19</v>
       </c>
       <c r="D38">
+        <f t="shared" si="2"/>
+        <v>135</v>
+      </c>
+      <c r="E38">
+        <f>G37+12</f>
+        <v>96</v>
+      </c>
+      <c r="F38">
         <f t="shared" si="3"/>
-        <v>135</v>
-      </c>
-      <c r="E38">
-        <f>G37+1</f>
-        <v>128</v>
-      </c>
-      <c r="F38">
-        <f t="shared" si="2"/>
         <v>209</v>
       </c>
       <c r="G38">
-        <f>E38+4</f>
-        <v>132</v>
+        <f>E38+3</f>
+        <v>99</v>
       </c>
       <c r="H38" t="s">
         <v>178</v>
@@ -24514,10 +24615,10 @@
         <v>10</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -24543,7 +24644,7 @@
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>1522</v>
+        <v>1519</v>
       </c>
       <c r="B39">
         <v>3</v>
@@ -24552,20 +24653,20 @@
         <v>19</v>
       </c>
       <c r="D39">
+        <f t="shared" si="2"/>
+        <v>135</v>
+      </c>
+      <c r="E39">
+        <f>G38+1</f>
+        <v>100</v>
+      </c>
+      <c r="F39">
         <f t="shared" si="3"/>
-        <v>135</v>
-      </c>
-      <c r="E39">
-        <f>G38+12</f>
-        <v>144</v>
-      </c>
-      <c r="F39">
-        <f t="shared" si="2"/>
         <v>209</v>
       </c>
       <c r="G39">
-        <f>E39+3</f>
-        <v>147</v>
+        <f>E39+4</f>
+        <v>104</v>
       </c>
       <c r="H39" t="s">
         <v>178</v>
@@ -24577,7 +24678,7 @@
         <v>0</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39">
         <v>0</v>
@@ -24603,7 +24704,7 @@
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>1523</v>
+        <v>1520</v>
       </c>
       <c r="B40">
         <v>3</v>
@@ -24612,20 +24713,20 @@
         <v>19</v>
       </c>
       <c r="D40">
+        <f t="shared" si="2"/>
+        <v>135</v>
+      </c>
+      <c r="E40">
+        <f>G39+12</f>
+        <v>116</v>
+      </c>
+      <c r="F40">
         <f t="shared" si="3"/>
-        <v>135</v>
-      </c>
-      <c r="E40">
-        <f>G39+1</f>
-        <v>148</v>
-      </c>
-      <c r="F40">
-        <f t="shared" si="2"/>
         <v>209</v>
       </c>
       <c r="G40">
-        <f>E40+4</f>
-        <v>152</v>
+        <f>E40+3</f>
+        <v>119</v>
       </c>
       <c r="H40" t="s">
         <v>178</v>
@@ -24634,10 +24735,10 @@
         <v>10</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -24663,26 +24764,29 @@
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>34</v>
+        <v>1521</v>
       </c>
       <c r="B41">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C41" t="s">
         <v>19</v>
       </c>
       <c r="D41">
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>135</v>
       </c>
       <c r="E41">
-        <v>165</v>
+        <f>G40+1</f>
+        <v>120</v>
       </c>
       <c r="F41">
-        <v>203</v>
+        <f t="shared" si="3"/>
+        <v>209</v>
       </c>
       <c r="G41">
-        <f>E41+3</f>
-        <v>168</v>
+        <f>E41+4</f>
+        <v>124</v>
       </c>
       <c r="H41" t="s">
         <v>178</v>
@@ -24691,25 +24795,25 @@
         <v>10</v>
       </c>
       <c r="J41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L41">
         <v>0</v>
       </c>
       <c r="N41" t="s">
-        <v>21</v>
+        <v>1281</v>
       </c>
       <c r="O41" t="s">
         <v>26</v>
       </c>
       <c r="Q41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S41" t="s">
         <v>205</v>
@@ -24720,37 +24824,38 @@
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>51</v>
+        <v>1522</v>
       </c>
       <c r="B42">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C42" t="s">
         <v>19</v>
       </c>
       <c r="D42">
-        <f>D41</f>
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>135</v>
       </c>
       <c r="E42">
-        <f>G41+3</f>
-        <v>171</v>
+        <f>G41+12</f>
+        <v>136</v>
       </c>
       <c r="F42">
-        <v>203</v>
+        <f t="shared" si="3"/>
+        <v>209</v>
       </c>
       <c r="G42">
-        <f>E42+4</f>
-        <v>175</v>
+        <f>E42+3</f>
+        <v>139</v>
       </c>
       <c r="H42" t="s">
         <v>178</v>
       </c>
       <c r="I42">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42">
         <v>0</v>
@@ -24759,14 +24864,13 @@
         <v>0</v>
       </c>
       <c r="N42" t="s">
-        <v>21</v>
+        <v>1281</v>
       </c>
       <c r="O42" t="s">
-        <v>177</v>
-      </c>
-      <c r="P42" s="1"/>
+        <v>26</v>
+      </c>
       <c r="Q42">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R42" t="b">
         <v>1</v>
@@ -24780,49 +24884,56 @@
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>35</v>
+        <v>1523</v>
       </c>
       <c r="B43">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D43">
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>135</v>
       </c>
       <c r="E43">
-        <v>203</v>
+        <f>G42+1</f>
+        <v>140</v>
       </c>
       <c r="F43">
-        <v>93</v>
+        <f t="shared" si="3"/>
+        <v>209</v>
       </c>
       <c r="G43">
-        <v>283</v>
+        <f>E43+4</f>
+        <v>144</v>
+      </c>
+      <c r="H43" t="s">
+        <v>178</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J43">
         <v>0</v>
       </c>
       <c r="K43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L43">
         <v>0</v>
       </c>
       <c r="N43" t="s">
-        <v>21</v>
+        <v>1281</v>
       </c>
       <c r="O43" t="s">
         <v>26</v>
       </c>
       <c r="Q43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S43" t="s">
         <v>205</v>
@@ -24833,37 +24944,35 @@
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>436</v>
+        <v>1647</v>
       </c>
       <c r="B44">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D44">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="E44">
-        <v>283</v>
+        <v>12</v>
       </c>
       <c r="F44">
-        <v>93</v>
+        <f>D44+91</f>
+        <v>201</v>
       </c>
       <c r="G44">
-        <v>286</v>
-      </c>
-      <c r="H44" t="s">
-        <v>178</v>
+        <v>100</v>
       </c>
       <c r="I44">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J44">
         <v>0</v>
       </c>
       <c r="K44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L44">
         <v>0</v>
@@ -24872,13 +24981,13 @@
         <v>21</v>
       </c>
       <c r="O44" t="s">
-        <v>177</v>
+        <v>26</v>
       </c>
       <c r="Q44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S44" t="s">
         <v>205</v>
@@ -24889,34 +24998,38 @@
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>32</v>
+        <v>1645</v>
       </c>
       <c r="B45">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C45" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D45">
-        <f>D46-2</f>
-        <v>98</v>
+        <f>D44+2</f>
+        <v>112</v>
       </c>
       <c r="E45">
-        <f>G45-90</f>
-        <v>193</v>
+        <f>E44+2</f>
+        <v>14</v>
       </c>
       <c r="F45">
-        <f>D45+90</f>
-        <v>188</v>
+        <f>D45+87</f>
+        <v>199</v>
       </c>
       <c r="G45">
-        <v>283</v>
+        <f>E45+5</f>
+        <v>19</v>
+      </c>
+      <c r="H45" t="s">
+        <v>178</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45">
         <v>0</v>
@@ -24931,10 +25044,10 @@
         <v>26</v>
       </c>
       <c r="Q45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S45" t="s">
         <v>205</v>
@@ -24945,40 +25058,41 @@
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>33</v>
+        <v>1643</v>
       </c>
       <c r="B46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C46" t="s">
         <v>19</v>
       </c>
       <c r="D46">
-        <v>100</v>
+        <f>D45</f>
+        <v>112</v>
       </c>
       <c r="E46">
-        <f>E44</f>
-        <v>283</v>
+        <f>G45+6</f>
+        <v>25</v>
       </c>
       <c r="F46">
-        <f>D46+92</f>
-        <v>192</v>
+        <f>F45</f>
+        <v>199</v>
       </c>
       <c r="G46">
-        <f>E46+3</f>
-        <v>286</v>
+        <f>E46+5</f>
+        <v>30</v>
       </c>
       <c r="H46" t="s">
         <v>178</v>
       </c>
       <c r="I46">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J46">
         <v>0</v>
       </c>
       <c r="K46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L46">
         <v>0</v>
@@ -24987,8 +25101,9 @@
         <v>21</v>
       </c>
       <c r="O46" t="s">
-        <v>26</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="P46" s="1"/>
       <c r="Q46">
         <v>1</v>
       </c>
@@ -25004,35 +25119,34 @@
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>36</v>
+        <v>175</v>
       </c>
       <c r="B47">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C47" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D47">
-        <v>7</v>
+        <f>D44+5</f>
+        <v>115</v>
       </c>
       <c r="E47">
-        <v>13</v>
+        <f>G44+5</f>
+        <v>105</v>
       </c>
       <c r="F47">
-        <f>D47+100</f>
-        <v>107</v>
+        <f>D47+(G47-E47)</f>
+        <v>200</v>
       </c>
       <c r="G47">
-        <v>16</v>
-      </c>
-      <c r="H47" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="I47">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K47">
         <v>0</v>
@@ -25047,7 +25161,7 @@
         <v>26</v>
       </c>
       <c r="Q47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R47" t="b">
         <v>0</v>
@@ -25061,36 +25175,39 @@
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>37</v>
+        <v>176</v>
       </c>
       <c r="B48">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C48" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D48">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="E48">
-        <v>18</v>
+        <f>F44+10</f>
+        <v>211</v>
       </c>
       <c r="F48">
-        <f>D48+88</f>
-        <v>93</v>
+        <v>210</v>
       </c>
       <c r="G48">
-        <f>E48+80</f>
-        <v>98</v>
+        <f>E48+5</f>
+        <v>216</v>
+      </c>
+      <c r="H48" t="s">
+        <v>178</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J48">
         <v>0</v>
       </c>
       <c r="K48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L48">
         <v>0</v>
@@ -25102,10 +25219,10 @@
         <v>26</v>
       </c>
       <c r="Q48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S48" t="s">
         <v>205</v>
@@ -25116,29 +25233,26 @@
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>433</v>
+        <v>1432</v>
       </c>
       <c r="B49">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C49" t="s">
         <v>19</v>
       </c>
       <c r="D49">
-        <f>D48-2</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E49">
-        <f>G48</f>
-        <v>98</v>
+        <f>G49-3</f>
+        <v>294</v>
       </c>
       <c r="F49">
-        <f>F48+2</f>
-        <v>95</v>
+        <v>210</v>
       </c>
       <c r="G49">
-        <f>E49+3</f>
-        <v>101</v>
+        <v>297</v>
       </c>
       <c r="H49" t="s">
         <v>178</v>
@@ -25156,13 +25270,13 @@
         <v>0</v>
       </c>
       <c r="N49" t="s">
-        <v>21</v>
+        <v>656</v>
       </c>
       <c r="O49" t="s">
-        <v>177</v>
+        <v>22</v>
       </c>
       <c r="Q49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R49" t="b">
         <v>1</v>
@@ -25176,26 +25290,26 @@
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C50" t="s">
         <v>19</v>
       </c>
       <c r="D50">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="E50">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F50">
-        <f>D50+92</f>
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G50">
-        <v>16</v>
+        <f>E50+5</f>
+        <v>17</v>
       </c>
       <c r="H50" t="s">
         <v>178</v>
@@ -25204,7 +25318,7 @@
         <v>12</v>
       </c>
       <c r="J50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50">
         <v>0</v>
@@ -25216,13 +25330,14 @@
         <v>21</v>
       </c>
       <c r="O50" t="s">
-        <v>26</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="P50" s="1"/>
       <c r="Q50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S50" t="s">
         <v>205</v>
@@ -25233,34 +25348,36 @@
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>46</v>
+        <v>1688</v>
       </c>
       <c r="B51">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C51" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D51">
         <f>D50-2</f>
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="E51">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="F51">
-        <f>D51+88</f>
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="G51">
-        <f>E51+80</f>
-        <v>98</v>
+        <f>E51+5</f>
+        <v>90</v>
+      </c>
+      <c r="H51" t="s">
+        <v>178</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K51">
         <v>0</v>
@@ -25278,7 +25395,7 @@
         <v>2</v>
       </c>
       <c r="R51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S51" t="s">
         <v>205</v>
@@ -25289,41 +25406,40 @@
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>434</v>
+        <v>1691</v>
       </c>
       <c r="B52">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C52" t="s">
         <v>19</v>
       </c>
       <c r="D52">
-        <f>D51-2</f>
-        <v>107</v>
+        <f>D51</f>
+        <v>125</v>
       </c>
       <c r="E52">
-        <f>G51</f>
-        <v>98</v>
+        <f>G51+3</f>
+        <v>93</v>
       </c>
       <c r="F52">
-        <f>F51+2</f>
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="G52">
-        <f>E52+3</f>
+        <f>E52+8</f>
         <v>101</v>
       </c>
       <c r="H52" t="s">
         <v>178</v>
       </c>
       <c r="I52">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J52">
         <v>0</v>
       </c>
       <c r="K52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L52">
         <v>0</v>
@@ -25332,7 +25448,7 @@
         <v>21</v>
       </c>
       <c r="O52" t="s">
-        <v>177</v>
+        <v>22</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -25348,36 +25464,33 @@
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>200</v>
+      <c r="A53" t="s">
+        <v>35</v>
       </c>
       <c r="B53">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C53" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D53">
-        <f>D47</f>
-        <v>7</v>
+        <f>D50</f>
+        <v>127</v>
       </c>
       <c r="E53">
-        <f>G51+7</f>
-        <v>105</v>
+        <f>E52+44</f>
+        <v>137</v>
       </c>
       <c r="F53">
-        <f>F50</f>
-        <v>203</v>
+        <f>D53+77</f>
+        <v>204</v>
       </c>
       <c r="G53">
-        <f>E53+3</f>
-        <v>108</v>
-      </c>
-      <c r="H53" t="s">
-        <v>178</v>
+        <f>E53+INT(70*(F53-D53)/77)</f>
+        <v>207</v>
       </c>
       <c r="I53">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -25395,10 +25508,10 @@
         <v>26</v>
       </c>
       <c r="Q53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S53" t="s">
         <v>205</v>
@@ -25407,55 +25520,58 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>435</v>
+    <row r="54" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>32</v>
       </c>
       <c r="B54">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C54" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <f>D51</f>
+        <v>125</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <f>E56+10</f>
+        <v>218</v>
       </c>
       <c r="F54">
-        <v>210</v>
+        <f>D54+80</f>
+        <v>205</v>
       </c>
       <c r="G54">
-        <f>G53+9</f>
-        <v>117</v>
+        <f>E54+80</f>
+        <v>298</v>
+      </c>
+      <c r="H54" t="s">
+        <v>178</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K54">
         <v>0</v>
       </c>
       <c r="L54">
         <v>0</v>
-      </c>
-      <c r="M54" t="s">
-        <v>21</v>
       </c>
       <c r="N54" t="s">
         <v>21</v>
       </c>
       <c r="O54" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="Q54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S54" t="s">
         <v>205</v>
@@ -25464,31 +25580,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>175</v>
+        <v>1687</v>
       </c>
       <c r="B55">
-        <v>6</v>
+        <v>-999</v>
       </c>
       <c r="C55" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <f>D52</f>
+        <v>125</v>
       </c>
       <c r="E55">
-        <v>108</v>
+        <f>E56+15</f>
+        <v>223</v>
       </c>
       <c r="F55">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G55">
-        <f>E55+210</f>
-        <v>318</v>
+        <f>E55+8</f>
+        <v>231</v>
+      </c>
+      <c r="H55" t="s">
+        <v>178</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J55">
         <v>0</v>
@@ -25503,13 +25624,13 @@
         <v>21</v>
       </c>
       <c r="O55" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="Q55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S55" t="s">
         <v>205</v>
@@ -25518,28 +25639,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>176</v>
+        <v>33</v>
       </c>
       <c r="B56">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C56" t="s">
         <v>19</v>
       </c>
       <c r="D56">
-        <v>80</v>
+        <f>D55+2</f>
+        <v>127</v>
       </c>
       <c r="E56">
-        <v>211</v>
+        <f>G53+1</f>
+        <v>208</v>
       </c>
       <c r="F56">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G56">
         <f>E56+5</f>
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H56" t="s">
         <v>178</v>
@@ -25548,10 +25671,10 @@
         <v>12</v>
       </c>
       <c r="J56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L56">
         <v>0</v>
@@ -25563,7 +25686,7 @@
         <v>26</v>
       </c>
       <c r="Q56">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R56" t="b">
         <v>1</v>
@@ -25577,53 +25700,52 @@
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>1432</v>
+        <v>657</v>
       </c>
       <c r="B57">
         <v>6</v>
       </c>
       <c r="C57" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="E57">
-        <f>G57-3</f>
-        <v>294</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G57">
-        <v>297</v>
-      </c>
-      <c r="H57" t="s">
-        <v>178</v>
+        <v>298</v>
       </c>
       <c r="I57">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J57">
         <v>0</v>
       </c>
       <c r="K57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L57">
         <v>0</v>
       </c>
+      <c r="M57" t="s">
+        <v>1642</v>
+      </c>
       <c r="N57" t="s">
-        <v>656</v>
+        <v>1642</v>
       </c>
       <c r="O57" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="Q57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S57" t="s">
         <v>205</v>
@@ -25634,31 +25756,31 @@
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>47</v>
+        <v>1683</v>
       </c>
       <c r="B58">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C58" t="s">
         <v>19</v>
       </c>
       <c r="D58">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E58">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F58">
-        <v>203</v>
+        <v>97</v>
       </c>
       <c r="G58">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H58" t="s">
         <v>178</v>
       </c>
       <c r="I58">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J58">
         <v>1</v>
@@ -25670,7 +25792,7 @@
         <v>0</v>
       </c>
       <c r="N58" t="s">
-        <v>21</v>
+        <v>1642</v>
       </c>
       <c r="O58" t="s">
         <v>26</v>
@@ -25679,7 +25801,7 @@
         <v>2</v>
       </c>
       <c r="R58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S58" t="s">
         <v>205</v>
@@ -25690,33 +25812,31 @@
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>123</v>
+        <v>1684</v>
       </c>
       <c r="B59">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C59" t="s">
         <v>19</v>
       </c>
       <c r="D59">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="E59">
-        <f>G58+4</f>
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F59">
-        <v>205</v>
+        <v>97</v>
       </c>
       <c r="G59">
-        <f>E59+4</f>
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="H59" t="s">
         <v>178</v>
       </c>
       <c r="I59">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J59">
         <v>0</v>
@@ -25728,14 +25848,14 @@
         <v>0</v>
       </c>
       <c r="N59" t="s">
-        <v>21</v>
+        <v>1642</v>
       </c>
       <c r="O59" t="s">
         <v>177</v>
       </c>
       <c r="P59" s="1"/>
       <c r="Q59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R59" t="b">
         <v>1</v>
@@ -25749,28 +25869,25 @@
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>134</v>
+        <v>1697</v>
       </c>
       <c r="B60">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C60" t="s">
         <v>25</v>
       </c>
       <c r="D60">
-        <v>5</v>
+        <v>102</v>
       </c>
       <c r="E60">
-        <f>G58+4</f>
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F60">
-        <f>D60+88</f>
-        <v>93</v>
+        <v>200</v>
       </c>
       <c r="G60">
-        <f>E60+80</f>
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -25785,11 +25902,14 @@
         <v>0</v>
       </c>
       <c r="N60" t="s">
-        <v>21</v>
+        <v>1642</v>
       </c>
       <c r="O60" t="s">
         <v>26</v>
       </c>
+      <c r="P60" t="s">
+        <v>1698</v>
+      </c>
       <c r="Q60">
         <v>2</v>
       </c>
@@ -25805,25 +25925,27 @@
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B61">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C61" t="s">
         <v>19</v>
       </c>
       <c r="D61">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E61">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="F61">
-        <v>203</v>
+        <f>D61+100</f>
+        <v>110</v>
       </c>
       <c r="G61">
-        <v>137</v>
+        <f>E61+5</f>
+        <v>105</v>
       </c>
       <c r="H61" t="s">
         <v>178</v>
@@ -25841,7 +25963,7 @@
         <v>0</v>
       </c>
       <c r="N61" t="s">
-        <v>21</v>
+        <v>1642</v>
       </c>
       <c r="O61" t="s">
         <v>26</v>
@@ -25861,31 +25983,32 @@
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>132</v>
+        <v>37</v>
       </c>
       <c r="B62">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C62" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D62">
-        <v>101</v>
+        <f>D61</f>
+        <v>10</v>
       </c>
       <c r="E62">
-        <v>141</v>
+        <f>G61+5</f>
+        <v>110</v>
       </c>
       <c r="F62">
-        <v>205</v>
+        <f>D62+88</f>
+        <v>98</v>
       </c>
       <c r="G62">
-        <v>145</v>
-      </c>
-      <c r="H62" t="s">
-        <v>178</v>
+        <f>E62+80</f>
+        <v>190</v>
       </c>
       <c r="I62">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -25897,17 +26020,16 @@
         <v>0</v>
       </c>
       <c r="N62" t="s">
-        <v>21</v>
+        <v>1642</v>
       </c>
       <c r="O62" t="s">
-        <v>177</v>
-      </c>
-      <c r="P62" s="1"/>
+        <v>26</v>
+      </c>
       <c r="Q62">
         <v>2</v>
       </c>
       <c r="R62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S62" t="s">
         <v>205</v>
@@ -25918,28 +26040,34 @@
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>49</v>
+        <v>433</v>
       </c>
       <c r="B63">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C63" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D63">
-        <v>5</v>
+        <f>F62+5</f>
+        <v>103</v>
       </c>
       <c r="E63">
-        <v>141</v>
+        <f>E62</f>
+        <v>110</v>
       </c>
       <c r="F63">
-        <v>93</v>
+        <v>200</v>
       </c>
       <c r="G63">
-        <v>221</v>
+        <f>E63+8</f>
+        <v>118</v>
+      </c>
+      <c r="H63" t="s">
+        <v>178</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J63">
         <v>0</v>
@@ -25951,16 +26079,16 @@
         <v>0</v>
       </c>
       <c r="N63" t="s">
-        <v>21</v>
+        <v>1642</v>
       </c>
       <c r="O63" t="s">
         <v>26</v>
       </c>
       <c r="Q63">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S63" t="s">
         <v>205</v>
@@ -25971,28 +26099,35 @@
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>219</v>
+        <v>45</v>
       </c>
       <c r="B64">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C64" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <f>D61</f>
+        <v>10</v>
       </c>
       <c r="E64">
-        <v>222</v>
+        <f>G62+10</f>
+        <v>200</v>
       </c>
       <c r="F64">
-        <v>210</v>
+        <f>D64+92</f>
+        <v>102</v>
       </c>
       <c r="G64">
-        <v>298</v>
+        <f>E64+5</f>
+        <v>205</v>
+      </c>
+      <c r="H64" t="s">
+        <v>178</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J64">
         <v>1</v>
@@ -26003,11 +26138,8 @@
       <c r="L64">
         <v>0</v>
       </c>
-      <c r="M64" t="s">
-        <v>1281</v>
-      </c>
       <c r="N64" t="s">
-        <v>1281</v>
+        <v>1642</v>
       </c>
       <c r="O64" t="s">
         <v>26</v>
@@ -26027,34 +26159,35 @@
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>220</v>
+        <v>46</v>
       </c>
       <c r="B65">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C65" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D65">
-        <v>13</v>
+        <f>D64</f>
+        <v>10</v>
       </c>
       <c r="E65">
-        <v>225</v>
+        <f>G64+5</f>
+        <v>210</v>
       </c>
       <c r="F65">
-        <v>199</v>
+        <f>D65+88</f>
+        <v>98</v>
       </c>
       <c r="G65">
-        <v>229</v>
-      </c>
-      <c r="H65" t="s">
-        <v>178</v>
+        <f>E65+80</f>
+        <v>290</v>
       </c>
       <c r="I65">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="J65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K65">
         <v>0</v>
@@ -26063,16 +26196,16 @@
         <v>0</v>
       </c>
       <c r="N65" t="s">
-        <v>1281</v>
+        <v>1642</v>
       </c>
       <c r="O65" t="s">
-        <v>177</v>
+        <v>26</v>
       </c>
       <c r="Q65">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S65" t="s">
         <v>205</v>
@@ -26083,31 +26216,34 @@
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>172</v>
+        <v>434</v>
       </c>
       <c r="B66">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C66" t="s">
         <v>19</v>
       </c>
       <c r="D66">
-        <v>13</v>
+        <f>F65+5</f>
+        <v>103</v>
       </c>
       <c r="E66">
-        <v>231</v>
+        <f>E65</f>
+        <v>210</v>
       </c>
       <c r="F66">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G66">
-        <v>235</v>
+        <f>E66+8</f>
+        <v>218</v>
       </c>
       <c r="H66" t="s">
         <v>178</v>
       </c>
       <c r="I66">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="J66">
         <v>0</v>
@@ -26119,10 +26255,10 @@
         <v>0</v>
       </c>
       <c r="N66" t="s">
-        <v>1281</v>
+        <v>1642</v>
       </c>
       <c r="O66" t="s">
-        <v>177</v>
+        <v>26</v>
       </c>
       <c r="Q66">
         <v>3</v>
@@ -26139,26 +26275,25 @@
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>30</v>
+        <v>657</v>
       </c>
       <c r="B67">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C67" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D67">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E67">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="G67">
-        <f>E67</f>
-        <v>220</v>
+        <v>298</v>
       </c>
       <c r="I67">
         <v>0</v>
@@ -26172,14 +26307,17 @@
       <c r="L67">
         <v>0</v>
       </c>
+      <c r="M67" t="s">
+        <v>1642</v>
+      </c>
       <c r="N67" t="s">
-        <v>656</v>
+        <v>1642</v>
       </c>
       <c r="O67" t="s">
         <v>26</v>
       </c>
       <c r="Q67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R67" t="b">
         <v>0</v>
@@ -26193,34 +26331,31 @@
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>529</v>
+        <v>47</v>
       </c>
       <c r="B68">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C68" t="s">
         <v>19</v>
       </c>
       <c r="D68">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E68">
-        <f>E67+5</f>
-        <v>225</v>
+        <v>13</v>
       </c>
       <c r="F68">
-        <f>F67</f>
-        <v>190</v>
+        <v>100</v>
       </c>
       <c r="G68">
-        <f>E68+4</f>
-        <v>229</v>
+        <v>16</v>
       </c>
       <c r="H68" t="s">
         <v>178</v>
       </c>
       <c r="I68">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J68">
         <v>1</v>
@@ -26232,17 +26367,16 @@
         <v>0</v>
       </c>
       <c r="N68" t="s">
-        <v>656</v>
+        <v>1642</v>
       </c>
       <c r="O68" t="s">
         <v>26</v>
       </c>
-      <c r="P68" s="1"/>
       <c r="Q68">
         <v>2</v>
       </c>
       <c r="R68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S68" t="s">
         <v>205</v>
@@ -26253,34 +26387,33 @@
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>1283</v>
+        <v>123</v>
       </c>
       <c r="B69">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C69" t="s">
         <v>19</v>
       </c>
       <c r="D69">
+        <v>101</v>
+      </c>
+      <c r="E69">
+        <f>G68+4</f>
         <v>20</v>
       </c>
-      <c r="E69">
-        <f>G68</f>
-        <v>229</v>
-      </c>
       <c r="F69">
-        <f>F68</f>
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="G69">
-        <f>E69+4</f>
-        <v>233</v>
+        <f>E69+5</f>
+        <v>25</v>
       </c>
       <c r="H69" t="s">
         <v>178</v>
       </c>
       <c r="I69">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J69">
         <v>0</v>
@@ -26292,10 +26425,10 @@
         <v>0</v>
       </c>
       <c r="N69" t="s">
-        <v>656</v>
+        <v>1642</v>
       </c>
       <c r="O69" t="s">
-        <v>26</v>
+        <v>177</v>
       </c>
       <c r="P69" s="1"/>
       <c r="Q69">
@@ -26313,30 +26446,31 @@
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>207</v>
+        <v>134</v>
       </c>
       <c r="B70">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C70" t="s">
         <v>25</v>
       </c>
       <c r="D70">
+        <v>10</v>
+      </c>
+      <c r="E70">
+        <f>G68+4</f>
         <v>20</v>
       </c>
-      <c r="E70">
-        <v>260</v>
-      </c>
       <c r="F70">
-        <f>D70+40</f>
-        <v>60</v>
+        <f>D70+88</f>
+        <v>98</v>
       </c>
       <c r="G70">
-        <f>E70+14</f>
-        <v>274</v>
+        <f>E70+80</f>
+        <v>100</v>
       </c>
       <c r="I70">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J70">
         <v>0</v>
@@ -26348,56 +26482,54 @@
         <v>0</v>
       </c>
       <c r="N70" t="s">
-        <v>656</v>
+        <v>1642</v>
       </c>
       <c r="O70" t="s">
         <v>26</v>
       </c>
-      <c r="P70" s="6" t="s">
-        <v>1430</v>
-      </c>
       <c r="Q70">
         <v>2</v>
       </c>
       <c r="R70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S70" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="T70">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>201</v>
+        <v>1737</v>
       </c>
       <c r="B71">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C71" t="s">
-        <v>202</v>
+        <v>19</v>
       </c>
       <c r="D71">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E71">
         <f>G70+5</f>
-        <v>279</v>
+        <v>105</v>
       </c>
       <c r="F71">
-        <f>F69</f>
-        <v>190</v>
+        <f>D71+88</f>
+        <v>98</v>
       </c>
       <c r="G71">
-        <v>288</v>
+        <f>E71+8</f>
+        <v>113</v>
       </c>
       <c r="H71" t="s">
         <v>178</v>
       </c>
       <c r="I71">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J71">
         <v>0</v>
@@ -26406,17 +26538,14 @@
         <v>0</v>
       </c>
       <c r="L71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N71" t="s">
-        <v>656</v>
+        <v>1642</v>
       </c>
       <c r="O71" t="s">
         <v>26</v>
       </c>
-      <c r="P71" s="6" t="s">
-        <v>206</v>
-      </c>
       <c r="Q71">
         <v>2</v>
       </c>
@@ -26424,7 +26553,7 @@
         <v>1</v>
       </c>
       <c r="S71" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="T71">
         <v>0</v>
@@ -26432,31 +26561,35 @@
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>657</v>
+        <v>48</v>
       </c>
       <c r="B72">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C72" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="F72">
-        <v>211</v>
+        <v>100</v>
       </c>
       <c r="G72">
-        <v>298</v>
+        <f t="shared" ref="G72" si="4">E72+3</f>
+        <v>153</v>
+      </c>
+      <c r="H72" t="s">
+        <v>178</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K72">
         <v>0</v>
@@ -26465,13 +26598,13 @@
         <v>0</v>
       </c>
       <c r="N72" t="s">
-        <v>656</v>
+        <v>1642</v>
       </c>
       <c r="O72" t="s">
         <v>26</v>
       </c>
       <c r="Q72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R72" t="b">
         <v>0</v>
@@ -26483,11 +26616,527 @@
         <v>0</v>
       </c>
     </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>132</v>
+      </c>
+      <c r="B73">
+        <v>7</v>
+      </c>
+      <c r="C73" t="s">
+        <v>19</v>
+      </c>
+      <c r="D73">
+        <v>101</v>
+      </c>
+      <c r="E73">
+        <v>165</v>
+      </c>
+      <c r="F73">
+        <v>205</v>
+      </c>
+      <c r="G73">
+        <f>E73+5</f>
+        <v>170</v>
+      </c>
+      <c r="H73" t="s">
+        <v>178</v>
+      </c>
+      <c r="I73">
+        <v>12</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="N73" t="s">
+        <v>1642</v>
+      </c>
+      <c r="O73" t="s">
+        <v>177</v>
+      </c>
+      <c r="P73" s="1"/>
+      <c r="Q73">
+        <v>2</v>
+      </c>
+      <c r="R73" t="b">
+        <v>1</v>
+      </c>
+      <c r="S73" t="s">
+        <v>205</v>
+      </c>
+      <c r="T73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>49</v>
+      </c>
+      <c r="B74">
+        <v>7</v>
+      </c>
+      <c r="C74" t="s">
+        <v>25</v>
+      </c>
+      <c r="D74">
+        <v>10</v>
+      </c>
+      <c r="E74">
+        <f>G72+4</f>
+        <v>157</v>
+      </c>
+      <c r="F74">
+        <f>D74+88</f>
+        <v>98</v>
+      </c>
+      <c r="G74">
+        <f>E74+80</f>
+        <v>237</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="N74" t="s">
+        <v>1642</v>
+      </c>
+      <c r="O74" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q74">
+        <v>2</v>
+      </c>
+      <c r="R74" t="b">
+        <v>0</v>
+      </c>
+      <c r="S74" t="s">
+        <v>205</v>
+      </c>
+      <c r="T74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B75">
+        <v>7</v>
+      </c>
+      <c r="C75" t="s">
+        <v>19</v>
+      </c>
+      <c r="D75">
+        <v>10</v>
+      </c>
+      <c r="E75">
+        <f>G74+5</f>
+        <v>242</v>
+      </c>
+      <c r="F75">
+        <f>D75+88</f>
+        <v>98</v>
+      </c>
+      <c r="G75">
+        <f>E75+8</f>
+        <v>250</v>
+      </c>
+      <c r="H75" t="s">
+        <v>178</v>
+      </c>
+      <c r="I75">
+        <v>16</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="N75" t="s">
+        <v>1642</v>
+      </c>
+      <c r="O75" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q75">
+        <v>2</v>
+      </c>
+      <c r="R75" t="b">
+        <v>1</v>
+      </c>
+      <c r="S75" t="s">
+        <v>205</v>
+      </c>
+      <c r="T75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>30</v>
+      </c>
+      <c r="B76">
+        <v>8</v>
+      </c>
+      <c r="C76" t="s">
+        <v>26</v>
+      </c>
+      <c r="D76">
+        <v>20</v>
+      </c>
+      <c r="E76">
+        <v>220</v>
+      </c>
+      <c r="F76">
+        <v>190</v>
+      </c>
+      <c r="G76">
+        <f>E76</f>
+        <v>220</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="N76" t="s">
+        <v>656</v>
+      </c>
+      <c r="O76" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q76">
+        <v>2</v>
+      </c>
+      <c r="R76" t="b">
+        <v>0</v>
+      </c>
+      <c r="S76" t="s">
+        <v>205</v>
+      </c>
+      <c r="T76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>529</v>
+      </c>
+      <c r="B77">
+        <v>8</v>
+      </c>
+      <c r="C77" t="s">
+        <v>19</v>
+      </c>
+      <c r="D77">
+        <v>20</v>
+      </c>
+      <c r="E77">
+        <f>E76+5</f>
+        <v>225</v>
+      </c>
+      <c r="F77">
+        <f>F76</f>
+        <v>190</v>
+      </c>
+      <c r="G77">
+        <f>E77+4</f>
+        <v>229</v>
+      </c>
+      <c r="H77" t="s">
+        <v>178</v>
+      </c>
+      <c r="I77">
+        <v>8</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="N77" t="s">
+        <v>656</v>
+      </c>
+      <c r="O77" t="s">
+        <v>26</v>
+      </c>
+      <c r="P77" s="1"/>
+      <c r="Q77">
+        <v>2</v>
+      </c>
+      <c r="R77" t="b">
+        <v>1</v>
+      </c>
+      <c r="S77" t="s">
+        <v>205</v>
+      </c>
+      <c r="T77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B78">
+        <v>8</v>
+      </c>
+      <c r="C78" t="s">
+        <v>19</v>
+      </c>
+      <c r="D78">
+        <v>20</v>
+      </c>
+      <c r="E78">
+        <f>G77</f>
+        <v>229</v>
+      </c>
+      <c r="F78">
+        <f>F77</f>
+        <v>190</v>
+      </c>
+      <c r="G78">
+        <f>E78+4</f>
+        <v>233</v>
+      </c>
+      <c r="H78" t="s">
+        <v>178</v>
+      </c>
+      <c r="I78">
+        <v>8</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="N78" t="s">
+        <v>656</v>
+      </c>
+      <c r="O78" t="s">
+        <v>26</v>
+      </c>
+      <c r="P78" s="1"/>
+      <c r="Q78">
+        <v>2</v>
+      </c>
+      <c r="R78" t="b">
+        <v>1</v>
+      </c>
+      <c r="S78" t="s">
+        <v>205</v>
+      </c>
+      <c r="T78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>207</v>
+      </c>
+      <c r="B79">
+        <v>8</v>
+      </c>
+      <c r="C79" t="s">
+        <v>25</v>
+      </c>
+      <c r="D79">
+        <v>20</v>
+      </c>
+      <c r="E79">
+        <v>260</v>
+      </c>
+      <c r="F79">
+        <f>D79+40</f>
+        <v>60</v>
+      </c>
+      <c r="G79">
+        <f>E79+14</f>
+        <v>274</v>
+      </c>
+      <c r="I79">
+        <v>8</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="N79" t="s">
+        <v>656</v>
+      </c>
+      <c r="O79" t="s">
+        <v>26</v>
+      </c>
+      <c r="P79" s="6" t="s">
+        <v>1430</v>
+      </c>
+      <c r="Q79">
+        <v>2</v>
+      </c>
+      <c r="R79" t="b">
+        <v>1</v>
+      </c>
+      <c r="S79" t="s">
+        <v>204</v>
+      </c>
+      <c r="T79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>201</v>
+      </c>
+      <c r="B80">
+        <v>8</v>
+      </c>
+      <c r="C80" t="s">
+        <v>202</v>
+      </c>
+      <c r="D80">
+        <v>20</v>
+      </c>
+      <c r="E80">
+        <f>G79+5</f>
+        <v>279</v>
+      </c>
+      <c r="F80">
+        <f>F78</f>
+        <v>190</v>
+      </c>
+      <c r="G80">
+        <v>288</v>
+      </c>
+      <c r="H80" t="s">
+        <v>178</v>
+      </c>
+      <c r="I80">
+        <v>8</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>1</v>
+      </c>
+      <c r="N80" t="s">
+        <v>656</v>
+      </c>
+      <c r="O80" t="s">
+        <v>26</v>
+      </c>
+      <c r="P80" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q80">
+        <v>2</v>
+      </c>
+      <c r="R80" t="b">
+        <v>1</v>
+      </c>
+      <c r="S80" t="s">
+        <v>204</v>
+      </c>
+      <c r="T80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>657</v>
+      </c>
+      <c r="B81">
+        <v>8</v>
+      </c>
+      <c r="C81" t="s">
+        <v>27</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>211</v>
+      </c>
+      <c r="G81">
+        <v>298</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="N81" t="s">
+        <v>656</v>
+      </c>
+      <c r="O81" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q81">
+        <v>1</v>
+      </c>
+      <c r="R81" t="b">
+        <v>0</v>
+      </c>
+      <c r="S81" t="s">
+        <v>205</v>
+      </c>
+      <c r="T81">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:T69" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <conditionalFormatting sqref="A53:A54">
-    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
-  </conditionalFormatting>
+  <autoFilter ref="A1:T78" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
@@ -26501,10 +27150,10 @@
   <dimension ref="A1:T194"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B138" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B174" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G138" sqref="G138"/>
+      <selection pane="bottomRight" activeCell="A193" sqref="A193:XFD193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38025,7 +38674,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B35" sqref="B35"/>
+      <selection pane="bottomRight" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/process/configuration/templates/_report_configuration.xlsx
+++ b/process/configuration/templates/_report_configuration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rmiteduau-my.sharepoint.com/personal/carl_higgs_rmit_edu_au/Documents/projects/global-indicators/process/configuration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3485" documentId="114_{57517418-E3A8-4D24-9644-27D04334BB89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C6CBAF7-E8DA-454D-827E-18BD2504C3FC}"/>
+  <xr:revisionPtr revIDLastSave="3488" documentId="114_{57517418-E3A8-4D24-9644-27D04334BB89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A030B283-2B7B-475B-B805-164A50C45D59}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="policy_spatial" sheetId="1" r:id="rId1"/>
@@ -4796,9 +4796,6 @@
     <t>The findings could inform changes needed to local city policies. The maps show the distribution of urban design and transport features across {city_name} and identify areas that could benefit the most from interventions to create healthy and sustainable environments.</t>
   </si>
   <si>
-    <t>Public policies are essential for supporting the design and creation of healthy and sustainable cities and neighbourhoods. The 1000 Cities Challenge Checklist was used to assesses the presence and quality of policies aligned with evidence and principles for healthy and sustainable cities.</t>
-  </si>
-  <si>
     <t>Thresholds for 80% probability of engaging in walking for transport</t>
   </si>
   <si>
@@ -4838,9 +4835,6 @@
     <t>hero_alt_1</t>
   </si>
   <si>
-    <t>GoHSC principles alignment</t>
-  </si>
-  <si>
     <t>Climate disaster risk reduction</t>
   </si>
   <si>
@@ -4848,6 +4842,12 @@
   </si>
   <si>
     <t>In the face of climate change, built environments need to be designed to reduce the health impacts of increasingly frequent and severe extreme weather events, such as heat waves, flooding, bushfire/wildfire and extreme storms.</t>
+  </si>
+  <si>
+    <t>Aligns with health evidence</t>
+  </si>
+  <si>
+    <t>Public policies are essential for supporting the design and creation of healthy and sustainable cities and neighbourhoods. The 1000 Cities Challenge Policy Checklist was used to assess the presence and quality of policies aligned with evidence and principles for healthy and sustainable cities for {policy jurisdiction}.</t>
   </si>
 </sst>
 </file>
@@ -5540,12 +5540,9 @@
   </cellStyles>
   <dxfs count="9">
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5578,9 +5575,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5926,7 +5926,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T288"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B257" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -6489,7 +6489,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -6546,7 +6546,7 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -6600,7 +6600,7 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -6810,7 +6810,7 @@
         <v>27</v>
       </c>
       <c r="P15" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="Q15">
         <v>0</v>
@@ -20001,7 +20001,7 @@
     </row>
     <row r="238" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="B238">
         <v>8</v>
@@ -21597,7 +21597,7 @@
     </row>
     <row r="265" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="B265">
         <v>8</v>
@@ -21655,7 +21655,7 @@
     </row>
     <row r="266" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="B266">
         <v>8</v>
@@ -22478,7 +22478,7 @@
     </row>
     <row r="280" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="B280">
         <v>8</v>
@@ -22534,7 +22534,7 @@
     </row>
     <row r="281" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="B281">
         <v>8</v>
@@ -22593,7 +22593,7 @@
     </row>
     <row r="282" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="B282">
         <v>8</v>
@@ -23579,7 +23579,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -23636,7 +23636,7 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -23690,7 +23690,7 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -23900,7 +23900,7 @@
         <v>27</v>
       </c>
       <c r="P15" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="Q15">
         <v>0</v>
@@ -27883,11 +27883,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U136"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D91" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B109" sqref="B109"/>
+      <selection pane="bottomRight" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28249,7 +28249,7 @@
         <v>1515</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
@@ -28278,7 +28278,7 @@
         <v>1516</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
@@ -28307,7 +28307,7 @@
         <v>1517</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
@@ -28333,7 +28333,7 @@
         <v>77</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>1306</v>
@@ -30391,7 +30391,7 @@
         <v>1420</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>1548</v>
+        <v>1565</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -31422,7 +31422,7 @@
         <v>1462</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -31541,7 +31541,7 @@
         <v>1325</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>1562</v>
+        <v>1564</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -32635,13 +32635,13 @@
     </row>
     <row r="99" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="15" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="B99" s="15" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="18"/>
@@ -32809,13 +32809,13 @@
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A105" s="15" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="B105" s="15" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -32841,10 +32841,10 @@
         <v>77</v>
       </c>
       <c r="B106" s="15" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -34306,36 +34306,36 @@
   <conditionalFormatting sqref="B7:B10">
     <cfRule type="duplicateValues" dxfId="7" priority="108"/>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B11:B72 B1:B6 B74:B136">
+    <cfRule type="duplicateValues" dxfId="6" priority="136"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B73">
-    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:U43 B44:L49 M44:U69 K50:L69 B50:J72 K70:U72 B74:D74 G74:U74 D74:J83 B75:C81 M75:U81 K75:L83 B80:D80 G80:U80 B82:U83 D84:L87 B84:C94 M84:U94 B114:C119 L114:L119 M114:U131 D116:J119 K117:K119 B120:L122 B123:J131 B132:U134 B135:J136 M135:U136 K136:L136 B88:U113">
-    <cfRule type="containsBlanks" dxfId="5" priority="19">
+  <conditionalFormatting sqref="B1:U43 B44:L49 M44:U69 K50:L69 B50:J72 K70:U72 B74:D74 G74:U74 D74:J83 B75:C81 M75:U81 K75:L83 B80:D80 G80:U80 B82:U83 D84:L87 B84:C94 M84:U94 B88:U113 B114:C119 L114:L119 M114:U131 D116:J119 K117:K119 B120:L122 B123:J131 B132:U134 B135:J136 M135:U136 K136:L136">
+    <cfRule type="containsBlanks" dxfId="4" priority="19">
       <formula>LEN(TRIM(B1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B73:U73">
-    <cfRule type="containsBlanks" dxfId="4" priority="1">
+    <cfRule type="containsBlanks" dxfId="3" priority="1">
       <formula>LEN(TRIM(B73))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D114:K116 K131:K135">
-    <cfRule type="containsBlanks" dxfId="3" priority="71">
+    <cfRule type="containsBlanks" dxfId="2" priority="71">
       <formula>LEN(TRIM(D114))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K123:L130">
-    <cfRule type="containsBlanks" dxfId="2" priority="5">
+    <cfRule type="containsBlanks" dxfId="1" priority="5">
       <formula>LEN(TRIM(K123))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L131:L134">
-    <cfRule type="containsBlanks" dxfId="1" priority="9">
+    <cfRule type="containsBlanks" dxfId="0" priority="9">
       <formula>LEN(TRIM(L131))=0</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B11:B72 B1:B6 B74:B136">
-    <cfRule type="duplicateValues" dxfId="0" priority="136"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/process/configuration/templates/_report_configuration.xlsx
+++ b/process/configuration/templates/_report_configuration.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rmiteduau-my.sharepoint.com/personal/carl_higgs_rmit_edu_au/Documents/projects/global-indicators/process/configuration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3488" documentId="114_{57517418-E3A8-4D24-9644-27D04334BB89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A030B283-2B7B-475B-B805-164A50C45D59}"/>
+  <xr:revisionPtr revIDLastSave="3511" documentId="114_{57517418-E3A8-4D24-9644-27D04334BB89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{939A0A60-FEA3-41AD-8AA6-EE19F3E5FBC6}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="policy_spatial" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="fonts" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">languages!$B$1:$M$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">languages!$B$1:$N$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">policy_spatial!$A$1:$T$285</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">spatial!$A$1:$T$80</definedName>
   </definedNames>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3935" uniqueCount="1566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4067" uniqueCount="1573">
   <si>
     <t>name</t>
   </si>
@@ -4848,6 +4848,27 @@
   </si>
   <si>
     <t>Public policies are essential for supporting the design and creation of healthy and sustainable cities and neighbourhoods. The 1000 Cities Challenge Policy Checklist was used to assess the presence and quality of policies aligned with evidence and principles for healthy and sustainable cities for {policy jurisdiction}.</t>
+  </si>
+  <si>
+    <t>Old English</t>
+  </si>
+  <si>
+    <t>configuration/assets/cover_background - sage - base box.svg</t>
+  </si>
+  <si>
+    <t>Policy indicators for healthy and sustainable cities</t>
+  </si>
+  <si>
+    <t>Policy and spatial indicators  for healthy and sustainable cities</t>
+  </si>
+  <si>
+    <t>Spatial indicators  for healthy and sustainable cities</t>
+  </si>
+  <si>
+    <t>1000 Cities Challenge report series</t>
+  </si>
+  <si>
+    <t>configuration/assets/GOHSC - colour logo transparent.svg</t>
   </si>
 </sst>
 </file>
@@ -5628,9 +5649,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5668,7 +5689,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -5774,7 +5795,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5916,7 +5937,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5926,11 +5947,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T288"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B257" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E287" sqref="E287"/>
+      <selection pane="bottomRight" activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6305,7 +6326,7 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -6367,7 +6388,7 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -6752,7 +6773,7 @@
         <v>25</v>
       </c>
       <c r="P14" t="s">
-        <v>1232</v>
+        <v>1567</v>
       </c>
       <c r="Q14">
         <v>0</v>
@@ -6778,14 +6799,14 @@
         <v>24</v>
       </c>
       <c r="D15">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="E15">
         <v>159</v>
       </c>
       <c r="F15">
         <f>D15+106</f>
-        <v>127</v>
+        <v>206</v>
       </c>
       <c r="G15">
         <f>E15+30</f>
@@ -6810,7 +6831,7 @@
         <v>27</v>
       </c>
       <c r="P15" t="s">
-        <v>1549</v>
+        <v>1572</v>
       </c>
       <c r="Q15">
         <v>0</v>
@@ -27881,33 +27902,33 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:U136"/>
+  <dimension ref="A1:V136"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B24" sqref="B24"/>
+      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.7109375" style="15" customWidth="1"/>
     <col min="2" max="2" width="38" style="15" customWidth="1"/>
-    <col min="3" max="4" width="52.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="65.5703125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="70" style="3" customWidth="1"/>
-    <col min="7" max="9" width="52.85546875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="72" style="3" customWidth="1"/>
-    <col min="11" max="16" width="52.85546875" style="3" customWidth="1"/>
-    <col min="17" max="17" width="96.42578125" style="3" customWidth="1"/>
-    <col min="18" max="18" width="65.7109375" style="3" customWidth="1"/>
-    <col min="19" max="19" width="56" style="3" customWidth="1"/>
-    <col min="20" max="21" width="52.85546875" style="3" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="3"/>
+    <col min="3" max="5" width="52.85546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="65.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="70" style="3" customWidth="1"/>
+    <col min="8" max="10" width="52.85546875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="72" style="3" customWidth="1"/>
+    <col min="12" max="17" width="52.85546875" style="3" customWidth="1"/>
+    <col min="18" max="18" width="96.42578125" style="3" customWidth="1"/>
+    <col min="19" max="19" width="65.7109375" style="3" customWidth="1"/>
+    <col min="20" max="20" width="56" style="3" customWidth="1"/>
+    <col min="21" max="22" width="52.85546875" style="3" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>76</v>
       </c>
@@ -27917,58 +27938,61 @@
       <c r="C1" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
+        <v>1566</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>550</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>841</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="R1" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="S1" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="T1" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="T1" s="7"/>
       <c r="U1" s="7"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V1" s="7"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>77</v>
       </c>
@@ -27978,58 +28002,61 @@
       <c r="C2" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>976</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>977</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="H2" s="12" t="s">
         <v>334</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>960</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="L2" s="8" t="s">
         <v>841</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="M2" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="N2" s="8" t="s">
         <v>1322</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="O2" s="8" t="s">
         <v>1323</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>1321</v>
       </c>
       <c r="P2" s="8" t="s">
         <v>1321</v>
       </c>
       <c r="Q2" s="8" t="s">
+        <v>1321</v>
+      </c>
+      <c r="R2" s="8" t="s">
         <v>1002</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="S2" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="T2" s="8" t="s">
         <v>747</v>
       </c>
-      <c r="T2" s="8"/>
       <c r="U2" s="8"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V2" s="8"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>77</v>
       </c>
@@ -28087,10 +28114,13 @@
       <c r="S3" s="12">
         <v>0</v>
       </c>
-      <c r="T3" s="8"/>
+      <c r="T3" s="12">
+        <v>0</v>
+      </c>
       <c r="U3" s="8"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V3" s="8"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>77</v>
       </c>
@@ -28140,18 +28170,21 @@
         <v>1</v>
       </c>
       <c r="Q4" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" s="20">
         <v>1</v>
       </c>
-      <c r="T4" s="8"/>
+      <c r="T4" s="20">
+        <v>1</v>
+      </c>
       <c r="U4" s="8"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V4" s="8"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>77</v>
       </c>
@@ -28161,58 +28194,61 @@
       <c r="C5" s="12" t="s">
         <v>1043</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="12" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>1060</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>1061</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>1061</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="8" t="s">
+        <v>1061</v>
+      </c>
+      <c r="H5" s="12" t="s">
         <v>1062</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="I5" s="8" t="s">
         <v>1063</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="J5" s="8" t="s">
         <v>1065</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="K5" s="8" t="s">
         <v>1059</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="L5" s="8" t="s">
         <v>1066</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="M5" s="8" t="s">
         <v>1067</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>1068</v>
       </c>
       <c r="N5" s="8" t="s">
         <v>1068</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="P5" s="8" t="s">
         <v>1069</v>
       </c>
       <c r="Q5" s="8" t="s">
+        <v>1069</v>
+      </c>
+      <c r="R5" s="8" t="s">
         <v>1070</v>
       </c>
-      <c r="R5" s="8" t="s">
+      <c r="S5" s="8" t="s">
         <v>1071</v>
       </c>
-      <c r="S5" s="8" t="s">
+      <c r="T5" s="8" t="s">
         <v>1072</v>
       </c>
-      <c r="T5" s="8"/>
       <c r="U5" s="8"/>
-    </row>
-    <row r="6" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V5" s="8"/>
+    </row>
+    <row r="6" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>77</v>
       </c>
@@ -28220,18 +28256,20 @@
         <v>231</v>
       </c>
       <c r="C6" s="9" t="s">
+        <v>1571</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>1530</v>
       </c>
-      <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="16"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="8"/>
       <c r="L6" s="16"/>
-      <c r="M6" s="8"/>
+      <c r="M6" s="16"/>
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
       <c r="P6" s="8"/>
@@ -28240,8 +28278,9 @@
       <c r="S6" s="8"/>
       <c r="T6" s="8"/>
       <c r="U6" s="8"/>
-    </row>
-    <row r="7" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V6" s="8"/>
+    </row>
+    <row r="7" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>77</v>
       </c>
@@ -28249,18 +28288,20 @@
         <v>1515</v>
       </c>
       <c r="C7" s="9" t="s">
+        <v>1568</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>1551</v>
       </c>
-      <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="16"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="8"/>
       <c r="L7" s="16"/>
-      <c r="M7" s="8"/>
+      <c r="M7" s="16"/>
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
@@ -28269,8 +28310,9 @@
       <c r="S7" s="8"/>
       <c r="T7" s="8"/>
       <c r="U7" s="8"/>
-    </row>
-    <row r="8" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V7" s="8"/>
+    </row>
+    <row r="8" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>77</v>
       </c>
@@ -28278,18 +28320,20 @@
         <v>1516</v>
       </c>
       <c r="C8" s="9" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>1552</v>
       </c>
-      <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="16"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="8"/>
       <c r="L8" s="16"/>
-      <c r="M8" s="8"/>
+      <c r="M8" s="16"/>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
@@ -28298,8 +28342,9 @@
       <c r="S8" s="8"/>
       <c r="T8" s="8"/>
       <c r="U8" s="8"/>
-    </row>
-    <row r="9" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V8" s="8"/>
+    </row>
+    <row r="9" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>77</v>
       </c>
@@ -28307,18 +28352,20 @@
         <v>1517</v>
       </c>
       <c r="C9" s="9" t="s">
+        <v>1570</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>1553</v>
       </c>
-      <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="16"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="8"/>
       <c r="L9" s="16"/>
-      <c r="M9" s="8"/>
+      <c r="M9" s="16"/>
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>
       <c r="P9" s="8"/>
@@ -28327,8 +28374,9 @@
       <c r="S9" s="8"/>
       <c r="T9" s="8"/>
       <c r="U9" s="8"/>
-    </row>
-    <row r="10" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V9" s="8"/>
+    </row>
+    <row r="10" spans="1:22" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>77</v>
       </c>
@@ -28338,58 +28386,61 @@
       <c r="C10" s="9" t="s">
         <v>1306</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="9" t="s">
+        <v>1306</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>1307</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="F10" s="8" t="s">
         <v>1308</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="G10" s="8" t="s">
         <v>1309</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="H10" s="9" t="s">
         <v>1310</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="I10" s="8" t="s">
         <v>1311</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="J10" s="16" t="s">
         <v>1312</v>
       </c>
-      <c r="J10" s="8" t="s">
+      <c r="K10" s="8" t="s">
         <v>1313</v>
       </c>
-      <c r="K10" s="16" t="s">
+      <c r="L10" s="16" t="s">
         <v>1314</v>
       </c>
-      <c r="L10" s="16" t="s">
+      <c r="M10" s="16" t="s">
         <v>1315</v>
-      </c>
-      <c r="M10" s="8" t="s">
-        <v>1316</v>
       </c>
       <c r="N10" s="8" t="s">
         <v>1316</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="P10" s="8" t="s">
         <v>1317</v>
       </c>
       <c r="Q10" s="8" t="s">
+        <v>1317</v>
+      </c>
+      <c r="R10" s="8" t="s">
         <v>1318</v>
       </c>
-      <c r="R10" s="8" t="s">
+      <c r="S10" s="8" t="s">
         <v>1319</v>
       </c>
-      <c r="S10" s="8" t="s">
+      <c r="T10" s="8" t="s">
         <v>1320</v>
       </c>
-      <c r="T10" s="8"/>
       <c r="U10" s="8"/>
-    </row>
-    <row r="11" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V10" s="8"/>
+    </row>
+    <row r="11" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>77</v>
       </c>
@@ -28399,58 +28450,61 @@
       <c r="C11" s="23" t="s">
         <v>1518</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="23" t="s">
+        <v>1518</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>455</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="F11" s="8" t="s">
         <v>572</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="G11" s="8" t="s">
         <v>573</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="H11" s="9" t="s">
         <v>788</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="I11" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="J11" s="16" t="s">
         <v>707</v>
       </c>
-      <c r="J11" s="8" t="s">
+      <c r="K11" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="K11" s="16" t="s">
+      <c r="L11" s="16" t="s">
         <v>842</v>
       </c>
-      <c r="L11" s="16" t="s">
+      <c r="M11" s="16" t="s">
         <v>1160</v>
-      </c>
-      <c r="M11" s="8" t="s">
-        <v>287</v>
       </c>
       <c r="N11" s="8" t="s">
         <v>287</v>
       </c>
       <c r="O11" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="P11" s="8" t="s">
         <v>671</v>
       </c>
-      <c r="P11" s="8" t="s">
+      <c r="Q11" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="Q11" s="8" t="s">
+      <c r="R11" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="R11" s="8" t="s">
+      <c r="S11" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="S11" s="8" t="s">
+      <c r="T11" s="8" t="s">
         <v>749</v>
       </c>
-      <c r="T11" s="8"/>
       <c r="U11" s="8"/>
-    </row>
-    <row r="12" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V11" s="8"/>
+    </row>
+    <row r="12" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>77</v>
       </c>
@@ -28464,13 +28518,13 @@
         <v>1237</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>1238</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="H12" s="9" t="s">
         <v>1237</v>
@@ -28478,13 +28532,13 @@
       <c r="I12" s="9" t="s">
         <v>1237</v>
       </c>
-      <c r="J12" s="8" t="s">
+      <c r="J12" s="9" t="s">
         <v>1237</v>
       </c>
-      <c r="K12" s="16" t="s">
+      <c r="K12" s="8" t="s">
         <v>1237</v>
       </c>
-      <c r="L12" s="9" t="s">
+      <c r="L12" s="16" t="s">
         <v>1237</v>
       </c>
       <c r="M12" s="9" t="s">
@@ -28499,19 +28553,22 @@
       <c r="P12" s="9" t="s">
         <v>1237</v>
       </c>
-      <c r="Q12" s="8" t="s">
+      <c r="Q12" s="9" t="s">
         <v>1237</v>
       </c>
-      <c r="R12" s="9" t="s">
+      <c r="R12" s="8" t="s">
+        <v>1237</v>
+      </c>
+      <c r="S12" s="9" t="s">
         <v>1239</v>
       </c>
-      <c r="S12" s="8" t="s">
+      <c r="T12" s="8" t="s">
         <v>1240</v>
       </c>
-      <c r="T12" s="8"/>
       <c r="U12" s="8"/>
-    </row>
-    <row r="13" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V12" s="8"/>
+    </row>
+    <row r="13" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>78</v>
       </c>
@@ -28525,27 +28582,27 @@
         <v>948</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>949</v>
       </c>
       <c r="G13" s="9" t="s">
+        <v>949</v>
+      </c>
+      <c r="H13" s="9" t="s">
         <v>1079</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>948</v>
       </c>
       <c r="I13" s="9" t="s">
         <v>948</v>
       </c>
-      <c r="J13" s="8" t="s">
+      <c r="J13" s="9" t="s">
         <v>948</v>
       </c>
-      <c r="K13" s="16" t="s">
+      <c r="K13" s="8" t="s">
         <v>948</v>
       </c>
-      <c r="L13" s="9" t="s">
+      <c r="L13" s="16" t="s">
         <v>948</v>
       </c>
       <c r="M13" s="9" t="s">
@@ -28560,19 +28617,22 @@
       <c r="P13" s="9" t="s">
         <v>948</v>
       </c>
-      <c r="Q13" s="8" t="s">
+      <c r="Q13" s="9" t="s">
+        <v>948</v>
+      </c>
+      <c r="R13" s="8" t="s">
         <v>952</v>
       </c>
-      <c r="R13" s="9" t="s">
+      <c r="S13" s="9" t="s">
         <v>955</v>
       </c>
-      <c r="S13" s="8" t="s">
+      <c r="T13" s="8" t="s">
         <v>948</v>
       </c>
-      <c r="T13" s="8"/>
       <c r="U13" s="8"/>
-    </row>
-    <row r="14" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V13" s="8"/>
+    </row>
+    <row r="14" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>78</v>
       </c>
@@ -28586,13 +28646,13 @@
         <v>950</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>951</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H14" s="9" t="s">
         <v>950</v>
@@ -28600,13 +28660,13 @@
       <c r="I14" s="9" t="s">
         <v>950</v>
       </c>
-      <c r="J14" s="8" t="s">
+      <c r="J14" s="9" t="s">
         <v>950</v>
       </c>
-      <c r="K14" s="16" t="s">
+      <c r="K14" s="8" t="s">
         <v>950</v>
       </c>
-      <c r="L14" s="9" t="s">
+      <c r="L14" s="16" t="s">
         <v>950</v>
       </c>
       <c r="M14" s="9" t="s">
@@ -28621,19 +28681,22 @@
       <c r="P14" s="9" t="s">
         <v>950</v>
       </c>
-      <c r="Q14" s="8" t="s">
+      <c r="Q14" s="9" t="s">
+        <v>950</v>
+      </c>
+      <c r="R14" s="8" t="s">
         <v>953</v>
       </c>
-      <c r="R14" s="9" t="s">
+      <c r="S14" s="9" t="s">
         <v>954</v>
       </c>
-      <c r="S14" s="8" t="s">
+      <c r="T14" s="8" t="s">
         <v>950</v>
       </c>
-      <c r="T14" s="8"/>
       <c r="U14" s="8"/>
-    </row>
-    <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V14" s="8"/>
+    </row>
+    <row r="15" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>78</v>
       </c>
@@ -28647,13 +28710,13 @@
         <v>956</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="F15" s="9" t="s">
         <v>957</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="H15" s="9" t="s">
         <v>956</v>
@@ -28661,13 +28724,13 @@
       <c r="I15" s="9" t="s">
         <v>956</v>
       </c>
-      <c r="J15" s="8" t="s">
+      <c r="J15" s="9" t="s">
         <v>956</v>
       </c>
-      <c r="K15" s="16" t="s">
+      <c r="K15" s="8" t="s">
         <v>956</v>
       </c>
-      <c r="L15" s="9" t="s">
+      <c r="L15" s="16" t="s">
         <v>956</v>
       </c>
       <c r="M15" s="9" t="s">
@@ -28682,19 +28745,22 @@
       <c r="P15" s="9" t="s">
         <v>956</v>
       </c>
-      <c r="Q15" s="8" t="s">
+      <c r="Q15" s="9" t="s">
+        <v>956</v>
+      </c>
+      <c r="R15" s="8" t="s">
         <v>958</v>
       </c>
-      <c r="R15" s="9" t="s">
+      <c r="S15" s="9" t="s">
         <v>959</v>
       </c>
-      <c r="S15" s="8" t="s">
+      <c r="T15" s="8" t="s">
         <v>956</v>
       </c>
-      <c r="T15" s="8"/>
       <c r="U15" s="8"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V15" s="8"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>78</v>
       </c>
@@ -28704,35 +28770,35 @@
       <c r="C16" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="9" t="s">
         <v>302</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>328</v>
+        <v>302</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="H16" s="9" t="s">
         <v>800</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="I16" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="I16" s="16" t="s">
+      <c r="J16" s="16" t="s">
         <v>302</v>
       </c>
-      <c r="J16" s="8" t="s">
+      <c r="K16" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="K16" s="16" t="s">
+      <c r="L16" s="16" t="s">
         <v>855</v>
       </c>
-      <c r="L16" s="16" t="s">
+      <c r="M16" s="16" t="s">
         <v>376</v>
-      </c>
-      <c r="M16" s="8" t="s">
-        <v>326</v>
       </c>
       <c r="N16" s="8" t="s">
         <v>326</v>
@@ -28744,18 +28810,21 @@
         <v>326</v>
       </c>
       <c r="Q16" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="R16" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="R16" s="8" t="s">
+      <c r="S16" s="8" t="s">
         <v>504</v>
       </c>
-      <c r="S16" s="8" t="s">
+      <c r="T16" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="T16" s="8"/>
       <c r="U16" s="8"/>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V16" s="8"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>78</v>
       </c>
@@ -28765,58 +28834,61 @@
       <c r="C17" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="F17" s="8" t="s">
         <v>574</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="G17" s="8" t="s">
         <v>978</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="H17" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="I17" s="8" t="s">
         <v>900</v>
       </c>
-      <c r="I17" s="16" t="s">
+      <c r="J17" s="16" t="s">
         <v>708</v>
       </c>
-      <c r="J17" s="8" t="s">
+      <c r="K17" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="K17" s="16" t="s">
+      <c r="L17" s="16" t="s">
         <v>843</v>
       </c>
-      <c r="L17" s="16" t="s">
+      <c r="M17" s="16" t="s">
         <v>1161</v>
       </c>
-      <c r="M17" s="8" t="s">
+      <c r="N17" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="N17" s="8" t="s">
+      <c r="O17" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="O17" s="8" t="s">
+      <c r="P17" s="8" t="s">
         <v>672</v>
       </c>
-      <c r="P17" s="8" t="s">
+      <c r="Q17" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="Q17" s="8" t="s">
+      <c r="R17" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="R17" s="8" t="s">
+      <c r="S17" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="S17" s="8" t="s">
+      <c r="T17" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="T17" s="8"/>
       <c r="U17" s="8"/>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V17" s="8"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>78</v>
       </c>
@@ -28826,58 +28898,61 @@
       <c r="C18" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="E18" s="8" t="s">
         <v>456</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>219</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="G18" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="H18" s="9" t="s">
         <v>790</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="I18" s="8" t="s">
         <v>975</v>
       </c>
-      <c r="I18" s="16" t="s">
+      <c r="J18" s="16" t="s">
         <v>337</v>
       </c>
-      <c r="J18" s="8" t="s">
+      <c r="K18" s="8" t="s">
         <v>1121</v>
       </c>
-      <c r="K18" s="16" t="s">
+      <c r="L18" s="16" t="s">
         <v>844</v>
       </c>
-      <c r="L18" s="16" t="s">
+      <c r="M18" s="16" t="s">
         <v>1162</v>
       </c>
-      <c r="M18" s="8" t="s">
+      <c r="N18" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="N18" s="8" t="s">
+      <c r="O18" s="8" t="s">
         <v>475</v>
-      </c>
-      <c r="O18" s="8" t="s">
-        <v>173</v>
       </c>
       <c r="P18" s="8" t="s">
         <v>173</v>
       </c>
       <c r="Q18" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="R18" s="8" t="s">
         <v>1003</v>
       </c>
-      <c r="R18" s="8" t="s">
+      <c r="S18" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="S18" s="8" t="s">
+      <c r="T18" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="T18" s="8"/>
       <c r="U18" s="8"/>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V18" s="8"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>78</v>
       </c>
@@ -28887,58 +28962,61 @@
       <c r="C19" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="F19" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="G19" s="8" t="s">
         <v>575</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="H19" s="9" t="s">
         <v>791</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="I19" s="8" t="s">
         <v>901</v>
       </c>
-      <c r="I19" s="16" t="s">
+      <c r="J19" s="16" t="s">
         <v>1135</v>
       </c>
-      <c r="J19" s="8" t="s">
+      <c r="K19" s="8" t="s">
         <v>1116</v>
       </c>
-      <c r="K19" s="16" t="s">
+      <c r="L19" s="16" t="s">
         <v>845</v>
       </c>
-      <c r="L19" s="16" t="s">
+      <c r="M19" s="16" t="s">
         <v>1163</v>
-      </c>
-      <c r="M19" s="8" t="s">
-        <v>150</v>
       </c>
       <c r="N19" s="8" t="s">
         <v>150</v>
       </c>
       <c r="O19" s="8" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="P19" s="8" t="s">
         <v>174</v>
       </c>
       <c r="Q19" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="R19" s="8" t="s">
         <v>1004</v>
       </c>
-      <c r="R19" s="8" t="s">
+      <c r="S19" s="8" t="s">
         <v>498</v>
       </c>
-      <c r="S19" s="8" t="s">
+      <c r="T19" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="T19" s="8"/>
       <c r="U19" s="8"/>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V19" s="8"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>78</v>
       </c>
@@ -28948,58 +29026,61 @@
       <c r="C20" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="F20" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="G20" s="8" t="s">
         <v>576</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="H20" s="9" t="s">
         <v>792</v>
       </c>
-      <c r="H20" s="8" t="s">
+      <c r="I20" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="I20" s="16" t="s">
+      <c r="J20" s="16" t="s">
         <v>1136</v>
       </c>
-      <c r="J20" s="8" t="s">
+      <c r="K20" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="K20" s="16" t="s">
+      <c r="L20" s="16" t="s">
         <v>846</v>
       </c>
-      <c r="L20" s="16" t="s">
+      <c r="M20" s="16" t="s">
         <v>1164</v>
-      </c>
-      <c r="M20" s="8" t="s">
-        <v>290</v>
       </c>
       <c r="N20" s="8" t="s">
         <v>290</v>
       </c>
       <c r="O20" s="8" t="s">
-        <v>175</v>
+        <v>290</v>
       </c>
       <c r="P20" s="8" t="s">
         <v>175</v>
       </c>
       <c r="Q20" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="R20" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="R20" s="8" t="s">
+      <c r="S20" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="S20" s="8" t="s">
+      <c r="T20" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="T20" s="8"/>
       <c r="U20" s="8"/>
-    </row>
-    <row r="21" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="V20" s="8"/>
+    </row>
+    <row r="21" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
         <v>78</v>
       </c>
@@ -29009,35 +29090,35 @@
       <c r="C21" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" s="8" t="s">
         <v>274</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>577</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>577</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="G21" s="8" t="s">
+        <v>577</v>
+      </c>
+      <c r="H21" s="9" t="s">
         <v>793</v>
       </c>
-      <c r="H21" s="8" t="s">
+      <c r="I21" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="I21" s="16" t="s">
+      <c r="J21" s="16" t="s">
         <v>709</v>
       </c>
-      <c r="J21" s="8" t="s">
+      <c r="K21" s="8" t="s">
         <v>1117</v>
       </c>
-      <c r="K21" s="16" t="s">
+      <c r="L21" s="16" t="s">
         <v>847</v>
       </c>
-      <c r="L21" s="16" t="s">
+      <c r="M21" s="16" t="s">
         <v>1214</v>
-      </c>
-      <c r="M21" s="8" t="s">
-        <v>151</v>
       </c>
       <c r="N21" s="8" t="s">
         <v>151</v>
@@ -29046,21 +29127,24 @@
         <v>151</v>
       </c>
       <c r="P21" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q21" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="Q21" s="8" t="s">
+      <c r="R21" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="R21" s="8" t="s">
+      <c r="S21" s="8" t="s">
         <v>499</v>
       </c>
-      <c r="S21" s="8" t="s">
+      <c r="T21" s="8" t="s">
         <v>750</v>
       </c>
-      <c r="T21" s="8"/>
       <c r="U21" s="8"/>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V21" s="8"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>78</v>
       </c>
@@ -29070,58 +29154,61 @@
       <c r="C22" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E22" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="F22" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="G22" s="8" t="s">
         <v>578</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="H22" s="9" t="s">
         <v>794</v>
       </c>
-      <c r="H22" s="8" t="s">
+      <c r="I22" s="8" t="s">
         <v>902</v>
       </c>
-      <c r="I22" s="16" t="s">
+      <c r="J22" s="16" t="s">
         <v>338</v>
       </c>
-      <c r="J22" s="8" t="s">
+      <c r="K22" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="K22" s="16" t="s">
+      <c r="L22" s="16" t="s">
         <v>848</v>
       </c>
-      <c r="L22" s="16" t="s">
+      <c r="M22" s="16" t="s">
         <v>1165</v>
-      </c>
-      <c r="M22" s="8" t="s">
-        <v>152</v>
       </c>
       <c r="N22" s="8" t="s">
         <v>152</v>
       </c>
       <c r="O22" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="P22" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="P22" s="8" t="s">
+      <c r="Q22" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="Q22" s="8" t="s">
+      <c r="R22" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="R22" s="8" t="s">
+      <c r="S22" s="8" t="s">
         <v>500</v>
       </c>
-      <c r="S22" s="8" t="s">
+      <c r="T22" s="8" t="s">
         <v>751</v>
       </c>
-      <c r="T22" s="8"/>
       <c r="U22" s="8"/>
-    </row>
-    <row r="23" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="V22" s="8"/>
+    </row>
+    <row r="23" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>78</v>
       </c>
@@ -29131,58 +29218,61 @@
       <c r="C23" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="F23" s="8" t="s">
         <v>579</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="G23" s="8" t="s">
         <v>580</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="H23" s="9" t="s">
         <v>795</v>
       </c>
-      <c r="H23" s="8" t="s">
+      <c r="I23" s="8" t="s">
         <v>903</v>
       </c>
-      <c r="I23" s="16" t="s">
+      <c r="J23" s="16" t="s">
         <v>339</v>
       </c>
-      <c r="J23" s="8" t="s">
+      <c r="K23" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="K23" s="16" t="s">
+      <c r="L23" s="16" t="s">
         <v>849</v>
       </c>
-      <c r="L23" s="16" t="s">
+      <c r="M23" s="16" t="s">
         <v>1166</v>
-      </c>
-      <c r="M23" s="8" t="s">
-        <v>153</v>
       </c>
       <c r="N23" s="8" t="s">
         <v>153</v>
       </c>
       <c r="O23" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="P23" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="P23" s="8" t="s">
+      <c r="Q23" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="Q23" s="8" t="s">
+      <c r="R23" s="8" t="s">
         <v>1005</v>
       </c>
-      <c r="R23" s="8" t="s">
+      <c r="S23" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="S23" s="8" t="s">
+      <c r="T23" s="8" t="s">
         <v>752</v>
       </c>
-      <c r="T23" s="8"/>
       <c r="U23" s="8"/>
-    </row>
-    <row r="24" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="V23" s="8"/>
+    </row>
+    <row r="24" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
         <v>78</v>
       </c>
@@ -29192,58 +29282,61 @@
       <c r="C24" s="9" t="s">
         <v>973</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="9" t="s">
+        <v>973</v>
+      </c>
+      <c r="E24" s="8" t="s">
         <v>457</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="F24" s="8" t="s">
         <v>581</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="G24" s="8" t="s">
         <v>582</v>
       </c>
-      <c r="G24" s="9" t="s">
+      <c r="H24" s="9" t="s">
         <v>1078</v>
       </c>
-      <c r="H24" s="8" t="s">
+      <c r="I24" s="8" t="s">
         <v>904</v>
       </c>
-      <c r="I24" s="16" t="s">
+      <c r="J24" s="16" t="s">
         <v>710</v>
       </c>
-      <c r="J24" s="8" t="s">
+      <c r="K24" s="8" t="s">
         <v>992</v>
       </c>
-      <c r="K24" s="16" t="s">
+      <c r="L24" s="16" t="s">
         <v>850</v>
       </c>
-      <c r="L24" s="16" t="s">
+      <c r="M24" s="16" t="s">
         <v>1167</v>
       </c>
-      <c r="M24" s="8" t="s">
+      <c r="N24" s="8" t="s">
         <v>492</v>
       </c>
-      <c r="N24" s="8" t="s">
+      <c r="O24" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="O24" s="8" t="s">
+      <c r="P24" s="8" t="s">
         <v>673</v>
       </c>
-      <c r="P24" s="8" t="s">
+      <c r="Q24" s="8" t="s">
         <v>663</v>
       </c>
-      <c r="Q24" s="8" t="s">
+      <c r="R24" s="8" t="s">
         <v>1006</v>
       </c>
-      <c r="R24" s="8" t="s">
+      <c r="S24" s="8" t="s">
         <v>502</v>
       </c>
-      <c r="S24" s="8" t="s">
+      <c r="T24" s="8" t="s">
         <v>753</v>
       </c>
-      <c r="T24" s="8"/>
       <c r="U24" s="8"/>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V24" s="8"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
         <v>78</v>
       </c>
@@ -29253,58 +29346,61 @@
       <c r="C25" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E25" s="8" t="s">
         <v>458</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>223</v>
       </c>
       <c r="F25" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="G25" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="H25" s="9" t="s">
         <v>796</v>
       </c>
-      <c r="H25" s="8" t="s">
+      <c r="I25" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="I25" s="16" t="s">
+      <c r="J25" s="16" t="s">
         <v>340</v>
       </c>
-      <c r="J25" s="8" t="s">
+      <c r="K25" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="K25" s="16" t="s">
+      <c r="L25" s="16" t="s">
         <v>851</v>
       </c>
-      <c r="L25" s="16" t="s">
+      <c r="M25" s="16" t="s">
         <v>374</v>
       </c>
-      <c r="M25" s="8" t="s">
+      <c r="N25" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="N25" s="8" t="s">
+      <c r="O25" s="8" t="s">
         <v>476</v>
       </c>
-      <c r="O25" s="8" t="s">
+      <c r="P25" s="8" t="s">
         <v>458</v>
       </c>
-      <c r="P25" s="8" t="s">
+      <c r="Q25" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="Q25" s="8" t="s">
+      <c r="R25" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="R25" s="8" t="s">
+      <c r="S25" s="8" t="s">
         <v>503</v>
       </c>
-      <c r="S25" s="8" t="s">
+      <c r="T25" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="T25" s="8"/>
       <c r="U25" s="8"/>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V25" s="8"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
         <v>78</v>
       </c>
@@ -29314,58 +29410,61 @@
       <c r="C26" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E26" s="8" t="s">
         <v>277</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>583</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>583</v>
       </c>
-      <c r="G26" s="9" t="s">
+      <c r="G26" s="8" t="s">
+        <v>583</v>
+      </c>
+      <c r="H26" s="9" t="s">
         <v>797</v>
       </c>
-      <c r="H26" s="8" t="s">
+      <c r="I26" s="8" t="s">
         <v>905</v>
       </c>
-      <c r="I26" s="16" t="s">
+      <c r="J26" s="16" t="s">
         <v>341</v>
       </c>
-      <c r="J26" s="8" t="s">
+      <c r="K26" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="K26" s="16" t="s">
+      <c r="L26" s="16" t="s">
         <v>852</v>
       </c>
-      <c r="L26" s="16" t="s">
+      <c r="M26" s="16" t="s">
         <v>1168</v>
       </c>
-      <c r="M26" s="8" t="s">
+      <c r="N26" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="N26" s="8" t="s">
+      <c r="O26" s="8" t="s">
         <v>477</v>
       </c>
-      <c r="O26" s="8" t="s">
+      <c r="P26" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="P26" s="8" t="s">
+      <c r="Q26" s="8" t="s">
         <v>664</v>
       </c>
-      <c r="Q26" s="8" t="s">
+      <c r="R26" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="R26" s="8" t="s">
+      <c r="S26" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="S26" s="8" t="s">
+      <c r="T26" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="T26" s="8"/>
       <c r="U26" s="8"/>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V26" s="8"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
         <v>78</v>
       </c>
@@ -29375,58 +29474,61 @@
       <c r="C27" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" s="8" t="s">
         <v>459</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>224</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="G27" s="9" t="s">
+      <c r="G27" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="H27" s="9" t="s">
         <v>798</v>
       </c>
-      <c r="H27" s="8" t="s">
+      <c r="I27" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="I27" s="16" t="s">
+      <c r="J27" s="16" t="s">
         <v>342</v>
       </c>
-      <c r="J27" s="8" t="s">
+      <c r="K27" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="K27" s="16" t="s">
+      <c r="L27" s="16" t="s">
         <v>853</v>
       </c>
-      <c r="L27" s="16" t="s">
+      <c r="M27" s="16" t="s">
         <v>375</v>
       </c>
-      <c r="M27" s="8" t="s">
+      <c r="N27" s="8" t="s">
         <v>156</v>
-      </c>
-      <c r="N27" s="8" t="s">
-        <v>459</v>
       </c>
       <c r="O27" s="8" t="s">
         <v>459</v>
       </c>
       <c r="P27" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q27" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="Q27" s="8" t="s">
+      <c r="R27" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="R27" s="8" t="s">
+      <c r="S27" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="S27" s="8" t="s">
+      <c r="T27" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="T27" s="8"/>
       <c r="U27" s="8"/>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V27" s="8"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
         <v>78</v>
       </c>
@@ -29436,16 +29538,18 @@
       <c r="C28" s="9" t="s">
         <v>1528</v>
       </c>
-      <c r="D28" s="8"/>
+      <c r="D28" s="9" t="s">
+        <v>1528</v>
+      </c>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="16"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="8"/>
       <c r="L28" s="16"/>
-      <c r="M28" s="8"/>
+      <c r="M28" s="16"/>
       <c r="N28" s="8"/>
       <c r="O28" s="8"/>
       <c r="P28" s="8"/>
@@ -29454,8 +29558,9 @@
       <c r="S28" s="8"/>
       <c r="T28" s="8"/>
       <c r="U28" s="8"/>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V28" s="8"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
         <v>78</v>
       </c>
@@ -29465,16 +29570,18 @@
       <c r="C29" s="9" t="s">
         <v>1529</v>
       </c>
-      <c r="D29" s="8"/>
+      <c r="D29" s="9" t="s">
+        <v>1529</v>
+      </c>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="16"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="8"/>
       <c r="L29" s="16"/>
-      <c r="M29" s="8"/>
+      <c r="M29" s="16"/>
       <c r="N29" s="8"/>
       <c r="O29" s="8"/>
       <c r="P29" s="8"/>
@@ -29483,8 +29590,9 @@
       <c r="S29" s="8"/>
       <c r="T29" s="8"/>
       <c r="U29" s="8"/>
-    </row>
-    <row r="30" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="V29" s="8"/>
+    </row>
+    <row r="30" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
         <v>78</v>
       </c>
@@ -29494,16 +29602,18 @@
       <c r="C30" s="9" t="s">
         <v>1524</v>
       </c>
-      <c r="D30" s="8"/>
+      <c r="D30" s="9" t="s">
+        <v>1524</v>
+      </c>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="16"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="8"/>
       <c r="L30" s="16"/>
-      <c r="M30" s="8"/>
+      <c r="M30" s="16"/>
       <c r="N30" s="8"/>
       <c r="O30" s="8"/>
       <c r="P30" s="8"/>
@@ -29512,8 +29622,9 @@
       <c r="S30" s="8"/>
       <c r="T30" s="8"/>
       <c r="U30" s="8"/>
-    </row>
-    <row r="31" spans="1:21" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V30" s="8"/>
+    </row>
+    <row r="31" spans="1:22" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
         <v>78</v>
       </c>
@@ -29523,16 +29634,18 @@
       <c r="C31" s="9" t="s">
         <v>1525</v>
       </c>
-      <c r="D31" s="8"/>
+      <c r="D31" s="9" t="s">
+        <v>1525</v>
+      </c>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="16"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="8"/>
       <c r="L31" s="16"/>
-      <c r="M31" s="8"/>
+      <c r="M31" s="16"/>
       <c r="N31" s="8"/>
       <c r="O31" s="8"/>
       <c r="P31" s="8"/>
@@ -29541,8 +29654,9 @@
       <c r="S31" s="8"/>
       <c r="T31" s="8"/>
       <c r="U31" s="8"/>
-    </row>
-    <row r="32" spans="1:21" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V31" s="8"/>
+    </row>
+    <row r="32" spans="1:22" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
         <v>78</v>
       </c>
@@ -29552,16 +29666,18 @@
       <c r="C32" s="9" t="s">
         <v>1534</v>
       </c>
-      <c r="D32" s="8"/>
+      <c r="D32" s="9" t="s">
+        <v>1534</v>
+      </c>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="16"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="8"/>
       <c r="L32" s="16"/>
-      <c r="M32" s="8"/>
+      <c r="M32" s="16"/>
       <c r="N32" s="8"/>
       <c r="O32" s="8"/>
       <c r="P32" s="8"/>
@@ -29570,8 +29686,9 @@
       <c r="S32" s="8"/>
       <c r="T32" s="8"/>
       <c r="U32" s="8"/>
-    </row>
-    <row r="33" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+      <c r="V32" s="8"/>
+    </row>
+    <row r="33" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
         <v>78</v>
       </c>
@@ -29581,16 +29698,18 @@
       <c r="C33" s="9" t="s">
         <v>1526</v>
       </c>
-      <c r="D33" s="8"/>
+      <c r="D33" s="9" t="s">
+        <v>1526</v>
+      </c>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="16"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="8"/>
       <c r="L33" s="16"/>
-      <c r="M33" s="8"/>
+      <c r="M33" s="16"/>
       <c r="N33" s="8"/>
       <c r="O33" s="8"/>
       <c r="P33" s="8"/>
@@ -29599,8 +29718,9 @@
       <c r="S33" s="8"/>
       <c r="T33" s="8"/>
       <c r="U33" s="8"/>
-    </row>
-    <row r="34" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+      <c r="V33" s="8"/>
+    </row>
+    <row r="34" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
         <v>78</v>
       </c>
@@ -29610,16 +29730,18 @@
       <c r="C34" s="9" t="s">
         <v>1527</v>
       </c>
-      <c r="D34" s="8"/>
+      <c r="D34" s="9" t="s">
+        <v>1527</v>
+      </c>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="16"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="8"/>
       <c r="L34" s="16"/>
-      <c r="M34" s="8"/>
+      <c r="M34" s="16"/>
       <c r="N34" s="8"/>
       <c r="O34" s="8"/>
       <c r="P34" s="8"/>
@@ -29628,8 +29750,9 @@
       <c r="S34" s="8"/>
       <c r="T34" s="8"/>
       <c r="U34" s="8"/>
-    </row>
-    <row r="35" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="V34" s="8"/>
+    </row>
+    <row r="35" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
         <v>78</v>
       </c>
@@ -29639,16 +29762,18 @@
       <c r="C35" s="9" t="s">
         <v>1533</v>
       </c>
-      <c r="D35" s="8"/>
+      <c r="D35" s="9" t="s">
+        <v>1533</v>
+      </c>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="16"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="8"/>
       <c r="L35" s="16"/>
-      <c r="M35" s="8"/>
+      <c r="M35" s="16"/>
       <c r="N35" s="8"/>
       <c r="O35" s="8"/>
       <c r="P35" s="8"/>
@@ -29657,8 +29782,9 @@
       <c r="S35" s="8"/>
       <c r="T35" s="8"/>
       <c r="U35" s="8"/>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V35" s="8"/>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
         <v>78</v>
       </c>
@@ -29668,35 +29794,35 @@
       <c r="C36" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D36" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E36" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="F36" s="8" t="s">
         <v>584</v>
       </c>
-      <c r="F36" s="8" t="s">
+      <c r="G36" s="8" t="s">
         <v>585</v>
       </c>
-      <c r="G36" s="9" t="s">
+      <c r="H36" s="9" t="s">
         <v>799</v>
       </c>
-      <c r="H36" s="8" t="s">
+      <c r="I36" s="8" t="s">
         <v>906</v>
       </c>
-      <c r="I36" s="16" t="s">
+      <c r="J36" s="16" t="s">
         <v>711</v>
       </c>
-      <c r="J36" s="8" t="s">
+      <c r="K36" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="K36" s="16" t="s">
+      <c r="L36" s="16" t="s">
         <v>854</v>
       </c>
-      <c r="L36" s="16" t="s">
+      <c r="M36" s="16" t="s">
         <v>1169</v>
-      </c>
-      <c r="M36" s="8" t="s">
-        <v>157</v>
       </c>
       <c r="N36" s="8" t="s">
         <v>157</v>
@@ -29708,18 +29834,21 @@
         <v>157</v>
       </c>
       <c r="Q36" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="R36" s="8" t="s">
         <v>1007</v>
       </c>
-      <c r="R36" s="8" t="s">
+      <c r="S36" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="S36" s="8" t="s">
+      <c r="T36" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="T36" s="8"/>
       <c r="U36" s="8"/>
-    </row>
-    <row r="37" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+      <c r="V36" s="8"/>
+    </row>
+    <row r="37" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
         <v>78</v>
       </c>
@@ -29729,58 +29858,61 @@
       <c r="C37" s="9" t="s">
         <v>1523</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="9" t="s">
+        <v>1523</v>
+      </c>
+      <c r="E37" s="8" t="s">
         <v>995</v>
       </c>
-      <c r="E37" s="8" t="s">
+      <c r="F37" s="8" t="s">
         <v>586</v>
       </c>
-      <c r="F37" s="8" t="s">
+      <c r="G37" s="8" t="s">
         <v>587</v>
       </c>
-      <c r="G37" s="9" t="s">
+      <c r="H37" s="9" t="s">
         <v>996</v>
       </c>
-      <c r="H37" s="8" t="s">
+      <c r="I37" s="8" t="s">
         <v>997</v>
       </c>
-      <c r="I37" s="16" t="s">
+      <c r="J37" s="16" t="s">
         <v>712</v>
       </c>
-      <c r="J37" s="8" t="s">
+      <c r="K37" s="8" t="s">
         <v>1001</v>
       </c>
-      <c r="K37" s="16" t="s">
+      <c r="L37" s="16" t="s">
         <v>998</v>
       </c>
-      <c r="L37" s="16" t="s">
+      <c r="M37" s="16" t="s">
         <v>1170</v>
       </c>
-      <c r="M37" s="8" t="s">
+      <c r="N37" s="8" t="s">
         <v>993</v>
       </c>
-      <c r="N37" s="8" t="s">
+      <c r="O37" s="8" t="s">
         <v>994</v>
       </c>
-      <c r="O37" s="8" t="s">
+      <c r="P37" s="8" t="s">
         <v>1282</v>
       </c>
-      <c r="P37" s="8" t="s">
+      <c r="Q37" s="8" t="s">
         <v>999</v>
       </c>
-      <c r="Q37" s="8" t="s">
+      <c r="R37" s="8" t="s">
         <v>1008</v>
       </c>
-      <c r="R37" s="8" t="s">
+      <c r="S37" s="8" t="s">
         <v>1040</v>
       </c>
-      <c r="S37" s="8" t="s">
+      <c r="T37" s="8" t="s">
         <v>1000</v>
       </c>
-      <c r="T37" s="8"/>
       <c r="U37" s="8"/>
-    </row>
-    <row r="38" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="V37" s="8"/>
+    </row>
+    <row r="38" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
         <v>78</v>
       </c>
@@ -29790,58 +29922,61 @@
       <c r="C38" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D38" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="E38" s="8" t="s">
         <v>460</v>
       </c>
-      <c r="E38" s="8" t="s">
+      <c r="F38" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="F38" s="8" t="s">
+      <c r="G38" s="8" t="s">
         <v>588</v>
       </c>
-      <c r="G38" s="9" t="s">
+      <c r="H38" s="9" t="s">
         <v>801</v>
       </c>
-      <c r="H38" s="8" t="s">
+      <c r="I38" s="8" t="s">
         <v>907</v>
       </c>
-      <c r="I38" s="16" t="s">
+      <c r="J38" s="16" t="s">
         <v>343</v>
       </c>
-      <c r="J38" s="8" t="s">
+      <c r="K38" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="K38" s="16" t="s">
+      <c r="L38" s="16" t="s">
         <v>856</v>
       </c>
-      <c r="L38" s="16" t="s">
+      <c r="M38" s="16" t="s">
         <v>1171</v>
       </c>
-      <c r="M38" s="8" t="s">
+      <c r="N38" s="8" t="s">
         <v>493</v>
       </c>
-      <c r="N38" s="8" t="s">
+      <c r="O38" s="8" t="s">
         <v>478</v>
-      </c>
-      <c r="O38" s="8" t="s">
-        <v>327</v>
       </c>
       <c r="P38" s="8" t="s">
         <v>327</v>
       </c>
       <c r="Q38" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="R38" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="R38" s="8" t="s">
+      <c r="S38" s="8" t="s">
         <v>505</v>
       </c>
-      <c r="S38" s="8" t="s">
+      <c r="T38" s="8" t="s">
         <v>754</v>
       </c>
-      <c r="T38" s="8"/>
       <c r="U38" s="8"/>
-    </row>
-    <row r="39" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="V38" s="8"/>
+    </row>
+    <row r="39" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
         <v>78</v>
       </c>
@@ -29851,58 +29986,61 @@
       <c r="C39" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="D39" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="E39" s="8" t="s">
         <v>461</v>
       </c>
-      <c r="E39" s="8" t="s">
+      <c r="F39" s="8" t="s">
         <v>589</v>
       </c>
-      <c r="F39" s="8" t="s">
+      <c r="G39" s="8" t="s">
         <v>590</v>
       </c>
-      <c r="G39" s="9" t="s">
+      <c r="H39" s="9" t="s">
         <v>802</v>
       </c>
-      <c r="H39" s="8" t="s">
+      <c r="I39" s="8" t="s">
         <v>908</v>
       </c>
-      <c r="I39" s="16" t="s">
+      <c r="J39" s="16" t="s">
         <v>713</v>
       </c>
-      <c r="J39" s="8" t="s">
+      <c r="K39" s="8" t="s">
         <v>988</v>
       </c>
-      <c r="K39" s="16" t="s">
+      <c r="L39" s="16" t="s">
         <v>857</v>
       </c>
-      <c r="L39" s="16" t="s">
+      <c r="M39" s="16" t="s">
         <v>1172</v>
       </c>
-      <c r="M39" s="8" t="s">
+      <c r="N39" s="8" t="s">
         <v>494</v>
       </c>
-      <c r="N39" s="8" t="s">
+      <c r="O39" s="8" t="s">
         <v>479</v>
       </c>
-      <c r="O39" s="8" t="s">
+      <c r="P39" s="8" t="s">
         <v>674</v>
       </c>
-      <c r="P39" s="8" t="s">
+      <c r="Q39" s="8" t="s">
         <v>941</v>
       </c>
-      <c r="Q39" s="8" t="s">
+      <c r="R39" s="8" t="s">
         <v>1009</v>
       </c>
-      <c r="R39" s="8" t="s">
+      <c r="S39" s="8" t="s">
         <v>506</v>
       </c>
-      <c r="S39" s="8" t="s">
+      <c r="T39" s="8" t="s">
         <v>755</v>
       </c>
-      <c r="T39" s="8"/>
       <c r="U39" s="8"/>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V39" s="8"/>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
         <v>78</v>
       </c>
@@ -29912,58 +30050,61 @@
       <c r="C40" s="9" t="s">
         <v>349</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="D40" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="E40" s="8" t="s">
         <v>554</v>
       </c>
-      <c r="E40" s="8" t="s">
+      <c r="F40" s="8" t="s">
         <v>591</v>
       </c>
-      <c r="F40" s="8" t="s">
+      <c r="G40" s="8" t="s">
         <v>592</v>
       </c>
-      <c r="G40" s="9" t="s">
+      <c r="H40" s="9" t="s">
         <v>803</v>
       </c>
-      <c r="H40" s="8" t="s">
+      <c r="I40" s="8" t="s">
         <v>909</v>
       </c>
-      <c r="I40" s="16" t="s">
+      <c r="J40" s="16" t="s">
         <v>714</v>
       </c>
-      <c r="J40" s="8" t="s">
+      <c r="K40" s="8" t="s">
         <v>961</v>
       </c>
-      <c r="K40" s="16" t="s">
+      <c r="L40" s="16" t="s">
         <v>858</v>
       </c>
-      <c r="L40" s="16" t="s">
+      <c r="M40" s="16" t="s">
         <v>1173</v>
-      </c>
-      <c r="M40" s="8" t="s">
-        <v>363</v>
       </c>
       <c r="N40" s="8" t="s">
         <v>363</v>
       </c>
       <c r="O40" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="P40" s="8" t="s">
         <v>694</v>
       </c>
-      <c r="P40" s="8" t="s">
+      <c r="Q40" s="8" t="s">
         <v>669</v>
       </c>
-      <c r="Q40" s="8" t="s">
+      <c r="R40" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="R40" s="8" t="s">
+      <c r="S40" s="8" t="s">
         <v>507</v>
       </c>
-      <c r="S40" s="8" t="s">
+      <c r="T40" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="T40" s="8"/>
       <c r="U40" s="8"/>
-    </row>
-    <row r="41" spans="1:21" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V40" s="8"/>
+    </row>
+    <row r="41" spans="1:22" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="s">
         <v>77</v>
       </c>
@@ -29973,56 +30114,59 @@
       <c r="C41" s="9" t="s">
         <v>659</v>
       </c>
-      <c r="D41" s="8" t="s">
+      <c r="D41" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="E41" s="8" t="s">
         <v>462</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>659</v>
       </c>
       <c r="F41" s="8" t="s">
         <v>659</v>
       </c>
-      <c r="G41" s="9" t="s">
+      <c r="G41" s="8" t="s">
+        <v>659</v>
+      </c>
+      <c r="H41" s="9" t="s">
         <v>804</v>
       </c>
-      <c r="H41" s="8" t="s">
+      <c r="I41" s="8" t="s">
         <v>660</v>
       </c>
-      <c r="I41" s="16" t="s">
+      <c r="J41" s="16" t="s">
         <v>1137</v>
       </c>
-      <c r="J41" s="8" t="s">
+      <c r="K41" s="8" t="s">
         <v>962</v>
       </c>
-      <c r="K41" s="16" t="s">
+      <c r="L41" s="16" t="s">
         <v>859</v>
       </c>
-      <c r="L41" s="16"/>
-      <c r="M41" s="8" t="s">
+      <c r="M41" s="16"/>
+      <c r="N41" s="8" t="s">
         <v>495</v>
       </c>
-      <c r="N41" s="8" t="s">
+      <c r="O41" s="8" t="s">
         <v>480</v>
       </c>
-      <c r="O41" s="8" t="s">
+      <c r="P41" s="8" t="s">
         <v>1283</v>
       </c>
-      <c r="P41" s="8" t="s">
+      <c r="Q41" s="8" t="s">
         <v>665</v>
       </c>
-      <c r="Q41" s="8" t="s">
+      <c r="R41" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="R41" s="8" t="s">
+      <c r="S41" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="S41" s="8" t="s">
+      <c r="T41" s="8" t="s">
         <v>756</v>
       </c>
-      <c r="T41" s="8"/>
       <c r="U41" s="8"/>
-    </row>
-    <row r="42" spans="1:21" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V41" s="8"/>
+    </row>
+    <row r="42" spans="1:22" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
         <v>77</v>
       </c>
@@ -30032,56 +30176,59 @@
       <c r="C42" s="9" t="s">
         <v>661</v>
       </c>
-      <c r="D42" s="8" t="s">
+      <c r="D42" s="9" t="s">
+        <v>661</v>
+      </c>
+      <c r="E42" s="8" t="s">
         <v>463</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>661</v>
       </c>
       <c r="F42" s="8" t="s">
         <v>661</v>
       </c>
-      <c r="G42" s="9" t="s">
+      <c r="G42" s="8" t="s">
+        <v>661</v>
+      </c>
+      <c r="H42" s="9" t="s">
         <v>805</v>
       </c>
-      <c r="H42" s="8" t="s">
+      <c r="I42" s="8" t="s">
         <v>662</v>
       </c>
-      <c r="I42" s="16" t="s">
+      <c r="J42" s="16" t="s">
         <v>1138</v>
       </c>
-      <c r="J42" s="8" t="s">
+      <c r="K42" s="8" t="s">
         <v>963</v>
       </c>
-      <c r="K42" s="16" t="s">
+      <c r="L42" s="16" t="s">
         <v>860</v>
       </c>
-      <c r="L42" s="16"/>
-      <c r="M42" s="8" t="s">
+      <c r="M42" s="16"/>
+      <c r="N42" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="N42" s="8" t="s">
+      <c r="O42" s="8" t="s">
         <v>481</v>
       </c>
-      <c r="O42" s="8" t="s">
+      <c r="P42" s="8" t="s">
         <v>1284</v>
       </c>
-      <c r="P42" s="8" t="s">
+      <c r="Q42" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="Q42" s="8" t="s">
+      <c r="R42" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="R42" s="8" t="s">
+      <c r="S42" s="8" t="s">
         <v>509</v>
       </c>
-      <c r="S42" s="8" t="s">
+      <c r="T42" s="8" t="s">
         <v>757</v>
       </c>
-      <c r="T42" s="8"/>
       <c r="U42" s="8"/>
-    </row>
-    <row r="43" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="V42" s="8"/>
+    </row>
+    <row r="43" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="15" t="s">
         <v>77</v>
       </c>
@@ -30091,58 +30238,61 @@
       <c r="C43" s="9" t="s">
         <v>378</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="D43" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="E43" s="8" t="s">
         <v>464</v>
       </c>
-      <c r="E43" s="8" t="s">
+      <c r="F43" s="8" t="s">
         <v>593</v>
       </c>
-      <c r="F43" s="8" t="s">
+      <c r="G43" s="8" t="s">
         <v>594</v>
       </c>
-      <c r="G43" s="9" t="s">
+      <c r="H43" s="9" t="s">
         <v>806</v>
       </c>
-      <c r="H43" s="8" t="s">
+      <c r="I43" s="8" t="s">
         <v>1216</v>
       </c>
-      <c r="I43" s="16" t="s">
+      <c r="J43" s="16" t="s">
         <v>706</v>
       </c>
-      <c r="J43" s="8" t="s">
+      <c r="K43" s="8" t="s">
         <v>383</v>
       </c>
-      <c r="K43" s="16" t="s">
+      <c r="L43" s="16" t="s">
         <v>861</v>
       </c>
-      <c r="L43" s="16" t="s">
+      <c r="M43" s="16" t="s">
         <v>1159</v>
       </c>
-      <c r="M43" s="8" t="s">
+      <c r="N43" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="N43" s="8" t="s">
+      <c r="O43" s="8" t="s">
         <v>482</v>
       </c>
-      <c r="O43" s="8" t="s">
+      <c r="P43" s="8" t="s">
         <v>670</v>
       </c>
-      <c r="P43" s="8" t="s">
+      <c r="Q43" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="Q43" s="8" t="s">
+      <c r="R43" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="R43" s="8" t="s">
+      <c r="S43" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="S43" s="8" t="s">
+      <c r="T43" s="8" t="s">
         <v>748</v>
       </c>
-      <c r="T43" s="8"/>
       <c r="U43" s="8"/>
-    </row>
-    <row r="44" spans="1:21" ht="238.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V43" s="8"/>
+    </row>
+    <row r="44" spans="1:22" ht="238.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
         <v>77</v>
       </c>
@@ -30152,58 +30302,61 @@
       <c r="C44" s="9" t="s">
         <v>1290</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="D44" s="9" t="s">
+        <v>1290</v>
+      </c>
+      <c r="E44" s="8" t="s">
         <v>1142</v>
       </c>
-      <c r="E44" s="8" t="s">
+      <c r="F44" s="8" t="s">
         <v>1271</v>
       </c>
-      <c r="F44" s="8" t="s">
+      <c r="G44" s="8" t="s">
         <v>1272</v>
       </c>
-      <c r="G44" s="9" t="s">
+      <c r="H44" s="9" t="s">
         <v>1143</v>
       </c>
-      <c r="H44" s="8" t="s">
+      <c r="I44" s="8" t="s">
         <v>1263</v>
       </c>
-      <c r="I44" s="16" t="s">
+      <c r="J44" s="16" t="s">
         <v>1144</v>
       </c>
-      <c r="J44" s="8" t="s">
+      <c r="K44" s="8" t="s">
         <v>1145</v>
       </c>
-      <c r="K44" s="16" t="s">
+      <c r="L44" s="16" t="s">
         <v>1146</v>
       </c>
-      <c r="L44" s="16" t="s">
+      <c r="M44" s="16" t="s">
         <v>1174</v>
       </c>
-      <c r="M44" s="8" t="s">
+      <c r="N44" s="8" t="s">
         <v>1147</v>
       </c>
-      <c r="N44" s="8" t="s">
+      <c r="O44" s="8" t="s">
         <v>1148</v>
       </c>
-      <c r="O44" s="8" t="s">
+      <c r="P44" s="8" t="s">
         <v>1278</v>
       </c>
-      <c r="P44" s="8" t="s">
+      <c r="Q44" s="8" t="s">
         <v>1149</v>
       </c>
-      <c r="Q44" s="8" t="s">
+      <c r="R44" s="8" t="s">
         <v>1150</v>
       </c>
-      <c r="R44" s="8" t="s">
+      <c r="S44" s="8" t="s">
         <v>1127</v>
       </c>
-      <c r="S44" s="8" t="s">
+      <c r="T44" s="8" t="s">
         <v>1286</v>
       </c>
-      <c r="T44" s="8"/>
       <c r="U44" s="8"/>
-    </row>
-    <row r="45" spans="1:21" ht="238.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V44" s="8"/>
+    </row>
+    <row r="45" spans="1:22" ht="238.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="15" t="s">
         <v>77</v>
       </c>
@@ -30213,58 +30366,61 @@
       <c r="C45" s="9" t="s">
         <v>1547</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="D45" s="9" t="s">
+        <v>1547</v>
+      </c>
+      <c r="E45" s="8" t="s">
         <v>1151</v>
       </c>
-      <c r="E45" s="8" t="s">
+      <c r="F45" s="8" t="s">
         <v>1273</v>
       </c>
-      <c r="F45" s="8" t="s">
+      <c r="G45" s="8" t="s">
         <v>1274</v>
       </c>
-      <c r="G45" s="9" t="s">
+      <c r="H45" s="9" t="s">
         <v>1268</v>
       </c>
-      <c r="H45" s="8" t="s">
+      <c r="I45" s="8" t="s">
         <v>1264</v>
       </c>
-      <c r="I45" s="16" t="s">
+      <c r="J45" s="16" t="s">
         <v>1152</v>
       </c>
-      <c r="J45" s="8" t="s">
+      <c r="K45" s="8" t="s">
         <v>1153</v>
       </c>
-      <c r="K45" s="16" t="s">
+      <c r="L45" s="16" t="s">
         <v>1154</v>
       </c>
-      <c r="L45" s="21" t="s">
+      <c r="M45" s="21" t="s">
         <v>1175</v>
       </c>
-      <c r="M45" s="8" t="s">
+      <c r="N45" s="8" t="s">
         <v>1155</v>
       </c>
-      <c r="N45" s="8" t="s">
+      <c r="O45" s="8" t="s">
         <v>1156</v>
       </c>
-      <c r="O45" s="8" t="s">
+      <c r="P45" s="8" t="s">
         <v>1279</v>
       </c>
-      <c r="P45" s="8" t="s">
+      <c r="Q45" s="8" t="s">
         <v>1157</v>
       </c>
-      <c r="Q45" s="8" t="s">
+      <c r="R45" s="8" t="s">
         <v>1158</v>
       </c>
-      <c r="R45" s="8" t="s">
+      <c r="S45" s="8" t="s">
         <v>1082</v>
       </c>
-      <c r="S45" s="8" t="s">
+      <c r="T45" s="8" t="s">
         <v>1287</v>
       </c>
-      <c r="T45" s="8"/>
       <c r="U45" s="8"/>
-    </row>
-    <row r="46" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="V45" s="8"/>
+    </row>
+    <row r="46" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="15" t="s">
         <v>77</v>
       </c>
@@ -30274,58 +30430,61 @@
       <c r="C46" s="9" t="s">
         <v>1445</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="D46" s="9" t="s">
+        <v>1445</v>
+      </c>
+      <c r="E46" s="8" t="s">
         <v>1446</v>
       </c>
-      <c r="E46" s="8" t="s">
+      <c r="F46" s="8" t="s">
         <v>1447</v>
       </c>
-      <c r="F46" s="8" t="s">
+      <c r="G46" s="8" t="s">
         <v>1448</v>
       </c>
-      <c r="G46" s="9" t="s">
+      <c r="H46" s="9" t="s">
         <v>1449</v>
       </c>
-      <c r="H46" s="8" t="s">
+      <c r="I46" s="8" t="s">
         <v>1265</v>
       </c>
-      <c r="I46" s="16" t="s">
+      <c r="J46" s="16" t="s">
         <v>1450</v>
       </c>
-      <c r="J46" s="8" t="s">
+      <c r="K46" s="8" t="s">
         <v>1451</v>
       </c>
-      <c r="K46" s="16" t="s">
+      <c r="L46" s="16" t="s">
         <v>1452</v>
       </c>
-      <c r="L46" s="16" t="s">
+      <c r="M46" s="16" t="s">
         <v>1453</v>
       </c>
-      <c r="M46" s="8" t="s">
+      <c r="N46" s="8" t="s">
         <v>1454</v>
       </c>
-      <c r="N46" s="8" t="s">
+      <c r="O46" s="8" t="s">
         <v>1455</v>
       </c>
-      <c r="O46" s="8" t="s">
+      <c r="P46" s="8" t="s">
         <v>1456</v>
       </c>
-      <c r="P46" s="8" t="s">
+      <c r="Q46" s="8" t="s">
         <v>1457</v>
       </c>
-      <c r="Q46" s="8" t="s">
+      <c r="R46" s="8" t="s">
         <v>1458</v>
       </c>
-      <c r="R46" s="8" t="s">
+      <c r="S46" s="8" t="s">
         <v>1459</v>
       </c>
-      <c r="S46" s="8" t="s">
+      <c r="T46" s="8" t="s">
         <v>1460</v>
       </c>
-      <c r="T46" s="8"/>
       <c r="U46" s="8"/>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V46" s="8"/>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="s">
         <v>77</v>
       </c>
@@ -30335,16 +30494,18 @@
       <c r="C47" s="9" t="s">
         <v>1421</v>
       </c>
-      <c r="D47" s="8"/>
+      <c r="D47" s="9" t="s">
+        <v>1421</v>
+      </c>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="16"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="16"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="16"/>
+      <c r="K47" s="8"/>
       <c r="L47" s="16"/>
-      <c r="M47" s="8"/>
+      <c r="M47" s="16"/>
       <c r="N47" s="8"/>
       <c r="O47" s="8"/>
       <c r="P47" s="8"/>
@@ -30353,8 +30514,9 @@
       <c r="S47" s="8"/>
       <c r="T47" s="8"/>
       <c r="U47" s="8"/>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V47" s="8"/>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" s="15" t="s">
         <v>77</v>
       </c>
@@ -30364,16 +30526,18 @@
       <c r="C48" s="9" t="s">
         <v>1429</v>
       </c>
-      <c r="D48" s="8"/>
+      <c r="D48" s="9" t="s">
+        <v>1429</v>
+      </c>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="16"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="16"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="16"/>
+      <c r="K48" s="8"/>
       <c r="L48" s="16"/>
-      <c r="M48" s="8"/>
+      <c r="M48" s="16"/>
       <c r="N48" s="8"/>
       <c r="O48" s="8"/>
       <c r="P48" s="8"/>
@@ -30382,8 +30546,9 @@
       <c r="S48" s="8"/>
       <c r="T48" s="8"/>
       <c r="U48" s="8"/>
-    </row>
-    <row r="49" spans="1:21" ht="90" x14ac:dyDescent="0.25">
+      <c r="V48" s="8"/>
+    </row>
+    <row r="49" spans="1:22" ht="90" x14ac:dyDescent="0.25">
       <c r="A49" s="15" t="s">
         <v>77</v>
       </c>
@@ -30393,16 +30558,18 @@
       <c r="C49" s="9" t="s">
         <v>1565</v>
       </c>
-      <c r="D49" s="8"/>
+      <c r="D49" s="9" t="s">
+        <v>1565</v>
+      </c>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="16"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="16"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="16"/>
+      <c r="K49" s="8"/>
       <c r="L49" s="16"/>
-      <c r="M49" s="8"/>
+      <c r="M49" s="16"/>
       <c r="N49" s="8"/>
       <c r="O49" s="8"/>
       <c r="P49" s="8"/>
@@ -30411,8 +30578,9 @@
       <c r="S49" s="8"/>
       <c r="T49" s="8"/>
       <c r="U49" s="8"/>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V49" s="8"/>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" s="15" t="s">
         <v>77</v>
       </c>
@@ -30422,58 +30590,61 @@
       <c r="C50" s="9" t="s">
         <v>1241</v>
       </c>
-      <c r="D50" s="8" t="s">
+      <c r="D50" s="9" t="s">
+        <v>1241</v>
+      </c>
+      <c r="E50" s="8" t="s">
         <v>1242</v>
       </c>
-      <c r="E50" s="8" t="s">
+      <c r="F50" s="8" t="s">
         <v>1275</v>
       </c>
-      <c r="F50" s="8" t="s">
+      <c r="G50" s="8" t="s">
         <v>1276</v>
       </c>
-      <c r="G50" s="9" t="s">
+      <c r="H50" s="9" t="s">
         <v>1269</v>
       </c>
-      <c r="H50" s="8" t="s">
+      <c r="I50" s="8" t="s">
         <v>1266</v>
       </c>
-      <c r="I50" s="16" t="s">
+      <c r="J50" s="16" t="s">
         <v>1243</v>
       </c>
-      <c r="J50" s="8" t="s">
+      <c r="K50" s="8" t="s">
         <v>1244</v>
       </c>
-      <c r="K50" s="16" t="s">
+      <c r="L50" s="16" t="s">
         <v>1245</v>
       </c>
-      <c r="L50" s="16" t="s">
+      <c r="M50" s="16" t="s">
         <v>1246</v>
-      </c>
-      <c r="M50" s="8" t="s">
-        <v>1247</v>
       </c>
       <c r="N50" s="8" t="s">
         <v>1247</v>
       </c>
       <c r="O50" s="8" t="s">
+        <v>1247</v>
+      </c>
+      <c r="P50" s="8" t="s">
         <v>1280</v>
       </c>
-      <c r="P50" s="8" t="s">
+      <c r="Q50" s="8" t="s">
         <v>1248</v>
       </c>
-      <c r="Q50" s="8" t="s">
+      <c r="R50" s="8" t="s">
         <v>1249</v>
       </c>
-      <c r="R50" s="8" t="s">
+      <c r="S50" s="8" t="s">
         <v>1250</v>
       </c>
-      <c r="S50" s="8" t="s">
+      <c r="T50" s="8" t="s">
         <v>1251</v>
       </c>
-      <c r="T50" s="8"/>
       <c r="U50" s="8"/>
-    </row>
-    <row r="51" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="V50" s="8"/>
+    </row>
+    <row r="51" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="15" t="s">
         <v>77</v>
       </c>
@@ -30483,58 +30654,61 @@
       <c r="C51" s="9" t="s">
         <v>1468</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="D51" s="9" t="s">
+        <v>1468</v>
+      </c>
+      <c r="E51" s="8" t="s">
         <v>465</v>
       </c>
-      <c r="E51" s="8" t="s">
+      <c r="F51" s="8" t="s">
         <v>595</v>
       </c>
-      <c r="F51" s="8" t="s">
+      <c r="G51" s="8" t="s">
         <v>596</v>
       </c>
-      <c r="G51" s="9" t="s">
+      <c r="H51" s="9" t="s">
         <v>808</v>
       </c>
-      <c r="H51" s="8" t="s">
+      <c r="I51" s="8" t="s">
         <v>911</v>
       </c>
-      <c r="I51" s="16" t="s">
+      <c r="J51" s="16" t="s">
         <v>715</v>
       </c>
-      <c r="J51" s="8" t="s">
+      <c r="K51" s="8" t="s">
         <v>964</v>
       </c>
-      <c r="K51" s="16" t="s">
+      <c r="L51" s="16" t="s">
         <v>864</v>
       </c>
-      <c r="L51" s="16" t="s">
+      <c r="M51" s="16" t="s">
         <v>1177</v>
       </c>
-      <c r="M51" s="8" t="s">
+      <c r="N51" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="N51" s="8" t="s">
+      <c r="O51" s="8" t="s">
         <v>483</v>
       </c>
-      <c r="O51" s="8" t="s">
+      <c r="P51" s="8" t="s">
         <v>677</v>
       </c>
-      <c r="P51" s="8" t="s">
+      <c r="Q51" s="8" t="s">
         <v>942</v>
       </c>
-      <c r="Q51" s="8" t="s">
+      <c r="R51" s="8" t="s">
         <v>1010</v>
       </c>
-      <c r="R51" s="8" t="s">
+      <c r="S51" s="8" t="s">
         <v>1084</v>
       </c>
-      <c r="S51" s="8" t="s">
+      <c r="T51" s="8" t="s">
         <v>786</v>
       </c>
-      <c r="T51" s="8"/>
       <c r="U51" s="8"/>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V51" s="8"/>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" s="15" t="s">
         <v>77</v>
       </c>
@@ -30544,58 +30718,61 @@
       <c r="C52" s="9" t="s">
         <v>1252</v>
       </c>
-      <c r="D52" s="8" t="s">
+      <c r="D52" s="9" t="s">
+        <v>1252</v>
+      </c>
+      <c r="E52" s="8" t="s">
         <v>1253</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>1277</v>
       </c>
       <c r="F52" s="8" t="s">
         <v>1277</v>
       </c>
-      <c r="G52" s="9" t="s">
+      <c r="G52" s="8" t="s">
+        <v>1277</v>
+      </c>
+      <c r="H52" s="9" t="s">
         <v>1270</v>
       </c>
-      <c r="H52" s="8" t="s">
+      <c r="I52" s="8" t="s">
         <v>1267</v>
       </c>
-      <c r="I52" s="16" t="s">
+      <c r="J52" s="16" t="s">
         <v>1254</v>
       </c>
-      <c r="J52" s="8" t="s">
+      <c r="K52" s="8" t="s">
         <v>1255</v>
       </c>
-      <c r="K52" s="16" t="s">
+      <c r="L52" s="16" t="s">
         <v>1256</v>
       </c>
-      <c r="L52" s="16" t="s">
+      <c r="M52" s="16" t="s">
         <v>1257</v>
-      </c>
-      <c r="M52" s="8" t="s">
-        <v>1258</v>
       </c>
       <c r="N52" s="8" t="s">
         <v>1258</v>
       </c>
       <c r="O52" s="8" t="s">
+        <v>1258</v>
+      </c>
+      <c r="P52" s="8" t="s">
         <v>1281</v>
       </c>
-      <c r="P52" s="8" t="s">
+      <c r="Q52" s="8" t="s">
         <v>1259</v>
       </c>
-      <c r="Q52" s="8" t="s">
+      <c r="R52" s="8" t="s">
         <v>1260</v>
       </c>
-      <c r="R52" s="8" t="s">
+      <c r="S52" s="8" t="s">
         <v>1261</v>
       </c>
-      <c r="S52" s="8" t="s">
+      <c r="T52" s="8" t="s">
         <v>1262</v>
       </c>
-      <c r="T52" s="8"/>
       <c r="U52" s="8"/>
-    </row>
-    <row r="53" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="V52" s="8"/>
+    </row>
+    <row r="53" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="15" t="s">
         <v>77</v>
       </c>
@@ -30605,58 +30782,61 @@
       <c r="C53" s="9" t="s">
         <v>1469</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D53" s="9" t="s">
+        <v>1469</v>
+      </c>
+      <c r="E53" s="8" t="s">
         <v>525</v>
       </c>
-      <c r="E53" s="8" t="s">
+      <c r="F53" s="8" t="s">
         <v>597</v>
       </c>
-      <c r="F53" s="8" t="s">
+      <c r="G53" s="8" t="s">
         <v>1073</v>
       </c>
-      <c r="G53" s="9" t="s">
+      <c r="H53" s="9" t="s">
         <v>809</v>
       </c>
-      <c r="H53" s="8" t="s">
+      <c r="I53" s="8" t="s">
         <v>974</v>
       </c>
-      <c r="I53" s="16" t="s">
+      <c r="J53" s="16" t="s">
         <v>716</v>
       </c>
-      <c r="J53" s="8" t="s">
+      <c r="K53" s="8" t="s">
         <v>1074</v>
       </c>
-      <c r="K53" s="16" t="s">
+      <c r="L53" s="16" t="s">
         <v>865</v>
       </c>
-      <c r="L53" s="16" t="s">
+      <c r="M53" s="16" t="s">
         <v>1178</v>
       </c>
-      <c r="M53" s="8" t="s">
+      <c r="N53" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="N53" s="8" t="s">
+      <c r="O53" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="O53" s="8" t="s">
+      <c r="P53" s="8" t="s">
         <v>678</v>
       </c>
-      <c r="P53" s="8" t="s">
+      <c r="Q53" s="8" t="s">
         <v>666</v>
       </c>
-      <c r="Q53" s="8" t="s">
+      <c r="R53" s="8" t="s">
         <v>1011</v>
       </c>
-      <c r="R53" s="8" t="s">
+      <c r="S53" s="8" t="s">
         <v>512</v>
       </c>
-      <c r="S53" s="8" t="s">
+      <c r="T53" s="8" t="s">
         <v>759</v>
       </c>
-      <c r="T53" s="8"/>
       <c r="U53" s="8"/>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V53" s="8"/>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" s="15" t="s">
         <v>77</v>
       </c>
@@ -30666,58 +30846,61 @@
       <c r="C54" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="D54" s="8" t="s">
+      <c r="D54" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E54" s="8" t="s">
         <v>526</v>
       </c>
-      <c r="E54" s="8" t="s">
+      <c r="F54" s="8" t="s">
         <v>598</v>
       </c>
-      <c r="F54" s="8" t="s">
+      <c r="G54" s="8" t="s">
         <v>599</v>
       </c>
-      <c r="G54" s="9" t="s">
+      <c r="H54" s="9" t="s">
         <v>810</v>
       </c>
-      <c r="H54" s="8" t="s">
+      <c r="I54" s="8" t="s">
         <v>912</v>
       </c>
-      <c r="I54" s="16" t="s">
+      <c r="J54" s="16" t="s">
         <v>344</v>
       </c>
-      <c r="J54" s="8" t="s">
+      <c r="K54" s="8" t="s">
         <v>965</v>
       </c>
-      <c r="K54" s="16" t="s">
+      <c r="L54" s="16" t="s">
         <v>866</v>
       </c>
-      <c r="L54" s="16" t="s">
+      <c r="M54" s="16" t="s">
         <v>1179</v>
       </c>
-      <c r="M54" s="8" t="s">
+      <c r="N54" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="N54" s="8" t="s">
+      <c r="O54" s="8" t="s">
         <v>538</v>
       </c>
-      <c r="O54" s="8" t="s">
+      <c r="P54" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="P54" s="8" t="s">
+      <c r="Q54" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="Q54" s="8" t="s">
+      <c r="R54" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="R54" s="8" t="s">
+      <c r="S54" s="8" t="s">
         <v>513</v>
       </c>
-      <c r="S54" s="8" t="s">
+      <c r="T54" s="8" t="s">
         <v>760</v>
       </c>
-      <c r="T54" s="8"/>
       <c r="U54" s="8"/>
-    </row>
-    <row r="55" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="V54" s="8"/>
+    </row>
+    <row r="55" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="15" t="s">
         <v>77</v>
       </c>
@@ -30727,58 +30910,61 @@
       <c r="C55" s="9" t="s">
         <v>1101</v>
       </c>
-      <c r="D55" s="8" t="s">
+      <c r="D55" s="9" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E55" s="8" t="s">
         <v>1114</v>
       </c>
-      <c r="E55" s="8" t="s">
+      <c r="F55" s="8" t="s">
         <v>1113</v>
       </c>
-      <c r="F55" s="8" t="s">
+      <c r="G55" s="8" t="s">
         <v>1112</v>
       </c>
-      <c r="G55" s="9" t="s">
+      <c r="H55" s="9" t="s">
         <v>1111</v>
       </c>
-      <c r="H55" s="8" t="s">
+      <c r="I55" s="8" t="s">
         <v>1110</v>
       </c>
-      <c r="I55" s="16" t="s">
+      <c r="J55" s="16" t="s">
         <v>1109</v>
       </c>
-      <c r="J55" s="8" t="s">
+      <c r="K55" s="8" t="s">
         <v>1118</v>
       </c>
-      <c r="K55" s="16" t="s">
+      <c r="L55" s="16" t="s">
         <v>1108</v>
       </c>
-      <c r="L55" s="16" t="s">
+      <c r="M55" s="16" t="s">
         <v>1215</v>
       </c>
-      <c r="M55" s="8" t="s">
+      <c r="N55" s="8" t="s">
         <v>1102</v>
       </c>
-      <c r="N55" s="8" t="s">
+      <c r="O55" s="8" t="s">
         <v>1103</v>
       </c>
-      <c r="O55" s="8" t="s">
+      <c r="P55" s="8" t="s">
         <v>1104</v>
       </c>
-      <c r="P55" s="8" t="s">
+      <c r="Q55" s="8" t="s">
         <v>1105</v>
       </c>
-      <c r="Q55" s="8" t="s">
+      <c r="R55" s="8" t="s">
         <v>1012</v>
       </c>
-      <c r="R55" s="8" t="s">
+      <c r="S55" s="8" t="s">
         <v>1106</v>
       </c>
-      <c r="S55" s="8" t="s">
+      <c r="T55" s="8" t="s">
         <v>1107</v>
       </c>
-      <c r="T55" s="8"/>
       <c r="U55" s="8"/>
-    </row>
-    <row r="56" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="V55" s="8"/>
+    </row>
+    <row r="56" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="15" t="s">
         <v>77</v>
       </c>
@@ -30788,58 +30974,61 @@
       <c r="C56" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="D56" s="8" t="s">
+      <c r="D56" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E56" s="8" t="s">
         <v>564</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>696</v>
       </c>
       <c r="F56" s="8" t="s">
         <v>696</v>
       </c>
-      <c r="G56" s="9" t="s">
+      <c r="G56" s="8" t="s">
+        <v>696</v>
+      </c>
+      <c r="H56" s="9" t="s">
         <v>811</v>
       </c>
-      <c r="H56" s="8" t="s">
+      <c r="I56" s="8" t="s">
         <v>1130</v>
       </c>
-      <c r="I56" s="16" t="s">
+      <c r="J56" s="16" t="s">
         <v>739</v>
       </c>
-      <c r="J56" s="8" t="s">
+      <c r="K56" s="8" t="s">
         <v>1058</v>
       </c>
-      <c r="K56" s="16" t="s">
+      <c r="L56" s="16" t="s">
         <v>1132</v>
       </c>
-      <c r="L56" s="16" t="s">
+      <c r="M56" s="16" t="s">
         <v>1180</v>
       </c>
-      <c r="M56" s="8" t="s">
+      <c r="N56" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="N56" s="8" t="s">
+      <c r="O56" s="8" t="s">
         <v>562</v>
       </c>
-      <c r="O56" s="8" t="s">
+      <c r="P56" s="8" t="s">
         <v>698</v>
       </c>
-      <c r="P56" s="8" t="s">
+      <c r="Q56" s="8" t="s">
         <v>700</v>
       </c>
-      <c r="Q56" s="8" t="s">
+      <c r="R56" s="8" t="s">
         <v>703</v>
       </c>
-      <c r="R56" s="8" t="s">
+      <c r="S56" s="8" t="s">
         <v>701</v>
       </c>
-      <c r="S56" s="8" t="s">
+      <c r="T56" s="8" t="s">
         <v>780</v>
       </c>
-      <c r="T56" s="8"/>
       <c r="U56" s="8"/>
-    </row>
-    <row r="57" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="V56" s="8"/>
+    </row>
+    <row r="57" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="15" t="s">
         <v>77</v>
       </c>
@@ -30849,58 +31038,61 @@
       <c r="C57" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="D57" s="8" t="s">
+      <c r="D57" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E57" s="8" t="s">
         <v>565</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>697</v>
       </c>
       <c r="F57" s="8" t="s">
         <v>697</v>
       </c>
-      <c r="G57" s="9" t="s">
+      <c r="G57" s="8" t="s">
+        <v>697</v>
+      </c>
+      <c r="H57" s="9" t="s">
         <v>812</v>
       </c>
-      <c r="H57" s="8" t="s">
+      <c r="I57" s="8" t="s">
         <v>1131</v>
       </c>
-      <c r="I57" s="16" t="s">
+      <c r="J57" s="16" t="s">
         <v>740</v>
       </c>
-      <c r="J57" s="8" t="s">
+      <c r="K57" s="8" t="s">
         <v>991</v>
       </c>
-      <c r="K57" s="16" t="s">
+      <c r="L57" s="16" t="s">
         <v>1133</v>
       </c>
-      <c r="L57" s="16" t="s">
+      <c r="M57" s="16" t="s">
         <v>695</v>
       </c>
-      <c r="M57" s="8" t="s">
+      <c r="N57" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="N57" s="8" t="s">
+      <c r="O57" s="8" t="s">
         <v>563</v>
       </c>
-      <c r="O57" s="8" t="s">
+      <c r="P57" s="8" t="s">
         <v>699</v>
       </c>
-      <c r="P57" s="8" t="s">
+      <c r="Q57" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="Q57" s="8" t="s">
+      <c r="R57" s="8" t="s">
         <v>704</v>
       </c>
-      <c r="R57" s="8" t="s">
+      <c r="S57" s="8" t="s">
         <v>702</v>
       </c>
-      <c r="S57" s="8" t="s">
+      <c r="T57" s="8" t="s">
         <v>705</v>
       </c>
-      <c r="T57" s="8"/>
       <c r="U57" s="8"/>
-    </row>
-    <row r="58" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="V57" s="8"/>
+    </row>
+    <row r="58" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="15" t="s">
         <v>77</v>
       </c>
@@ -30910,58 +31102,61 @@
       <c r="C58" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="D58" s="8" t="s">
+      <c r="D58" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="E58" s="8" t="s">
         <v>527</v>
       </c>
-      <c r="E58" s="8" t="s">
+      <c r="F58" s="8" t="s">
         <v>600</v>
       </c>
-      <c r="F58" s="8" t="s">
+      <c r="G58" s="8" t="s">
         <v>601</v>
       </c>
-      <c r="G58" s="9" t="s">
+      <c r="H58" s="9" t="s">
         <v>813</v>
       </c>
-      <c r="H58" s="8" t="s">
+      <c r="I58" s="8" t="s">
         <v>913</v>
       </c>
-      <c r="I58" s="16" t="s">
+      <c r="J58" s="16" t="s">
         <v>717</v>
       </c>
-      <c r="J58" s="8" t="s">
+      <c r="K58" s="8" t="s">
         <v>1075</v>
       </c>
-      <c r="K58" s="16" t="s">
+      <c r="L58" s="16" t="s">
         <v>867</v>
       </c>
-      <c r="L58" s="16" t="s">
+      <c r="M58" s="16" t="s">
         <v>1181</v>
       </c>
-      <c r="M58" s="8" t="s">
+      <c r="N58" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="N58" s="8" t="s">
+      <c r="O58" s="8" t="s">
         <v>539</v>
       </c>
-      <c r="O58" s="8" t="s">
+      <c r="P58" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="P58" s="8" t="s">
+      <c r="Q58" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="Q58" s="8" t="s">
+      <c r="R58" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="R58" s="8" t="s">
+      <c r="S58" s="8" t="s">
         <v>1030</v>
       </c>
-      <c r="S58" s="8" t="s">
+      <c r="T58" s="8" t="s">
         <v>761</v>
       </c>
-      <c r="T58" s="8"/>
       <c r="U58" s="8"/>
-    </row>
-    <row r="59" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="V58" s="8"/>
+    </row>
+    <row r="59" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="15" t="s">
         <v>77</v>
       </c>
@@ -30971,58 +31166,61 @@
       <c r="C59" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="D59" s="8" t="s">
+      <c r="D59" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="E59" s="8" t="s">
         <v>528</v>
       </c>
-      <c r="E59" s="8" t="s">
+      <c r="F59" s="8" t="s">
         <v>602</v>
       </c>
-      <c r="F59" s="8" t="s">
+      <c r="G59" s="8" t="s">
         <v>981</v>
       </c>
-      <c r="G59" s="9" t="s">
+      <c r="H59" s="9" t="s">
         <v>814</v>
       </c>
-      <c r="H59" s="8" t="s">
+      <c r="I59" s="8" t="s">
         <v>914</v>
       </c>
-      <c r="I59" s="16" t="s">
+      <c r="J59" s="16" t="s">
         <v>718</v>
       </c>
-      <c r="J59" s="8" t="s">
+      <c r="K59" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="K59" s="16" t="s">
+      <c r="L59" s="16" t="s">
         <v>868</v>
       </c>
-      <c r="L59" s="16" t="s">
+      <c r="M59" s="16" t="s">
         <v>1182</v>
       </c>
-      <c r="M59" s="8" t="s">
+      <c r="N59" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="N59" s="8" t="s">
+      <c r="O59" s="8" t="s">
         <v>540</v>
       </c>
-      <c r="O59" s="8" t="s">
+      <c r="P59" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="P59" s="8" t="s">
+      <c r="Q59" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="Q59" s="8" t="s">
+      <c r="R59" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="R59" s="8" t="s">
+      <c r="S59" s="8" t="s">
         <v>1085</v>
       </c>
-      <c r="S59" s="8" t="s">
+      <c r="T59" s="8" t="s">
         <v>762</v>
       </c>
-      <c r="T59" s="8"/>
       <c r="U59" s="8"/>
-    </row>
-    <row r="60" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="V59" s="8"/>
+    </row>
+    <row r="60" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" s="15" t="s">
         <v>77</v>
       </c>
@@ -31032,58 +31230,61 @@
       <c r="C60" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="D60" s="8" t="s">
+      <c r="D60" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="E60" s="8" t="s">
         <v>529</v>
       </c>
-      <c r="E60" s="8" t="s">
+      <c r="F60" s="8" t="s">
         <v>603</v>
       </c>
-      <c r="F60" s="8" t="s">
+      <c r="G60" s="8" t="s">
         <v>604</v>
       </c>
-      <c r="G60" s="9" t="s">
+      <c r="H60" s="9" t="s">
         <v>815</v>
       </c>
-      <c r="H60" s="8" t="s">
+      <c r="I60" s="8" t="s">
         <v>915</v>
       </c>
-      <c r="I60" s="16" t="s">
+      <c r="J60" s="16" t="s">
         <v>719</v>
       </c>
-      <c r="J60" s="8" t="s">
+      <c r="K60" s="8" t="s">
         <v>1120</v>
       </c>
-      <c r="K60" s="16" t="s">
+      <c r="L60" s="16" t="s">
         <v>869</v>
       </c>
-      <c r="L60" s="16" t="s">
+      <c r="M60" s="16" t="s">
         <v>1183</v>
       </c>
-      <c r="M60" s="8" t="s">
+      <c r="N60" s="8" t="s">
         <v>1097</v>
       </c>
-      <c r="N60" s="8" t="s">
+      <c r="O60" s="8" t="s">
         <v>484</v>
       </c>
-      <c r="O60" s="8" t="s">
+      <c r="P60" s="8" t="s">
         <v>679</v>
       </c>
-      <c r="P60" s="8" t="s">
+      <c r="Q60" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="Q60" s="8" t="s">
+      <c r="R60" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="R60" s="8" t="s">
+      <c r="S60" s="8" t="s">
         <v>1086</v>
       </c>
-      <c r="S60" s="8" t="s">
+      <c r="T60" s="8" t="s">
         <v>763</v>
       </c>
-      <c r="T60" s="8"/>
       <c r="U60" s="8"/>
-    </row>
-    <row r="61" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="V60" s="8"/>
+    </row>
+    <row r="61" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="15" t="s">
         <v>77</v>
       </c>
@@ -31093,58 +31294,61 @@
       <c r="C61" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="D61" s="8" t="s">
+      <c r="D61" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E61" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="E61" s="8" t="s">
+      <c r="F61" s="8" t="s">
         <v>605</v>
       </c>
-      <c r="F61" s="8" t="s">
+      <c r="G61" s="8" t="s">
         <v>606</v>
       </c>
-      <c r="G61" s="9" t="s">
+      <c r="H61" s="9" t="s">
         <v>816</v>
       </c>
-      <c r="H61" s="8" t="s">
+      <c r="I61" s="8" t="s">
         <v>916</v>
       </c>
-      <c r="I61" s="16" t="s">
+      <c r="J61" s="16" t="s">
         <v>720</v>
       </c>
-      <c r="J61" s="8" t="s">
+      <c r="K61" s="8" t="s">
         <v>1119</v>
       </c>
-      <c r="K61" s="16" t="s">
+      <c r="L61" s="16" t="s">
         <v>870</v>
       </c>
-      <c r="L61" s="16" t="s">
+      <c r="M61" s="16" t="s">
         <v>1184</v>
-      </c>
-      <c r="M61" s="8" t="s">
-        <v>158</v>
       </c>
       <c r="N61" s="8" t="s">
         <v>158</v>
       </c>
       <c r="O61" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="P61" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="P61" s="8" t="s">
+      <c r="Q61" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="Q61" s="8" t="s">
+      <c r="R61" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="R61" s="8" t="s">
+      <c r="S61" s="8" t="s">
         <v>1031</v>
       </c>
-      <c r="S61" s="8" t="s">
+      <c r="T61" s="8" t="s">
         <v>782</v>
       </c>
-      <c r="T61" s="8"/>
       <c r="U61" s="8"/>
-    </row>
-    <row r="62" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="V61" s="8"/>
+    </row>
+    <row r="62" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="15" t="s">
         <v>77</v>
       </c>
@@ -31154,58 +31358,61 @@
       <c r="C62" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="D62" s="8" t="s">
+      <c r="D62" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E62" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="E62" s="8" t="s">
+      <c r="F62" s="8" t="s">
         <v>607</v>
       </c>
-      <c r="F62" s="8" t="s">
+      <c r="G62" s="8" t="s">
         <v>608</v>
       </c>
-      <c r="G62" s="9" t="s">
+      <c r="H62" s="9" t="s">
         <v>817</v>
       </c>
-      <c r="H62" s="8" t="s">
+      <c r="I62" s="8" t="s">
         <v>917</v>
       </c>
-      <c r="I62" s="16" t="s">
+      <c r="J62" s="16" t="s">
         <v>721</v>
       </c>
-      <c r="J62" s="8" t="s">
+      <c r="K62" s="8" t="s">
         <v>966</v>
       </c>
-      <c r="K62" s="16" t="s">
+      <c r="L62" s="16" t="s">
         <v>871</v>
       </c>
-      <c r="L62" s="16" t="s">
+      <c r="M62" s="16" t="s">
         <v>1185</v>
-      </c>
-      <c r="M62" s="8" t="s">
-        <v>159</v>
       </c>
       <c r="N62" s="8" t="s">
         <v>159</v>
       </c>
       <c r="O62" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="P62" s="8" t="s">
         <v>680</v>
       </c>
-      <c r="P62" s="8" t="s">
+      <c r="Q62" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="Q62" s="8" t="s">
+      <c r="R62" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="R62" s="8" t="s">
+      <c r="S62" s="8" t="s">
         <v>1032</v>
       </c>
-      <c r="S62" s="8" t="s">
+      <c r="T62" s="8" t="s">
         <v>764</v>
       </c>
-      <c r="T62" s="8"/>
       <c r="U62" s="8"/>
-    </row>
-    <row r="63" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="V62" s="8"/>
+    </row>
+    <row r="63" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="15" t="s">
         <v>77</v>
       </c>
@@ -31215,58 +31422,61 @@
       <c r="C63" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="D63" s="8" t="s">
+      <c r="D63" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E63" s="8" t="s">
         <v>466</v>
       </c>
-      <c r="E63" s="8" t="s">
+      <c r="F63" s="8" t="s">
         <v>609</v>
       </c>
-      <c r="F63" s="8" t="s">
+      <c r="G63" s="8" t="s">
         <v>610</v>
       </c>
-      <c r="G63" s="9" t="s">
+      <c r="H63" s="9" t="s">
         <v>818</v>
       </c>
-      <c r="H63" s="8" t="s">
+      <c r="I63" s="8" t="s">
         <v>918</v>
       </c>
-      <c r="I63" s="16" t="s">
+      <c r="J63" s="16" t="s">
         <v>722</v>
       </c>
-      <c r="J63" s="8" t="s">
+      <c r="K63" s="8" t="s">
         <v>967</v>
       </c>
-      <c r="K63" s="16" t="s">
+      <c r="L63" s="16" t="s">
         <v>872</v>
       </c>
-      <c r="L63" s="16" t="s">
+      <c r="M63" s="16" t="s">
         <v>1186</v>
-      </c>
-      <c r="M63" s="8" t="s">
-        <v>160</v>
       </c>
       <c r="N63" s="8" t="s">
         <v>160</v>
       </c>
       <c r="O63" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="P63" s="8" t="s">
         <v>681</v>
       </c>
-      <c r="P63" s="8" t="s">
+      <c r="Q63" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="Q63" s="8" t="s">
+      <c r="R63" s="8" t="s">
         <v>1013</v>
       </c>
-      <c r="R63" s="8" t="s">
+      <c r="S63" s="8" t="s">
         <v>1033</v>
       </c>
-      <c r="S63" s="8" t="s">
+      <c r="T63" s="8" t="s">
         <v>765</v>
       </c>
-      <c r="T63" s="8"/>
       <c r="U63" s="8"/>
-    </row>
-    <row r="64" spans="1:21" ht="174" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V63" s="8"/>
+    </row>
+    <row r="64" spans="1:22" ht="174" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="15" t="s">
         <v>77</v>
       </c>
@@ -31276,58 +31486,61 @@
       <c r="C64" s="10" t="s">
         <v>1052</v>
       </c>
-      <c r="D64" s="8" t="s">
+      <c r="D64" s="10" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E64" s="8" t="s">
         <v>530</v>
       </c>
-      <c r="E64" s="8" t="s">
+      <c r="F64" s="8" t="s">
         <v>611</v>
       </c>
-      <c r="F64" s="8" t="s">
+      <c r="G64" s="8" t="s">
         <v>612</v>
       </c>
-      <c r="G64" s="10" t="s">
+      <c r="H64" s="10" t="s">
         <v>819</v>
       </c>
-      <c r="H64" s="11" t="s">
+      <c r="I64" s="11" t="s">
         <v>919</v>
       </c>
-      <c r="I64" s="16" t="s">
+      <c r="J64" s="16" t="s">
         <v>723</v>
       </c>
-      <c r="J64" s="11" t="s">
+      <c r="K64" s="11" t="s">
         <v>1076</v>
       </c>
-      <c r="K64" s="16" t="s">
+      <c r="L64" s="16" t="s">
         <v>873</v>
       </c>
-      <c r="L64" s="16" t="s">
+      <c r="M64" s="16" t="s">
         <v>1187</v>
       </c>
-      <c r="M64" s="8" t="s">
+      <c r="N64" s="8" t="s">
         <v>1098</v>
       </c>
-      <c r="N64" s="11" t="s">
+      <c r="O64" s="11" t="s">
         <v>541</v>
       </c>
-      <c r="O64" s="8" t="s">
+      <c r="P64" s="8" t="s">
         <v>682</v>
       </c>
-      <c r="P64" s="8" t="s">
+      <c r="Q64" s="8" t="s">
         <v>943</v>
       </c>
-      <c r="Q64" s="8" t="s">
+      <c r="R64" s="8" t="s">
         <v>1080</v>
       </c>
-      <c r="R64" s="8" t="s">
+      <c r="S64" s="8" t="s">
         <v>1083</v>
       </c>
-      <c r="S64" s="8" t="s">
+      <c r="T64" s="8" t="s">
         <v>766</v>
       </c>
-      <c r="T64" s="8"/>
       <c r="U64" s="8"/>
-    </row>
-    <row r="65" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V64" s="8"/>
+    </row>
+    <row r="65" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="15" t="s">
         <v>77</v>
       </c>
@@ -31337,26 +31550,29 @@
       <c r="C65" s="10" t="s">
         <v>1466</v>
       </c>
-      <c r="D65" s="8"/>
+      <c r="D65" s="10" t="s">
+        <v>1466</v>
+      </c>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
-      <c r="G65" s="10"/>
-      <c r="H65" s="11"/>
-      <c r="I65" s="16"/>
-      <c r="J65" s="11"/>
-      <c r="K65" s="16"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="11"/>
+      <c r="J65" s="16"/>
+      <c r="K65" s="11"/>
       <c r="L65" s="16"/>
-      <c r="M65" s="8"/>
-      <c r="N65" s="11"/>
-      <c r="O65" s="8"/>
+      <c r="M65" s="16"/>
+      <c r="N65" s="8"/>
+      <c r="O65" s="11"/>
       <c r="P65" s="8"/>
       <c r="Q65" s="8"/>
       <c r="R65" s="8"/>
       <c r="S65" s="8"/>
       <c r="T65" s="8"/>
       <c r="U65" s="8"/>
-    </row>
-    <row r="66" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="V65" s="8"/>
+    </row>
+    <row r="66" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="15" t="s">
         <v>77</v>
       </c>
@@ -31366,26 +31582,29 @@
       <c r="C66" s="10" t="s">
         <v>1425</v>
       </c>
-      <c r="D66" s="8"/>
+      <c r="D66" s="10" t="s">
+        <v>1425</v>
+      </c>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
-      <c r="G66" s="10"/>
-      <c r="H66" s="11"/>
-      <c r="I66" s="16"/>
-      <c r="J66" s="11"/>
-      <c r="K66" s="16"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="10"/>
+      <c r="I66" s="11"/>
+      <c r="J66" s="16"/>
+      <c r="K66" s="11"/>
       <c r="L66" s="16"/>
-      <c r="M66" s="8"/>
-      <c r="N66" s="11"/>
-      <c r="O66" s="8"/>
+      <c r="M66" s="16"/>
+      <c r="N66" s="8"/>
+      <c r="O66" s="11"/>
       <c r="P66" s="8"/>
       <c r="Q66" s="8"/>
       <c r="R66" s="8"/>
       <c r="S66" s="8"/>
       <c r="T66" s="8"/>
       <c r="U66" s="8"/>
-    </row>
-    <row r="67" spans="1:21" ht="195" x14ac:dyDescent="0.25">
+      <c r="V66" s="8"/>
+    </row>
+    <row r="67" spans="1:22" ht="195" x14ac:dyDescent="0.25">
       <c r="A67" s="15" t="s">
         <v>77</v>
       </c>
@@ -31395,26 +31614,29 @@
       <c r="C67" s="10" t="s">
         <v>1531</v>
       </c>
-      <c r="D67" s="8"/>
+      <c r="D67" s="10" t="s">
+        <v>1531</v>
+      </c>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
-      <c r="G67" s="10"/>
-      <c r="H67" s="11"/>
-      <c r="I67" s="16"/>
-      <c r="J67" s="11"/>
-      <c r="K67" s="16"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="10"/>
+      <c r="I67" s="11"/>
+      <c r="J67" s="16"/>
+      <c r="K67" s="11"/>
       <c r="L67" s="16"/>
-      <c r="M67" s="8"/>
-      <c r="N67" s="11"/>
-      <c r="O67" s="8"/>
+      <c r="M67" s="16"/>
+      <c r="N67" s="8"/>
+      <c r="O67" s="11"/>
       <c r="P67" s="8"/>
       <c r="Q67" s="8"/>
       <c r="R67" s="8"/>
       <c r="S67" s="8"/>
       <c r="T67" s="8"/>
       <c r="U67" s="8"/>
-    </row>
-    <row r="68" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="V67" s="8"/>
+    </row>
+    <row r="68" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="15" t="s">
         <v>77</v>
       </c>
@@ -31424,26 +31646,29 @@
       <c r="C68" s="10" t="s">
         <v>1548</v>
       </c>
-      <c r="D68" s="8"/>
+      <c r="D68" s="10" t="s">
+        <v>1548</v>
+      </c>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
-      <c r="G68" s="10"/>
-      <c r="H68" s="11"/>
-      <c r="I68" s="16"/>
-      <c r="J68" s="11"/>
-      <c r="K68" s="16"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="10"/>
+      <c r="I68" s="11"/>
+      <c r="J68" s="16"/>
+      <c r="K68" s="11"/>
       <c r="L68" s="16"/>
-      <c r="M68" s="8"/>
-      <c r="N68" s="11"/>
-      <c r="O68" s="8"/>
+      <c r="M68" s="16"/>
+      <c r="N68" s="8"/>
+      <c r="O68" s="11"/>
       <c r="P68" s="8"/>
       <c r="Q68" s="8"/>
       <c r="R68" s="8"/>
       <c r="S68" s="8"/>
       <c r="T68" s="8"/>
       <c r="U68" s="8"/>
-    </row>
-    <row r="69" spans="1:21" ht="135" x14ac:dyDescent="0.25">
+      <c r="V68" s="8"/>
+    </row>
+    <row r="69" spans="1:22" ht="135" x14ac:dyDescent="0.25">
       <c r="A69" s="15" t="s">
         <v>77</v>
       </c>
@@ -31453,26 +31678,29 @@
       <c r="C69" s="10" t="s">
         <v>1532</v>
       </c>
-      <c r="D69" s="8"/>
+      <c r="D69" s="10" t="s">
+        <v>1532</v>
+      </c>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
-      <c r="G69" s="10"/>
-      <c r="H69" s="11"/>
-      <c r="I69" s="16"/>
-      <c r="J69" s="11"/>
-      <c r="K69" s="16"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="10"/>
+      <c r="I69" s="11"/>
+      <c r="J69" s="16"/>
+      <c r="K69" s="11"/>
       <c r="L69" s="16"/>
-      <c r="M69" s="8"/>
-      <c r="N69" s="11"/>
-      <c r="O69" s="8"/>
+      <c r="M69" s="16"/>
+      <c r="N69" s="8"/>
+      <c r="O69" s="11"/>
       <c r="P69" s="8"/>
       <c r="Q69" s="8"/>
       <c r="R69" s="8"/>
       <c r="S69" s="8"/>
       <c r="T69" s="8"/>
       <c r="U69" s="8"/>
-    </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V69" s="8"/>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A70" s="15" t="s">
         <v>1396</v>
       </c>
@@ -31482,35 +31710,35 @@
       <c r="C70" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D70" s="8" t="s">
+      <c r="D70" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E70" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="E70" s="8" t="s">
+      <c r="F70" s="8" t="s">
         <v>584</v>
       </c>
-      <c r="F70" s="8" t="s">
+      <c r="G70" s="8" t="s">
         <v>585</v>
       </c>
-      <c r="G70" s="9" t="s">
+      <c r="H70" s="9" t="s">
         <v>820</v>
       </c>
-      <c r="H70" s="8" t="s">
+      <c r="I70" s="8" t="s">
         <v>920</v>
       </c>
-      <c r="I70" s="16" t="s">
+      <c r="J70" s="16" t="s">
         <v>345</v>
       </c>
-      <c r="J70" s="8" t="s">
+      <c r="K70" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="K70" s="16" t="s">
+      <c r="L70" s="16" t="s">
         <v>874</v>
       </c>
-      <c r="L70" s="16" t="s">
+      <c r="M70" s="16" t="s">
         <v>1188</v>
-      </c>
-      <c r="M70" s="8" t="s">
-        <v>161</v>
       </c>
       <c r="N70" s="8" t="s">
         <v>161</v>
@@ -31522,18 +31750,21 @@
         <v>161</v>
       </c>
       <c r="Q70" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="R70" s="8" t="s">
         <v>1014</v>
       </c>
-      <c r="R70" s="8" t="s">
+      <c r="S70" s="8" t="s">
         <v>1027</v>
       </c>
-      <c r="S70" s="8" t="s">
+      <c r="T70" s="8" t="s">
         <v>767</v>
       </c>
-      <c r="T70" s="8"/>
       <c r="U70" s="8"/>
-    </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V70" s="8"/>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A71" s="15" t="s">
         <v>1396</v>
       </c>
@@ -31543,16 +31774,18 @@
       <c r="C71" s="9" t="s">
         <v>1564</v>
       </c>
-      <c r="D71" s="8"/>
+      <c r="D71" s="9" t="s">
+        <v>1564</v>
+      </c>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
-      <c r="G71" s="9"/>
-      <c r="H71" s="8"/>
-      <c r="I71" s="16"/>
-      <c r="J71" s="8"/>
-      <c r="K71" s="16"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="8"/>
+      <c r="J71" s="16"/>
+      <c r="K71" s="8"/>
       <c r="L71" s="16"/>
-      <c r="M71" s="8"/>
+      <c r="M71" s="16"/>
       <c r="N71" s="8"/>
       <c r="O71" s="8"/>
       <c r="P71" s="8"/>
@@ -31561,8 +31794,9 @@
       <c r="S71" s="8"/>
       <c r="T71" s="8"/>
       <c r="U71" s="8"/>
-    </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V71" s="8"/>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A72" s="15" t="s">
         <v>1396</v>
       </c>
@@ -31572,58 +31806,61 @@
       <c r="C72" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D72" s="8" t="s">
+      <c r="D72" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E72" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="E72" s="8" t="s">
+      <c r="F72" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="F72" s="8" t="s">
+      <c r="G72" s="8" t="s">
         <v>613</v>
       </c>
-      <c r="G72" s="9" t="s">
+      <c r="H72" s="9" t="s">
         <v>335</v>
       </c>
-      <c r="H72" s="8" t="s">
+      <c r="I72" s="8" t="s">
         <v>921</v>
       </c>
-      <c r="I72" s="16" t="s">
+      <c r="J72" s="16" t="s">
         <v>346</v>
       </c>
-      <c r="J72" s="8" t="s">
+      <c r="K72" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="K72" s="16" t="s">
+      <c r="L72" s="16" t="s">
         <v>875</v>
       </c>
-      <c r="L72" s="16" t="s">
+      <c r="M72" s="16" t="s">
         <v>1189</v>
-      </c>
-      <c r="M72" s="8" t="s">
-        <v>162</v>
       </c>
       <c r="N72" s="8" t="s">
         <v>162</v>
       </c>
       <c r="O72" s="8" t="s">
-        <v>683</v>
+        <v>162</v>
       </c>
       <c r="P72" s="8" t="s">
         <v>683</v>
       </c>
       <c r="Q72" s="8" t="s">
+        <v>683</v>
+      </c>
+      <c r="R72" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="R72" s="8" t="s">
+      <c r="S72" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="S72" s="8" t="s">
+      <c r="T72" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="T72" s="8"/>
       <c r="U72" s="8"/>
-    </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V72" s="8"/>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A73" s="15" t="s">
         <v>1396</v>
       </c>
@@ -31633,16 +31870,18 @@
       <c r="C73" s="9" t="s">
         <v>1428</v>
       </c>
-      <c r="D73" s="8"/>
+      <c r="D73" s="9" t="s">
+        <v>1428</v>
+      </c>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
-      <c r="G73" s="9"/>
-      <c r="H73" s="8"/>
-      <c r="I73" s="16"/>
-      <c r="J73" s="8"/>
-      <c r="K73" s="16"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="8"/>
+      <c r="J73" s="16"/>
+      <c r="K73" s="8"/>
       <c r="L73" s="16"/>
-      <c r="M73" s="8"/>
+      <c r="M73" s="16"/>
       <c r="N73" s="8"/>
       <c r="O73" s="8"/>
       <c r="P73" s="8"/>
@@ -31651,8 +31890,9 @@
       <c r="S73" s="8"/>
       <c r="T73" s="8"/>
       <c r="U73" s="8"/>
-    </row>
-    <row r="74" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="V73" s="8"/>
+    </row>
+    <row r="74" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="15" t="s">
         <v>1395</v>
       </c>
@@ -31662,16 +31902,18 @@
       <c r="C74" s="9" t="s">
         <v>1382</v>
       </c>
-      <c r="D74" s="8"/>
-      <c r="E74" s="18"/>
+      <c r="D74" s="9" t="s">
+        <v>1382</v>
+      </c>
+      <c r="E74" s="8"/>
       <c r="F74" s="18"/>
-      <c r="G74" s="9"/>
-      <c r="H74" s="8"/>
-      <c r="I74" s="16"/>
-      <c r="J74" s="8"/>
-      <c r="K74" s="16"/>
+      <c r="G74" s="18"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="8"/>
+      <c r="J74" s="16"/>
+      <c r="K74" s="8"/>
       <c r="L74" s="16"/>
-      <c r="M74" s="8"/>
+      <c r="M74" s="16"/>
       <c r="N74" s="8"/>
       <c r="O74" s="8"/>
       <c r="P74" s="8"/>
@@ -31680,8 +31922,9 @@
       <c r="S74" s="8"/>
       <c r="T74" s="8"/>
       <c r="U74" s="8"/>
-    </row>
-    <row r="75" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+      <c r="V74" s="8"/>
+    </row>
+    <row r="75" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A75" s="15" t="s">
         <v>1394</v>
       </c>
@@ -31691,16 +31934,18 @@
       <c r="C75" s="9" t="s">
         <v>1389</v>
       </c>
-      <c r="D75" s="8"/>
+      <c r="D75" s="9" t="s">
+        <v>1389</v>
+      </c>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
-      <c r="G75" s="9"/>
-      <c r="H75" s="8"/>
-      <c r="I75" s="16"/>
-      <c r="J75" s="8"/>
-      <c r="K75" s="16"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="8"/>
+      <c r="J75" s="16"/>
+      <c r="K75" s="8"/>
       <c r="L75" s="16"/>
-      <c r="M75" s="8"/>
+      <c r="M75" s="16"/>
       <c r="N75" s="8"/>
       <c r="O75" s="8"/>
       <c r="P75" s="8"/>
@@ -31709,8 +31954,9 @@
       <c r="S75" s="8"/>
       <c r="T75" s="8"/>
       <c r="U75" s="8"/>
-    </row>
-    <row r="76" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="V75" s="8"/>
+    </row>
+    <row r="76" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" s="15" t="s">
         <v>1394</v>
       </c>
@@ -31720,16 +31966,18 @@
       <c r="C76" s="9" t="s">
         <v>1390</v>
       </c>
-      <c r="D76" s="8"/>
+      <c r="D76" s="9" t="s">
+        <v>1390</v>
+      </c>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
-      <c r="G76" s="9"/>
-      <c r="H76" s="8"/>
-      <c r="I76" s="16"/>
-      <c r="J76" s="8"/>
-      <c r="K76" s="16"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="9"/>
+      <c r="I76" s="8"/>
+      <c r="J76" s="16"/>
+      <c r="K76" s="8"/>
       <c r="L76" s="16"/>
-      <c r="M76" s="8"/>
+      <c r="M76" s="16"/>
       <c r="N76" s="8"/>
       <c r="O76" s="8"/>
       <c r="P76" s="8"/>
@@ -31738,8 +31986,9 @@
       <c r="S76" s="8"/>
       <c r="T76" s="8"/>
       <c r="U76" s="8"/>
-    </row>
-    <row r="77" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="V76" s="8"/>
+    </row>
+    <row r="77" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A77" s="15" t="s">
         <v>1394</v>
       </c>
@@ -31749,16 +31998,18 @@
       <c r="C77" s="9" t="s">
         <v>1391</v>
       </c>
-      <c r="D77" s="8"/>
+      <c r="D77" s="9" t="s">
+        <v>1391</v>
+      </c>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
-      <c r="G77" s="9"/>
-      <c r="H77" s="8"/>
-      <c r="I77" s="16"/>
-      <c r="J77" s="8"/>
-      <c r="K77" s="16"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="8"/>
+      <c r="J77" s="16"/>
+      <c r="K77" s="8"/>
       <c r="L77" s="16"/>
-      <c r="M77" s="8"/>
+      <c r="M77" s="16"/>
       <c r="N77" s="8"/>
       <c r="O77" s="8"/>
       <c r="P77" s="8"/>
@@ -31767,8 +32018,9 @@
       <c r="S77" s="8"/>
       <c r="T77" s="8"/>
       <c r="U77" s="8"/>
-    </row>
-    <row r="78" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="V77" s="8"/>
+    </row>
+    <row r="78" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="15" t="s">
         <v>1394</v>
       </c>
@@ -31778,16 +32030,18 @@
       <c r="C78" s="9" t="s">
         <v>1392</v>
       </c>
-      <c r="D78" s="8"/>
+      <c r="D78" s="9" t="s">
+        <v>1392</v>
+      </c>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
-      <c r="G78" s="9"/>
-      <c r="H78" s="8"/>
-      <c r="I78" s="16"/>
-      <c r="J78" s="8"/>
-      <c r="K78" s="16"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="9"/>
+      <c r="I78" s="8"/>
+      <c r="J78" s="16"/>
+      <c r="K78" s="8"/>
       <c r="L78" s="16"/>
-      <c r="M78" s="8"/>
+      <c r="M78" s="16"/>
       <c r="N78" s="8"/>
       <c r="O78" s="8"/>
       <c r="P78" s="8"/>
@@ -31796,8 +32050,9 @@
       <c r="S78" s="8"/>
       <c r="T78" s="8"/>
       <c r="U78" s="8"/>
-    </row>
-    <row r="79" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="V78" s="8"/>
+    </row>
+    <row r="79" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A79" s="15" t="s">
         <v>1394</v>
       </c>
@@ -31807,16 +32062,18 @@
       <c r="C79" s="9" t="s">
         <v>1393</v>
       </c>
-      <c r="D79" s="8"/>
+      <c r="D79" s="9" t="s">
+        <v>1393</v>
+      </c>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
-      <c r="G79" s="9"/>
-      <c r="H79" s="8"/>
-      <c r="I79" s="16"/>
-      <c r="J79" s="8"/>
-      <c r="K79" s="16"/>
+      <c r="G79" s="8"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="8"/>
+      <c r="J79" s="16"/>
+      <c r="K79" s="8"/>
       <c r="L79" s="16"/>
-      <c r="M79" s="8"/>
+      <c r="M79" s="16"/>
       <c r="N79" s="8"/>
       <c r="O79" s="8"/>
       <c r="P79" s="8"/>
@@ -31825,8 +32082,9 @@
       <c r="S79" s="8"/>
       <c r="T79" s="8"/>
       <c r="U79" s="8"/>
-    </row>
-    <row r="80" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="V79" s="8"/>
+    </row>
+    <row r="80" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="15" t="s">
         <v>1395</v>
       </c>
@@ -31836,16 +32094,18 @@
       <c r="C80" s="9" t="s">
         <v>1421</v>
       </c>
-      <c r="D80" s="8"/>
-      <c r="E80" s="18"/>
+      <c r="D80" s="9" t="s">
+        <v>1421</v>
+      </c>
+      <c r="E80" s="8"/>
       <c r="F80" s="18"/>
-      <c r="G80" s="9"/>
-      <c r="H80" s="8"/>
-      <c r="I80" s="16"/>
-      <c r="J80" s="8"/>
-      <c r="K80" s="16"/>
+      <c r="G80" s="18"/>
+      <c r="H80" s="9"/>
+      <c r="I80" s="8"/>
+      <c r="J80" s="16"/>
+      <c r="K80" s="8"/>
       <c r="L80" s="16"/>
-      <c r="M80" s="8"/>
+      <c r="M80" s="16"/>
       <c r="N80" s="8"/>
       <c r="O80" s="8"/>
       <c r="P80" s="8"/>
@@ -31854,8 +32114,9 @@
       <c r="S80" s="8"/>
       <c r="T80" s="8"/>
       <c r="U80" s="8"/>
-    </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V80" s="8"/>
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A81" s="15" t="s">
         <v>1394</v>
       </c>
@@ -31865,58 +32126,61 @@
       <c r="C81" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="D81" s="8" t="s">
+      <c r="D81" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E81" s="8" t="s">
         <v>467</v>
       </c>
-      <c r="E81" s="8" t="s">
+      <c r="F81" s="8" t="s">
         <v>615</v>
       </c>
-      <c r="F81" s="8" t="s">
+      <c r="G81" s="8" t="s">
         <v>616</v>
       </c>
-      <c r="G81" s="9" t="s">
+      <c r="H81" s="9" t="s">
         <v>822</v>
       </c>
-      <c r="H81" s="8" t="s">
+      <c r="I81" s="8" t="s">
         <v>923</v>
       </c>
-      <c r="I81" s="16" t="s">
+      <c r="J81" s="16" t="s">
         <v>725</v>
       </c>
-      <c r="J81" s="8" t="s">
+      <c r="K81" s="8" t="s">
         <v>1122</v>
       </c>
-      <c r="K81" s="16" t="s">
+      <c r="L81" s="16" t="s">
         <v>877</v>
       </c>
-      <c r="L81" s="16" t="s">
+      <c r="M81" s="16" t="s">
         <v>1191</v>
       </c>
-      <c r="M81" s="8" t="s">
+      <c r="N81" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="N81" s="8" t="s">
+      <c r="O81" s="8" t="s">
         <v>485</v>
       </c>
-      <c r="O81" s="8" t="s">
+      <c r="P81" s="8" t="s">
         <v>684</v>
       </c>
-      <c r="P81" s="8" t="s">
+      <c r="Q81" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="Q81" s="8" t="s">
+      <c r="R81" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="R81" s="8" t="s">
+      <c r="S81" s="8" t="s">
         <v>514</v>
       </c>
-      <c r="S81" s="8" t="s">
+      <c r="T81" s="8" t="s">
         <v>769</v>
       </c>
-      <c r="T81" s="8"/>
       <c r="U81" s="8"/>
-    </row>
-    <row r="82" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="V81" s="8"/>
+    </row>
+    <row r="82" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="15" t="s">
         <v>1394</v>
       </c>
@@ -31926,58 +32190,61 @@
       <c r="C82" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D82" s="8" t="s">
+      <c r="D82" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E82" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="E82" s="8" t="s">
+      <c r="F82" s="8" t="s">
         <v>617</v>
       </c>
-      <c r="F82" s="8" t="s">
+      <c r="G82" s="8" t="s">
         <v>618</v>
       </c>
-      <c r="G82" s="9" t="s">
+      <c r="H82" s="9" t="s">
         <v>823</v>
       </c>
-      <c r="H82" s="8" t="s">
+      <c r="I82" s="8" t="s">
         <v>924</v>
       </c>
-      <c r="I82" s="16" t="s">
+      <c r="J82" s="16" t="s">
         <v>347</v>
       </c>
-      <c r="J82" s="8" t="s">
+      <c r="K82" s="8" t="s">
         <v>989</v>
       </c>
-      <c r="K82" s="16" t="s">
+      <c r="L82" s="16" t="s">
         <v>878</v>
       </c>
-      <c r="L82" s="16" t="s">
+      <c r="M82" s="16" t="s">
         <v>1192</v>
       </c>
-      <c r="M82" s="8" t="s">
+      <c r="N82" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="N82" s="8" t="s">
+      <c r="O82" s="8" t="s">
         <v>486</v>
-      </c>
-      <c r="O82" s="8" t="s">
-        <v>186</v>
       </c>
       <c r="P82" s="8" t="s">
         <v>186</v>
       </c>
       <c r="Q82" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="R82" s="8" t="s">
         <v>1016</v>
       </c>
-      <c r="R82" s="8" t="s">
+      <c r="S82" s="8" t="s">
         <v>1089</v>
       </c>
-      <c r="S82" s="8" t="s">
+      <c r="T82" s="8" t="s">
         <v>783</v>
       </c>
-      <c r="T82" s="8"/>
       <c r="U82" s="8"/>
-    </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V82" s="8"/>
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A83" s="15" t="s">
         <v>1394</v>
       </c>
@@ -31987,16 +32254,18 @@
       <c r="C83" s="9" t="s">
         <v>1397</v>
       </c>
-      <c r="D83" s="8"/>
+      <c r="D83" s="9" t="s">
+        <v>1397</v>
+      </c>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
-      <c r="G83" s="9"/>
-      <c r="H83" s="8"/>
-      <c r="I83" s="16"/>
-      <c r="J83" s="8"/>
-      <c r="K83" s="16"/>
+      <c r="G83" s="8"/>
+      <c r="H83" s="9"/>
+      <c r="I83" s="8"/>
+      <c r="J83" s="16"/>
+      <c r="K83" s="8"/>
       <c r="L83" s="16"/>
-      <c r="M83" s="8"/>
+      <c r="M83" s="16"/>
       <c r="N83" s="8"/>
       <c r="O83" s="8"/>
       <c r="P83" s="8"/>
@@ -32005,8 +32274,9 @@
       <c r="S83" s="8"/>
       <c r="T83" s="8"/>
       <c r="U83" s="8"/>
-    </row>
-    <row r="84" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="V83" s="8"/>
+    </row>
+    <row r="84" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="15" t="s">
         <v>1394</v>
       </c>
@@ -32016,58 +32286,61 @@
       <c r="C84" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D84" s="8" t="s">
+      <c r="D84" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E84" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="E84" s="8" t="s">
+      <c r="F84" s="8" t="s">
         <v>619</v>
       </c>
-      <c r="F84" s="8" t="s">
+      <c r="G84" s="8" t="s">
         <v>620</v>
       </c>
-      <c r="G84" s="9" t="s">
+      <c r="H84" s="9" t="s">
         <v>824</v>
       </c>
-      <c r="H84" s="8" t="s">
+      <c r="I84" s="8" t="s">
         <v>925</v>
       </c>
-      <c r="I84" s="16" t="s">
+      <c r="J84" s="16" t="s">
         <v>726</v>
       </c>
-      <c r="J84" s="8" t="s">
+      <c r="K84" s="8" t="s">
         <v>1123</v>
       </c>
-      <c r="K84" s="16" t="s">
+      <c r="L84" s="16" t="s">
         <v>879</v>
       </c>
-      <c r="L84" s="16" t="s">
+      <c r="M84" s="16" t="s">
         <v>1193</v>
-      </c>
-      <c r="M84" s="8" t="s">
-        <v>165</v>
       </c>
       <c r="N84" s="8" t="s">
         <v>165</v>
       </c>
       <c r="O84" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="P84" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="P84" s="8" t="s">
+      <c r="Q84" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="Q84" s="8" t="s">
+      <c r="R84" s="8" t="s">
         <v>1017</v>
       </c>
-      <c r="R84" s="8" t="s">
+      <c r="S84" s="8" t="s">
         <v>1087</v>
       </c>
-      <c r="S84" s="8" t="s">
+      <c r="T84" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="T84" s="8"/>
       <c r="U84" s="8"/>
-    </row>
-    <row r="85" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="V84" s="8"/>
+    </row>
+    <row r="85" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="15" t="s">
         <v>1394</v>
       </c>
@@ -32077,58 +32350,61 @@
       <c r="C85" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D85" s="8" t="s">
+      <c r="D85" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E85" s="8" t="s">
         <v>531</v>
       </c>
-      <c r="E85" s="8" t="s">
+      <c r="F85" s="8" t="s">
         <v>621</v>
       </c>
-      <c r="F85" s="8" t="s">
+      <c r="G85" s="8" t="s">
         <v>622</v>
       </c>
-      <c r="G85" s="9" t="s">
+      <c r="H85" s="9" t="s">
         <v>825</v>
       </c>
-      <c r="H85" s="8" t="s">
+      <c r="I85" s="8" t="s">
         <v>926</v>
       </c>
-      <c r="I85" s="16" t="s">
+      <c r="J85" s="16" t="s">
         <v>727</v>
       </c>
-      <c r="J85" s="8" t="s">
+      <c r="K85" s="8" t="s">
         <v>1124</v>
       </c>
-      <c r="K85" s="16" t="s">
+      <c r="L85" s="16" t="s">
         <v>880</v>
       </c>
-      <c r="L85" s="16" t="s">
+      <c r="M85" s="16" t="s">
         <v>1194</v>
       </c>
-      <c r="M85" s="8" t="s">
+      <c r="N85" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="N85" s="8" t="s">
+      <c r="O85" s="8" t="s">
         <v>542</v>
       </c>
-      <c r="O85" s="8" t="s">
+      <c r="P85" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="P85" s="8" t="s">
+      <c r="Q85" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="Q85" s="8" t="s">
+      <c r="R85" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="R85" s="8" t="s">
+      <c r="S85" s="8" t="s">
         <v>1088</v>
       </c>
-      <c r="S85" s="8" t="s">
+      <c r="T85" s="8" t="s">
         <v>770</v>
       </c>
-      <c r="T85" s="8"/>
       <c r="U85" s="8"/>
-    </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V85" s="8"/>
+    </row>
+    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A86" s="15" t="s">
         <v>1394</v>
       </c>
@@ -32138,58 +32414,61 @@
       <c r="C86" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D86" s="8" t="s">
+      <c r="D86" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E86" s="8" t="s">
         <v>532</v>
       </c>
-      <c r="E86" s="8" t="s">
+      <c r="F86" s="8" t="s">
         <v>623</v>
       </c>
-      <c r="F86" s="8" t="s">
+      <c r="G86" s="8" t="s">
         <v>624</v>
       </c>
-      <c r="G86" s="9" t="s">
+      <c r="H86" s="9" t="s">
         <v>826</v>
       </c>
-      <c r="H86" s="8" t="s">
+      <c r="I86" s="8" t="s">
         <v>927</v>
       </c>
-      <c r="I86" s="16" t="s">
+      <c r="J86" s="16" t="s">
         <v>728</v>
       </c>
-      <c r="J86" s="8" t="s">
+      <c r="K86" s="8" t="s">
         <v>969</v>
       </c>
-      <c r="K86" s="16" t="s">
+      <c r="L86" s="16" t="s">
         <v>881</v>
       </c>
-      <c r="L86" s="16" t="s">
+      <c r="M86" s="16" t="s">
         <v>1195</v>
       </c>
-      <c r="M86" s="8" t="s">
+      <c r="N86" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="N86" s="8" t="s">
+      <c r="O86" s="8" t="s">
         <v>543</v>
       </c>
-      <c r="O86" s="8" t="s">
+      <c r="P86" s="8" t="s">
         <v>685</v>
       </c>
-      <c r="P86" s="8" t="s">
+      <c r="Q86" s="8" t="s">
         <v>667</v>
       </c>
-      <c r="Q86" s="8" t="s">
+      <c r="R86" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="R86" s="8" t="s">
+      <c r="S86" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="S86" s="8" t="s">
+      <c r="T86" s="8" t="s">
         <v>771</v>
       </c>
-      <c r="T86" s="8"/>
       <c r="U86" s="8"/>
-    </row>
-    <row r="87" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="V86" s="8"/>
+    </row>
+    <row r="87" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="15" t="s">
         <v>1394</v>
       </c>
@@ -32199,58 +32478,61 @@
       <c r="C87" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D87" s="8" t="s">
+      <c r="D87" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E87" s="8" t="s">
         <v>533</v>
       </c>
-      <c r="E87" s="8" t="s">
+      <c r="F87" s="8" t="s">
         <v>625</v>
       </c>
-      <c r="F87" s="8" t="s">
+      <c r="G87" s="8" t="s">
         <v>626</v>
       </c>
-      <c r="G87" s="9" t="s">
+      <c r="H87" s="9" t="s">
         <v>827</v>
       </c>
-      <c r="H87" s="8" t="s">
+      <c r="I87" s="8" t="s">
         <v>928</v>
       </c>
-      <c r="I87" s="16" t="s">
+      <c r="J87" s="16" t="s">
         <v>729</v>
       </c>
-      <c r="J87" s="8" t="s">
+      <c r="K87" s="8" t="s">
         <v>990</v>
       </c>
-      <c r="K87" s="16" t="s">
+      <c r="L87" s="16" t="s">
         <v>882</v>
       </c>
-      <c r="L87" s="16" t="s">
+      <c r="M87" s="16" t="s">
         <v>1196</v>
       </c>
-      <c r="M87" s="8" t="s">
+      <c r="N87" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="N87" s="8" t="s">
+      <c r="O87" s="8" t="s">
         <v>544</v>
       </c>
-      <c r="O87" s="8" t="s">
+      <c r="P87" s="8" t="s">
         <v>686</v>
       </c>
-      <c r="P87" s="8" t="s">
+      <c r="Q87" s="8" t="s">
         <v>944</v>
       </c>
-      <c r="Q87" s="8" t="s">
+      <c r="R87" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="R87" s="8" t="s">
+      <c r="S87" s="8" t="s">
         <v>1029</v>
       </c>
-      <c r="S87" s="8" t="s">
+      <c r="T87" s="8" t="s">
         <v>772</v>
       </c>
-      <c r="T87" s="8"/>
       <c r="U87" s="8"/>
-    </row>
-    <row r="88" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="V87" s="8"/>
+    </row>
+    <row r="88" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A88" s="15" t="s">
         <v>1394</v>
       </c>
@@ -32260,58 +32542,61 @@
       <c r="C88" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D88" s="8" t="s">
+      <c r="D88" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E88" s="8" t="s">
         <v>282</v>
-      </c>
-      <c r="E88" s="8" t="s">
-        <v>614</v>
       </c>
       <c r="F88" s="8" t="s">
         <v>614</v>
       </c>
-      <c r="G88" s="9" t="s">
+      <c r="G88" s="8" t="s">
+        <v>614</v>
+      </c>
+      <c r="H88" s="9" t="s">
         <v>821</v>
       </c>
-      <c r="H88" s="8" t="s">
+      <c r="I88" s="8" t="s">
         <v>922</v>
       </c>
-      <c r="I88" s="16" t="s">
+      <c r="J88" s="16" t="s">
         <v>724</v>
       </c>
-      <c r="J88" s="8" t="s">
+      <c r="K88" s="8" t="s">
         <v>968</v>
       </c>
-      <c r="K88" s="16" t="s">
+      <c r="L88" s="16" t="s">
         <v>876</v>
       </c>
-      <c r="L88" s="16" t="s">
+      <c r="M88" s="16" t="s">
         <v>1190</v>
-      </c>
-      <c r="M88" s="8" t="s">
-        <v>299</v>
       </c>
       <c r="N88" s="8" t="s">
         <v>299</v>
       </c>
       <c r="O88" s="8" t="s">
-        <v>184</v>
+        <v>299</v>
       </c>
       <c r="P88" s="8" t="s">
         <v>184</v>
       </c>
       <c r="Q88" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="R88" s="8" t="s">
         <v>1015</v>
       </c>
-      <c r="R88" s="8" t="s">
+      <c r="S88" s="8" t="s">
         <v>1028</v>
       </c>
-      <c r="S88" s="8" t="s">
+      <c r="T88" s="8" t="s">
         <v>768</v>
       </c>
-      <c r="T88" s="8"/>
       <c r="U88" s="8"/>
-    </row>
-    <row r="89" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="V88" s="8"/>
+    </row>
+    <row r="89" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="15" t="s">
         <v>1394</v>
       </c>
@@ -32321,16 +32606,18 @@
       <c r="C89" s="9" t="s">
         <v>1400</v>
       </c>
-      <c r="D89" s="8"/>
+      <c r="D89" s="9" t="s">
+        <v>1400</v>
+      </c>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
-      <c r="G89" s="9"/>
-      <c r="H89" s="8"/>
-      <c r="I89" s="16"/>
-      <c r="J89" s="8"/>
-      <c r="K89" s="16"/>
+      <c r="G89" s="8"/>
+      <c r="H89" s="9"/>
+      <c r="I89" s="8"/>
+      <c r="J89" s="16"/>
+      <c r="K89" s="8"/>
       <c r="L89" s="16"/>
-      <c r="M89" s="8"/>
+      <c r="M89" s="16"/>
       <c r="N89" s="8"/>
       <c r="O89" s="8"/>
       <c r="P89" s="8"/>
@@ -32339,8 +32626,9 @@
       <c r="S89" s="8"/>
       <c r="T89" s="8"/>
       <c r="U89" s="8"/>
-    </row>
-    <row r="90" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="V89" s="8"/>
+    </row>
+    <row r="90" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A90" s="15" t="s">
         <v>1394</v>
       </c>
@@ -32350,16 +32638,18 @@
       <c r="C90" s="9" t="s">
         <v>1402</v>
       </c>
-      <c r="D90" s="8"/>
+      <c r="D90" s="9" t="s">
+        <v>1402</v>
+      </c>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
-      <c r="G90" s="9"/>
-      <c r="H90" s="8"/>
-      <c r="I90" s="16"/>
-      <c r="J90" s="8"/>
-      <c r="K90" s="16"/>
+      <c r="G90" s="8"/>
+      <c r="H90" s="9"/>
+      <c r="I90" s="8"/>
+      <c r="J90" s="16"/>
+      <c r="K90" s="8"/>
       <c r="L90" s="16"/>
-      <c r="M90" s="8"/>
+      <c r="M90" s="16"/>
       <c r="N90" s="8"/>
       <c r="O90" s="8"/>
       <c r="P90" s="8"/>
@@ -32368,8 +32658,9 @@
       <c r="S90" s="8"/>
       <c r="T90" s="8"/>
       <c r="U90" s="8"/>
-    </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V90" s="8"/>
+    </row>
+    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A91" s="15" t="s">
         <v>1394</v>
       </c>
@@ -32379,16 +32670,18 @@
       <c r="C91" s="9" t="s">
         <v>1404</v>
       </c>
-      <c r="D91" s="8"/>
+      <c r="D91" s="9" t="s">
+        <v>1404</v>
+      </c>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
-      <c r="G91" s="9"/>
-      <c r="H91" s="8"/>
-      <c r="I91" s="16"/>
-      <c r="J91" s="8"/>
-      <c r="K91" s="16"/>
+      <c r="G91" s="8"/>
+      <c r="H91" s="9"/>
+      <c r="I91" s="8"/>
+      <c r="J91" s="16"/>
+      <c r="K91" s="8"/>
       <c r="L91" s="16"/>
-      <c r="M91" s="8"/>
+      <c r="M91" s="16"/>
       <c r="N91" s="8"/>
       <c r="O91" s="8"/>
       <c r="P91" s="8"/>
@@ -32397,8 +32690,9 @@
       <c r="S91" s="8"/>
       <c r="T91" s="8"/>
       <c r="U91" s="8"/>
-    </row>
-    <row r="92" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="V91" s="8"/>
+    </row>
+    <row r="92" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="15" t="s">
         <v>1394</v>
       </c>
@@ -32408,16 +32702,18 @@
       <c r="C92" s="9" t="s">
         <v>1405</v>
       </c>
-      <c r="D92" s="8"/>
+      <c r="D92" s="9" t="s">
+        <v>1405</v>
+      </c>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
-      <c r="G92" s="9"/>
-      <c r="H92" s="8"/>
-      <c r="I92" s="16"/>
-      <c r="J92" s="8"/>
-      <c r="K92" s="16"/>
+      <c r="G92" s="8"/>
+      <c r="H92" s="9"/>
+      <c r="I92" s="8"/>
+      <c r="J92" s="16"/>
+      <c r="K92" s="8"/>
       <c r="L92" s="16"/>
-      <c r="M92" s="8"/>
+      <c r="M92" s="16"/>
       <c r="N92" s="8"/>
       <c r="O92" s="8"/>
       <c r="P92" s="8"/>
@@ -32426,8 +32722,9 @@
       <c r="S92" s="8"/>
       <c r="T92" s="8"/>
       <c r="U92" s="8"/>
-    </row>
-    <row r="93" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="V92" s="8"/>
+    </row>
+    <row r="93" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="15" t="s">
         <v>1394</v>
       </c>
@@ -32437,16 +32734,18 @@
       <c r="C93" s="9" t="s">
         <v>1407</v>
       </c>
-      <c r="D93" s="8"/>
+      <c r="D93" s="9" t="s">
+        <v>1407</v>
+      </c>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
-      <c r="G93" s="9"/>
-      <c r="H93" s="8"/>
-      <c r="I93" s="16"/>
-      <c r="J93" s="8"/>
-      <c r="K93" s="16"/>
+      <c r="G93" s="8"/>
+      <c r="H93" s="9"/>
+      <c r="I93" s="8"/>
+      <c r="J93" s="16"/>
+      <c r="K93" s="8"/>
       <c r="L93" s="16"/>
-      <c r="M93" s="8"/>
+      <c r="M93" s="16"/>
       <c r="N93" s="8"/>
       <c r="O93" s="8"/>
       <c r="P93" s="8"/>
@@ -32455,8 +32754,9 @@
       <c r="S93" s="8"/>
       <c r="T93" s="8"/>
       <c r="U93" s="8"/>
-    </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V93" s="8"/>
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A94" s="15" t="s">
         <v>1394</v>
       </c>
@@ -32466,58 +32766,61 @@
       <c r="C94" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="D94" s="8" t="s">
+      <c r="D94" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E94" s="8" t="s">
         <v>471</v>
       </c>
-      <c r="E94" s="8" t="s">
+      <c r="F94" s="8" t="s">
         <v>636</v>
       </c>
-      <c r="F94" s="8" t="s">
+      <c r="G94" s="8" t="s">
         <v>637</v>
       </c>
-      <c r="G94" s="9" t="s">
+      <c r="H94" s="9" t="s">
         <v>833</v>
       </c>
-      <c r="H94" s="8" t="s">
+      <c r="I94" s="8" t="s">
         <v>933</v>
       </c>
-      <c r="I94" s="16" t="s">
+      <c r="J94" s="16" t="s">
         <v>733</v>
       </c>
-      <c r="J94" s="8" t="s">
+      <c r="K94" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="K94" s="16" t="s">
+      <c r="L94" s="16" t="s">
         <v>888</v>
       </c>
-      <c r="L94" s="16" t="s">
+      <c r="M94" s="16" t="s">
         <v>1202</v>
       </c>
-      <c r="M94" s="8" t="s">
+      <c r="N94" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="N94" s="8" t="s">
+      <c r="O94" s="8" t="s">
         <v>488</v>
-      </c>
-      <c r="O94" s="8" t="s">
-        <v>189</v>
       </c>
       <c r="P94" s="8" t="s">
         <v>189</v>
       </c>
       <c r="Q94" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="R94" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="R94" s="8" t="s">
+      <c r="S94" s="8" t="s">
         <v>1035</v>
       </c>
-      <c r="S94" s="8" t="s">
+      <c r="T94" s="8" t="s">
         <v>776</v>
       </c>
-      <c r="T94" s="8"/>
       <c r="U94" s="8"/>
-    </row>
-    <row r="95" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="V94" s="8"/>
+    </row>
+    <row r="95" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="15" t="s">
         <v>1394</v>
       </c>
@@ -32527,16 +32830,18 @@
       <c r="C95" s="9" t="s">
         <v>1409</v>
       </c>
-      <c r="D95" s="8"/>
+      <c r="D95" s="9" t="s">
+        <v>1409</v>
+      </c>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
-      <c r="G95" s="9"/>
-      <c r="H95" s="8"/>
-      <c r="I95" s="16"/>
-      <c r="J95" s="8"/>
-      <c r="K95" s="16"/>
+      <c r="G95" s="8"/>
+      <c r="H95" s="9"/>
+      <c r="I95" s="8"/>
+      <c r="J95" s="16"/>
+      <c r="K95" s="8"/>
       <c r="L95" s="16"/>
-      <c r="M95" s="8"/>
+      <c r="M95" s="16"/>
       <c r="N95" s="8"/>
       <c r="O95" s="8"/>
       <c r="P95" s="8"/>
@@ -32545,8 +32850,9 @@
       <c r="S95" s="8"/>
       <c r="T95" s="8"/>
       <c r="U95" s="8"/>
-    </row>
-    <row r="96" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="V95" s="8"/>
+    </row>
+    <row r="96" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="15" t="s">
         <v>1394</v>
       </c>
@@ -32556,16 +32862,18 @@
       <c r="C96" s="9" t="s">
         <v>1411</v>
       </c>
-      <c r="D96" s="8"/>
+      <c r="D96" s="9" t="s">
+        <v>1411</v>
+      </c>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
-      <c r="G96" s="9"/>
-      <c r="H96" s="8"/>
-      <c r="I96" s="16"/>
-      <c r="J96" s="8"/>
-      <c r="K96" s="16"/>
+      <c r="G96" s="8"/>
+      <c r="H96" s="9"/>
+      <c r="I96" s="8"/>
+      <c r="J96" s="16"/>
+      <c r="K96" s="8"/>
       <c r="L96" s="16"/>
-      <c r="M96" s="8"/>
+      <c r="M96" s="16"/>
       <c r="N96" s="8"/>
       <c r="O96" s="8"/>
       <c r="P96" s="8"/>
@@ -32574,8 +32882,9 @@
       <c r="S96" s="8"/>
       <c r="T96" s="8"/>
       <c r="U96" s="8"/>
-    </row>
-    <row r="97" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="V96" s="8"/>
+    </row>
+    <row r="97" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="15" t="s">
         <v>1394</v>
       </c>
@@ -32585,16 +32894,18 @@
       <c r="C97" s="9" t="s">
         <v>1413</v>
       </c>
-      <c r="D97" s="8"/>
+      <c r="D97" s="9" t="s">
+        <v>1413</v>
+      </c>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
-      <c r="G97" s="9"/>
-      <c r="H97" s="8"/>
-      <c r="I97" s="16"/>
-      <c r="J97" s="8"/>
-      <c r="K97" s="16"/>
+      <c r="G97" s="8"/>
+      <c r="H97" s="9"/>
+      <c r="I97" s="8"/>
+      <c r="J97" s="16"/>
+      <c r="K97" s="8"/>
       <c r="L97" s="16"/>
-      <c r="M97" s="8"/>
+      <c r="M97" s="16"/>
       <c r="N97" s="8"/>
       <c r="O97" s="8"/>
       <c r="P97" s="8"/>
@@ -32603,8 +32914,9 @@
       <c r="S97" s="8"/>
       <c r="T97" s="8"/>
       <c r="U97" s="8"/>
-    </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V97" s="8"/>
+    </row>
+    <row r="98" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A98" s="15" t="s">
         <v>1395</v>
       </c>
@@ -32614,16 +32926,18 @@
       <c r="C98" s="9" t="s">
         <v>1384</v>
       </c>
-      <c r="D98" s="8"/>
-      <c r="E98" s="18"/>
+      <c r="D98" s="9" t="s">
+        <v>1384</v>
+      </c>
+      <c r="E98" s="8"/>
       <c r="F98" s="18"/>
-      <c r="G98" s="9"/>
-      <c r="H98" s="8"/>
-      <c r="I98" s="16"/>
-      <c r="J98" s="8"/>
-      <c r="K98" s="16"/>
+      <c r="G98" s="18"/>
+      <c r="H98" s="9"/>
+      <c r="I98" s="8"/>
+      <c r="J98" s="16"/>
+      <c r="K98" s="8"/>
       <c r="L98" s="16"/>
-      <c r="M98" s="8"/>
+      <c r="M98" s="16"/>
       <c r="N98" s="8"/>
       <c r="O98" s="8"/>
       <c r="P98" s="8"/>
@@ -32632,8 +32946,9 @@
       <c r="S98" s="8"/>
       <c r="T98" s="8"/>
       <c r="U98" s="8"/>
-    </row>
-    <row r="99" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="V98" s="8"/>
+    </row>
+    <row r="99" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="15" t="s">
         <v>1555</v>
       </c>
@@ -32643,16 +32958,18 @@
       <c r="C99" s="9" t="s">
         <v>1554</v>
       </c>
-      <c r="D99" s="8"/>
-      <c r="E99" s="18"/>
+      <c r="D99" s="9" t="s">
+        <v>1554</v>
+      </c>
+      <c r="E99" s="8"/>
       <c r="F99" s="18"/>
-      <c r="G99" s="9"/>
-      <c r="H99" s="8"/>
-      <c r="I99" s="16"/>
-      <c r="J99" s="8"/>
-      <c r="K99" s="16"/>
+      <c r="G99" s="18"/>
+      <c r="H99" s="9"/>
+      <c r="I99" s="8"/>
+      <c r="J99" s="16"/>
+      <c r="K99" s="8"/>
       <c r="L99" s="16"/>
-      <c r="M99" s="8"/>
+      <c r="M99" s="16"/>
       <c r="N99" s="8"/>
       <c r="O99" s="8"/>
       <c r="P99" s="8"/>
@@ -32661,8 +32978,9 @@
       <c r="S99" s="8"/>
       <c r="T99" s="8"/>
       <c r="U99" s="8"/>
-    </row>
-    <row r="100" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="V99" s="8"/>
+    </row>
+    <row r="100" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="15" t="s">
         <v>1395</v>
       </c>
@@ -32672,16 +32990,18 @@
       <c r="C100" s="9" t="s">
         <v>1537</v>
       </c>
-      <c r="D100" s="8"/>
-      <c r="E100" s="18"/>
+      <c r="D100" s="9" t="s">
+        <v>1537</v>
+      </c>
+      <c r="E100" s="8"/>
       <c r="F100" s="18"/>
-      <c r="G100" s="9"/>
-      <c r="H100" s="8"/>
-      <c r="I100" s="16"/>
-      <c r="J100" s="8"/>
-      <c r="K100" s="16"/>
+      <c r="G100" s="18"/>
+      <c r="H100" s="9"/>
+      <c r="I100" s="8"/>
+      <c r="J100" s="16"/>
+      <c r="K100" s="8"/>
       <c r="L100" s="16"/>
-      <c r="M100" s="8"/>
+      <c r="M100" s="16"/>
       <c r="N100" s="8"/>
       <c r="O100" s="8"/>
       <c r="P100" s="8"/>
@@ -32690,8 +33010,9 @@
       <c r="S100" s="8"/>
       <c r="T100" s="8"/>
       <c r="U100" s="8"/>
-    </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V100" s="8"/>
+    </row>
+    <row r="101" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A101" s="15" t="s">
         <v>1394</v>
       </c>
@@ -32701,16 +33022,18 @@
       <c r="C101" s="9" t="s">
         <v>1414</v>
       </c>
-      <c r="D101" s="8"/>
+      <c r="D101" s="9" t="s">
+        <v>1414</v>
+      </c>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
-      <c r="G101" s="9"/>
-      <c r="H101" s="8"/>
-      <c r="I101" s="16"/>
-      <c r="J101" s="8"/>
-      <c r="K101" s="16"/>
+      <c r="G101" s="8"/>
+      <c r="H101" s="9"/>
+      <c r="I101" s="8"/>
+      <c r="J101" s="16"/>
+      <c r="K101" s="8"/>
       <c r="L101" s="16"/>
-      <c r="M101" s="8"/>
+      <c r="M101" s="16"/>
       <c r="N101" s="8"/>
       <c r="O101" s="8"/>
       <c r="P101" s="8"/>
@@ -32719,8 +33042,9 @@
       <c r="S101" s="8"/>
       <c r="T101" s="8"/>
       <c r="U101" s="8"/>
-    </row>
-    <row r="102" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="V101" s="8"/>
+    </row>
+    <row r="102" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="15" t="s">
         <v>1394</v>
       </c>
@@ -32730,16 +33054,18 @@
       <c r="C102" s="9" t="s">
         <v>1415</v>
       </c>
-      <c r="D102" s="8"/>
+      <c r="D102" s="9" t="s">
+        <v>1415</v>
+      </c>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
-      <c r="G102" s="9"/>
-      <c r="H102" s="8"/>
-      <c r="I102" s="16"/>
-      <c r="J102" s="8"/>
-      <c r="K102" s="16"/>
+      <c r="G102" s="8"/>
+      <c r="H102" s="9"/>
+      <c r="I102" s="8"/>
+      <c r="J102" s="16"/>
+      <c r="K102" s="8"/>
       <c r="L102" s="16"/>
-      <c r="M102" s="8"/>
+      <c r="M102" s="16"/>
       <c r="N102" s="8"/>
       <c r="O102" s="8"/>
       <c r="P102" s="8"/>
@@ -32748,8 +33074,9 @@
       <c r="S102" s="8"/>
       <c r="T102" s="8"/>
       <c r="U102" s="8"/>
-    </row>
-    <row r="103" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="V102" s="8"/>
+    </row>
+    <row r="103" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="15" t="s">
         <v>1394</v>
       </c>
@@ -32759,16 +33086,18 @@
       <c r="C103" s="9" t="s">
         <v>1416</v>
       </c>
-      <c r="D103" s="8"/>
+      <c r="D103" s="9" t="s">
+        <v>1416</v>
+      </c>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
-      <c r="G103" s="9"/>
-      <c r="H103" s="8"/>
-      <c r="I103" s="16"/>
-      <c r="J103" s="8"/>
-      <c r="K103" s="16"/>
+      <c r="G103" s="8"/>
+      <c r="H103" s="9"/>
+      <c r="I103" s="8"/>
+      <c r="J103" s="16"/>
+      <c r="K103" s="8"/>
       <c r="L103" s="16"/>
-      <c r="M103" s="8"/>
+      <c r="M103" s="16"/>
       <c r="N103" s="8"/>
       <c r="O103" s="8"/>
       <c r="P103" s="8"/>
@@ -32777,8 +33106,9 @@
       <c r="S103" s="8"/>
       <c r="T103" s="8"/>
       <c r="U103" s="8"/>
-    </row>
-    <row r="104" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="V103" s="8"/>
+    </row>
+    <row r="104" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="15" t="s">
         <v>1394</v>
       </c>
@@ -32788,16 +33118,18 @@
       <c r="C104" s="9" t="s">
         <v>1417</v>
       </c>
-      <c r="D104" s="8"/>
+      <c r="D104" s="9" t="s">
+        <v>1417</v>
+      </c>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
-      <c r="G104" s="9"/>
-      <c r="H104" s="8"/>
-      <c r="I104" s="16"/>
-      <c r="J104" s="8"/>
-      <c r="K104" s="16"/>
+      <c r="G104" s="8"/>
+      <c r="H104" s="9"/>
+      <c r="I104" s="8"/>
+      <c r="J104" s="16"/>
+      <c r="K104" s="8"/>
       <c r="L104" s="16"/>
-      <c r="M104" s="8"/>
+      <c r="M104" s="16"/>
       <c r="N104" s="8"/>
       <c r="O104" s="8"/>
       <c r="P104" s="8"/>
@@ -32806,8 +33138,9 @@
       <c r="S104" s="8"/>
       <c r="T104" s="8"/>
       <c r="U104" s="8"/>
-    </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V104" s="8"/>
+    </row>
+    <row r="105" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A105" s="15" t="s">
         <v>1555</v>
       </c>
@@ -32817,16 +33150,18 @@
       <c r="C105" s="9" t="s">
         <v>1561</v>
       </c>
-      <c r="D105" s="8"/>
+      <c r="D105" s="9" t="s">
+        <v>1561</v>
+      </c>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
-      <c r="G105" s="9"/>
-      <c r="H105" s="8"/>
-      <c r="I105" s="16"/>
-      <c r="J105" s="8"/>
-      <c r="K105" s="16"/>
+      <c r="G105" s="8"/>
+      <c r="H105" s="9"/>
+      <c r="I105" s="8"/>
+      <c r="J105" s="16"/>
+      <c r="K105" s="8"/>
       <c r="L105" s="16"/>
-      <c r="M105" s="8"/>
+      <c r="M105" s="16"/>
       <c r="N105" s="8"/>
       <c r="O105" s="8"/>
       <c r="P105" s="8"/>
@@ -32835,8 +33170,9 @@
       <c r="S105" s="8"/>
       <c r="T105" s="8"/>
       <c r="U105" s="8"/>
-    </row>
-    <row r="106" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+      <c r="V105" s="8"/>
+    </row>
+    <row r="106" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A106" s="15" t="s">
         <v>77</v>
       </c>
@@ -32846,16 +33182,18 @@
       <c r="C106" s="9" t="s">
         <v>1563</v>
       </c>
-      <c r="D106" s="8"/>
+      <c r="D106" s="9" t="s">
+        <v>1563</v>
+      </c>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
-      <c r="G106" s="9"/>
-      <c r="H106" s="8"/>
-      <c r="I106" s="16"/>
-      <c r="J106" s="8"/>
-      <c r="K106" s="16"/>
+      <c r="G106" s="8"/>
+      <c r="H106" s="9"/>
+      <c r="I106" s="8"/>
+      <c r="J106" s="16"/>
+      <c r="K106" s="8"/>
       <c r="L106" s="16"/>
-      <c r="M106" s="8"/>
+      <c r="M106" s="16"/>
       <c r="N106" s="8"/>
       <c r="O106" s="8"/>
       <c r="P106" s="8"/>
@@ -32864,8 +33202,9 @@
       <c r="S106" s="8"/>
       <c r="T106" s="8"/>
       <c r="U106" s="8"/>
-    </row>
-    <row r="107" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="V106" s="8"/>
+    </row>
+    <row r="107" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="15" t="s">
         <v>1394</v>
       </c>
@@ -32875,16 +33214,18 @@
       <c r="C107" s="9" t="s">
         <v>1418</v>
       </c>
-      <c r="D107" s="8"/>
+      <c r="D107" s="9" t="s">
+        <v>1418</v>
+      </c>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
-      <c r="G107" s="9"/>
-      <c r="H107" s="8"/>
-      <c r="I107" s="16"/>
-      <c r="J107" s="8"/>
-      <c r="K107" s="16"/>
+      <c r="G107" s="8"/>
+      <c r="H107" s="9"/>
+      <c r="I107" s="8"/>
+      <c r="J107" s="16"/>
+      <c r="K107" s="8"/>
       <c r="L107" s="16"/>
-      <c r="M107" s="8"/>
+      <c r="M107" s="16"/>
       <c r="N107" s="8"/>
       <c r="O107" s="8"/>
       <c r="P107" s="8"/>
@@ -32893,8 +33234,9 @@
       <c r="S107" s="8"/>
       <c r="T107" s="8"/>
       <c r="U107" s="8"/>
-    </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V107" s="8"/>
+    </row>
+    <row r="108" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A108" s="15" t="s">
         <v>1395</v>
       </c>
@@ -32904,16 +33246,18 @@
       <c r="C108" s="9" t="s">
         <v>1472</v>
       </c>
-      <c r="D108" s="8"/>
+      <c r="D108" s="9" t="s">
+        <v>1472</v>
+      </c>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
-      <c r="G108" s="9"/>
-      <c r="H108" s="8"/>
-      <c r="I108" s="16"/>
-      <c r="J108" s="8"/>
-      <c r="K108" s="16"/>
+      <c r="G108" s="8"/>
+      <c r="H108" s="9"/>
+      <c r="I108" s="8"/>
+      <c r="J108" s="16"/>
+      <c r="K108" s="8"/>
       <c r="L108" s="16"/>
-      <c r="M108" s="8"/>
+      <c r="M108" s="16"/>
       <c r="N108" s="8"/>
       <c r="O108" s="8"/>
       <c r="P108" s="8"/>
@@ -32922,8 +33266,9 @@
       <c r="S108" s="8"/>
       <c r="T108" s="8"/>
       <c r="U108" s="8"/>
-    </row>
-    <row r="109" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="V108" s="8"/>
+    </row>
+    <row r="109" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="15" t="s">
         <v>1394</v>
       </c>
@@ -32933,58 +33278,61 @@
       <c r="C109" s="9" t="s">
         <v>352</v>
       </c>
-      <c r="D109" s="8" t="s">
+      <c r="D109" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="E109" s="8" t="s">
         <v>470</v>
       </c>
-      <c r="E109" s="8" t="s">
+      <c r="F109" s="8" t="s">
         <v>634</v>
       </c>
-      <c r="F109" s="8" t="s">
+      <c r="G109" s="8" t="s">
         <v>635</v>
       </c>
-      <c r="G109" s="9" t="s">
+      <c r="H109" s="9" t="s">
         <v>832</v>
       </c>
-      <c r="H109" s="8" t="s">
+      <c r="I109" s="8" t="s">
         <v>932</v>
       </c>
-      <c r="I109" s="16" t="s">
+      <c r="J109" s="16" t="s">
         <v>732</v>
       </c>
-      <c r="J109" s="8" t="s">
+      <c r="K109" s="8" t="s">
         <v>1125</v>
       </c>
-      <c r="K109" s="16" t="s">
+      <c r="L109" s="16" t="s">
         <v>887</v>
       </c>
-      <c r="L109" s="16" t="s">
+      <c r="M109" s="16" t="s">
         <v>1201</v>
       </c>
-      <c r="M109" s="8" t="s">
+      <c r="N109" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="N109" s="8" t="s">
+      <c r="O109" s="8" t="s">
         <v>548</v>
       </c>
-      <c r="O109" s="8" t="s">
+      <c r="P109" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="P109" s="8" t="s">
+      <c r="Q109" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="Q109" s="8" t="s">
+      <c r="R109" s="8" t="s">
         <v>1020</v>
       </c>
-      <c r="R109" s="8" t="s">
+      <c r="S109" s="8" t="s">
         <v>1034</v>
       </c>
-      <c r="S109" s="8" t="s">
+      <c r="T109" s="8" t="s">
         <v>775</v>
       </c>
-      <c r="T109" s="8"/>
       <c r="U109" s="8"/>
-    </row>
-    <row r="110" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="V109" s="8"/>
+    </row>
+    <row r="110" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="15" t="s">
         <v>1394</v>
       </c>
@@ -32994,58 +33342,61 @@
       <c r="C110" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D110" s="8" t="s">
+      <c r="D110" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E110" s="8" t="s">
         <v>472</v>
-      </c>
-      <c r="E110" s="11" t="s">
-        <v>638</v>
       </c>
       <c r="F110" s="11" t="s">
         <v>638</v>
       </c>
-      <c r="G110" s="9" t="s">
+      <c r="G110" s="11" t="s">
+        <v>638</v>
+      </c>
+      <c r="H110" s="9" t="s">
         <v>834</v>
       </c>
-      <c r="H110" s="8" t="s">
+      <c r="I110" s="8" t="s">
         <v>934</v>
       </c>
-      <c r="I110" s="16" t="s">
+      <c r="J110" s="16" t="s">
         <v>734</v>
       </c>
-      <c r="J110" s="8" t="s">
+      <c r="K110" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="K110" s="16" t="s">
+      <c r="L110" s="16" t="s">
         <v>889</v>
       </c>
-      <c r="L110" s="16" t="s">
+      <c r="M110" s="16" t="s">
         <v>1203</v>
-      </c>
-      <c r="M110" s="8" t="s">
-        <v>170</v>
       </c>
       <c r="N110" s="8" t="s">
         <v>170</v>
       </c>
       <c r="O110" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="P110" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="P110" s="8" t="s">
+      <c r="Q110" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="Q110" s="11" t="s">
+      <c r="R110" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="R110" s="8" t="s">
+      <c r="S110" s="8" t="s">
         <v>1036</v>
       </c>
-      <c r="S110" s="8" t="s">
+      <c r="T110" s="8" t="s">
         <v>777</v>
       </c>
-      <c r="T110" s="8"/>
       <c r="U110" s="8"/>
-    </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V110" s="8"/>
+    </row>
+    <row r="111" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A111" s="15" t="s">
         <v>1394</v>
       </c>
@@ -33055,58 +33406,61 @@
       <c r="C111" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D111" s="8" t="s">
+      <c r="D111" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E111" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="E111" s="8" t="s">
+      <c r="F111" s="8" t="s">
         <v>639</v>
       </c>
-      <c r="F111" s="8" t="s">
+      <c r="G111" s="8" t="s">
         <v>640</v>
       </c>
-      <c r="G111" s="9" t="s">
+      <c r="H111" s="9" t="s">
         <v>835</v>
       </c>
-      <c r="H111" s="8" t="s">
+      <c r="I111" s="8" t="s">
         <v>935</v>
       </c>
-      <c r="I111" s="16" t="s">
+      <c r="J111" s="16" t="s">
         <v>735</v>
       </c>
-      <c r="J111" s="8" t="s">
+      <c r="K111" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="K111" s="16" t="s">
+      <c r="L111" s="16" t="s">
         <v>890</v>
       </c>
-      <c r="L111" s="16" t="s">
+      <c r="M111" s="16" t="s">
         <v>1204</v>
-      </c>
-      <c r="M111" s="8" t="s">
-        <v>171</v>
       </c>
       <c r="N111" s="8" t="s">
         <v>171</v>
       </c>
       <c r="O111" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="P111" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="P111" s="8" t="s">
+      <c r="Q111" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="Q111" s="8" t="s">
+      <c r="R111" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="R111" s="8" t="s">
+      <c r="S111" s="8" t="s">
         <v>1037</v>
       </c>
-      <c r="S111" s="8" t="s">
+      <c r="T111" s="8" t="s">
         <v>778</v>
       </c>
-      <c r="T111" s="8"/>
       <c r="U111" s="8"/>
-    </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V111" s="8"/>
+    </row>
+    <row r="112" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A112" s="15" t="s">
         <v>1395</v>
       </c>
@@ -33116,16 +33470,18 @@
       <c r="C112" s="9" t="s">
         <v>1473</v>
       </c>
-      <c r="D112" s="8"/>
+      <c r="D112" s="9" t="s">
+        <v>1473</v>
+      </c>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
-      <c r="G112" s="9"/>
-      <c r="H112" s="8"/>
-      <c r="I112" s="16"/>
-      <c r="J112" s="8"/>
-      <c r="K112" s="16"/>
+      <c r="G112" s="8"/>
+      <c r="H112" s="9"/>
+      <c r="I112" s="8"/>
+      <c r="J112" s="16"/>
+      <c r="K112" s="8"/>
       <c r="L112" s="16"/>
-      <c r="M112" s="8"/>
+      <c r="M112" s="16"/>
       <c r="N112" s="8"/>
       <c r="O112" s="8"/>
       <c r="P112" s="8"/>
@@ -33134,8 +33490,9 @@
       <c r="S112" s="8"/>
       <c r="T112" s="8"/>
       <c r="U112" s="8"/>
-    </row>
-    <row r="113" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="V112" s="8"/>
+    </row>
+    <row r="113" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="15" t="s">
         <v>1394</v>
       </c>
@@ -33145,58 +33502,61 @@
       <c r="C113" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D113" s="8" t="s">
+      <c r="D113" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E113" s="8" t="s">
         <v>473</v>
       </c>
-      <c r="E113" s="8" t="s">
+      <c r="F113" s="8" t="s">
         <v>643</v>
       </c>
-      <c r="F113" s="8" t="s">
+      <c r="G113" s="8" t="s">
         <v>644</v>
       </c>
-      <c r="G113" s="9" t="s">
+      <c r="H113" s="9" t="s">
         <v>837</v>
       </c>
-      <c r="H113" s="8" t="s">
+      <c r="I113" s="8" t="s">
         <v>937</v>
       </c>
-      <c r="I113" s="16" t="s">
+      <c r="J113" s="16" t="s">
         <v>1141</v>
       </c>
-      <c r="J113" s="8" t="s">
+      <c r="K113" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="K113" s="16" t="s">
+      <c r="L113" s="16" t="s">
         <v>892</v>
       </c>
-      <c r="L113" s="16" t="s">
+      <c r="M113" s="16" t="s">
         <v>1205</v>
       </c>
-      <c r="M113" s="8" t="s">
+      <c r="N113" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="N113" s="8" t="s">
+      <c r="O113" s="8" t="s">
         <v>489</v>
       </c>
-      <c r="O113" s="8" t="s">
+      <c r="P113" s="8" t="s">
         <v>692</v>
       </c>
-      <c r="P113" s="8" t="s">
+      <c r="Q113" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="Q113" s="8" t="s">
+      <c r="R113" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="R113" s="8" t="s">
+      <c r="S113" s="8" t="s">
         <v>1038</v>
       </c>
-      <c r="S113" s="8" t="s">
+      <c r="T113" s="8" t="s">
         <v>779</v>
       </c>
-      <c r="T113" s="8"/>
       <c r="U113" s="8"/>
-    </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V113" s="8"/>
+    </row>
+    <row r="114" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A114" s="15" t="s">
         <v>77</v>
       </c>
@@ -33206,58 +33566,61 @@
       <c r="C114" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="D114" s="8" t="s">
+      <c r="D114" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="E114" s="8" t="s">
         <v>385</v>
-      </c>
-      <c r="E114" s="8" t="s">
-        <v>386</v>
       </c>
       <c r="F114" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="G114" s="9" t="s">
+      <c r="G114" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="H114" s="9" t="s">
         <v>387</v>
       </c>
-      <c r="H114" s="8" t="s">
+      <c r="I114" s="8" t="s">
         <v>910</v>
       </c>
-      <c r="I114" s="16" t="s">
+      <c r="J114" s="16" t="s">
         <v>388</v>
       </c>
-      <c r="J114" s="8" t="s">
+      <c r="K114" s="8" t="s">
         <v>389</v>
       </c>
-      <c r="K114" s="16" t="s">
+      <c r="L114" s="16" t="s">
         <v>862</v>
       </c>
-      <c r="L114" s="16" t="s">
+      <c r="M114" s="16" t="s">
         <v>1176</v>
-      </c>
-      <c r="M114" s="8" t="s">
-        <v>390</v>
       </c>
       <c r="N114" s="8" t="s">
         <v>390</v>
       </c>
       <c r="O114" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="P114" s="8" t="s">
         <v>675</v>
       </c>
-      <c r="P114" s="8" t="s">
+      <c r="Q114" s="8" t="s">
         <v>391</v>
       </c>
-      <c r="Q114" s="8" t="s">
+      <c r="R114" s="8" t="s">
         <v>392</v>
       </c>
-      <c r="R114" s="8" t="s">
+      <c r="S114" s="8" t="s">
         <v>510</v>
       </c>
-      <c r="S114" s="8" t="s">
+      <c r="T114" s="8" t="s">
         <v>758</v>
       </c>
-      <c r="T114" s="8"/>
       <c r="U114" s="8"/>
-    </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V114" s="8"/>
+    </row>
+    <row r="115" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A115" s="15" t="s">
         <v>77</v>
       </c>
@@ -33267,58 +33630,61 @@
       <c r="C115" s="9" t="s">
         <v>393</v>
       </c>
-      <c r="D115" s="8" t="s">
+      <c r="D115" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="E115" s="8" t="s">
         <v>468</v>
       </c>
-      <c r="E115" s="8" t="s">
+      <c r="F115" s="8" t="s">
         <v>627</v>
       </c>
-      <c r="F115" s="8" t="s">
+      <c r="G115" s="8" t="s">
         <v>628</v>
       </c>
-      <c r="G115" s="9" t="s">
+      <c r="H115" s="9" t="s">
         <v>828</v>
       </c>
-      <c r="H115" s="8" t="s">
+      <c r="I115" s="8" t="s">
         <v>929</v>
       </c>
-      <c r="I115" s="16" t="s">
+      <c r="J115" s="16" t="s">
         <v>730</v>
       </c>
-      <c r="J115" s="8" t="s">
+      <c r="K115" s="8" t="s">
         <v>970</v>
       </c>
-      <c r="K115" s="16" t="s">
+      <c r="L115" s="16" t="s">
         <v>883</v>
       </c>
-      <c r="L115" s="16" t="s">
+      <c r="M115" s="16" t="s">
         <v>1197</v>
       </c>
-      <c r="M115" s="8" t="s">
+      <c r="N115" s="8" t="s">
         <v>399</v>
       </c>
-      <c r="N115" s="8" t="s">
+      <c r="O115" s="8" t="s">
         <v>487</v>
       </c>
-      <c r="O115" s="8" t="s">
+      <c r="P115" s="8" t="s">
         <v>687</v>
       </c>
-      <c r="P115" s="8" t="s">
+      <c r="Q115" s="8" t="s">
         <v>401</v>
       </c>
-      <c r="Q115" s="8" t="s">
+      <c r="R115" s="8" t="s">
         <v>1018</v>
       </c>
-      <c r="R115" s="8" t="s">
+      <c r="S115" s="8" t="s">
         <v>515</v>
       </c>
-      <c r="S115" s="8" t="s">
+      <c r="T115" s="8" t="s">
         <v>773</v>
       </c>
-      <c r="T115" s="8"/>
       <c r="U115" s="8"/>
-    </row>
-    <row r="116" spans="1:21" ht="241.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V115" s="8"/>
+    </row>
+    <row r="116" spans="1:22" ht="241.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="15" t="s">
         <v>77</v>
       </c>
@@ -33328,58 +33694,61 @@
       <c r="C116" s="9" t="s">
         <v>1115</v>
       </c>
-      <c r="D116" s="8" t="s">
+      <c r="D116" s="9" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E116" s="8" t="s">
         <v>787</v>
       </c>
-      <c r="E116" s="8" t="s">
+      <c r="F116" s="8" t="s">
         <v>979</v>
       </c>
-      <c r="F116" s="8" t="s">
+      <c r="G116" s="8" t="s">
         <v>980</v>
       </c>
-      <c r="G116" s="9" t="s">
+      <c r="H116" s="9" t="s">
         <v>807</v>
       </c>
-      <c r="H116" s="8" t="s">
+      <c r="I116" s="8" t="s">
         <v>1044</v>
       </c>
-      <c r="I116" s="16" t="s">
+      <c r="J116" s="16" t="s">
         <v>1045</v>
       </c>
-      <c r="J116" s="8" t="s">
+      <c r="K116" s="8" t="s">
         <v>1046</v>
       </c>
-      <c r="K116" s="16" t="s">
+      <c r="L116" s="16" t="s">
         <v>863</v>
       </c>
-      <c r="L116" s="16" t="s">
+      <c r="M116" s="16" t="s">
         <v>1212</v>
       </c>
-      <c r="M116" s="8" t="s">
+      <c r="N116" s="8" t="s">
         <v>1047</v>
       </c>
-      <c r="N116" s="8" t="s">
+      <c r="O116" s="8" t="s">
         <v>1048</v>
       </c>
-      <c r="O116" s="8" t="s">
+      <c r="P116" s="8" t="s">
         <v>676</v>
       </c>
-      <c r="P116" s="8" t="s">
+      <c r="Q116" s="8" t="s">
         <v>1049</v>
       </c>
-      <c r="Q116" s="8" t="s">
+      <c r="R116" s="8" t="s">
         <v>1050</v>
       </c>
-      <c r="R116" s="8" t="s">
+      <c r="S116" s="8" t="s">
         <v>511</v>
       </c>
-      <c r="S116" s="8" t="s">
+      <c r="T116" s="8" t="s">
         <v>1051</v>
       </c>
-      <c r="T116" s="8"/>
       <c r="U116" s="8"/>
-    </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V116" s="8"/>
+    </row>
+    <row r="117" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A117" s="15" t="s">
         <v>77</v>
       </c>
@@ -33389,58 +33758,61 @@
       <c r="C117" s="9" t="s">
         <v>394</v>
       </c>
-      <c r="D117" s="8" t="s">
+      <c r="D117" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="E117" s="8" t="s">
         <v>398</v>
-      </c>
-      <c r="E117" s="11" t="s">
-        <v>629</v>
       </c>
       <c r="F117" s="11" t="s">
         <v>629</v>
       </c>
-      <c r="G117" s="9" t="s">
+      <c r="G117" s="11" t="s">
+        <v>629</v>
+      </c>
+      <c r="H117" s="9" t="s">
         <v>829</v>
       </c>
-      <c r="H117" s="8" t="s">
+      <c r="I117" s="8" t="s">
         <v>397</v>
       </c>
-      <c r="I117" s="16" t="s">
+      <c r="J117" s="16" t="s">
         <v>731</v>
       </c>
-      <c r="J117" s="8" t="s">
+      <c r="K117" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="K117" s="16" t="s">
+      <c r="L117" s="16" t="s">
         <v>884</v>
       </c>
-      <c r="L117" s="16" t="s">
+      <c r="M117" s="16" t="s">
         <v>1198</v>
       </c>
-      <c r="M117" s="8" t="s">
+      <c r="N117" s="8" t="s">
         <v>400</v>
       </c>
-      <c r="N117" s="8" t="s">
+      <c r="O117" s="8" t="s">
         <v>545</v>
       </c>
-      <c r="O117" s="8" t="s">
+      <c r="P117" s="8" t="s">
         <v>688</v>
       </c>
-      <c r="P117" s="8" t="s">
+      <c r="Q117" s="8" t="s">
         <v>402</v>
       </c>
-      <c r="Q117" s="11" t="s">
+      <c r="R117" s="11" t="s">
         <v>403</v>
       </c>
-      <c r="R117" s="8" t="s">
+      <c r="S117" s="8" t="s">
         <v>516</v>
       </c>
-      <c r="S117" s="8" t="s">
+      <c r="T117" s="8" t="s">
         <v>774</v>
       </c>
-      <c r="T117" s="8"/>
       <c r="U117" s="8"/>
-    </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V117" s="8"/>
+    </row>
+    <row r="118" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A118" s="15" t="s">
         <v>77</v>
       </c>
@@ -33450,58 +33822,61 @@
       <c r="C118" s="9" t="s">
         <v>396</v>
       </c>
-      <c r="D118" s="8" t="s">
+      <c r="D118" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="E118" s="8" t="s">
         <v>469</v>
       </c>
-      <c r="E118" s="8" t="s">
+      <c r="F118" s="8" t="s">
         <v>630</v>
       </c>
-      <c r="F118" s="8" t="s">
+      <c r="G118" s="8" t="s">
         <v>631</v>
       </c>
-      <c r="G118" s="9" t="s">
+      <c r="H118" s="9" t="s">
         <v>830</v>
       </c>
-      <c r="H118" s="8" t="s">
+      <c r="I118" s="8" t="s">
         <v>930</v>
       </c>
-      <c r="I118" s="16" t="s">
+      <c r="J118" s="16" t="s">
         <v>1139</v>
       </c>
-      <c r="J118" s="8" t="s">
+      <c r="K118" s="8" t="s">
         <v>971</v>
       </c>
-      <c r="K118" s="16" t="s">
+      <c r="L118" s="16" t="s">
         <v>885</v>
       </c>
-      <c r="L118" s="16" t="s">
+      <c r="M118" s="16" t="s">
         <v>1199</v>
-      </c>
-      <c r="M118" s="8" t="s">
-        <v>546</v>
       </c>
       <c r="N118" s="8" t="s">
         <v>546</v>
       </c>
       <c r="O118" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="P118" s="8" t="s">
         <v>689</v>
       </c>
-      <c r="P118" s="8" t="s">
+      <c r="Q118" s="8" t="s">
         <v>1053</v>
       </c>
-      <c r="Q118" s="8" t="s">
+      <c r="R118" s="8" t="s">
         <v>1019</v>
       </c>
-      <c r="R118" s="8" t="s">
+      <c r="S118" s="8" t="s">
         <v>517</v>
       </c>
-      <c r="S118" s="8" t="s">
+      <c r="T118" s="8" t="s">
         <v>784</v>
       </c>
-      <c r="T118" s="8"/>
       <c r="U118" s="8"/>
-    </row>
-    <row r="119" spans="1:21" ht="210" x14ac:dyDescent="0.25">
+      <c r="V118" s="8"/>
+    </row>
+    <row r="119" spans="1:22" ht="210" x14ac:dyDescent="0.25">
       <c r="A119" s="15" t="s">
         <v>77</v>
       </c>
@@ -33511,58 +33886,61 @@
       <c r="C119" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="D119" s="8" t="s">
+      <c r="D119" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E119" s="8" t="s">
         <v>534</v>
       </c>
-      <c r="E119" s="8" t="s">
+      <c r="F119" s="8" t="s">
         <v>632</v>
       </c>
-      <c r="F119" s="8" t="s">
+      <c r="G119" s="8" t="s">
         <v>633</v>
       </c>
-      <c r="G119" s="10" t="s">
+      <c r="H119" s="10" t="s">
         <v>831</v>
       </c>
-      <c r="H119" s="11" t="s">
+      <c r="I119" s="11" t="s">
         <v>931</v>
       </c>
-      <c r="I119" s="16" t="s">
+      <c r="J119" s="16" t="s">
         <v>1054</v>
       </c>
-      <c r="J119" s="11" t="s">
+      <c r="K119" s="11" t="s">
         <v>1077</v>
       </c>
-      <c r="K119" s="16" t="s">
+      <c r="L119" s="16" t="s">
         <v>886</v>
       </c>
-      <c r="L119" s="16" t="s">
+      <c r="M119" s="16" t="s">
         <v>1200</v>
       </c>
-      <c r="M119" s="8" t="s">
+      <c r="N119" s="8" t="s">
         <v>1099</v>
       </c>
-      <c r="N119" s="11" t="s">
+      <c r="O119" s="11" t="s">
         <v>547</v>
       </c>
-      <c r="O119" s="8" t="s">
+      <c r="P119" s="8" t="s">
         <v>690</v>
       </c>
-      <c r="P119" s="8" t="s">
+      <c r="Q119" s="8" t="s">
         <v>945</v>
       </c>
-      <c r="Q119" s="8" t="s">
+      <c r="R119" s="8" t="s">
         <v>1081</v>
       </c>
-      <c r="R119" s="8" t="s">
+      <c r="S119" s="8" t="s">
         <v>1090</v>
       </c>
-      <c r="S119" s="8" t="s">
+      <c r="T119" s="8" t="s">
         <v>1055</v>
       </c>
-      <c r="T119" s="8"/>
       <c r="U119" s="8"/>
-    </row>
-    <row r="120" spans="1:21" ht="210" x14ac:dyDescent="0.25">
+      <c r="V119" s="8"/>
+    </row>
+    <row r="120" spans="1:22" ht="210" x14ac:dyDescent="0.25">
       <c r="A120" s="15" t="s">
         <v>77</v>
       </c>
@@ -33572,58 +33950,61 @@
       <c r="C120" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="D120" s="8" t="s">
+      <c r="D120" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E120" s="8" t="s">
         <v>535</v>
       </c>
-      <c r="E120" s="8" t="s">
+      <c r="F120" s="8" t="s">
         <v>641</v>
       </c>
-      <c r="F120" s="8" t="s">
+      <c r="G120" s="8" t="s">
         <v>642</v>
       </c>
-      <c r="G120" s="10" t="s">
+      <c r="H120" s="10" t="s">
         <v>836</v>
       </c>
-      <c r="H120" s="11" t="s">
+      <c r="I120" s="11" t="s">
         <v>936</v>
       </c>
-      <c r="I120" s="16" t="s">
+      <c r="J120" s="16" t="s">
         <v>1140</v>
       </c>
-      <c r="J120" s="11" t="s">
+      <c r="K120" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="K120" s="16" t="s">
+      <c r="L120" s="16" t="s">
         <v>891</v>
       </c>
-      <c r="L120" s="16" t="s">
+      <c r="M120" s="16" t="s">
         <v>1217</v>
       </c>
-      <c r="M120" s="8" t="s">
+      <c r="N120" s="8" t="s">
         <v>1100</v>
       </c>
-      <c r="N120" s="11" t="s">
+      <c r="O120" s="11" t="s">
         <v>549</v>
       </c>
-      <c r="O120" s="8" t="s">
+      <c r="P120" s="8" t="s">
         <v>691</v>
       </c>
-      <c r="P120" s="8" t="s">
+      <c r="Q120" s="8" t="s">
         <v>1056</v>
       </c>
-      <c r="Q120" s="8" t="s">
+      <c r="R120" s="8" t="s">
         <v>1021</v>
       </c>
-      <c r="R120" s="8" t="s">
+      <c r="S120" s="8" t="s">
         <v>1091</v>
       </c>
-      <c r="S120" s="8" t="s">
+      <c r="T120" s="8" t="s">
         <v>785</v>
       </c>
-      <c r="T120" s="8"/>
       <c r="U120" s="8"/>
-    </row>
-    <row r="121" spans="1:21" ht="105" x14ac:dyDescent="0.25">
+      <c r="V120" s="8"/>
+    </row>
+    <row r="121" spans="1:22" ht="105" x14ac:dyDescent="0.25">
       <c r="A121" s="15" t="s">
         <v>77</v>
       </c>
@@ -33633,26 +34014,29 @@
       <c r="C121" s="10" t="s">
         <v>1535</v>
       </c>
-      <c r="D121" s="8"/>
+      <c r="D121" s="10" t="s">
+        <v>1535</v>
+      </c>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
-      <c r="G121" s="10"/>
-      <c r="H121" s="11"/>
-      <c r="I121" s="16"/>
-      <c r="J121" s="11"/>
-      <c r="K121" s="16"/>
+      <c r="G121" s="8"/>
+      <c r="H121" s="10"/>
+      <c r="I121" s="11"/>
+      <c r="J121" s="16"/>
+      <c r="K121" s="11"/>
       <c r="L121" s="16"/>
-      <c r="M121" s="8"/>
-      <c r="N121" s="11"/>
-      <c r="O121" s="8"/>
+      <c r="M121" s="16"/>
+      <c r="N121" s="8"/>
+      <c r="O121" s="11"/>
       <c r="P121" s="8"/>
       <c r="Q121" s="8"/>
       <c r="R121" s="8"/>
       <c r="S121" s="8"/>
       <c r="T121" s="8"/>
       <c r="U121" s="8"/>
-    </row>
-    <row r="122" spans="1:21" ht="105" x14ac:dyDescent="0.25">
+      <c r="V121" s="8"/>
+    </row>
+    <row r="122" spans="1:22" ht="105" x14ac:dyDescent="0.25">
       <c r="A122" s="15" t="s">
         <v>77</v>
       </c>
@@ -33662,26 +34046,29 @@
       <c r="C122" s="10" t="s">
         <v>1521</v>
       </c>
-      <c r="D122" s="8"/>
+      <c r="D122" s="10" t="s">
+        <v>1521</v>
+      </c>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
-      <c r="G122" s="10"/>
-      <c r="H122" s="11"/>
-      <c r="I122" s="16"/>
-      <c r="J122" s="11"/>
-      <c r="K122" s="16"/>
+      <c r="G122" s="8"/>
+      <c r="H122" s="10"/>
+      <c r="I122" s="11"/>
+      <c r="J122" s="16"/>
+      <c r="K122" s="11"/>
       <c r="L122" s="16"/>
-      <c r="M122" s="8"/>
-      <c r="N122" s="11"/>
-      <c r="O122" s="8"/>
+      <c r="M122" s="16"/>
+      <c r="N122" s="8"/>
+      <c r="O122" s="11"/>
       <c r="P122" s="8"/>
       <c r="Q122" s="8"/>
       <c r="R122" s="8"/>
       <c r="S122" s="8"/>
       <c r="T122" s="8"/>
       <c r="U122" s="8"/>
-    </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V122" s="8"/>
+    </row>
+    <row r="123" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A123" s="15" t="s">
         <v>77</v>
       </c>
@@ -33691,16 +34078,18 @@
       <c r="C123" s="9" t="s">
         <v>1514</v>
       </c>
-      <c r="D123" s="8"/>
+      <c r="D123" s="9" t="s">
+        <v>1514</v>
+      </c>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
-      <c r="G123" s="9"/>
-      <c r="H123" s="8"/>
-      <c r="I123" s="16"/>
-      <c r="J123" s="8"/>
-      <c r="K123" s="16"/>
+      <c r="G123" s="8"/>
+      <c r="H123" s="9"/>
+      <c r="I123" s="8"/>
+      <c r="J123" s="16"/>
+      <c r="K123" s="8"/>
       <c r="L123" s="16"/>
-      <c r="M123" s="8"/>
+      <c r="M123" s="16"/>
       <c r="N123" s="8"/>
       <c r="O123" s="8"/>
       <c r="P123" s="8"/>
@@ -33709,8 +34098,9 @@
       <c r="S123" s="8"/>
       <c r="T123" s="8"/>
       <c r="U123" s="8"/>
-    </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V123" s="8"/>
+    </row>
+    <row r="124" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A124" s="15" t="s">
         <v>77</v>
       </c>
@@ -33720,58 +34110,61 @@
       <c r="C124" s="9" t="s">
         <v>405</v>
       </c>
-      <c r="D124" s="8" t="s">
+      <c r="D124" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="E124" s="8" t="s">
         <v>413</v>
       </c>
-      <c r="E124" s="8" t="s">
+      <c r="F124" s="8" t="s">
         <v>982</v>
       </c>
-      <c r="F124" s="8" t="s">
+      <c r="G124" s="8" t="s">
         <v>645</v>
       </c>
-      <c r="G124" s="9" t="s">
+      <c r="H124" s="9" t="s">
         <v>417</v>
       </c>
-      <c r="H124" s="8" t="s">
+      <c r="I124" s="8" t="s">
         <v>421</v>
       </c>
-      <c r="I124" s="16" t="s">
+      <c r="J124" s="16" t="s">
         <v>423</v>
       </c>
-      <c r="J124" s="8" t="s">
+      <c r="K124" s="8" t="s">
         <v>425</v>
       </c>
-      <c r="K124" s="16" t="s">
+      <c r="L124" s="16" t="s">
         <v>893</v>
       </c>
-      <c r="L124" s="16" t="s">
+      <c r="M124" s="16" t="s">
         <v>1206</v>
-      </c>
-      <c r="M124" s="8" t="s">
-        <v>490</v>
       </c>
       <c r="N124" s="8" t="s">
         <v>490</v>
       </c>
       <c r="O124" s="8" t="s">
-        <v>431</v>
+        <v>490</v>
       </c>
       <c r="P124" s="8" t="s">
         <v>431</v>
       </c>
       <c r="Q124" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="R124" s="8" t="s">
         <v>444</v>
       </c>
-      <c r="R124" s="8" t="s">
+      <c r="S124" s="8" t="s">
         <v>437</v>
       </c>
-      <c r="S124" s="8" t="s">
+      <c r="T124" s="8" t="s">
         <v>442</v>
       </c>
-      <c r="T124" s="8"/>
       <c r="U124" s="8"/>
-    </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V124" s="8"/>
+    </row>
+    <row r="125" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A125" s="15" t="s">
         <v>77</v>
       </c>
@@ -33781,58 +34174,61 @@
       <c r="C125" s="9" t="s">
         <v>410</v>
       </c>
-      <c r="D125" s="8" t="s">
+      <c r="D125" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="E125" s="8" t="s">
         <v>414</v>
       </c>
-      <c r="E125" s="8" t="s">
+      <c r="F125" s="8" t="s">
         <v>646</v>
       </c>
-      <c r="F125" s="8" t="s">
+      <c r="G125" s="8" t="s">
         <v>647</v>
       </c>
-      <c r="G125" s="9" t="s">
+      <c r="H125" s="9" t="s">
         <v>418</v>
       </c>
-      <c r="H125" s="8" t="s">
+      <c r="I125" s="8" t="s">
         <v>938</v>
       </c>
-      <c r="I125" s="16" t="s">
+      <c r="J125" s="16" t="s">
         <v>736</v>
       </c>
-      <c r="J125" s="8" t="s">
+      <c r="K125" s="8" t="s">
         <v>426</v>
       </c>
-      <c r="K125" s="16" t="s">
+      <c r="L125" s="16" t="s">
         <v>894</v>
       </c>
-      <c r="L125" s="16" t="s">
+      <c r="M125" s="16" t="s">
         <v>443</v>
-      </c>
-      <c r="M125" s="8" t="s">
-        <v>428</v>
       </c>
       <c r="N125" s="8" t="s">
         <v>428</v>
       </c>
       <c r="O125" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="P125" s="8" t="s">
         <v>693</v>
       </c>
-      <c r="P125" s="8" t="s">
+      <c r="Q125" s="8" t="s">
         <v>432</v>
       </c>
-      <c r="Q125" s="8" t="s">
+      <c r="R125" s="8" t="s">
         <v>435</v>
       </c>
-      <c r="R125" s="8" t="s">
+      <c r="S125" s="8" t="s">
         <v>518</v>
       </c>
-      <c r="S125" s="8" t="s">
+      <c r="T125" s="8" t="s">
         <v>441</v>
       </c>
-      <c r="T125" s="8"/>
       <c r="U125" s="8"/>
-    </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V125" s="8"/>
+    </row>
+    <row r="126" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A126" s="15" t="s">
         <v>77</v>
       </c>
@@ -33842,35 +34238,35 @@
       <c r="C126" s="9" t="s">
         <v>411</v>
       </c>
-      <c r="D126" s="8" t="s">
+      <c r="D126" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="E126" s="8" t="s">
         <v>415</v>
       </c>
-      <c r="E126" s="8" t="s">
+      <c r="F126" s="8" t="s">
         <v>648</v>
       </c>
-      <c r="F126" s="8" t="s">
+      <c r="G126" s="8" t="s">
         <v>649</v>
       </c>
-      <c r="G126" s="9" t="s">
+      <c r="H126" s="9" t="s">
         <v>419</v>
       </c>
-      <c r="H126" s="8" t="s">
+      <c r="I126" s="8" t="s">
         <v>939</v>
       </c>
-      <c r="I126" s="16" t="s">
+      <c r="J126" s="16" t="s">
         <v>737</v>
       </c>
-      <c r="J126" s="8" t="s">
+      <c r="K126" s="8" t="s">
         <v>972</v>
       </c>
-      <c r="K126" s="16" t="s">
+      <c r="L126" s="16" t="s">
         <v>895</v>
       </c>
-      <c r="L126" s="16" t="s">
+      <c r="M126" s="16" t="s">
         <v>1207</v>
-      </c>
-      <c r="M126" s="8" t="s">
-        <v>429</v>
       </c>
       <c r="N126" s="8" t="s">
         <v>429</v>
@@ -33882,18 +34278,21 @@
         <v>429</v>
       </c>
       <c r="Q126" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="R126" s="8" t="s">
         <v>436</v>
       </c>
-      <c r="R126" s="8" t="s">
+      <c r="S126" s="8" t="s">
         <v>519</v>
       </c>
-      <c r="S126" s="8" t="s">
+      <c r="T126" s="8" t="s">
         <v>440</v>
       </c>
-      <c r="T126" s="8"/>
       <c r="U126" s="8"/>
-    </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V126" s="8"/>
+    </row>
+    <row r="127" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A127" s="15" t="s">
         <v>77</v>
       </c>
@@ -33903,58 +34302,61 @@
       <c r="C127" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="D127" s="8" t="s">
+      <c r="D127" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="E127" s="8" t="s">
         <v>416</v>
       </c>
-      <c r="E127" s="8" t="s">
+      <c r="F127" s="8" t="s">
         <v>650</v>
       </c>
-      <c r="F127" s="8" t="s">
+      <c r="G127" s="8" t="s">
         <v>651</v>
       </c>
-      <c r="G127" s="9" t="s">
+      <c r="H127" s="9" t="s">
         <v>420</v>
       </c>
-      <c r="H127" s="8" t="s">
+      <c r="I127" s="8" t="s">
         <v>422</v>
       </c>
-      <c r="I127" s="16" t="s">
+      <c r="J127" s="16" t="s">
         <v>424</v>
       </c>
-      <c r="J127" s="8" t="s">
+      <c r="K127" s="8" t="s">
         <v>427</v>
       </c>
-      <c r="K127" s="16" t="s">
+      <c r="L127" s="16" t="s">
         <v>896</v>
       </c>
-      <c r="L127" s="16" t="s">
+      <c r="M127" s="16" t="s">
         <v>1208</v>
-      </c>
-      <c r="M127" s="8" t="s">
-        <v>430</v>
       </c>
       <c r="N127" s="8" t="s">
         <v>430</v>
       </c>
       <c r="O127" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="P127" s="8" t="s">
         <v>433</v>
       </c>
-      <c r="P127" s="8" t="s">
+      <c r="Q127" s="8" t="s">
         <v>434</v>
       </c>
-      <c r="Q127" s="8" t="s">
+      <c r="R127" s="8" t="s">
         <v>1022</v>
       </c>
-      <c r="R127" s="8" t="s">
+      <c r="S127" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="S127" s="8" t="s">
+      <c r="T127" s="8" t="s">
         <v>439</v>
       </c>
-      <c r="T127" s="8"/>
       <c r="U127" s="8"/>
-    </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V127" s="8"/>
+    </row>
+    <row r="128" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A128" s="15" t="s">
         <v>77</v>
       </c>
@@ -33965,57 +34367,60 @@
         <v>566</v>
       </c>
       <c r="D128" s="9" t="s">
+        <v>566</v>
+      </c>
+      <c r="E128" s="9" t="s">
         <v>568</v>
       </c>
-      <c r="E128" s="9" t="s">
+      <c r="F128" s="9" t="s">
         <v>656</v>
       </c>
-      <c r="F128" s="9" t="s">
+      <c r="G128" s="9" t="s">
         <v>655</v>
       </c>
-      <c r="G128" s="9" t="s">
+      <c r="H128" s="9" t="s">
         <v>838</v>
       </c>
-      <c r="H128" s="9" t="s">
+      <c r="I128" s="9" t="s">
         <v>743</v>
       </c>
-      <c r="I128" s="9" t="s">
+      <c r="J128" s="9" t="s">
         <v>742</v>
       </c>
-      <c r="J128" s="9" t="s">
+      <c r="K128" s="9" t="s">
         <v>744</v>
       </c>
-      <c r="K128" s="9" t="s">
+      <c r="L128" s="9" t="s">
         <v>897</v>
       </c>
-      <c r="L128" s="9" t="s">
+      <c r="M128" s="9" t="s">
         <v>1213</v>
-      </c>
-      <c r="M128" s="9" t="s">
-        <v>567</v>
       </c>
       <c r="N128" s="9" t="s">
         <v>567</v>
       </c>
       <c r="O128" s="9" t="s">
-        <v>668</v>
+        <v>567</v>
       </c>
       <c r="P128" s="9" t="s">
         <v>668</v>
       </c>
       <c r="Q128" s="9" t="s">
+        <v>668</v>
+      </c>
+      <c r="R128" s="9" t="s">
         <v>745</v>
       </c>
-      <c r="R128" s="9" t="s">
+      <c r="S128" s="9" t="s">
         <v>569</v>
       </c>
-      <c r="S128" s="9" t="s">
+      <c r="T128" s="9" t="s">
         <v>746</v>
       </c>
-      <c r="T128" s="8"/>
       <c r="U128" s="8"/>
-    </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V128" s="8"/>
+    </row>
+    <row r="129" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A129" s="15" t="s">
         <v>77</v>
       </c>
@@ -34025,58 +34430,61 @@
       <c r="C129" s="9" t="s">
         <v>446</v>
       </c>
-      <c r="D129" s="8" t="s">
+      <c r="D129" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="E129" s="8" t="s">
         <v>474</v>
       </c>
-      <c r="E129" s="9" t="s">
+      <c r="F129" s="9" t="s">
         <v>359</v>
       </c>
-      <c r="F129" s="9" t="s">
+      <c r="G129" s="9" t="s">
         <v>652</v>
       </c>
-      <c r="G129" s="9" t="s">
+      <c r="H129" s="9" t="s">
         <v>447</v>
       </c>
-      <c r="H129" s="9" t="s">
+      <c r="I129" s="9" t="s">
         <v>448</v>
       </c>
-      <c r="I129" s="9" t="s">
+      <c r="J129" s="9" t="s">
         <v>449</v>
       </c>
-      <c r="J129" s="9" t="s">
+      <c r="K129" s="9" t="s">
         <v>450</v>
       </c>
-      <c r="K129" s="9" t="s">
+      <c r="L129" s="9" t="s">
         <v>898</v>
       </c>
-      <c r="L129" s="9" t="s">
+      <c r="M129" s="9" t="s">
         <v>1209</v>
       </c>
-      <c r="M129" s="9" t="s">
+      <c r="N129" s="9" t="s">
         <v>451</v>
       </c>
-      <c r="N129" s="8" t="s">
+      <c r="O129" s="8" t="s">
         <v>451</v>
-      </c>
-      <c r="O129" s="9" t="s">
-        <v>452</v>
       </c>
       <c r="P129" s="9" t="s">
         <v>452</v>
       </c>
       <c r="Q129" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="R129" s="9" t="s">
         <v>453</v>
       </c>
-      <c r="R129" s="9" t="s">
+      <c r="S129" s="9" t="s">
         <v>520</v>
       </c>
-      <c r="S129" s="9" t="s">
+      <c r="T129" s="9" t="s">
         <v>454</v>
       </c>
-      <c r="T129" s="8"/>
       <c r="U129" s="8"/>
-    </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V129" s="8"/>
+    </row>
+    <row r="130" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A130" s="15" t="s">
         <v>77</v>
       </c>
@@ -34086,58 +34494,61 @@
       <c r="C130" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="D130" s="8" t="s">
+      <c r="D130" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="E130" s="8" t="s">
         <v>358</v>
       </c>
-      <c r="E130" s="8" t="s">
+      <c r="F130" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="F130" s="8" t="s">
+      <c r="G130" s="8" t="s">
         <v>652</v>
       </c>
-      <c r="G130" s="9" t="s">
+      <c r="H130" s="9" t="s">
         <v>839</v>
       </c>
-      <c r="H130" s="8" t="s">
+      <c r="I130" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="I130" s="8" t="s">
+      <c r="J130" s="8" t="s">
         <v>360</v>
       </c>
-      <c r="J130" s="8" t="s">
+      <c r="K130" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="K130" s="9" t="s">
+      <c r="L130" s="9" t="s">
         <v>899</v>
       </c>
-      <c r="L130" s="9" t="s">
+      <c r="M130" s="9" t="s">
         <v>377</v>
-      </c>
-      <c r="M130" s="8" t="s">
-        <v>348</v>
       </c>
       <c r="N130" s="8" t="s">
         <v>348</v>
       </c>
       <c r="O130" s="8" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="P130" s="8" t="s">
         <v>365</v>
       </c>
       <c r="Q130" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="R130" s="8" t="s">
         <v>371</v>
       </c>
-      <c r="R130" s="8" t="s">
+      <c r="S130" s="8" t="s">
         <v>521</v>
       </c>
-      <c r="S130" s="8" t="s">
+      <c r="T130" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="T130" s="8"/>
       <c r="U130" s="8"/>
-    </row>
-    <row r="131" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="V130" s="8"/>
+    </row>
+    <row r="131" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A131" s="15" t="s">
         <v>77</v>
       </c>
@@ -34147,58 +34558,61 @@
       <c r="C131" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="D131" s="8" t="s">
+      <c r="D131" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="E131" s="8" t="s">
         <v>536</v>
       </c>
-      <c r="E131" s="8" t="s">
+      <c r="F131" s="8" t="s">
         <v>653</v>
       </c>
-      <c r="F131" s="8" t="s">
+      <c r="G131" s="8" t="s">
         <v>654</v>
       </c>
-      <c r="G131" s="9" t="s">
+      <c r="H131" s="9" t="s">
         <v>336</v>
       </c>
-      <c r="H131" s="8" t="s">
+      <c r="I131" s="8" t="s">
         <v>940</v>
       </c>
-      <c r="I131" s="16" t="s">
+      <c r="J131" s="16" t="s">
         <v>738</v>
       </c>
-      <c r="J131" s="8" t="s">
+      <c r="K131" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="K131" s="16" t="s">
+      <c r="L131" s="16" t="s">
         <v>1093</v>
       </c>
-      <c r="L131" s="16" t="s">
+      <c r="M131" s="16" t="s">
         <v>1210</v>
       </c>
-      <c r="M131" s="8" t="s">
+      <c r="N131" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="N131" s="8" t="s">
+      <c r="O131" s="8" t="s">
         <v>491</v>
       </c>
-      <c r="O131" s="8" t="s">
+      <c r="P131" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="P131" s="8" t="s">
+      <c r="Q131" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="Q131" s="8" t="s">
+      <c r="R131" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="R131" s="8" t="s">
+      <c r="S131" s="8" t="s">
         <v>522</v>
       </c>
-      <c r="S131" s="8" t="s">
+      <c r="T131" s="8" t="s">
         <v>1057</v>
       </c>
-      <c r="T131" s="8"/>
       <c r="U131" s="8"/>
-    </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V131" s="8"/>
+    </row>
+    <row r="132" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A132" s="15" t="s">
         <v>77</v>
       </c>
@@ -34208,8 +34622,11 @@
       <c r="C132" s="3" t="s">
         <v>1509</v>
       </c>
-    </row>
-    <row r="133" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="D132" s="3" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="133" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="15" t="s">
         <v>77</v>
       </c>
@@ -34219,8 +34636,11 @@
       <c r="C133" s="3" t="s">
         <v>1511</v>
       </c>
-    </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D133" s="3" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="134" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A134" s="15" t="s">
         <v>77</v>
       </c>
@@ -34230,77 +34650,80 @@
       <c r="C134" s="3" t="s">
         <v>1522</v>
       </c>
-    </row>
-    <row r="135" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D134" s="3" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="135" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="17" t="s">
         <v>77</v>
       </c>
       <c r="B135" s="15" t="s">
         <v>551</v>
       </c>
-      <c r="D135" s="2" t="s">
+      <c r="E135" s="2" t="s">
         <v>1134</v>
       </c>
-      <c r="E135" s="2" t="s">
+      <c r="F135" s="2" t="s">
         <v>986</v>
       </c>
-      <c r="F135" s="2" t="s">
+      <c r="G135" s="2" t="s">
         <v>987</v>
       </c>
-      <c r="G135" s="2" t="s">
+      <c r="H135" s="2" t="s">
         <v>840</v>
       </c>
-      <c r="H135" s="3" t="s">
+      <c r="I135" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="I135" s="2" t="s">
+      <c r="J135" s="2" t="s">
         <v>741</v>
       </c>
-      <c r="J135" s="2" t="s">
+      <c r="K135" s="2" t="s">
         <v>1126</v>
       </c>
-      <c r="K135" s="2" t="s">
+      <c r="L135" s="2" t="s">
         <v>1092</v>
       </c>
-      <c r="L135" s="22" t="s">
+      <c r="M135" s="22" t="s">
         <v>1211</v>
       </c>
-      <c r="M135" s="2" t="s">
+      <c r="N135" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="N135" s="2" t="s">
+      <c r="O135" s="2" t="s">
         <v>1134</v>
       </c>
-      <c r="O135" s="2" t="s">
+      <c r="P135" s="2" t="s">
         <v>1285</v>
       </c>
-      <c r="P135" s="2" t="s">
+      <c r="Q135" s="2" t="s">
         <v>946</v>
       </c>
-      <c r="Q135" s="2" t="s">
+      <c r="R135" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="R135" s="2" t="s">
+      <c r="S135" s="2" t="s">
         <v>1039</v>
       </c>
-      <c r="S135" s="2" t="s">
+      <c r="T135" s="2" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="136" spans="1:21" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:22" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A136" s="17" t="s">
         <v>77</v>
       </c>
       <c r="B136" s="15" t="s">
         <v>983</v>
       </c>
-      <c r="E136" s="3" t="s">
+      <c r="F136" s="3" t="s">
         <v>984</v>
       </c>
-      <c r="F136" s="3" t="s">
+      <c r="G136" s="3" t="s">
         <v>985</v>
       </c>
-      <c r="H136" s="3"/>
+      <c r="I136" s="3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B7:B10">
@@ -34312,29 +34735,29 @@
   <conditionalFormatting sqref="B73">
     <cfRule type="duplicateValues" dxfId="5" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:U43 B44:L49 M44:U69 K50:L69 B50:J72 K70:U72 B74:D74 G74:U74 D74:J83 B75:C81 M75:U81 K75:L83 B80:D80 G80:U80 B82:U83 D84:L87 B84:C94 M84:U94 B88:U113 B114:C119 L114:L119 M114:U131 D116:J119 K117:K119 B120:L122 B123:J131 B132:U134 B135:J136 M135:U136 K136:L136">
+  <conditionalFormatting sqref="N44:V69 L50:M69 L70:V72 H74:V74 E74:K83 N75:V81 L75:M83 H80:V80 E84:M87 N84:V94 M114:M119 N114:V131 E116:K119 L117:L119 N135:V136 L136:M136 D135:K136 D132:V134 D123:K131 D120:M122 D114:D119 D88:V113 D84:D94 D82:V83 D80:E80 D75:D81 D74:E74 D50:K72 D44:M49 D1:V43 B1:C72 B74:C136">
     <cfRule type="containsBlanks" dxfId="4" priority="19">
       <formula>LEN(TRIM(B1))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B73:U73">
+  <conditionalFormatting sqref="B73:V73">
     <cfRule type="containsBlanks" dxfId="3" priority="1">
       <formula>LEN(TRIM(B73))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D114:K116 K131:K135">
+  <conditionalFormatting sqref="E114:L116 L131:L135">
     <cfRule type="containsBlanks" dxfId="2" priority="71">
-      <formula>LEN(TRIM(D114))=0</formula>
+      <formula>LEN(TRIM(E114))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K123:L130">
+  <conditionalFormatting sqref="L123:M130">
     <cfRule type="containsBlanks" dxfId="1" priority="5">
-      <formula>LEN(TRIM(K123))=0</formula>
+      <formula>LEN(TRIM(L123))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L131:L134">
+  <conditionalFormatting sqref="M131:M134">
     <cfRule type="containsBlanks" dxfId="0" priority="9">
-      <formula>LEN(TRIM(L131))=0</formula>
+      <formula>LEN(TRIM(M131))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/process/configuration/templates/_report_configuration.xlsx
+++ b/process/configuration/templates/_report_configuration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rmiteduau-my.sharepoint.com/personal/carl_higgs_rmit_edu_au/Documents/projects/global-indicators/process/configuration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3511" documentId="114_{57517418-E3A8-4D24-9644-27D04334BB89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{939A0A60-FEA3-41AD-8AA6-EE19F3E5FBC6}"/>
+  <xr:revisionPtr revIDLastSave="3559" documentId="114_{57517418-E3A8-4D24-9644-27D04334BB89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E16CB73C-CCBC-46DC-8F7F-B1F795D1AB44}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="policy_spatial" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4067" uniqueCount="1573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4068" uniqueCount="1574">
   <si>
     <t>name</t>
   </si>
@@ -4853,9 +4853,6 @@
     <t>Old English</t>
   </si>
   <si>
-    <t>configuration/assets/cover_background - sage - base box.svg</t>
-  </si>
-  <si>
     <t>Policy indicators for healthy and sustainable cities</t>
   </si>
   <si>
@@ -4869,6 +4866,12 @@
   </si>
   <si>
     <t>configuration/assets/GOHSC - colour logo transparent.svg</t>
+  </si>
+  <si>
+    <t>configuration/assets/cover_background - fawn - base box.svg</t>
+  </si>
+  <si>
+    <t>Preliminary findings are not intended for public release until results and interpretations are validated and approved.</t>
   </si>
 </sst>
 </file>
@@ -5951,7 +5954,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P16" sqref="P16"/>
+      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6036,14 +6039,14 @@
         <v>28</v>
       </c>
       <c r="E2">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="F2">
         <v>200</v>
       </c>
       <c r="G2">
         <f>E2+8</f>
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="H2" t="s">
         <v>111</v>
@@ -6097,14 +6100,14 @@
       </c>
       <c r="E3">
         <f>G2+3</f>
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="F3">
         <v>200</v>
       </c>
       <c r="G3">
         <f>E3+8</f>
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="H3" t="s">
         <v>111</v>
@@ -6339,7 +6342,7 @@
       </c>
       <c r="E7">
         <f>G3+5</f>
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="F7">
         <f>F2</f>
@@ -6347,7 +6350,7 @@
       </c>
       <c r="G7">
         <f>E7+8</f>
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="H7" t="s">
         <v>111</v>
@@ -6401,14 +6404,14 @@
       </c>
       <c r="E8">
         <f>G7</f>
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="F8">
         <v>200</v>
       </c>
       <c r="G8">
         <f>E8+6</f>
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="H8" t="s">
         <v>111</v>
@@ -6462,20 +6465,20 @@
       </c>
       <c r="E9">
         <f>G8</f>
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F9">
         <v>200</v>
       </c>
       <c r="G9">
         <f>E9+6</f>
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="H9" t="s">
         <v>111</v>
       </c>
       <c r="I9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -6519,32 +6522,35 @@
         <v>19</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E10">
-        <v>17</v>
+        <v>167</v>
       </c>
       <c r="F10">
         <v>200</v>
       </c>
       <c r="G10">
-        <f>E10+10</f>
-        <v>27</v>
+        <f>E10+6</f>
+        <v>173</v>
       </c>
       <c r="H10" t="s">
         <v>111</v>
       </c>
       <c r="I10">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="J10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
+      </c>
+      <c r="M10" t="s">
+        <v>1544</v>
       </c>
       <c r="N10" t="s">
         <v>21</v>
@@ -6607,7 +6613,7 @@
         <v>25</v>
       </c>
       <c r="Q11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R11" t="b">
         <v>0</v>
@@ -6714,13 +6720,13 @@
         <v>0</v>
       </c>
       <c r="N13" t="s">
-        <v>1094</v>
+        <v>21</v>
       </c>
       <c r="O13" t="s">
         <v>22</v>
       </c>
       <c r="Q13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13" t="b">
         <v>1</v>
@@ -6773,10 +6779,10 @@
         <v>25</v>
       </c>
       <c r="P14" t="s">
-        <v>1567</v>
+        <v>1572</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" t="b">
         <v>0</v>
@@ -6799,18 +6805,18 @@
         <v>24</v>
       </c>
       <c r="D15">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E15">
-        <v>159</v>
+        <v>15</v>
       </c>
       <c r="F15">
         <f>D15+106</f>
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="G15">
         <f>E15+30</f>
-        <v>189</v>
+        <v>45</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -6831,10 +6837,10 @@
         <v>27</v>
       </c>
       <c r="P15" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R15" t="b">
         <v>1</v>
@@ -27908,7 +27914,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28256,7 +28262,7 @@
         <v>231</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>1530</v>
@@ -28288,7 +28294,7 @@
         <v>1515</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>1551</v>
@@ -28320,7 +28326,7 @@
         <v>1516</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>1552</v>
@@ -28352,7 +28358,7 @@
         <v>1517</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>1553</v>
@@ -28384,7 +28390,7 @@
         <v>1550</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>1306</v>
+        <v>1573</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>1306</v>
@@ -34735,14 +34741,14 @@
   <conditionalFormatting sqref="B73">
     <cfRule type="duplicateValues" dxfId="5" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N44:V69 L50:M69 L70:V72 H74:V74 E74:K83 N75:V81 L75:M83 H80:V80 E84:M87 N84:V94 M114:M119 N114:V131 E116:K119 L117:L119 N135:V136 L136:M136 D135:K136 D132:V134 D123:K131 D120:M122 D114:D119 D88:V113 D84:D94 D82:V83 D80:E80 D75:D81 D74:E74 D50:K72 D44:M49 D1:V43 B1:C72 B74:C136">
-    <cfRule type="containsBlanks" dxfId="4" priority="19">
-      <formula>LEN(TRIM(B1))=0</formula>
+  <conditionalFormatting sqref="B73:V73">
+    <cfRule type="containsBlanks" dxfId="4" priority="1">
+      <formula>LEN(TRIM(B73))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B73:V73">
-    <cfRule type="containsBlanks" dxfId="3" priority="1">
-      <formula>LEN(TRIM(B73))=0</formula>
+  <conditionalFormatting sqref="D1:V43 B1:C72 D44:M49 N44:V69 L50:M69 D50:K72 L70:V72 D74:E74 H74:V74 E74:K83 B74:C136 D75:D81 N75:V81 L75:M83 D80:E80 H80:V80 D82:V83 E84:M87 D84:D94 N84:V94 D88:V113 D114:D119 M114:M119 N114:V131 E116:K119 L117:L119 D120:M122 D123:K131 D132:V134 D135:K136 N135:V136 L136:M136">
+    <cfRule type="containsBlanks" dxfId="3" priority="19">
+      <formula>LEN(TRIM(B1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E114:L116 L131:L135">

--- a/process/configuration/templates/_report_configuration.xlsx
+++ b/process/configuration/templates/_report_configuration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rmiteduau-my.sharepoint.com/personal/carl_higgs_rmit_edu_au/Documents/projects/global-indicators/process/configuration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3693" documentId="114_{57517418-E3A8-4D24-9644-27D04334BB89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2CB406E7-B535-462D-85F0-B4F8FFDF92C9}"/>
+  <xr:revisionPtr revIDLastSave="3800" documentId="114_{57517418-E3A8-4D24-9644-27D04334BB89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA55E127-A042-4366-B08B-EB1B8F92B18B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="policy_spatial" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4120" uniqueCount="1585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4119" uniqueCount="1586">
   <si>
     <t>name</t>
   </si>
@@ -4905,6 +4905,9 @@
   </si>
   <si>
     <t>Add author names by editing region configuration reporting settings using a text editor</t>
+  </si>
+  <si>
+    <t>Example report only.  Copy and edit the example .yml file in the configuration/regions folder to define your own study region for analysis and reporting.  Following configuration and analysis, policy and/or spatial indicator reports may be generated according to the directions at</t>
   </si>
 </sst>
 </file>
@@ -5983,16 +5986,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T293"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E25" sqref="E25"/>
+      <selection pane="bottomRight" activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" customWidth="1"/>
+    <col min="1" max="1" width="31.5703125" customWidth="1"/>
     <col min="16" max="16" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6136,6 +6139,7 @@
         <v>136</v>
       </c>
       <c r="F3">
+        <f>$F$2</f>
         <v>200</v>
       </c>
       <c r="G3">
@@ -6193,10 +6197,11 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F4">
-        <v>204</v>
+        <f t="shared" ref="F4:F14" si="0">$F$2</f>
+        <v>200</v>
       </c>
       <c r="G4">
         <v>8</v>
@@ -6255,10 +6260,11 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F5">
-        <v>204</v>
+        <f t="shared" si="0"/>
+        <v>200</v>
       </c>
       <c r="G5">
         <v>10</v>
@@ -6314,14 +6320,15 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F6">
-        <v>204</v>
+        <f t="shared" si="0"/>
+        <v>200</v>
       </c>
       <c r="G6">
         <f>E6+3</f>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H6" t="s">
         <v>111</v>
@@ -6374,14 +6381,15 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F7">
-        <v>204</v>
+        <f t="shared" si="0"/>
+        <v>200</v>
       </c>
       <c r="G7">
         <f>E7+3</f>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H7" t="s">
         <v>111</v>
@@ -6434,14 +6442,15 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F8">
-        <v>204</v>
+        <f t="shared" si="0"/>
+        <v>200</v>
       </c>
       <c r="G8">
         <f>E8+3</f>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H8" t="s">
         <v>111</v>
@@ -6494,14 +6503,15 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F9">
-        <v>204</v>
+        <f t="shared" si="0"/>
+        <v>200</v>
       </c>
       <c r="G9">
         <f>E9+3</f>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H9" t="s">
         <v>111</v>
@@ -6554,14 +6564,15 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F10">
-        <v>204</v>
+        <f t="shared" si="0"/>
+        <v>200</v>
       </c>
       <c r="G10">
         <f>E10+3</f>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H10" t="s">
         <v>111</v>
@@ -6618,7 +6629,7 @@
         <v>149</v>
       </c>
       <c r="F11">
-        <f>F2</f>
+        <f t="shared" si="0"/>
         <v>200</v>
       </c>
       <c r="G11">
@@ -6680,6 +6691,7 @@
         <v>157</v>
       </c>
       <c r="F12">
+        <f t="shared" si="0"/>
         <v>200</v>
       </c>
       <c r="G12">
@@ -6741,6 +6753,7 @@
         <v>163</v>
       </c>
       <c r="F13">
+        <f t="shared" si="0"/>
         <v>200</v>
       </c>
       <c r="G13">
@@ -6801,6 +6814,7 @@
         <v>171</v>
       </c>
       <c r="F14">
+        <f t="shared" si="0"/>
         <v>200</v>
       </c>
       <c r="G14">
@@ -7136,13 +7150,13 @@
         <v>19</v>
       </c>
       <c r="D20">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E20">
         <v>14</v>
       </c>
       <c r="F20">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="G20">
         <f>E20+6</f>
@@ -7196,17 +7210,19 @@
         <v>19</v>
       </c>
       <c r="D21">
-        <v>14</v>
+        <f>$D$20</f>
+        <v>10</v>
       </c>
       <c r="E21">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="F21">
-        <v>190</v>
+        <f>$F$20</f>
+        <v>196</v>
       </c>
       <c r="G21">
         <f>E21+4</f>
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="H21" t="s">
         <v>111</v>
@@ -7256,18 +7272,20 @@
         <v>19</v>
       </c>
       <c r="D22">
-        <v>14</v>
+        <f t="shared" ref="D22:D28" si="1">$D$20</f>
+        <v>10</v>
       </c>
       <c r="E22">
         <f>G21+4</f>
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="F22">
-        <v>190</v>
+        <f t="shared" ref="F22:F28" si="2">$F$20</f>
+        <v>196</v>
       </c>
       <c r="G22">
         <f>E22+4</f>
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="H22" t="s">
         <v>111</v>
@@ -7315,18 +7333,20 @@
         <v>19</v>
       </c>
       <c r="D23">
-        <v>14</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="E23">
         <f>G22+2</f>
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="F23">
-        <v>190</v>
+        <f t="shared" si="2"/>
+        <v>196</v>
       </c>
       <c r="G23">
-        <f t="shared" ref="G23" si="0">E23+4</f>
-        <v>142</v>
+        <f t="shared" ref="G23" si="3">E23+4</f>
+        <v>153</v>
       </c>
       <c r="H23" t="s">
         <v>111</v>
@@ -7374,19 +7394,20 @@
         <v>19</v>
       </c>
       <c r="D24">
-        <v>14</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="E24">
-        <f>G23+8</f>
-        <v>150</v>
+        <f>E23+20</f>
+        <v>169</v>
       </c>
       <c r="F24">
-        <f>F26</f>
-        <v>190</v>
+        <f t="shared" si="2"/>
+        <v>196</v>
       </c>
       <c r="G24">
-        <f t="shared" ref="G24" si="1">E24+4</f>
-        <v>154</v>
+        <f t="shared" ref="G24" si="4">E24+4</f>
+        <v>173</v>
       </c>
       <c r="H24" t="s">
         <v>111</v>
@@ -7431,19 +7452,20 @@
         <v>19</v>
       </c>
       <c r="D25">
-        <v>14</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="E25">
         <f>G24+2</f>
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="F25">
-        <f>F24</f>
-        <v>190</v>
+        <f t="shared" si="2"/>
+        <v>196</v>
       </c>
       <c r="G25">
-        <f t="shared" ref="G25" si="2">E25+4</f>
-        <v>160</v>
+        <f t="shared" ref="G25" si="5">E25+4</f>
+        <v>179</v>
       </c>
       <c r="H25" t="s">
         <v>111</v>
@@ -7481,7 +7503,7 @@
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>983</v>
+        <v>570</v>
       </c>
       <c r="B26">
         <v>2</v>
@@ -7490,19 +7512,20 @@
         <v>19</v>
       </c>
       <c r="D26">
-        <v>14</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="E26">
-        <f>G28+5</f>
-        <v>183</v>
+        <f>E25+20</f>
+        <v>195</v>
       </c>
       <c r="F26">
-        <f>F28</f>
-        <v>190</v>
+        <f t="shared" si="2"/>
+        <v>196</v>
       </c>
       <c r="G26">
         <f>E26+4</f>
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="H26" t="s">
         <v>111</v>
@@ -7511,7 +7534,7 @@
         <v>12</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -7541,7 +7564,7 @@
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>570</v>
+        <v>551</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -7550,19 +7573,20 @@
         <v>19</v>
       </c>
       <c r="D27">
-        <v>14</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="E27">
-        <f>G25+8</f>
-        <v>168</v>
+        <f>G26+2</f>
+        <v>201</v>
       </c>
       <c r="F27">
-        <f>F23</f>
-        <v>190</v>
+        <f t="shared" si="2"/>
+        <v>196</v>
       </c>
       <c r="G27">
-        <f>E27+4</f>
-        <v>172</v>
+        <f t="shared" ref="G27" si="6">E27+4</f>
+        <v>205</v>
       </c>
       <c r="H27" t="s">
         <v>111</v>
@@ -7571,7 +7595,7 @@
         <v>12</v>
       </c>
       <c r="J27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -7601,7 +7625,7 @@
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>551</v>
+        <v>983</v>
       </c>
       <c r="B28">
         <v>2</v>
@@ -7610,19 +7634,20 @@
         <v>19</v>
       </c>
       <c r="D28">
-        <v>14</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="E28">
-        <f>G27+2</f>
-        <v>174</v>
+        <f>G27+5</f>
+        <v>210</v>
       </c>
       <c r="F28">
-        <f t="shared" ref="F28" si="3">F27</f>
-        <v>190</v>
+        <f t="shared" si="2"/>
+        <v>196</v>
       </c>
       <c r="G28">
-        <f t="shared" ref="G28" si="4">E28+4</f>
-        <v>178</v>
+        <f>E28+4</f>
+        <v>214</v>
       </c>
       <c r="H28" t="s">
         <v>111</v>
@@ -7670,7 +7695,7 @@
         <v>24</v>
       </c>
       <c r="D29">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -7779,7 +7804,7 @@
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>1515</v>
       </c>
       <c r="B31">
         <v>3</v>
@@ -7788,18 +7813,17 @@
         <v>19</v>
       </c>
       <c r="D31">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E31">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F31">
-        <f>F33-1</f>
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="G31">
         <f>E31+5</f>
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H31" t="s">
         <v>111</v>
@@ -7846,19 +7870,20 @@
         <v>19</v>
       </c>
       <c r="D32">
-        <v>10</v>
+        <f>$D$31</f>
+        <v>14</v>
       </c>
       <c r="E32">
-        <f>G31+7</f>
-        <v>24</v>
+        <f>G31+8</f>
+        <v>33</v>
       </c>
       <c r="F32">
-        <f>D37-3</f>
-        <v>131</v>
+        <f>$F$31</f>
+        <v>200</v>
       </c>
       <c r="G32">
-        <f>E32+5</f>
-        <v>29</v>
+        <f>E32+6</f>
+        <v>39</v>
       </c>
       <c r="H32" t="s">
         <v>111</v>
@@ -7905,20 +7930,20 @@
         <v>19</v>
       </c>
       <c r="D33">
-        <f>D32</f>
-        <v>10</v>
+        <f>$D$31</f>
+        <v>14</v>
       </c>
       <c r="E33">
         <f>E32+28</f>
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="F33">
-        <f>F32</f>
-        <v>131</v>
+        <f>$F$31</f>
+        <v>200</v>
       </c>
       <c r="G33">
         <f>E33+4</f>
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="H33" t="s">
         <v>111</v>
@@ -7959,19 +7984,21 @@
         <v>149</v>
       </c>
       <c r="B34">
-        <v>3</v>
+        <v>-999</v>
       </c>
       <c r="C34" t="s">
         <v>19</v>
       </c>
       <c r="D34">
-        <v>10</v>
+        <f>$D$31</f>
+        <v>14</v>
       </c>
       <c r="E34">
         <v>100</v>
       </c>
       <c r="F34">
-        <v>131</v>
+        <f>$F$31</f>
+        <v>200</v>
       </c>
       <c r="G34">
         <f>E34+5</f>
@@ -8016,22 +8043,22 @@
         <v>106</v>
       </c>
       <c r="B35">
-        <v>3</v>
+        <v>-999</v>
       </c>
       <c r="C35" t="s">
         <v>19</v>
       </c>
       <c r="D35">
-        <f>D34</f>
-        <v>10</v>
+        <f>$D$31</f>
+        <v>14</v>
       </c>
       <c r="E35">
         <f>G34+2</f>
         <v>107</v>
       </c>
       <c r="F35">
-        <f>F34</f>
-        <v>131</v>
+        <f>$F$31</f>
+        <v>200</v>
       </c>
       <c r="G35">
         <f>E35+5</f>
@@ -8082,18 +8109,19 @@
         <v>24</v>
       </c>
       <c r="D36">
-        <v>20</v>
+        <f>$D$31</f>
+        <v>14</v>
       </c>
       <c r="E36">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F36">
-        <f>D36+170</f>
-        <v>190</v>
+        <f>D36+182</f>
+        <v>196</v>
       </c>
       <c r="G36">
         <f>E36+INT(144*(F36-D36)/192)</f>
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -8131,23 +8159,24 @@
         <v>1288</v>
       </c>
       <c r="B37">
-        <v>3</v>
+        <v>-999</v>
       </c>
       <c r="C37" t="s">
         <v>26</v>
       </c>
       <c r="D37">
-        <v>134</v>
+        <f>$D$31-1</f>
+        <v>13</v>
       </c>
       <c r="E37">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="F37">
         <v>210</v>
       </c>
       <c r="G37">
         <f>E36-5</f>
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -8161,11 +8190,8 @@
       <c r="L37">
         <v>0</v>
       </c>
-      <c r="M37" t="s">
-        <v>1094</v>
-      </c>
       <c r="N37" t="s">
-        <v>1094</v>
+        <v>21</v>
       </c>
       <c r="O37" t="s">
         <v>25</v>
@@ -8195,25 +8221,25 @@
       </c>
       <c r="D38">
         <f>$D$37+1</f>
-        <v>135</v>
+        <v>14</v>
       </c>
       <c r="E38">
         <f>E37+4</f>
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="F38">
-        <f>D38+74</f>
-        <v>209</v>
+        <f t="shared" ref="F38:F51" si="7">$F$31</f>
+        <v>200</v>
       </c>
       <c r="G38">
-        <f>E38+3</f>
-        <v>19</v>
+        <f>E38+6</f>
+        <v>95</v>
       </c>
       <c r="H38" t="s">
         <v>111</v>
       </c>
       <c r="I38">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J38">
         <v>1</v>
@@ -8225,7 +8251,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="s">
-        <v>1094</v>
+        <v>21</v>
       </c>
       <c r="O38" t="s">
         <v>25</v>
@@ -8255,40 +8281,40 @@
       </c>
       <c r="D39">
         <f>$D$38</f>
-        <v>135</v>
+        <v>14</v>
       </c>
       <c r="E39">
-        <f>G38+1</f>
-        <v>20</v>
+        <f>G38+4</f>
+        <v>99</v>
       </c>
       <c r="F39">
-        <f>D39+74</f>
-        <v>209</v>
+        <f t="shared" si="7"/>
+        <v>200</v>
       </c>
       <c r="G39">
-        <f>E39+4</f>
-        <v>24</v>
+        <f>E39+6</f>
+        <v>105</v>
       </c>
       <c r="H39" t="s">
         <v>111</v>
       </c>
       <c r="I39">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J39">
         <v>0</v>
       </c>
       <c r="K39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L39">
         <v>0</v>
       </c>
       <c r="N39" t="s">
-        <v>1094</v>
+        <v>21</v>
       </c>
       <c r="O39" t="s">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -8308,26 +8334,26 @@
         <v>1294</v>
       </c>
       <c r="B40">
-        <v>3</v>
+        <v>-999</v>
       </c>
       <c r="C40" t="s">
         <v>19</v>
       </c>
       <c r="D40">
-        <f t="shared" ref="D40:D51" si="5">$D$38</f>
-        <v>135</v>
+        <f t="shared" ref="D40:D51" si="8">$D$38</f>
+        <v>14</v>
       </c>
       <c r="E40">
         <f>G39+12</f>
-        <v>36</v>
+        <v>117</v>
       </c>
       <c r="F40">
-        <f t="shared" ref="F40:F51" si="6">F38</f>
-        <v>209</v>
+        <f t="shared" si="7"/>
+        <v>200</v>
       </c>
       <c r="G40">
         <f>E40+3</f>
-        <v>39</v>
+        <v>120</v>
       </c>
       <c r="H40" t="s">
         <v>111</v>
@@ -8345,7 +8371,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="s">
-        <v>1094</v>
+        <v>21</v>
       </c>
       <c r="O40" t="s">
         <v>25</v>
@@ -8368,26 +8394,26 @@
         <v>1295</v>
       </c>
       <c r="B41">
-        <v>3</v>
+        <v>-999</v>
       </c>
       <c r="C41" t="s">
         <v>19</v>
       </c>
       <c r="D41">
-        <f t="shared" si="5"/>
-        <v>135</v>
+        <f t="shared" si="8"/>
+        <v>14</v>
       </c>
       <c r="E41">
         <f>G40+1</f>
-        <v>40</v>
+        <v>121</v>
       </c>
       <c r="F41">
-        <f t="shared" si="6"/>
-        <v>209</v>
+        <f t="shared" si="7"/>
+        <v>200</v>
       </c>
       <c r="G41">
         <f>E41+4</f>
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="H41" t="s">
         <v>111</v>
@@ -8405,7 +8431,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="s">
-        <v>1094</v>
+        <v>21</v>
       </c>
       <c r="O41" t="s">
         <v>25</v>
@@ -8428,26 +8454,26 @@
         <v>1296</v>
       </c>
       <c r="B42">
-        <v>3</v>
+        <v>-999</v>
       </c>
       <c r="C42" t="s">
         <v>19</v>
       </c>
       <c r="D42">
-        <f t="shared" si="5"/>
-        <v>135</v>
+        <f t="shared" si="8"/>
+        <v>14</v>
       </c>
       <c r="E42">
         <f>G41+12</f>
-        <v>56</v>
+        <v>137</v>
       </c>
       <c r="F42">
-        <f t="shared" si="6"/>
-        <v>209</v>
+        <f t="shared" si="7"/>
+        <v>200</v>
       </c>
       <c r="G42">
         <f>E42+3</f>
-        <v>59</v>
+        <v>140</v>
       </c>
       <c r="H42" t="s">
         <v>111</v>
@@ -8465,7 +8491,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="s">
-        <v>1094</v>
+        <v>21</v>
       </c>
       <c r="O42" t="s">
         <v>25</v>
@@ -8488,26 +8514,26 @@
         <v>1297</v>
       </c>
       <c r="B43">
-        <v>3</v>
+        <v>-999</v>
       </c>
       <c r="C43" t="s">
         <v>19</v>
       </c>
       <c r="D43">
-        <f t="shared" si="5"/>
-        <v>135</v>
+        <f t="shared" si="8"/>
+        <v>14</v>
       </c>
       <c r="E43">
         <f>G42+1</f>
-        <v>60</v>
+        <v>141</v>
       </c>
       <c r="F43">
-        <f t="shared" si="6"/>
-        <v>209</v>
+        <f t="shared" si="7"/>
+        <v>200</v>
       </c>
       <c r="G43">
         <f>E43+4</f>
-        <v>64</v>
+        <v>145</v>
       </c>
       <c r="H43" t="s">
         <v>111</v>
@@ -8525,7 +8551,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="s">
-        <v>1094</v>
+        <v>21</v>
       </c>
       <c r="O43" t="s">
         <v>25</v>
@@ -8548,26 +8574,26 @@
         <v>1298</v>
       </c>
       <c r="B44">
-        <v>3</v>
+        <v>-999</v>
       </c>
       <c r="C44" t="s">
         <v>19</v>
       </c>
       <c r="D44">
-        <f t="shared" si="5"/>
-        <v>135</v>
+        <f t="shared" si="8"/>
+        <v>14</v>
       </c>
       <c r="E44">
         <f>G43+12</f>
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="F44">
-        <f t="shared" si="6"/>
-        <v>209</v>
+        <f t="shared" si="7"/>
+        <v>200</v>
       </c>
       <c r="G44">
         <f>E44+3</f>
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="H44" t="s">
         <v>111</v>
@@ -8585,7 +8611,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="s">
-        <v>1094</v>
+        <v>21</v>
       </c>
       <c r="O44" t="s">
         <v>25</v>
@@ -8608,26 +8634,26 @@
         <v>1299</v>
       </c>
       <c r="B45">
-        <v>3</v>
+        <v>-999</v>
       </c>
       <c r="C45" t="s">
         <v>19</v>
       </c>
       <c r="D45">
-        <f t="shared" si="5"/>
-        <v>135</v>
+        <f t="shared" si="8"/>
+        <v>14</v>
       </c>
       <c r="E45">
         <f>G44+1</f>
-        <v>80</v>
+        <v>161</v>
       </c>
       <c r="F45">
-        <f t="shared" si="6"/>
-        <v>209</v>
+        <f t="shared" si="7"/>
+        <v>200</v>
       </c>
       <c r="G45">
         <f>E45+4</f>
-        <v>84</v>
+        <v>165</v>
       </c>
       <c r="H45" t="s">
         <v>111</v>
@@ -8645,7 +8671,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="s">
-        <v>1094</v>
+        <v>21</v>
       </c>
       <c r="O45" t="s">
         <v>25</v>
@@ -8668,26 +8694,26 @@
         <v>1300</v>
       </c>
       <c r="B46">
-        <v>3</v>
+        <v>-999</v>
       </c>
       <c r="C46" t="s">
         <v>19</v>
       </c>
       <c r="D46">
-        <f t="shared" si="5"/>
-        <v>135</v>
+        <f t="shared" si="8"/>
+        <v>14</v>
       </c>
       <c r="E46">
         <f>G45+12</f>
-        <v>96</v>
+        <v>177</v>
       </c>
       <c r="F46">
-        <f t="shared" si="6"/>
-        <v>209</v>
+        <f t="shared" si="7"/>
+        <v>200</v>
       </c>
       <c r="G46">
         <f>E46+3</f>
-        <v>99</v>
+        <v>180</v>
       </c>
       <c r="H46" t="s">
         <v>111</v>
@@ -8705,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="N46" t="s">
-        <v>1094</v>
+        <v>21</v>
       </c>
       <c r="O46" t="s">
         <v>25</v>
@@ -8728,26 +8754,26 @@
         <v>1301</v>
       </c>
       <c r="B47">
-        <v>3</v>
+        <v>-999</v>
       </c>
       <c r="C47" t="s">
         <v>19</v>
       </c>
       <c r="D47">
-        <f t="shared" si="5"/>
-        <v>135</v>
+        <f t="shared" si="8"/>
+        <v>14</v>
       </c>
       <c r="E47">
         <f>G46+1</f>
-        <v>100</v>
+        <v>181</v>
       </c>
       <c r="F47">
-        <f t="shared" si="6"/>
-        <v>209</v>
+        <f t="shared" si="7"/>
+        <v>200</v>
       </c>
       <c r="G47">
         <f>E47+4</f>
-        <v>104</v>
+        <v>185</v>
       </c>
       <c r="H47" t="s">
         <v>111</v>
@@ -8765,7 +8791,7 @@
         <v>0</v>
       </c>
       <c r="N47" t="s">
-        <v>1094</v>
+        <v>21</v>
       </c>
       <c r="O47" t="s">
         <v>25</v>
@@ -8788,26 +8814,26 @@
         <v>1302</v>
       </c>
       <c r="B48">
-        <v>3</v>
+        <v>-999</v>
       </c>
       <c r="C48" t="s">
         <v>19</v>
       </c>
       <c r="D48">
-        <f t="shared" si="5"/>
-        <v>135</v>
+        <f t="shared" si="8"/>
+        <v>14</v>
       </c>
       <c r="E48">
         <f>G47+12</f>
-        <v>116</v>
+        <v>197</v>
       </c>
       <c r="F48">
-        <f t="shared" si="6"/>
-        <v>209</v>
+        <f t="shared" si="7"/>
+        <v>200</v>
       </c>
       <c r="G48">
         <f>E48+3</f>
-        <v>119</v>
+        <v>200</v>
       </c>
       <c r="H48" t="s">
         <v>111</v>
@@ -8825,7 +8851,7 @@
         <v>0</v>
       </c>
       <c r="N48" t="s">
-        <v>1094</v>
+        <v>21</v>
       </c>
       <c r="O48" t="s">
         <v>25</v>
@@ -8848,26 +8874,26 @@
         <v>1303</v>
       </c>
       <c r="B49">
-        <v>3</v>
+        <v>-999</v>
       </c>
       <c r="C49" t="s">
         <v>19</v>
       </c>
       <c r="D49">
-        <f t="shared" si="5"/>
-        <v>135</v>
+        <f t="shared" si="8"/>
+        <v>14</v>
       </c>
       <c r="E49">
         <f>G48+1</f>
-        <v>120</v>
+        <v>201</v>
       </c>
       <c r="F49">
-        <f t="shared" si="6"/>
-        <v>209</v>
+        <f t="shared" si="7"/>
+        <v>200</v>
       </c>
       <c r="G49">
         <f>E49+4</f>
-        <v>124</v>
+        <v>205</v>
       </c>
       <c r="H49" t="s">
         <v>111</v>
@@ -8885,7 +8911,7 @@
         <v>0</v>
       </c>
       <c r="N49" t="s">
-        <v>1094</v>
+        <v>21</v>
       </c>
       <c r="O49" t="s">
         <v>25</v>
@@ -8908,26 +8934,26 @@
         <v>1304</v>
       </c>
       <c r="B50">
-        <v>3</v>
+        <v>-999</v>
       </c>
       <c r="C50" t="s">
         <v>19</v>
       </c>
       <c r="D50">
-        <f t="shared" si="5"/>
-        <v>135</v>
+        <f t="shared" si="8"/>
+        <v>14</v>
       </c>
       <c r="E50">
         <f>G49+12</f>
-        <v>136</v>
+        <v>217</v>
       </c>
       <c r="F50">
-        <f t="shared" si="6"/>
-        <v>209</v>
+        <f t="shared" si="7"/>
+        <v>200</v>
       </c>
       <c r="G50">
         <f>E50+3</f>
-        <v>139</v>
+        <v>220</v>
       </c>
       <c r="H50" t="s">
         <v>111</v>
@@ -8945,7 +8971,7 @@
         <v>0</v>
       </c>
       <c r="N50" t="s">
-        <v>1094</v>
+        <v>21</v>
       </c>
       <c r="O50" t="s">
         <v>25</v>
@@ -8968,26 +8994,26 @@
         <v>1305</v>
       </c>
       <c r="B51">
-        <v>3</v>
+        <v>-999</v>
       </c>
       <c r="C51" t="s">
         <v>19</v>
       </c>
       <c r="D51">
-        <f t="shared" si="5"/>
-        <v>135</v>
+        <f t="shared" si="8"/>
+        <v>14</v>
       </c>
       <c r="E51">
         <f>G50+1</f>
-        <v>140</v>
+        <v>221</v>
       </c>
       <c r="F51">
-        <f t="shared" si="6"/>
-        <v>209</v>
+        <f t="shared" si="7"/>
+        <v>200</v>
       </c>
       <c r="G51">
         <f>E51+4</f>
-        <v>144</v>
+        <v>225</v>
       </c>
       <c r="H51" t="s">
         <v>111</v>
@@ -9005,7 +9031,7 @@
         <v>0</v>
       </c>
       <c r="N51" t="s">
-        <v>1094</v>
+        <v>21</v>
       </c>
       <c r="O51" t="s">
         <v>25</v>
@@ -10021,7 +10047,7 @@
         <v>19</v>
       </c>
       <c r="D69">
-        <f t="shared" ref="D69" si="7">D72-1</f>
+        <f t="shared" ref="D69" si="9">D72-1</f>
         <v>130</v>
       </c>
       <c r="E69">
@@ -10085,7 +10111,7 @@
         <v>155</v>
       </c>
       <c r="E70">
-        <f t="shared" ref="E70:E74" si="8">E69</f>
+        <f t="shared" ref="E70:E74" si="10">E69</f>
         <v>212</v>
       </c>
       <c r="F70">
@@ -10145,7 +10171,7 @@
         <v>181</v>
       </c>
       <c r="E71">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>212</v>
       </c>
       <c r="F71">
@@ -10153,7 +10179,7 @@
         <v>207</v>
       </c>
       <c r="G71">
-        <f t="shared" ref="G71" si="9">G70</f>
+        <f t="shared" ref="G71" si="11">G70</f>
         <v>217</v>
       </c>
       <c r="H71" t="s">
@@ -10262,11 +10288,11 @@
         <v>156</v>
       </c>
       <c r="E73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>212</v>
       </c>
       <c r="F73">
-        <f t="shared" ref="F73:F74" si="10">D73</f>
+        <f t="shared" ref="F73:F74" si="12">D73</f>
         <v>156</v>
       </c>
       <c r="G73">
@@ -10319,11 +10345,11 @@
         <v>181</v>
       </c>
       <c r="E74">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>212</v>
       </c>
       <c r="F74">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>181</v>
       </c>
       <c r="G74">
@@ -10501,7 +10527,7 @@
         <v>155</v>
       </c>
       <c r="G77">
-        <f t="shared" ref="G77:G103" si="11">E77+3</f>
+        <f t="shared" ref="G77:G103" si="13">E77+3</f>
         <v>234</v>
       </c>
       <c r="H77" t="s">
@@ -10561,7 +10587,7 @@
         <v>182</v>
       </c>
       <c r="G78">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>234</v>
       </c>
       <c r="H78" t="s">
@@ -10621,7 +10647,7 @@
         <v>207</v>
       </c>
       <c r="G79">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>234</v>
       </c>
       <c r="H79" t="s">
@@ -10669,7 +10695,7 @@
         <v>19</v>
       </c>
       <c r="D80">
-        <f t="shared" ref="D80:D103" si="12">D76</f>
+        <f t="shared" ref="D80:D103" si="14">D76</f>
         <v>10</v>
       </c>
       <c r="E80">
@@ -10677,7 +10703,7 @@
         <v>243</v>
       </c>
       <c r="F80">
-        <f t="shared" ref="F80:F103" si="13">F76</f>
+        <f t="shared" ref="F80:F103" si="15">F76</f>
         <v>129</v>
       </c>
       <c r="G80">
@@ -10729,7 +10755,7 @@
         <v>19</v>
       </c>
       <c r="D81">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>130</v>
       </c>
       <c r="E81">
@@ -10737,7 +10763,7 @@
         <v>244</v>
       </c>
       <c r="F81">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>155</v>
       </c>
       <c r="G81">
@@ -10789,7 +10815,7 @@
         <v>19</v>
       </c>
       <c r="D82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>155</v>
       </c>
       <c r="E82">
@@ -10797,11 +10823,11 @@
         <v>244</v>
       </c>
       <c r="F82">
+        <f t="shared" si="15"/>
+        <v>182</v>
+      </c>
+      <c r="G82">
         <f t="shared" si="13"/>
-        <v>182</v>
-      </c>
-      <c r="G82">
-        <f t="shared" si="11"/>
         <v>247</v>
       </c>
       <c r="H82" t="s">
@@ -10849,7 +10875,7 @@
         <v>19</v>
       </c>
       <c r="D83">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>181</v>
       </c>
       <c r="E83">
@@ -10857,11 +10883,11 @@
         <v>244</v>
       </c>
       <c r="F83">
+        <f t="shared" si="15"/>
+        <v>207</v>
+      </c>
+      <c r="G83">
         <f t="shared" si="13"/>
-        <v>207</v>
-      </c>
-      <c r="G83">
-        <f t="shared" si="11"/>
         <v>247</v>
       </c>
       <c r="H83" t="s">
@@ -10909,7 +10935,7 @@
         <v>19</v>
       </c>
       <c r="D84">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="E84">
@@ -10917,7 +10943,7 @@
         <v>256</v>
       </c>
       <c r="F84">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>129</v>
       </c>
       <c r="G84">
@@ -10969,7 +10995,7 @@
         <v>19</v>
       </c>
       <c r="D85">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>130</v>
       </c>
       <c r="E85">
@@ -10977,11 +11003,11 @@
         <v>257</v>
       </c>
       <c r="F85">
+        <f t="shared" si="15"/>
+        <v>155</v>
+      </c>
+      <c r="G85">
         <f t="shared" si="13"/>
-        <v>155</v>
-      </c>
-      <c r="G85">
-        <f t="shared" si="11"/>
         <v>260</v>
       </c>
       <c r="H85" t="s">
@@ -11029,7 +11055,7 @@
         <v>19</v>
       </c>
       <c r="D86">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>155</v>
       </c>
       <c r="E86">
@@ -11037,11 +11063,11 @@
         <v>257</v>
       </c>
       <c r="F86">
+        <f t="shared" si="15"/>
+        <v>182</v>
+      </c>
+      <c r="G86">
         <f t="shared" si="13"/>
-        <v>182</v>
-      </c>
-      <c r="G86">
-        <f t="shared" si="11"/>
         <v>260</v>
       </c>
       <c r="H86" t="s">
@@ -11089,7 +11115,7 @@
         <v>19</v>
       </c>
       <c r="D87">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>181</v>
       </c>
       <c r="E87">
@@ -11097,11 +11123,11 @@
         <v>257</v>
       </c>
       <c r="F87">
+        <f t="shared" si="15"/>
+        <v>207</v>
+      </c>
+      <c r="G87">
         <f t="shared" si="13"/>
-        <v>207</v>
-      </c>
-      <c r="G87">
-        <f t="shared" si="11"/>
         <v>260</v>
       </c>
       <c r="H87" t="s">
@@ -11149,7 +11175,7 @@
         <v>19</v>
       </c>
       <c r="D88">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="E88">
@@ -11157,7 +11183,7 @@
         <v>269</v>
       </c>
       <c r="F88">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>129</v>
       </c>
       <c r="G88">
@@ -11209,7 +11235,7 @@
         <v>19</v>
       </c>
       <c r="D89">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>130</v>
       </c>
       <c r="E89">
@@ -11217,11 +11243,11 @@
         <v>270</v>
       </c>
       <c r="F89">
+        <f t="shared" si="15"/>
+        <v>155</v>
+      </c>
+      <c r="G89">
         <f t="shared" si="13"/>
-        <v>155</v>
-      </c>
-      <c r="G89">
-        <f t="shared" si="11"/>
         <v>273</v>
       </c>
       <c r="H89" t="s">
@@ -11269,7 +11295,7 @@
         <v>19</v>
       </c>
       <c r="D90">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>155</v>
       </c>
       <c r="E90">
@@ -11277,11 +11303,11 @@
         <v>270</v>
       </c>
       <c r="F90">
+        <f t="shared" si="15"/>
+        <v>182</v>
+      </c>
+      <c r="G90">
         <f t="shared" si="13"/>
-        <v>182</v>
-      </c>
-      <c r="G90">
-        <f t="shared" si="11"/>
         <v>273</v>
       </c>
       <c r="H90" t="s">
@@ -11329,7 +11355,7 @@
         <v>19</v>
       </c>
       <c r="D91">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>181</v>
       </c>
       <c r="E91">
@@ -11337,11 +11363,11 @@
         <v>270</v>
       </c>
       <c r="F91">
+        <f t="shared" si="15"/>
+        <v>207</v>
+      </c>
+      <c r="G91">
         <f t="shared" si="13"/>
-        <v>207</v>
-      </c>
-      <c r="G91">
-        <f t="shared" si="11"/>
         <v>273</v>
       </c>
       <c r="H91" t="s">
@@ -11389,7 +11415,7 @@
         <v>19</v>
       </c>
       <c r="D92">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="E92">
@@ -11397,7 +11423,7 @@
         <v>282</v>
       </c>
       <c r="F92">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>129</v>
       </c>
       <c r="G92">
@@ -11449,7 +11475,7 @@
         <v>19</v>
       </c>
       <c r="D93">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>130</v>
       </c>
       <c r="E93">
@@ -11457,11 +11483,11 @@
         <v>283</v>
       </c>
       <c r="F93">
+        <f t="shared" si="15"/>
+        <v>155</v>
+      </c>
+      <c r="G93">
         <f t="shared" si="13"/>
-        <v>155</v>
-      </c>
-      <c r="G93">
-        <f t="shared" si="11"/>
         <v>286</v>
       </c>
       <c r="H93" t="s">
@@ -11509,7 +11535,7 @@
         <v>19</v>
       </c>
       <c r="D94">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>155</v>
       </c>
       <c r="E94">
@@ -11517,11 +11543,11 @@
         <v>283</v>
       </c>
       <c r="F94">
+        <f t="shared" si="15"/>
+        <v>182</v>
+      </c>
+      <c r="G94">
         <f t="shared" si="13"/>
-        <v>182</v>
-      </c>
-      <c r="G94">
-        <f t="shared" si="11"/>
         <v>286</v>
       </c>
       <c r="H94" t="s">
@@ -11569,7 +11595,7 @@
         <v>19</v>
       </c>
       <c r="D95">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>181</v>
       </c>
       <c r="E95">
@@ -11577,11 +11603,11 @@
         <v>283</v>
       </c>
       <c r="F95">
+        <f t="shared" si="15"/>
+        <v>207</v>
+      </c>
+      <c r="G95">
         <f t="shared" si="13"/>
-        <v>207</v>
-      </c>
-      <c r="G95">
-        <f t="shared" si="11"/>
         <v>286</v>
       </c>
       <c r="H95" t="s">
@@ -11629,7 +11655,7 @@
         <v>19</v>
       </c>
       <c r="D96">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="E96">
@@ -11637,7 +11663,7 @@
         <v>295</v>
       </c>
       <c r="F96">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>129</v>
       </c>
       <c r="G96">
@@ -11689,7 +11715,7 @@
         <v>19</v>
       </c>
       <c r="D97">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>130</v>
       </c>
       <c r="E97">
@@ -11697,11 +11723,11 @@
         <v>296</v>
       </c>
       <c r="F97">
+        <f t="shared" si="15"/>
+        <v>155</v>
+      </c>
+      <c r="G97">
         <f t="shared" si="13"/>
-        <v>155</v>
-      </c>
-      <c r="G97">
-        <f t="shared" si="11"/>
         <v>299</v>
       </c>
       <c r="H97" t="s">
@@ -11749,7 +11775,7 @@
         <v>19</v>
       </c>
       <c r="D98">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>155</v>
       </c>
       <c r="E98">
@@ -11757,11 +11783,11 @@
         <v>296</v>
       </c>
       <c r="F98">
+        <f t="shared" si="15"/>
+        <v>182</v>
+      </c>
+      <c r="G98">
         <f t="shared" si="13"/>
-        <v>182</v>
-      </c>
-      <c r="G98">
-        <f t="shared" si="11"/>
         <v>299</v>
       </c>
       <c r="H98" t="s">
@@ -11809,7 +11835,7 @@
         <v>19</v>
       </c>
       <c r="D99">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>181</v>
       </c>
       <c r="E99">
@@ -11817,11 +11843,11 @@
         <v>296</v>
       </c>
       <c r="F99">
+        <f t="shared" si="15"/>
+        <v>207</v>
+      </c>
+      <c r="G99">
         <f t="shared" si="13"/>
-        <v>207</v>
-      </c>
-      <c r="G99">
-        <f t="shared" si="11"/>
         <v>299</v>
       </c>
       <c r="H99" t="s">
@@ -11869,7 +11895,7 @@
         <v>19</v>
       </c>
       <c r="D100">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="E100">
@@ -11877,7 +11903,7 @@
         <v>308</v>
       </c>
       <c r="F100">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>129</v>
       </c>
       <c r="G100">
@@ -11929,7 +11955,7 @@
         <v>19</v>
       </c>
       <c r="D101">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>130</v>
       </c>
       <c r="E101">
@@ -11937,11 +11963,11 @@
         <v>309</v>
       </c>
       <c r="F101">
+        <f t="shared" si="15"/>
+        <v>155</v>
+      </c>
+      <c r="G101">
         <f t="shared" si="13"/>
-        <v>155</v>
-      </c>
-      <c r="G101">
-        <f t="shared" si="11"/>
         <v>312</v>
       </c>
       <c r="H101" t="s">
@@ -11989,7 +12015,7 @@
         <v>19</v>
       </c>
       <c r="D102">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>155</v>
       </c>
       <c r="E102">
@@ -11997,11 +12023,11 @@
         <v>309</v>
       </c>
       <c r="F102">
+        <f t="shared" si="15"/>
+        <v>182</v>
+      </c>
+      <c r="G102">
         <f t="shared" si="13"/>
-        <v>182</v>
-      </c>
-      <c r="G102">
-        <f t="shared" si="11"/>
         <v>312</v>
       </c>
       <c r="H102" t="s">
@@ -12049,7 +12075,7 @@
         <v>19</v>
       </c>
       <c r="D103">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>181</v>
       </c>
       <c r="E103">
@@ -12057,11 +12083,11 @@
         <v>309</v>
       </c>
       <c r="F103">
+        <f t="shared" si="15"/>
+        <v>207</v>
+      </c>
+      <c r="G103">
         <f t="shared" si="13"/>
-        <v>207</v>
-      </c>
-      <c r="G103">
-        <f t="shared" si="11"/>
         <v>312</v>
       </c>
       <c r="H103" t="s">
@@ -12693,7 +12719,7 @@
         <v>19</v>
       </c>
       <c r="D114">
-        <f t="shared" ref="D114" si="14">D117-1</f>
+        <f t="shared" ref="D114" si="16">D117-1</f>
         <v>59</v>
       </c>
       <c r="E114">
@@ -12757,7 +12783,7 @@
         <v>81</v>
       </c>
       <c r="E115">
-        <f t="shared" ref="E115:E119" si="15">E114</f>
+        <f t="shared" ref="E115:E119" si="17">E114</f>
         <v>23</v>
       </c>
       <c r="F115">
@@ -12817,7 +12843,7 @@
         <v>104</v>
       </c>
       <c r="E116">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>23</v>
       </c>
       <c r="F116">
@@ -12825,7 +12851,7 @@
         <v>125</v>
       </c>
       <c r="G116">
-        <f t="shared" ref="G116" si="16">G115</f>
+        <f t="shared" ref="G116" si="18">G115</f>
         <v>28</v>
       </c>
       <c r="H116" t="s">
@@ -12934,11 +12960,11 @@
         <v>82</v>
       </c>
       <c r="E118">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>23</v>
       </c>
       <c r="F118">
-        <f t="shared" ref="F118:F119" si="17">D118</f>
+        <f t="shared" ref="F118:F119" si="19">D118</f>
         <v>82</v>
       </c>
       <c r="G118">
@@ -12991,11 +13017,11 @@
         <v>104</v>
       </c>
       <c r="E119">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>23</v>
       </c>
       <c r="F119">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>104</v>
       </c>
       <c r="G119">
@@ -13172,7 +13198,7 @@
         <v>81</v>
       </c>
       <c r="G122">
-        <f t="shared" ref="G122:G124" si="18">E122+3</f>
+        <f t="shared" ref="G122:G124" si="20">E122+3</f>
         <v>45</v>
       </c>
       <c r="H122" t="s">
@@ -13232,7 +13258,7 @@
         <v>105</v>
       </c>
       <c r="G123">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>45</v>
       </c>
       <c r="H123" t="s">
@@ -13292,7 +13318,7 @@
         <v>125</v>
       </c>
       <c r="G124">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>45</v>
       </c>
       <c r="H124" t="s">
@@ -13340,7 +13366,7 @@
         <v>19</v>
       </c>
       <c r="D125">
-        <f t="shared" ref="D125:D156" si="19">D121</f>
+        <f t="shared" ref="D125:D156" si="21">D121</f>
         <v>10</v>
       </c>
       <c r="E125">
@@ -13348,7 +13374,7 @@
         <v>56</v>
       </c>
       <c r="F125">
-        <f t="shared" ref="F125:F156" si="20">F121</f>
+        <f t="shared" ref="F125:F156" si="22">F121</f>
         <v>58</v>
       </c>
       <c r="G125">
@@ -13400,7 +13426,7 @@
         <v>19</v>
       </c>
       <c r="D126">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>59</v>
       </c>
       <c r="E126">
@@ -13408,7 +13434,7 @@
         <v>57</v>
       </c>
       <c r="F126">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>81</v>
       </c>
       <c r="G126">
@@ -13460,7 +13486,7 @@
         <v>19</v>
       </c>
       <c r="D127">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>81</v>
       </c>
       <c r="E127">
@@ -13468,11 +13494,11 @@
         <v>57</v>
       </c>
       <c r="F127">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>105</v>
       </c>
       <c r="G127">
-        <f t="shared" ref="G127:G128" si="21">E127+3</f>
+        <f t="shared" ref="G127:G128" si="23">E127+3</f>
         <v>60</v>
       </c>
       <c r="H127" t="s">
@@ -13520,7 +13546,7 @@
         <v>19</v>
       </c>
       <c r="D128">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>104</v>
       </c>
       <c r="E128">
@@ -13528,11 +13554,11 @@
         <v>57</v>
       </c>
       <c r="F128">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>125</v>
       </c>
       <c r="G128">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>60</v>
       </c>
       <c r="H128" t="s">
@@ -13580,7 +13606,7 @@
         <v>19</v>
       </c>
       <c r="D129">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>10</v>
       </c>
       <c r="E129">
@@ -13588,7 +13614,7 @@
         <v>71</v>
       </c>
       <c r="F129">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>58</v>
       </c>
       <c r="G129">
@@ -13640,7 +13666,7 @@
         <v>19</v>
       </c>
       <c r="D130">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>59</v>
       </c>
       <c r="E130">
@@ -13648,11 +13674,11 @@
         <v>72</v>
       </c>
       <c r="F130">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>81</v>
       </c>
       <c r="G130">
-        <f t="shared" ref="G130:G132" si="22">E130+3</f>
+        <f t="shared" ref="G130:G132" si="24">E130+3</f>
         <v>75</v>
       </c>
       <c r="H130" t="s">
@@ -13700,7 +13726,7 @@
         <v>19</v>
       </c>
       <c r="D131">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>81</v>
       </c>
       <c r="E131">
@@ -13708,11 +13734,11 @@
         <v>72</v>
       </c>
       <c r="F131">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>105</v>
       </c>
       <c r="G131">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>75</v>
       </c>
       <c r="H131" t="s">
@@ -13760,7 +13786,7 @@
         <v>19</v>
       </c>
       <c r="D132">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>104</v>
       </c>
       <c r="E132">
@@ -13768,11 +13794,11 @@
         <v>72</v>
       </c>
       <c r="F132">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>125</v>
       </c>
       <c r="G132">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>75</v>
       </c>
       <c r="H132" t="s">
@@ -13820,7 +13846,7 @@
         <v>19</v>
       </c>
       <c r="D133">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>10</v>
       </c>
       <c r="E133">
@@ -13828,7 +13854,7 @@
         <v>86</v>
       </c>
       <c r="F133">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>58</v>
       </c>
       <c r="G133">
@@ -13880,7 +13906,7 @@
         <v>19</v>
       </c>
       <c r="D134">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>59</v>
       </c>
       <c r="E134">
@@ -13888,11 +13914,11 @@
         <v>87</v>
       </c>
       <c r="F134">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>81</v>
       </c>
       <c r="G134">
-        <f t="shared" ref="G134:G136" si="23">E134+3</f>
+        <f t="shared" ref="G134:G136" si="25">E134+3</f>
         <v>90</v>
       </c>
       <c r="H134" t="s">
@@ -13940,7 +13966,7 @@
         <v>19</v>
       </c>
       <c r="D135">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>81</v>
       </c>
       <c r="E135">
@@ -13948,11 +13974,11 @@
         <v>87</v>
       </c>
       <c r="F135">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>105</v>
       </c>
       <c r="G135">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>90</v>
       </c>
       <c r="H135" t="s">
@@ -14000,7 +14026,7 @@
         <v>19</v>
       </c>
       <c r="D136">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>104</v>
       </c>
       <c r="E136">
@@ -14008,11 +14034,11 @@
         <v>87</v>
       </c>
       <c r="F136">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>125</v>
       </c>
       <c r="G136">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>90</v>
       </c>
       <c r="H136" t="s">
@@ -14060,7 +14086,7 @@
         <v>19</v>
       </c>
       <c r="D137">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>10</v>
       </c>
       <c r="E137">
@@ -14068,7 +14094,7 @@
         <v>101</v>
       </c>
       <c r="F137">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>58</v>
       </c>
       <c r="G137">
@@ -14120,7 +14146,7 @@
         <v>19</v>
       </c>
       <c r="D138">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>59</v>
       </c>
       <c r="E138">
@@ -14128,11 +14154,11 @@
         <v>102</v>
       </c>
       <c r="F138">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>81</v>
       </c>
       <c r="G138">
-        <f t="shared" ref="G138:G140" si="24">E138+3</f>
+        <f t="shared" ref="G138:G140" si="26">E138+3</f>
         <v>105</v>
       </c>
       <c r="H138" t="s">
@@ -14180,7 +14206,7 @@
         <v>19</v>
       </c>
       <c r="D139">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>81</v>
       </c>
       <c r="E139">
@@ -14188,11 +14214,11 @@
         <v>102</v>
       </c>
       <c r="F139">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>105</v>
       </c>
       <c r="G139">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>105</v>
       </c>
       <c r="H139" t="s">
@@ -14240,7 +14266,7 @@
         <v>19</v>
       </c>
       <c r="D140">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>104</v>
       </c>
       <c r="E140">
@@ -14248,11 +14274,11 @@
         <v>102</v>
       </c>
       <c r="F140">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>125</v>
       </c>
       <c r="G140">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>105</v>
       </c>
       <c r="H140" t="s">
@@ -14300,7 +14326,7 @@
         <v>19</v>
       </c>
       <c r="D141">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>10</v>
       </c>
       <c r="E141">
@@ -14308,7 +14334,7 @@
         <v>116</v>
       </c>
       <c r="F141">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>58</v>
       </c>
       <c r="G141">
@@ -14360,7 +14386,7 @@
         <v>19</v>
       </c>
       <c r="D142">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>59</v>
       </c>
       <c r="E142">
@@ -14368,11 +14394,11 @@
         <v>117</v>
       </c>
       <c r="F142">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>81</v>
       </c>
       <c r="G142">
-        <f t="shared" ref="G142:G144" si="25">E142+3</f>
+        <f t="shared" ref="G142:G144" si="27">E142+3</f>
         <v>120</v>
       </c>
       <c r="H142" t="s">
@@ -14420,7 +14446,7 @@
         <v>19</v>
       </c>
       <c r="D143">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>81</v>
       </c>
       <c r="E143">
@@ -14428,11 +14454,11 @@
         <v>117</v>
       </c>
       <c r="F143">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>105</v>
       </c>
       <c r="G143">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>120</v>
       </c>
       <c r="H143" t="s">
@@ -14480,7 +14506,7 @@
         <v>19</v>
       </c>
       <c r="D144">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>104</v>
       </c>
       <c r="E144">
@@ -14488,11 +14514,11 @@
         <v>117</v>
       </c>
       <c r="F144">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>125</v>
       </c>
       <c r="G144">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>120</v>
       </c>
       <c r="H144" t="s">
@@ -14540,7 +14566,7 @@
         <v>19</v>
       </c>
       <c r="D145">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>10</v>
       </c>
       <c r="E145">
@@ -14548,7 +14574,7 @@
         <v>131</v>
       </c>
       <c r="F145">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>58</v>
       </c>
       <c r="G145">
@@ -14600,7 +14626,7 @@
         <v>19</v>
       </c>
       <c r="D146">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>59</v>
       </c>
       <c r="E146">
@@ -14608,11 +14634,11 @@
         <v>132</v>
       </c>
       <c r="F146">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>81</v>
       </c>
       <c r="G146">
-        <f t="shared" ref="G146:G148" si="26">E146+3</f>
+        <f t="shared" ref="G146:G148" si="28">E146+3</f>
         <v>135</v>
       </c>
       <c r="H146" t="s">
@@ -14660,7 +14686,7 @@
         <v>19</v>
       </c>
       <c r="D147">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>81</v>
       </c>
       <c r="E147">
@@ -14668,11 +14694,11 @@
         <v>132</v>
       </c>
       <c r="F147">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>105</v>
       </c>
       <c r="G147">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>135</v>
       </c>
       <c r="H147" t="s">
@@ -14720,7 +14746,7 @@
         <v>19</v>
       </c>
       <c r="D148">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>104</v>
       </c>
       <c r="E148">
@@ -14728,11 +14754,11 @@
         <v>132</v>
       </c>
       <c r="F148">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>125</v>
       </c>
       <c r="G148">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>135</v>
       </c>
       <c r="H148" t="s">
@@ -14781,7 +14807,7 @@
         <v>19</v>
       </c>
       <c r="D149">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>10</v>
       </c>
       <c r="E149">
@@ -14789,7 +14815,7 @@
         <v>146</v>
       </c>
       <c r="F149">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>58</v>
       </c>
       <c r="G149">
@@ -14842,7 +14868,7 @@
         <v>19</v>
       </c>
       <c r="D150">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>59</v>
       </c>
       <c r="E150">
@@ -14850,11 +14876,11 @@
         <v>147</v>
       </c>
       <c r="F150">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>81</v>
       </c>
       <c r="G150">
-        <f t="shared" ref="G150:G152" si="27">E150+3</f>
+        <f t="shared" ref="G150:G152" si="29">E150+3</f>
         <v>150</v>
       </c>
       <c r="H150" t="s">
@@ -14903,7 +14929,7 @@
         <v>19</v>
       </c>
       <c r="D151">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>81</v>
       </c>
       <c r="E151">
@@ -14911,11 +14937,11 @@
         <v>147</v>
       </c>
       <c r="F151">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>105</v>
       </c>
       <c r="G151">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>150</v>
       </c>
       <c r="H151" t="s">
@@ -14964,7 +14990,7 @@
         <v>19</v>
       </c>
       <c r="D152">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>104</v>
       </c>
       <c r="E152">
@@ -14972,11 +14998,11 @@
         <v>147</v>
       </c>
       <c r="F152">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>125</v>
       </c>
       <c r="G152">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>150</v>
       </c>
       <c r="H152" t="s">
@@ -15025,7 +15051,7 @@
         <v>19</v>
       </c>
       <c r="D153">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>10</v>
       </c>
       <c r="E153">
@@ -15033,7 +15059,7 @@
         <v>161</v>
       </c>
       <c r="F153">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>58</v>
       </c>
       <c r="G153">
@@ -15086,7 +15112,7 @@
         <v>19</v>
       </c>
       <c r="D154">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>59</v>
       </c>
       <c r="E154">
@@ -15094,11 +15120,11 @@
         <v>162</v>
       </c>
       <c r="F154">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>81</v>
       </c>
       <c r="G154">
-        <f t="shared" ref="G154:G156" si="28">E154+3</f>
+        <f t="shared" ref="G154:G156" si="30">E154+3</f>
         <v>165</v>
       </c>
       <c r="H154" t="s">
@@ -15147,7 +15173,7 @@
         <v>19</v>
       </c>
       <c r="D155">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>81</v>
       </c>
       <c r="E155">
@@ -15155,11 +15181,11 @@
         <v>162</v>
       </c>
       <c r="F155">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>105</v>
       </c>
       <c r="G155">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>165</v>
       </c>
       <c r="H155" t="s">
@@ -15208,7 +15234,7 @@
         <v>19</v>
       </c>
       <c r="D156">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>104</v>
       </c>
       <c r="E156">
@@ -15216,11 +15242,11 @@
         <v>162</v>
       </c>
       <c r="F156">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>125</v>
       </c>
       <c r="G156">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>165</v>
       </c>
       <c r="H156" t="s">
@@ -15269,7 +15295,7 @@
         <v>19</v>
       </c>
       <c r="D157">
-        <f t="shared" ref="D157:D184" si="29">D153</f>
+        <f t="shared" ref="D157:D184" si="31">D153</f>
         <v>10</v>
       </c>
       <c r="E157">
@@ -15277,7 +15303,7 @@
         <v>176</v>
       </c>
       <c r="F157">
-        <f t="shared" ref="F157:F188" si="30">F153</f>
+        <f t="shared" ref="F157:F188" si="32">F153</f>
         <v>58</v>
       </c>
       <c r="G157">
@@ -15330,7 +15356,7 @@
         <v>19</v>
       </c>
       <c r="D158">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>59</v>
       </c>
       <c r="E158">
@@ -15338,11 +15364,11 @@
         <v>177</v>
       </c>
       <c r="F158">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>81</v>
       </c>
       <c r="G158">
-        <f t="shared" ref="G158:G160" si="31">E158+3</f>
+        <f t="shared" ref="G158:G160" si="33">E158+3</f>
         <v>180</v>
       </c>
       <c r="H158" t="s">
@@ -15391,7 +15417,7 @@
         <v>19</v>
       </c>
       <c r="D159">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>81</v>
       </c>
       <c r="E159">
@@ -15399,11 +15425,11 @@
         <v>177</v>
       </c>
       <c r="F159">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>105</v>
       </c>
       <c r="G159">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>180</v>
       </c>
       <c r="H159" t="s">
@@ -15452,7 +15478,7 @@
         <v>19</v>
       </c>
       <c r="D160">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>104</v>
       </c>
       <c r="E160">
@@ -15460,11 +15486,11 @@
         <v>177</v>
       </c>
       <c r="F160">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>125</v>
       </c>
       <c r="G160">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>180</v>
       </c>
       <c r="H160" t="s">
@@ -15513,7 +15539,7 @@
         <v>19</v>
       </c>
       <c r="D161">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>10</v>
       </c>
       <c r="E161">
@@ -15521,7 +15547,7 @@
         <v>191</v>
       </c>
       <c r="F161">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>58</v>
       </c>
       <c r="G161">
@@ -15574,7 +15600,7 @@
         <v>19</v>
       </c>
       <c r="D162">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>59</v>
       </c>
       <c r="E162">
@@ -15582,11 +15608,11 @@
         <v>192</v>
       </c>
       <c r="F162">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>81</v>
       </c>
       <c r="G162">
-        <f t="shared" ref="G162:G164" si="32">E162+3</f>
+        <f t="shared" ref="G162:G164" si="34">E162+3</f>
         <v>195</v>
       </c>
       <c r="H162" t="s">
@@ -15635,7 +15661,7 @@
         <v>19</v>
       </c>
       <c r="D163">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>81</v>
       </c>
       <c r="E163">
@@ -15643,11 +15669,11 @@
         <v>192</v>
       </c>
       <c r="F163">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>105</v>
       </c>
       <c r="G163">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>195</v>
       </c>
       <c r="H163" t="s">
@@ -15696,7 +15722,7 @@
         <v>19</v>
       </c>
       <c r="D164">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>104</v>
       </c>
       <c r="E164">
@@ -15704,11 +15730,11 @@
         <v>192</v>
       </c>
       <c r="F164">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>125</v>
       </c>
       <c r="G164">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>195</v>
       </c>
       <c r="H164" t="s">
@@ -15757,7 +15783,7 @@
         <v>19</v>
       </c>
       <c r="D165">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>10</v>
       </c>
       <c r="E165">
@@ -15765,7 +15791,7 @@
         <v>206</v>
       </c>
       <c r="F165">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>58</v>
       </c>
       <c r="G165">
@@ -15818,7 +15844,7 @@
         <v>19</v>
       </c>
       <c r="D166">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>59</v>
       </c>
       <c r="E166">
@@ -15826,11 +15852,11 @@
         <v>207</v>
       </c>
       <c r="F166">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>81</v>
       </c>
       <c r="G166">
-        <f t="shared" ref="G166:G168" si="33">E166+3</f>
+        <f t="shared" ref="G166:G168" si="35">E166+3</f>
         <v>210</v>
       </c>
       <c r="H166" t="s">
@@ -15879,7 +15905,7 @@
         <v>19</v>
       </c>
       <c r="D167">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>81</v>
       </c>
       <c r="E167">
@@ -15887,11 +15913,11 @@
         <v>207</v>
       </c>
       <c r="F167">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>105</v>
       </c>
       <c r="G167">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>210</v>
       </c>
       <c r="H167" t="s">
@@ -15940,7 +15966,7 @@
         <v>19</v>
       </c>
       <c r="D168">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>104</v>
       </c>
       <c r="E168">
@@ -15948,11 +15974,11 @@
         <v>207</v>
       </c>
       <c r="F168">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>125</v>
       </c>
       <c r="G168">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>210</v>
       </c>
       <c r="H168" t="s">
@@ -16001,7 +16027,7 @@
         <v>19</v>
       </c>
       <c r="D169">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>10</v>
       </c>
       <c r="E169">
@@ -16009,7 +16035,7 @@
         <v>221</v>
       </c>
       <c r="F169">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>58</v>
       </c>
       <c r="G169">
@@ -16062,7 +16088,7 @@
         <v>19</v>
       </c>
       <c r="D170">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>59</v>
       </c>
       <c r="E170">
@@ -16070,11 +16096,11 @@
         <v>222</v>
       </c>
       <c r="F170">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>81</v>
       </c>
       <c r="G170">
-        <f t="shared" ref="G170:G172" si="34">E170+3</f>
+        <f t="shared" ref="G170:G172" si="36">E170+3</f>
         <v>225</v>
       </c>
       <c r="H170" t="s">
@@ -16123,7 +16149,7 @@
         <v>19</v>
       </c>
       <c r="D171">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>81</v>
       </c>
       <c r="E171">
@@ -16131,11 +16157,11 @@
         <v>222</v>
       </c>
       <c r="F171">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>105</v>
       </c>
       <c r="G171">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>225</v>
       </c>
       <c r="H171" t="s">
@@ -16184,7 +16210,7 @@
         <v>19</v>
       </c>
       <c r="D172">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>104</v>
       </c>
       <c r="E172">
@@ -16192,11 +16218,11 @@
         <v>222</v>
       </c>
       <c r="F172">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>125</v>
       </c>
       <c r="G172">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>225</v>
       </c>
       <c r="H172" t="s">
@@ -16245,7 +16271,7 @@
         <v>19</v>
       </c>
       <c r="D173">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>10</v>
       </c>
       <c r="E173">
@@ -16253,7 +16279,7 @@
         <v>236</v>
       </c>
       <c r="F173">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>58</v>
       </c>
       <c r="G173">
@@ -16306,7 +16332,7 @@
         <v>19</v>
       </c>
       <c r="D174">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>59</v>
       </c>
       <c r="E174">
@@ -16314,11 +16340,11 @@
         <v>237</v>
       </c>
       <c r="F174">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>81</v>
       </c>
       <c r="G174">
-        <f t="shared" ref="G174:G176" si="35">E174+3</f>
+        <f t="shared" ref="G174:G176" si="37">E174+3</f>
         <v>240</v>
       </c>
       <c r="H174" t="s">
@@ -16367,7 +16393,7 @@
         <v>19</v>
       </c>
       <c r="D175">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>81</v>
       </c>
       <c r="E175">
@@ -16375,11 +16401,11 @@
         <v>237</v>
       </c>
       <c r="F175">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>105</v>
       </c>
       <c r="G175">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>240</v>
       </c>
       <c r="H175" t="s">
@@ -16428,7 +16454,7 @@
         <v>19</v>
       </c>
       <c r="D176">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>104</v>
       </c>
       <c r="E176">
@@ -16436,11 +16462,11 @@
         <v>237</v>
       </c>
       <c r="F176">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>125</v>
       </c>
       <c r="G176">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>240</v>
       </c>
       <c r="H176" t="s">
@@ -16489,7 +16515,7 @@
         <v>19</v>
       </c>
       <c r="D177">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>10</v>
       </c>
       <c r="E177">
@@ -16497,7 +16523,7 @@
         <v>251</v>
       </c>
       <c r="F177">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>58</v>
       </c>
       <c r="G177">
@@ -16550,7 +16576,7 @@
         <v>19</v>
       </c>
       <c r="D178">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>59</v>
       </c>
       <c r="E178">
@@ -16558,11 +16584,11 @@
         <v>252</v>
       </c>
       <c r="F178">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>81</v>
       </c>
       <c r="G178">
-        <f t="shared" ref="G178:G180" si="36">E178+3</f>
+        <f t="shared" ref="G178:G180" si="38">E178+3</f>
         <v>255</v>
       </c>
       <c r="H178" t="s">
@@ -16611,7 +16637,7 @@
         <v>19</v>
       </c>
       <c r="D179">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>81</v>
       </c>
       <c r="E179">
@@ -16619,11 +16645,11 @@
         <v>252</v>
       </c>
       <c r="F179">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>105</v>
       </c>
       <c r="G179">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>255</v>
       </c>
       <c r="H179" t="s">
@@ -16672,7 +16698,7 @@
         <v>19</v>
       </c>
       <c r="D180">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>104</v>
       </c>
       <c r="E180">
@@ -16680,11 +16706,11 @@
         <v>252</v>
       </c>
       <c r="F180">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>125</v>
       </c>
       <c r="G180">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>255</v>
       </c>
       <c r="H180" t="s">
@@ -16733,7 +16759,7 @@
         <v>19</v>
       </c>
       <c r="D181">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>10</v>
       </c>
       <c r="E181">
@@ -16741,7 +16767,7 @@
         <v>266</v>
       </c>
       <c r="F181">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>58</v>
       </c>
       <c r="G181">
@@ -16794,7 +16820,7 @@
         <v>19</v>
       </c>
       <c r="D182">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>59</v>
       </c>
       <c r="E182">
@@ -16802,11 +16828,11 @@
         <v>267</v>
       </c>
       <c r="F182">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>81</v>
       </c>
       <c r="G182">
-        <f t="shared" ref="G182:G184" si="37">E182+3</f>
+        <f t="shared" ref="G182:G184" si="39">E182+3</f>
         <v>270</v>
       </c>
       <c r="H182" t="s">
@@ -16855,7 +16881,7 @@
         <v>19</v>
       </c>
       <c r="D183">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>81</v>
       </c>
       <c r="E183">
@@ -16863,11 +16889,11 @@
         <v>267</v>
       </c>
       <c r="F183">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>105</v>
       </c>
       <c r="G183">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>270</v>
       </c>
       <c r="H183" t="s">
@@ -16916,7 +16942,7 @@
         <v>19</v>
       </c>
       <c r="D184">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>104</v>
       </c>
       <c r="E184">
@@ -16924,11 +16950,11 @@
         <v>267</v>
       </c>
       <c r="F184">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>125</v>
       </c>
       <c r="G184">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>270</v>
       </c>
       <c r="H184" t="s">
@@ -16977,7 +17003,7 @@
         <v>19</v>
       </c>
       <c r="D185">
-        <f t="shared" ref="D185" si="38">D181</f>
+        <f t="shared" ref="D185" si="40">D181</f>
         <v>10</v>
       </c>
       <c r="E185">
@@ -16985,7 +17011,7 @@
         <v>281</v>
       </c>
       <c r="F185">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>58</v>
       </c>
       <c r="G185">
@@ -17046,11 +17072,11 @@
         <v>282</v>
       </c>
       <c r="F186">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>81</v>
       </c>
       <c r="G186">
-        <f t="shared" ref="G186:G188" si="39">E186+3</f>
+        <f t="shared" ref="G186:G188" si="41">E186+3</f>
         <v>285</v>
       </c>
       <c r="H186" t="s">
@@ -17107,11 +17133,11 @@
         <v>282</v>
       </c>
       <c r="F187">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>105</v>
       </c>
       <c r="G187">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>285</v>
       </c>
       <c r="H187" t="s">
@@ -17168,11 +17194,11 @@
         <v>282</v>
       </c>
       <c r="F188">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>125</v>
       </c>
       <c r="G188">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>285</v>
       </c>
       <c r="H188" t="s">
@@ -18279,7 +18305,7 @@
         <v>19</v>
       </c>
       <c r="D207">
-        <f t="shared" ref="D207" si="40">D210-1</f>
+        <f t="shared" ref="D207" si="42">D210-1</f>
         <v>146</v>
       </c>
       <c r="E207">
@@ -18343,7 +18369,7 @@
         <v>165</v>
       </c>
       <c r="E208">
-        <f t="shared" ref="E208:E212" si="41">E207</f>
+        <f t="shared" ref="E208:E212" si="43">E207</f>
         <v>92</v>
       </c>
       <c r="F208">
@@ -18403,7 +18429,7 @@
         <v>188</v>
       </c>
       <c r="E209">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>92</v>
       </c>
       <c r="F209">
@@ -18411,7 +18437,7 @@
         <v>209</v>
       </c>
       <c r="G209">
-        <f t="shared" ref="G209" si="42">G208</f>
+        <f t="shared" ref="G209" si="44">G208</f>
         <v>97</v>
       </c>
       <c r="H209" t="s">
@@ -18520,11 +18546,11 @@
         <v>166</v>
       </c>
       <c r="E211">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>92</v>
       </c>
       <c r="F211">
-        <f t="shared" ref="F211:F212" si="43">D211</f>
+        <f t="shared" ref="F211:F212" si="45">D211</f>
         <v>166</v>
       </c>
       <c r="G211">
@@ -18577,11 +18603,11 @@
         <v>188</v>
       </c>
       <c r="E212">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>92</v>
       </c>
       <c r="F212">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>188</v>
       </c>
       <c r="G212">
@@ -18758,7 +18784,7 @@
         <v>165</v>
       </c>
       <c r="G215">
-        <f t="shared" ref="G215:G217" si="44">E215+3</f>
+        <f t="shared" ref="G215:G217" si="46">E215+3</f>
         <v>114</v>
       </c>
       <c r="H215" t="s">
@@ -18818,7 +18844,7 @@
         <v>189</v>
       </c>
       <c r="G216">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>114</v>
       </c>
       <c r="H216" t="s">
@@ -18878,7 +18904,7 @@
         <v>209</v>
       </c>
       <c r="G217">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>114</v>
       </c>
       <c r="H217" t="s">
@@ -18997,7 +19023,7 @@
         <v>165</v>
       </c>
       <c r="G219">
-        <f t="shared" ref="G219:G221" si="45">E219+3</f>
+        <f t="shared" ref="G219:G221" si="47">E219+3</f>
         <v>132</v>
       </c>
       <c r="H219" t="s">
@@ -19057,7 +19083,7 @@
         <v>189</v>
       </c>
       <c r="G220">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>132</v>
       </c>
       <c r="H220" t="s">
@@ -19117,7 +19143,7 @@
         <v>209</v>
       </c>
       <c r="G221">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>132</v>
       </c>
       <c r="H221" t="s">
@@ -19236,7 +19262,7 @@
         <v>165</v>
       </c>
       <c r="G223">
-        <f t="shared" ref="G223:G225" si="46">E223+3</f>
+        <f t="shared" ref="G223:G225" si="48">E223+3</f>
         <v>150</v>
       </c>
       <c r="H223" t="s">
@@ -19296,7 +19322,7 @@
         <v>189</v>
       </c>
       <c r="G224">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>150</v>
       </c>
       <c r="H224" t="s">
@@ -19356,7 +19382,7 @@
         <v>209</v>
       </c>
       <c r="G225">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>150</v>
       </c>
       <c r="H225" t="s">
@@ -19414,7 +19440,7 @@
         <v>100</v>
       </c>
       <c r="G226">
-        <f t="shared" ref="G226" si="47">E226+3</f>
+        <f t="shared" ref="G226" si="49">E226+3</f>
         <v>163</v>
       </c>
       <c r="H226" t="s">
@@ -19757,7 +19783,7 @@
         <v>19</v>
       </c>
       <c r="D232">
-        <f t="shared" ref="D232" si="48">D235-1</f>
+        <f t="shared" ref="D232" si="50">D235-1</f>
         <v>146</v>
       </c>
       <c r="E232">
@@ -19821,7 +19847,7 @@
         <v>165</v>
       </c>
       <c r="E233">
-        <f t="shared" ref="E233:E237" si="49">E232</f>
+        <f t="shared" ref="E233:E237" si="51">E232</f>
         <v>233</v>
       </c>
       <c r="F233">
@@ -19881,7 +19907,7 @@
         <v>188</v>
       </c>
       <c r="E234">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>233</v>
       </c>
       <c r="F234">
@@ -19889,7 +19915,7 @@
         <v>209</v>
       </c>
       <c r="G234">
-        <f t="shared" ref="G234" si="50">G233</f>
+        <f t="shared" ref="G234" si="52">G233</f>
         <v>238</v>
       </c>
       <c r="H234" t="s">
@@ -19998,11 +20024,11 @@
         <v>166</v>
       </c>
       <c r="E236">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>233</v>
       </c>
       <c r="F236">
-        <f t="shared" ref="F236:F237" si="51">D236</f>
+        <f t="shared" ref="F236:F237" si="53">D236</f>
         <v>166</v>
       </c>
       <c r="G236">
@@ -20055,11 +20081,11 @@
         <v>188</v>
       </c>
       <c r="E237">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>233</v>
       </c>
       <c r="F237">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>188</v>
       </c>
       <c r="G237">
@@ -20236,7 +20262,7 @@
         <v>165</v>
       </c>
       <c r="G240">
-        <f t="shared" ref="G240:G242" si="52">E240+3</f>
+        <f t="shared" ref="G240:G242" si="54">E240+3</f>
         <v>255</v>
       </c>
       <c r="H240" t="s">
@@ -20296,7 +20322,7 @@
         <v>189</v>
       </c>
       <c r="G241">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>255</v>
       </c>
       <c r="H241" t="s">
@@ -20356,7 +20382,7 @@
         <v>209</v>
       </c>
       <c r="G242">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>255</v>
       </c>
       <c r="H242" t="s">
@@ -20633,7 +20659,7 @@
         <v>19</v>
       </c>
       <c r="D247">
-        <f t="shared" ref="D247" si="53">D250-1</f>
+        <f t="shared" ref="D247" si="55">D250-1</f>
         <v>136</v>
       </c>
       <c r="E247">
@@ -20697,7 +20723,7 @@
         <v>155</v>
       </c>
       <c r="E248">
-        <f t="shared" ref="E248:E249" si="54">E247</f>
+        <f t="shared" ref="E248:E249" si="56">E247</f>
         <v>21</v>
       </c>
       <c r="F248">
@@ -20757,7 +20783,7 @@
         <v>178</v>
       </c>
       <c r="E249">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>21</v>
       </c>
       <c r="F249">
@@ -20765,7 +20791,7 @@
         <v>199</v>
       </c>
       <c r="G249">
-        <f t="shared" ref="G249" si="55">G248</f>
+        <f t="shared" ref="G249" si="57">G248</f>
         <v>26</v>
       </c>
       <c r="H249" t="s">
@@ -20873,11 +20899,11 @@
         <v>156</v>
       </c>
       <c r="E251">
-        <f t="shared" ref="E251:E252" si="56">E250</f>
+        <f t="shared" ref="E251:E252" si="58">E250</f>
         <v>19</v>
       </c>
       <c r="F251">
-        <f t="shared" ref="F251:F252" si="57">D251</f>
+        <f t="shared" ref="F251:F252" si="59">D251</f>
         <v>156</v>
       </c>
       <c r="G251">
@@ -20930,11 +20956,11 @@
         <v>178</v>
       </c>
       <c r="E252">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>19</v>
       </c>
       <c r="F252">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>178</v>
       </c>
       <c r="G252">
@@ -21112,7 +21138,7 @@
         <v>155</v>
       </c>
       <c r="G255">
-        <f t="shared" ref="G255:G257" si="58">E255+3</f>
+        <f t="shared" ref="G255:G257" si="60">E255+3</f>
         <v>43</v>
       </c>
       <c r="H255" t="s">
@@ -21172,7 +21198,7 @@
         <v>179</v>
       </c>
       <c r="G256">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>43</v>
       </c>
       <c r="H256" t="s">
@@ -21232,7 +21258,7 @@
         <v>199</v>
       </c>
       <c r="G257">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>43</v>
       </c>
       <c r="H257" t="s">
@@ -21280,7 +21306,7 @@
         <v>19</v>
       </c>
       <c r="D258">
-        <f t="shared" ref="D258:D269" si="59">D254</f>
+        <f t="shared" ref="D258:D269" si="61">D254</f>
         <v>89</v>
       </c>
       <c r="E258">
@@ -21288,7 +21314,7 @@
         <v>54</v>
       </c>
       <c r="F258">
-        <f t="shared" ref="F258:F269" si="60">F254</f>
+        <f t="shared" ref="F258:F269" si="62">F254</f>
         <v>135</v>
       </c>
       <c r="G258">
@@ -21340,7 +21366,7 @@
         <v>19</v>
       </c>
       <c r="D259">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>136</v>
       </c>
       <c r="E259">
@@ -21348,7 +21374,7 @@
         <v>55</v>
       </c>
       <c r="F259">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>155</v>
       </c>
       <c r="G259">
@@ -21400,7 +21426,7 @@
         <v>19</v>
       </c>
       <c r="D260">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>155</v>
       </c>
       <c r="E260">
@@ -21408,11 +21434,11 @@
         <v>55</v>
       </c>
       <c r="F260">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>179</v>
       </c>
       <c r="G260">
-        <f t="shared" ref="G260:G261" si="61">E260+3</f>
+        <f t="shared" ref="G260:G261" si="63">E260+3</f>
         <v>58</v>
       </c>
       <c r="H260" t="s">
@@ -21460,7 +21486,7 @@
         <v>19</v>
       </c>
       <c r="D261">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>178</v>
       </c>
       <c r="E261">
@@ -21468,11 +21494,11 @@
         <v>55</v>
       </c>
       <c r="F261">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>199</v>
       </c>
       <c r="G261">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>58</v>
       </c>
       <c r="H261" t="s">
@@ -21520,7 +21546,7 @@
         <v>19</v>
       </c>
       <c r="D262">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>89</v>
       </c>
       <c r="E262">
@@ -21528,7 +21554,7 @@
         <v>69</v>
       </c>
       <c r="F262">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>135</v>
       </c>
       <c r="G262">
@@ -21580,7 +21606,7 @@
         <v>19</v>
       </c>
       <c r="D263">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>136</v>
       </c>
       <c r="E263">
@@ -21588,11 +21614,11 @@
         <v>70</v>
       </c>
       <c r="F263">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>155</v>
       </c>
       <c r="G263">
-        <f t="shared" ref="G263:G265" si="62">E263+3</f>
+        <f t="shared" ref="G263:G265" si="64">E263+3</f>
         <v>73</v>
       </c>
       <c r="H263" t="s">
@@ -21640,7 +21666,7 @@
         <v>19</v>
       </c>
       <c r="D264">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>155</v>
       </c>
       <c r="E264">
@@ -21648,11 +21674,11 @@
         <v>70</v>
       </c>
       <c r="F264">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>179</v>
       </c>
       <c r="G264">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>73</v>
       </c>
       <c r="H264" t="s">
@@ -21700,7 +21726,7 @@
         <v>19</v>
       </c>
       <c r="D265">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>178</v>
       </c>
       <c r="E265">
@@ -21708,11 +21734,11 @@
         <v>70</v>
       </c>
       <c r="F265">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>199</v>
       </c>
       <c r="G265">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>73</v>
       </c>
       <c r="H265" t="s">
@@ -21760,7 +21786,7 @@
         <v>19</v>
       </c>
       <c r="D266">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>89</v>
       </c>
       <c r="E266">
@@ -21768,7 +21794,7 @@
         <v>84</v>
       </c>
       <c r="F266">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>135</v>
       </c>
       <c r="G266">
@@ -21820,7 +21846,7 @@
         <v>19</v>
       </c>
       <c r="D267">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>136</v>
       </c>
       <c r="E267">
@@ -21828,11 +21854,11 @@
         <v>85</v>
       </c>
       <c r="F267">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>155</v>
       </c>
       <c r="G267">
-        <f t="shared" ref="G267:G269" si="63">E267+3</f>
+        <f t="shared" ref="G267:G269" si="65">E267+3</f>
         <v>88</v>
       </c>
       <c r="H267" t="s">
@@ -21880,7 +21906,7 @@
         <v>19</v>
       </c>
       <c r="D268">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>155</v>
       </c>
       <c r="E268">
@@ -21888,11 +21914,11 @@
         <v>85</v>
       </c>
       <c r="F268">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>179</v>
       </c>
       <c r="G268">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>88</v>
       </c>
       <c r="H268" t="s">
@@ -21940,7 +21966,7 @@
         <v>19</v>
       </c>
       <c r="D269">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>178</v>
       </c>
       <c r="E269">
@@ -21948,11 +21974,11 @@
         <v>85</v>
       </c>
       <c r="F269">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>199</v>
       </c>
       <c r="G269">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>88</v>
       </c>
       <c r="H269" t="s">
@@ -22233,7 +22259,7 @@
         <v>19</v>
       </c>
       <c r="D274">
-        <f t="shared" ref="D274" si="64">D277-1</f>
+        <f t="shared" ref="D274" si="66">D277-1</f>
         <v>136</v>
       </c>
       <c r="E274">
@@ -22297,7 +22323,7 @@
         <v>155</v>
       </c>
       <c r="E275">
-        <f t="shared" ref="E275:E276" si="65">E274</f>
+        <f t="shared" ref="E275:E276" si="67">E274</f>
         <v>112</v>
       </c>
       <c r="F275">
@@ -22357,7 +22383,7 @@
         <v>178</v>
       </c>
       <c r="E276">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>112</v>
       </c>
       <c r="F276">
@@ -22365,7 +22391,7 @@
         <v>199</v>
       </c>
       <c r="G276">
-        <f t="shared" ref="G276" si="66">G275</f>
+        <f t="shared" ref="G276" si="68">G275</f>
         <v>117</v>
       </c>
       <c r="H276" t="s">
@@ -22474,11 +22500,11 @@
         <v>156</v>
       </c>
       <c r="E278">
-        <f t="shared" ref="E278:E279" si="67">E277</f>
+        <f t="shared" ref="E278:E279" si="69">E277</f>
         <v>110</v>
       </c>
       <c r="F278">
-        <f t="shared" ref="F278:F279" si="68">D278</f>
+        <f t="shared" ref="F278:F279" si="70">D278</f>
         <v>156</v>
       </c>
       <c r="G278">
@@ -22531,11 +22557,11 @@
         <v>178</v>
       </c>
       <c r="E279">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>110</v>
       </c>
       <c r="F279">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>178</v>
       </c>
       <c r="G279">
@@ -22713,7 +22739,7 @@
         <v>155</v>
       </c>
       <c r="G282">
-        <f t="shared" ref="G282:G284" si="69">E282+3</f>
+        <f t="shared" ref="G282:G284" si="71">E282+3</f>
         <v>134</v>
       </c>
       <c r="H282" t="s">
@@ -22773,7 +22799,7 @@
         <v>179</v>
       </c>
       <c r="G283">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>134</v>
       </c>
       <c r="H283" t="s">
@@ -22833,7 +22859,7 @@
         <v>199</v>
       </c>
       <c r="G284">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>134</v>
       </c>
       <c r="H284" t="s">
@@ -28277,11 +28303,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V138"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E123" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C135" sqref="C135"/>
+      <selection pane="bottomRight" activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34447,7 +34473,7 @@
         <v>1519</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>1520</v>
+        <v>1585</v>
       </c>
       <c r="D123" s="10" t="s">
         <v>1520</v>

--- a/process/configuration/templates/_report_configuration.xlsx
+++ b/process/configuration/templates/_report_configuration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rmiteduau-my.sharepoint.com/personal/carl_higgs_rmit_edu_au/Documents/projects/global-indicators/process/configuration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4386" documentId="114_{57517418-E3A8-4D24-9644-27D04334BB89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4F2C2A0-6F88-40F5-BB88-C3A04BE6D602}"/>
+  <xr:revisionPtr revIDLastSave="4389" documentId="114_{57517418-E3A8-4D24-9644-27D04334BB89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44273BA7-D333-4E7D-A459-C782218610C8}"/>
   <bookViews>
-    <workbookView xWindow="14055" yWindow="0" windowWidth="14850" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="policy_spatial" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4145" uniqueCount="1604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4145" uniqueCount="1606">
   <si>
     <t>name</t>
   </si>
@@ -4964,6 +4964,12 @@
   </si>
   <si>
     <t>adabcf</t>
+  </si>
+  <si>
+    <t>Urban design thresholds to promote walking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The 2022 Lancet Global Health Series found that to achieve at least 80% probability of engaging in any walking for transport, an average urban neighbourhood would need a population density of at least about 5700 people km², and street connectivity of at least 100 intersections per km². Preliminary evidence showed that street intersection density above 250 per km² and ultra-dense neighbourhoods ( &gt; 15,000 persons per km²) may have decreasing benefits for physical activity. This is an important topic for future research. </t>
   </si>
 </sst>
 </file>
@@ -5542,7 +5548,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -5608,9 +5614,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -6045,7 +6048,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T296"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="M103" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -6382,7 +6385,7 @@
         <v>200</v>
       </c>
       <c r="G6">
-        <f t="shared" ref="G5:G6" si="1">E6+3</f>
+        <f t="shared" ref="G6" si="1">E6+3</f>
         <v>13</v>
       </c>
       <c r="H6" t="s">
@@ -10319,7 +10322,7 @@
         <v>0</v>
       </c>
       <c r="N72" t="str">
-        <f>$N$71</f>
+        <f t="shared" ref="N72:N79" si="12">$N$71</f>
         <v>d0d8dd</v>
       </c>
       <c r="O72" t="s">
@@ -10349,7 +10352,7 @@
         <v>19</v>
       </c>
       <c r="D73">
-        <f t="shared" ref="D73" si="12">D76-1</f>
+        <f t="shared" ref="D73" si="13">D76-1</f>
         <v>113</v>
       </c>
       <c r="E73">
@@ -10380,7 +10383,7 @@
         <v>0</v>
       </c>
       <c r="N73" t="str">
-        <f>$N$71</f>
+        <f t="shared" si="12"/>
         <v>d0d8dd</v>
       </c>
       <c r="O73" t="s">
@@ -10414,7 +10417,7 @@
         <v>140</v>
       </c>
       <c r="E74">
-        <f t="shared" ref="E74:E78" si="13">E73</f>
+        <f t="shared" ref="E74:E78" si="14">E73</f>
         <v>178</v>
       </c>
       <c r="F74">
@@ -10441,7 +10444,7 @@
         <v>0</v>
       </c>
       <c r="N74" t="str">
-        <f>$N$71</f>
+        <f t="shared" si="12"/>
         <v>d0d8dd</v>
       </c>
       <c r="O74" t="s">
@@ -10475,7 +10478,7 @@
         <v>168</v>
       </c>
       <c r="E75">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>178</v>
       </c>
       <c r="F75">
@@ -10483,7 +10486,7 @@
         <v>194</v>
       </c>
       <c r="G75">
-        <f t="shared" ref="G75" si="14">G74</f>
+        <f t="shared" ref="G75" si="15">G74</f>
         <v>183</v>
       </c>
       <c r="H75" t="s">
@@ -10502,7 +10505,7 @@
         <v>0</v>
       </c>
       <c r="N75" t="str">
-        <f>$N$71</f>
+        <f t="shared" si="12"/>
         <v>d0d8dd</v>
       </c>
       <c r="O75" t="s">
@@ -10562,7 +10565,7 @@
         <v>21</v>
       </c>
       <c r="N76" t="str">
-        <f>$N$71</f>
+        <f t="shared" si="12"/>
         <v>d0d8dd</v>
       </c>
       <c r="O76" t="s">
@@ -10596,11 +10599,11 @@
         <v>141</v>
       </c>
       <c r="E77">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>176</v>
       </c>
       <c r="F77">
-        <f t="shared" ref="F77:F78" si="15">D77</f>
+        <f t="shared" ref="F77:F78" si="16">D77</f>
         <v>141</v>
       </c>
       <c r="G77">
@@ -10623,7 +10626,7 @@
         <v>21</v>
       </c>
       <c r="N77" t="str">
-        <f>$N$71</f>
+        <f t="shared" si="12"/>
         <v>d0d8dd</v>
       </c>
       <c r="O77" t="s">
@@ -10657,11 +10660,11 @@
         <v>168</v>
       </c>
       <c r="E78">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>176</v>
       </c>
       <c r="F78">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>168</v>
       </c>
       <c r="G78">
@@ -10684,7 +10687,7 @@
         <v>21</v>
       </c>
       <c r="N78" t="str">
-        <f>$N$71</f>
+        <f t="shared" si="12"/>
         <v>d0d8dd</v>
       </c>
       <c r="O78" t="s">
@@ -10743,7 +10746,7 @@
         <v>21</v>
       </c>
       <c r="N79" t="str">
-        <f>$N$71</f>
+        <f t="shared" si="12"/>
         <v>d0d8dd</v>
       </c>
       <c r="O79" t="s">
@@ -10862,7 +10865,7 @@
         <v>0</v>
       </c>
       <c r="N81" t="str">
-        <f>$N$71</f>
+        <f t="shared" ref="N81:N100" si="17">$N$71</f>
         <v>d0d8dd</v>
       </c>
       <c r="O81" t="s">
@@ -10904,7 +10907,7 @@
         <v>140</v>
       </c>
       <c r="G82">
-        <f t="shared" ref="G82:G100" si="16">E82+3</f>
+        <f t="shared" ref="G82:G100" si="18">E82+3</f>
         <v>200</v>
       </c>
       <c r="H82" t="s">
@@ -10923,7 +10926,7 @@
         <v>0</v>
       </c>
       <c r="N82" t="str">
-        <f>$N$71</f>
+        <f t="shared" si="17"/>
         <v>d0d8dd</v>
       </c>
       <c r="O82" t="s">
@@ -10965,7 +10968,7 @@
         <v>169</v>
       </c>
       <c r="G83">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>200</v>
       </c>
       <c r="H83" t="s">
@@ -10984,7 +10987,7 @@
         <v>0</v>
       </c>
       <c r="N83" t="str">
-        <f>$N$71</f>
+        <f t="shared" si="17"/>
         <v>d0d8dd</v>
       </c>
       <c r="O83" t="s">
@@ -11026,7 +11029,7 @@
         <v>194</v>
       </c>
       <c r="G84">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>200</v>
       </c>
       <c r="H84" t="s">
@@ -11045,7 +11048,7 @@
         <v>0</v>
       </c>
       <c r="N84" t="str">
-        <f>$N$71</f>
+        <f t="shared" si="17"/>
         <v>d0d8dd</v>
       </c>
       <c r="O84" t="s">
@@ -11075,7 +11078,7 @@
         <v>19</v>
       </c>
       <c r="D85">
-        <f t="shared" ref="D85:D100" si="17">D81</f>
+        <f t="shared" ref="D85:D100" si="19">D81</f>
         <v>14</v>
       </c>
       <c r="E85">
@@ -11083,7 +11086,7 @@
         <v>212</v>
       </c>
       <c r="F85">
-        <f t="shared" ref="F85:F100" si="18">F81</f>
+        <f t="shared" ref="F85:F100" si="20">F81</f>
         <v>112</v>
       </c>
       <c r="G85">
@@ -11106,7 +11109,7 @@
         <v>0</v>
       </c>
       <c r="N85" t="str">
-        <f>$N$71</f>
+        <f t="shared" si="17"/>
         <v>d0d8dd</v>
       </c>
       <c r="O85" t="s">
@@ -11136,7 +11139,7 @@
         <v>19</v>
       </c>
       <c r="D86">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>113</v>
       </c>
       <c r="E86">
@@ -11144,7 +11147,7 @@
         <v>213</v>
       </c>
       <c r="F86">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>140</v>
       </c>
       <c r="G86">
@@ -11167,7 +11170,7 @@
         <v>0</v>
       </c>
       <c r="N86" t="str">
-        <f>$N$71</f>
+        <f t="shared" si="17"/>
         <v>d0d8dd</v>
       </c>
       <c r="O86" t="s">
@@ -11197,7 +11200,7 @@
         <v>19</v>
       </c>
       <c r="D87">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>140</v>
       </c>
       <c r="E87">
@@ -11205,11 +11208,11 @@
         <v>213</v>
       </c>
       <c r="F87">
+        <f t="shared" si="20"/>
+        <v>169</v>
+      </c>
+      <c r="G87">
         <f t="shared" si="18"/>
-        <v>169</v>
-      </c>
-      <c r="G87">
-        <f t="shared" si="16"/>
         <v>216</v>
       </c>
       <c r="H87" t="s">
@@ -11228,7 +11231,7 @@
         <v>0</v>
       </c>
       <c r="N87" t="str">
-        <f>$N$71</f>
+        <f t="shared" si="17"/>
         <v>d0d8dd</v>
       </c>
       <c r="O87" t="s">
@@ -11258,7 +11261,7 @@
         <v>19</v>
       </c>
       <c r="D88">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>168</v>
       </c>
       <c r="E88">
@@ -11266,11 +11269,11 @@
         <v>213</v>
       </c>
       <c r="F88">
+        <f t="shared" si="20"/>
+        <v>194</v>
+      </c>
+      <c r="G88">
         <f t="shared" si="18"/>
-        <v>194</v>
-      </c>
-      <c r="G88">
-        <f t="shared" si="16"/>
         <v>216</v>
       </c>
       <c r="H88" t="s">
@@ -11289,7 +11292,7 @@
         <v>0</v>
       </c>
       <c r="N88" t="str">
-        <f>$N$71</f>
+        <f t="shared" si="17"/>
         <v>d0d8dd</v>
       </c>
       <c r="O88" t="s">
@@ -11319,7 +11322,7 @@
         <v>19</v>
       </c>
       <c r="D89">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>14</v>
       </c>
       <c r="E89">
@@ -11327,7 +11330,7 @@
         <v>228</v>
       </c>
       <c r="F89">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>112</v>
       </c>
       <c r="G89">
@@ -11350,7 +11353,7 @@
         <v>0</v>
       </c>
       <c r="N89" t="str">
-        <f>$N$71</f>
+        <f t="shared" si="17"/>
         <v>d0d8dd</v>
       </c>
       <c r="O89" t="s">
@@ -11380,7 +11383,7 @@
         <v>19</v>
       </c>
       <c r="D90">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>113</v>
       </c>
       <c r="E90">
@@ -11388,11 +11391,11 @@
         <v>229</v>
       </c>
       <c r="F90">
+        <f t="shared" si="20"/>
+        <v>140</v>
+      </c>
+      <c r="G90">
         <f t="shared" si="18"/>
-        <v>140</v>
-      </c>
-      <c r="G90">
-        <f t="shared" si="16"/>
         <v>232</v>
       </c>
       <c r="H90" t="s">
@@ -11411,7 +11414,7 @@
         <v>0</v>
       </c>
       <c r="N90" t="str">
-        <f>$N$71</f>
+        <f t="shared" si="17"/>
         <v>d0d8dd</v>
       </c>
       <c r="O90" t="s">
@@ -11441,7 +11444,7 @@
         <v>19</v>
       </c>
       <c r="D91">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>140</v>
       </c>
       <c r="E91">
@@ -11449,11 +11452,11 @@
         <v>229</v>
       </c>
       <c r="F91">
+        <f t="shared" si="20"/>
+        <v>169</v>
+      </c>
+      <c r="G91">
         <f t="shared" si="18"/>
-        <v>169</v>
-      </c>
-      <c r="G91">
-        <f t="shared" si="16"/>
         <v>232</v>
       </c>
       <c r="H91" t="s">
@@ -11472,7 +11475,7 @@
         <v>0</v>
       </c>
       <c r="N91" t="str">
-        <f>$N$71</f>
+        <f t="shared" si="17"/>
         <v>d0d8dd</v>
       </c>
       <c r="O91" t="s">
@@ -11502,7 +11505,7 @@
         <v>19</v>
       </c>
       <c r="D92">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>168</v>
       </c>
       <c r="E92">
@@ -11510,11 +11513,11 @@
         <v>229</v>
       </c>
       <c r="F92">
+        <f t="shared" si="20"/>
+        <v>194</v>
+      </c>
+      <c r="G92">
         <f t="shared" si="18"/>
-        <v>194</v>
-      </c>
-      <c r="G92">
-        <f t="shared" si="16"/>
         <v>232</v>
       </c>
       <c r="H92" t="s">
@@ -11533,7 +11536,7 @@
         <v>0</v>
       </c>
       <c r="N92" t="str">
-        <f>$N$71</f>
+        <f t="shared" si="17"/>
         <v>d0d8dd</v>
       </c>
       <c r="O92" t="s">
@@ -11563,7 +11566,7 @@
         <v>19</v>
       </c>
       <c r="D93">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>14</v>
       </c>
       <c r="E93">
@@ -11571,7 +11574,7 @@
         <v>244</v>
       </c>
       <c r="F93">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>112</v>
       </c>
       <c r="G93">
@@ -11594,7 +11597,7 @@
         <v>0</v>
       </c>
       <c r="N93" t="str">
-        <f>$N$71</f>
+        <f t="shared" si="17"/>
         <v>d0d8dd</v>
       </c>
       <c r="O93" t="s">
@@ -11624,7 +11627,7 @@
         <v>19</v>
       </c>
       <c r="D94">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>113</v>
       </c>
       <c r="E94">
@@ -11632,11 +11635,11 @@
         <v>245</v>
       </c>
       <c r="F94">
+        <f t="shared" si="20"/>
+        <v>140</v>
+      </c>
+      <c r="G94">
         <f t="shared" si="18"/>
-        <v>140</v>
-      </c>
-      <c r="G94">
-        <f t="shared" si="16"/>
         <v>248</v>
       </c>
       <c r="H94" t="s">
@@ -11655,7 +11658,7 @@
         <v>0</v>
       </c>
       <c r="N94" t="str">
-        <f>$N$71</f>
+        <f t="shared" si="17"/>
         <v>d0d8dd</v>
       </c>
       <c r="O94" t="s">
@@ -11685,7 +11688,7 @@
         <v>19</v>
       </c>
       <c r="D95">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>140</v>
       </c>
       <c r="E95">
@@ -11693,11 +11696,11 @@
         <v>245</v>
       </c>
       <c r="F95">
+        <f t="shared" si="20"/>
+        <v>169</v>
+      </c>
+      <c r="G95">
         <f t="shared" si="18"/>
-        <v>169</v>
-      </c>
-      <c r="G95">
-        <f t="shared" si="16"/>
         <v>248</v>
       </c>
       <c r="H95" t="s">
@@ -11716,7 +11719,7 @@
         <v>0</v>
       </c>
       <c r="N95" t="str">
-        <f>$N$71</f>
+        <f t="shared" si="17"/>
         <v>d0d8dd</v>
       </c>
       <c r="O95" t="s">
@@ -11746,7 +11749,7 @@
         <v>19</v>
       </c>
       <c r="D96">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>168</v>
       </c>
       <c r="E96">
@@ -11754,11 +11757,11 @@
         <v>245</v>
       </c>
       <c r="F96">
+        <f t="shared" si="20"/>
+        <v>194</v>
+      </c>
+      <c r="G96">
         <f t="shared" si="18"/>
-        <v>194</v>
-      </c>
-      <c r="G96">
-        <f t="shared" si="16"/>
         <v>248</v>
       </c>
       <c r="H96" t="s">
@@ -11777,7 +11780,7 @@
         <v>0</v>
       </c>
       <c r="N96" t="str">
-        <f>$N$71</f>
+        <f t="shared" si="17"/>
         <v>d0d8dd</v>
       </c>
       <c r="O96" t="s">
@@ -11807,7 +11810,7 @@
         <v>19</v>
       </c>
       <c r="D97">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>14</v>
       </c>
       <c r="E97">
@@ -11815,7 +11818,7 @@
         <v>260</v>
       </c>
       <c r="F97">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>112</v>
       </c>
       <c r="G97">
@@ -11838,7 +11841,7 @@
         <v>0</v>
       </c>
       <c r="N97" t="str">
-        <f>$N$71</f>
+        <f t="shared" si="17"/>
         <v>d0d8dd</v>
       </c>
       <c r="O97" t="s">
@@ -11868,7 +11871,7 @@
         <v>19</v>
       </c>
       <c r="D98">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>113</v>
       </c>
       <c r="E98">
@@ -11876,11 +11879,11 @@
         <v>261</v>
       </c>
       <c r="F98">
+        <f t="shared" si="20"/>
+        <v>140</v>
+      </c>
+      <c r="G98">
         <f t="shared" si="18"/>
-        <v>140</v>
-      </c>
-      <c r="G98">
-        <f t="shared" si="16"/>
         <v>264</v>
       </c>
       <c r="H98" t="s">
@@ -11899,7 +11902,7 @@
         <v>0</v>
       </c>
       <c r="N98" t="str">
-        <f>$N$71</f>
+        <f t="shared" si="17"/>
         <v>d0d8dd</v>
       </c>
       <c r="O98" t="s">
@@ -11929,7 +11932,7 @@
         <v>19</v>
       </c>
       <c r="D99">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>140</v>
       </c>
       <c r="E99">
@@ -11937,11 +11940,11 @@
         <v>261</v>
       </c>
       <c r="F99">
+        <f t="shared" si="20"/>
+        <v>169</v>
+      </c>
+      <c r="G99">
         <f t="shared" si="18"/>
-        <v>169</v>
-      </c>
-      <c r="G99">
-        <f t="shared" si="16"/>
         <v>264</v>
       </c>
       <c r="H99" t="s">
@@ -11960,7 +11963,7 @@
         <v>0</v>
       </c>
       <c r="N99" t="str">
-        <f>$N$71</f>
+        <f t="shared" si="17"/>
         <v>d0d8dd</v>
       </c>
       <c r="O99" t="s">
@@ -11990,7 +11993,7 @@
         <v>19</v>
       </c>
       <c r="D100">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>168</v>
       </c>
       <c r="E100">
@@ -11998,11 +12001,11 @@
         <v>261</v>
       </c>
       <c r="F100">
+        <f t="shared" si="20"/>
+        <v>194</v>
+      </c>
+      <c r="G100">
         <f t="shared" si="18"/>
-        <v>194</v>
-      </c>
-      <c r="G100">
-        <f t="shared" si="16"/>
         <v>264</v>
       </c>
       <c r="H100" t="s">
@@ -12021,7 +12024,7 @@
         <v>0</v>
       </c>
       <c r="N100" t="str">
-        <f>$N$71</f>
+        <f t="shared" si="17"/>
         <v>d0d8dd</v>
       </c>
       <c r="O100" t="s">
@@ -12746,7 +12749,7 @@
         <v>19</v>
       </c>
       <c r="D113">
-        <f t="shared" ref="D113" si="19">D116-1</f>
+        <f t="shared" ref="D113" si="21">D116-1</f>
         <v>113</v>
       </c>
       <c r="E113">
@@ -12810,7 +12813,7 @@
         <v>140</v>
       </c>
       <c r="E114">
-        <f t="shared" ref="E114:E115" si="20">E113</f>
+        <f t="shared" ref="E114:E115" si="22">E113</f>
         <v>32</v>
       </c>
       <c r="F114">
@@ -12870,7 +12873,7 @@
         <v>168</v>
       </c>
       <c r="E115">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>32</v>
       </c>
       <c r="F115">
@@ -12878,7 +12881,7 @@
         <v>194</v>
       </c>
       <c r="G115">
-        <f t="shared" ref="G115" si="21">G114</f>
+        <f t="shared" ref="G115" si="23">G114</f>
         <v>37</v>
       </c>
       <c r="H115" t="s">
@@ -12989,11 +12992,11 @@
         <v>141</v>
       </c>
       <c r="E117">
-        <f t="shared" ref="E117:E118" si="22">E116</f>
+        <f t="shared" ref="E117:E118" si="24">E116</f>
         <v>30</v>
       </c>
       <c r="F117">
-        <f t="shared" ref="F117:F118" si="23">D117</f>
+        <f t="shared" ref="F117:F118" si="25">D117</f>
         <v>141</v>
       </c>
       <c r="G117">
@@ -13049,11 +13052,11 @@
         <v>168</v>
       </c>
       <c r="E118">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>30</v>
       </c>
       <c r="F118">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>168</v>
       </c>
       <c r="G118">
@@ -13293,7 +13296,7 @@
         <v>140</v>
       </c>
       <c r="G122">
-        <f t="shared" ref="G122:G124" si="24">E122+3</f>
+        <f t="shared" ref="G122:G124" si="26">E122+3</f>
         <v>54</v>
       </c>
       <c r="H122" t="s">
@@ -13353,7 +13356,7 @@
         <v>169</v>
       </c>
       <c r="G123">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>54</v>
       </c>
       <c r="H123" t="s">
@@ -13413,7 +13416,7 @@
         <v>194</v>
       </c>
       <c r="G124">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>54</v>
       </c>
       <c r="H124" t="s">
@@ -13461,7 +13464,7 @@
         <v>19</v>
       </c>
       <c r="D125">
-        <f t="shared" ref="D125:D156" si="25">D121</f>
+        <f t="shared" ref="D125:D156" si="27">D121</f>
         <v>14</v>
       </c>
       <c r="E125">
@@ -13469,7 +13472,7 @@
         <v>62</v>
       </c>
       <c r="F125">
-        <f t="shared" ref="F125:F156" si="26">F121</f>
+        <f t="shared" ref="F125:F156" si="28">F121</f>
         <v>112</v>
       </c>
       <c r="G125">
@@ -13521,7 +13524,7 @@
         <v>19</v>
       </c>
       <c r="D126">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>113</v>
       </c>
       <c r="E126">
@@ -13529,7 +13532,7 @@
         <v>63</v>
       </c>
       <c r="F126">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>140</v>
       </c>
       <c r="G126">
@@ -13581,7 +13584,7 @@
         <v>19</v>
       </c>
       <c r="D127">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>140</v>
       </c>
       <c r="E127">
@@ -13589,11 +13592,11 @@
         <v>63</v>
       </c>
       <c r="F127">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>169</v>
       </c>
       <c r="G127">
-        <f t="shared" ref="G127:G128" si="27">E127+3</f>
+        <f t="shared" ref="G127:G128" si="29">E127+3</f>
         <v>66</v>
       </c>
       <c r="H127" t="s">
@@ -13641,7 +13644,7 @@
         <v>19</v>
       </c>
       <c r="D128">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>168</v>
       </c>
       <c r="E128">
@@ -13649,11 +13652,11 @@
         <v>63</v>
       </c>
       <c r="F128">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>194</v>
       </c>
       <c r="G128">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>66</v>
       </c>
       <c r="H128" t="s">
@@ -13701,7 +13704,7 @@
         <v>19</v>
       </c>
       <c r="D129">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>14</v>
       </c>
       <c r="E129">
@@ -13709,7 +13712,7 @@
         <v>74</v>
       </c>
       <c r="F129">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>112</v>
       </c>
       <c r="G129">
@@ -13761,7 +13764,7 @@
         <v>19</v>
       </c>
       <c r="D130">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>113</v>
       </c>
       <c r="E130">
@@ -13769,11 +13772,11 @@
         <v>75</v>
       </c>
       <c r="F130">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>140</v>
       </c>
       <c r="G130">
-        <f t="shared" ref="G130:G132" si="28">E130+3</f>
+        <f t="shared" ref="G130:G132" si="30">E130+3</f>
         <v>78</v>
       </c>
       <c r="H130" t="s">
@@ -13821,7 +13824,7 @@
         <v>19</v>
       </c>
       <c r="D131">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>140</v>
       </c>
       <c r="E131">
@@ -13829,11 +13832,11 @@
         <v>75</v>
       </c>
       <c r="F131">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>169</v>
       </c>
       <c r="G131">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>78</v>
       </c>
       <c r="H131" t="s">
@@ -13881,7 +13884,7 @@
         <v>19</v>
       </c>
       <c r="D132">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>168</v>
       </c>
       <c r="E132">
@@ -13889,11 +13892,11 @@
         <v>75</v>
       </c>
       <c r="F132">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>194</v>
       </c>
       <c r="G132">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>78</v>
       </c>
       <c r="H132" t="s">
@@ -13941,7 +13944,7 @@
         <v>19</v>
       </c>
       <c r="D133">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>14</v>
       </c>
       <c r="E133">
@@ -13949,7 +13952,7 @@
         <v>86</v>
       </c>
       <c r="F133">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>112</v>
       </c>
       <c r="G133">
@@ -14001,7 +14004,7 @@
         <v>19</v>
       </c>
       <c r="D134">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>113</v>
       </c>
       <c r="E134">
@@ -14009,11 +14012,11 @@
         <v>87</v>
       </c>
       <c r="F134">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>140</v>
       </c>
       <c r="G134">
-        <f t="shared" ref="G134:G136" si="29">E134+3</f>
+        <f t="shared" ref="G134:G136" si="31">E134+3</f>
         <v>90</v>
       </c>
       <c r="H134" t="s">
@@ -14061,7 +14064,7 @@
         <v>19</v>
       </c>
       <c r="D135">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>140</v>
       </c>
       <c r="E135">
@@ -14069,11 +14072,11 @@
         <v>87</v>
       </c>
       <c r="F135">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>169</v>
       </c>
       <c r="G135">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>90</v>
       </c>
       <c r="H135" t="s">
@@ -14121,7 +14124,7 @@
         <v>19</v>
       </c>
       <c r="D136">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>168</v>
       </c>
       <c r="E136">
@@ -14129,11 +14132,11 @@
         <v>87</v>
       </c>
       <c r="F136">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>194</v>
       </c>
       <c r="G136">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>90</v>
       </c>
       <c r="H136" t="s">
@@ -14181,7 +14184,7 @@
         <v>19</v>
       </c>
       <c r="D137">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>14</v>
       </c>
       <c r="E137">
@@ -14189,7 +14192,7 @@
         <v>98</v>
       </c>
       <c r="F137">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>112</v>
       </c>
       <c r="G137">
@@ -14241,7 +14244,7 @@
         <v>19</v>
       </c>
       <c r="D138">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>113</v>
       </c>
       <c r="E138">
@@ -14249,11 +14252,11 @@
         <v>99</v>
       </c>
       <c r="F138">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>140</v>
       </c>
       <c r="G138">
-        <f t="shared" ref="G138:G140" si="30">E138+3</f>
+        <f t="shared" ref="G138:G140" si="32">E138+3</f>
         <v>102</v>
       </c>
       <c r="H138" t="s">
@@ -14301,7 +14304,7 @@
         <v>19</v>
       </c>
       <c r="D139">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>140</v>
       </c>
       <c r="E139">
@@ -14309,11 +14312,11 @@
         <v>99</v>
       </c>
       <c r="F139">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>169</v>
       </c>
       <c r="G139">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>102</v>
       </c>
       <c r="H139" t="s">
@@ -14361,7 +14364,7 @@
         <v>19</v>
       </c>
       <c r="D140">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>168</v>
       </c>
       <c r="E140">
@@ -14369,11 +14372,11 @@
         <v>99</v>
       </c>
       <c r="F140">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>194</v>
       </c>
       <c r="G140">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>102</v>
       </c>
       <c r="H140" t="s">
@@ -14421,7 +14424,7 @@
         <v>19</v>
       </c>
       <c r="D141">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>14</v>
       </c>
       <c r="E141">
@@ -14429,7 +14432,7 @@
         <v>110</v>
       </c>
       <c r="F141">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>112</v>
       </c>
       <c r="G141">
@@ -14481,7 +14484,7 @@
         <v>19</v>
       </c>
       <c r="D142">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>113</v>
       </c>
       <c r="E142">
@@ -14489,11 +14492,11 @@
         <v>111</v>
       </c>
       <c r="F142">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>140</v>
       </c>
       <c r="G142">
-        <f t="shared" ref="G142:G144" si="31">E142+3</f>
+        <f t="shared" ref="G142:G144" si="33">E142+3</f>
         <v>114</v>
       </c>
       <c r="H142" t="s">
@@ -14541,7 +14544,7 @@
         <v>19</v>
       </c>
       <c r="D143">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>140</v>
       </c>
       <c r="E143">
@@ -14549,11 +14552,11 @@
         <v>111</v>
       </c>
       <c r="F143">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>169</v>
       </c>
       <c r="G143">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>114</v>
       </c>
       <c r="H143" t="s">
@@ -14601,7 +14604,7 @@
         <v>19</v>
       </c>
       <c r="D144">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>168</v>
       </c>
       <c r="E144">
@@ -14609,11 +14612,11 @@
         <v>111</v>
       </c>
       <c r="F144">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>194</v>
       </c>
       <c r="G144">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>114</v>
       </c>
       <c r="H144" t="s">
@@ -14661,7 +14664,7 @@
         <v>19</v>
       </c>
       <c r="D145">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>14</v>
       </c>
       <c r="E145">
@@ -14669,7 +14672,7 @@
         <v>122</v>
       </c>
       <c r="F145">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>112</v>
       </c>
       <c r="G145">
@@ -14721,7 +14724,7 @@
         <v>19</v>
       </c>
       <c r="D146">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>113</v>
       </c>
       <c r="E146">
@@ -14729,11 +14732,11 @@
         <v>123</v>
       </c>
       <c r="F146">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>140</v>
       </c>
       <c r="G146">
-        <f t="shared" ref="G146:G148" si="32">E146+3</f>
+        <f t="shared" ref="G146:G148" si="34">E146+3</f>
         <v>126</v>
       </c>
       <c r="H146" t="s">
@@ -14781,7 +14784,7 @@
         <v>19</v>
       </c>
       <c r="D147">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>140</v>
       </c>
       <c r="E147">
@@ -14789,11 +14792,11 @@
         <v>123</v>
       </c>
       <c r="F147">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>169</v>
       </c>
       <c r="G147">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>126</v>
       </c>
       <c r="H147" t="s">
@@ -14841,7 +14844,7 @@
         <v>19</v>
       </c>
       <c r="D148">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>168</v>
       </c>
       <c r="E148">
@@ -14849,11 +14852,11 @@
         <v>123</v>
       </c>
       <c r="F148">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>194</v>
       </c>
       <c r="G148">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>126</v>
       </c>
       <c r="H148" t="s">
@@ -14902,7 +14905,7 @@
         <v>19</v>
       </c>
       <c r="D149">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>14</v>
       </c>
       <c r="E149">
@@ -14910,7 +14913,7 @@
         <v>134</v>
       </c>
       <c r="F149">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>112</v>
       </c>
       <c r="G149">
@@ -14963,7 +14966,7 @@
         <v>19</v>
       </c>
       <c r="D150">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>113</v>
       </c>
       <c r="E150">
@@ -14971,11 +14974,11 @@
         <v>135</v>
       </c>
       <c r="F150">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>140</v>
       </c>
       <c r="G150">
-        <f t="shared" ref="G150:G152" si="33">E150+3</f>
+        <f t="shared" ref="G150:G152" si="35">E150+3</f>
         <v>138</v>
       </c>
       <c r="H150" t="s">
@@ -15024,7 +15027,7 @@
         <v>19</v>
       </c>
       <c r="D151">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>140</v>
       </c>
       <c r="E151">
@@ -15032,11 +15035,11 @@
         <v>135</v>
       </c>
       <c r="F151">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>169</v>
       </c>
       <c r="G151">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>138</v>
       </c>
       <c r="H151" t="s">
@@ -15085,7 +15088,7 @@
         <v>19</v>
       </c>
       <c r="D152">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>168</v>
       </c>
       <c r="E152">
@@ -15093,11 +15096,11 @@
         <v>135</v>
       </c>
       <c r="F152">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>194</v>
       </c>
       <c r="G152">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>138</v>
       </c>
       <c r="H152" t="s">
@@ -15146,7 +15149,7 @@
         <v>19</v>
       </c>
       <c r="D153">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>14</v>
       </c>
       <c r="E153">
@@ -15154,7 +15157,7 @@
         <v>146</v>
       </c>
       <c r="F153">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>112</v>
       </c>
       <c r="G153">
@@ -15207,7 +15210,7 @@
         <v>19</v>
       </c>
       <c r="D154">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>113</v>
       </c>
       <c r="E154">
@@ -15215,11 +15218,11 @@
         <v>147</v>
       </c>
       <c r="F154">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>140</v>
       </c>
       <c r="G154">
-        <f t="shared" ref="G154:G156" si="34">E154+3</f>
+        <f t="shared" ref="G154:G156" si="36">E154+3</f>
         <v>150</v>
       </c>
       <c r="H154" t="s">
@@ -15268,7 +15271,7 @@
         <v>19</v>
       </c>
       <c r="D155">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>140</v>
       </c>
       <c r="E155">
@@ -15276,11 +15279,11 @@
         <v>147</v>
       </c>
       <c r="F155">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>169</v>
       </c>
       <c r="G155">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>150</v>
       </c>
       <c r="H155" t="s">
@@ -15329,7 +15332,7 @@
         <v>19</v>
       </c>
       <c r="D156">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>168</v>
       </c>
       <c r="E156">
@@ -15337,11 +15340,11 @@
         <v>147</v>
       </c>
       <c r="F156">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>194</v>
       </c>
       <c r="G156">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>150</v>
       </c>
       <c r="H156" t="s">
@@ -15390,7 +15393,7 @@
         <v>19</v>
       </c>
       <c r="D157">
-        <f t="shared" ref="D157:D184" si="35">D153</f>
+        <f t="shared" ref="D157:D184" si="37">D153</f>
         <v>14</v>
       </c>
       <c r="E157">
@@ -15398,7 +15401,7 @@
         <v>158</v>
       </c>
       <c r="F157">
-        <f t="shared" ref="F157:F188" si="36">F153</f>
+        <f t="shared" ref="F157:F188" si="38">F153</f>
         <v>112</v>
       </c>
       <c r="G157">
@@ -15451,7 +15454,7 @@
         <v>19</v>
       </c>
       <c r="D158">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>113</v>
       </c>
       <c r="E158">
@@ -15459,11 +15462,11 @@
         <v>159</v>
       </c>
       <c r="F158">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>140</v>
       </c>
       <c r="G158">
-        <f t="shared" ref="G158:G160" si="37">E158+3</f>
+        <f t="shared" ref="G158:G160" si="39">E158+3</f>
         <v>162</v>
       </c>
       <c r="H158" t="s">
@@ -15512,7 +15515,7 @@
         <v>19</v>
       </c>
       <c r="D159">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>140</v>
       </c>
       <c r="E159">
@@ -15520,11 +15523,11 @@
         <v>159</v>
       </c>
       <c r="F159">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>169</v>
       </c>
       <c r="G159">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>162</v>
       </c>
       <c r="H159" t="s">
@@ -15573,7 +15576,7 @@
         <v>19</v>
       </c>
       <c r="D160">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>168</v>
       </c>
       <c r="E160">
@@ -15581,11 +15584,11 @@
         <v>159</v>
       </c>
       <c r="F160">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>194</v>
       </c>
       <c r="G160">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>162</v>
       </c>
       <c r="H160" t="s">
@@ -15634,7 +15637,7 @@
         <v>19</v>
       </c>
       <c r="D161">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>14</v>
       </c>
       <c r="E161">
@@ -15642,7 +15645,7 @@
         <v>170</v>
       </c>
       <c r="F161">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>112</v>
       </c>
       <c r="G161">
@@ -15695,7 +15698,7 @@
         <v>19</v>
       </c>
       <c r="D162">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>113</v>
       </c>
       <c r="E162">
@@ -15703,11 +15706,11 @@
         <v>171</v>
       </c>
       <c r="F162">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>140</v>
       </c>
       <c r="G162">
-        <f t="shared" ref="G162:G164" si="38">E162+3</f>
+        <f t="shared" ref="G162:G164" si="40">E162+3</f>
         <v>174</v>
       </c>
       <c r="H162" t="s">
@@ -15756,7 +15759,7 @@
         <v>19</v>
       </c>
       <c r="D163">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>140</v>
       </c>
       <c r="E163">
@@ -15764,11 +15767,11 @@
         <v>171</v>
       </c>
       <c r="F163">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>169</v>
       </c>
       <c r="G163">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>174</v>
       </c>
       <c r="H163" t="s">
@@ -15817,7 +15820,7 @@
         <v>19</v>
       </c>
       <c r="D164">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>168</v>
       </c>
       <c r="E164">
@@ -15825,11 +15828,11 @@
         <v>171</v>
       </c>
       <c r="F164">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>194</v>
       </c>
       <c r="G164">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>174</v>
       </c>
       <c r="H164" t="s">
@@ -15878,7 +15881,7 @@
         <v>19</v>
       </c>
       <c r="D165">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>14</v>
       </c>
       <c r="E165">
@@ -15886,7 +15889,7 @@
         <v>182</v>
       </c>
       <c r="F165">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>112</v>
       </c>
       <c r="G165">
@@ -15939,7 +15942,7 @@
         <v>19</v>
       </c>
       <c r="D166">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>113</v>
       </c>
       <c r="E166">
@@ -15947,11 +15950,11 @@
         <v>183</v>
       </c>
       <c r="F166">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>140</v>
       </c>
       <c r="G166">
-        <f t="shared" ref="G166:G168" si="39">E166+3</f>
+        <f t="shared" ref="G166:G168" si="41">E166+3</f>
         <v>186</v>
       </c>
       <c r="H166" t="s">
@@ -16000,7 +16003,7 @@
         <v>19</v>
       </c>
       <c r="D167">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>140</v>
       </c>
       <c r="E167">
@@ -16008,11 +16011,11 @@
         <v>183</v>
       </c>
       <c r="F167">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>169</v>
       </c>
       <c r="G167">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>186</v>
       </c>
       <c r="H167" t="s">
@@ -16061,7 +16064,7 @@
         <v>19</v>
       </c>
       <c r="D168">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>168</v>
       </c>
       <c r="E168">
@@ -16069,11 +16072,11 @@
         <v>183</v>
       </c>
       <c r="F168">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>194</v>
       </c>
       <c r="G168">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>186</v>
       </c>
       <c r="H168" t="s">
@@ -16122,7 +16125,7 @@
         <v>19</v>
       </c>
       <c r="D169">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>14</v>
       </c>
       <c r="E169">
@@ -16130,7 +16133,7 @@
         <v>194</v>
       </c>
       <c r="F169">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>112</v>
       </c>
       <c r="G169">
@@ -16183,7 +16186,7 @@
         <v>19</v>
       </c>
       <c r="D170">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>113</v>
       </c>
       <c r="E170">
@@ -16191,11 +16194,11 @@
         <v>195</v>
       </c>
       <c r="F170">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>140</v>
       </c>
       <c r="G170">
-        <f t="shared" ref="G170:G172" si="40">E170+3</f>
+        <f t="shared" ref="G170:G172" si="42">E170+3</f>
         <v>198</v>
       </c>
       <c r="H170" t="s">
@@ -16244,7 +16247,7 @@
         <v>19</v>
       </c>
       <c r="D171">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>140</v>
       </c>
       <c r="E171">
@@ -16252,11 +16255,11 @@
         <v>195</v>
       </c>
       <c r="F171">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>169</v>
       </c>
       <c r="G171">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>198</v>
       </c>
       <c r="H171" t="s">
@@ -16305,7 +16308,7 @@
         <v>19</v>
       </c>
       <c r="D172">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>168</v>
       </c>
       <c r="E172">
@@ -16313,11 +16316,11 @@
         <v>195</v>
       </c>
       <c r="F172">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>194</v>
       </c>
       <c r="G172">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>198</v>
       </c>
       <c r="H172" t="s">
@@ -16366,7 +16369,7 @@
         <v>19</v>
       </c>
       <c r="D173">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>14</v>
       </c>
       <c r="E173">
@@ -16374,7 +16377,7 @@
         <v>206</v>
       </c>
       <c r="F173">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>112</v>
       </c>
       <c r="G173">
@@ -16427,7 +16430,7 @@
         <v>19</v>
       </c>
       <c r="D174">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>113</v>
       </c>
       <c r="E174">
@@ -16435,11 +16438,11 @@
         <v>207</v>
       </c>
       <c r="F174">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>140</v>
       </c>
       <c r="G174">
-        <f t="shared" ref="G174:G176" si="41">E174+3</f>
+        <f t="shared" ref="G174:G176" si="43">E174+3</f>
         <v>210</v>
       </c>
       <c r="H174" t="s">
@@ -16488,7 +16491,7 @@
         <v>19</v>
       </c>
       <c r="D175">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>140</v>
       </c>
       <c r="E175">
@@ -16496,11 +16499,11 @@
         <v>207</v>
       </c>
       <c r="F175">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>169</v>
       </c>
       <c r="G175">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>210</v>
       </c>
       <c r="H175" t="s">
@@ -16549,7 +16552,7 @@
         <v>19</v>
       </c>
       <c r="D176">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>168</v>
       </c>
       <c r="E176">
@@ -16557,11 +16560,11 @@
         <v>207</v>
       </c>
       <c r="F176">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>194</v>
       </c>
       <c r="G176">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>210</v>
       </c>
       <c r="H176" t="s">
@@ -16610,7 +16613,7 @@
         <v>19</v>
       </c>
       <c r="D177">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>14</v>
       </c>
       <c r="E177">
@@ -16618,7 +16621,7 @@
         <v>218</v>
       </c>
       <c r="F177">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>112</v>
       </c>
       <c r="G177">
@@ -16671,7 +16674,7 @@
         <v>19</v>
       </c>
       <c r="D178">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>113</v>
       </c>
       <c r="E178">
@@ -16679,11 +16682,11 @@
         <v>219</v>
       </c>
       <c r="F178">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>140</v>
       </c>
       <c r="G178">
-        <f t="shared" ref="G178:G180" si="42">E178+3</f>
+        <f t="shared" ref="G178:G180" si="44">E178+3</f>
         <v>222</v>
       </c>
       <c r="H178" t="s">
@@ -16732,7 +16735,7 @@
         <v>19</v>
       </c>
       <c r="D179">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>140</v>
       </c>
       <c r="E179">
@@ -16740,11 +16743,11 @@
         <v>219</v>
       </c>
       <c r="F179">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>169</v>
       </c>
       <c r="G179">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>222</v>
       </c>
       <c r="H179" t="s">
@@ -16793,7 +16796,7 @@
         <v>19</v>
       </c>
       <c r="D180">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>168</v>
       </c>
       <c r="E180">
@@ -16801,11 +16804,11 @@
         <v>219</v>
       </c>
       <c r="F180">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>194</v>
       </c>
       <c r="G180">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>222</v>
       </c>
       <c r="H180" t="s">
@@ -16854,7 +16857,7 @@
         <v>19</v>
       </c>
       <c r="D181">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>14</v>
       </c>
       <c r="E181">
@@ -16862,7 +16865,7 @@
         <v>230</v>
       </c>
       <c r="F181">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>112</v>
       </c>
       <c r="G181">
@@ -16915,7 +16918,7 @@
         <v>19</v>
       </c>
       <c r="D182">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>113</v>
       </c>
       <c r="E182">
@@ -16923,11 +16926,11 @@
         <v>231</v>
       </c>
       <c r="F182">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>140</v>
       </c>
       <c r="G182">
-        <f t="shared" ref="G182:G184" si="43">E182+3</f>
+        <f t="shared" ref="G182:G184" si="45">E182+3</f>
         <v>234</v>
       </c>
       <c r="H182" t="s">
@@ -16976,7 +16979,7 @@
         <v>19</v>
       </c>
       <c r="D183">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>140</v>
       </c>
       <c r="E183">
@@ -16984,11 +16987,11 @@
         <v>231</v>
       </c>
       <c r="F183">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>169</v>
       </c>
       <c r="G183">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>234</v>
       </c>
       <c r="H183" t="s">
@@ -17037,7 +17040,7 @@
         <v>19</v>
       </c>
       <c r="D184">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>168</v>
       </c>
       <c r="E184">
@@ -17045,11 +17048,11 @@
         <v>231</v>
       </c>
       <c r="F184">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>194</v>
       </c>
       <c r="G184">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>234</v>
       </c>
       <c r="H184" t="s">
@@ -17098,7 +17101,7 @@
         <v>19</v>
       </c>
       <c r="D185">
-        <f t="shared" ref="D185" si="44">D181</f>
+        <f t="shared" ref="D185" si="46">D181</f>
         <v>14</v>
       </c>
       <c r="E185">
@@ -17106,7 +17109,7 @@
         <v>242</v>
       </c>
       <c r="F185">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>112</v>
       </c>
       <c r="G185">
@@ -17167,11 +17170,11 @@
         <v>243</v>
       </c>
       <c r="F186">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>140</v>
       </c>
       <c r="G186">
-        <f t="shared" ref="G186:G188" si="45">E186+3</f>
+        <f t="shared" ref="G186:G188" si="47">E186+3</f>
         <v>246</v>
       </c>
       <c r="H186" t="s">
@@ -17228,11 +17231,11 @@
         <v>243</v>
       </c>
       <c r="F187">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>169</v>
       </c>
       <c r="G187">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>246</v>
       </c>
       <c r="H187" t="s">
@@ -17289,11 +17292,11 @@
         <v>243</v>
       </c>
       <c r="F188">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>194</v>
       </c>
       <c r="G188">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>246</v>
       </c>
       <c r="H188" t="s">
@@ -18400,7 +18403,7 @@
         <v>19</v>
       </c>
       <c r="D207">
-        <f t="shared" ref="D207" si="46">D210-1</f>
+        <f t="shared" ref="D207" si="48">D210-1</f>
         <v>146</v>
       </c>
       <c r="E207">
@@ -18464,7 +18467,7 @@
         <v>165</v>
       </c>
       <c r="E208">
-        <f t="shared" ref="E208:E212" si="47">E207</f>
+        <f t="shared" ref="E208:E212" si="49">E207</f>
         <v>92</v>
       </c>
       <c r="F208">
@@ -18524,7 +18527,7 @@
         <v>188</v>
       </c>
       <c r="E209">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>92</v>
       </c>
       <c r="F209">
@@ -18532,7 +18535,7 @@
         <v>209</v>
       </c>
       <c r="G209">
-        <f t="shared" ref="G209" si="48">G208</f>
+        <f t="shared" ref="G209" si="50">G208</f>
         <v>97</v>
       </c>
       <c r="H209" t="s">
@@ -18641,11 +18644,11 @@
         <v>166</v>
       </c>
       <c r="E211">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>92</v>
       </c>
       <c r="F211">
-        <f t="shared" ref="F211:F212" si="49">D211</f>
+        <f t="shared" ref="F211:F212" si="51">D211</f>
         <v>166</v>
       </c>
       <c r="G211">
@@ -18698,11 +18701,11 @@
         <v>188</v>
       </c>
       <c r="E212">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>92</v>
       </c>
       <c r="F212">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>188</v>
       </c>
       <c r="G212">
@@ -18879,7 +18882,7 @@
         <v>165</v>
       </c>
       <c r="G215">
-        <f t="shared" ref="G215:G217" si="50">E215+3</f>
+        <f t="shared" ref="G215:G217" si="52">E215+3</f>
         <v>114</v>
       </c>
       <c r="H215" t="s">
@@ -18939,7 +18942,7 @@
         <v>189</v>
       </c>
       <c r="G216">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>114</v>
       </c>
       <c r="H216" t="s">
@@ -18999,7 +19002,7 @@
         <v>209</v>
       </c>
       <c r="G217">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>114</v>
       </c>
       <c r="H217" t="s">
@@ -19118,7 +19121,7 @@
         <v>165</v>
       </c>
       <c r="G219">
-        <f t="shared" ref="G219:G221" si="51">E219+3</f>
+        <f t="shared" ref="G219:G221" si="53">E219+3</f>
         <v>132</v>
       </c>
       <c r="H219" t="s">
@@ -19178,7 +19181,7 @@
         <v>189</v>
       </c>
       <c r="G220">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>132</v>
       </c>
       <c r="H220" t="s">
@@ -19238,7 +19241,7 @@
         <v>209</v>
       </c>
       <c r="G221">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>132</v>
       </c>
       <c r="H221" t="s">
@@ -19357,7 +19360,7 @@
         <v>165</v>
       </c>
       <c r="G223">
-        <f t="shared" ref="G223:G225" si="52">E223+3</f>
+        <f t="shared" ref="G223:G225" si="54">E223+3</f>
         <v>150</v>
       </c>
       <c r="H223" t="s">
@@ -19417,7 +19420,7 @@
         <v>189</v>
       </c>
       <c r="G224">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>150</v>
       </c>
       <c r="H224" t="s">
@@ -19477,7 +19480,7 @@
         <v>209</v>
       </c>
       <c r="G225">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>150</v>
       </c>
       <c r="H225" t="s">
@@ -19535,7 +19538,7 @@
         <v>100</v>
       </c>
       <c r="G226">
-        <f t="shared" ref="G226" si="53">E226+3</f>
+        <f t="shared" ref="G226" si="55">E226+3</f>
         <v>163</v>
       </c>
       <c r="H226" t="s">
@@ -19878,7 +19881,7 @@
         <v>19</v>
       </c>
       <c r="D232">
-        <f t="shared" ref="D232" si="54">D235-1</f>
+        <f t="shared" ref="D232" si="56">D235-1</f>
         <v>146</v>
       </c>
       <c r="E232">
@@ -19942,7 +19945,7 @@
         <v>165</v>
       </c>
       <c r="E233">
-        <f t="shared" ref="E233:E237" si="55">E232</f>
+        <f t="shared" ref="E233:E237" si="57">E232</f>
         <v>233</v>
       </c>
       <c r="F233">
@@ -20002,7 +20005,7 @@
         <v>188</v>
       </c>
       <c r="E234">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>233</v>
       </c>
       <c r="F234">
@@ -20010,7 +20013,7 @@
         <v>209</v>
       </c>
       <c r="G234">
-        <f t="shared" ref="G234" si="56">G233</f>
+        <f t="shared" ref="G234" si="58">G233</f>
         <v>238</v>
       </c>
       <c r="H234" t="s">
@@ -20119,11 +20122,11 @@
         <v>166</v>
       </c>
       <c r="E236">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>233</v>
       </c>
       <c r="F236">
-        <f t="shared" ref="F236:F237" si="57">D236</f>
+        <f t="shared" ref="F236:F237" si="59">D236</f>
         <v>166</v>
       </c>
       <c r="G236">
@@ -20176,11 +20179,11 @@
         <v>188</v>
       </c>
       <c r="E237">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>233</v>
       </c>
       <c r="F237">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>188</v>
       </c>
       <c r="G237">
@@ -20357,7 +20360,7 @@
         <v>165</v>
       </c>
       <c r="G240">
-        <f t="shared" ref="G240:G242" si="58">E240+3</f>
+        <f t="shared" ref="G240:G242" si="60">E240+3</f>
         <v>255</v>
       </c>
       <c r="H240" t="s">
@@ -20417,7 +20420,7 @@
         <v>189</v>
       </c>
       <c r="G241">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>255</v>
       </c>
       <c r="H241" t="s">
@@ -20477,7 +20480,7 @@
         <v>209</v>
       </c>
       <c r="G242">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>255</v>
       </c>
       <c r="H242" t="s">
@@ -20754,7 +20757,7 @@
         <v>19</v>
       </c>
       <c r="D247">
-        <f t="shared" ref="D247" si="59">D250-1</f>
+        <f t="shared" ref="D247" si="61">D250-1</f>
         <v>136</v>
       </c>
       <c r="E247">
@@ -20818,7 +20821,7 @@
         <v>155</v>
       </c>
       <c r="E248">
-        <f t="shared" ref="E248:E249" si="60">E247</f>
+        <f t="shared" ref="E248:E249" si="62">E247</f>
         <v>21</v>
       </c>
       <c r="F248">
@@ -20878,7 +20881,7 @@
         <v>178</v>
       </c>
       <c r="E249">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>21</v>
       </c>
       <c r="F249">
@@ -20886,7 +20889,7 @@
         <v>199</v>
       </c>
       <c r="G249">
-        <f t="shared" ref="G249" si="61">G248</f>
+        <f t="shared" ref="G249" si="63">G248</f>
         <v>26</v>
       </c>
       <c r="H249" t="s">
@@ -20994,11 +20997,11 @@
         <v>156</v>
       </c>
       <c r="E251">
-        <f t="shared" ref="E251:E252" si="62">E250</f>
+        <f t="shared" ref="E251:E252" si="64">E250</f>
         <v>19</v>
       </c>
       <c r="F251">
-        <f t="shared" ref="F251:F252" si="63">D251</f>
+        <f t="shared" ref="F251:F252" si="65">D251</f>
         <v>156</v>
       </c>
       <c r="G251">
@@ -21051,11 +21054,11 @@
         <v>178</v>
       </c>
       <c r="E252">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>19</v>
       </c>
       <c r="F252">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>178</v>
       </c>
       <c r="G252">
@@ -21233,7 +21236,7 @@
         <v>155</v>
       </c>
       <c r="G255">
-        <f t="shared" ref="G255:G257" si="64">E255+3</f>
+        <f t="shared" ref="G255:G257" si="66">E255+3</f>
         <v>43</v>
       </c>
       <c r="H255" t="s">
@@ -21293,7 +21296,7 @@
         <v>179</v>
       </c>
       <c r="G256">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>43</v>
       </c>
       <c r="H256" t="s">
@@ -21353,7 +21356,7 @@
         <v>199</v>
       </c>
       <c r="G257">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>43</v>
       </c>
       <c r="H257" t="s">
@@ -21401,7 +21404,7 @@
         <v>19</v>
       </c>
       <c r="D258">
-        <f t="shared" ref="D258:D269" si="65">D254</f>
+        <f t="shared" ref="D258:D269" si="67">D254</f>
         <v>89</v>
       </c>
       <c r="E258">
@@ -21409,7 +21412,7 @@
         <v>54</v>
       </c>
       <c r="F258">
-        <f t="shared" ref="F258:F269" si="66">F254</f>
+        <f t="shared" ref="F258:F269" si="68">F254</f>
         <v>135</v>
       </c>
       <c r="G258">
@@ -21461,7 +21464,7 @@
         <v>19</v>
       </c>
       <c r="D259">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>136</v>
       </c>
       <c r="E259">
@@ -21469,7 +21472,7 @@
         <v>55</v>
       </c>
       <c r="F259">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>155</v>
       </c>
       <c r="G259">
@@ -21521,7 +21524,7 @@
         <v>19</v>
       </c>
       <c r="D260">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>155</v>
       </c>
       <c r="E260">
@@ -21529,11 +21532,11 @@
         <v>55</v>
       </c>
       <c r="F260">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>179</v>
       </c>
       <c r="G260">
-        <f t="shared" ref="G260:G261" si="67">E260+3</f>
+        <f t="shared" ref="G260:G261" si="69">E260+3</f>
         <v>58</v>
       </c>
       <c r="H260" t="s">
@@ -21581,7 +21584,7 @@
         <v>19</v>
       </c>
       <c r="D261">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>178</v>
       </c>
       <c r="E261">
@@ -21589,11 +21592,11 @@
         <v>55</v>
       </c>
       <c r="F261">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>199</v>
       </c>
       <c r="G261">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>58</v>
       </c>
       <c r="H261" t="s">
@@ -21641,7 +21644,7 @@
         <v>19</v>
       </c>
       <c r="D262">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>89</v>
       </c>
       <c r="E262">
@@ -21649,7 +21652,7 @@
         <v>69</v>
       </c>
       <c r="F262">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>135</v>
       </c>
       <c r="G262">
@@ -21701,7 +21704,7 @@
         <v>19</v>
       </c>
       <c r="D263">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>136</v>
       </c>
       <c r="E263">
@@ -21709,11 +21712,11 @@
         <v>70</v>
       </c>
       <c r="F263">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>155</v>
       </c>
       <c r="G263">
-        <f t="shared" ref="G263:G265" si="68">E263+3</f>
+        <f t="shared" ref="G263:G265" si="70">E263+3</f>
         <v>73</v>
       </c>
       <c r="H263" t="s">
@@ -21761,7 +21764,7 @@
         <v>19</v>
       </c>
       <c r="D264">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>155</v>
       </c>
       <c r="E264">
@@ -21769,11 +21772,11 @@
         <v>70</v>
       </c>
       <c r="F264">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>179</v>
       </c>
       <c r="G264">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>73</v>
       </c>
       <c r="H264" t="s">
@@ -21821,7 +21824,7 @@
         <v>19</v>
       </c>
       <c r="D265">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>178</v>
       </c>
       <c r="E265">
@@ -21829,11 +21832,11 @@
         <v>70</v>
       </c>
       <c r="F265">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>199</v>
       </c>
       <c r="G265">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>73</v>
       </c>
       <c r="H265" t="s">
@@ -21881,7 +21884,7 @@
         <v>19</v>
       </c>
       <c r="D266">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>89</v>
       </c>
       <c r="E266">
@@ -21889,7 +21892,7 @@
         <v>84</v>
       </c>
       <c r="F266">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>135</v>
       </c>
       <c r="G266">
@@ -21941,7 +21944,7 @@
         <v>19</v>
       </c>
       <c r="D267">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>136</v>
       </c>
       <c r="E267">
@@ -21949,11 +21952,11 @@
         <v>85</v>
       </c>
       <c r="F267">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>155</v>
       </c>
       <c r="G267">
-        <f t="shared" ref="G267:G269" si="69">E267+3</f>
+        <f t="shared" ref="G267:G269" si="71">E267+3</f>
         <v>88</v>
       </c>
       <c r="H267" t="s">
@@ -22001,7 +22004,7 @@
         <v>19</v>
       </c>
       <c r="D268">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>155</v>
       </c>
       <c r="E268">
@@ -22009,11 +22012,11 @@
         <v>85</v>
       </c>
       <c r="F268">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>179</v>
       </c>
       <c r="G268">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>88</v>
       </c>
       <c r="H268" t="s">
@@ -22061,7 +22064,7 @@
         <v>19</v>
       </c>
       <c r="D269">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>178</v>
       </c>
       <c r="E269">
@@ -22069,11 +22072,11 @@
         <v>85</v>
       </c>
       <c r="F269">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>199</v>
       </c>
       <c r="G269">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>88</v>
       </c>
       <c r="H269" t="s">
@@ -22354,7 +22357,7 @@
         <v>19</v>
       </c>
       <c r="D274">
-        <f t="shared" ref="D274" si="70">D277-1</f>
+        <f t="shared" ref="D274" si="72">D277-1</f>
         <v>136</v>
       </c>
       <c r="E274">
@@ -22418,7 +22421,7 @@
         <v>155</v>
       </c>
       <c r="E275">
-        <f t="shared" ref="E275:E276" si="71">E274</f>
+        <f t="shared" ref="E275:E276" si="73">E274</f>
         <v>112</v>
       </c>
       <c r="F275">
@@ -22478,7 +22481,7 @@
         <v>178</v>
       </c>
       <c r="E276">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>112</v>
       </c>
       <c r="F276">
@@ -22486,7 +22489,7 @@
         <v>199</v>
       </c>
       <c r="G276">
-        <f t="shared" ref="G276" si="72">G275</f>
+        <f t="shared" ref="G276" si="74">G275</f>
         <v>117</v>
       </c>
       <c r="H276" t="s">
@@ -22595,11 +22598,11 @@
         <v>156</v>
       </c>
       <c r="E278">
-        <f t="shared" ref="E278:E279" si="73">E277</f>
+        <f t="shared" ref="E278:E279" si="75">E277</f>
         <v>110</v>
       </c>
       <c r="F278">
-        <f t="shared" ref="F278:F279" si="74">D278</f>
+        <f t="shared" ref="F278:F279" si="76">D278</f>
         <v>156</v>
       </c>
       <c r="G278">
@@ -22652,11 +22655,11 @@
         <v>178</v>
       </c>
       <c r="E279">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>110</v>
       </c>
       <c r="F279">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>178</v>
       </c>
       <c r="G279">
@@ -22834,7 +22837,7 @@
         <v>155</v>
       </c>
       <c r="G282">
-        <f t="shared" ref="G282:G284" si="75">E282+3</f>
+        <f t="shared" ref="G282:G284" si="77">E282+3</f>
         <v>134</v>
       </c>
       <c r="H282" t="s">
@@ -22894,7 +22897,7 @@
         <v>179</v>
       </c>
       <c r="G283">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>134</v>
       </c>
       <c r="H283" t="s">
@@ -22954,7 +22957,7 @@
         <v>199</v>
       </c>
       <c r="G284">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>134</v>
       </c>
       <c r="H284" t="s">
@@ -28573,11 +28576,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V148"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E37" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E74" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C45" sqref="C45"/>
+      <selection pane="bottomRight" activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32583,7 +32586,7 @@
         <v>1453</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>1538</v>
+        <v>1604</v>
       </c>
       <c r="D77" s="10" t="s">
         <v>1538</v>
@@ -32607,7 +32610,7 @@
       <c r="U77" s="8"/>
       <c r="V77" s="8"/>
     </row>
-    <row r="78" spans="1:22" ht="135" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:22" ht="150" x14ac:dyDescent="0.25">
       <c r="A78" s="15" t="s">
         <v>77</v>
       </c>
@@ -32615,7 +32618,7 @@
         <v>1454</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>1522</v>
+        <v>1605</v>
       </c>
       <c r="D78" s="10" t="s">
         <v>1522</v>
@@ -32843,8 +32846,6 @@
       </c>
       <c r="D83" s="9"/>
       <c r="E83" s="8"/>
-      <c r="F83" s="25"/>
-      <c r="G83" s="25"/>
       <c r="H83" s="9"/>
       <c r="I83" s="8"/>
       <c r="J83" s="16"/>
@@ -35739,25 +35740,25 @@
   <conditionalFormatting sqref="B7:B11">
     <cfRule type="duplicateValues" dxfId="7" priority="108"/>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B82:B83">
+    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B84:B148 B1:B6 B12:B81">
-    <cfRule type="duplicateValues" dxfId="6" priority="136"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="136"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B82:B83">
-    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B82:V83 B54:C81 D54:M58 N54:V78 B56:V58 B1:V53">
+  <conditionalFormatting sqref="B1:V53 D54:M58 N54:V78 B54:C81 B56:V58 B82:V83">
     <cfRule type="containsBlanks" dxfId="4" priority="1">
       <formula>LEN(TRIM(B1))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L59:M78 D59:K81 L79:V81 D84:E85 H84:V85 E84:K94 B84:C148 D86:D92 N86:V92 L86:M94 D91:E91 H91:V91 D93:V94 E95:M98 D95:D105 N95:V105 D99:V124 D125:D130 M125:M130 N125:V142 E127:K130 L128:L130 D131:M133 D134:K142 D143:V146 D147:K148 N147:V148 L148:M148">
-    <cfRule type="containsBlanks" dxfId="3" priority="19">
-      <formula>LEN(TRIM(B59))=0</formula>
+  <conditionalFormatting sqref="E125:L127 L142:L147">
+    <cfRule type="containsBlanks" dxfId="3" priority="71">
+      <formula>LEN(TRIM(E125))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E125:L127 L142:L147">
-    <cfRule type="containsBlanks" dxfId="2" priority="71">
-      <formula>LEN(TRIM(E125))=0</formula>
+  <conditionalFormatting sqref="L59:M78 D59:K81 L79:V81 D84:E85 H84:V85 E84:K94 B84:C148 D86:D92 N86:V92 L86:M94 D91:E91 H91:V91 D93:V94 E95:M98 D95:D105 N95:V105 D99:V124 D125:D130 M125:M130 N125:V142 E127:K130 L128:L130 D131:M133 D134:K142 D143:V146 D147:K148 N147:V148 L148:M148">
+    <cfRule type="containsBlanks" dxfId="2" priority="19">
+      <formula>LEN(TRIM(B59))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L134:M141">

--- a/process/configuration/templates/_report_configuration.xlsx
+++ b/process/configuration/templates/_report_configuration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rmiteduau-my.sharepoint.com/personal/carl_higgs_rmit_edu_au/Documents/projects/global-indicators/process/configuration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6522" documentId="114_{57517418-E3A8-4D24-9644-27D04334BB89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50537D98-BA6A-43C4-A074-693D4EA1D679}"/>
+  <xr:revisionPtr revIDLastSave="6543" documentId="114_{57517418-E3A8-4D24-9644-27D04334BB89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{727B0BFF-E41C-46CC-AD7E-834DB1DFBE80}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="16305" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="policy_spatial" sheetId="1" r:id="rId1"/>
@@ -6261,11 +6261,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T332"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B113" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E124" sqref="E124"/>
+      <selection pane="bottomRight" activeCell="G75" sqref="G75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10386,14 +10386,14 @@
         <v>30</v>
       </c>
       <c r="E70">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="F70">
         <v>170</v>
       </c>
       <c r="G70">
-        <f>G73+16</f>
-        <v>169</v>
+        <f>G73+12</f>
+        <v>152</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -10444,8 +10444,8 @@
         <v>40</v>
       </c>
       <c r="E71">
-        <f>E70+16</f>
-        <v>91</v>
+        <f>E70+8</f>
+        <v>93</v>
       </c>
       <c r="F71">
         <f>F70-10</f>
@@ -10453,7 +10453,7 @@
       </c>
       <c r="G71">
         <f>E71+5</f>
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H71" t="s">
         <v>109</v>
@@ -10504,8 +10504,8 @@
         <v>40</v>
       </c>
       <c r="E72">
-        <f>G71+16</f>
-        <v>112</v>
+        <f>G71+8</f>
+        <v>106</v>
       </c>
       <c r="F72">
         <f>F73</f>
@@ -10513,7 +10513,7 @@
       </c>
       <c r="G72">
         <f>E72+8</f>
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="H72" t="s">
         <v>109</v>
@@ -10564,22 +10564,22 @@
         <v>40</v>
       </c>
       <c r="E73">
-        <f>G72+16</f>
-        <v>136</v>
+        <f>G72+20</f>
+        <v>134</v>
       </c>
       <c r="F73">
         <f>F71</f>
         <v>160</v>
       </c>
       <c r="G73">
-        <f>E73+17</f>
-        <v>153</v>
+        <f>E73+6</f>
+        <v>140</v>
       </c>
       <c r="H73" t="s">
         <v>109</v>
       </c>
       <c r="I73">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J73">
         <v>1</v>
@@ -10626,15 +10626,15 @@
         <v>30</v>
       </c>
       <c r="E74">
-        <f>G70+16</f>
-        <v>185</v>
+        <f>G70+30</f>
+        <v>182</v>
       </c>
       <c r="F74">
         <v>170</v>
       </c>
       <c r="G74">
-        <f>G77+16</f>
-        <v>279</v>
+        <f>G77+12</f>
+        <v>249</v>
       </c>
       <c r="I74">
         <v>0</v>
@@ -10685,8 +10685,8 @@
         <v>40</v>
       </c>
       <c r="E75">
-        <f>E74+16</f>
-        <v>201</v>
+        <f>E74+8</f>
+        <v>190</v>
       </c>
       <c r="F75">
         <f>F74-10</f>
@@ -10694,7 +10694,7 @@
       </c>
       <c r="G75">
         <f>E75+5</f>
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="H75" t="s">
         <v>109</v>
@@ -10745,8 +10745,8 @@
         <v>40</v>
       </c>
       <c r="E76">
-        <f>G75+16</f>
-        <v>222</v>
+        <f>G75+8</f>
+        <v>203</v>
       </c>
       <c r="F76">
         <f>F77</f>
@@ -10754,7 +10754,7 @@
       </c>
       <c r="G76">
         <f>E76+8</f>
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="H76" t="s">
         <v>109</v>
@@ -10805,22 +10805,22 @@
         <v>40</v>
       </c>
       <c r="E77">
-        <f>G76+16</f>
-        <v>246</v>
+        <f>G76+20</f>
+        <v>231</v>
       </c>
       <c r="F77">
         <f>F75</f>
         <v>160</v>
       </c>
       <c r="G77">
-        <f>E77+17</f>
-        <v>263</v>
+        <f>E77+6</f>
+        <v>237</v>
       </c>
       <c r="H77" t="s">
         <v>109</v>
       </c>
       <c r="I77">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J77">
         <v>1</v>
@@ -26178,11 +26178,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{275ED209-18EA-43FD-841F-C491018348BF}">
   <dimension ref="A1:T127"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C67" sqref="C67"/>
+      <selection pane="bottomRight" activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50080,10 +50080,10 @@
   <dimension ref="A1:V177"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E106" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C106" sqref="C106"/>
+      <selection pane="bottomRight" activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/process/configuration/templates/_report_configuration.xlsx
+++ b/process/configuration/templates/_report_configuration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rmiteduau-my.sharepoint.com/personal/carl_higgs_rmit_edu_au/Documents/projects/global-indicators/process/configuration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6598" documentId="114_{57517418-E3A8-4D24-9644-27D04334BB89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B245D208-5BF5-4F3D-9F08-7AFFF26A73A8}"/>
+  <xr:revisionPtr revIDLastSave="6601" documentId="114_{57517418-E3A8-4D24-9644-27D04334BB89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CDA71820-6A47-4B73-8600-67744D498FD5}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="16305" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6243,10 +6243,10 @@
   <dimension ref="A1:T328"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A21" sqref="A21:XFD27"/>
+      <selection pane="bottomRight" activeCell="A64" sqref="A64:XFD73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25919,10 +25919,10 @@
   <dimension ref="A1:T124"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A21" sqref="A21:XFD27"/>
+      <selection pane="bottomRight" activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33218,10 +33218,10 @@
   <dimension ref="A1:T270"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B23" sqref="B23"/>
+      <selection pane="bottomRight" activeCell="B53" sqref="B53:B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36440,14 +36440,14 @@
         <v>30</v>
       </c>
       <c r="E55">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="F55">
         <v>170</v>
       </c>
       <c r="G55">
-        <f>G58+16</f>
-        <v>169</v>
+        <f>G58+12</f>
+        <v>152</v>
       </c>
       <c r="I55">
         <v>0</v>
@@ -36498,8 +36498,8 @@
         <v>40</v>
       </c>
       <c r="E56">
-        <f>E55+16</f>
-        <v>91</v>
+        <f>E55+8</f>
+        <v>93</v>
       </c>
       <c r="F56">
         <f>F55-10</f>
@@ -36507,7 +36507,7 @@
       </c>
       <c r="G56">
         <f>E56+5</f>
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H56" t="s">
         <v>109</v>
@@ -36558,8 +36558,8 @@
         <v>40</v>
       </c>
       <c r="E57">
-        <f>G56+16</f>
-        <v>112</v>
+        <f>G56+8</f>
+        <v>106</v>
       </c>
       <c r="F57">
         <f>F58</f>
@@ -36567,7 +36567,7 @@
       </c>
       <c r="G57">
         <f>E57+8</f>
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="H57" t="s">
         <v>109</v>
@@ -36618,22 +36618,22 @@
         <v>40</v>
       </c>
       <c r="E58">
-        <f>G57+16</f>
-        <v>136</v>
+        <f>G57+20</f>
+        <v>134</v>
       </c>
       <c r="F58">
         <f>F56</f>
         <v>160</v>
       </c>
       <c r="G58">
-        <f>E58+17</f>
-        <v>153</v>
+        <f>E58+6</f>
+        <v>140</v>
       </c>
       <c r="H58" t="s">
         <v>109</v>
       </c>
       <c r="I58">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J58">
         <v>1</v>
@@ -36680,15 +36680,15 @@
         <v>30</v>
       </c>
       <c r="E59">
-        <f>G55+16</f>
-        <v>185</v>
+        <f>G55+30</f>
+        <v>182</v>
       </c>
       <c r="F59">
         <v>170</v>
       </c>
       <c r="G59">
-        <f>G62+16</f>
-        <v>279</v>
+        <f>G62+12</f>
+        <v>249</v>
       </c>
       <c r="I59">
         <v>0</v>
@@ -36739,8 +36739,8 @@
         <v>40</v>
       </c>
       <c r="E60">
-        <f>E59+16</f>
-        <v>201</v>
+        <f>E59+8</f>
+        <v>190</v>
       </c>
       <c r="F60">
         <f>F59-10</f>
@@ -36748,7 +36748,7 @@
       </c>
       <c r="G60">
         <f>E60+5</f>
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="H60" t="s">
         <v>109</v>
@@ -36799,8 +36799,8 @@
         <v>40</v>
       </c>
       <c r="E61">
-        <f>G60+16</f>
-        <v>222</v>
+        <f>G60+8</f>
+        <v>203</v>
       </c>
       <c r="F61">
         <f>F62</f>
@@ -36808,7 +36808,7 @@
       </c>
       <c r="G61">
         <f>E61+8</f>
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="H61" t="s">
         <v>109</v>
@@ -36859,22 +36859,22 @@
         <v>40</v>
       </c>
       <c r="E62">
-        <f>G61+16</f>
-        <v>246</v>
+        <f>G61+20</f>
+        <v>231</v>
       </c>
       <c r="F62">
         <f>F60</f>
         <v>160</v>
       </c>
       <c r="G62">
-        <f>E62+17</f>
-        <v>263</v>
+        <f>E62+6</f>
+        <v>237</v>
       </c>
       <c r="H62" t="s">
         <v>109</v>
       </c>
       <c r="I62">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J62">
         <v>1</v>

--- a/process/configuration/templates/_report_configuration.xlsx
+++ b/process/configuration/templates/_report_configuration.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rmiteduau-my.sharepoint.com/personal/carl_higgs_rmit_edu_au/Documents/projects/global-indicators/process/configuration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6616" documentId="114_{57517418-E3A8-4D24-9644-27D04334BB89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{925DE9D1-E04C-4720-A04C-DFA69E230E9C}"/>
+  <xr:revisionPtr revIDLastSave="6617" documentId="114_{57517418-E3A8-4D24-9644-27D04334BB89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B52FEEFD-CEB4-41F8-9F28-C4A2895DFCD4}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="policy_spatial" sheetId="1" r:id="rId1"/>
@@ -5071,9 +5071,6 @@
     <t xml:space="preserve">Edit the 'Demographics and health equity' section of the region configuration file to highlight socio-economic demographic characteristics and key health challenges and inequities present in this urban area. </t>
   </si>
   <si>
-    <t>Environmental hazards that may impact the urban area over the coming decade may include: {policy_checklist_hazards}.</t>
-  </si>
-  <si>
     <t>context</t>
   </si>
   <si>
@@ -5180,6 +5177,9 @@
   </si>
   <si>
     <t>Policy checklist data could not be loaded and have been skipped.  See https://healthysustainablecities.github.io/software/#Policy-checklist</t>
+  </si>
+  <si>
+    <t>Environmental hazards that may impact the urban area over the coming decade include: {policy_checklist_hazards}.</t>
   </si>
 </sst>
 </file>
@@ -9371,7 +9371,7 @@
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="B53">
         <v>4</v>
@@ -9543,7 +9543,7 @@
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="B56">
         <v>-999</v>
@@ -9576,7 +9576,7 @@
         <v>0</v>
       </c>
       <c r="N56" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="O56" t="s">
         <v>25</v>
@@ -9596,7 +9596,7 @@
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="B57">
         <v>4</v>
@@ -9651,7 +9651,7 @@
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="B58">
         <v>4</v>
@@ -9711,7 +9711,7 @@
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="B59">
         <v>4</v>
@@ -9772,7 +9772,7 @@
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="B60">
         <v>4</v>
@@ -9833,7 +9833,7 @@
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="B61">
         <v>4</v>
@@ -9890,7 +9890,7 @@
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="B62">
         <v>4</v>
@@ -9947,7 +9947,7 @@
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="B63">
         <v>4</v>
@@ -19714,7 +19714,7 @@
         <v>0</v>
       </c>
       <c r="M225" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="N225" t="s">
         <v>21</v>
@@ -28961,7 +28961,7 @@
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="B52">
         <v>4</v>
@@ -29130,7 +29130,7 @@
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="B55">
         <v>-999</v>
@@ -29163,7 +29163,7 @@
         <v>0</v>
       </c>
       <c r="N55" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="O55" t="s">
         <v>25</v>
@@ -29183,7 +29183,7 @@
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="B56">
         <v>4</v>
@@ -29238,7 +29238,7 @@
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="B57">
         <v>4</v>
@@ -29294,7 +29294,7 @@
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="B58">
         <v>4</v>
@@ -29351,7 +29351,7 @@
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="B59">
         <v>4</v>
@@ -29408,7 +29408,7 @@
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="B60">
         <v>4</v>
@@ -29465,7 +29465,7 @@
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="B61">
         <v>4</v>
@@ -29522,7 +29522,7 @@
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="B62">
         <v>4</v>
@@ -29752,7 +29752,7 @@
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="B66">
         <v>5</v>
@@ -29792,7 +29792,7 @@
         <v>25</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="Q66">
         <v>1</v>
@@ -32077,7 +32077,7 @@
         <v>0</v>
       </c>
       <c r="M105" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="N105" t="s">
         <v>21</v>
@@ -49465,7 +49465,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50002,10 +50002,10 @@
         <v>77</v>
       </c>
       <c r="B11" s="15" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>1672</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>1673</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="8"/>
@@ -50403,7 +50403,7 @@
         <v>1291</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>1638</v>
+        <v>1673</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
@@ -50577,13 +50577,13 @@
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
@@ -50607,13 +50607,13 @@
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
+        <v>1638</v>
+      </c>
+      <c r="B29" s="15" t="s">
         <v>1639</v>
       </c>
-      <c r="B29" s="15" t="s">
-        <v>1640</v>
-      </c>
       <c r="C29" s="9" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
@@ -50637,13 +50637,13 @@
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
@@ -50667,13 +50667,13 @@
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
@@ -50697,13 +50697,13 @@
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
@@ -50727,13 +50727,13 @@
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
@@ -50757,13 +50757,13 @@
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
@@ -50787,13 +50787,13 @@
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
@@ -50817,13 +50817,13 @@
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
@@ -50847,13 +50847,13 @@
     </row>
     <row r="37" spans="1:22" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="B37" s="15" t="s">
         <v>1560</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
@@ -50877,13 +50877,13 @@
     </row>
     <row r="38" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
@@ -50910,10 +50910,10 @@
         <v>78</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
@@ -50940,10 +50940,10 @@
         <v>78</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
@@ -50970,10 +50970,10 @@
         <v>78</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
@@ -51000,10 +51000,10 @@
         <v>78</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
@@ -51030,10 +51030,10 @@
         <v>78</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
@@ -54372,10 +54372,10 @@
         <v>77</v>
       </c>
       <c r="B107" s="15" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="D107" s="10"/>
       <c r="E107" s="8"/>
@@ -57341,7 +57341,7 @@
         <v>1490</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="D172" s="3" t="s">
         <v>1491</v>
@@ -57366,7 +57366,7 @@
         <v>1492</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="D174" s="3" t="s">
         <v>1493</v>
@@ -57380,7 +57380,7 @@
         <v>566</v>
       </c>
       <c r="C175" s="9" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="D175" s="9" t="s">
         <v>562</v>

--- a/process/configuration/templates/_report_configuration.xlsx
+++ b/process/configuration/templates/_report_configuration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rmiteduau-my.sharepoint.com/personal/carl_higgs_rmit_edu_au/Documents/projects/global-indicators/process/configuration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6617" documentId="114_{57517418-E3A8-4D24-9644-27D04334BB89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B52FEEFD-CEB4-41F8-9F28-C4A2895DFCD4}"/>
+  <xr:revisionPtr revIDLastSave="6626" documentId="114_{57517418-E3A8-4D24-9644-27D04334BB89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA0017A7-3ABB-45B3-8B91-D266109FB365}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="policy_spatial" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6112" uniqueCount="1674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6112" uniqueCount="1676">
   <si>
     <t>name</t>
   </si>
@@ -5180,6 +5180,16 @@
   </si>
   <si>
     <t>Environmental hazards that may impact the urban area over the coming decade include: {policy_checklist_hazards}.</t>
+  </si>
+  <si>
+    <t>% of
+population
+with access
+within 500m
+to:</t>
+  </si>
+  <si>
+    <t>Median and interquartile range for 25 cities internationally (Box 1)</t>
   </si>
 </sst>
 </file>
@@ -6248,11 +6258,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T328"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B92" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I16" sqref="I16"/>
+      <selection pane="bottomRight" activeCell="G118" sqref="G118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13131,14 +13141,14 @@
       </c>
       <c r="E116">
         <f>G118+8</f>
-        <v>240</v>
+        <v>285</v>
       </c>
       <c r="F116">
         <v>208</v>
       </c>
       <c r="G116">
         <f>E116+8</f>
-        <v>248</v>
+        <v>293</v>
       </c>
       <c r="H116" t="s">
         <v>109</v>
@@ -13251,8 +13261,8 @@
         <v>196</v>
       </c>
       <c r="G118">
-        <f>E118+(F118-D118)</f>
-        <v>232</v>
+        <f>INT(E118+(F118-D118)/80*100)</f>
+        <v>277</v>
       </c>
       <c r="H118" t="s">
         <v>109</v>
@@ -25925,10 +25935,10 @@
   <dimension ref="A1:T124"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A33" sqref="A33"/>
+      <selection pane="bottomRight" activeCell="G77" sqref="G77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30405,8 +30415,8 @@
         <v>196</v>
       </c>
       <c r="G77">
-        <f>E77+(F77-D77)</f>
-        <v>215</v>
+        <f>INT(E77+(F77-D77)/80*100)</f>
+        <v>260</v>
       </c>
       <c r="H77" t="s">
         <v>109</v>
@@ -30512,14 +30522,14 @@
       </c>
       <c r="E79">
         <f>G77</f>
-        <v>215</v>
+        <v>260</v>
       </c>
       <c r="F79">
         <v>196</v>
       </c>
       <c r="G79">
         <f>E79+5</f>
-        <v>220</v>
+        <v>265</v>
       </c>
       <c r="H79" t="s">
         <v>109</v>
@@ -30570,14 +30580,14 @@
       </c>
       <c r="E80">
         <f>G79+8</f>
-        <v>228</v>
+        <v>273</v>
       </c>
       <c r="F80">
         <v>196</v>
       </c>
       <c r="G80">
         <f>E80+5</f>
-        <v>233</v>
+        <v>278</v>
       </c>
       <c r="H80" t="s">
         <v>109</v>
@@ -49461,11 +49471,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V178"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E64" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomRight" activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52343,7 +52353,7 @@
         <v>96</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>1504</v>
+        <v>1674</v>
       </c>
       <c r="D68" s="9" t="s">
         <v>1504</v>
@@ -52527,7 +52537,7 @@
       <c r="U70" s="8"/>
       <c r="V70" s="8"/>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="15" t="s">
         <v>78</v>
       </c>
@@ -52535,7 +52545,7 @@
         <v>110</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>346</v>
+        <v>1675</v>
       </c>
       <c r="D71" s="9" t="s">
         <v>346</v>

--- a/process/configuration/templates/_report_configuration.xlsx
+++ b/process/configuration/templates/_report_configuration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rmiteduau-my.sharepoint.com/personal/carl_higgs_rmit_edu_au/Documents/projects/global-indicators/process/configuration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6626" documentId="114_{57517418-E3A8-4D24-9644-27D04334BB89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA0017A7-3ABB-45B3-8B91-D266109FB365}"/>
+  <xr:revisionPtr revIDLastSave="6635" documentId="114_{57517418-E3A8-4D24-9644-27D04334BB89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93B713A6-D4F4-43C0-9631-36287A5EBCE4}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28695" yWindow="0" windowWidth="14610" windowHeight="16305" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="policy_spatial" sheetId="1" r:id="rId1"/>
@@ -5059,9 +5059,6 @@
     <t>Box 1: The Lancet Global Health Series study of 25 cities internationally</t>
   </si>
   <si>
-    <t>A 1000 Cities Challenge report</t>
-  </si>
-  <si>
     <t>Levels of government</t>
   </si>
   <si>
@@ -5190,6 +5187,9 @@
   </si>
   <si>
     <t>Median and interquartile range for 25 cities internationally (Box 1)</t>
+  </si>
+  <si>
+    <t>1000 Cities Challenge report</t>
   </si>
 </sst>
 </file>
@@ -6258,8 +6258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T328"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B92" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="G118" sqref="G118"/>
@@ -9381,7 +9381,7 @@
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="B53">
         <v>4</v>
@@ -9553,7 +9553,7 @@
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="B56">
         <v>-999</v>
@@ -9586,7 +9586,7 @@
         <v>0</v>
       </c>
       <c r="N56" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="O56" t="s">
         <v>25</v>
@@ -9606,7 +9606,7 @@
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="B57">
         <v>4</v>
@@ -9661,7 +9661,7 @@
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="B58">
         <v>4</v>
@@ -9721,7 +9721,7 @@
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="B59">
         <v>4</v>
@@ -9782,7 +9782,7 @@
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="B60">
         <v>4</v>
@@ -9843,7 +9843,7 @@
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="B61">
         <v>4</v>
@@ -9900,7 +9900,7 @@
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="B62">
         <v>4</v>
@@ -9957,7 +9957,7 @@
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="B63">
         <v>4</v>
@@ -19724,7 +19724,7 @@
         <v>0</v>
       </c>
       <c r="M225" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="N225" t="s">
         <v>21</v>
@@ -28971,7 +28971,7 @@
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="B52">
         <v>4</v>
@@ -29140,7 +29140,7 @@
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="B55">
         <v>-999</v>
@@ -29173,7 +29173,7 @@
         <v>0</v>
       </c>
       <c r="N55" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="O55" t="s">
         <v>25</v>
@@ -29193,7 +29193,7 @@
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="B56">
         <v>4</v>
@@ -29248,7 +29248,7 @@
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="B57">
         <v>4</v>
@@ -29304,7 +29304,7 @@
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="B58">
         <v>4</v>
@@ -29361,7 +29361,7 @@
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="B59">
         <v>4</v>
@@ -29418,7 +29418,7 @@
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="B60">
         <v>4</v>
@@ -29475,7 +29475,7 @@
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="B61">
         <v>4</v>
@@ -29532,7 +29532,7 @@
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="B62">
         <v>4</v>
@@ -29762,7 +29762,7 @@
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="B66">
         <v>5</v>
@@ -29802,7 +29802,7 @@
         <v>25</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="Q66">
         <v>1</v>
@@ -32087,7 +32087,7 @@
         <v>0</v>
       </c>
       <c r="M105" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="N105" t="s">
         <v>21</v>
@@ -49471,11 +49471,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V178"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E64" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C71" sqref="C71"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49823,7 +49823,7 @@
         <v>228</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>1634</v>
+        <v>1675</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>1511</v>
@@ -50012,10 +50012,10 @@
         <v>77</v>
       </c>
       <c r="B11" s="15" t="s">
+        <v>1670</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>1671</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>1672</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="8"/>
@@ -50233,7 +50233,7 @@
         <v>1286</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
@@ -50323,7 +50323,7 @@
         <v>1285</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
@@ -50383,7 +50383,7 @@
         <v>1289</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
@@ -50413,7 +50413,7 @@
         <v>1291</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
@@ -50587,13 +50587,13 @@
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
@@ -50617,13 +50617,13 @@
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B29" s="15" t="s">
         <v>1638</v>
       </c>
-      <c r="B29" s="15" t="s">
-        <v>1639</v>
-      </c>
       <c r="C29" s="9" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
@@ -50647,13 +50647,13 @@
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
@@ -50677,13 +50677,13 @@
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
@@ -50707,13 +50707,13 @@
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
@@ -50737,13 +50737,13 @@
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
@@ -50767,13 +50767,13 @@
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
@@ -50797,13 +50797,13 @@
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
@@ -50827,13 +50827,13 @@
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
@@ -50857,13 +50857,13 @@
     </row>
     <row r="37" spans="1:22" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="B37" s="15" t="s">
         <v>1560</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
@@ -50887,13 +50887,13 @@
     </row>
     <row r="38" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
@@ -50920,10 +50920,10 @@
         <v>78</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
@@ -50950,10 +50950,10 @@
         <v>78</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
@@ -50980,10 +50980,10 @@
         <v>78</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
@@ -51010,10 +51010,10 @@
         <v>78</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
@@ -51040,10 +51040,10 @@
         <v>78</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
@@ -52353,7 +52353,7 @@
         <v>96</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="D68" s="9" t="s">
         <v>1504</v>
@@ -52545,7 +52545,7 @@
         <v>110</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="D71" s="9" t="s">
         <v>346</v>
@@ -54382,10 +54382,10 @@
         <v>77</v>
       </c>
       <c r="B107" s="15" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="D107" s="10"/>
       <c r="E107" s="8"/>
@@ -57351,7 +57351,7 @@
         <v>1490</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="D172" s="3" t="s">
         <v>1491</v>
@@ -57376,7 +57376,7 @@
         <v>1492</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="D174" s="3" t="s">
         <v>1493</v>
@@ -57390,7 +57390,7 @@
         <v>566</v>
       </c>
       <c r="C175" s="9" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="D175" s="9" t="s">
         <v>562</v>

--- a/process/configuration/templates/_report_configuration.xlsx
+++ b/process/configuration/templates/_report_configuration.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rmiteduau-my.sharepoint.com/personal/carl_higgs_rmit_edu_au/Documents/projects/global-indicators/process/configuration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8814" documentId="114_{57517418-E3A8-4D24-9644-27D04334BB89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{157C34E7-3EE7-4CBC-9CE5-4CA30A050814}"/>
+  <xr:revisionPtr revIDLastSave="8845" documentId="114_{57517418-E3A8-4D24-9644-27D04334BB89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C61AF745-9765-4ABD-A749-CC72BEAAF427}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9923" uniqueCount="5084">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9932" uniqueCount="5086">
   <si>
     <t>name</t>
   </si>
@@ -11827,15 +11827,9 @@
     <t>tr</t>
   </si>
   <si>
-    <t>1000 Şehir Mücadelesi raporu</t>
-  </si>
-  <si>
     <t>Sağlıklı ve sürdürülebilir şehirler için politika göstergeleri</t>
   </si>
   <si>
-    <t>Sağlıklı ve sürdürülebilir şehirler için politika ve mekansal göstergeler</t>
-  </si>
-  <si>
     <t>Sağlıklı ve sürdürülebilir şehirler için mekansal göstergeler</t>
   </si>
   <si>
@@ -11854,30 +11848,15 @@
     <t>{city_name} bağlamı</t>
   </si>
   <si>
-    <t>Hükümet seviyeleri</t>
-  </si>
-  <si>
     <t>Demografi ve sağlık eşitliği</t>
   </si>
   <si>
-    <t>Çevre felaketi bağlamı</t>
-  </si>
-  <si>
     <t>Ek bağlam</t>
   </si>
   <si>
-    <t>Çalışma bölgeniz için arka plan bağlamı sağlamak üzere bölge yapılandırma dosyasını düzenleyin. Lütfen konumu, tarihi ve topografyayı ilgili olduğu şekilde kısaca özetleyin.</t>
-  </si>
-  <si>
-    <t>{city_name} için şu hükümet politikası düzeyleri analiz edildi: {policy_checklist_levels}.</t>
-  </si>
-  <si>
     <t>Önümüzdeki on yılda kentsel alanı etkileyebilecek çevresel tehlikeler arasında şunlar yer almaktadır: {policy_checklist_hazards}.</t>
   </si>
   <si>
-    <t>Bu şehirdeki kentsel sağlık eşitsizlikleri ve coğrafya ile ilgili diğer hususları veya bulguların yorumlanmasını etkileyebilecek veri hususlarını ayrıntılarıyla belirtin.</t>
-  </si>
-  <si>
     <t>Yerel</t>
   </si>
   <si>
@@ -11887,9 +11866,6 @@
     <t>Bölgesel</t>
   </si>
   <si>
-    <t>Durum</t>
-  </si>
-  <si>
     <t>Ulusal</t>
   </si>
   <si>
@@ -11899,15 +11875,6 @@
     <t>Seller</t>
   </si>
   <si>
-    <t>Orman yangınları/orman yangınları</t>
-  </si>
-  <si>
-    <t>Sıcak hava dalgası</t>
-  </si>
-  <si>
-    <t>Aşırı soğuk</t>
-  </si>
-  <si>
     <t>Tayfunlar</t>
   </si>
   <si>
@@ -11917,15 +11884,9 @@
     <t>Depremler</t>
   </si>
   <si>
-    <t>Bu raporda sunulan {city_name} nüfusu için mekansal göstergeleri hesaplamak için kullanılan çalışma bölgesi, aşağıdaki haritada paralel çizgi gölgelemesi kullanılarak vurgulanmıştır.</t>
-  </si>
-  <si>
     <t>Çalışma bölgesi</t>
   </si>
   <si>
-    <t>Harita efsanesi</t>
-  </si>
-  <si>
     <t>İdari sınır ({source})</t>
   </si>
   <si>
@@ -11938,36 +11899,18 @@
     <t>idari sınır ile kentsel sınırın kesişimi</t>
   </si>
   <si>
-    <t>kilometre</t>
-  </si>
-  <si>
     <t>km² başına</t>
   </si>
   <si>
-    <t>Yemek marketi</t>
-  </si>
-  <si>
     <t>Market</t>
   </si>
   <si>
-    <t>Herhangi bir kamuya açık alan</t>
-  </si>
-  <si>
-    <t>Büyük halka açık alan</t>
-  </si>
-  <si>
     <t>Toplu taşıma durağı</t>
   </si>
   <si>
-    <t>Düzenli servisli toplu taşıma</t>
-  </si>
-  <si>
     <t>Düzenli hizmet veren toplu taşıma (değerlendirilmedi)</t>
   </si>
   <si>
-    <t>Uluslararası 25 şehre göre mahallede yürünebilirlik</t>
-  </si>
-  <si>
     <t>Düşük</t>
   </si>
   <si>
@@ -11977,198 +11920,45 @@
     <t>Yüksek</t>
   </si>
   <si>
-    <t>HAYIR</t>
-  </si>
-  <si>
     <t>Evet</t>
   </si>
   <si>
-    <t>{city_name} şehrinde nüfusun {percent} kadarı toplu taşıma araçlarına 500 metre mesafede yaşıyor</t>
-  </si>
-  <si>
-    <t>{city_name}'deki nüfusun {percent} kısmı, toplu taşıma araçlarına 500 metre mesafede yaşıyor ve hafta içi ortalama 20 dakika veya daha iyi bir sıklıkta yaşıyor</t>
-  </si>
-  <si>
-    <t>{city_name}'deki nüfusun {percent} kadarı, en az 1,5 hektarlık kamuya açık alanın 500 metre yakınında yaşıyor</t>
-  </si>
-  <si>
-    <t>{city_name}'deki nüfusun {percent}'i, ulaşım amacıyla herhangi bir yürüyüşe katılma olasılığının %80 olduğu nüfus yoğunluğu eşiğini karşılayan mahallelerde yaşıyor ({n} kişi {per_unit})</t>
-  </si>
-  <si>
-    <t>{city_name}'deki nüfusun {percent} kısmı, ulaşım için herhangi bir yürüyüşe katılma olasılığının %80 olduğu sokak kavşağı yoğunluk eşiğini karşılayan mahallelerde yaşıyor ({n} kavşak {per_unit})</t>
-  </si>
-  <si>
-    <t>{city_name} şehrinde nüfusun {percent} kadarı, yürünebilirlik puanı uluslararası 25 şehrin ortalama değerinin altında olan mahallelerde yaşıyor (Kutu 1)</t>
-  </si>
-  <si>
-    <t>Tanımlanan politikalar</t>
-  </si>
-  <si>
-    <t>Aşağıdakilere 500 m mesafede erişimi olan nüfusun yüzdesi:</t>
-  </si>
-  <si>
     <t>Mahalle nüfus yoğunluğu (km² başına)</t>
   </si>
   <si>
     <t>Mahalle kavşak yoğunluğu (km² başına)</t>
   </si>
   <si>
-    <t>Uluslararası olarak 25 şehir için medyan ve çeyrekler arası aralık (Kutu 1)</t>
-  </si>
-  <si>
-    <t>Bu raporda yer alan mekansal dağılım haritaları, {config[population][name]}'e göre nüfus tahminlerine sahip alanlara ilişkin sonuçları göstermektedir.</t>
-  </si>
-  <si>
-    <t>Lütfen bu şehir için keyifli, yürünebilir bir şehir caddesini veya kamusal alanını gösteren, ideal olarak .jpg formatında, boyutları 21:10 (örneğin 2100 piksele 1000 piksel) olan yüksek çözünürlüklü bir 'kahraman resmi' fotoğrafı sağlayın.</t>
-  </si>
-  <si>
-    <t>Lütfen bu şehir için keyifli, yürünebilir bir caddeyi veya kamusal alanı gösteren yüksek çözünürlüklü bir 'kahraman resmi' fotoğrafı sağlayın; ideal olarak .jpg formatında, boyutları 1:1 oranında (örneğin 1000 piksele 1000 piksel)</t>
-  </si>
-  <si>
-    <t>Bu rapor, {city_name} şehrinin sağlıklı ve sürdürülebilir şehirlere ilişkin çeşitli mekansal ve politika göstergeleri açısından nasıl performans gösterdiğini özetlemektedir. 1000 Şehir Mücadelesi'nin bir parçası olarak kentsel tasarım ve ulaşım özelliklerinin mekansal dağılımını, sağlık ve sürdürülebilirliği teşvik eden şehir planlama politikalarının varlığını ve kalitesini inceledik. Bulgular yerel şehir politikalarında gereken değişikliklere bilgi verebilir. Haritalar, kentsel tasarım ve ulaşım özelliklerinin {city_name} genelindeki dağılımını gösteriyor ve sağlıklı ve sürdürülebilir ortamlar yaratmaya yönelik müdahalelerden en fazla fayda sağlayabilecek alanları belirliyor.</t>
-  </si>
-  <si>
-    <t>Bu rapor, {city_name} şehrinin sağlıklı ve sürdürülebilir şehirlere ilişkin çeşitli göstergelerde nasıl performans gösterdiğini özetlemektedir. 1000 Şehir Mücadelesi kapsamında sağlık ve sürdürülebilirliği teşvik eden şehir planlama politikalarının varlığını ve kalitesini inceledik. Bulgular yerel şehir politikalarında gereken değişikliklere bilgi verebilir.</t>
-  </si>
-  <si>
-    <t>Bu rapor, {city_name} şehrinin sağlıklı ve sürdürülebilir şehirlere ilişkin çeşitli mekansal ve politika göstergeleri açısından nasıl performans gösterdiğini özetlemektedir. 1000 Şehir Yarışması'nın bir parçası olarak, sağlık ve sürdürülebilirliği teşvik eden kentsel tasarım ve ulaşım özelliklerinin mekansal dağılımını inceledik. Haritalar, kentsel tasarım ve ulaşım özelliklerinin {city_name} genelindeki dağılımını gösteriyor ve sağlıklı ve sürdürülebilir ortamlar yaratmaya yönelik müdahalelerden en fazla fayda sağlayabilecek alanları belirliyor.</t>
-  </si>
-  <si>
-    <t>500 metre (m) içindeki olanaklara erişimi olan nüfusun yüzdesi</t>
-  </si>
-  <si>
-    <t>Yürünebilirlik ve varış noktasına erişim</t>
-  </si>
-  <si>
-    <t>Kamu politikaları, sağlıklı ve sürdürülebilir şehirlerin ve mahallelerin tasarımını ve yaratılmasını desteklemek için gereklidir. 1000 Şehir Mücadelesi Politikası Kontrol Listesi, sağlıklı ve sürdürülebilir şehirlere yönelik kanıt ve ilkelerle uyumlu politikaların varlığını ve kalitesini değerlendirmek için kullanıldı.</t>
-  </si>
-  <si>
-    <t>Politika varlığı puanı</t>
-  </si>
-  <si>
     <t>Sağlık ve sürdürülebilirliği destekleyen kent ve ulaşım politikalarının varlığı</t>
   </si>
   <si>
-    <t>Politika kalite puanı</t>
-  </si>
-  <si>
-    <t>Sağlıklı şehirlere ilişkin kanıtlarla uyumlu ölçülebilir politikalar için politika kalitesi derecelendirmesi</t>
-  </si>
-  <si>
-    <t>Şehir planlama gereksinimleri</t>
-  </si>
-  <si>
-    <t>Yürünebilir mahalleler, toplu taşıma hizmetleri de dahil olmak üzere yerel olanakların yeterli şekilde sağlanmasını desteklemek için yeterli ancak aşırı olmayan nüfus yoğunluğuna sahip olmaları yoluyla aktif, sağlıklı ve sürdürülebilir yaşam tarzları için fırsatlar sağlar. Ayrıca varış noktalarına yakın ve rahat erişim sağlamak için karma arazi kullanımlarına ve iyi bağlantılı sokaklara sahiptirler. Yüksek kaliteli yaya altyapısı ve araç kullanımına yönelik talebin yönetilmesi yoluyla trafiğin azaltılması, ulaşım için yürümeyi de teşvik edebilir.</t>
-  </si>
-  <si>
     <t>Yürünebilirlik eşitsizlikleri</t>
   </si>
   <si>
     <t>Kutu 1: Uluslararası 25 şehri kapsayan Lancet Küresel Sağlık Serisi araştırması</t>
   </si>
   <si>
-    <t>1000 Şehir Mücadelesi, kentsel tasarım, ulaşım ve sağlıkla ilgili 2022 Lancet Küresel Sağlık Serisinde özetlenen şehirlerin sağlığını ve sürdürülebilirliğini değerlendirmeye yönelik yöntemleri genişletiyor. 19 ülke ve 6 kıtadaki 25 farklı şehir için politika ve mekansal göstergeler birden fazla dilde hesaplandı, analiz edildi ve raporlandı. Bu şehirler karşılaştırmalar için yararlı bir referans sağlar ancak uluslararası düzeydeki tüm şehirleri temsil eden bir örnek değildir. Daha fazla ayrıntı için lütfen Kentsel tasarım, ulaşım ve sağlıkla ilgili 2022 Lancet Küresel Sağlık Serisine bakın (https://www.thelancet.com/series/urban-design-2022).</t>
-  </si>
-  <si>
-    <t>Yürümeyi teşvik edecek kentsel tasarım eşikleri</t>
-  </si>
-  <si>
-    <t>2022 Lancet Küresel Sağlık Serisi, ulaşım amacıyla herhangi bir yürüyüşe katılma olasılığının en az %80 olması için, ortalama bir kentsel mahallenin en az 5700 kişilik km² nüfus yoğunluğuna ve yaklaşık olarak km² başına en az 100 kavşakta sokak bağlantısına ihtiyaç duyacağını ortaya çıkardı. ve bağlama bağlı olarak. Ön kanıtlar, km² başına 250'nin üzerindeki cadde kavşak yoğunluğunun ve aşırı yoğun mahallelerin (km² başına &gt; 15.000 kişi) fiziksel aktivite açısından azalan faydalara sahip olabileceğini gösterdi. Bu gelecekteki araştırmalar için önemli bir konudur.</t>
-  </si>
-  <si>
-    <t>Ulaşım için herhangi bir yürüyüşe katılma olasılığı</t>
-  </si>
-  <si>
-    <t>km² başına 5.700 kişi</t>
-  </si>
-  <si>
-    <t>Km² başına 100 kavşak</t>
-  </si>
-  <si>
-    <t>hedef eşik</t>
-  </si>
-  <si>
-    <t>Politika belirlendi</t>
-  </si>
-  <si>
-    <t>Sağlıklı şehirler kanıtlarıyla uyumludur</t>
-  </si>
-  <si>
     <t>Ölçülebilir hedef</t>
   </si>
   <si>
     <t>Kanıta dayalı eşik</t>
   </si>
   <si>
-    <t>Anahtar: Evet ✔ Hayır ✘ Karışık ✔/✘ Uygulanamaz -</t>
-  </si>
-  <si>
     <t>Sağlık ve sürdürülebilirlik için entegre şehir planlama politikaları</t>
   </si>
   <si>
-    <t>Arazi kullanımı, ulaşım, konut, parklar, ekonomik kalkınma ve altyapı dahil olmak üzere birçok sektör sağlıklı ve sürdürülebilir şehirler yaratmaya dahil oluyor. Sektörler arasında politika uyumu sağlamak için entegre planlama gereklidir. Sağlık hususlarının ulaşım ve kentsel politikalara dahil edilmesi ve aktif ve toplu taşıma yatırımlarına öncelik verilmesi gerekmektedir.</t>
-  </si>
-  <si>
-    <t>Sağlık odaklı eylemlerle ulaştırma politikası</t>
-  </si>
-  <si>
-    <t>Sağlık odaklı eylemlerle kentsel politika</t>
-  </si>
-  <si>
-    <t>Kentsel/ulaşım politikasında Sağlık Etki Değerlendirmesi gereklilikleri</t>
-  </si>
-  <si>
-    <t>Kent/ulaşım politikası açıkça entegre şehir planlamasını hedefliyor</t>
-  </si>
-  <si>
-    <t>Farklı ulaşım modlarına yönelik hükümet harcamalarına ilişkin kamuya açık bilgiler</t>
-  </si>
-  <si>
-    <t>Yürünebilirlik ve varış noktasına erişim politikaları</t>
-  </si>
-  <si>
-    <t>Sokak bağlantı gereksinimleri</t>
-  </si>
-  <si>
-    <t>Araba kullanımını caydırmak için park kısıtlamaları</t>
-  </si>
-  <si>
-    <t>Trafik güvenliği gereksinimleri</t>
-  </si>
-  <si>
     <t>Yaya altyapısının sağlanması</t>
   </si>
   <si>
     <t>Bisiklet altyapısının sağlanması</t>
   </si>
   <si>
-    <t>Yürüyüşe katılım hedefleri</t>
-  </si>
-  <si>
-    <t>Bisiklete katılım hedefleri</t>
-  </si>
-  <si>
-    <t>Konut yoğunluğu gereksinimleri</t>
-  </si>
-  <si>
-    <t>Sıfırdan konut geliştirmenin sınırları</t>
-  </si>
-  <si>
-    <t>Muhafaza türleri/boyutlarının karışımı</t>
-  </si>
-  <si>
     <t>Günlük yaşam için yerel destinasyonların karışımı</t>
   </si>
   <si>
     <t>Günlük yaşam destinasyonlarına yakın mesafe</t>
   </si>
   <si>
-    <t>İstihdam dağıtım gereksinimleri</t>
-  </si>
-  <si>
-    <t>İşlerin konuta oranı</t>
-  </si>
-  <si>
     <t>Sağlıklı gıda ortamları</t>
   </si>
   <si>
@@ -12184,69 +11974,18 @@
     <t>Kentsel hava kalitesi ve doğaya dayalı çözüm politikaları</t>
   </si>
   <si>
-    <t>Hava kirliliğini sınırlamaya yönelik ulaştırma politikaları</t>
-  </si>
-  <si>
-    <t>Hava kirliliğine maruz kalmayı azaltmaya yönelik arazi kullanım politikaları</t>
-  </si>
-  <si>
-    <t>Ağaç örtüsü ve kentsel yeşillendirme gereksinimleri</t>
-  </si>
-  <si>
-    <t>Kentsel biyolojik çeşitliliğin korunması ve geliştirilmesi</t>
-  </si>
-  <si>
-    <t>İklim felaketi riskinin azaltılması</t>
-  </si>
-  <si>
-    <t>İklim değişikliği karşısında yapılı çevrelerin, sıcak hava dalgaları, su baskını, orman yangınları/kontrolsüz yangınlar ve aşırı fırtınalar gibi giderek sıklaşan ve ciddileşen aşırı hava olaylarının sağlık üzerindeki etkilerini azaltacak şekilde tasarlanması gerekiyor.</t>
-  </si>
-  <si>
-    <t>Uyum ve afet riskini azaltma stratejileri</t>
-  </si>
-  <si>
     <t>Toplu taşıma politikası</t>
   </si>
   <si>
     <t>İstihdam ve hizmetlere toplu taşıma erişimi için gereklilikler</t>
   </si>
   <si>
-    <t>Toplu taşıma erişimi için minimum gereksinimler</t>
-  </si>
-  <si>
     <t>Toplu taşıma kullanımına yönelik hedefler</t>
   </si>
   <si>
-    <t>Kamuya açık alan politikası</t>
-  </si>
-  <si>
-    <t>Kamuya açık alan erişimi için minimum gereksinimler</t>
-  </si>
-  <si>
     <t>Toplu taşıma erişimi</t>
   </si>
   <si>
-    <t>Kamuya açık alan erişimi</t>
-  </si>
-  <si>
-    <t>Sık toplu taşıma araçlarına kolay erişim, sağlıklı ve sürdürülebilir ulaşım sistemlerinin temel belirleyicisidir. Konut ve istihdama yakın toplu taşıma, toplu taşıma yolculuklarının tür payını arttırır, böylece ulaşımla ilgili yürümeyi teşvik eder; bölgesel işlere ve hizmetlere erişim sunmak; sağlığın, ekonomik kalkınmanın ve sosyal kapsayıcılığın iyileştirilmesi; ve kirliliğin ve karbon emisyonlarının azaltılması. Hizmetlerin sıklığı, istasyon veya durakların yakınlığının yanı sıra toplu taşıma kullanımını da teşvik etmektedir.</t>
-  </si>
-  <si>
-    <t>Yüksek kaliteli kamusal açık alanlara yerel erişim, rekreasyonel fiziksel aktiviteyi ve zihinsel sağlığı destekler. Yakındaki halka açık alanlar keyifli, çekici ortamlar yaratıyor, şehrin serinlemesine yardımcı oluyor ve biyolojik çeşitliliği koruyor. Şehirler yoğunlaşıp özel açık alanlar azaldıkça, daha fazla kamusal açık alan sağlanması nüfus sağlığı açısından kritik önem taşıyor. Evlerin 400 m yakınında halka açık açık alanların bulunması yürümeyi teşvik edebilir. Daha büyük parklara erişim de önemli olabilir.</t>
-  </si>
-  <si>
-    <t>Arazi kullanımı ve ulaşım politikaları, hava kirliliğinin sınırlandırılmasında kilit bir rol oynamakta olup sağlık ve sürdürülebilirlik açısından birçok fayda sağlamaktadır. Kentsel yeşillendirme ve kentsel biyolojik çeşitliliğin korunmasını da içeren doğa temelli çözümler, doğayla teması artırarak ruh sağlığına fayda sağlıyor. Yeşil alanlar ve bitki örtüsü şehirleri serinletebilir ve aşırı sıcağa karşı dayanıklılık oluşturmaya yardımcı olabilir.</t>
-  </si>
-  <si>
-    <t>Yalnızca örnek rapor. Analiz ve raporlama amacıyla kendi çalışma bölgenizi tanımlamak için, yapılandırma/bölgeler klasöründeki örnek .yml dosyasını kopyalayıp düzenleyin. Konfigürasyon ve analizin ardından politika ve/veya mekânsal gösterge raporları, adresindeki talimatlara göre oluşturulabilir.</t>
-  </si>
-  <si>
-    <t>Verilerin ve yöntemlerin tüm ayrıntıları şu adreste mevcuttur:</t>
-  </si>
-  <si>
-    <t>Nüfus verileri</t>
-  </si>
-  <si>
     <t>Kentsel sınırlar</t>
   </si>
   <si>
@@ -12262,25 +12001,13 @@
     <t>Özet</t>
   </si>
   <si>
-    <t>Şehrinize ilişkin sonuçları inceledikten sonra, bölge yapılandırma dosyasındaki her yapılandırılmış dil için "özet" metnini değiştirerek bağlamsallaştırılmış bir özet sağlayın.</t>
-  </si>
-  <si>
     <t>Bu çalışma Creative Commons CC BY-NC Atıf-GayriTicari 4.0 Uluslararası Lisansı kapsamında lisanslanmıştır.</t>
   </si>
   <si>
-    <t>Şehir ekibi üyeleri: {author_names}</t>
-  </si>
-  <si>
-    <t>Bir metin düzenleyici kullanarak bölge yapılandırma raporlama ayarlarını düzenleyerek yazar adları ekleyin</t>
-  </si>
-  <si>
     <t>Rapor tasarımı ve düzenleme: {editor_names}</t>
   </si>
   <si>
     <t>Çeviri: {translation_names}</t>
-  </si>
-  <si>
-    <t>Tarafından yürütülen politika incelemesi</t>
   </si>
   <si>
     <t>fr</t>
@@ -13627,9 +13354,6 @@
     <t>இந்த நகர்ப்புறத்தில் உள்ள சமூக-பொருளாதார மக்கள்தொகை பண்புகள் மற்றும் முக்கிய சுகாதார சவால்கள் மற்றும் ஏற்றத்தாழ்வுகளை முன்னிலைப்படுத்த பிராந்திய உள்ளமைவு கோப்பின் 'மக்கள்தொகை மற்றும் சுகாதார சமபங்கு' பகுதியைத் திருத்தவும்.</t>
   </si>
   <si>
-    <t>Bu kentsel alanda mevcut olan sosyo-ekonomik demografik özellikleri ve temel sağlık sorunlarını ve eşitsizlikleri vurgulamak için bölge yapılandırma dosyasının 'Demografi ve sağlık eşitliği' bölümünü düzenleyin.</t>
-  </si>
-  <si>
     <t>Chỉnh sửa phần 'Nhân khẩu học và công bằng sức khỏe' trong tệp cấu hình khu vực để làm nổi bật các đặc điểm nhân khẩu học kinh tế xã hội cũng như những thách thức và bất bình đẳng chính về sức khỏe hiện có ở khu vực thành thị này.</t>
   </si>
   <si>
@@ -15319,6 +15043,294 @@
   </si>
   <si>
     <t>Kimihiro Hino</t>
+  </si>
+  <si>
+    <t>Hüseyin Küçükali</t>
+  </si>
+  <si>
+    <t>Huseyin Kucukali</t>
+  </si>
+  <si>
+    <t>1000 Şehir Meydan Okuması raporu</t>
+  </si>
+  <si>
+    <t>Sağlıklı ve sürdürülebilir şehirler için politika göstergeleri ve mekansal göstergeler</t>
+  </si>
+  <si>
+    <t>İdari kademeler</t>
+  </si>
+  <si>
+    <t>Çevresel afetlerle ilgili bağlam</t>
+  </si>
+  <si>
+    <t>Çalışma bölgenizin arka plan bilgilerini sağlamak için bölge yapılandırma dosyasını düzenleyin. Lütfen konumu, tarihi ve topografyayı kısaca özetleyin.</t>
+  </si>
+  <si>
+    <t>{city_name} için şu idari kademelerdeki politikalar incelendi: {policy_checklist_levels}.</t>
+  </si>
+  <si>
+    <t>Bu kentsel alana ait sosyoekonomik ve demografik özellikleri ile başlıca sağlık sorunları ve eşitsizliklerini vurgulamak için bölge yapılandırma dosyasının 'Demografi ve sağlık eşitliği' bölümünü düzenleyin.</t>
+  </si>
+  <si>
+    <t>Bu şehirdeki kentsel sağlık eşitsizlikleri ve coğrafya ile ilgili diğer hususları veya bulguların yorumlanmasını etkileyebilecek veriye ilişkin hususları ayrıntılarıyla belirtin.</t>
+  </si>
+  <si>
+    <t>Devlet</t>
+  </si>
+  <si>
+    <t>Orman/çalı yangınları</t>
+  </si>
+  <si>
+    <t>Sıcak hava dalgaları</t>
+  </si>
+  <si>
+    <t>Aşırı soğuklar</t>
+  </si>
+  <si>
+    <t>Siklonlar</t>
+  </si>
+  <si>
+    <t>Bu raporda {city_name} nüfusu için mekansal göstergeleri hesaplamak için kullanılan çalışma bölgesi, aşağıdaki haritada taralı olarak gösterilmiştir.</t>
+  </si>
+  <si>
+    <t>Harita lejantı</t>
+  </si>
+  <si>
+    <t>Gıda marketi</t>
+  </si>
+  <si>
+    <t>Kamuya açık herhangi bir alan</t>
+  </si>
+  <si>
+    <t>Kamuya açık geniş alan</t>
+  </si>
+  <si>
+    <t>Düzenli hizmet veren toplu taşıma</t>
+  </si>
+  <si>
+    <t>Mahalle yürünebilirliği, uluslararası 25 şehre kıyasla</t>
+  </si>
+  <si>
+    <t>Hayır</t>
+  </si>
+  <si>
+    <t>{city_name} nüfusunun {percent} kadarı, toplu taşımaya 500 metre mesafede yaşamaktadır</t>
+  </si>
+  <si>
+    <t>{city_name} nüfusunun {percent} kadarı, 500 metre mesafede bulunan ve hafta içi ortalama en az 20 dakikada bir sıklıkta hizmet veren toplu taşıma imkanına sahip</t>
+  </si>
+  <si>
+    <t>{city_name} nüfusunun {percent} kadarı, kamuya açık en az 15 dönümlük bir alana 500 metre yakında yaşamaktadır</t>
+  </si>
+  <si>
+    <t>{city_name} nüfusunun {percent} kadarı, nüfus yoğunluğu itibarıyla ulaşım amaçlı yürüme olasılığının %80 olduğu mahallelerde yaşıyor ({per_unit} {n} kişi)</t>
+  </si>
+  <si>
+    <t>{city_name} nüfusunun {percent} kadarı, sokak kavşak yoğunluğu itibarıyla ulaşım amaçlı yürüme olasılığının %80 olduğu mahallelerde yaşıyor ({per_unit} {n} kavşak)</t>
+  </si>
+  <si>
+    <t>{city_name} nüfusunun {percent} kadarı, yürünebilirlik puanı uluslararası 25 şehrin ortanca değerinin altında olan mahallelerde yaşıyor (Kutu 1)</t>
+  </si>
+  <si>
+    <t>Tespit edilen politikalar</t>
+  </si>
+  <si>
+    <t>Uluslararası 25 şehir için ortanca ve çeyreklikler arası aralık (Kutu 1)</t>
+  </si>
+  <si>
+    <t>Bu raporda yer alan mekansal dağılım haritaları, {config[population][name]} nüfus tahminleri bulunan alanlara ait sonuçları göstermektedir.</t>
+  </si>
+  <si>
+    <t>Lütfen bu şehir için canlı ve yürünebilir bir caddeyi veya kamusal alanı gösteren yüksek çözünürlüklü bir 'manşet fotoğrafı' ekleyin. İdeal olarak JPG formatında, 21:10 boyutlarında (ör. 2100x1000 piksel) olmalıdır.</t>
+  </si>
+  <si>
+    <t>Lütfen bu şehir için canlı ve yürünebilir bir caddeyi veya kamusal alanı gösteren yüksek çözünürlüklü bir 'manşet fotoğrafı' ekleyin. İdeal olarak JPG formatında, 1:1 boyutlarında (ör. 1000x1000 piksel) olmalıdır.</t>
+  </si>
+  <si>
+    <t>Bu raporda, {city_name} şehrinin sağlıklı ve sürdürülebilir şehirlerin mekansal ve politika göstergeleri açısından durumunu özetlenmiştir. 1000 Şehir Meydan Okuması kapsamında sağlık ve sürdürülebilirliği teşvik eden şehir planlama politikalarının varlığı ve kalitesi incelenmiştir. Rapordaki bulgular yerel şehir politikalarında yapılması gereken değişikliklere yol gösterebilir.</t>
+  </si>
+  <si>
+    <t>Bu raporda, {city_name} şehrinin sağlıklı ve sürdürülebilir şehirlerin mekansal ve politika göstergeleri açısından durumunu özetlenmiştir. 1000 Şehir Meydan Okuması kapsamında kentsel tasarım ve ulaşım özelliklerinin mekansal dağılımı incelenmiştir. Haritalar, kentsel tasarım ve ulaşım özelliklerinin {city_name} genelindeki dağılımını göstermekte, sağlıklı ve sürdürülebilir ortamlar oluşturmaya yönelik müdahalelerden en fazla fayda sağlayabilecek alanları tespit etmektedir.</t>
+  </si>
+  <si>
+    <t>500 metre (m) içinde imkanlara erişimi olan nüfusun yüzdesi</t>
+  </si>
+  <si>
+    <t>Yürünebilirlik ve destinasyon erişimi</t>
+  </si>
+  <si>
+    <t>Kamu politikaları, sağlıklı ve sürdürülebilir şehirlerin ve mahallelerin tasarımını ve oluşturulmasını desteklemek için gereklidir. 1000 Şehir Meydan Okuması Politika Kontrol Listesi, sağlıklı ve sürdürülebilir şehirlere yönelik kanıt ve ilkelerle uyumlu politikaların varlığını ve kalitesini değerlendirmek için kullanılmıştır.</t>
+  </si>
+  <si>
+    <t>Politika varlığı skoru</t>
+  </si>
+  <si>
+    <t>Politika kalite skoru</t>
+  </si>
+  <si>
+    <t>Politikaların sağlıklı şehirlere ilişkin bilimsel kanıtlarla uygunluğu ve ölçülebilirliği</t>
+  </si>
+  <si>
+    <t>Şehir planlama ihtiyaçları</t>
+  </si>
+  <si>
+    <t>Yürünebilir mahalleler, aktif, sağlıklı ve sürdürülebilir yaşam tarzları için fırsatlar sağlar. Bunun için toplu taşıma hizmetleri de dahil olmak üzere yerel imkanların sağlanması için yeterli ancak aşırı olmayan bir nüfus yoğunluğuna sahiptirler. Ayrıca destinasyonlara yakın ve rahat erişim sağlamak için karma arazi kullanımlarına ve iyi bağlantılı sokaklara sahiptirler. Yüksek kaliteli yaya altyapısı ve araba kullanımına yönelik talebin yönetilmesi yoluyla trafiğin azaltılması, ulaşım için yürümeyi de teşvik edebilir.</t>
+  </si>
+  <si>
+    <t>Yürümeyi teşvik eden kentsel tasarım eşikleri</t>
+  </si>
+  <si>
+    <t>2022 Lancet Küresel Sağlık Serisi, ulaşım amacıyla yürüme olasılığının en az %80 olması için, yaklaşık ve bağlama göre değişmekle birlikte, ortalama bir kentsel mahallenin en az 5700 kişi/km² nüfus yoğunluğuna ve en az 100 kavşak/km² sokak bağlantısına ihtiyaç duyacağını ortaya koymuştur. Ön kanıtlar, km² başına 250'nin üzerindeki sokak kavşak yoğunluğunun ve aşırı yoğun mahallelerin (&gt; 15.000 kişi/km²) fiziksel aktivite faydalarını azaltabileceğini göstermektedir. Bu gelecek araştırmalar için önemli bir konudur.</t>
+  </si>
+  <si>
+    <t>Ulaşım amaçlı yürüme olasılığı</t>
+  </si>
+  <si>
+    <t>5.700 kişi/km²</t>
+  </si>
+  <si>
+    <t>100 kavşak/km²</t>
+  </si>
+  <si>
+    <t>hedef eşik değer</t>
+  </si>
+  <si>
+    <t>Politika mevcut</t>
+  </si>
+  <si>
+    <t>Sağlıklı şehir kanıtlarıyla uyumlu</t>
+  </si>
+  <si>
+    <t>İşaretler: Evet ✔ Hayır ✘ Karma ✔/✘ Uygulanamaz -</t>
+  </si